--- a/DD-Add_student.xlsx
+++ b/DD-Add_student.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="17" r:id="rId1"/>
@@ -2174,9 +2174,6 @@
     <t>半角文字 Halfwidth</t>
   </si>
   <si>
-    <t>Full name cannot be less than 3 characters and more than 25 characters!</t>
-  </si>
-  <si>
     <t>{1} cannot be left blank!</t>
   </si>
   <si>
@@ -2200,6 +2197,9 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>Fullname must between 3-25 characters!</t>
   </si>
 </sst>
 </file>
@@ -3795,6 +3795,90 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3912,140 +3996,20 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="39" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4064,6 +4028,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4092,20 +4059,44 @@
     <xf numFmtId="14" fontId="13" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="39" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4115,6 +4106,15 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4155,6 +4155,12 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4190,12 +4196,6 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6127,758 +6127,758 @@
       <c r="AQ4" s="3"/>
     </row>
     <row r="5" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A5" s="296" t="s">
+      <c r="A5" s="257" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="297"/>
-      <c r="C5" s="297"/>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
-      <c r="F5" s="297"/>
-      <c r="G5" s="297"/>
-      <c r="H5" s="297"/>
-      <c r="I5" s="297"/>
-      <c r="J5" s="297"/>
-      <c r="K5" s="297"/>
-      <c r="L5" s="297"/>
-      <c r="M5" s="297"/>
-      <c r="N5" s="297"/>
-      <c r="O5" s="297"/>
-      <c r="P5" s="297"/>
-      <c r="Q5" s="297"/>
-      <c r="R5" s="297"/>
-      <c r="S5" s="297"/>
-      <c r="T5" s="297"/>
-      <c r="U5" s="297"/>
-      <c r="V5" s="297"/>
-      <c r="W5" s="297"/>
-      <c r="X5" s="297"/>
-      <c r="Y5" s="297"/>
-      <c r="Z5" s="297"/>
-      <c r="AA5" s="297"/>
-      <c r="AB5" s="298"/>
-      <c r="AC5" s="305" t="s">
+      <c r="B5" s="258"/>
+      <c r="C5" s="258"/>
+      <c r="D5" s="258"/>
+      <c r="E5" s="258"/>
+      <c r="F5" s="258"/>
+      <c r="G5" s="258"/>
+      <c r="H5" s="258"/>
+      <c r="I5" s="258"/>
+      <c r="J5" s="258"/>
+      <c r="K5" s="258"/>
+      <c r="L5" s="258"/>
+      <c r="M5" s="258"/>
+      <c r="N5" s="258"/>
+      <c r="O5" s="258"/>
+      <c r="P5" s="258"/>
+      <c r="Q5" s="258"/>
+      <c r="R5" s="258"/>
+      <c r="S5" s="258"/>
+      <c r="T5" s="258"/>
+      <c r="U5" s="258"/>
+      <c r="V5" s="258"/>
+      <c r="W5" s="258"/>
+      <c r="X5" s="258"/>
+      <c r="Y5" s="258"/>
+      <c r="Z5" s="258"/>
+      <c r="AA5" s="258"/>
+      <c r="AB5" s="259"/>
+      <c r="AC5" s="266" t="s">
         <v>261</v>
       </c>
-      <c r="AD5" s="305"/>
-      <c r="AE5" s="305"/>
-      <c r="AF5" s="305"/>
-      <c r="AG5" s="305"/>
-      <c r="AH5" s="305" t="s">
+      <c r="AD5" s="266"/>
+      <c r="AE5" s="266"/>
+      <c r="AF5" s="266"/>
+      <c r="AG5" s="266"/>
+      <c r="AH5" s="266" t="s">
         <v>262</v>
       </c>
-      <c r="AI5" s="305"/>
-      <c r="AJ5" s="305"/>
-      <c r="AK5" s="305"/>
-      <c r="AL5" s="305"/>
-      <c r="AM5" s="306" t="s">
+      <c r="AI5" s="266"/>
+      <c r="AJ5" s="266"/>
+      <c r="AK5" s="266"/>
+      <c r="AL5" s="266"/>
+      <c r="AM5" s="267" t="s">
         <v>263</v>
       </c>
-      <c r="AN5" s="307"/>
-      <c r="AO5" s="307"/>
-      <c r="AP5" s="307"/>
-      <c r="AQ5" s="308"/>
+      <c r="AN5" s="268"/>
+      <c r="AO5" s="268"/>
+      <c r="AP5" s="268"/>
+      <c r="AQ5" s="269"/>
     </row>
     <row r="6" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A6" s="299"/>
-      <c r="B6" s="300"/>
-      <c r="C6" s="300"/>
-      <c r="D6" s="300"/>
-      <c r="E6" s="300"/>
-      <c r="F6" s="300"/>
-      <c r="G6" s="300"/>
-      <c r="H6" s="300"/>
-      <c r="I6" s="300"/>
-      <c r="J6" s="300"/>
-      <c r="K6" s="300"/>
-      <c r="L6" s="300"/>
-      <c r="M6" s="300"/>
-      <c r="N6" s="300"/>
-      <c r="O6" s="300"/>
-      <c r="P6" s="300"/>
-      <c r="Q6" s="300"/>
-      <c r="R6" s="300"/>
-      <c r="S6" s="300"/>
-      <c r="T6" s="300"/>
-      <c r="U6" s="300"/>
-      <c r="V6" s="300"/>
-      <c r="W6" s="300"/>
-      <c r="X6" s="300"/>
-      <c r="Y6" s="300"/>
-      <c r="Z6" s="300"/>
-      <c r="AA6" s="300"/>
-      <c r="AB6" s="301"/>
-      <c r="AC6" s="309">
+      <c r="A6" s="260"/>
+      <c r="B6" s="261"/>
+      <c r="C6" s="261"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
+      <c r="G6" s="261"/>
+      <c r="H6" s="261"/>
+      <c r="I6" s="261"/>
+      <c r="J6" s="261"/>
+      <c r="K6" s="261"/>
+      <c r="L6" s="261"/>
+      <c r="M6" s="261"/>
+      <c r="N6" s="261"/>
+      <c r="O6" s="261"/>
+      <c r="P6" s="261"/>
+      <c r="Q6" s="261"/>
+      <c r="R6" s="261"/>
+      <c r="S6" s="261"/>
+      <c r="T6" s="261"/>
+      <c r="U6" s="261"/>
+      <c r="V6" s="261"/>
+      <c r="W6" s="261"/>
+      <c r="X6" s="261"/>
+      <c r="Y6" s="261"/>
+      <c r="Z6" s="261"/>
+      <c r="AA6" s="261"/>
+      <c r="AB6" s="262"/>
+      <c r="AC6" s="270">
         <v>44503</v>
       </c>
-      <c r="AD6" s="310"/>
-      <c r="AE6" s="310"/>
-      <c r="AF6" s="310"/>
-      <c r="AG6" s="311"/>
-      <c r="AH6" s="309"/>
-      <c r="AI6" s="310"/>
-      <c r="AJ6" s="310"/>
-      <c r="AK6" s="310"/>
-      <c r="AL6" s="311"/>
-      <c r="AM6" s="309"/>
-      <c r="AN6" s="310"/>
-      <c r="AO6" s="310"/>
-      <c r="AP6" s="310"/>
-      <c r="AQ6" s="311"/>
+      <c r="AD6" s="271"/>
+      <c r="AE6" s="271"/>
+      <c r="AF6" s="271"/>
+      <c r="AG6" s="272"/>
+      <c r="AH6" s="270"/>
+      <c r="AI6" s="271"/>
+      <c r="AJ6" s="271"/>
+      <c r="AK6" s="271"/>
+      <c r="AL6" s="272"/>
+      <c r="AM6" s="270"/>
+      <c r="AN6" s="271"/>
+      <c r="AO6" s="271"/>
+      <c r="AP6" s="271"/>
+      <c r="AQ6" s="272"/>
     </row>
     <row r="7" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A7" s="299"/>
-      <c r="B7" s="300"/>
-      <c r="C7" s="300"/>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="300"/>
-      <c r="J7" s="300"/>
-      <c r="K7" s="300"/>
-      <c r="L7" s="300"/>
-      <c r="M7" s="300"/>
-      <c r="N7" s="300"/>
-      <c r="O7" s="300"/>
-      <c r="P7" s="300"/>
-      <c r="Q7" s="300"/>
-      <c r="R7" s="300"/>
-      <c r="S7" s="300"/>
-      <c r="T7" s="300"/>
-      <c r="U7" s="300"/>
-      <c r="V7" s="300"/>
-      <c r="W7" s="300"/>
-      <c r="X7" s="300"/>
-      <c r="Y7" s="300"/>
-      <c r="Z7" s="300"/>
-      <c r="AA7" s="300"/>
-      <c r="AB7" s="301"/>
-      <c r="AC7" s="312" t="s">
+      <c r="A7" s="260"/>
+      <c r="B7" s="261"/>
+      <c r="C7" s="261"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="261"/>
+      <c r="F7" s="261"/>
+      <c r="G7" s="261"/>
+      <c r="H7" s="261"/>
+      <c r="I7" s="261"/>
+      <c r="J7" s="261"/>
+      <c r="K7" s="261"/>
+      <c r="L7" s="261"/>
+      <c r="M7" s="261"/>
+      <c r="N7" s="261"/>
+      <c r="O7" s="261"/>
+      <c r="P7" s="261"/>
+      <c r="Q7" s="261"/>
+      <c r="R7" s="261"/>
+      <c r="S7" s="261"/>
+      <c r="T7" s="261"/>
+      <c r="U7" s="261"/>
+      <c r="V7" s="261"/>
+      <c r="W7" s="261"/>
+      <c r="X7" s="261"/>
+      <c r="Y7" s="261"/>
+      <c r="Z7" s="261"/>
+      <c r="AA7" s="261"/>
+      <c r="AB7" s="262"/>
+      <c r="AC7" s="273" t="s">
         <v>267</v>
       </c>
-      <c r="AD7" s="313"/>
-      <c r="AE7" s="313"/>
-      <c r="AF7" s="313"/>
-      <c r="AG7" s="314"/>
-      <c r="AH7" s="312"/>
-      <c r="AI7" s="313"/>
-      <c r="AJ7" s="313"/>
-      <c r="AK7" s="313"/>
-      <c r="AL7" s="314"/>
-      <c r="AM7" s="318"/>
-      <c r="AN7" s="319"/>
-      <c r="AO7" s="319"/>
-      <c r="AP7" s="319"/>
-      <c r="AQ7" s="320"/>
+      <c r="AD7" s="274"/>
+      <c r="AE7" s="274"/>
+      <c r="AF7" s="274"/>
+      <c r="AG7" s="275"/>
+      <c r="AH7" s="273"/>
+      <c r="AI7" s="274"/>
+      <c r="AJ7" s="274"/>
+      <c r="AK7" s="274"/>
+      <c r="AL7" s="275"/>
+      <c r="AM7" s="279"/>
+      <c r="AN7" s="280"/>
+      <c r="AO7" s="280"/>
+      <c r="AP7" s="280"/>
+      <c r="AQ7" s="281"/>
     </row>
     <row r="8" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A8" s="302"/>
-      <c r="B8" s="303"/>
-      <c r="C8" s="303"/>
-      <c r="D8" s="303"/>
-      <c r="E8" s="303"/>
-      <c r="F8" s="303"/>
-      <c r="G8" s="303"/>
-      <c r="H8" s="303"/>
-      <c r="I8" s="303"/>
-      <c r="J8" s="303"/>
-      <c r="K8" s="303"/>
-      <c r="L8" s="303"/>
-      <c r="M8" s="303"/>
-      <c r="N8" s="303"/>
-      <c r="O8" s="303"/>
-      <c r="P8" s="303"/>
-      <c r="Q8" s="303"/>
-      <c r="R8" s="303"/>
-      <c r="S8" s="303"/>
-      <c r="T8" s="303"/>
-      <c r="U8" s="303"/>
-      <c r="V8" s="303"/>
-      <c r="W8" s="303"/>
-      <c r="X8" s="303"/>
-      <c r="Y8" s="303"/>
-      <c r="Z8" s="303"/>
-      <c r="AA8" s="303"/>
-      <c r="AB8" s="304"/>
-      <c r="AC8" s="315"/>
-      <c r="AD8" s="316"/>
-      <c r="AE8" s="316"/>
-      <c r="AF8" s="316"/>
-      <c r="AG8" s="317"/>
-      <c r="AH8" s="315"/>
-      <c r="AI8" s="316"/>
-      <c r="AJ8" s="316"/>
-      <c r="AK8" s="316"/>
-      <c r="AL8" s="317"/>
-      <c r="AM8" s="321"/>
-      <c r="AN8" s="322"/>
-      <c r="AO8" s="322"/>
-      <c r="AP8" s="322"/>
-      <c r="AQ8" s="323"/>
+      <c r="A8" s="263"/>
+      <c r="B8" s="264"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="264"/>
+      <c r="G8" s="264"/>
+      <c r="H8" s="264"/>
+      <c r="I8" s="264"/>
+      <c r="J8" s="264"/>
+      <c r="K8" s="264"/>
+      <c r="L8" s="264"/>
+      <c r="M8" s="264"/>
+      <c r="N8" s="264"/>
+      <c r="O8" s="264"/>
+      <c r="P8" s="264"/>
+      <c r="Q8" s="264"/>
+      <c r="R8" s="264"/>
+      <c r="S8" s="264"/>
+      <c r="T8" s="264"/>
+      <c r="U8" s="264"/>
+      <c r="V8" s="264"/>
+      <c r="W8" s="264"/>
+      <c r="X8" s="264"/>
+      <c r="Y8" s="264"/>
+      <c r="Z8" s="264"/>
+      <c r="AA8" s="264"/>
+      <c r="AB8" s="265"/>
+      <c r="AC8" s="276"/>
+      <c r="AD8" s="277"/>
+      <c r="AE8" s="277"/>
+      <c r="AF8" s="277"/>
+      <c r="AG8" s="278"/>
+      <c r="AH8" s="276"/>
+      <c r="AI8" s="277"/>
+      <c r="AJ8" s="277"/>
+      <c r="AK8" s="277"/>
+      <c r="AL8" s="278"/>
+      <c r="AM8" s="282"/>
+      <c r="AN8" s="283"/>
+      <c r="AO8" s="283"/>
+      <c r="AP8" s="283"/>
+      <c r="AQ8" s="284"/>
     </row>
     <row r="9" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A9" s="266" t="s">
+      <c r="A9" s="294" t="s">
         <v>255</v>
       </c>
-      <c r="B9" s="267"/>
-      <c r="C9" s="267"/>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="268"/>
-      <c r="I9" s="275" t="s">
+      <c r="B9" s="295"/>
+      <c r="C9" s="295"/>
+      <c r="D9" s="295"/>
+      <c r="E9" s="295"/>
+      <c r="F9" s="295"/>
+      <c r="G9" s="295"/>
+      <c r="H9" s="296"/>
+      <c r="I9" s="303" t="s">
         <v>268</v>
       </c>
-      <c r="J9" s="275"/>
-      <c r="K9" s="275"/>
-      <c r="L9" s="275"/>
-      <c r="M9" s="275"/>
-      <c r="N9" s="275"/>
-      <c r="O9" s="275"/>
-      <c r="P9" s="275"/>
-      <c r="Q9" s="275"/>
-      <c r="R9" s="275"/>
-      <c r="S9" s="275"/>
-      <c r="T9" s="275"/>
-      <c r="U9" s="275"/>
-      <c r="V9" s="275"/>
-      <c r="W9" s="275"/>
-      <c r="X9" s="275"/>
-      <c r="Y9" s="275"/>
-      <c r="Z9" s="275"/>
-      <c r="AA9" s="275"/>
-      <c r="AB9" s="275"/>
-      <c r="AC9" s="275"/>
-      <c r="AD9" s="275"/>
-      <c r="AE9" s="275"/>
-      <c r="AF9" s="275"/>
-      <c r="AG9" s="275"/>
-      <c r="AH9" s="275"/>
-      <c r="AI9" s="275"/>
-      <c r="AJ9" s="275"/>
-      <c r="AK9" s="275"/>
-      <c r="AL9" s="275"/>
-      <c r="AM9" s="275"/>
-      <c r="AN9" s="275"/>
-      <c r="AO9" s="275"/>
-      <c r="AP9" s="275"/>
-      <c r="AQ9" s="276"/>
+      <c r="J9" s="303"/>
+      <c r="K9" s="303"/>
+      <c r="L9" s="303"/>
+      <c r="M9" s="303"/>
+      <c r="N9" s="303"/>
+      <c r="O9" s="303"/>
+      <c r="P9" s="303"/>
+      <c r="Q9" s="303"/>
+      <c r="R9" s="303"/>
+      <c r="S9" s="303"/>
+      <c r="T9" s="303"/>
+      <c r="U9" s="303"/>
+      <c r="V9" s="303"/>
+      <c r="W9" s="303"/>
+      <c r="X9" s="303"/>
+      <c r="Y9" s="303"/>
+      <c r="Z9" s="303"/>
+      <c r="AA9" s="303"/>
+      <c r="AB9" s="303"/>
+      <c r="AC9" s="303"/>
+      <c r="AD9" s="303"/>
+      <c r="AE9" s="303"/>
+      <c r="AF9" s="303"/>
+      <c r="AG9" s="303"/>
+      <c r="AH9" s="303"/>
+      <c r="AI9" s="303"/>
+      <c r="AJ9" s="303"/>
+      <c r="AK9" s="303"/>
+      <c r="AL9" s="303"/>
+      <c r="AM9" s="303"/>
+      <c r="AN9" s="303"/>
+      <c r="AO9" s="303"/>
+      <c r="AP9" s="303"/>
+      <c r="AQ9" s="304"/>
     </row>
     <row r="10" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A10" s="269"/>
-      <c r="B10" s="270"/>
-      <c r="C10" s="270"/>
-      <c r="D10" s="270"/>
-      <c r="E10" s="270"/>
-      <c r="F10" s="270"/>
-      <c r="G10" s="270"/>
-      <c r="H10" s="271"/>
-      <c r="I10" s="277"/>
-      <c r="J10" s="277"/>
-      <c r="K10" s="277"/>
-      <c r="L10" s="277"/>
-      <c r="M10" s="277"/>
-      <c r="N10" s="277"/>
-      <c r="O10" s="277"/>
-      <c r="P10" s="277"/>
-      <c r="Q10" s="277"/>
-      <c r="R10" s="277"/>
-      <c r="S10" s="277"/>
-      <c r="T10" s="277"/>
-      <c r="U10" s="277"/>
-      <c r="V10" s="277"/>
-      <c r="W10" s="277"/>
-      <c r="X10" s="277"/>
-      <c r="Y10" s="277"/>
-      <c r="Z10" s="277"/>
-      <c r="AA10" s="277"/>
-      <c r="AB10" s="277"/>
-      <c r="AC10" s="277"/>
-      <c r="AD10" s="277"/>
-      <c r="AE10" s="277"/>
-      <c r="AF10" s="277"/>
-      <c r="AG10" s="277"/>
-      <c r="AH10" s="277"/>
-      <c r="AI10" s="277"/>
-      <c r="AJ10" s="277"/>
-      <c r="AK10" s="277"/>
-      <c r="AL10" s="277"/>
-      <c r="AM10" s="277"/>
-      <c r="AN10" s="277"/>
-      <c r="AO10" s="277"/>
-      <c r="AP10" s="277"/>
-      <c r="AQ10" s="278"/>
+      <c r="A10" s="297"/>
+      <c r="B10" s="298"/>
+      <c r="C10" s="298"/>
+      <c r="D10" s="298"/>
+      <c r="E10" s="298"/>
+      <c r="F10" s="298"/>
+      <c r="G10" s="298"/>
+      <c r="H10" s="299"/>
+      <c r="I10" s="305"/>
+      <c r="J10" s="305"/>
+      <c r="K10" s="305"/>
+      <c r="L10" s="305"/>
+      <c r="M10" s="305"/>
+      <c r="N10" s="305"/>
+      <c r="O10" s="305"/>
+      <c r="P10" s="305"/>
+      <c r="Q10" s="305"/>
+      <c r="R10" s="305"/>
+      <c r="S10" s="305"/>
+      <c r="T10" s="305"/>
+      <c r="U10" s="305"/>
+      <c r="V10" s="305"/>
+      <c r="W10" s="305"/>
+      <c r="X10" s="305"/>
+      <c r="Y10" s="305"/>
+      <c r="Z10" s="305"/>
+      <c r="AA10" s="305"/>
+      <c r="AB10" s="305"/>
+      <c r="AC10" s="305"/>
+      <c r="AD10" s="305"/>
+      <c r="AE10" s="305"/>
+      <c r="AF10" s="305"/>
+      <c r="AG10" s="305"/>
+      <c r="AH10" s="305"/>
+      <c r="AI10" s="305"/>
+      <c r="AJ10" s="305"/>
+      <c r="AK10" s="305"/>
+      <c r="AL10" s="305"/>
+      <c r="AM10" s="305"/>
+      <c r="AN10" s="305"/>
+      <c r="AO10" s="305"/>
+      <c r="AP10" s="305"/>
+      <c r="AQ10" s="306"/>
     </row>
     <row r="11" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A11" s="272"/>
-      <c r="B11" s="273"/>
-      <c r="C11" s="273"/>
-      <c r="D11" s="273"/>
-      <c r="E11" s="273"/>
-      <c r="F11" s="273"/>
-      <c r="G11" s="273"/>
-      <c r="H11" s="274"/>
-      <c r="I11" s="279"/>
-      <c r="J11" s="279"/>
-      <c r="K11" s="279"/>
-      <c r="L11" s="279"/>
-      <c r="M11" s="279"/>
-      <c r="N11" s="279"/>
-      <c r="O11" s="279"/>
-      <c r="P11" s="279"/>
-      <c r="Q11" s="279"/>
-      <c r="R11" s="279"/>
-      <c r="S11" s="279"/>
-      <c r="T11" s="279"/>
-      <c r="U11" s="279"/>
-      <c r="V11" s="279"/>
-      <c r="W11" s="279"/>
-      <c r="X11" s="279"/>
-      <c r="Y11" s="279"/>
-      <c r="Z11" s="279"/>
-      <c r="AA11" s="279"/>
-      <c r="AB11" s="279"/>
-      <c r="AC11" s="279"/>
-      <c r="AD11" s="279"/>
-      <c r="AE11" s="279"/>
-      <c r="AF11" s="279"/>
-      <c r="AG11" s="279"/>
-      <c r="AH11" s="279"/>
-      <c r="AI11" s="279"/>
-      <c r="AJ11" s="279"/>
-      <c r="AK11" s="279"/>
-      <c r="AL11" s="279"/>
-      <c r="AM11" s="279"/>
-      <c r="AN11" s="279"/>
-      <c r="AO11" s="279"/>
-      <c r="AP11" s="279"/>
-      <c r="AQ11" s="280"/>
+      <c r="A11" s="300"/>
+      <c r="B11" s="301"/>
+      <c r="C11" s="301"/>
+      <c r="D11" s="301"/>
+      <c r="E11" s="301"/>
+      <c r="F11" s="301"/>
+      <c r="G11" s="301"/>
+      <c r="H11" s="302"/>
+      <c r="I11" s="307"/>
+      <c r="J11" s="307"/>
+      <c r="K11" s="307"/>
+      <c r="L11" s="307"/>
+      <c r="M11" s="307"/>
+      <c r="N11" s="307"/>
+      <c r="O11" s="307"/>
+      <c r="P11" s="307"/>
+      <c r="Q11" s="307"/>
+      <c r="R11" s="307"/>
+      <c r="S11" s="307"/>
+      <c r="T11" s="307"/>
+      <c r="U11" s="307"/>
+      <c r="V11" s="307"/>
+      <c r="W11" s="307"/>
+      <c r="X11" s="307"/>
+      <c r="Y11" s="307"/>
+      <c r="Z11" s="307"/>
+      <c r="AA11" s="307"/>
+      <c r="AB11" s="307"/>
+      <c r="AC11" s="307"/>
+      <c r="AD11" s="307"/>
+      <c r="AE11" s="307"/>
+      <c r="AF11" s="307"/>
+      <c r="AG11" s="307"/>
+      <c r="AH11" s="307"/>
+      <c r="AI11" s="307"/>
+      <c r="AJ11" s="307"/>
+      <c r="AK11" s="307"/>
+      <c r="AL11" s="307"/>
+      <c r="AM11" s="307"/>
+      <c r="AN11" s="307"/>
+      <c r="AO11" s="307"/>
+      <c r="AP11" s="307"/>
+      <c r="AQ11" s="308"/>
     </row>
     <row r="12" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A12" s="266" t="s">
+      <c r="A12" s="294" t="s">
         <v>256</v>
       </c>
-      <c r="B12" s="267"/>
-      <c r="C12" s="267"/>
-      <c r="D12" s="267"/>
-      <c r="E12" s="267"/>
-      <c r="F12" s="267"/>
-      <c r="G12" s="267"/>
-      <c r="H12" s="268"/>
-      <c r="I12" s="281" t="s">
+      <c r="B12" s="295"/>
+      <c r="C12" s="295"/>
+      <c r="D12" s="295"/>
+      <c r="E12" s="295"/>
+      <c r="F12" s="295"/>
+      <c r="G12" s="295"/>
+      <c r="H12" s="296"/>
+      <c r="I12" s="309" t="s">
         <v>185</v>
       </c>
-      <c r="J12" s="275"/>
-      <c r="K12" s="275"/>
-      <c r="L12" s="275"/>
-      <c r="M12" s="275"/>
-      <c r="N12" s="275"/>
-      <c r="O12" s="275"/>
-      <c r="P12" s="275"/>
-      <c r="Q12" s="275"/>
-      <c r="R12" s="275"/>
-      <c r="S12" s="275"/>
-      <c r="T12" s="275"/>
-      <c r="U12" s="275"/>
-      <c r="V12" s="275"/>
-      <c r="W12" s="275"/>
-      <c r="X12" s="275"/>
-      <c r="Y12" s="275"/>
-      <c r="Z12" s="275"/>
-      <c r="AA12" s="275"/>
-      <c r="AB12" s="275"/>
-      <c r="AC12" s="275"/>
-      <c r="AD12" s="275"/>
-      <c r="AE12" s="275"/>
-      <c r="AF12" s="275"/>
-      <c r="AG12" s="275"/>
-      <c r="AH12" s="275"/>
-      <c r="AI12" s="275"/>
-      <c r="AJ12" s="275"/>
-      <c r="AK12" s="275"/>
-      <c r="AL12" s="275"/>
-      <c r="AM12" s="275"/>
-      <c r="AN12" s="275"/>
-      <c r="AO12" s="275"/>
-      <c r="AP12" s="275"/>
-      <c r="AQ12" s="276"/>
+      <c r="J12" s="303"/>
+      <c r="K12" s="303"/>
+      <c r="L12" s="303"/>
+      <c r="M12" s="303"/>
+      <c r="N12" s="303"/>
+      <c r="O12" s="303"/>
+      <c r="P12" s="303"/>
+      <c r="Q12" s="303"/>
+      <c r="R12" s="303"/>
+      <c r="S12" s="303"/>
+      <c r="T12" s="303"/>
+      <c r="U12" s="303"/>
+      <c r="V12" s="303"/>
+      <c r="W12" s="303"/>
+      <c r="X12" s="303"/>
+      <c r="Y12" s="303"/>
+      <c r="Z12" s="303"/>
+      <c r="AA12" s="303"/>
+      <c r="AB12" s="303"/>
+      <c r="AC12" s="303"/>
+      <c r="AD12" s="303"/>
+      <c r="AE12" s="303"/>
+      <c r="AF12" s="303"/>
+      <c r="AG12" s="303"/>
+      <c r="AH12" s="303"/>
+      <c r="AI12" s="303"/>
+      <c r="AJ12" s="303"/>
+      <c r="AK12" s="303"/>
+      <c r="AL12" s="303"/>
+      <c r="AM12" s="303"/>
+      <c r="AN12" s="303"/>
+      <c r="AO12" s="303"/>
+      <c r="AP12" s="303"/>
+      <c r="AQ12" s="304"/>
     </row>
     <row r="13" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A13" s="269"/>
-      <c r="B13" s="270"/>
-      <c r="C13" s="270"/>
-      <c r="D13" s="270"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="270"/>
-      <c r="H13" s="271"/>
-      <c r="I13" s="282"/>
-      <c r="J13" s="277"/>
-      <c r="K13" s="277"/>
-      <c r="L13" s="277"/>
-      <c r="M13" s="277"/>
-      <c r="N13" s="277"/>
-      <c r="O13" s="277"/>
-      <c r="P13" s="277"/>
-      <c r="Q13" s="277"/>
-      <c r="R13" s="277"/>
-      <c r="S13" s="277"/>
-      <c r="T13" s="277"/>
-      <c r="U13" s="277"/>
-      <c r="V13" s="277"/>
-      <c r="W13" s="277"/>
-      <c r="X13" s="277"/>
-      <c r="Y13" s="277"/>
-      <c r="Z13" s="277"/>
-      <c r="AA13" s="277"/>
-      <c r="AB13" s="277"/>
-      <c r="AC13" s="277"/>
-      <c r="AD13" s="277"/>
-      <c r="AE13" s="277"/>
-      <c r="AF13" s="277"/>
-      <c r="AG13" s="277"/>
-      <c r="AH13" s="277"/>
-      <c r="AI13" s="277"/>
-      <c r="AJ13" s="277"/>
-      <c r="AK13" s="277"/>
-      <c r="AL13" s="277"/>
-      <c r="AM13" s="277"/>
-      <c r="AN13" s="277"/>
-      <c r="AO13" s="277"/>
-      <c r="AP13" s="277"/>
-      <c r="AQ13" s="278"/>
+      <c r="A13" s="297"/>
+      <c r="B13" s="298"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="299"/>
+      <c r="I13" s="310"/>
+      <c r="J13" s="305"/>
+      <c r="K13" s="305"/>
+      <c r="L13" s="305"/>
+      <c r="M13" s="305"/>
+      <c r="N13" s="305"/>
+      <c r="O13" s="305"/>
+      <c r="P13" s="305"/>
+      <c r="Q13" s="305"/>
+      <c r="R13" s="305"/>
+      <c r="S13" s="305"/>
+      <c r="T13" s="305"/>
+      <c r="U13" s="305"/>
+      <c r="V13" s="305"/>
+      <c r="W13" s="305"/>
+      <c r="X13" s="305"/>
+      <c r="Y13" s="305"/>
+      <c r="Z13" s="305"/>
+      <c r="AA13" s="305"/>
+      <c r="AB13" s="305"/>
+      <c r="AC13" s="305"/>
+      <c r="AD13" s="305"/>
+      <c r="AE13" s="305"/>
+      <c r="AF13" s="305"/>
+      <c r="AG13" s="305"/>
+      <c r="AH13" s="305"/>
+      <c r="AI13" s="305"/>
+      <c r="AJ13" s="305"/>
+      <c r="AK13" s="305"/>
+      <c r="AL13" s="305"/>
+      <c r="AM13" s="305"/>
+      <c r="AN13" s="305"/>
+      <c r="AO13" s="305"/>
+      <c r="AP13" s="305"/>
+      <c r="AQ13" s="306"/>
     </row>
     <row r="14" spans="1:43" ht="15" customHeight="1">
-      <c r="A14" s="272"/>
-      <c r="B14" s="273"/>
-      <c r="C14" s="273"/>
-      <c r="D14" s="273"/>
-      <c r="E14" s="273"/>
-      <c r="F14" s="273"/>
-      <c r="G14" s="273"/>
-      <c r="H14" s="274"/>
-      <c r="I14" s="283"/>
-      <c r="J14" s="279"/>
-      <c r="K14" s="279"/>
-      <c r="L14" s="279"/>
-      <c r="M14" s="279"/>
-      <c r="N14" s="279"/>
-      <c r="O14" s="279"/>
-      <c r="P14" s="279"/>
-      <c r="Q14" s="279"/>
-      <c r="R14" s="279"/>
-      <c r="S14" s="279"/>
-      <c r="T14" s="279"/>
-      <c r="U14" s="279"/>
-      <c r="V14" s="279"/>
-      <c r="W14" s="279"/>
-      <c r="X14" s="279"/>
-      <c r="Y14" s="279"/>
-      <c r="Z14" s="279"/>
-      <c r="AA14" s="279"/>
-      <c r="AB14" s="279"/>
-      <c r="AC14" s="279"/>
-      <c r="AD14" s="279"/>
-      <c r="AE14" s="279"/>
-      <c r="AF14" s="279"/>
-      <c r="AG14" s="279"/>
-      <c r="AH14" s="279"/>
-      <c r="AI14" s="279"/>
-      <c r="AJ14" s="279"/>
-      <c r="AK14" s="279"/>
-      <c r="AL14" s="279"/>
-      <c r="AM14" s="279"/>
-      <c r="AN14" s="279"/>
-      <c r="AO14" s="279"/>
-      <c r="AP14" s="279"/>
-      <c r="AQ14" s="280"/>
+      <c r="A14" s="300"/>
+      <c r="B14" s="301"/>
+      <c r="C14" s="301"/>
+      <c r="D14" s="301"/>
+      <c r="E14" s="301"/>
+      <c r="F14" s="301"/>
+      <c r="G14" s="301"/>
+      <c r="H14" s="302"/>
+      <c r="I14" s="311"/>
+      <c r="J14" s="307"/>
+      <c r="K14" s="307"/>
+      <c r="L14" s="307"/>
+      <c r="M14" s="307"/>
+      <c r="N14" s="307"/>
+      <c r="O14" s="307"/>
+      <c r="P14" s="307"/>
+      <c r="Q14" s="307"/>
+      <c r="R14" s="307"/>
+      <c r="S14" s="307"/>
+      <c r="T14" s="307"/>
+      <c r="U14" s="307"/>
+      <c r="V14" s="307"/>
+      <c r="W14" s="307"/>
+      <c r="X14" s="307"/>
+      <c r="Y14" s="307"/>
+      <c r="Z14" s="307"/>
+      <c r="AA14" s="307"/>
+      <c r="AB14" s="307"/>
+      <c r="AC14" s="307"/>
+      <c r="AD14" s="307"/>
+      <c r="AE14" s="307"/>
+      <c r="AF14" s="307"/>
+      <c r="AG14" s="307"/>
+      <c r="AH14" s="307"/>
+      <c r="AI14" s="307"/>
+      <c r="AJ14" s="307"/>
+      <c r="AK14" s="307"/>
+      <c r="AL14" s="307"/>
+      <c r="AM14" s="307"/>
+      <c r="AN14" s="307"/>
+      <c r="AO14" s="307"/>
+      <c r="AP14" s="307"/>
+      <c r="AQ14" s="308"/>
     </row>
     <row r="15" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A15" s="266" t="s">
+      <c r="A15" s="294" t="s">
         <v>257</v>
       </c>
-      <c r="B15" s="267"/>
-      <c r="C15" s="267"/>
-      <c r="D15" s="267"/>
-      <c r="E15" s="267"/>
-      <c r="F15" s="267"/>
-      <c r="G15" s="267"/>
-      <c r="H15" s="268"/>
-      <c r="I15" s="281" t="s">
+      <c r="B15" s="295"/>
+      <c r="C15" s="295"/>
+      <c r="D15" s="295"/>
+      <c r="E15" s="295"/>
+      <c r="F15" s="295"/>
+      <c r="G15" s="295"/>
+      <c r="H15" s="296"/>
+      <c r="I15" s="309" t="s">
         <v>265</v>
       </c>
-      <c r="J15" s="275"/>
-      <c r="K15" s="275"/>
-      <c r="L15" s="275"/>
-      <c r="M15" s="275"/>
-      <c r="N15" s="275"/>
-      <c r="O15" s="275"/>
-      <c r="P15" s="275"/>
-      <c r="Q15" s="275"/>
-      <c r="R15" s="275"/>
-      <c r="S15" s="275"/>
-      <c r="T15" s="275"/>
-      <c r="U15" s="275"/>
-      <c r="V15" s="275"/>
-      <c r="W15" s="275"/>
-      <c r="X15" s="275"/>
-      <c r="Y15" s="275"/>
-      <c r="Z15" s="275"/>
-      <c r="AA15" s="275"/>
-      <c r="AB15" s="275"/>
-      <c r="AC15" s="275"/>
-      <c r="AD15" s="275"/>
-      <c r="AE15" s="275"/>
-      <c r="AF15" s="275"/>
-      <c r="AG15" s="275"/>
-      <c r="AH15" s="275"/>
-      <c r="AI15" s="275"/>
-      <c r="AJ15" s="275"/>
-      <c r="AK15" s="275"/>
-      <c r="AL15" s="275"/>
-      <c r="AM15" s="275"/>
-      <c r="AN15" s="275"/>
-      <c r="AO15" s="275"/>
-      <c r="AP15" s="275"/>
-      <c r="AQ15" s="276"/>
+      <c r="J15" s="303"/>
+      <c r="K15" s="303"/>
+      <c r="L15" s="303"/>
+      <c r="M15" s="303"/>
+      <c r="N15" s="303"/>
+      <c r="O15" s="303"/>
+      <c r="P15" s="303"/>
+      <c r="Q15" s="303"/>
+      <c r="R15" s="303"/>
+      <c r="S15" s="303"/>
+      <c r="T15" s="303"/>
+      <c r="U15" s="303"/>
+      <c r="V15" s="303"/>
+      <c r="W15" s="303"/>
+      <c r="X15" s="303"/>
+      <c r="Y15" s="303"/>
+      <c r="Z15" s="303"/>
+      <c r="AA15" s="303"/>
+      <c r="AB15" s="303"/>
+      <c r="AC15" s="303"/>
+      <c r="AD15" s="303"/>
+      <c r="AE15" s="303"/>
+      <c r="AF15" s="303"/>
+      <c r="AG15" s="303"/>
+      <c r="AH15" s="303"/>
+      <c r="AI15" s="303"/>
+      <c r="AJ15" s="303"/>
+      <c r="AK15" s="303"/>
+      <c r="AL15" s="303"/>
+      <c r="AM15" s="303"/>
+      <c r="AN15" s="303"/>
+      <c r="AO15" s="303"/>
+      <c r="AP15" s="303"/>
+      <c r="AQ15" s="304"/>
     </row>
     <row r="16" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A16" s="269"/>
-      <c r="B16" s="270"/>
-      <c r="C16" s="270"/>
-      <c r="D16" s="270"/>
-      <c r="E16" s="270"/>
-      <c r="F16" s="270"/>
-      <c r="G16" s="270"/>
-      <c r="H16" s="271"/>
-      <c r="I16" s="282"/>
-      <c r="J16" s="277"/>
-      <c r="K16" s="277"/>
-      <c r="L16" s="277"/>
-      <c r="M16" s="277"/>
-      <c r="N16" s="277"/>
-      <c r="O16" s="277"/>
-      <c r="P16" s="277"/>
-      <c r="Q16" s="277"/>
-      <c r="R16" s="277"/>
-      <c r="S16" s="277"/>
-      <c r="T16" s="277"/>
-      <c r="U16" s="277"/>
-      <c r="V16" s="277"/>
-      <c r="W16" s="277"/>
-      <c r="X16" s="277"/>
-      <c r="Y16" s="277"/>
-      <c r="Z16" s="277"/>
-      <c r="AA16" s="277"/>
-      <c r="AB16" s="277"/>
-      <c r="AC16" s="277"/>
-      <c r="AD16" s="277"/>
-      <c r="AE16" s="277"/>
-      <c r="AF16" s="277"/>
-      <c r="AG16" s="277"/>
-      <c r="AH16" s="277"/>
-      <c r="AI16" s="277"/>
-      <c r="AJ16" s="277"/>
-      <c r="AK16" s="277"/>
-      <c r="AL16" s="277"/>
-      <c r="AM16" s="277"/>
-      <c r="AN16" s="277"/>
-      <c r="AO16" s="277"/>
-      <c r="AP16" s="277"/>
-      <c r="AQ16" s="278"/>
+      <c r="A16" s="297"/>
+      <c r="B16" s="298"/>
+      <c r="C16" s="298"/>
+      <c r="D16" s="298"/>
+      <c r="E16" s="298"/>
+      <c r="F16" s="298"/>
+      <c r="G16" s="298"/>
+      <c r="H16" s="299"/>
+      <c r="I16" s="310"/>
+      <c r="J16" s="305"/>
+      <c r="K16" s="305"/>
+      <c r="L16" s="305"/>
+      <c r="M16" s="305"/>
+      <c r="N16" s="305"/>
+      <c r="O16" s="305"/>
+      <c r="P16" s="305"/>
+      <c r="Q16" s="305"/>
+      <c r="R16" s="305"/>
+      <c r="S16" s="305"/>
+      <c r="T16" s="305"/>
+      <c r="U16" s="305"/>
+      <c r="V16" s="305"/>
+      <c r="W16" s="305"/>
+      <c r="X16" s="305"/>
+      <c r="Y16" s="305"/>
+      <c r="Z16" s="305"/>
+      <c r="AA16" s="305"/>
+      <c r="AB16" s="305"/>
+      <c r="AC16" s="305"/>
+      <c r="AD16" s="305"/>
+      <c r="AE16" s="305"/>
+      <c r="AF16" s="305"/>
+      <c r="AG16" s="305"/>
+      <c r="AH16" s="305"/>
+      <c r="AI16" s="305"/>
+      <c r="AJ16" s="305"/>
+      <c r="AK16" s="305"/>
+      <c r="AL16" s="305"/>
+      <c r="AM16" s="305"/>
+      <c r="AN16" s="305"/>
+      <c r="AO16" s="305"/>
+      <c r="AP16" s="305"/>
+      <c r="AQ16" s="306"/>
     </row>
     <row r="17" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A17" s="272"/>
-      <c r="B17" s="273"/>
-      <c r="C17" s="273"/>
-      <c r="D17" s="273"/>
-      <c r="E17" s="273"/>
-      <c r="F17" s="273"/>
-      <c r="G17" s="273"/>
-      <c r="H17" s="274"/>
-      <c r="I17" s="283"/>
-      <c r="J17" s="279"/>
-      <c r="K17" s="279"/>
-      <c r="L17" s="279"/>
-      <c r="M17" s="279"/>
-      <c r="N17" s="279"/>
-      <c r="O17" s="279"/>
-      <c r="P17" s="279"/>
-      <c r="Q17" s="279"/>
-      <c r="R17" s="279"/>
-      <c r="S17" s="279"/>
-      <c r="T17" s="279"/>
-      <c r="U17" s="279"/>
-      <c r="V17" s="279"/>
-      <c r="W17" s="279"/>
-      <c r="X17" s="279"/>
-      <c r="Y17" s="279"/>
-      <c r="Z17" s="279"/>
-      <c r="AA17" s="279"/>
-      <c r="AB17" s="279"/>
-      <c r="AC17" s="279"/>
-      <c r="AD17" s="279"/>
-      <c r="AE17" s="279"/>
-      <c r="AF17" s="279"/>
-      <c r="AG17" s="279"/>
-      <c r="AH17" s="279"/>
-      <c r="AI17" s="279"/>
-      <c r="AJ17" s="279"/>
-      <c r="AK17" s="279"/>
-      <c r="AL17" s="279"/>
-      <c r="AM17" s="279"/>
-      <c r="AN17" s="279"/>
-      <c r="AO17" s="279"/>
-      <c r="AP17" s="279"/>
-      <c r="AQ17" s="280"/>
+      <c r="A17" s="300"/>
+      <c r="B17" s="301"/>
+      <c r="C17" s="301"/>
+      <c r="D17" s="301"/>
+      <c r="E17" s="301"/>
+      <c r="F17" s="301"/>
+      <c r="G17" s="301"/>
+      <c r="H17" s="302"/>
+      <c r="I17" s="311"/>
+      <c r="J17" s="307"/>
+      <c r="K17" s="307"/>
+      <c r="L17" s="307"/>
+      <c r="M17" s="307"/>
+      <c r="N17" s="307"/>
+      <c r="O17" s="307"/>
+      <c r="P17" s="307"/>
+      <c r="Q17" s="307"/>
+      <c r="R17" s="307"/>
+      <c r="S17" s="307"/>
+      <c r="T17" s="307"/>
+      <c r="U17" s="307"/>
+      <c r="V17" s="307"/>
+      <c r="W17" s="307"/>
+      <c r="X17" s="307"/>
+      <c r="Y17" s="307"/>
+      <c r="Z17" s="307"/>
+      <c r="AA17" s="307"/>
+      <c r="AB17" s="307"/>
+      <c r="AC17" s="307"/>
+      <c r="AD17" s="307"/>
+      <c r="AE17" s="307"/>
+      <c r="AF17" s="307"/>
+      <c r="AG17" s="307"/>
+      <c r="AH17" s="307"/>
+      <c r="AI17" s="307"/>
+      <c r="AJ17" s="307"/>
+      <c r="AK17" s="307"/>
+      <c r="AL17" s="307"/>
+      <c r="AM17" s="307"/>
+      <c r="AN17" s="307"/>
+      <c r="AO17" s="307"/>
+      <c r="AP17" s="307"/>
+      <c r="AQ17" s="308"/>
     </row>
     <row r="18" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A18" s="266" t="s">
+      <c r="A18" s="294" t="s">
         <v>258</v>
       </c>
-      <c r="B18" s="267"/>
-      <c r="C18" s="267"/>
-      <c r="D18" s="267"/>
-      <c r="E18" s="267"/>
-      <c r="F18" s="267"/>
-      <c r="G18" s="267"/>
-      <c r="H18" s="268"/>
-      <c r="I18" s="284" t="s">
+      <c r="B18" s="295"/>
+      <c r="C18" s="295"/>
+      <c r="D18" s="295"/>
+      <c r="E18" s="295"/>
+      <c r="F18" s="295"/>
+      <c r="G18" s="295"/>
+      <c r="H18" s="296"/>
+      <c r="I18" s="312" t="s">
         <v>259</v>
       </c>
-      <c r="J18" s="285"/>
-      <c r="K18" s="285"/>
-      <c r="L18" s="285"/>
-      <c r="M18" s="285"/>
-      <c r="N18" s="285"/>
-      <c r="O18" s="285"/>
-      <c r="P18" s="285"/>
-      <c r="Q18" s="286"/>
-      <c r="R18" s="287" t="s">
+      <c r="J18" s="313"/>
+      <c r="K18" s="313"/>
+      <c r="L18" s="313"/>
+      <c r="M18" s="313"/>
+      <c r="N18" s="313"/>
+      <c r="O18" s="313"/>
+      <c r="P18" s="313"/>
+      <c r="Q18" s="314"/>
+      <c r="R18" s="315" t="s">
         <v>260</v>
       </c>
-      <c r="S18" s="288"/>
-      <c r="T18" s="288"/>
-      <c r="U18" s="288"/>
-      <c r="V18" s="288"/>
-      <c r="W18" s="288"/>
-      <c r="X18" s="288"/>
-      <c r="Y18" s="288"/>
-      <c r="Z18" s="288"/>
-      <c r="AA18" s="288"/>
-      <c r="AB18" s="288"/>
-      <c r="AC18" s="288"/>
-      <c r="AD18" s="288"/>
-      <c r="AE18" s="288"/>
-      <c r="AF18" s="288"/>
-      <c r="AG18" s="288"/>
-      <c r="AH18" s="288"/>
-      <c r="AI18" s="288"/>
-      <c r="AJ18" s="288"/>
-      <c r="AK18" s="288"/>
-      <c r="AL18" s="288"/>
-      <c r="AM18" s="288"/>
-      <c r="AN18" s="288"/>
-      <c r="AO18" s="288"/>
-      <c r="AP18" s="288"/>
-      <c r="AQ18" s="289"/>
+      <c r="S18" s="316"/>
+      <c r="T18" s="316"/>
+      <c r="U18" s="316"/>
+      <c r="V18" s="316"/>
+      <c r="W18" s="316"/>
+      <c r="X18" s="316"/>
+      <c r="Y18" s="316"/>
+      <c r="Z18" s="316"/>
+      <c r="AA18" s="316"/>
+      <c r="AB18" s="316"/>
+      <c r="AC18" s="316"/>
+      <c r="AD18" s="316"/>
+      <c r="AE18" s="316"/>
+      <c r="AF18" s="316"/>
+      <c r="AG18" s="316"/>
+      <c r="AH18" s="316"/>
+      <c r="AI18" s="316"/>
+      <c r="AJ18" s="316"/>
+      <c r="AK18" s="316"/>
+      <c r="AL18" s="316"/>
+      <c r="AM18" s="316"/>
+      <c r="AN18" s="316"/>
+      <c r="AO18" s="316"/>
+      <c r="AP18" s="316"/>
+      <c r="AQ18" s="317"/>
     </row>
     <row r="19" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A19" s="269"/>
-      <c r="B19" s="270"/>
-      <c r="C19" s="270"/>
-      <c r="D19" s="270"/>
-      <c r="E19" s="270"/>
-      <c r="F19" s="270"/>
-      <c r="G19" s="270"/>
-      <c r="H19" s="271"/>
-      <c r="I19" s="290" t="s">
+      <c r="A19" s="297"/>
+      <c r="B19" s="298"/>
+      <c r="C19" s="298"/>
+      <c r="D19" s="298"/>
+      <c r="E19" s="298"/>
+      <c r="F19" s="298"/>
+      <c r="G19" s="298"/>
+      <c r="H19" s="299"/>
+      <c r="I19" s="318" t="s">
         <v>161</v>
       </c>
-      <c r="J19" s="291"/>
-      <c r="K19" s="291"/>
-      <c r="L19" s="291"/>
-      <c r="M19" s="291"/>
-      <c r="N19" s="291"/>
-      <c r="O19" s="291"/>
-      <c r="P19" s="291"/>
-      <c r="Q19" s="292"/>
-      <c r="R19" s="281" t="s">
+      <c r="J19" s="319"/>
+      <c r="K19" s="319"/>
+      <c r="L19" s="319"/>
+      <c r="M19" s="319"/>
+      <c r="N19" s="319"/>
+      <c r="O19" s="319"/>
+      <c r="P19" s="319"/>
+      <c r="Q19" s="320"/>
+      <c r="R19" s="309" t="s">
         <v>266</v>
       </c>
-      <c r="S19" s="275"/>
-      <c r="T19" s="275"/>
-      <c r="U19" s="275"/>
-      <c r="V19" s="275"/>
-      <c r="W19" s="275"/>
-      <c r="X19" s="275"/>
-      <c r="Y19" s="275"/>
-      <c r="Z19" s="275"/>
-      <c r="AA19" s="275"/>
-      <c r="AB19" s="275"/>
-      <c r="AC19" s="275"/>
-      <c r="AD19" s="275"/>
-      <c r="AE19" s="275"/>
-      <c r="AF19" s="275"/>
-      <c r="AG19" s="275"/>
-      <c r="AH19" s="275"/>
-      <c r="AI19" s="275"/>
-      <c r="AJ19" s="275"/>
-      <c r="AK19" s="275"/>
-      <c r="AL19" s="275"/>
-      <c r="AM19" s="275"/>
-      <c r="AN19" s="275"/>
-      <c r="AO19" s="275"/>
-      <c r="AP19" s="275"/>
-      <c r="AQ19" s="276"/>
+      <c r="S19" s="303"/>
+      <c r="T19" s="303"/>
+      <c r="U19" s="303"/>
+      <c r="V19" s="303"/>
+      <c r="W19" s="303"/>
+      <c r="X19" s="303"/>
+      <c r="Y19" s="303"/>
+      <c r="Z19" s="303"/>
+      <c r="AA19" s="303"/>
+      <c r="AB19" s="303"/>
+      <c r="AC19" s="303"/>
+      <c r="AD19" s="303"/>
+      <c r="AE19" s="303"/>
+      <c r="AF19" s="303"/>
+      <c r="AG19" s="303"/>
+      <c r="AH19" s="303"/>
+      <c r="AI19" s="303"/>
+      <c r="AJ19" s="303"/>
+      <c r="AK19" s="303"/>
+      <c r="AL19" s="303"/>
+      <c r="AM19" s="303"/>
+      <c r="AN19" s="303"/>
+      <c r="AO19" s="303"/>
+      <c r="AP19" s="303"/>
+      <c r="AQ19" s="304"/>
     </row>
     <row r="20" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A20" s="272"/>
-      <c r="B20" s="273"/>
-      <c r="C20" s="273"/>
-      <c r="D20" s="273"/>
-      <c r="E20" s="273"/>
-      <c r="F20" s="273"/>
-      <c r="G20" s="273"/>
-      <c r="H20" s="274"/>
-      <c r="I20" s="293"/>
-      <c r="J20" s="294"/>
-      <c r="K20" s="294"/>
-      <c r="L20" s="294"/>
-      <c r="M20" s="294"/>
-      <c r="N20" s="294"/>
-      <c r="O20" s="294"/>
-      <c r="P20" s="294"/>
-      <c r="Q20" s="295"/>
-      <c r="R20" s="283"/>
-      <c r="S20" s="279"/>
-      <c r="T20" s="279"/>
-      <c r="U20" s="279"/>
-      <c r="V20" s="279"/>
-      <c r="W20" s="279"/>
-      <c r="X20" s="279"/>
-      <c r="Y20" s="279"/>
-      <c r="Z20" s="279"/>
-      <c r="AA20" s="279"/>
-      <c r="AB20" s="279"/>
-      <c r="AC20" s="279"/>
-      <c r="AD20" s="279"/>
-      <c r="AE20" s="279"/>
-      <c r="AF20" s="279"/>
-      <c r="AG20" s="279"/>
-      <c r="AH20" s="279"/>
-      <c r="AI20" s="279"/>
-      <c r="AJ20" s="279"/>
-      <c r="AK20" s="279"/>
-      <c r="AL20" s="279"/>
-      <c r="AM20" s="279"/>
-      <c r="AN20" s="279"/>
-      <c r="AO20" s="279"/>
-      <c r="AP20" s="279"/>
-      <c r="AQ20" s="280"/>
+      <c r="A20" s="300"/>
+      <c r="B20" s="301"/>
+      <c r="C20" s="301"/>
+      <c r="D20" s="301"/>
+      <c r="E20" s="301"/>
+      <c r="F20" s="301"/>
+      <c r="G20" s="301"/>
+      <c r="H20" s="302"/>
+      <c r="I20" s="321"/>
+      <c r="J20" s="322"/>
+      <c r="K20" s="322"/>
+      <c r="L20" s="322"/>
+      <c r="M20" s="322"/>
+      <c r="N20" s="322"/>
+      <c r="O20" s="322"/>
+      <c r="P20" s="322"/>
+      <c r="Q20" s="323"/>
+      <c r="R20" s="311"/>
+      <c r="S20" s="307"/>
+      <c r="T20" s="307"/>
+      <c r="U20" s="307"/>
+      <c r="V20" s="307"/>
+      <c r="W20" s="307"/>
+      <c r="X20" s="307"/>
+      <c r="Y20" s="307"/>
+      <c r="Z20" s="307"/>
+      <c r="AA20" s="307"/>
+      <c r="AB20" s="307"/>
+      <c r="AC20" s="307"/>
+      <c r="AD20" s="307"/>
+      <c r="AE20" s="307"/>
+      <c r="AF20" s="307"/>
+      <c r="AG20" s="307"/>
+      <c r="AH20" s="307"/>
+      <c r="AI20" s="307"/>
+      <c r="AJ20" s="307"/>
+      <c r="AK20" s="307"/>
+      <c r="AL20" s="307"/>
+      <c r="AM20" s="307"/>
+      <c r="AN20" s="307"/>
+      <c r="AO20" s="307"/>
+      <c r="AP20" s="307"/>
+      <c r="AQ20" s="308"/>
     </row>
     <row r="21" spans="1:43" ht="15.65" customHeight="1">
       <c r="A21" s="1"/>
@@ -7151,100 +7151,100 @@
       <c r="AQ26" s="3"/>
     </row>
     <row r="27" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A27" s="260">
+      <c r="A27" s="288">
         <f>MAX('Change log'!C6:F52)</f>
         <v>1.3</v>
       </c>
-      <c r="B27" s="261"/>
-      <c r="C27" s="261"/>
-      <c r="D27" s="261"/>
-      <c r="E27" s="261"/>
-      <c r="F27" s="261"/>
-      <c r="G27" s="261"/>
-      <c r="H27" s="261"/>
-      <c r="I27" s="261"/>
-      <c r="J27" s="261"/>
-      <c r="K27" s="261"/>
-      <c r="L27" s="261"/>
-      <c r="M27" s="261"/>
-      <c r="N27" s="261"/>
-      <c r="O27" s="261"/>
-      <c r="P27" s="261"/>
-      <c r="Q27" s="261"/>
-      <c r="R27" s="261"/>
-      <c r="S27" s="261"/>
-      <c r="T27" s="261"/>
-      <c r="U27" s="261"/>
-      <c r="V27" s="261"/>
-      <c r="W27" s="261"/>
-      <c r="X27" s="261"/>
-      <c r="Y27" s="261"/>
-      <c r="Z27" s="261"/>
-      <c r="AA27" s="261"/>
-      <c r="AB27" s="261"/>
-      <c r="AC27" s="261"/>
-      <c r="AD27" s="261"/>
-      <c r="AE27" s="261"/>
-      <c r="AF27" s="261"/>
-      <c r="AG27" s="261"/>
-      <c r="AH27" s="261"/>
-      <c r="AI27" s="261"/>
-      <c r="AJ27" s="261"/>
-      <c r="AK27" s="261"/>
-      <c r="AL27" s="261"/>
-      <c r="AM27" s="261"/>
-      <c r="AN27" s="261"/>
-      <c r="AO27" s="261"/>
-      <c r="AP27" s="261"/>
-      <c r="AQ27" s="262"/>
+      <c r="B27" s="289"/>
+      <c r="C27" s="289"/>
+      <c r="D27" s="289"/>
+      <c r="E27" s="289"/>
+      <c r="F27" s="289"/>
+      <c r="G27" s="289"/>
+      <c r="H27" s="289"/>
+      <c r="I27" s="289"/>
+      <c r="J27" s="289"/>
+      <c r="K27" s="289"/>
+      <c r="L27" s="289"/>
+      <c r="M27" s="289"/>
+      <c r="N27" s="289"/>
+      <c r="O27" s="289"/>
+      <c r="P27" s="289"/>
+      <c r="Q27" s="289"/>
+      <c r="R27" s="289"/>
+      <c r="S27" s="289"/>
+      <c r="T27" s="289"/>
+      <c r="U27" s="289"/>
+      <c r="V27" s="289"/>
+      <c r="W27" s="289"/>
+      <c r="X27" s="289"/>
+      <c r="Y27" s="289"/>
+      <c r="Z27" s="289"/>
+      <c r="AA27" s="289"/>
+      <c r="AB27" s="289"/>
+      <c r="AC27" s="289"/>
+      <c r="AD27" s="289"/>
+      <c r="AE27" s="289"/>
+      <c r="AF27" s="289"/>
+      <c r="AG27" s="289"/>
+      <c r="AH27" s="289"/>
+      <c r="AI27" s="289"/>
+      <c r="AJ27" s="289"/>
+      <c r="AK27" s="289"/>
+      <c r="AL27" s="289"/>
+      <c r="AM27" s="289"/>
+      <c r="AN27" s="289"/>
+      <c r="AO27" s="289"/>
+      <c r="AP27" s="289"/>
+      <c r="AQ27" s="290"/>
     </row>
     <row r="28" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A28" s="263">
+      <c r="A28" s="291">
         <f>MAX('Change log'!G6:G52)</f>
         <v>44508</v>
       </c>
-      <c r="B28" s="264"/>
-      <c r="C28" s="264"/>
-      <c r="D28" s="264"/>
-      <c r="E28" s="264"/>
-      <c r="F28" s="264"/>
-      <c r="G28" s="264"/>
-      <c r="H28" s="264"/>
-      <c r="I28" s="264"/>
-      <c r="J28" s="264"/>
-      <c r="K28" s="264"/>
-      <c r="L28" s="264"/>
-      <c r="M28" s="264"/>
-      <c r="N28" s="264"/>
-      <c r="O28" s="264"/>
-      <c r="P28" s="264"/>
-      <c r="Q28" s="264"/>
-      <c r="R28" s="264"/>
-      <c r="S28" s="264"/>
-      <c r="T28" s="264"/>
-      <c r="U28" s="264"/>
-      <c r="V28" s="264"/>
-      <c r="W28" s="264"/>
-      <c r="X28" s="264"/>
-      <c r="Y28" s="264"/>
-      <c r="Z28" s="264"/>
-      <c r="AA28" s="264"/>
-      <c r="AB28" s="264"/>
-      <c r="AC28" s="264"/>
-      <c r="AD28" s="264"/>
-      <c r="AE28" s="264"/>
-      <c r="AF28" s="264"/>
-      <c r="AG28" s="264"/>
-      <c r="AH28" s="264"/>
-      <c r="AI28" s="264"/>
-      <c r="AJ28" s="264"/>
-      <c r="AK28" s="264"/>
-      <c r="AL28" s="264"/>
-      <c r="AM28" s="264"/>
-      <c r="AN28" s="264"/>
-      <c r="AO28" s="264"/>
-      <c r="AP28" s="264"/>
-      <c r="AQ28" s="265"/>
+      <c r="B28" s="292"/>
+      <c r="C28" s="292"/>
+      <c r="D28" s="292"/>
+      <c r="E28" s="292"/>
+      <c r="F28" s="292"/>
+      <c r="G28" s="292"/>
+      <c r="H28" s="292"/>
+      <c r="I28" s="292"/>
+      <c r="J28" s="292"/>
+      <c r="K28" s="292"/>
+      <c r="L28" s="292"/>
+      <c r="M28" s="292"/>
+      <c r="N28" s="292"/>
+      <c r="O28" s="292"/>
+      <c r="P28" s="292"/>
+      <c r="Q28" s="292"/>
+      <c r="R28" s="292"/>
+      <c r="S28" s="292"/>
+      <c r="T28" s="292"/>
+      <c r="U28" s="292"/>
+      <c r="V28" s="292"/>
+      <c r="W28" s="292"/>
+      <c r="X28" s="292"/>
+      <c r="Y28" s="292"/>
+      <c r="Z28" s="292"/>
+      <c r="AA28" s="292"/>
+      <c r="AB28" s="292"/>
+      <c r="AC28" s="292"/>
+      <c r="AD28" s="292"/>
+      <c r="AE28" s="292"/>
+      <c r="AF28" s="292"/>
+      <c r="AG28" s="292"/>
+      <c r="AH28" s="292"/>
+      <c r="AI28" s="292"/>
+      <c r="AJ28" s="292"/>
+      <c r="AK28" s="292"/>
+      <c r="AL28" s="292"/>
+      <c r="AM28" s="292"/>
+      <c r="AN28" s="292"/>
+      <c r="AO28" s="292"/>
+      <c r="AP28" s="292"/>
+      <c r="AQ28" s="293"/>
     </row>
     <row r="29" spans="1:43" ht="15.65" customHeight="1">
       <c r="A29" s="89"/>
@@ -7562,51 +7562,51 @@
       <c r="AQ35" s="3"/>
     </row>
     <row r="36" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A36" s="257" t="s">
+      <c r="A36" s="285" t="s">
         <v>190</v>
       </c>
-      <c r="B36" s="258"/>
-      <c r="C36" s="258"/>
-      <c r="D36" s="258"/>
-      <c r="E36" s="258"/>
-      <c r="F36" s="258"/>
-      <c r="G36" s="258"/>
-      <c r="H36" s="258"/>
-      <c r="I36" s="258"/>
-      <c r="J36" s="258"/>
-      <c r="K36" s="258"/>
-      <c r="L36" s="258"/>
-      <c r="M36" s="258"/>
-      <c r="N36" s="258"/>
-      <c r="O36" s="258"/>
-      <c r="P36" s="258"/>
-      <c r="Q36" s="258"/>
-      <c r="R36" s="258"/>
-      <c r="S36" s="258"/>
-      <c r="T36" s="258"/>
-      <c r="U36" s="258"/>
-      <c r="V36" s="258"/>
-      <c r="W36" s="258"/>
-      <c r="X36" s="258"/>
-      <c r="Y36" s="258"/>
-      <c r="Z36" s="258"/>
-      <c r="AA36" s="258"/>
-      <c r="AB36" s="258"/>
-      <c r="AC36" s="258"/>
-      <c r="AD36" s="258"/>
-      <c r="AE36" s="258"/>
-      <c r="AF36" s="258"/>
-      <c r="AG36" s="258"/>
-      <c r="AH36" s="258"/>
-      <c r="AI36" s="258"/>
-      <c r="AJ36" s="258"/>
-      <c r="AK36" s="258"/>
-      <c r="AL36" s="258"/>
-      <c r="AM36" s="258"/>
-      <c r="AN36" s="258"/>
-      <c r="AO36" s="258"/>
-      <c r="AP36" s="258"/>
-      <c r="AQ36" s="259"/>
+      <c r="B36" s="286"/>
+      <c r="C36" s="286"/>
+      <c r="D36" s="286"/>
+      <c r="E36" s="286"/>
+      <c r="F36" s="286"/>
+      <c r="G36" s="286"/>
+      <c r="H36" s="286"/>
+      <c r="I36" s="286"/>
+      <c r="J36" s="286"/>
+      <c r="K36" s="286"/>
+      <c r="L36" s="286"/>
+      <c r="M36" s="286"/>
+      <c r="N36" s="286"/>
+      <c r="O36" s="286"/>
+      <c r="P36" s="286"/>
+      <c r="Q36" s="286"/>
+      <c r="R36" s="286"/>
+      <c r="S36" s="286"/>
+      <c r="T36" s="286"/>
+      <c r="U36" s="286"/>
+      <c r="V36" s="286"/>
+      <c r="W36" s="286"/>
+      <c r="X36" s="286"/>
+      <c r="Y36" s="286"/>
+      <c r="Z36" s="286"/>
+      <c r="AA36" s="286"/>
+      <c r="AB36" s="286"/>
+      <c r="AC36" s="286"/>
+      <c r="AD36" s="286"/>
+      <c r="AE36" s="286"/>
+      <c r="AF36" s="286"/>
+      <c r="AG36" s="286"/>
+      <c r="AH36" s="286"/>
+      <c r="AI36" s="286"/>
+      <c r="AJ36" s="286"/>
+      <c r="AK36" s="286"/>
+      <c r="AL36" s="286"/>
+      <c r="AM36" s="286"/>
+      <c r="AN36" s="286"/>
+      <c r="AO36" s="286"/>
+      <c r="AP36" s="286"/>
+      <c r="AQ36" s="287"/>
     </row>
     <row r="37" spans="1:43" ht="15.65" customHeight="1">
       <c r="A37" s="35"/>
@@ -7755,16 +7755,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A5:AB8"/>
-    <mergeCell ref="AC5:AG5"/>
-    <mergeCell ref="AH5:AL5"/>
-    <mergeCell ref="AM5:AQ5"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="AH6:AL6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AC7:AG8"/>
-    <mergeCell ref="AH7:AL8"/>
-    <mergeCell ref="AM7:AQ8"/>
     <mergeCell ref="A36:AQ36"/>
     <mergeCell ref="A27:AQ27"/>
     <mergeCell ref="A28:AQ28"/>
@@ -7779,6 +7769,16 @@
     <mergeCell ref="R18:AQ18"/>
     <mergeCell ref="I19:Q20"/>
     <mergeCell ref="R19:AQ20"/>
+    <mergeCell ref="A5:AB8"/>
+    <mergeCell ref="AC5:AG5"/>
+    <mergeCell ref="AH5:AL5"/>
+    <mergeCell ref="AM5:AQ5"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="AH6:AL6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AC7:AG8"/>
+    <mergeCell ref="AH7:AL8"/>
+    <mergeCell ref="AM7:AQ8"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="1">
@@ -7817,724 +7817,724 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="342" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="354"/>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="354"/>
-      <c r="F1" s="354"/>
-      <c r="G1" s="354"/>
-      <c r="H1" s="354"/>
-      <c r="I1" s="354" t="s">
+      <c r="B1" s="343"/>
+      <c r="C1" s="343"/>
+      <c r="D1" s="343"/>
+      <c r="E1" s="343"/>
+      <c r="F1" s="343"/>
+      <c r="G1" s="343"/>
+      <c r="H1" s="343"/>
+      <c r="I1" s="343" t="s">
         <v>256</v>
       </c>
-      <c r="J1" s="354"/>
-      <c r="K1" s="354"/>
-      <c r="L1" s="354"/>
-      <c r="M1" s="354"/>
-      <c r="N1" s="354"/>
-      <c r="O1" s="354"/>
-      <c r="P1" s="354"/>
-      <c r="Q1" s="354"/>
-      <c r="R1" s="354"/>
-      <c r="S1" s="354"/>
-      <c r="T1" s="342" t="s">
+      <c r="J1" s="343"/>
+      <c r="K1" s="343"/>
+      <c r="L1" s="343"/>
+      <c r="M1" s="343"/>
+      <c r="N1" s="343"/>
+      <c r="O1" s="343"/>
+      <c r="P1" s="343"/>
+      <c r="Q1" s="343"/>
+      <c r="R1" s="343"/>
+      <c r="S1" s="343"/>
+      <c r="T1" s="330" t="s">
         <v>257</v>
       </c>
-      <c r="U1" s="342"/>
-      <c r="V1" s="342"/>
-      <c r="W1" s="342"/>
-      <c r="X1" s="342"/>
-      <c r="Y1" s="342"/>
-      <c r="Z1" s="342"/>
-      <c r="AA1" s="342" t="s">
+      <c r="U1" s="330"/>
+      <c r="V1" s="330"/>
+      <c r="W1" s="330"/>
+      <c r="X1" s="330"/>
+      <c r="Y1" s="330"/>
+      <c r="Z1" s="330"/>
+      <c r="AA1" s="330" t="s">
         <v>270</v>
       </c>
-      <c r="AB1" s="342"/>
-      <c r="AC1" s="342"/>
-      <c r="AD1" s="342"/>
-      <c r="AE1" s="342"/>
-      <c r="AF1" s="342"/>
-      <c r="AG1" s="342"/>
-      <c r="AH1" s="342"/>
-      <c r="AI1" s="342"/>
-      <c r="AJ1" s="342"/>
-      <c r="AK1" s="342"/>
-      <c r="AL1" s="342"/>
-      <c r="AM1" s="342"/>
-      <c r="AN1" s="342"/>
-      <c r="AO1" s="342"/>
-      <c r="AP1" s="342"/>
-      <c r="AQ1" s="342"/>
-      <c r="AR1" s="342" t="s">
+      <c r="AB1" s="330"/>
+      <c r="AC1" s="330"/>
+      <c r="AD1" s="330"/>
+      <c r="AE1" s="330"/>
+      <c r="AF1" s="330"/>
+      <c r="AG1" s="330"/>
+      <c r="AH1" s="330"/>
+      <c r="AI1" s="330"/>
+      <c r="AJ1" s="330"/>
+      <c r="AK1" s="330"/>
+      <c r="AL1" s="330"/>
+      <c r="AM1" s="330"/>
+      <c r="AN1" s="330"/>
+      <c r="AO1" s="330"/>
+      <c r="AP1" s="330"/>
+      <c r="AQ1" s="330"/>
+      <c r="AR1" s="330" t="s">
         <v>271</v>
       </c>
-      <c r="AS1" s="342"/>
-      <c r="AT1" s="342"/>
-      <c r="AU1" s="342"/>
-      <c r="AV1" s="342"/>
-      <c r="AW1" s="355" t="s">
+      <c r="AS1" s="330"/>
+      <c r="AT1" s="330"/>
+      <c r="AU1" s="330"/>
+      <c r="AV1" s="330"/>
+      <c r="AW1" s="344" t="s">
         <v>261</v>
       </c>
-      <c r="AX1" s="355"/>
-      <c r="AY1" s="342"/>
-      <c r="AZ1" s="342"/>
-      <c r="BA1" s="342"/>
-      <c r="BB1" s="342" t="s">
+      <c r="AX1" s="344"/>
+      <c r="AY1" s="330"/>
+      <c r="AZ1" s="330"/>
+      <c r="BA1" s="330"/>
+      <c r="BB1" s="330" t="s">
         <v>272</v>
       </c>
-      <c r="BC1" s="342"/>
-      <c r="BD1" s="342"/>
-      <c r="BE1" s="342"/>
-      <c r="BF1" s="342"/>
+      <c r="BC1" s="330"/>
+      <c r="BD1" s="330"/>
+      <c r="BE1" s="330"/>
+      <c r="BF1" s="330"/>
     </row>
     <row r="2" spans="1:58" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A2" s="346" t="s">
+      <c r="A2" s="334" t="s">
         <v>273</v>
       </c>
-      <c r="B2" s="346"/>
-      <c r="C2" s="346"/>
-      <c r="D2" s="346"/>
-      <c r="E2" s="346"/>
-      <c r="F2" s="346"/>
-      <c r="G2" s="346"/>
-      <c r="H2" s="346"/>
-      <c r="I2" s="346" t="str">
+      <c r="B2" s="334"/>
+      <c r="C2" s="334"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334"/>
+      <c r="F2" s="334"/>
+      <c r="G2" s="334"/>
+      <c r="H2" s="334"/>
+      <c r="I2" s="334" t="str">
         <f>Cover!I12</f>
         <v>Manage Student</v>
       </c>
-      <c r="J2" s="346"/>
-      <c r="K2" s="346"/>
-      <c r="L2" s="346"/>
-      <c r="M2" s="346"/>
-      <c r="N2" s="346"/>
-      <c r="O2" s="346"/>
-      <c r="P2" s="346"/>
-      <c r="Q2" s="346"/>
-      <c r="R2" s="346"/>
-      <c r="S2" s="346"/>
-      <c r="T2" s="346" t="str">
+      <c r="J2" s="334"/>
+      <c r="K2" s="334"/>
+      <c r="L2" s="334"/>
+      <c r="M2" s="334"/>
+      <c r="N2" s="334"/>
+      <c r="O2" s="334"/>
+      <c r="P2" s="334"/>
+      <c r="Q2" s="334"/>
+      <c r="R2" s="334"/>
+      <c r="S2" s="334"/>
+      <c r="T2" s="334" t="str">
         <f>Cover!I15</f>
         <v>GMO_management_Student</v>
       </c>
-      <c r="U2" s="346"/>
-      <c r="V2" s="346"/>
-      <c r="W2" s="346"/>
-      <c r="X2" s="346"/>
-      <c r="Y2" s="346"/>
-      <c r="Z2" s="346"/>
-      <c r="AA2" s="329" t="str">
+      <c r="U2" s="334"/>
+      <c r="V2" s="334"/>
+      <c r="W2" s="334"/>
+      <c r="X2" s="334"/>
+      <c r="Y2" s="334"/>
+      <c r="Z2" s="334"/>
+      <c r="AA2" s="335" t="str">
         <f>Cover!R19</f>
         <v>Add student</v>
       </c>
-      <c r="AB2" s="329"/>
-      <c r="AC2" s="329"/>
-      <c r="AD2" s="329"/>
-      <c r="AE2" s="329"/>
-      <c r="AF2" s="329"/>
-      <c r="AG2" s="329"/>
-      <c r="AH2" s="329"/>
-      <c r="AI2" s="329"/>
-      <c r="AJ2" s="329"/>
-      <c r="AK2" s="329"/>
-      <c r="AL2" s="329"/>
-      <c r="AM2" s="329"/>
-      <c r="AN2" s="329"/>
-      <c r="AO2" s="329"/>
-      <c r="AP2" s="329"/>
-      <c r="AQ2" s="329"/>
-      <c r="AR2" s="347" t="str">
+      <c r="AB2" s="335"/>
+      <c r="AC2" s="335"/>
+      <c r="AD2" s="335"/>
+      <c r="AE2" s="335"/>
+      <c r="AF2" s="335"/>
+      <c r="AG2" s="335"/>
+      <c r="AH2" s="335"/>
+      <c r="AI2" s="335"/>
+      <c r="AJ2" s="335"/>
+      <c r="AK2" s="335"/>
+      <c r="AL2" s="335"/>
+      <c r="AM2" s="335"/>
+      <c r="AN2" s="335"/>
+      <c r="AO2" s="335"/>
+      <c r="AP2" s="335"/>
+      <c r="AQ2" s="335"/>
+      <c r="AR2" s="336" t="str">
         <f>Cover!I19</f>
         <v>0-0</v>
       </c>
-      <c r="AS2" s="329"/>
-      <c r="AT2" s="329"/>
-      <c r="AU2" s="329"/>
-      <c r="AV2" s="329"/>
-      <c r="AW2" s="348" t="s">
+      <c r="AS2" s="335"/>
+      <c r="AT2" s="335"/>
+      <c r="AU2" s="335"/>
+      <c r="AV2" s="335"/>
+      <c r="AW2" s="337" t="s">
         <v>267</v>
       </c>
-      <c r="AX2" s="348" t="s">
+      <c r="AX2" s="337" t="s">
         <v>171</v>
       </c>
-      <c r="AY2" s="348" t="s">
+      <c r="AY2" s="337" t="s">
         <v>171</v>
       </c>
-      <c r="AZ2" s="348" t="s">
+      <c r="AZ2" s="337" t="s">
         <v>171</v>
       </c>
-      <c r="BA2" s="348" t="s">
+      <c r="BA2" s="337" t="s">
         <v>171</v>
       </c>
-      <c r="BB2" s="349" t="s">
+      <c r="BB2" s="338" t="s">
         <v>267</v>
       </c>
-      <c r="BC2" s="348"/>
-      <c r="BD2" s="348"/>
-      <c r="BE2" s="348"/>
-      <c r="BF2" s="348"/>
+      <c r="BC2" s="337"/>
+      <c r="BD2" s="337"/>
+      <c r="BE2" s="337"/>
+      <c r="BF2" s="337"/>
     </row>
     <row r="3" spans="1:58" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A3" s="346"/>
-      <c r="B3" s="346"/>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="346"/>
-      <c r="F3" s="346"/>
-      <c r="G3" s="346"/>
-      <c r="H3" s="346"/>
-      <c r="I3" s="346"/>
-      <c r="J3" s="346"/>
-      <c r="K3" s="346"/>
-      <c r="L3" s="346"/>
-      <c r="M3" s="346"/>
-      <c r="N3" s="346"/>
-      <c r="O3" s="346"/>
-      <c r="P3" s="346"/>
-      <c r="Q3" s="346"/>
-      <c r="R3" s="346"/>
-      <c r="S3" s="346"/>
-      <c r="T3" s="346"/>
-      <c r="U3" s="346"/>
-      <c r="V3" s="346"/>
-      <c r="W3" s="346"/>
-      <c r="X3" s="346"/>
-      <c r="Y3" s="346"/>
-      <c r="Z3" s="346"/>
-      <c r="AA3" s="342" t="s">
+      <c r="A3" s="334"/>
+      <c r="B3" s="334"/>
+      <c r="C3" s="334"/>
+      <c r="D3" s="334"/>
+      <c r="E3" s="334"/>
+      <c r="F3" s="334"/>
+      <c r="G3" s="334"/>
+      <c r="H3" s="334"/>
+      <c r="I3" s="334"/>
+      <c r="J3" s="334"/>
+      <c r="K3" s="334"/>
+      <c r="L3" s="334"/>
+      <c r="M3" s="334"/>
+      <c r="N3" s="334"/>
+      <c r="O3" s="334"/>
+      <c r="P3" s="334"/>
+      <c r="Q3" s="334"/>
+      <c r="R3" s="334"/>
+      <c r="S3" s="334"/>
+      <c r="T3" s="334"/>
+      <c r="U3" s="334"/>
+      <c r="V3" s="334"/>
+      <c r="W3" s="334"/>
+      <c r="X3" s="334"/>
+      <c r="Y3" s="334"/>
+      <c r="Z3" s="334"/>
+      <c r="AA3" s="330" t="s">
         <v>274</v>
       </c>
-      <c r="AB3" s="342"/>
-      <c r="AC3" s="342"/>
-      <c r="AD3" s="342"/>
-      <c r="AE3" s="342"/>
-      <c r="AF3" s="342"/>
-      <c r="AG3" s="350" t="str">
+      <c r="AB3" s="330"/>
+      <c r="AC3" s="330"/>
+      <c r="AD3" s="330"/>
+      <c r="AE3" s="330"/>
+      <c r="AF3" s="330"/>
+      <c r="AG3" s="339" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Change log</v>
       </c>
-      <c r="AH3" s="351"/>
-      <c r="AI3" s="351"/>
-      <c r="AJ3" s="351"/>
-      <c r="AK3" s="351"/>
-      <c r="AL3" s="351"/>
-      <c r="AM3" s="351"/>
-      <c r="AN3" s="351"/>
-      <c r="AO3" s="351"/>
-      <c r="AP3" s="351"/>
-      <c r="AQ3" s="351"/>
-      <c r="AR3" s="351"/>
-      <c r="AS3" s="351"/>
-      <c r="AT3" s="351"/>
-      <c r="AU3" s="351"/>
-      <c r="AV3" s="352"/>
-      <c r="AW3" s="341">
+      <c r="AH3" s="340"/>
+      <c r="AI3" s="340"/>
+      <c r="AJ3" s="340"/>
+      <c r="AK3" s="340"/>
+      <c r="AL3" s="340"/>
+      <c r="AM3" s="340"/>
+      <c r="AN3" s="340"/>
+      <c r="AO3" s="340"/>
+      <c r="AP3" s="340"/>
+      <c r="AQ3" s="340"/>
+      <c r="AR3" s="340"/>
+      <c r="AS3" s="340"/>
+      <c r="AT3" s="340"/>
+      <c r="AU3" s="340"/>
+      <c r="AV3" s="341"/>
+      <c r="AW3" s="329">
         <v>44503</v>
       </c>
-      <c r="AX3" s="341">
+      <c r="AX3" s="329">
         <v>44147</v>
       </c>
-      <c r="AY3" s="341">
+      <c r="AY3" s="329">
         <v>44147</v>
       </c>
-      <c r="AZ3" s="341">
+      <c r="AZ3" s="329">
         <v>44147</v>
       </c>
-      <c r="BA3" s="341">
+      <c r="BA3" s="329">
         <v>44147</v>
       </c>
-      <c r="BB3" s="341">
+      <c r="BB3" s="329">
         <v>44505</v>
       </c>
-      <c r="BC3" s="341"/>
-      <c r="BD3" s="341"/>
-      <c r="BE3" s="341"/>
-      <c r="BF3" s="341"/>
+      <c r="BC3" s="329"/>
+      <c r="BD3" s="329"/>
+      <c r="BE3" s="329"/>
+      <c r="BF3" s="329"/>
     </row>
     <row r="4" spans="1:58" s="17" customFormat="1" ht="12"/>
     <row r="5" spans="1:58">
-      <c r="A5" s="342" t="s">
+      <c r="A5" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="342"/>
-      <c r="C5" s="342" t="s">
+      <c r="B5" s="330"/>
+      <c r="C5" s="330" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="342"/>
-      <c r="E5" s="342"/>
-      <c r="F5" s="342"/>
-      <c r="G5" s="343" t="s">
+      <c r="D5" s="330"/>
+      <c r="E5" s="330"/>
+      <c r="F5" s="330"/>
+      <c r="G5" s="331" t="s">
         <v>275</v>
       </c>
-      <c r="H5" s="344"/>
-      <c r="I5" s="344"/>
-      <c r="J5" s="344"/>
-      <c r="K5" s="345"/>
-      <c r="L5" s="343" t="s">
+      <c r="H5" s="332"/>
+      <c r="I5" s="332"/>
+      <c r="J5" s="332"/>
+      <c r="K5" s="333"/>
+      <c r="L5" s="331" t="s">
         <v>276</v>
       </c>
-      <c r="M5" s="344"/>
-      <c r="N5" s="344"/>
-      <c r="O5" s="344"/>
-      <c r="P5" s="344"/>
-      <c r="Q5" s="345"/>
-      <c r="R5" s="343" t="s">
+      <c r="M5" s="332"/>
+      <c r="N5" s="332"/>
+      <c r="O5" s="332"/>
+      <c r="P5" s="332"/>
+      <c r="Q5" s="333"/>
+      <c r="R5" s="331" t="s">
         <v>277</v>
       </c>
-      <c r="S5" s="344"/>
-      <c r="T5" s="344"/>
-      <c r="U5" s="344"/>
-      <c r="V5" s="344"/>
-      <c r="W5" s="344"/>
-      <c r="X5" s="344"/>
-      <c r="Y5" s="344"/>
-      <c r="Z5" s="344"/>
-      <c r="AA5" s="345"/>
-      <c r="AB5" s="343" t="s">
+      <c r="S5" s="332"/>
+      <c r="T5" s="332"/>
+      <c r="U5" s="332"/>
+      <c r="V5" s="332"/>
+      <c r="W5" s="332"/>
+      <c r="X5" s="332"/>
+      <c r="Y5" s="332"/>
+      <c r="Z5" s="332"/>
+      <c r="AA5" s="333"/>
+      <c r="AB5" s="331" t="s">
         <v>278</v>
       </c>
-      <c r="AC5" s="344"/>
-      <c r="AD5" s="344"/>
-      <c r="AE5" s="344"/>
-      <c r="AF5" s="344"/>
-      <c r="AG5" s="344"/>
-      <c r="AH5" s="344"/>
-      <c r="AI5" s="344"/>
-      <c r="AJ5" s="344"/>
-      <c r="AK5" s="344"/>
-      <c r="AL5" s="344"/>
-      <c r="AM5" s="344"/>
-      <c r="AN5" s="344"/>
-      <c r="AO5" s="344"/>
-      <c r="AP5" s="344"/>
-      <c r="AQ5" s="344"/>
-      <c r="AR5" s="344"/>
-      <c r="AS5" s="344"/>
-      <c r="AT5" s="344"/>
-      <c r="AU5" s="344"/>
-      <c r="AV5" s="344"/>
-      <c r="AW5" s="344"/>
-      <c r="AX5" s="344"/>
-      <c r="AY5" s="344"/>
-      <c r="AZ5" s="344"/>
-      <c r="BA5" s="344"/>
-      <c r="BB5" s="344"/>
-      <c r="BC5" s="344"/>
-      <c r="BD5" s="344"/>
-      <c r="BE5" s="344"/>
-      <c r="BF5" s="345"/>
+      <c r="AC5" s="332"/>
+      <c r="AD5" s="332"/>
+      <c r="AE5" s="332"/>
+      <c r="AF5" s="332"/>
+      <c r="AG5" s="332"/>
+      <c r="AH5" s="332"/>
+      <c r="AI5" s="332"/>
+      <c r="AJ5" s="332"/>
+      <c r="AK5" s="332"/>
+      <c r="AL5" s="332"/>
+      <c r="AM5" s="332"/>
+      <c r="AN5" s="332"/>
+      <c r="AO5" s="332"/>
+      <c r="AP5" s="332"/>
+      <c r="AQ5" s="332"/>
+      <c r="AR5" s="332"/>
+      <c r="AS5" s="332"/>
+      <c r="AT5" s="332"/>
+      <c r="AU5" s="332"/>
+      <c r="AV5" s="332"/>
+      <c r="AW5" s="332"/>
+      <c r="AX5" s="332"/>
+      <c r="AY5" s="332"/>
+      <c r="AZ5" s="332"/>
+      <c r="BA5" s="332"/>
+      <c r="BB5" s="332"/>
+      <c r="BC5" s="332"/>
+      <c r="BD5" s="332"/>
+      <c r="BE5" s="332"/>
+      <c r="BF5" s="333"/>
     </row>
     <row r="6" spans="1:58" ht="16.5" customHeight="1">
-      <c r="A6" s="329">
+      <c r="A6" s="335">
         <v>1</v>
       </c>
-      <c r="B6" s="329"/>
-      <c r="C6" s="330">
+      <c r="B6" s="335"/>
+      <c r="C6" s="348">
         <v>1</v>
       </c>
-      <c r="D6" s="331"/>
-      <c r="E6" s="331"/>
-      <c r="F6" s="331"/>
-      <c r="G6" s="332">
+      <c r="D6" s="349"/>
+      <c r="E6" s="349"/>
+      <c r="F6" s="349"/>
+      <c r="G6" s="350">
         <v>44503</v>
       </c>
-      <c r="H6" s="332"/>
-      <c r="I6" s="332"/>
-      <c r="J6" s="332"/>
-      <c r="K6" s="332"/>
-      <c r="L6" s="329" t="s">
+      <c r="H6" s="350"/>
+      <c r="I6" s="350"/>
+      <c r="J6" s="350"/>
+      <c r="K6" s="350"/>
+      <c r="L6" s="335" t="s">
         <v>279</v>
       </c>
-      <c r="M6" s="329"/>
-      <c r="N6" s="329"/>
-      <c r="O6" s="329"/>
-      <c r="P6" s="329"/>
-      <c r="Q6" s="329"/>
-      <c r="R6" s="333" t="s">
+      <c r="M6" s="335"/>
+      <c r="N6" s="335"/>
+      <c r="O6" s="335"/>
+      <c r="P6" s="335"/>
+      <c r="Q6" s="335"/>
+      <c r="R6" s="325" t="s">
         <v>280</v>
       </c>
-      <c r="S6" s="333"/>
-      <c r="T6" s="333"/>
-      <c r="U6" s="333"/>
-      <c r="V6" s="333"/>
-      <c r="W6" s="333"/>
-      <c r="X6" s="333"/>
-      <c r="Y6" s="333"/>
-      <c r="Z6" s="333"/>
-      <c r="AA6" s="333"/>
-      <c r="AB6" s="333"/>
-      <c r="AC6" s="333"/>
-      <c r="AD6" s="333"/>
-      <c r="AE6" s="333"/>
-      <c r="AF6" s="333"/>
-      <c r="AG6" s="333"/>
-      <c r="AH6" s="333"/>
-      <c r="AI6" s="333"/>
-      <c r="AJ6" s="333"/>
-      <c r="AK6" s="333"/>
-      <c r="AL6" s="333"/>
-      <c r="AM6" s="333"/>
-      <c r="AN6" s="333"/>
-      <c r="AO6" s="333"/>
-      <c r="AP6" s="333"/>
-      <c r="AQ6" s="333"/>
-      <c r="AR6" s="333"/>
-      <c r="AS6" s="333"/>
-      <c r="AT6" s="333"/>
-      <c r="AU6" s="333"/>
-      <c r="AV6" s="333"/>
-      <c r="AW6" s="333"/>
-      <c r="AX6" s="333"/>
-      <c r="AY6" s="333"/>
-      <c r="AZ6" s="333"/>
-      <c r="BA6" s="333"/>
-      <c r="BB6" s="333"/>
-      <c r="BC6" s="333"/>
-      <c r="BD6" s="333"/>
-      <c r="BE6" s="333"/>
-      <c r="BF6" s="333"/>
+      <c r="S6" s="325"/>
+      <c r="T6" s="325"/>
+      <c r="U6" s="325"/>
+      <c r="V6" s="325"/>
+      <c r="W6" s="325"/>
+      <c r="X6" s="325"/>
+      <c r="Y6" s="325"/>
+      <c r="Z6" s="325"/>
+      <c r="AA6" s="325"/>
+      <c r="AB6" s="325"/>
+      <c r="AC6" s="325"/>
+      <c r="AD6" s="325"/>
+      <c r="AE6" s="325"/>
+      <c r="AF6" s="325"/>
+      <c r="AG6" s="325"/>
+      <c r="AH6" s="325"/>
+      <c r="AI6" s="325"/>
+      <c r="AJ6" s="325"/>
+      <c r="AK6" s="325"/>
+      <c r="AL6" s="325"/>
+      <c r="AM6" s="325"/>
+      <c r="AN6" s="325"/>
+      <c r="AO6" s="325"/>
+      <c r="AP6" s="325"/>
+      <c r="AQ6" s="325"/>
+      <c r="AR6" s="325"/>
+      <c r="AS6" s="325"/>
+      <c r="AT6" s="325"/>
+      <c r="AU6" s="325"/>
+      <c r="AV6" s="325"/>
+      <c r="AW6" s="325"/>
+      <c r="AX6" s="325"/>
+      <c r="AY6" s="325"/>
+      <c r="AZ6" s="325"/>
+      <c r="BA6" s="325"/>
+      <c r="BB6" s="325"/>
+      <c r="BC6" s="325"/>
+      <c r="BD6" s="325"/>
+      <c r="BE6" s="325"/>
+      <c r="BF6" s="325"/>
     </row>
     <row r="7" spans="1:58" ht="29.5" customHeight="1">
-      <c r="A7" s="336">
+      <c r="A7" s="347">
         <v>2</v>
       </c>
-      <c r="B7" s="336"/>
-      <c r="C7" s="334">
+      <c r="B7" s="347"/>
+      <c r="C7" s="345">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D7" s="335"/>
-      <c r="E7" s="335"/>
-      <c r="F7" s="335"/>
-      <c r="G7" s="332">
+      <c r="D7" s="346"/>
+      <c r="E7" s="346"/>
+      <c r="F7" s="346"/>
+      <c r="G7" s="350">
         <v>44504</v>
       </c>
-      <c r="H7" s="332"/>
-      <c r="I7" s="332"/>
-      <c r="J7" s="332"/>
-      <c r="K7" s="332"/>
-      <c r="L7" s="339" t="s">
+      <c r="H7" s="350"/>
+      <c r="I7" s="350"/>
+      <c r="J7" s="350"/>
+      <c r="K7" s="350"/>
+      <c r="L7" s="352" t="s">
         <v>279</v>
       </c>
-      <c r="M7" s="339"/>
-      <c r="N7" s="339"/>
-      <c r="O7" s="339"/>
-      <c r="P7" s="339"/>
-      <c r="Q7" s="339"/>
-      <c r="R7" s="337" t="s">
+      <c r="M7" s="352"/>
+      <c r="N7" s="352"/>
+      <c r="O7" s="352"/>
+      <c r="P7" s="352"/>
+      <c r="Q7" s="352"/>
+      <c r="R7" s="351" t="s">
         <v>325</v>
       </c>
-      <c r="S7" s="338"/>
-      <c r="T7" s="338"/>
-      <c r="U7" s="338"/>
-      <c r="V7" s="338"/>
-      <c r="W7" s="338"/>
-      <c r="X7" s="338"/>
-      <c r="Y7" s="338"/>
-      <c r="Z7" s="338"/>
-      <c r="AA7" s="338"/>
-      <c r="AB7" s="338" t="s">
+      <c r="S7" s="326"/>
+      <c r="T7" s="326"/>
+      <c r="U7" s="326"/>
+      <c r="V7" s="326"/>
+      <c r="W7" s="326"/>
+      <c r="X7" s="326"/>
+      <c r="Y7" s="326"/>
+      <c r="Z7" s="326"/>
+      <c r="AA7" s="326"/>
+      <c r="AB7" s="326" t="s">
         <v>281</v>
       </c>
-      <c r="AC7" s="338"/>
-      <c r="AD7" s="338"/>
-      <c r="AE7" s="338"/>
-      <c r="AF7" s="338"/>
-      <c r="AG7" s="338"/>
-      <c r="AH7" s="338"/>
-      <c r="AI7" s="338"/>
-      <c r="AJ7" s="338"/>
-      <c r="AK7" s="338"/>
-      <c r="AL7" s="338"/>
-      <c r="AM7" s="338"/>
-      <c r="AN7" s="338"/>
-      <c r="AO7" s="338"/>
-      <c r="AP7" s="338"/>
-      <c r="AQ7" s="338"/>
-      <c r="AR7" s="338"/>
-      <c r="AS7" s="338"/>
-      <c r="AT7" s="338"/>
-      <c r="AU7" s="338"/>
-      <c r="AV7" s="338"/>
-      <c r="AW7" s="338"/>
-      <c r="AX7" s="338"/>
-      <c r="AY7" s="338"/>
-      <c r="AZ7" s="338"/>
-      <c r="BA7" s="338"/>
-      <c r="BB7" s="338"/>
-      <c r="BC7" s="338"/>
-      <c r="BD7" s="338"/>
-      <c r="BE7" s="338"/>
-      <c r="BF7" s="338"/>
+      <c r="AC7" s="326"/>
+      <c r="AD7" s="326"/>
+      <c r="AE7" s="326"/>
+      <c r="AF7" s="326"/>
+      <c r="AG7" s="326"/>
+      <c r="AH7" s="326"/>
+      <c r="AI7" s="326"/>
+      <c r="AJ7" s="326"/>
+      <c r="AK7" s="326"/>
+      <c r="AL7" s="326"/>
+      <c r="AM7" s="326"/>
+      <c r="AN7" s="326"/>
+      <c r="AO7" s="326"/>
+      <c r="AP7" s="326"/>
+      <c r="AQ7" s="326"/>
+      <c r="AR7" s="326"/>
+      <c r="AS7" s="326"/>
+      <c r="AT7" s="326"/>
+      <c r="AU7" s="326"/>
+      <c r="AV7" s="326"/>
+      <c r="AW7" s="326"/>
+      <c r="AX7" s="326"/>
+      <c r="AY7" s="326"/>
+      <c r="AZ7" s="326"/>
+      <c r="BA7" s="326"/>
+      <c r="BB7" s="326"/>
+      <c r="BC7" s="326"/>
+      <c r="BD7" s="326"/>
+      <c r="BE7" s="326"/>
+      <c r="BF7" s="326"/>
     </row>
     <row r="8" spans="1:58" ht="53" customHeight="1">
-      <c r="A8" s="329">
+      <c r="A8" s="335">
         <v>3</v>
       </c>
-      <c r="B8" s="329"/>
-      <c r="C8" s="334">
+      <c r="B8" s="335"/>
+      <c r="C8" s="345">
         <v>1.2</v>
       </c>
-      <c r="D8" s="335"/>
-      <c r="E8" s="335"/>
-      <c r="F8" s="335"/>
-      <c r="G8" s="332">
+      <c r="D8" s="346"/>
+      <c r="E8" s="346"/>
+      <c r="F8" s="346"/>
+      <c r="G8" s="350">
         <v>44505</v>
       </c>
-      <c r="H8" s="332"/>
-      <c r="I8" s="332"/>
-      <c r="J8" s="332"/>
-      <c r="K8" s="332"/>
-      <c r="L8" s="340" t="s">
+      <c r="H8" s="350"/>
+      <c r="I8" s="350"/>
+      <c r="J8" s="350"/>
+      <c r="K8" s="350"/>
+      <c r="L8" s="353" t="s">
         <v>279</v>
       </c>
-      <c r="M8" s="340"/>
-      <c r="N8" s="340"/>
-      <c r="O8" s="340"/>
-      <c r="P8" s="340"/>
-      <c r="Q8" s="340"/>
-      <c r="R8" s="337" t="s">
+      <c r="M8" s="353"/>
+      <c r="N8" s="353"/>
+      <c r="O8" s="353"/>
+      <c r="P8" s="353"/>
+      <c r="Q8" s="353"/>
+      <c r="R8" s="351" t="s">
         <v>375</v>
       </c>
-      <c r="S8" s="338"/>
-      <c r="T8" s="338"/>
-      <c r="U8" s="338"/>
-      <c r="V8" s="338"/>
-      <c r="W8" s="338"/>
-      <c r="X8" s="338"/>
-      <c r="Y8" s="338"/>
-      <c r="Z8" s="338"/>
-      <c r="AA8" s="338"/>
-      <c r="AB8" s="356"/>
-      <c r="AC8" s="357"/>
-      <c r="AD8" s="357"/>
-      <c r="AE8" s="357"/>
-      <c r="AF8" s="357"/>
-      <c r="AG8" s="357"/>
-      <c r="AH8" s="357"/>
-      <c r="AI8" s="357"/>
-      <c r="AJ8" s="357"/>
-      <c r="AK8" s="357"/>
-      <c r="AL8" s="357"/>
-      <c r="AM8" s="357"/>
-      <c r="AN8" s="357"/>
-      <c r="AO8" s="357"/>
-      <c r="AP8" s="357"/>
-      <c r="AQ8" s="357"/>
-      <c r="AR8" s="357"/>
-      <c r="AS8" s="357"/>
-      <c r="AT8" s="357"/>
-      <c r="AU8" s="357"/>
-      <c r="AV8" s="357"/>
-      <c r="AW8" s="357"/>
-      <c r="AX8" s="357"/>
-      <c r="AY8" s="357"/>
-      <c r="AZ8" s="357"/>
-      <c r="BA8" s="357"/>
-      <c r="BB8" s="357"/>
-      <c r="BC8" s="357"/>
-      <c r="BD8" s="357"/>
-      <c r="BE8" s="357"/>
-      <c r="BF8" s="357"/>
+      <c r="S8" s="326"/>
+      <c r="T8" s="326"/>
+      <c r="U8" s="326"/>
+      <c r="V8" s="326"/>
+      <c r="W8" s="326"/>
+      <c r="X8" s="326"/>
+      <c r="Y8" s="326"/>
+      <c r="Z8" s="326"/>
+      <c r="AA8" s="326"/>
+      <c r="AB8" s="327"/>
+      <c r="AC8" s="328"/>
+      <c r="AD8" s="328"/>
+      <c r="AE8" s="328"/>
+      <c r="AF8" s="328"/>
+      <c r="AG8" s="328"/>
+      <c r="AH8" s="328"/>
+      <c r="AI8" s="328"/>
+      <c r="AJ8" s="328"/>
+      <c r="AK8" s="328"/>
+      <c r="AL8" s="328"/>
+      <c r="AM8" s="328"/>
+      <c r="AN8" s="328"/>
+      <c r="AO8" s="328"/>
+      <c r="AP8" s="328"/>
+      <c r="AQ8" s="328"/>
+      <c r="AR8" s="328"/>
+      <c r="AS8" s="328"/>
+      <c r="AT8" s="328"/>
+      <c r="AU8" s="328"/>
+      <c r="AV8" s="328"/>
+      <c r="AW8" s="328"/>
+      <c r="AX8" s="328"/>
+      <c r="AY8" s="328"/>
+      <c r="AZ8" s="328"/>
+      <c r="BA8" s="328"/>
+      <c r="BB8" s="328"/>
+      <c r="BC8" s="328"/>
+      <c r="BD8" s="328"/>
+      <c r="BE8" s="328"/>
+      <c r="BF8" s="328"/>
     </row>
     <row r="9" spans="1:58" ht="21" customHeight="1">
-      <c r="A9" s="329">
+      <c r="A9" s="335">
         <v>4</v>
       </c>
-      <c r="B9" s="329"/>
-      <c r="C9" s="330">
+      <c r="B9" s="335"/>
+      <c r="C9" s="348">
         <v>1.3</v>
       </c>
-      <c r="D9" s="331"/>
-      <c r="E9" s="331"/>
-      <c r="F9" s="331"/>
-      <c r="G9" s="332">
+      <c r="D9" s="349"/>
+      <c r="E9" s="349"/>
+      <c r="F9" s="349"/>
+      <c r="G9" s="350">
         <v>44508</v>
       </c>
-      <c r="H9" s="332"/>
-      <c r="I9" s="332"/>
-      <c r="J9" s="332"/>
-      <c r="K9" s="332"/>
-      <c r="L9" s="329" t="s">
+      <c r="H9" s="350"/>
+      <c r="I9" s="350"/>
+      <c r="J9" s="350"/>
+      <c r="K9" s="350"/>
+      <c r="L9" s="335" t="s">
         <v>279</v>
       </c>
-      <c r="M9" s="329"/>
-      <c r="N9" s="329"/>
-      <c r="O9" s="329"/>
-      <c r="P9" s="329"/>
-      <c r="Q9" s="329"/>
-      <c r="R9" s="333"/>
-      <c r="S9" s="333"/>
-      <c r="T9" s="333"/>
-      <c r="U9" s="333"/>
-      <c r="V9" s="333"/>
-      <c r="W9" s="333"/>
-      <c r="X9" s="333"/>
-      <c r="Y9" s="333"/>
-      <c r="Z9" s="333"/>
-      <c r="AA9" s="333"/>
-      <c r="AB9" s="333" t="s">
+      <c r="M9" s="335"/>
+      <c r="N9" s="335"/>
+      <c r="O9" s="335"/>
+      <c r="P9" s="335"/>
+      <c r="Q9" s="335"/>
+      <c r="R9" s="325"/>
+      <c r="S9" s="325"/>
+      <c r="T9" s="325"/>
+      <c r="U9" s="325"/>
+      <c r="V9" s="325"/>
+      <c r="W9" s="325"/>
+      <c r="X9" s="325"/>
+      <c r="Y9" s="325"/>
+      <c r="Z9" s="325"/>
+      <c r="AA9" s="325"/>
+      <c r="AB9" s="325" t="s">
         <v>417</v>
       </c>
-      <c r="AC9" s="333"/>
-      <c r="AD9" s="333"/>
-      <c r="AE9" s="333"/>
-      <c r="AF9" s="333"/>
-      <c r="AG9" s="333"/>
-      <c r="AH9" s="333"/>
-      <c r="AI9" s="333"/>
-      <c r="AJ9" s="333"/>
-      <c r="AK9" s="333"/>
-      <c r="AL9" s="333"/>
-      <c r="AM9" s="333"/>
-      <c r="AN9" s="333"/>
-      <c r="AO9" s="333"/>
-      <c r="AP9" s="333"/>
-      <c r="AQ9" s="333"/>
-      <c r="AR9" s="333"/>
-      <c r="AS9" s="333"/>
-      <c r="AT9" s="333"/>
-      <c r="AU9" s="333"/>
-      <c r="AV9" s="333"/>
-      <c r="AW9" s="333"/>
-      <c r="AX9" s="333"/>
-      <c r="AY9" s="333"/>
-      <c r="AZ9" s="333"/>
-      <c r="BA9" s="333"/>
-      <c r="BB9" s="333"/>
-      <c r="BC9" s="333"/>
-      <c r="BD9" s="333"/>
-      <c r="BE9" s="333"/>
-      <c r="BF9" s="333"/>
+      <c r="AC9" s="325"/>
+      <c r="AD9" s="325"/>
+      <c r="AE9" s="325"/>
+      <c r="AF9" s="325"/>
+      <c r="AG9" s="325"/>
+      <c r="AH9" s="325"/>
+      <c r="AI9" s="325"/>
+      <c r="AJ9" s="325"/>
+      <c r="AK9" s="325"/>
+      <c r="AL9" s="325"/>
+      <c r="AM9" s="325"/>
+      <c r="AN9" s="325"/>
+      <c r="AO9" s="325"/>
+      <c r="AP9" s="325"/>
+      <c r="AQ9" s="325"/>
+      <c r="AR9" s="325"/>
+      <c r="AS9" s="325"/>
+      <c r="AT9" s="325"/>
+      <c r="AU9" s="325"/>
+      <c r="AV9" s="325"/>
+      <c r="AW9" s="325"/>
+      <c r="AX9" s="325"/>
+      <c r="AY9" s="325"/>
+      <c r="AZ9" s="325"/>
+      <c r="BA9" s="325"/>
+      <c r="BB9" s="325"/>
+      <c r="BC9" s="325"/>
+      <c r="BD9" s="325"/>
+      <c r="BE9" s="325"/>
+      <c r="BF9" s="325"/>
     </row>
     <row r="10" spans="1:58">
-      <c r="A10" s="327"/>
-      <c r="B10" s="327"/>
-      <c r="C10" s="324"/>
-      <c r="D10" s="328"/>
-      <c r="E10" s="328"/>
-      <c r="F10" s="328"/>
-      <c r="G10" s="325"/>
-      <c r="H10" s="325"/>
-      <c r="I10" s="325"/>
-      <c r="J10" s="325"/>
-      <c r="K10" s="325"/>
-      <c r="L10" s="327"/>
-      <c r="M10" s="327"/>
-      <c r="N10" s="327"/>
-      <c r="O10" s="327"/>
-      <c r="P10" s="327"/>
-      <c r="Q10" s="327"/>
-      <c r="R10" s="326"/>
-      <c r="S10" s="326"/>
-      <c r="T10" s="326"/>
-      <c r="U10" s="326"/>
-      <c r="V10" s="326"/>
-      <c r="W10" s="326"/>
-      <c r="X10" s="326"/>
-      <c r="Y10" s="326"/>
-      <c r="Z10" s="326"/>
-      <c r="AA10" s="326"/>
-      <c r="AB10" s="326"/>
-      <c r="AC10" s="326"/>
-      <c r="AD10" s="326"/>
-      <c r="AE10" s="326"/>
-      <c r="AF10" s="326"/>
-      <c r="AG10" s="326"/>
-      <c r="AH10" s="326"/>
-      <c r="AI10" s="326"/>
-      <c r="AJ10" s="326"/>
-      <c r="AK10" s="326"/>
-      <c r="AL10" s="326"/>
-      <c r="AM10" s="326"/>
-      <c r="AN10" s="326"/>
-      <c r="AO10" s="326"/>
-      <c r="AP10" s="326"/>
-      <c r="AQ10" s="326"/>
-      <c r="AR10" s="326"/>
-      <c r="AS10" s="326"/>
-      <c r="AT10" s="326"/>
-      <c r="AU10" s="326"/>
-      <c r="AV10" s="326"/>
-      <c r="AW10" s="326"/>
-      <c r="AX10" s="326"/>
-      <c r="AY10" s="326"/>
-      <c r="AZ10" s="326"/>
-      <c r="BA10" s="326"/>
-      <c r="BB10" s="326"/>
-      <c r="BC10" s="326"/>
-      <c r="BD10" s="326"/>
-      <c r="BE10" s="326"/>
-      <c r="BF10" s="326"/>
+      <c r="A10" s="354"/>
+      <c r="B10" s="354"/>
+      <c r="C10" s="355"/>
+      <c r="D10" s="356"/>
+      <c r="E10" s="356"/>
+      <c r="F10" s="356"/>
+      <c r="G10" s="357"/>
+      <c r="H10" s="357"/>
+      <c r="I10" s="357"/>
+      <c r="J10" s="357"/>
+      <c r="K10" s="357"/>
+      <c r="L10" s="354"/>
+      <c r="M10" s="354"/>
+      <c r="N10" s="354"/>
+      <c r="O10" s="354"/>
+      <c r="P10" s="354"/>
+      <c r="Q10" s="354"/>
+      <c r="R10" s="324"/>
+      <c r="S10" s="324"/>
+      <c r="T10" s="324"/>
+      <c r="U10" s="324"/>
+      <c r="V10" s="324"/>
+      <c r="W10" s="324"/>
+      <c r="X10" s="324"/>
+      <c r="Y10" s="324"/>
+      <c r="Z10" s="324"/>
+      <c r="AA10" s="324"/>
+      <c r="AB10" s="324"/>
+      <c r="AC10" s="324"/>
+      <c r="AD10" s="324"/>
+      <c r="AE10" s="324"/>
+      <c r="AF10" s="324"/>
+      <c r="AG10" s="324"/>
+      <c r="AH10" s="324"/>
+      <c r="AI10" s="324"/>
+      <c r="AJ10" s="324"/>
+      <c r="AK10" s="324"/>
+      <c r="AL10" s="324"/>
+      <c r="AM10" s="324"/>
+      <c r="AN10" s="324"/>
+      <c r="AO10" s="324"/>
+      <c r="AP10" s="324"/>
+      <c r="AQ10" s="324"/>
+      <c r="AR10" s="324"/>
+      <c r="AS10" s="324"/>
+      <c r="AT10" s="324"/>
+      <c r="AU10" s="324"/>
+      <c r="AV10" s="324"/>
+      <c r="AW10" s="324"/>
+      <c r="AX10" s="324"/>
+      <c r="AY10" s="324"/>
+      <c r="AZ10" s="324"/>
+      <c r="BA10" s="324"/>
+      <c r="BB10" s="324"/>
+      <c r="BC10" s="324"/>
+      <c r="BD10" s="324"/>
+      <c r="BE10" s="324"/>
+      <c r="BF10" s="324"/>
     </row>
     <row r="11" spans="1:58">
-      <c r="A11" s="327"/>
-      <c r="B11" s="327"/>
-      <c r="C11" s="324"/>
-      <c r="D11" s="328"/>
-      <c r="E11" s="328"/>
-      <c r="F11" s="328"/>
-      <c r="G11" s="325"/>
-      <c r="H11" s="325"/>
-      <c r="I11" s="325"/>
-      <c r="J11" s="325"/>
-      <c r="K11" s="325"/>
-      <c r="L11" s="327"/>
-      <c r="M11" s="327"/>
-      <c r="N11" s="327"/>
-      <c r="O11" s="327"/>
-      <c r="P11" s="327"/>
-      <c r="Q11" s="327"/>
-      <c r="R11" s="326"/>
-      <c r="S11" s="326"/>
-      <c r="T11" s="326"/>
-      <c r="U11" s="326"/>
-      <c r="V11" s="326"/>
-      <c r="W11" s="326"/>
-      <c r="X11" s="326"/>
-      <c r="Y11" s="326"/>
-      <c r="Z11" s="326"/>
-      <c r="AA11" s="326"/>
-      <c r="AB11" s="326"/>
-      <c r="AC11" s="326"/>
-      <c r="AD11" s="326"/>
-      <c r="AE11" s="326"/>
-      <c r="AF11" s="326"/>
-      <c r="AG11" s="326"/>
-      <c r="AH11" s="326"/>
-      <c r="AI11" s="326"/>
-      <c r="AJ11" s="326"/>
-      <c r="AK11" s="326"/>
-      <c r="AL11" s="326"/>
-      <c r="AM11" s="326"/>
-      <c r="AN11" s="326"/>
-      <c r="AO11" s="326"/>
-      <c r="AP11" s="326"/>
-      <c r="AQ11" s="326"/>
-      <c r="AR11" s="326"/>
-      <c r="AS11" s="326"/>
-      <c r="AT11" s="326"/>
-      <c r="AU11" s="326"/>
-      <c r="AV11" s="326"/>
-      <c r="AW11" s="326"/>
-      <c r="AX11" s="326"/>
-      <c r="AY11" s="326"/>
-      <c r="AZ11" s="326"/>
-      <c r="BA11" s="326"/>
-      <c r="BB11" s="326"/>
-      <c r="BC11" s="326"/>
-      <c r="BD11" s="326"/>
-      <c r="BE11" s="326"/>
-      <c r="BF11" s="326"/>
+      <c r="A11" s="354"/>
+      <c r="B11" s="354"/>
+      <c r="C11" s="355"/>
+      <c r="D11" s="356"/>
+      <c r="E11" s="356"/>
+      <c r="F11" s="356"/>
+      <c r="G11" s="357"/>
+      <c r="H11" s="357"/>
+      <c r="I11" s="357"/>
+      <c r="J11" s="357"/>
+      <c r="K11" s="357"/>
+      <c r="L11" s="354"/>
+      <c r="M11" s="354"/>
+      <c r="N11" s="354"/>
+      <c r="O11" s="354"/>
+      <c r="P11" s="354"/>
+      <c r="Q11" s="354"/>
+      <c r="R11" s="324"/>
+      <c r="S11" s="324"/>
+      <c r="T11" s="324"/>
+      <c r="U11" s="324"/>
+      <c r="V11" s="324"/>
+      <c r="W11" s="324"/>
+      <c r="X11" s="324"/>
+      <c r="Y11" s="324"/>
+      <c r="Z11" s="324"/>
+      <c r="AA11" s="324"/>
+      <c r="AB11" s="324"/>
+      <c r="AC11" s="324"/>
+      <c r="AD11" s="324"/>
+      <c r="AE11" s="324"/>
+      <c r="AF11" s="324"/>
+      <c r="AG11" s="324"/>
+      <c r="AH11" s="324"/>
+      <c r="AI11" s="324"/>
+      <c r="AJ11" s="324"/>
+      <c r="AK11" s="324"/>
+      <c r="AL11" s="324"/>
+      <c r="AM11" s="324"/>
+      <c r="AN11" s="324"/>
+      <c r="AO11" s="324"/>
+      <c r="AP11" s="324"/>
+      <c r="AQ11" s="324"/>
+      <c r="AR11" s="324"/>
+      <c r="AS11" s="324"/>
+      <c r="AT11" s="324"/>
+      <c r="AU11" s="324"/>
+      <c r="AV11" s="324"/>
+      <c r="AW11" s="324"/>
+      <c r="AX11" s="324"/>
+      <c r="AY11" s="324"/>
+      <c r="AZ11" s="324"/>
+      <c r="BA11" s="324"/>
+      <c r="BB11" s="324"/>
+      <c r="BC11" s="324"/>
+      <c r="BD11" s="324"/>
+      <c r="BE11" s="324"/>
+      <c r="BF11" s="324"/>
     </row>
     <row r="12" spans="1:58">
       <c r="A12" s="186"/>
       <c r="B12" s="186"/>
-      <c r="C12" s="324"/>
-      <c r="D12" s="324"/>
-      <c r="E12" s="324"/>
-      <c r="F12" s="324"/>
+      <c r="C12" s="355"/>
+      <c r="D12" s="355"/>
+      <c r="E12" s="355"/>
+      <c r="F12" s="355"/>
       <c r="G12" s="187"/>
       <c r="H12" s="187"/>
       <c r="I12" s="187"/>
@@ -8591,10 +8591,10 @@
     <row r="13" spans="1:58">
       <c r="A13" s="186"/>
       <c r="B13" s="186"/>
-      <c r="C13" s="324"/>
-      <c r="D13" s="324"/>
-      <c r="E13" s="324"/>
-      <c r="F13" s="324"/>
+      <c r="C13" s="355"/>
+      <c r="D13" s="355"/>
+      <c r="E13" s="355"/>
+      <c r="F13" s="355"/>
       <c r="G13" s="187"/>
       <c r="H13" s="187"/>
       <c r="I13" s="187"/>
@@ -8649,1233 +8649,1339 @@
       <c r="BF13" s="188"/>
     </row>
     <row r="14" spans="1:58">
-      <c r="A14" s="327"/>
-      <c r="B14" s="327"/>
-      <c r="C14" s="324"/>
-      <c r="D14" s="328"/>
-      <c r="E14" s="328"/>
-      <c r="F14" s="328"/>
-      <c r="G14" s="325"/>
-      <c r="H14" s="325"/>
-      <c r="I14" s="325"/>
-      <c r="J14" s="325"/>
-      <c r="K14" s="325"/>
-      <c r="L14" s="327"/>
-      <c r="M14" s="327"/>
-      <c r="N14" s="327"/>
-      <c r="O14" s="327"/>
-      <c r="P14" s="327"/>
-      <c r="Q14" s="327"/>
-      <c r="R14" s="326"/>
-      <c r="S14" s="326"/>
-      <c r="T14" s="326"/>
-      <c r="U14" s="326"/>
-      <c r="V14" s="326"/>
-      <c r="W14" s="326"/>
-      <c r="X14" s="326"/>
-      <c r="Y14" s="326"/>
-      <c r="Z14" s="326"/>
-      <c r="AA14" s="326"/>
-      <c r="AB14" s="326"/>
-      <c r="AC14" s="326"/>
-      <c r="AD14" s="326"/>
-      <c r="AE14" s="326"/>
-      <c r="AF14" s="326"/>
-      <c r="AG14" s="326"/>
-      <c r="AH14" s="326"/>
-      <c r="AI14" s="326"/>
-      <c r="AJ14" s="326"/>
-      <c r="AK14" s="326"/>
-      <c r="AL14" s="326"/>
-      <c r="AM14" s="326"/>
-      <c r="AN14" s="326"/>
-      <c r="AO14" s="326"/>
-      <c r="AP14" s="326"/>
-      <c r="AQ14" s="326"/>
-      <c r="AR14" s="326"/>
-      <c r="AS14" s="326"/>
-      <c r="AT14" s="326"/>
-      <c r="AU14" s="326"/>
-      <c r="AV14" s="326"/>
-      <c r="AW14" s="326"/>
-      <c r="AX14" s="326"/>
-      <c r="AY14" s="326"/>
-      <c r="AZ14" s="326"/>
-      <c r="BA14" s="326"/>
-      <c r="BB14" s="326"/>
-      <c r="BC14" s="326"/>
-      <c r="BD14" s="326"/>
-      <c r="BE14" s="326"/>
-      <c r="BF14" s="326"/>
+      <c r="A14" s="354"/>
+      <c r="B14" s="354"/>
+      <c r="C14" s="355"/>
+      <c r="D14" s="356"/>
+      <c r="E14" s="356"/>
+      <c r="F14" s="356"/>
+      <c r="G14" s="357"/>
+      <c r="H14" s="357"/>
+      <c r="I14" s="357"/>
+      <c r="J14" s="357"/>
+      <c r="K14" s="357"/>
+      <c r="L14" s="354"/>
+      <c r="M14" s="354"/>
+      <c r="N14" s="354"/>
+      <c r="O14" s="354"/>
+      <c r="P14" s="354"/>
+      <c r="Q14" s="354"/>
+      <c r="R14" s="324"/>
+      <c r="S14" s="324"/>
+      <c r="T14" s="324"/>
+      <c r="U14" s="324"/>
+      <c r="V14" s="324"/>
+      <c r="W14" s="324"/>
+      <c r="X14" s="324"/>
+      <c r="Y14" s="324"/>
+      <c r="Z14" s="324"/>
+      <c r="AA14" s="324"/>
+      <c r="AB14" s="324"/>
+      <c r="AC14" s="324"/>
+      <c r="AD14" s="324"/>
+      <c r="AE14" s="324"/>
+      <c r="AF14" s="324"/>
+      <c r="AG14" s="324"/>
+      <c r="AH14" s="324"/>
+      <c r="AI14" s="324"/>
+      <c r="AJ14" s="324"/>
+      <c r="AK14" s="324"/>
+      <c r="AL14" s="324"/>
+      <c r="AM14" s="324"/>
+      <c r="AN14" s="324"/>
+      <c r="AO14" s="324"/>
+      <c r="AP14" s="324"/>
+      <c r="AQ14" s="324"/>
+      <c r="AR14" s="324"/>
+      <c r="AS14" s="324"/>
+      <c r="AT14" s="324"/>
+      <c r="AU14" s="324"/>
+      <c r="AV14" s="324"/>
+      <c r="AW14" s="324"/>
+      <c r="AX14" s="324"/>
+      <c r="AY14" s="324"/>
+      <c r="AZ14" s="324"/>
+      <c r="BA14" s="324"/>
+      <c r="BB14" s="324"/>
+      <c r="BC14" s="324"/>
+      <c r="BD14" s="324"/>
+      <c r="BE14" s="324"/>
+      <c r="BF14" s="324"/>
     </row>
     <row r="15" spans="1:58">
-      <c r="A15" s="327"/>
-      <c r="B15" s="327"/>
-      <c r="C15" s="324"/>
-      <c r="D15" s="328"/>
-      <c r="E15" s="328"/>
-      <c r="F15" s="328"/>
-      <c r="G15" s="325"/>
-      <c r="H15" s="325"/>
-      <c r="I15" s="325"/>
-      <c r="J15" s="325"/>
-      <c r="K15" s="325"/>
-      <c r="L15" s="327"/>
-      <c r="M15" s="327"/>
-      <c r="N15" s="327"/>
-      <c r="O15" s="327"/>
-      <c r="P15" s="327"/>
-      <c r="Q15" s="327"/>
-      <c r="R15" s="326"/>
-      <c r="S15" s="326"/>
-      <c r="T15" s="326"/>
-      <c r="U15" s="326"/>
-      <c r="V15" s="326"/>
-      <c r="W15" s="326"/>
-      <c r="X15" s="326"/>
-      <c r="Y15" s="326"/>
-      <c r="Z15" s="326"/>
-      <c r="AA15" s="326"/>
-      <c r="AB15" s="326"/>
-      <c r="AC15" s="326"/>
-      <c r="AD15" s="326"/>
-      <c r="AE15" s="326"/>
-      <c r="AF15" s="326"/>
-      <c r="AG15" s="326"/>
-      <c r="AH15" s="326"/>
-      <c r="AI15" s="326"/>
-      <c r="AJ15" s="326"/>
-      <c r="AK15" s="326"/>
-      <c r="AL15" s="326"/>
-      <c r="AM15" s="326"/>
-      <c r="AN15" s="326"/>
-      <c r="AO15" s="326"/>
-      <c r="AP15" s="326"/>
-      <c r="AQ15" s="326"/>
-      <c r="AR15" s="326"/>
-      <c r="AS15" s="326"/>
-      <c r="AT15" s="326"/>
-      <c r="AU15" s="326"/>
-      <c r="AV15" s="326"/>
-      <c r="AW15" s="326"/>
-      <c r="AX15" s="326"/>
-      <c r="AY15" s="326"/>
-      <c r="AZ15" s="326"/>
-      <c r="BA15" s="326"/>
-      <c r="BB15" s="326"/>
-      <c r="BC15" s="326"/>
-      <c r="BD15" s="326"/>
-      <c r="BE15" s="326"/>
-      <c r="BF15" s="326"/>
+      <c r="A15" s="354"/>
+      <c r="B15" s="354"/>
+      <c r="C15" s="355"/>
+      <c r="D15" s="356"/>
+      <c r="E15" s="356"/>
+      <c r="F15" s="356"/>
+      <c r="G15" s="357"/>
+      <c r="H15" s="357"/>
+      <c r="I15" s="357"/>
+      <c r="J15" s="357"/>
+      <c r="K15" s="357"/>
+      <c r="L15" s="354"/>
+      <c r="M15" s="354"/>
+      <c r="N15" s="354"/>
+      <c r="O15" s="354"/>
+      <c r="P15" s="354"/>
+      <c r="Q15" s="354"/>
+      <c r="R15" s="324"/>
+      <c r="S15" s="324"/>
+      <c r="T15" s="324"/>
+      <c r="U15" s="324"/>
+      <c r="V15" s="324"/>
+      <c r="W15" s="324"/>
+      <c r="X15" s="324"/>
+      <c r="Y15" s="324"/>
+      <c r="Z15" s="324"/>
+      <c r="AA15" s="324"/>
+      <c r="AB15" s="324"/>
+      <c r="AC15" s="324"/>
+      <c r="AD15" s="324"/>
+      <c r="AE15" s="324"/>
+      <c r="AF15" s="324"/>
+      <c r="AG15" s="324"/>
+      <c r="AH15" s="324"/>
+      <c r="AI15" s="324"/>
+      <c r="AJ15" s="324"/>
+      <c r="AK15" s="324"/>
+      <c r="AL15" s="324"/>
+      <c r="AM15" s="324"/>
+      <c r="AN15" s="324"/>
+      <c r="AO15" s="324"/>
+      <c r="AP15" s="324"/>
+      <c r="AQ15" s="324"/>
+      <c r="AR15" s="324"/>
+      <c r="AS15" s="324"/>
+      <c r="AT15" s="324"/>
+      <c r="AU15" s="324"/>
+      <c r="AV15" s="324"/>
+      <c r="AW15" s="324"/>
+      <c r="AX15" s="324"/>
+      <c r="AY15" s="324"/>
+      <c r="AZ15" s="324"/>
+      <c r="BA15" s="324"/>
+      <c r="BB15" s="324"/>
+      <c r="BC15" s="324"/>
+      <c r="BD15" s="324"/>
+      <c r="BE15" s="324"/>
+      <c r="BF15" s="324"/>
     </row>
     <row r="16" spans="1:58">
-      <c r="A16" s="327"/>
-      <c r="B16" s="327"/>
-      <c r="C16" s="324"/>
-      <c r="D16" s="328"/>
-      <c r="E16" s="328"/>
-      <c r="F16" s="328"/>
-      <c r="G16" s="325"/>
-      <c r="H16" s="325"/>
-      <c r="I16" s="325"/>
-      <c r="J16" s="325"/>
-      <c r="K16" s="325"/>
-      <c r="L16" s="327"/>
-      <c r="M16" s="327"/>
-      <c r="N16" s="327"/>
-      <c r="O16" s="327"/>
-      <c r="P16" s="327"/>
-      <c r="Q16" s="327"/>
-      <c r="R16" s="326"/>
-      <c r="S16" s="326"/>
-      <c r="T16" s="326"/>
-      <c r="U16" s="326"/>
-      <c r="V16" s="326"/>
-      <c r="W16" s="326"/>
-      <c r="X16" s="326"/>
-      <c r="Y16" s="326"/>
-      <c r="Z16" s="326"/>
-      <c r="AA16" s="326"/>
-      <c r="AB16" s="326"/>
-      <c r="AC16" s="326"/>
-      <c r="AD16" s="326"/>
-      <c r="AE16" s="326"/>
-      <c r="AF16" s="326"/>
-      <c r="AG16" s="326"/>
-      <c r="AH16" s="326"/>
-      <c r="AI16" s="326"/>
-      <c r="AJ16" s="326"/>
-      <c r="AK16" s="326"/>
-      <c r="AL16" s="326"/>
-      <c r="AM16" s="326"/>
-      <c r="AN16" s="326"/>
-      <c r="AO16" s="326"/>
-      <c r="AP16" s="326"/>
-      <c r="AQ16" s="326"/>
-      <c r="AR16" s="326"/>
-      <c r="AS16" s="326"/>
-      <c r="AT16" s="326"/>
-      <c r="AU16" s="326"/>
-      <c r="AV16" s="326"/>
-      <c r="AW16" s="326"/>
-      <c r="AX16" s="326"/>
-      <c r="AY16" s="326"/>
-      <c r="AZ16" s="326"/>
-      <c r="BA16" s="326"/>
-      <c r="BB16" s="326"/>
-      <c r="BC16" s="326"/>
-      <c r="BD16" s="326"/>
-      <c r="BE16" s="326"/>
-      <c r="BF16" s="326"/>
+      <c r="A16" s="354"/>
+      <c r="B16" s="354"/>
+      <c r="C16" s="355"/>
+      <c r="D16" s="356"/>
+      <c r="E16" s="356"/>
+      <c r="F16" s="356"/>
+      <c r="G16" s="357"/>
+      <c r="H16" s="357"/>
+      <c r="I16" s="357"/>
+      <c r="J16" s="357"/>
+      <c r="K16" s="357"/>
+      <c r="L16" s="354"/>
+      <c r="M16" s="354"/>
+      <c r="N16" s="354"/>
+      <c r="O16" s="354"/>
+      <c r="P16" s="354"/>
+      <c r="Q16" s="354"/>
+      <c r="R16" s="324"/>
+      <c r="S16" s="324"/>
+      <c r="T16" s="324"/>
+      <c r="U16" s="324"/>
+      <c r="V16" s="324"/>
+      <c r="W16" s="324"/>
+      <c r="X16" s="324"/>
+      <c r="Y16" s="324"/>
+      <c r="Z16" s="324"/>
+      <c r="AA16" s="324"/>
+      <c r="AB16" s="324"/>
+      <c r="AC16" s="324"/>
+      <c r="AD16" s="324"/>
+      <c r="AE16" s="324"/>
+      <c r="AF16" s="324"/>
+      <c r="AG16" s="324"/>
+      <c r="AH16" s="324"/>
+      <c r="AI16" s="324"/>
+      <c r="AJ16" s="324"/>
+      <c r="AK16" s="324"/>
+      <c r="AL16" s="324"/>
+      <c r="AM16" s="324"/>
+      <c r="AN16" s="324"/>
+      <c r="AO16" s="324"/>
+      <c r="AP16" s="324"/>
+      <c r="AQ16" s="324"/>
+      <c r="AR16" s="324"/>
+      <c r="AS16" s="324"/>
+      <c r="AT16" s="324"/>
+      <c r="AU16" s="324"/>
+      <c r="AV16" s="324"/>
+      <c r="AW16" s="324"/>
+      <c r="AX16" s="324"/>
+      <c r="AY16" s="324"/>
+      <c r="AZ16" s="324"/>
+      <c r="BA16" s="324"/>
+      <c r="BB16" s="324"/>
+      <c r="BC16" s="324"/>
+      <c r="BD16" s="324"/>
+      <c r="BE16" s="324"/>
+      <c r="BF16" s="324"/>
     </row>
     <row r="17" spans="1:58">
-      <c r="A17" s="327"/>
-      <c r="B17" s="327"/>
-      <c r="C17" s="324"/>
-      <c r="D17" s="328"/>
-      <c r="E17" s="328"/>
-      <c r="F17" s="328"/>
-      <c r="G17" s="325"/>
-      <c r="H17" s="325"/>
-      <c r="I17" s="325"/>
-      <c r="J17" s="325"/>
-      <c r="K17" s="325"/>
-      <c r="L17" s="327"/>
-      <c r="M17" s="327"/>
-      <c r="N17" s="327"/>
-      <c r="O17" s="327"/>
-      <c r="P17" s="327"/>
-      <c r="Q17" s="327"/>
-      <c r="R17" s="326"/>
-      <c r="S17" s="326"/>
-      <c r="T17" s="326"/>
-      <c r="U17" s="326"/>
-      <c r="V17" s="326"/>
-      <c r="W17" s="326"/>
-      <c r="X17" s="326"/>
-      <c r="Y17" s="326"/>
-      <c r="Z17" s="326"/>
-      <c r="AA17" s="326"/>
-      <c r="AB17" s="326"/>
-      <c r="AC17" s="326"/>
-      <c r="AD17" s="326"/>
-      <c r="AE17" s="326"/>
-      <c r="AF17" s="326"/>
-      <c r="AG17" s="326"/>
-      <c r="AH17" s="326"/>
-      <c r="AI17" s="326"/>
-      <c r="AJ17" s="326"/>
-      <c r="AK17" s="326"/>
-      <c r="AL17" s="326"/>
-      <c r="AM17" s="326"/>
-      <c r="AN17" s="326"/>
-      <c r="AO17" s="326"/>
-      <c r="AP17" s="326"/>
-      <c r="AQ17" s="326"/>
-      <c r="AR17" s="326"/>
-      <c r="AS17" s="326"/>
-      <c r="AT17" s="326"/>
-      <c r="AU17" s="326"/>
-      <c r="AV17" s="326"/>
-      <c r="AW17" s="326"/>
-      <c r="AX17" s="326"/>
-      <c r="AY17" s="326"/>
-      <c r="AZ17" s="326"/>
-      <c r="BA17" s="326"/>
-      <c r="BB17" s="326"/>
-      <c r="BC17" s="326"/>
-      <c r="BD17" s="326"/>
-      <c r="BE17" s="326"/>
-      <c r="BF17" s="326"/>
+      <c r="A17" s="354"/>
+      <c r="B17" s="354"/>
+      <c r="C17" s="355"/>
+      <c r="D17" s="356"/>
+      <c r="E17" s="356"/>
+      <c r="F17" s="356"/>
+      <c r="G17" s="357"/>
+      <c r="H17" s="357"/>
+      <c r="I17" s="357"/>
+      <c r="J17" s="357"/>
+      <c r="K17" s="357"/>
+      <c r="L17" s="354"/>
+      <c r="M17" s="354"/>
+      <c r="N17" s="354"/>
+      <c r="O17" s="354"/>
+      <c r="P17" s="354"/>
+      <c r="Q17" s="354"/>
+      <c r="R17" s="324"/>
+      <c r="S17" s="324"/>
+      <c r="T17" s="324"/>
+      <c r="U17" s="324"/>
+      <c r="V17" s="324"/>
+      <c r="W17" s="324"/>
+      <c r="X17" s="324"/>
+      <c r="Y17" s="324"/>
+      <c r="Z17" s="324"/>
+      <c r="AA17" s="324"/>
+      <c r="AB17" s="324"/>
+      <c r="AC17" s="324"/>
+      <c r="AD17" s="324"/>
+      <c r="AE17" s="324"/>
+      <c r="AF17" s="324"/>
+      <c r="AG17" s="324"/>
+      <c r="AH17" s="324"/>
+      <c r="AI17" s="324"/>
+      <c r="AJ17" s="324"/>
+      <c r="AK17" s="324"/>
+      <c r="AL17" s="324"/>
+      <c r="AM17" s="324"/>
+      <c r="AN17" s="324"/>
+      <c r="AO17" s="324"/>
+      <c r="AP17" s="324"/>
+      <c r="AQ17" s="324"/>
+      <c r="AR17" s="324"/>
+      <c r="AS17" s="324"/>
+      <c r="AT17" s="324"/>
+      <c r="AU17" s="324"/>
+      <c r="AV17" s="324"/>
+      <c r="AW17" s="324"/>
+      <c r="AX17" s="324"/>
+      <c r="AY17" s="324"/>
+      <c r="AZ17" s="324"/>
+      <c r="BA17" s="324"/>
+      <c r="BB17" s="324"/>
+      <c r="BC17" s="324"/>
+      <c r="BD17" s="324"/>
+      <c r="BE17" s="324"/>
+      <c r="BF17" s="324"/>
     </row>
     <row r="18" spans="1:58">
-      <c r="A18" s="327"/>
-      <c r="B18" s="327"/>
-      <c r="C18" s="324"/>
-      <c r="D18" s="328"/>
-      <c r="E18" s="328"/>
-      <c r="F18" s="328"/>
-      <c r="G18" s="325"/>
-      <c r="H18" s="325"/>
-      <c r="I18" s="325"/>
-      <c r="J18" s="325"/>
-      <c r="K18" s="325"/>
-      <c r="L18" s="327"/>
-      <c r="M18" s="327"/>
-      <c r="N18" s="327"/>
-      <c r="O18" s="327"/>
-      <c r="P18" s="327"/>
-      <c r="Q18" s="327"/>
-      <c r="R18" s="326"/>
-      <c r="S18" s="326"/>
-      <c r="T18" s="326"/>
-      <c r="U18" s="326"/>
-      <c r="V18" s="326"/>
-      <c r="W18" s="326"/>
-      <c r="X18" s="326"/>
-      <c r="Y18" s="326"/>
-      <c r="Z18" s="326"/>
-      <c r="AA18" s="326"/>
-      <c r="AB18" s="326"/>
-      <c r="AC18" s="326"/>
-      <c r="AD18" s="326"/>
-      <c r="AE18" s="326"/>
-      <c r="AF18" s="326"/>
-      <c r="AG18" s="326"/>
-      <c r="AH18" s="326"/>
-      <c r="AI18" s="326"/>
-      <c r="AJ18" s="326"/>
-      <c r="AK18" s="326"/>
-      <c r="AL18" s="326"/>
-      <c r="AM18" s="326"/>
-      <c r="AN18" s="326"/>
-      <c r="AO18" s="326"/>
-      <c r="AP18" s="326"/>
-      <c r="AQ18" s="326"/>
-      <c r="AR18" s="326"/>
-      <c r="AS18" s="326"/>
-      <c r="AT18" s="326"/>
-      <c r="AU18" s="326"/>
-      <c r="AV18" s="326"/>
-      <c r="AW18" s="326"/>
-      <c r="AX18" s="326"/>
-      <c r="AY18" s="326"/>
-      <c r="AZ18" s="326"/>
-      <c r="BA18" s="326"/>
-      <c r="BB18" s="326"/>
-      <c r="BC18" s="326"/>
-      <c r="BD18" s="326"/>
-      <c r="BE18" s="326"/>
-      <c r="BF18" s="326"/>
+      <c r="A18" s="354"/>
+      <c r="B18" s="354"/>
+      <c r="C18" s="355"/>
+      <c r="D18" s="356"/>
+      <c r="E18" s="356"/>
+      <c r="F18" s="356"/>
+      <c r="G18" s="357"/>
+      <c r="H18" s="357"/>
+      <c r="I18" s="357"/>
+      <c r="J18" s="357"/>
+      <c r="K18" s="357"/>
+      <c r="L18" s="354"/>
+      <c r="M18" s="354"/>
+      <c r="N18" s="354"/>
+      <c r="O18" s="354"/>
+      <c r="P18" s="354"/>
+      <c r="Q18" s="354"/>
+      <c r="R18" s="324"/>
+      <c r="S18" s="324"/>
+      <c r="T18" s="324"/>
+      <c r="U18" s="324"/>
+      <c r="V18" s="324"/>
+      <c r="W18" s="324"/>
+      <c r="X18" s="324"/>
+      <c r="Y18" s="324"/>
+      <c r="Z18" s="324"/>
+      <c r="AA18" s="324"/>
+      <c r="AB18" s="324"/>
+      <c r="AC18" s="324"/>
+      <c r="AD18" s="324"/>
+      <c r="AE18" s="324"/>
+      <c r="AF18" s="324"/>
+      <c r="AG18" s="324"/>
+      <c r="AH18" s="324"/>
+      <c r="AI18" s="324"/>
+      <c r="AJ18" s="324"/>
+      <c r="AK18" s="324"/>
+      <c r="AL18" s="324"/>
+      <c r="AM18" s="324"/>
+      <c r="AN18" s="324"/>
+      <c r="AO18" s="324"/>
+      <c r="AP18" s="324"/>
+      <c r="AQ18" s="324"/>
+      <c r="AR18" s="324"/>
+      <c r="AS18" s="324"/>
+      <c r="AT18" s="324"/>
+      <c r="AU18" s="324"/>
+      <c r="AV18" s="324"/>
+      <c r="AW18" s="324"/>
+      <c r="AX18" s="324"/>
+      <c r="AY18" s="324"/>
+      <c r="AZ18" s="324"/>
+      <c r="BA18" s="324"/>
+      <c r="BB18" s="324"/>
+      <c r="BC18" s="324"/>
+      <c r="BD18" s="324"/>
+      <c r="BE18" s="324"/>
+      <c r="BF18" s="324"/>
     </row>
     <row r="19" spans="1:58">
-      <c r="A19" s="327"/>
-      <c r="B19" s="327"/>
-      <c r="C19" s="324"/>
-      <c r="D19" s="328"/>
-      <c r="E19" s="328"/>
-      <c r="F19" s="328"/>
-      <c r="G19" s="325"/>
-      <c r="H19" s="325"/>
-      <c r="I19" s="325"/>
-      <c r="J19" s="325"/>
-      <c r="K19" s="325"/>
-      <c r="L19" s="327"/>
-      <c r="M19" s="327"/>
-      <c r="N19" s="327"/>
-      <c r="O19" s="327"/>
-      <c r="P19" s="327"/>
-      <c r="Q19" s="327"/>
-      <c r="R19" s="326"/>
-      <c r="S19" s="326"/>
-      <c r="T19" s="326"/>
-      <c r="U19" s="326"/>
-      <c r="V19" s="326"/>
-      <c r="W19" s="326"/>
-      <c r="X19" s="326"/>
-      <c r="Y19" s="326"/>
-      <c r="Z19" s="326"/>
-      <c r="AA19" s="326"/>
-      <c r="AB19" s="326"/>
-      <c r="AC19" s="326"/>
-      <c r="AD19" s="326"/>
-      <c r="AE19" s="326"/>
-      <c r="AF19" s="326"/>
-      <c r="AG19" s="326"/>
-      <c r="AH19" s="326"/>
-      <c r="AI19" s="326"/>
-      <c r="AJ19" s="326"/>
-      <c r="AK19" s="326"/>
-      <c r="AL19" s="326"/>
-      <c r="AM19" s="326"/>
-      <c r="AN19" s="326"/>
-      <c r="AO19" s="326"/>
-      <c r="AP19" s="326"/>
-      <c r="AQ19" s="326"/>
-      <c r="AR19" s="326"/>
-      <c r="AS19" s="326"/>
-      <c r="AT19" s="326"/>
-      <c r="AU19" s="326"/>
-      <c r="AV19" s="326"/>
-      <c r="AW19" s="326"/>
-      <c r="AX19" s="326"/>
-      <c r="AY19" s="326"/>
-      <c r="AZ19" s="326"/>
-      <c r="BA19" s="326"/>
-      <c r="BB19" s="326"/>
-      <c r="BC19" s="326"/>
-      <c r="BD19" s="326"/>
-      <c r="BE19" s="326"/>
-      <c r="BF19" s="326"/>
+      <c r="A19" s="354"/>
+      <c r="B19" s="354"/>
+      <c r="C19" s="355"/>
+      <c r="D19" s="356"/>
+      <c r="E19" s="356"/>
+      <c r="F19" s="356"/>
+      <c r="G19" s="357"/>
+      <c r="H19" s="357"/>
+      <c r="I19" s="357"/>
+      <c r="J19" s="357"/>
+      <c r="K19" s="357"/>
+      <c r="L19" s="354"/>
+      <c r="M19" s="354"/>
+      <c r="N19" s="354"/>
+      <c r="O19" s="354"/>
+      <c r="P19" s="354"/>
+      <c r="Q19" s="354"/>
+      <c r="R19" s="324"/>
+      <c r="S19" s="324"/>
+      <c r="T19" s="324"/>
+      <c r="U19" s="324"/>
+      <c r="V19" s="324"/>
+      <c r="W19" s="324"/>
+      <c r="X19" s="324"/>
+      <c r="Y19" s="324"/>
+      <c r="Z19" s="324"/>
+      <c r="AA19" s="324"/>
+      <c r="AB19" s="324"/>
+      <c r="AC19" s="324"/>
+      <c r="AD19" s="324"/>
+      <c r="AE19" s="324"/>
+      <c r="AF19" s="324"/>
+      <c r="AG19" s="324"/>
+      <c r="AH19" s="324"/>
+      <c r="AI19" s="324"/>
+      <c r="AJ19" s="324"/>
+      <c r="AK19" s="324"/>
+      <c r="AL19" s="324"/>
+      <c r="AM19" s="324"/>
+      <c r="AN19" s="324"/>
+      <c r="AO19" s="324"/>
+      <c r="AP19" s="324"/>
+      <c r="AQ19" s="324"/>
+      <c r="AR19" s="324"/>
+      <c r="AS19" s="324"/>
+      <c r="AT19" s="324"/>
+      <c r="AU19" s="324"/>
+      <c r="AV19" s="324"/>
+      <c r="AW19" s="324"/>
+      <c r="AX19" s="324"/>
+      <c r="AY19" s="324"/>
+      <c r="AZ19" s="324"/>
+      <c r="BA19" s="324"/>
+      <c r="BB19" s="324"/>
+      <c r="BC19" s="324"/>
+      <c r="BD19" s="324"/>
+      <c r="BE19" s="324"/>
+      <c r="BF19" s="324"/>
     </row>
     <row r="20" spans="1:58">
-      <c r="A20" s="327"/>
-      <c r="B20" s="327"/>
-      <c r="C20" s="324"/>
-      <c r="D20" s="328"/>
-      <c r="E20" s="328"/>
-      <c r="F20" s="328"/>
-      <c r="G20" s="325"/>
-      <c r="H20" s="325"/>
-      <c r="I20" s="325"/>
-      <c r="J20" s="325"/>
-      <c r="K20" s="325"/>
-      <c r="L20" s="327"/>
-      <c r="M20" s="327"/>
-      <c r="N20" s="327"/>
-      <c r="O20" s="327"/>
-      <c r="P20" s="327"/>
-      <c r="Q20" s="327"/>
-      <c r="R20" s="326"/>
-      <c r="S20" s="326"/>
-      <c r="T20" s="326"/>
-      <c r="U20" s="326"/>
-      <c r="V20" s="326"/>
-      <c r="W20" s="326"/>
-      <c r="X20" s="326"/>
-      <c r="Y20" s="326"/>
-      <c r="Z20" s="326"/>
-      <c r="AA20" s="326"/>
-      <c r="AB20" s="326"/>
-      <c r="AC20" s="326"/>
-      <c r="AD20" s="326"/>
-      <c r="AE20" s="326"/>
-      <c r="AF20" s="326"/>
-      <c r="AG20" s="326"/>
-      <c r="AH20" s="326"/>
-      <c r="AI20" s="326"/>
-      <c r="AJ20" s="326"/>
-      <c r="AK20" s="326"/>
-      <c r="AL20" s="326"/>
-      <c r="AM20" s="326"/>
-      <c r="AN20" s="326"/>
-      <c r="AO20" s="326"/>
-      <c r="AP20" s="326"/>
-      <c r="AQ20" s="326"/>
-      <c r="AR20" s="326"/>
-      <c r="AS20" s="326"/>
-      <c r="AT20" s="326"/>
-      <c r="AU20" s="326"/>
-      <c r="AV20" s="326"/>
-      <c r="AW20" s="326"/>
-      <c r="AX20" s="326"/>
-      <c r="AY20" s="326"/>
-      <c r="AZ20" s="326"/>
-      <c r="BA20" s="326"/>
-      <c r="BB20" s="326"/>
-      <c r="BC20" s="326"/>
-      <c r="BD20" s="326"/>
-      <c r="BE20" s="326"/>
-      <c r="BF20" s="326"/>
+      <c r="A20" s="354"/>
+      <c r="B20" s="354"/>
+      <c r="C20" s="355"/>
+      <c r="D20" s="356"/>
+      <c r="E20" s="356"/>
+      <c r="F20" s="356"/>
+      <c r="G20" s="357"/>
+      <c r="H20" s="357"/>
+      <c r="I20" s="357"/>
+      <c r="J20" s="357"/>
+      <c r="K20" s="357"/>
+      <c r="L20" s="354"/>
+      <c r="M20" s="354"/>
+      <c r="N20" s="354"/>
+      <c r="O20" s="354"/>
+      <c r="P20" s="354"/>
+      <c r="Q20" s="354"/>
+      <c r="R20" s="324"/>
+      <c r="S20" s="324"/>
+      <c r="T20" s="324"/>
+      <c r="U20" s="324"/>
+      <c r="V20" s="324"/>
+      <c r="W20" s="324"/>
+      <c r="X20" s="324"/>
+      <c r="Y20" s="324"/>
+      <c r="Z20" s="324"/>
+      <c r="AA20" s="324"/>
+      <c r="AB20" s="324"/>
+      <c r="AC20" s="324"/>
+      <c r="AD20" s="324"/>
+      <c r="AE20" s="324"/>
+      <c r="AF20" s="324"/>
+      <c r="AG20" s="324"/>
+      <c r="AH20" s="324"/>
+      <c r="AI20" s="324"/>
+      <c r="AJ20" s="324"/>
+      <c r="AK20" s="324"/>
+      <c r="AL20" s="324"/>
+      <c r="AM20" s="324"/>
+      <c r="AN20" s="324"/>
+      <c r="AO20" s="324"/>
+      <c r="AP20" s="324"/>
+      <c r="AQ20" s="324"/>
+      <c r="AR20" s="324"/>
+      <c r="AS20" s="324"/>
+      <c r="AT20" s="324"/>
+      <c r="AU20" s="324"/>
+      <c r="AV20" s="324"/>
+      <c r="AW20" s="324"/>
+      <c r="AX20" s="324"/>
+      <c r="AY20" s="324"/>
+      <c r="AZ20" s="324"/>
+      <c r="BA20" s="324"/>
+      <c r="BB20" s="324"/>
+      <c r="BC20" s="324"/>
+      <c r="BD20" s="324"/>
+      <c r="BE20" s="324"/>
+      <c r="BF20" s="324"/>
     </row>
     <row r="21" spans="1:58">
-      <c r="A21" s="327"/>
-      <c r="B21" s="327"/>
-      <c r="C21" s="324"/>
-      <c r="D21" s="328"/>
-      <c r="E21" s="328"/>
-      <c r="F21" s="328"/>
-      <c r="G21" s="325"/>
-      <c r="H21" s="325"/>
-      <c r="I21" s="325"/>
-      <c r="J21" s="325"/>
-      <c r="K21" s="325"/>
-      <c r="L21" s="327"/>
-      <c r="M21" s="327"/>
-      <c r="N21" s="327"/>
-      <c r="O21" s="327"/>
-      <c r="P21" s="327"/>
-      <c r="Q21" s="327"/>
-      <c r="R21" s="326"/>
-      <c r="S21" s="326"/>
-      <c r="T21" s="326"/>
-      <c r="U21" s="326"/>
-      <c r="V21" s="326"/>
-      <c r="W21" s="326"/>
-      <c r="X21" s="326"/>
-      <c r="Y21" s="326"/>
-      <c r="Z21" s="326"/>
-      <c r="AA21" s="326"/>
-      <c r="AB21" s="326"/>
-      <c r="AC21" s="326"/>
-      <c r="AD21" s="326"/>
-      <c r="AE21" s="326"/>
-      <c r="AF21" s="326"/>
-      <c r="AG21" s="326"/>
-      <c r="AH21" s="326"/>
-      <c r="AI21" s="326"/>
-      <c r="AJ21" s="326"/>
-      <c r="AK21" s="326"/>
-      <c r="AL21" s="326"/>
-      <c r="AM21" s="326"/>
-      <c r="AN21" s="326"/>
-      <c r="AO21" s="326"/>
-      <c r="AP21" s="326"/>
-      <c r="AQ21" s="326"/>
-      <c r="AR21" s="326"/>
-      <c r="AS21" s="326"/>
-      <c r="AT21" s="326"/>
-      <c r="AU21" s="326"/>
-      <c r="AV21" s="326"/>
-      <c r="AW21" s="326"/>
-      <c r="AX21" s="326"/>
-      <c r="AY21" s="326"/>
-      <c r="AZ21" s="326"/>
-      <c r="BA21" s="326"/>
-      <c r="BB21" s="326"/>
-      <c r="BC21" s="326"/>
-      <c r="BD21" s="326"/>
-      <c r="BE21" s="326"/>
-      <c r="BF21" s="326"/>
+      <c r="A21" s="354"/>
+      <c r="B21" s="354"/>
+      <c r="C21" s="355"/>
+      <c r="D21" s="356"/>
+      <c r="E21" s="356"/>
+      <c r="F21" s="356"/>
+      <c r="G21" s="357"/>
+      <c r="H21" s="357"/>
+      <c r="I21" s="357"/>
+      <c r="J21" s="357"/>
+      <c r="K21" s="357"/>
+      <c r="L21" s="354"/>
+      <c r="M21" s="354"/>
+      <c r="N21" s="354"/>
+      <c r="O21" s="354"/>
+      <c r="P21" s="354"/>
+      <c r="Q21" s="354"/>
+      <c r="R21" s="324"/>
+      <c r="S21" s="324"/>
+      <c r="T21" s="324"/>
+      <c r="U21" s="324"/>
+      <c r="V21" s="324"/>
+      <c r="W21" s="324"/>
+      <c r="X21" s="324"/>
+      <c r="Y21" s="324"/>
+      <c r="Z21" s="324"/>
+      <c r="AA21" s="324"/>
+      <c r="AB21" s="324"/>
+      <c r="AC21" s="324"/>
+      <c r="AD21" s="324"/>
+      <c r="AE21" s="324"/>
+      <c r="AF21" s="324"/>
+      <c r="AG21" s="324"/>
+      <c r="AH21" s="324"/>
+      <c r="AI21" s="324"/>
+      <c r="AJ21" s="324"/>
+      <c r="AK21" s="324"/>
+      <c r="AL21" s="324"/>
+      <c r="AM21" s="324"/>
+      <c r="AN21" s="324"/>
+      <c r="AO21" s="324"/>
+      <c r="AP21" s="324"/>
+      <c r="AQ21" s="324"/>
+      <c r="AR21" s="324"/>
+      <c r="AS21" s="324"/>
+      <c r="AT21" s="324"/>
+      <c r="AU21" s="324"/>
+      <c r="AV21" s="324"/>
+      <c r="AW21" s="324"/>
+      <c r="AX21" s="324"/>
+      <c r="AY21" s="324"/>
+      <c r="AZ21" s="324"/>
+      <c r="BA21" s="324"/>
+      <c r="BB21" s="324"/>
+      <c r="BC21" s="324"/>
+      <c r="BD21" s="324"/>
+      <c r="BE21" s="324"/>
+      <c r="BF21" s="324"/>
     </row>
     <row r="22" spans="1:58">
-      <c r="A22" s="327"/>
-      <c r="B22" s="327"/>
-      <c r="C22" s="324"/>
-      <c r="D22" s="328"/>
-      <c r="E22" s="328"/>
-      <c r="F22" s="328"/>
-      <c r="G22" s="325"/>
-      <c r="H22" s="325"/>
-      <c r="I22" s="325"/>
-      <c r="J22" s="325"/>
-      <c r="K22" s="325"/>
-      <c r="L22" s="327"/>
-      <c r="M22" s="327"/>
-      <c r="N22" s="327"/>
-      <c r="O22" s="327"/>
-      <c r="P22" s="327"/>
-      <c r="Q22" s="327"/>
-      <c r="R22" s="326"/>
-      <c r="S22" s="326"/>
-      <c r="T22" s="326"/>
-      <c r="U22" s="326"/>
-      <c r="V22" s="326"/>
-      <c r="W22" s="326"/>
-      <c r="X22" s="326"/>
-      <c r="Y22" s="326"/>
-      <c r="Z22" s="326"/>
-      <c r="AA22" s="326"/>
-      <c r="AB22" s="326"/>
-      <c r="AC22" s="326"/>
-      <c r="AD22" s="326"/>
-      <c r="AE22" s="326"/>
-      <c r="AF22" s="326"/>
-      <c r="AG22" s="326"/>
-      <c r="AH22" s="326"/>
-      <c r="AI22" s="326"/>
-      <c r="AJ22" s="326"/>
-      <c r="AK22" s="326"/>
-      <c r="AL22" s="326"/>
-      <c r="AM22" s="326"/>
-      <c r="AN22" s="326"/>
-      <c r="AO22" s="326"/>
-      <c r="AP22" s="326"/>
-      <c r="AQ22" s="326"/>
-      <c r="AR22" s="326"/>
-      <c r="AS22" s="326"/>
-      <c r="AT22" s="326"/>
-      <c r="AU22" s="326"/>
-      <c r="AV22" s="326"/>
-      <c r="AW22" s="326"/>
-      <c r="AX22" s="326"/>
-      <c r="AY22" s="326"/>
-      <c r="AZ22" s="326"/>
-      <c r="BA22" s="326"/>
-      <c r="BB22" s="326"/>
-      <c r="BC22" s="326"/>
-      <c r="BD22" s="326"/>
-      <c r="BE22" s="326"/>
-      <c r="BF22" s="326"/>
+      <c r="A22" s="354"/>
+      <c r="B22" s="354"/>
+      <c r="C22" s="355"/>
+      <c r="D22" s="356"/>
+      <c r="E22" s="356"/>
+      <c r="F22" s="356"/>
+      <c r="G22" s="357"/>
+      <c r="H22" s="357"/>
+      <c r="I22" s="357"/>
+      <c r="J22" s="357"/>
+      <c r="K22" s="357"/>
+      <c r="L22" s="354"/>
+      <c r="M22" s="354"/>
+      <c r="N22" s="354"/>
+      <c r="O22" s="354"/>
+      <c r="P22" s="354"/>
+      <c r="Q22" s="354"/>
+      <c r="R22" s="324"/>
+      <c r="S22" s="324"/>
+      <c r="T22" s="324"/>
+      <c r="U22" s="324"/>
+      <c r="V22" s="324"/>
+      <c r="W22" s="324"/>
+      <c r="X22" s="324"/>
+      <c r="Y22" s="324"/>
+      <c r="Z22" s="324"/>
+      <c r="AA22" s="324"/>
+      <c r="AB22" s="324"/>
+      <c r="AC22" s="324"/>
+      <c r="AD22" s="324"/>
+      <c r="AE22" s="324"/>
+      <c r="AF22" s="324"/>
+      <c r="AG22" s="324"/>
+      <c r="AH22" s="324"/>
+      <c r="AI22" s="324"/>
+      <c r="AJ22" s="324"/>
+      <c r="AK22" s="324"/>
+      <c r="AL22" s="324"/>
+      <c r="AM22" s="324"/>
+      <c r="AN22" s="324"/>
+      <c r="AO22" s="324"/>
+      <c r="AP22" s="324"/>
+      <c r="AQ22" s="324"/>
+      <c r="AR22" s="324"/>
+      <c r="AS22" s="324"/>
+      <c r="AT22" s="324"/>
+      <c r="AU22" s="324"/>
+      <c r="AV22" s="324"/>
+      <c r="AW22" s="324"/>
+      <c r="AX22" s="324"/>
+      <c r="AY22" s="324"/>
+      <c r="AZ22" s="324"/>
+      <c r="BA22" s="324"/>
+      <c r="BB22" s="324"/>
+      <c r="BC22" s="324"/>
+      <c r="BD22" s="324"/>
+      <c r="BE22" s="324"/>
+      <c r="BF22" s="324"/>
     </row>
     <row r="23" spans="1:58">
-      <c r="A23" s="327"/>
-      <c r="B23" s="327"/>
-      <c r="C23" s="324"/>
-      <c r="D23" s="328"/>
-      <c r="E23" s="328"/>
-      <c r="F23" s="328"/>
-      <c r="G23" s="325"/>
-      <c r="H23" s="325"/>
-      <c r="I23" s="325"/>
-      <c r="J23" s="325"/>
-      <c r="K23" s="325"/>
-      <c r="L23" s="327"/>
-      <c r="M23" s="327"/>
-      <c r="N23" s="327"/>
-      <c r="O23" s="327"/>
-      <c r="P23" s="327"/>
-      <c r="Q23" s="327"/>
-      <c r="R23" s="326"/>
-      <c r="S23" s="326"/>
-      <c r="T23" s="326"/>
-      <c r="U23" s="326"/>
-      <c r="V23" s="326"/>
-      <c r="W23" s="326"/>
-      <c r="X23" s="326"/>
-      <c r="Y23" s="326"/>
-      <c r="Z23" s="326"/>
-      <c r="AA23" s="326"/>
-      <c r="AB23" s="326"/>
-      <c r="AC23" s="326"/>
-      <c r="AD23" s="326"/>
-      <c r="AE23" s="326"/>
-      <c r="AF23" s="326"/>
-      <c r="AG23" s="326"/>
-      <c r="AH23" s="326"/>
-      <c r="AI23" s="326"/>
-      <c r="AJ23" s="326"/>
-      <c r="AK23" s="326"/>
-      <c r="AL23" s="326"/>
-      <c r="AM23" s="326"/>
-      <c r="AN23" s="326"/>
-      <c r="AO23" s="326"/>
-      <c r="AP23" s="326"/>
-      <c r="AQ23" s="326"/>
-      <c r="AR23" s="326"/>
-      <c r="AS23" s="326"/>
-      <c r="AT23" s="326"/>
-      <c r="AU23" s="326"/>
-      <c r="AV23" s="326"/>
-      <c r="AW23" s="326"/>
-      <c r="AX23" s="326"/>
-      <c r="AY23" s="326"/>
-      <c r="AZ23" s="326"/>
-      <c r="BA23" s="326"/>
-      <c r="BB23" s="326"/>
-      <c r="BC23" s="326"/>
-      <c r="BD23" s="326"/>
-      <c r="BE23" s="326"/>
-      <c r="BF23" s="326"/>
+      <c r="A23" s="354"/>
+      <c r="B23" s="354"/>
+      <c r="C23" s="355"/>
+      <c r="D23" s="356"/>
+      <c r="E23" s="356"/>
+      <c r="F23" s="356"/>
+      <c r="G23" s="357"/>
+      <c r="H23" s="357"/>
+      <c r="I23" s="357"/>
+      <c r="J23" s="357"/>
+      <c r="K23" s="357"/>
+      <c r="L23" s="354"/>
+      <c r="M23" s="354"/>
+      <c r="N23" s="354"/>
+      <c r="O23" s="354"/>
+      <c r="P23" s="354"/>
+      <c r="Q23" s="354"/>
+      <c r="R23" s="324"/>
+      <c r="S23" s="324"/>
+      <c r="T23" s="324"/>
+      <c r="U23" s="324"/>
+      <c r="V23" s="324"/>
+      <c r="W23" s="324"/>
+      <c r="X23" s="324"/>
+      <c r="Y23" s="324"/>
+      <c r="Z23" s="324"/>
+      <c r="AA23" s="324"/>
+      <c r="AB23" s="324"/>
+      <c r="AC23" s="324"/>
+      <c r="AD23" s="324"/>
+      <c r="AE23" s="324"/>
+      <c r="AF23" s="324"/>
+      <c r="AG23" s="324"/>
+      <c r="AH23" s="324"/>
+      <c r="AI23" s="324"/>
+      <c r="AJ23" s="324"/>
+      <c r="AK23" s="324"/>
+      <c r="AL23" s="324"/>
+      <c r="AM23" s="324"/>
+      <c r="AN23" s="324"/>
+      <c r="AO23" s="324"/>
+      <c r="AP23" s="324"/>
+      <c r="AQ23" s="324"/>
+      <c r="AR23" s="324"/>
+      <c r="AS23" s="324"/>
+      <c r="AT23" s="324"/>
+      <c r="AU23" s="324"/>
+      <c r="AV23" s="324"/>
+      <c r="AW23" s="324"/>
+      <c r="AX23" s="324"/>
+      <c r="AY23" s="324"/>
+      <c r="AZ23" s="324"/>
+      <c r="BA23" s="324"/>
+      <c r="BB23" s="324"/>
+      <c r="BC23" s="324"/>
+      <c r="BD23" s="324"/>
+      <c r="BE23" s="324"/>
+      <c r="BF23" s="324"/>
     </row>
     <row r="24" spans="1:58">
-      <c r="A24" s="327"/>
-      <c r="B24" s="327"/>
-      <c r="C24" s="324"/>
-      <c r="D24" s="328"/>
-      <c r="E24" s="328"/>
-      <c r="F24" s="328"/>
-      <c r="G24" s="325"/>
-      <c r="H24" s="325"/>
-      <c r="I24" s="325"/>
-      <c r="J24" s="325"/>
-      <c r="K24" s="325"/>
-      <c r="L24" s="327"/>
-      <c r="M24" s="327"/>
-      <c r="N24" s="327"/>
-      <c r="O24" s="327"/>
-      <c r="P24" s="327"/>
-      <c r="Q24" s="327"/>
-      <c r="R24" s="326"/>
-      <c r="S24" s="326"/>
-      <c r="T24" s="326"/>
-      <c r="U24" s="326"/>
-      <c r="V24" s="326"/>
-      <c r="W24" s="326"/>
-      <c r="X24" s="326"/>
-      <c r="Y24" s="326"/>
-      <c r="Z24" s="326"/>
-      <c r="AA24" s="326"/>
-      <c r="AB24" s="326"/>
-      <c r="AC24" s="326"/>
-      <c r="AD24" s="326"/>
-      <c r="AE24" s="326"/>
-      <c r="AF24" s="326"/>
-      <c r="AG24" s="326"/>
-      <c r="AH24" s="326"/>
-      <c r="AI24" s="326"/>
-      <c r="AJ24" s="326"/>
-      <c r="AK24" s="326"/>
-      <c r="AL24" s="326"/>
-      <c r="AM24" s="326"/>
-      <c r="AN24" s="326"/>
-      <c r="AO24" s="326"/>
-      <c r="AP24" s="326"/>
-      <c r="AQ24" s="326"/>
-      <c r="AR24" s="326"/>
-      <c r="AS24" s="326"/>
-      <c r="AT24" s="326"/>
-      <c r="AU24" s="326"/>
-      <c r="AV24" s="326"/>
-      <c r="AW24" s="326"/>
-      <c r="AX24" s="326"/>
-      <c r="AY24" s="326"/>
-      <c r="AZ24" s="326"/>
-      <c r="BA24" s="326"/>
-      <c r="BB24" s="326"/>
-      <c r="BC24" s="326"/>
-      <c r="BD24" s="326"/>
-      <c r="BE24" s="326"/>
-      <c r="BF24" s="326"/>
+      <c r="A24" s="354"/>
+      <c r="B24" s="354"/>
+      <c r="C24" s="355"/>
+      <c r="D24" s="356"/>
+      <c r="E24" s="356"/>
+      <c r="F24" s="356"/>
+      <c r="G24" s="357"/>
+      <c r="H24" s="357"/>
+      <c r="I24" s="357"/>
+      <c r="J24" s="357"/>
+      <c r="K24" s="357"/>
+      <c r="L24" s="354"/>
+      <c r="M24" s="354"/>
+      <c r="N24" s="354"/>
+      <c r="O24" s="354"/>
+      <c r="P24" s="354"/>
+      <c r="Q24" s="354"/>
+      <c r="R24" s="324"/>
+      <c r="S24" s="324"/>
+      <c r="T24" s="324"/>
+      <c r="U24" s="324"/>
+      <c r="V24" s="324"/>
+      <c r="W24" s="324"/>
+      <c r="X24" s="324"/>
+      <c r="Y24" s="324"/>
+      <c r="Z24" s="324"/>
+      <c r="AA24" s="324"/>
+      <c r="AB24" s="324"/>
+      <c r="AC24" s="324"/>
+      <c r="AD24" s="324"/>
+      <c r="AE24" s="324"/>
+      <c r="AF24" s="324"/>
+      <c r="AG24" s="324"/>
+      <c r="AH24" s="324"/>
+      <c r="AI24" s="324"/>
+      <c r="AJ24" s="324"/>
+      <c r="AK24" s="324"/>
+      <c r="AL24" s="324"/>
+      <c r="AM24" s="324"/>
+      <c r="AN24" s="324"/>
+      <c r="AO24" s="324"/>
+      <c r="AP24" s="324"/>
+      <c r="AQ24" s="324"/>
+      <c r="AR24" s="324"/>
+      <c r="AS24" s="324"/>
+      <c r="AT24" s="324"/>
+      <c r="AU24" s="324"/>
+      <c r="AV24" s="324"/>
+      <c r="AW24" s="324"/>
+      <c r="AX24" s="324"/>
+      <c r="AY24" s="324"/>
+      <c r="AZ24" s="324"/>
+      <c r="BA24" s="324"/>
+      <c r="BB24" s="324"/>
+      <c r="BC24" s="324"/>
+      <c r="BD24" s="324"/>
+      <c r="BE24" s="324"/>
+      <c r="BF24" s="324"/>
     </row>
     <row r="25" spans="1:58">
-      <c r="A25" s="327"/>
-      <c r="B25" s="327"/>
-      <c r="C25" s="324"/>
-      <c r="D25" s="328"/>
-      <c r="E25" s="328"/>
-      <c r="F25" s="328"/>
-      <c r="G25" s="325"/>
-      <c r="H25" s="325"/>
-      <c r="I25" s="325"/>
-      <c r="J25" s="325"/>
-      <c r="K25" s="325"/>
-      <c r="L25" s="327"/>
-      <c r="M25" s="327"/>
-      <c r="N25" s="327"/>
-      <c r="O25" s="327"/>
-      <c r="P25" s="327"/>
-      <c r="Q25" s="327"/>
-      <c r="R25" s="326"/>
-      <c r="S25" s="326"/>
-      <c r="T25" s="326"/>
-      <c r="U25" s="326"/>
-      <c r="V25" s="326"/>
-      <c r="W25" s="326"/>
-      <c r="X25" s="326"/>
-      <c r="Y25" s="326"/>
-      <c r="Z25" s="326"/>
-      <c r="AA25" s="326"/>
-      <c r="AB25" s="326"/>
-      <c r="AC25" s="326"/>
-      <c r="AD25" s="326"/>
-      <c r="AE25" s="326"/>
-      <c r="AF25" s="326"/>
-      <c r="AG25" s="326"/>
-      <c r="AH25" s="326"/>
-      <c r="AI25" s="326"/>
-      <c r="AJ25" s="326"/>
-      <c r="AK25" s="326"/>
-      <c r="AL25" s="326"/>
-      <c r="AM25" s="326"/>
-      <c r="AN25" s="326"/>
-      <c r="AO25" s="326"/>
-      <c r="AP25" s="326"/>
-      <c r="AQ25" s="326"/>
-      <c r="AR25" s="326"/>
-      <c r="AS25" s="326"/>
-      <c r="AT25" s="326"/>
-      <c r="AU25" s="326"/>
-      <c r="AV25" s="326"/>
-      <c r="AW25" s="326"/>
-      <c r="AX25" s="326"/>
-      <c r="AY25" s="326"/>
-      <c r="AZ25" s="326"/>
-      <c r="BA25" s="326"/>
-      <c r="BB25" s="326"/>
-      <c r="BC25" s="326"/>
-      <c r="BD25" s="326"/>
-      <c r="BE25" s="326"/>
-      <c r="BF25" s="326"/>
+      <c r="A25" s="354"/>
+      <c r="B25" s="354"/>
+      <c r="C25" s="355"/>
+      <c r="D25" s="356"/>
+      <c r="E25" s="356"/>
+      <c r="F25" s="356"/>
+      <c r="G25" s="357"/>
+      <c r="H25" s="357"/>
+      <c r="I25" s="357"/>
+      <c r="J25" s="357"/>
+      <c r="K25" s="357"/>
+      <c r="L25" s="354"/>
+      <c r="M25" s="354"/>
+      <c r="N25" s="354"/>
+      <c r="O25" s="354"/>
+      <c r="P25" s="354"/>
+      <c r="Q25" s="354"/>
+      <c r="R25" s="324"/>
+      <c r="S25" s="324"/>
+      <c r="T25" s="324"/>
+      <c r="U25" s="324"/>
+      <c r="V25" s="324"/>
+      <c r="W25" s="324"/>
+      <c r="X25" s="324"/>
+      <c r="Y25" s="324"/>
+      <c r="Z25" s="324"/>
+      <c r="AA25" s="324"/>
+      <c r="AB25" s="324"/>
+      <c r="AC25" s="324"/>
+      <c r="AD25" s="324"/>
+      <c r="AE25" s="324"/>
+      <c r="AF25" s="324"/>
+      <c r="AG25" s="324"/>
+      <c r="AH25" s="324"/>
+      <c r="AI25" s="324"/>
+      <c r="AJ25" s="324"/>
+      <c r="AK25" s="324"/>
+      <c r="AL25" s="324"/>
+      <c r="AM25" s="324"/>
+      <c r="AN25" s="324"/>
+      <c r="AO25" s="324"/>
+      <c r="AP25" s="324"/>
+      <c r="AQ25" s="324"/>
+      <c r="AR25" s="324"/>
+      <c r="AS25" s="324"/>
+      <c r="AT25" s="324"/>
+      <c r="AU25" s="324"/>
+      <c r="AV25" s="324"/>
+      <c r="AW25" s="324"/>
+      <c r="AX25" s="324"/>
+      <c r="AY25" s="324"/>
+      <c r="AZ25" s="324"/>
+      <c r="BA25" s="324"/>
+      <c r="BB25" s="324"/>
+      <c r="BC25" s="324"/>
+      <c r="BD25" s="324"/>
+      <c r="BE25" s="324"/>
+      <c r="BF25" s="324"/>
     </row>
     <row r="26" spans="1:58">
-      <c r="A26" s="327"/>
-      <c r="B26" s="327"/>
-      <c r="C26" s="324"/>
-      <c r="D26" s="328"/>
-      <c r="E26" s="328"/>
-      <c r="F26" s="328"/>
-      <c r="G26" s="325"/>
-      <c r="H26" s="325"/>
-      <c r="I26" s="325"/>
-      <c r="J26" s="325"/>
-      <c r="K26" s="325"/>
-      <c r="L26" s="327"/>
-      <c r="M26" s="327"/>
-      <c r="N26" s="327"/>
-      <c r="O26" s="327"/>
-      <c r="P26" s="327"/>
-      <c r="Q26" s="327"/>
-      <c r="R26" s="326"/>
-      <c r="S26" s="326"/>
-      <c r="T26" s="326"/>
-      <c r="U26" s="326"/>
-      <c r="V26" s="326"/>
-      <c r="W26" s="326"/>
-      <c r="X26" s="326"/>
-      <c r="Y26" s="326"/>
-      <c r="Z26" s="326"/>
-      <c r="AA26" s="326"/>
-      <c r="AB26" s="326"/>
-      <c r="AC26" s="326"/>
-      <c r="AD26" s="326"/>
-      <c r="AE26" s="326"/>
-      <c r="AF26" s="326"/>
-      <c r="AG26" s="326"/>
-      <c r="AH26" s="326"/>
-      <c r="AI26" s="326"/>
-      <c r="AJ26" s="326"/>
-      <c r="AK26" s="326"/>
-      <c r="AL26" s="326"/>
-      <c r="AM26" s="326"/>
-      <c r="AN26" s="326"/>
-      <c r="AO26" s="326"/>
-      <c r="AP26" s="326"/>
-      <c r="AQ26" s="326"/>
-      <c r="AR26" s="326"/>
-      <c r="AS26" s="326"/>
-      <c r="AT26" s="326"/>
-      <c r="AU26" s="326"/>
-      <c r="AV26" s="326"/>
-      <c r="AW26" s="326"/>
-      <c r="AX26" s="326"/>
-      <c r="AY26" s="326"/>
-      <c r="AZ26" s="326"/>
-      <c r="BA26" s="326"/>
-      <c r="BB26" s="326"/>
-      <c r="BC26" s="326"/>
-      <c r="BD26" s="326"/>
-      <c r="BE26" s="326"/>
-      <c r="BF26" s="326"/>
+      <c r="A26" s="354"/>
+      <c r="B26" s="354"/>
+      <c r="C26" s="355"/>
+      <c r="D26" s="356"/>
+      <c r="E26" s="356"/>
+      <c r="F26" s="356"/>
+      <c r="G26" s="357"/>
+      <c r="H26" s="357"/>
+      <c r="I26" s="357"/>
+      <c r="J26" s="357"/>
+      <c r="K26" s="357"/>
+      <c r="L26" s="354"/>
+      <c r="M26" s="354"/>
+      <c r="N26" s="354"/>
+      <c r="O26" s="354"/>
+      <c r="P26" s="354"/>
+      <c r="Q26" s="354"/>
+      <c r="R26" s="324"/>
+      <c r="S26" s="324"/>
+      <c r="T26" s="324"/>
+      <c r="U26" s="324"/>
+      <c r="V26" s="324"/>
+      <c r="W26" s="324"/>
+      <c r="X26" s="324"/>
+      <c r="Y26" s="324"/>
+      <c r="Z26" s="324"/>
+      <c r="AA26" s="324"/>
+      <c r="AB26" s="324"/>
+      <c r="AC26" s="324"/>
+      <c r="AD26" s="324"/>
+      <c r="AE26" s="324"/>
+      <c r="AF26" s="324"/>
+      <c r="AG26" s="324"/>
+      <c r="AH26" s="324"/>
+      <c r="AI26" s="324"/>
+      <c r="AJ26" s="324"/>
+      <c r="AK26" s="324"/>
+      <c r="AL26" s="324"/>
+      <c r="AM26" s="324"/>
+      <c r="AN26" s="324"/>
+      <c r="AO26" s="324"/>
+      <c r="AP26" s="324"/>
+      <c r="AQ26" s="324"/>
+      <c r="AR26" s="324"/>
+      <c r="AS26" s="324"/>
+      <c r="AT26" s="324"/>
+      <c r="AU26" s="324"/>
+      <c r="AV26" s="324"/>
+      <c r="AW26" s="324"/>
+      <c r="AX26" s="324"/>
+      <c r="AY26" s="324"/>
+      <c r="AZ26" s="324"/>
+      <c r="BA26" s="324"/>
+      <c r="BB26" s="324"/>
+      <c r="BC26" s="324"/>
+      <c r="BD26" s="324"/>
+      <c r="BE26" s="324"/>
+      <c r="BF26" s="324"/>
     </row>
     <row r="27" spans="1:58">
-      <c r="A27" s="327"/>
-      <c r="B27" s="327"/>
-      <c r="C27" s="324"/>
-      <c r="D27" s="328"/>
-      <c r="E27" s="328"/>
-      <c r="F27" s="328"/>
-      <c r="G27" s="325"/>
-      <c r="H27" s="325"/>
-      <c r="I27" s="325"/>
-      <c r="J27" s="325"/>
-      <c r="K27" s="325"/>
-      <c r="L27" s="327"/>
-      <c r="M27" s="327"/>
-      <c r="N27" s="327"/>
-      <c r="O27" s="327"/>
-      <c r="P27" s="327"/>
-      <c r="Q27" s="327"/>
-      <c r="R27" s="326"/>
-      <c r="S27" s="326"/>
-      <c r="T27" s="326"/>
-      <c r="U27" s="326"/>
-      <c r="V27" s="326"/>
-      <c r="W27" s="326"/>
-      <c r="X27" s="326"/>
-      <c r="Y27" s="326"/>
-      <c r="Z27" s="326"/>
-      <c r="AA27" s="326"/>
-      <c r="AB27" s="326"/>
-      <c r="AC27" s="326"/>
-      <c r="AD27" s="326"/>
-      <c r="AE27" s="326"/>
-      <c r="AF27" s="326"/>
-      <c r="AG27" s="326"/>
-      <c r="AH27" s="326"/>
-      <c r="AI27" s="326"/>
-      <c r="AJ27" s="326"/>
-      <c r="AK27" s="326"/>
-      <c r="AL27" s="326"/>
-      <c r="AM27" s="326"/>
-      <c r="AN27" s="326"/>
-      <c r="AO27" s="326"/>
-      <c r="AP27" s="326"/>
-      <c r="AQ27" s="326"/>
-      <c r="AR27" s="326"/>
-      <c r="AS27" s="326"/>
-      <c r="AT27" s="326"/>
-      <c r="AU27" s="326"/>
-      <c r="AV27" s="326"/>
-      <c r="AW27" s="326"/>
-      <c r="AX27" s="326"/>
-      <c r="AY27" s="326"/>
-      <c r="AZ27" s="326"/>
-      <c r="BA27" s="326"/>
-      <c r="BB27" s="326"/>
-      <c r="BC27" s="326"/>
-      <c r="BD27" s="326"/>
-      <c r="BE27" s="326"/>
-      <c r="BF27" s="326"/>
+      <c r="A27" s="354"/>
+      <c r="B27" s="354"/>
+      <c r="C27" s="355"/>
+      <c r="D27" s="356"/>
+      <c r="E27" s="356"/>
+      <c r="F27" s="356"/>
+      <c r="G27" s="357"/>
+      <c r="H27" s="357"/>
+      <c r="I27" s="357"/>
+      <c r="J27" s="357"/>
+      <c r="K27" s="357"/>
+      <c r="L27" s="354"/>
+      <c r="M27" s="354"/>
+      <c r="N27" s="354"/>
+      <c r="O27" s="354"/>
+      <c r="P27" s="354"/>
+      <c r="Q27" s="354"/>
+      <c r="R27" s="324"/>
+      <c r="S27" s="324"/>
+      <c r="T27" s="324"/>
+      <c r="U27" s="324"/>
+      <c r="V27" s="324"/>
+      <c r="W27" s="324"/>
+      <c r="X27" s="324"/>
+      <c r="Y27" s="324"/>
+      <c r="Z27" s="324"/>
+      <c r="AA27" s="324"/>
+      <c r="AB27" s="324"/>
+      <c r="AC27" s="324"/>
+      <c r="AD27" s="324"/>
+      <c r="AE27" s="324"/>
+      <c r="AF27" s="324"/>
+      <c r="AG27" s="324"/>
+      <c r="AH27" s="324"/>
+      <c r="AI27" s="324"/>
+      <c r="AJ27" s="324"/>
+      <c r="AK27" s="324"/>
+      <c r="AL27" s="324"/>
+      <c r="AM27" s="324"/>
+      <c r="AN27" s="324"/>
+      <c r="AO27" s="324"/>
+      <c r="AP27" s="324"/>
+      <c r="AQ27" s="324"/>
+      <c r="AR27" s="324"/>
+      <c r="AS27" s="324"/>
+      <c r="AT27" s="324"/>
+      <c r="AU27" s="324"/>
+      <c r="AV27" s="324"/>
+      <c r="AW27" s="324"/>
+      <c r="AX27" s="324"/>
+      <c r="AY27" s="324"/>
+      <c r="AZ27" s="324"/>
+      <c r="BA27" s="324"/>
+      <c r="BB27" s="324"/>
+      <c r="BC27" s="324"/>
+      <c r="BD27" s="324"/>
+      <c r="BE27" s="324"/>
+      <c r="BF27" s="324"/>
     </row>
     <row r="28" spans="1:58">
-      <c r="A28" s="327"/>
-      <c r="B28" s="327"/>
-      <c r="C28" s="324"/>
-      <c r="D28" s="328"/>
-      <c r="E28" s="328"/>
-      <c r="F28" s="328"/>
-      <c r="G28" s="325"/>
-      <c r="H28" s="325"/>
-      <c r="I28" s="325"/>
-      <c r="J28" s="325"/>
-      <c r="K28" s="325"/>
-      <c r="L28" s="327"/>
-      <c r="M28" s="327"/>
-      <c r="N28" s="327"/>
-      <c r="O28" s="327"/>
-      <c r="P28" s="327"/>
-      <c r="Q28" s="327"/>
-      <c r="R28" s="326"/>
-      <c r="S28" s="326"/>
-      <c r="T28" s="326"/>
-      <c r="U28" s="326"/>
-      <c r="V28" s="326"/>
-      <c r="W28" s="326"/>
-      <c r="X28" s="326"/>
-      <c r="Y28" s="326"/>
-      <c r="Z28" s="326"/>
-      <c r="AA28" s="326"/>
-      <c r="AB28" s="326"/>
-      <c r="AC28" s="326"/>
-      <c r="AD28" s="326"/>
-      <c r="AE28" s="326"/>
-      <c r="AF28" s="326"/>
-      <c r="AG28" s="326"/>
-      <c r="AH28" s="326"/>
-      <c r="AI28" s="326"/>
-      <c r="AJ28" s="326"/>
-      <c r="AK28" s="326"/>
-      <c r="AL28" s="326"/>
-      <c r="AM28" s="326"/>
-      <c r="AN28" s="326"/>
-      <c r="AO28" s="326"/>
-      <c r="AP28" s="326"/>
-      <c r="AQ28" s="326"/>
-      <c r="AR28" s="326"/>
-      <c r="AS28" s="326"/>
-      <c r="AT28" s="326"/>
-      <c r="AU28" s="326"/>
-      <c r="AV28" s="326"/>
-      <c r="AW28" s="326"/>
-      <c r="AX28" s="326"/>
-      <c r="AY28" s="326"/>
-      <c r="AZ28" s="326"/>
-      <c r="BA28" s="326"/>
-      <c r="BB28" s="326"/>
-      <c r="BC28" s="326"/>
-      <c r="BD28" s="326"/>
-      <c r="BE28" s="326"/>
-      <c r="BF28" s="326"/>
+      <c r="A28" s="354"/>
+      <c r="B28" s="354"/>
+      <c r="C28" s="355"/>
+      <c r="D28" s="356"/>
+      <c r="E28" s="356"/>
+      <c r="F28" s="356"/>
+      <c r="G28" s="357"/>
+      <c r="H28" s="357"/>
+      <c r="I28" s="357"/>
+      <c r="J28" s="357"/>
+      <c r="K28" s="357"/>
+      <c r="L28" s="354"/>
+      <c r="M28" s="354"/>
+      <c r="N28" s="354"/>
+      <c r="O28" s="354"/>
+      <c r="P28" s="354"/>
+      <c r="Q28" s="354"/>
+      <c r="R28" s="324"/>
+      <c r="S28" s="324"/>
+      <c r="T28" s="324"/>
+      <c r="U28" s="324"/>
+      <c r="V28" s="324"/>
+      <c r="W28" s="324"/>
+      <c r="X28" s="324"/>
+      <c r="Y28" s="324"/>
+      <c r="Z28" s="324"/>
+      <c r="AA28" s="324"/>
+      <c r="AB28" s="324"/>
+      <c r="AC28" s="324"/>
+      <c r="AD28" s="324"/>
+      <c r="AE28" s="324"/>
+      <c r="AF28" s="324"/>
+      <c r="AG28" s="324"/>
+      <c r="AH28" s="324"/>
+      <c r="AI28" s="324"/>
+      <c r="AJ28" s="324"/>
+      <c r="AK28" s="324"/>
+      <c r="AL28" s="324"/>
+      <c r="AM28" s="324"/>
+      <c r="AN28" s="324"/>
+      <c r="AO28" s="324"/>
+      <c r="AP28" s="324"/>
+      <c r="AQ28" s="324"/>
+      <c r="AR28" s="324"/>
+      <c r="AS28" s="324"/>
+      <c r="AT28" s="324"/>
+      <c r="AU28" s="324"/>
+      <c r="AV28" s="324"/>
+      <c r="AW28" s="324"/>
+      <c r="AX28" s="324"/>
+      <c r="AY28" s="324"/>
+      <c r="AZ28" s="324"/>
+      <c r="BA28" s="324"/>
+      <c r="BB28" s="324"/>
+      <c r="BC28" s="324"/>
+      <c r="BD28" s="324"/>
+      <c r="BE28" s="324"/>
+      <c r="BF28" s="324"/>
     </row>
     <row r="29" spans="1:58">
-      <c r="A29" s="327"/>
-      <c r="B29" s="327"/>
-      <c r="C29" s="324"/>
-      <c r="D29" s="328"/>
-      <c r="E29" s="328"/>
-      <c r="F29" s="328"/>
-      <c r="G29" s="325"/>
-      <c r="H29" s="325"/>
-      <c r="I29" s="325"/>
-      <c r="J29" s="325"/>
-      <c r="K29" s="325"/>
-      <c r="L29" s="327"/>
-      <c r="M29" s="327"/>
-      <c r="N29" s="327"/>
-      <c r="O29" s="327"/>
-      <c r="P29" s="327"/>
-      <c r="Q29" s="327"/>
-      <c r="R29" s="326"/>
-      <c r="S29" s="326"/>
-      <c r="T29" s="326"/>
-      <c r="U29" s="326"/>
-      <c r="V29" s="326"/>
-      <c r="W29" s="326"/>
-      <c r="X29" s="326"/>
-      <c r="Y29" s="326"/>
-      <c r="Z29" s="326"/>
-      <c r="AA29" s="326"/>
-      <c r="AB29" s="326"/>
-      <c r="AC29" s="326"/>
-      <c r="AD29" s="326"/>
-      <c r="AE29" s="326"/>
-      <c r="AF29" s="326"/>
-      <c r="AG29" s="326"/>
-      <c r="AH29" s="326"/>
-      <c r="AI29" s="326"/>
-      <c r="AJ29" s="326"/>
-      <c r="AK29" s="326"/>
-      <c r="AL29" s="326"/>
-      <c r="AM29" s="326"/>
-      <c r="AN29" s="326"/>
-      <c r="AO29" s="326"/>
-      <c r="AP29" s="326"/>
-      <c r="AQ29" s="326"/>
-      <c r="AR29" s="326"/>
-      <c r="AS29" s="326"/>
-      <c r="AT29" s="326"/>
-      <c r="AU29" s="326"/>
-      <c r="AV29" s="326"/>
-      <c r="AW29" s="326"/>
-      <c r="AX29" s="326"/>
-      <c r="AY29" s="326"/>
-      <c r="AZ29" s="326"/>
-      <c r="BA29" s="326"/>
-      <c r="BB29" s="326"/>
-      <c r="BC29" s="326"/>
-      <c r="BD29" s="326"/>
-      <c r="BE29" s="326"/>
-      <c r="BF29" s="326"/>
+      <c r="A29" s="354"/>
+      <c r="B29" s="354"/>
+      <c r="C29" s="355"/>
+      <c r="D29" s="356"/>
+      <c r="E29" s="356"/>
+      <c r="F29" s="356"/>
+      <c r="G29" s="357"/>
+      <c r="H29" s="357"/>
+      <c r="I29" s="357"/>
+      <c r="J29" s="357"/>
+      <c r="K29" s="357"/>
+      <c r="L29" s="354"/>
+      <c r="M29" s="354"/>
+      <c r="N29" s="354"/>
+      <c r="O29" s="354"/>
+      <c r="P29" s="354"/>
+      <c r="Q29" s="354"/>
+      <c r="R29" s="324"/>
+      <c r="S29" s="324"/>
+      <c r="T29" s="324"/>
+      <c r="U29" s="324"/>
+      <c r="V29" s="324"/>
+      <c r="W29" s="324"/>
+      <c r="X29" s="324"/>
+      <c r="Y29" s="324"/>
+      <c r="Z29" s="324"/>
+      <c r="AA29" s="324"/>
+      <c r="AB29" s="324"/>
+      <c r="AC29" s="324"/>
+      <c r="AD29" s="324"/>
+      <c r="AE29" s="324"/>
+      <c r="AF29" s="324"/>
+      <c r="AG29" s="324"/>
+      <c r="AH29" s="324"/>
+      <c r="AI29" s="324"/>
+      <c r="AJ29" s="324"/>
+      <c r="AK29" s="324"/>
+      <c r="AL29" s="324"/>
+      <c r="AM29" s="324"/>
+      <c r="AN29" s="324"/>
+      <c r="AO29" s="324"/>
+      <c r="AP29" s="324"/>
+      <c r="AQ29" s="324"/>
+      <c r="AR29" s="324"/>
+      <c r="AS29" s="324"/>
+      <c r="AT29" s="324"/>
+      <c r="AU29" s="324"/>
+      <c r="AV29" s="324"/>
+      <c r="AW29" s="324"/>
+      <c r="AX29" s="324"/>
+      <c r="AY29" s="324"/>
+      <c r="AZ29" s="324"/>
+      <c r="BA29" s="324"/>
+      <c r="BB29" s="324"/>
+      <c r="BC29" s="324"/>
+      <c r="BD29" s="324"/>
+      <c r="BE29" s="324"/>
+      <c r="BF29" s="324"/>
     </row>
     <row r="30" spans="1:58">
-      <c r="A30" s="327"/>
-      <c r="B30" s="327"/>
-      <c r="C30" s="324"/>
-      <c r="D30" s="328"/>
-      <c r="E30" s="328"/>
-      <c r="F30" s="328"/>
-      <c r="G30" s="325"/>
-      <c r="H30" s="325"/>
-      <c r="I30" s="325"/>
-      <c r="J30" s="325"/>
-      <c r="K30" s="325"/>
-      <c r="L30" s="327"/>
-      <c r="M30" s="327"/>
-      <c r="N30" s="327"/>
-      <c r="O30" s="327"/>
-      <c r="P30" s="327"/>
-      <c r="Q30" s="327"/>
-      <c r="R30" s="326"/>
-      <c r="S30" s="326"/>
-      <c r="T30" s="326"/>
-      <c r="U30" s="326"/>
-      <c r="V30" s="326"/>
-      <c r="W30" s="326"/>
-      <c r="X30" s="326"/>
-      <c r="Y30" s="326"/>
-      <c r="Z30" s="326"/>
-      <c r="AA30" s="326"/>
-      <c r="AB30" s="326"/>
-      <c r="AC30" s="326"/>
-      <c r="AD30" s="326"/>
-      <c r="AE30" s="326"/>
-      <c r="AF30" s="326"/>
-      <c r="AG30" s="326"/>
-      <c r="AH30" s="326"/>
-      <c r="AI30" s="326"/>
-      <c r="AJ30" s="326"/>
-      <c r="AK30" s="326"/>
-      <c r="AL30" s="326"/>
-      <c r="AM30" s="326"/>
-      <c r="AN30" s="326"/>
-      <c r="AO30" s="326"/>
-      <c r="AP30" s="326"/>
-      <c r="AQ30" s="326"/>
-      <c r="AR30" s="326"/>
-      <c r="AS30" s="326"/>
-      <c r="AT30" s="326"/>
-      <c r="AU30" s="326"/>
-      <c r="AV30" s="326"/>
-      <c r="AW30" s="326"/>
-      <c r="AX30" s="326"/>
-      <c r="AY30" s="326"/>
-      <c r="AZ30" s="326"/>
-      <c r="BA30" s="326"/>
-      <c r="BB30" s="326"/>
-      <c r="BC30" s="326"/>
-      <c r="BD30" s="326"/>
-      <c r="BE30" s="326"/>
-      <c r="BF30" s="326"/>
+      <c r="A30" s="354"/>
+      <c r="B30" s="354"/>
+      <c r="C30" s="355"/>
+      <c r="D30" s="356"/>
+      <c r="E30" s="356"/>
+      <c r="F30" s="356"/>
+      <c r="G30" s="357"/>
+      <c r="H30" s="357"/>
+      <c r="I30" s="357"/>
+      <c r="J30" s="357"/>
+      <c r="K30" s="357"/>
+      <c r="L30" s="354"/>
+      <c r="M30" s="354"/>
+      <c r="N30" s="354"/>
+      <c r="O30" s="354"/>
+      <c r="P30" s="354"/>
+      <c r="Q30" s="354"/>
+      <c r="R30" s="324"/>
+      <c r="S30" s="324"/>
+      <c r="T30" s="324"/>
+      <c r="U30" s="324"/>
+      <c r="V30" s="324"/>
+      <c r="W30" s="324"/>
+      <c r="X30" s="324"/>
+      <c r="Y30" s="324"/>
+      <c r="Z30" s="324"/>
+      <c r="AA30" s="324"/>
+      <c r="AB30" s="324"/>
+      <c r="AC30" s="324"/>
+      <c r="AD30" s="324"/>
+      <c r="AE30" s="324"/>
+      <c r="AF30" s="324"/>
+      <c r="AG30" s="324"/>
+      <c r="AH30" s="324"/>
+      <c r="AI30" s="324"/>
+      <c r="AJ30" s="324"/>
+      <c r="AK30" s="324"/>
+      <c r="AL30" s="324"/>
+      <c r="AM30" s="324"/>
+      <c r="AN30" s="324"/>
+      <c r="AO30" s="324"/>
+      <c r="AP30" s="324"/>
+      <c r="AQ30" s="324"/>
+      <c r="AR30" s="324"/>
+      <c r="AS30" s="324"/>
+      <c r="AT30" s="324"/>
+      <c r="AU30" s="324"/>
+      <c r="AV30" s="324"/>
+      <c r="AW30" s="324"/>
+      <c r="AX30" s="324"/>
+      <c r="AY30" s="324"/>
+      <c r="AZ30" s="324"/>
+      <c r="BA30" s="324"/>
+      <c r="BB30" s="324"/>
+      <c r="BC30" s="324"/>
+      <c r="BD30" s="324"/>
+      <c r="BE30" s="324"/>
+      <c r="BF30" s="324"/>
     </row>
     <row r="31" spans="1:58">
-      <c r="A31" s="327"/>
-      <c r="B31" s="327"/>
-      <c r="C31" s="324"/>
-      <c r="D31" s="328"/>
-      <c r="E31" s="328"/>
-      <c r="F31" s="328"/>
-      <c r="G31" s="325"/>
-      <c r="H31" s="325"/>
-      <c r="I31" s="325"/>
-      <c r="J31" s="325"/>
-      <c r="K31" s="325"/>
-      <c r="L31" s="327"/>
-      <c r="M31" s="327"/>
-      <c r="N31" s="327"/>
-      <c r="O31" s="327"/>
-      <c r="P31" s="327"/>
-      <c r="Q31" s="327"/>
-      <c r="R31" s="326"/>
-      <c r="S31" s="326"/>
-      <c r="T31" s="326"/>
-      <c r="U31" s="326"/>
-      <c r="V31" s="326"/>
-      <c r="W31" s="326"/>
-      <c r="X31" s="326"/>
-      <c r="Y31" s="326"/>
-      <c r="Z31" s="326"/>
-      <c r="AA31" s="326"/>
-      <c r="AB31" s="326"/>
-      <c r="AC31" s="326"/>
-      <c r="AD31" s="326"/>
-      <c r="AE31" s="326"/>
-      <c r="AF31" s="326"/>
-      <c r="AG31" s="326"/>
-      <c r="AH31" s="326"/>
-      <c r="AI31" s="326"/>
-      <c r="AJ31" s="326"/>
-      <c r="AK31" s="326"/>
-      <c r="AL31" s="326"/>
-      <c r="AM31" s="326"/>
-      <c r="AN31" s="326"/>
-      <c r="AO31" s="326"/>
-      <c r="AP31" s="326"/>
-      <c r="AQ31" s="326"/>
-      <c r="AR31" s="326"/>
-      <c r="AS31" s="326"/>
-      <c r="AT31" s="326"/>
-      <c r="AU31" s="326"/>
-      <c r="AV31" s="326"/>
-      <c r="AW31" s="326"/>
-      <c r="AX31" s="326"/>
-      <c r="AY31" s="326"/>
-      <c r="AZ31" s="326"/>
-      <c r="BA31" s="326"/>
-      <c r="BB31" s="326"/>
-      <c r="BC31" s="326"/>
-      <c r="BD31" s="326"/>
-      <c r="BE31" s="326"/>
-      <c r="BF31" s="326"/>
+      <c r="A31" s="354"/>
+      <c r="B31" s="354"/>
+      <c r="C31" s="355"/>
+      <c r="D31" s="356"/>
+      <c r="E31" s="356"/>
+      <c r="F31" s="356"/>
+      <c r="G31" s="357"/>
+      <c r="H31" s="357"/>
+      <c r="I31" s="357"/>
+      <c r="J31" s="357"/>
+      <c r="K31" s="357"/>
+      <c r="L31" s="354"/>
+      <c r="M31" s="354"/>
+      <c r="N31" s="354"/>
+      <c r="O31" s="354"/>
+      <c r="P31" s="354"/>
+      <c r="Q31" s="354"/>
+      <c r="R31" s="324"/>
+      <c r="S31" s="324"/>
+      <c r="T31" s="324"/>
+      <c r="U31" s="324"/>
+      <c r="V31" s="324"/>
+      <c r="W31" s="324"/>
+      <c r="X31" s="324"/>
+      <c r="Y31" s="324"/>
+      <c r="Z31" s="324"/>
+      <c r="AA31" s="324"/>
+      <c r="AB31" s="324"/>
+      <c r="AC31" s="324"/>
+      <c r="AD31" s="324"/>
+      <c r="AE31" s="324"/>
+      <c r="AF31" s="324"/>
+      <c r="AG31" s="324"/>
+      <c r="AH31" s="324"/>
+      <c r="AI31" s="324"/>
+      <c r="AJ31" s="324"/>
+      <c r="AK31" s="324"/>
+      <c r="AL31" s="324"/>
+      <c r="AM31" s="324"/>
+      <c r="AN31" s="324"/>
+      <c r="AO31" s="324"/>
+      <c r="AP31" s="324"/>
+      <c r="AQ31" s="324"/>
+      <c r="AR31" s="324"/>
+      <c r="AS31" s="324"/>
+      <c r="AT31" s="324"/>
+      <c r="AU31" s="324"/>
+      <c r="AV31" s="324"/>
+      <c r="AW31" s="324"/>
+      <c r="AX31" s="324"/>
+      <c r="AY31" s="324"/>
+      <c r="AZ31" s="324"/>
+      <c r="BA31" s="324"/>
+      <c r="BB31" s="324"/>
+      <c r="BC31" s="324"/>
+      <c r="BD31" s="324"/>
+      <c r="BE31" s="324"/>
+      <c r="BF31" s="324"/>
     </row>
     <row r="32" spans="1:58">
-      <c r="A32" s="327"/>
-      <c r="B32" s="327"/>
-      <c r="C32" s="324"/>
-      <c r="D32" s="328"/>
-      <c r="E32" s="328"/>
-      <c r="F32" s="328"/>
-      <c r="G32" s="325"/>
-      <c r="H32" s="325"/>
-      <c r="I32" s="325"/>
-      <c r="J32" s="325"/>
-      <c r="K32" s="325"/>
-      <c r="L32" s="327"/>
-      <c r="M32" s="327"/>
-      <c r="N32" s="327"/>
-      <c r="O32" s="327"/>
-      <c r="P32" s="327"/>
-      <c r="Q32" s="327"/>
-      <c r="R32" s="326"/>
-      <c r="S32" s="326"/>
-      <c r="T32" s="326"/>
-      <c r="U32" s="326"/>
-      <c r="V32" s="326"/>
-      <c r="W32" s="326"/>
-      <c r="X32" s="326"/>
-      <c r="Y32" s="326"/>
-      <c r="Z32" s="326"/>
-      <c r="AA32" s="326"/>
-      <c r="AB32" s="326"/>
-      <c r="AC32" s="326"/>
-      <c r="AD32" s="326"/>
-      <c r="AE32" s="326"/>
-      <c r="AF32" s="326"/>
-      <c r="AG32" s="326"/>
-      <c r="AH32" s="326"/>
-      <c r="AI32" s="326"/>
-      <c r="AJ32" s="326"/>
-      <c r="AK32" s="326"/>
-      <c r="AL32" s="326"/>
-      <c r="AM32" s="326"/>
-      <c r="AN32" s="326"/>
-      <c r="AO32" s="326"/>
-      <c r="AP32" s="326"/>
-      <c r="AQ32" s="326"/>
-      <c r="AR32" s="326"/>
-      <c r="AS32" s="326"/>
-      <c r="AT32" s="326"/>
-      <c r="AU32" s="326"/>
-      <c r="AV32" s="326"/>
-      <c r="AW32" s="326"/>
-      <c r="AX32" s="326"/>
-      <c r="AY32" s="326"/>
-      <c r="AZ32" s="326"/>
-      <c r="BA32" s="326"/>
-      <c r="BB32" s="326"/>
-      <c r="BC32" s="326"/>
-      <c r="BD32" s="326"/>
-      <c r="BE32" s="326"/>
-      <c r="BF32" s="326"/>
+      <c r="A32" s="354"/>
+      <c r="B32" s="354"/>
+      <c r="C32" s="355"/>
+      <c r="D32" s="356"/>
+      <c r="E32" s="356"/>
+      <c r="F32" s="356"/>
+      <c r="G32" s="357"/>
+      <c r="H32" s="357"/>
+      <c r="I32" s="357"/>
+      <c r="J32" s="357"/>
+      <c r="K32" s="357"/>
+      <c r="L32" s="354"/>
+      <c r="M32" s="354"/>
+      <c r="N32" s="354"/>
+      <c r="O32" s="354"/>
+      <c r="P32" s="354"/>
+      <c r="Q32" s="354"/>
+      <c r="R32" s="324"/>
+      <c r="S32" s="324"/>
+      <c r="T32" s="324"/>
+      <c r="U32" s="324"/>
+      <c r="V32" s="324"/>
+      <c r="W32" s="324"/>
+      <c r="X32" s="324"/>
+      <c r="Y32" s="324"/>
+      <c r="Z32" s="324"/>
+      <c r="AA32" s="324"/>
+      <c r="AB32" s="324"/>
+      <c r="AC32" s="324"/>
+      <c r="AD32" s="324"/>
+      <c r="AE32" s="324"/>
+      <c r="AF32" s="324"/>
+      <c r="AG32" s="324"/>
+      <c r="AH32" s="324"/>
+      <c r="AI32" s="324"/>
+      <c r="AJ32" s="324"/>
+      <c r="AK32" s="324"/>
+      <c r="AL32" s="324"/>
+      <c r="AM32" s="324"/>
+      <c r="AN32" s="324"/>
+      <c r="AO32" s="324"/>
+      <c r="AP32" s="324"/>
+      <c r="AQ32" s="324"/>
+      <c r="AR32" s="324"/>
+      <c r="AS32" s="324"/>
+      <c r="AT32" s="324"/>
+      <c r="AU32" s="324"/>
+      <c r="AV32" s="324"/>
+      <c r="AW32" s="324"/>
+      <c r="AX32" s="324"/>
+      <c r="AY32" s="324"/>
+      <c r="AZ32" s="324"/>
+      <c r="BA32" s="324"/>
+      <c r="BB32" s="324"/>
+      <c r="BC32" s="324"/>
+      <c r="BD32" s="324"/>
+      <c r="BE32" s="324"/>
+      <c r="BF32" s="324"/>
     </row>
     <row r="33" spans="1:58">
-      <c r="A33" s="327"/>
-      <c r="B33" s="327"/>
-      <c r="C33" s="324"/>
-      <c r="D33" s="328"/>
-      <c r="E33" s="328"/>
-      <c r="F33" s="328"/>
-      <c r="G33" s="325"/>
-      <c r="H33" s="325"/>
-      <c r="I33" s="325"/>
-      <c r="J33" s="325"/>
-      <c r="K33" s="325"/>
-      <c r="L33" s="327"/>
-      <c r="M33" s="327"/>
-      <c r="N33" s="327"/>
-      <c r="O33" s="327"/>
-      <c r="P33" s="327"/>
-      <c r="Q33" s="327"/>
-      <c r="R33" s="326"/>
-      <c r="S33" s="326"/>
-      <c r="T33" s="326"/>
-      <c r="U33" s="326"/>
-      <c r="V33" s="326"/>
-      <c r="W33" s="326"/>
-      <c r="X33" s="326"/>
-      <c r="Y33" s="326"/>
-      <c r="Z33" s="326"/>
-      <c r="AA33" s="326"/>
-      <c r="AB33" s="326"/>
-      <c r="AC33" s="326"/>
-      <c r="AD33" s="326"/>
-      <c r="AE33" s="326"/>
-      <c r="AF33" s="326"/>
-      <c r="AG33" s="326"/>
-      <c r="AH33" s="326"/>
-      <c r="AI33" s="326"/>
-      <c r="AJ33" s="326"/>
-      <c r="AK33" s="326"/>
-      <c r="AL33" s="326"/>
-      <c r="AM33" s="326"/>
-      <c r="AN33" s="326"/>
-      <c r="AO33" s="326"/>
-      <c r="AP33" s="326"/>
-      <c r="AQ33" s="326"/>
-      <c r="AR33" s="326"/>
-      <c r="AS33" s="326"/>
-      <c r="AT33" s="326"/>
-      <c r="AU33" s="326"/>
-      <c r="AV33" s="326"/>
-      <c r="AW33" s="326"/>
-      <c r="AX33" s="326"/>
-      <c r="AY33" s="326"/>
-      <c r="AZ33" s="326"/>
-      <c r="BA33" s="326"/>
-      <c r="BB33" s="326"/>
-      <c r="BC33" s="326"/>
-      <c r="BD33" s="326"/>
-      <c r="BE33" s="326"/>
-      <c r="BF33" s="326"/>
+      <c r="A33" s="354"/>
+      <c r="B33" s="354"/>
+      <c r="C33" s="355"/>
+      <c r="D33" s="356"/>
+      <c r="E33" s="356"/>
+      <c r="F33" s="356"/>
+      <c r="G33" s="357"/>
+      <c r="H33" s="357"/>
+      <c r="I33" s="357"/>
+      <c r="J33" s="357"/>
+      <c r="K33" s="357"/>
+      <c r="L33" s="354"/>
+      <c r="M33" s="354"/>
+      <c r="N33" s="354"/>
+      <c r="O33" s="354"/>
+      <c r="P33" s="354"/>
+      <c r="Q33" s="354"/>
+      <c r="R33" s="324"/>
+      <c r="S33" s="324"/>
+      <c r="T33" s="324"/>
+      <c r="U33" s="324"/>
+      <c r="V33" s="324"/>
+      <c r="W33" s="324"/>
+      <c r="X33" s="324"/>
+      <c r="Y33" s="324"/>
+      <c r="Z33" s="324"/>
+      <c r="AA33" s="324"/>
+      <c r="AB33" s="324"/>
+      <c r="AC33" s="324"/>
+      <c r="AD33" s="324"/>
+      <c r="AE33" s="324"/>
+      <c r="AF33" s="324"/>
+      <c r="AG33" s="324"/>
+      <c r="AH33" s="324"/>
+      <c r="AI33" s="324"/>
+      <c r="AJ33" s="324"/>
+      <c r="AK33" s="324"/>
+      <c r="AL33" s="324"/>
+      <c r="AM33" s="324"/>
+      <c r="AN33" s="324"/>
+      <c r="AO33" s="324"/>
+      <c r="AP33" s="324"/>
+      <c r="AQ33" s="324"/>
+      <c r="AR33" s="324"/>
+      <c r="AS33" s="324"/>
+      <c r="AT33" s="324"/>
+      <c r="AU33" s="324"/>
+      <c r="AV33" s="324"/>
+      <c r="AW33" s="324"/>
+      <c r="AX33" s="324"/>
+      <c r="AY33" s="324"/>
+      <c r="AZ33" s="324"/>
+      <c r="BA33" s="324"/>
+      <c r="BB33" s="324"/>
+      <c r="BC33" s="324"/>
+      <c r="BD33" s="324"/>
+      <c r="BE33" s="324"/>
+      <c r="BF33" s="324"/>
     </row>
   </sheetData>
   <mergeCells count="182">
-    <mergeCell ref="AB17:BF17"/>
-    <mergeCell ref="AB18:BF18"/>
-    <mergeCell ref="AB19:BF19"/>
-    <mergeCell ref="AB20:BF20"/>
-    <mergeCell ref="AB21:BF21"/>
-    <mergeCell ref="AB22:BF22"/>
-    <mergeCell ref="AB32:BF32"/>
-    <mergeCell ref="AB33:BF33"/>
-    <mergeCell ref="AB23:BF23"/>
-    <mergeCell ref="AB24:BF24"/>
-    <mergeCell ref="AB25:BF25"/>
-    <mergeCell ref="AB26:BF26"/>
-    <mergeCell ref="AB27:BF27"/>
-    <mergeCell ref="AB28:BF28"/>
-    <mergeCell ref="AB29:BF29"/>
-    <mergeCell ref="AB30:BF30"/>
-    <mergeCell ref="AB31:BF31"/>
-    <mergeCell ref="AB6:BF6"/>
-    <mergeCell ref="AB7:BF7"/>
-    <mergeCell ref="AB8:BF8"/>
-    <mergeCell ref="AB9:BF9"/>
-    <mergeCell ref="AB10:BF10"/>
-    <mergeCell ref="AB11:BF11"/>
-    <mergeCell ref="AB14:BF14"/>
-    <mergeCell ref="AB15:BF15"/>
-    <mergeCell ref="AB16:BF16"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="R26:AA26"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="R27:AA27"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="R28:AA28"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="R29:AA29"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="R30:AA30"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="R32:AA32"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="R33:AA33"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="R31:AA31"/>
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="L32:Q32"/>
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="R23:AA23"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="R24:AA24"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="R25:AA25"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="R20:AA20"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="R21:AA21"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="R22:AA22"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="R17:AA17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="R18:AA18"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="R19:AA19"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="R14:AA14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="R15:AA15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="R16:AA16"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="R9:AA9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="R10:AA10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="R11:AA11"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="R6:AA6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="R7:AA7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="R8:AA8"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="L8:Q8"/>
     <mergeCell ref="BB3:BF3"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:F5"/>
@@ -9900,138 +10006,32 @@
     <mergeCell ref="L5:Q5"/>
     <mergeCell ref="AW3:BA3"/>
     <mergeCell ref="AB5:BF5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="R6:AA6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="R7:AA7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="R8:AA8"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="R9:AA9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="R10:AA10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="R11:AA11"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="R14:AA14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="R15:AA15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="R16:AA16"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="R17:AA17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="R18:AA18"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="R19:AA19"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="R20:AA20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="R21:AA21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="R22:AA22"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="R23:AA23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="R24:AA24"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="R25:AA25"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="R32:AA32"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="R33:AA33"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="R31:AA31"/>
-    <mergeCell ref="L31:Q31"/>
-    <mergeCell ref="L32:Q32"/>
-    <mergeCell ref="L33:Q33"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="R30:AA30"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="R26:AA26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="R27:AA27"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="R28:AA28"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="R29:AA29"/>
+    <mergeCell ref="AB6:BF6"/>
+    <mergeCell ref="AB7:BF7"/>
+    <mergeCell ref="AB8:BF8"/>
+    <mergeCell ref="AB9:BF9"/>
+    <mergeCell ref="AB10:BF10"/>
+    <mergeCell ref="AB11:BF11"/>
+    <mergeCell ref="AB14:BF14"/>
+    <mergeCell ref="AB15:BF15"/>
+    <mergeCell ref="AB16:BF16"/>
+    <mergeCell ref="AB17:BF17"/>
+    <mergeCell ref="AB18:BF18"/>
+    <mergeCell ref="AB19:BF19"/>
+    <mergeCell ref="AB20:BF20"/>
+    <mergeCell ref="AB21:BF21"/>
+    <mergeCell ref="AB22:BF22"/>
+    <mergeCell ref="AB32:BF32"/>
+    <mergeCell ref="AB33:BF33"/>
+    <mergeCell ref="AB23:BF23"/>
+    <mergeCell ref="AB24:BF24"/>
+    <mergeCell ref="AB25:BF25"/>
+    <mergeCell ref="AB26:BF26"/>
+    <mergeCell ref="AB27:BF27"/>
+    <mergeCell ref="AB28:BF28"/>
+    <mergeCell ref="AB29:BF29"/>
+    <mergeCell ref="AB30:BF30"/>
+    <mergeCell ref="AB31:BF31"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.6692913385826772" bottom="0.43307086614173229" header="0.39370078740157483" footer="0.27559055118110237"/>
@@ -10061,255 +10061,255 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A1" s="360" t="s">
+      <c r="A1" s="363" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="342"/>
-      <c r="C1" s="342"/>
-      <c r="D1" s="342"/>
-      <c r="E1" s="342"/>
-      <c r="F1" s="342"/>
-      <c r="G1" s="342"/>
-      <c r="H1" s="342"/>
-      <c r="I1" s="342" t="s">
+      <c r="B1" s="330"/>
+      <c r="C1" s="330"/>
+      <c r="D1" s="330"/>
+      <c r="E1" s="330"/>
+      <c r="F1" s="330"/>
+      <c r="G1" s="330"/>
+      <c r="H1" s="330"/>
+      <c r="I1" s="330" t="s">
         <v>256</v>
       </c>
-      <c r="J1" s="342"/>
-      <c r="K1" s="342"/>
-      <c r="L1" s="342"/>
-      <c r="M1" s="342"/>
-      <c r="N1" s="342"/>
-      <c r="O1" s="342"/>
-      <c r="P1" s="342"/>
-      <c r="Q1" s="342"/>
-      <c r="R1" s="342"/>
-      <c r="S1" s="342"/>
-      <c r="T1" s="342" t="s">
+      <c r="J1" s="330"/>
+      <c r="K1" s="330"/>
+      <c r="L1" s="330"/>
+      <c r="M1" s="330"/>
+      <c r="N1" s="330"/>
+      <c r="O1" s="330"/>
+      <c r="P1" s="330"/>
+      <c r="Q1" s="330"/>
+      <c r="R1" s="330"/>
+      <c r="S1" s="330"/>
+      <c r="T1" s="330" t="s">
         <v>257</v>
       </c>
-      <c r="U1" s="342"/>
-      <c r="V1" s="342"/>
-      <c r="W1" s="342"/>
-      <c r="X1" s="342"/>
-      <c r="Y1" s="342"/>
-      <c r="Z1" s="342"/>
-      <c r="AA1" s="342" t="s">
+      <c r="U1" s="330"/>
+      <c r="V1" s="330"/>
+      <c r="W1" s="330"/>
+      <c r="X1" s="330"/>
+      <c r="Y1" s="330"/>
+      <c r="Z1" s="330"/>
+      <c r="AA1" s="330" t="s">
         <v>270</v>
       </c>
-      <c r="AB1" s="342"/>
-      <c r="AC1" s="342"/>
-      <c r="AD1" s="342"/>
-      <c r="AE1" s="342"/>
-      <c r="AF1" s="342"/>
-      <c r="AG1" s="342"/>
-      <c r="AH1" s="342"/>
-      <c r="AI1" s="342"/>
-      <c r="AJ1" s="342"/>
-      <c r="AK1" s="342"/>
-      <c r="AL1" s="342"/>
-      <c r="AM1" s="342"/>
-      <c r="AN1" s="342"/>
-      <c r="AO1" s="342"/>
-      <c r="AP1" s="342"/>
-      <c r="AQ1" s="342"/>
-      <c r="AR1" s="342" t="s">
+      <c r="AB1" s="330"/>
+      <c r="AC1" s="330"/>
+      <c r="AD1" s="330"/>
+      <c r="AE1" s="330"/>
+      <c r="AF1" s="330"/>
+      <c r="AG1" s="330"/>
+      <c r="AH1" s="330"/>
+      <c r="AI1" s="330"/>
+      <c r="AJ1" s="330"/>
+      <c r="AK1" s="330"/>
+      <c r="AL1" s="330"/>
+      <c r="AM1" s="330"/>
+      <c r="AN1" s="330"/>
+      <c r="AO1" s="330"/>
+      <c r="AP1" s="330"/>
+      <c r="AQ1" s="330"/>
+      <c r="AR1" s="330" t="s">
         <v>282</v>
       </c>
-      <c r="AS1" s="342"/>
-      <c r="AT1" s="342"/>
-      <c r="AU1" s="342"/>
-      <c r="AV1" s="342"/>
-      <c r="AW1" s="355" t="s">
+      <c r="AS1" s="330"/>
+      <c r="AT1" s="330"/>
+      <c r="AU1" s="330"/>
+      <c r="AV1" s="330"/>
+      <c r="AW1" s="344" t="s">
         <v>261</v>
       </c>
-      <c r="AX1" s="355"/>
-      <c r="AY1" s="342"/>
-      <c r="AZ1" s="342"/>
-      <c r="BA1" s="342"/>
-      <c r="BB1" s="342" t="s">
+      <c r="AX1" s="344"/>
+      <c r="AY1" s="330"/>
+      <c r="AZ1" s="330"/>
+      <c r="BA1" s="330"/>
+      <c r="BB1" s="330" t="s">
         <v>272</v>
       </c>
-      <c r="BC1" s="342"/>
-      <c r="BD1" s="342"/>
-      <c r="BE1" s="342"/>
-      <c r="BF1" s="342"/>
+      <c r="BC1" s="330"/>
+      <c r="BD1" s="330"/>
+      <c r="BE1" s="330"/>
+      <c r="BF1" s="330"/>
     </row>
     <row r="2" spans="1:58" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A2" s="346" t="s">
+      <c r="A2" s="334" t="s">
         <v>273</v>
       </c>
-      <c r="B2" s="346"/>
-      <c r="C2" s="346"/>
-      <c r="D2" s="346"/>
-      <c r="E2" s="346"/>
-      <c r="F2" s="346"/>
-      <c r="G2" s="346"/>
-      <c r="H2" s="346"/>
-      <c r="I2" s="346" t="str">
+      <c r="B2" s="334"/>
+      <c r="C2" s="334"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334"/>
+      <c r="F2" s="334"/>
+      <c r="G2" s="334"/>
+      <c r="H2" s="334"/>
+      <c r="I2" s="334" t="str">
         <f>Cover!I12</f>
         <v>Manage Student</v>
       </c>
-      <c r="J2" s="346"/>
-      <c r="K2" s="346"/>
-      <c r="L2" s="346"/>
-      <c r="M2" s="346"/>
-      <c r="N2" s="346"/>
-      <c r="O2" s="346"/>
-      <c r="P2" s="346"/>
-      <c r="Q2" s="346"/>
-      <c r="R2" s="346"/>
-      <c r="S2" s="346"/>
-      <c r="T2" s="346" t="str">
+      <c r="J2" s="334"/>
+      <c r="K2" s="334"/>
+      <c r="L2" s="334"/>
+      <c r="M2" s="334"/>
+      <c r="N2" s="334"/>
+      <c r="O2" s="334"/>
+      <c r="P2" s="334"/>
+      <c r="Q2" s="334"/>
+      <c r="R2" s="334"/>
+      <c r="S2" s="334"/>
+      <c r="T2" s="334" t="str">
         <f>Cover!I15</f>
         <v>GMO_management_Student</v>
       </c>
-      <c r="U2" s="346"/>
-      <c r="V2" s="346"/>
-      <c r="W2" s="346"/>
-      <c r="X2" s="346"/>
-      <c r="Y2" s="346"/>
-      <c r="Z2" s="346"/>
-      <c r="AA2" s="329" t="str">
+      <c r="U2" s="334"/>
+      <c r="V2" s="334"/>
+      <c r="W2" s="334"/>
+      <c r="X2" s="334"/>
+      <c r="Y2" s="334"/>
+      <c r="Z2" s="334"/>
+      <c r="AA2" s="335" t="str">
         <f>Cover!R19</f>
         <v>Add student</v>
       </c>
-      <c r="AB2" s="329"/>
-      <c r="AC2" s="329"/>
-      <c r="AD2" s="329"/>
-      <c r="AE2" s="329"/>
-      <c r="AF2" s="329"/>
-      <c r="AG2" s="329"/>
-      <c r="AH2" s="329"/>
-      <c r="AI2" s="329"/>
-      <c r="AJ2" s="329"/>
-      <c r="AK2" s="329"/>
-      <c r="AL2" s="329"/>
-      <c r="AM2" s="329"/>
-      <c r="AN2" s="329"/>
-      <c r="AO2" s="329"/>
-      <c r="AP2" s="329"/>
-      <c r="AQ2" s="329"/>
-      <c r="AR2" s="347" t="str">
+      <c r="AB2" s="335"/>
+      <c r="AC2" s="335"/>
+      <c r="AD2" s="335"/>
+      <c r="AE2" s="335"/>
+      <c r="AF2" s="335"/>
+      <c r="AG2" s="335"/>
+      <c r="AH2" s="335"/>
+      <c r="AI2" s="335"/>
+      <c r="AJ2" s="335"/>
+      <c r="AK2" s="335"/>
+      <c r="AL2" s="335"/>
+      <c r="AM2" s="335"/>
+      <c r="AN2" s="335"/>
+      <c r="AO2" s="335"/>
+      <c r="AP2" s="335"/>
+      <c r="AQ2" s="335"/>
+      <c r="AR2" s="336" t="str">
         <f>Cover!I19</f>
         <v>0-0</v>
       </c>
-      <c r="AS2" s="329"/>
-      <c r="AT2" s="329"/>
-      <c r="AU2" s="329"/>
-      <c r="AV2" s="329"/>
-      <c r="AW2" s="329" t="s">
+      <c r="AS2" s="335"/>
+      <c r="AT2" s="335"/>
+      <c r="AU2" s="335"/>
+      <c r="AV2" s="335"/>
+      <c r="AW2" s="335" t="s">
         <v>267</v>
       </c>
-      <c r="AX2" s="329" t="s">
+      <c r="AX2" s="335" t="s">
         <v>171</v>
       </c>
-      <c r="AY2" s="329" t="s">
+      <c r="AY2" s="335" t="s">
         <v>171</v>
       </c>
-      <c r="AZ2" s="329" t="s">
+      <c r="AZ2" s="335" t="s">
         <v>171</v>
       </c>
-      <c r="BA2" s="329" t="s">
+      <c r="BA2" s="335" t="s">
         <v>171</v>
       </c>
-      <c r="BB2" s="329" t="s">
+      <c r="BB2" s="335" t="s">
         <v>267</v>
       </c>
-      <c r="BC2" s="329" t="s">
+      <c r="BC2" s="335" t="s">
         <v>171</v>
       </c>
-      <c r="BD2" s="329" t="s">
+      <c r="BD2" s="335" t="s">
         <v>171</v>
       </c>
-      <c r="BE2" s="329" t="s">
+      <c r="BE2" s="335" t="s">
         <v>171</v>
       </c>
-      <c r="BF2" s="329" t="s">
+      <c r="BF2" s="335" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:58" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A3" s="346"/>
-      <c r="B3" s="346"/>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="346"/>
-      <c r="F3" s="346"/>
-      <c r="G3" s="346"/>
-      <c r="H3" s="346"/>
-      <c r="I3" s="346"/>
-      <c r="J3" s="346"/>
-      <c r="K3" s="346"/>
-      <c r="L3" s="346"/>
-      <c r="M3" s="346"/>
-      <c r="N3" s="346"/>
-      <c r="O3" s="346"/>
-      <c r="P3" s="346"/>
-      <c r="Q3" s="346"/>
-      <c r="R3" s="346"/>
-      <c r="S3" s="346"/>
-      <c r="T3" s="346"/>
-      <c r="U3" s="346"/>
-      <c r="V3" s="346"/>
-      <c r="W3" s="346"/>
-      <c r="X3" s="346"/>
-      <c r="Y3" s="346"/>
-      <c r="Z3" s="346"/>
-      <c r="AA3" s="342" t="s">
+      <c r="A3" s="334"/>
+      <c r="B3" s="334"/>
+      <c r="C3" s="334"/>
+      <c r="D3" s="334"/>
+      <c r="E3" s="334"/>
+      <c r="F3" s="334"/>
+      <c r="G3" s="334"/>
+      <c r="H3" s="334"/>
+      <c r="I3" s="334"/>
+      <c r="J3" s="334"/>
+      <c r="K3" s="334"/>
+      <c r="L3" s="334"/>
+      <c r="M3" s="334"/>
+      <c r="N3" s="334"/>
+      <c r="O3" s="334"/>
+      <c r="P3" s="334"/>
+      <c r="Q3" s="334"/>
+      <c r="R3" s="334"/>
+      <c r="S3" s="334"/>
+      <c r="T3" s="334"/>
+      <c r="U3" s="334"/>
+      <c r="V3" s="334"/>
+      <c r="W3" s="334"/>
+      <c r="X3" s="334"/>
+      <c r="Y3" s="334"/>
+      <c r="Z3" s="334"/>
+      <c r="AA3" s="330" t="s">
         <v>274</v>
       </c>
-      <c r="AB3" s="342"/>
-      <c r="AC3" s="342"/>
-      <c r="AD3" s="342"/>
-      <c r="AE3" s="342"/>
-      <c r="AF3" s="342"/>
-      <c r="AG3" s="350" t="str">
+      <c r="AB3" s="330"/>
+      <c r="AC3" s="330"/>
+      <c r="AD3" s="330"/>
+      <c r="AE3" s="330"/>
+      <c r="AF3" s="330"/>
+      <c r="AG3" s="339" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Layout</v>
       </c>
-      <c r="AH3" s="351"/>
-      <c r="AI3" s="351"/>
-      <c r="AJ3" s="351"/>
-      <c r="AK3" s="351"/>
-      <c r="AL3" s="351"/>
-      <c r="AM3" s="351"/>
-      <c r="AN3" s="351"/>
-      <c r="AO3" s="351"/>
-      <c r="AP3" s="351"/>
-      <c r="AQ3" s="351"/>
-      <c r="AR3" s="351"/>
-      <c r="AS3" s="351"/>
-      <c r="AT3" s="351"/>
-      <c r="AU3" s="351"/>
-      <c r="AV3" s="352"/>
-      <c r="AW3" s="359">
+      <c r="AH3" s="340"/>
+      <c r="AI3" s="340"/>
+      <c r="AJ3" s="340"/>
+      <c r="AK3" s="340"/>
+      <c r="AL3" s="340"/>
+      <c r="AM3" s="340"/>
+      <c r="AN3" s="340"/>
+      <c r="AO3" s="340"/>
+      <c r="AP3" s="340"/>
+      <c r="AQ3" s="340"/>
+      <c r="AR3" s="340"/>
+      <c r="AS3" s="340"/>
+      <c r="AT3" s="340"/>
+      <c r="AU3" s="340"/>
+      <c r="AV3" s="341"/>
+      <c r="AW3" s="361">
         <v>44504</v>
       </c>
-      <c r="AX3" s="359">
+      <c r="AX3" s="361">
         <v>44147</v>
       </c>
-      <c r="AY3" s="359">
+      <c r="AY3" s="361">
         <v>44147</v>
       </c>
-      <c r="AZ3" s="359">
+      <c r="AZ3" s="361">
         <v>44147</v>
       </c>
-      <c r="BA3" s="359">
+      <c r="BA3" s="361">
         <v>44147</v>
       </c>
-      <c r="BB3" s="359">
+      <c r="BB3" s="361">
         <v>44504</v>
       </c>
-      <c r="BC3" s="359">
+      <c r="BC3" s="361">
         <v>44147</v>
       </c>
-      <c r="BD3" s="359">
+      <c r="BD3" s="361">
         <v>44147</v>
       </c>
-      <c r="BE3" s="359">
+      <c r="BE3" s="361">
         <v>44147</v>
       </c>
-      <c r="BF3" s="359">
+      <c r="BF3" s="361">
         <v>44147</v>
       </c>
     </row>
@@ -10423,22 +10423,22 @@
       <c r="AP6" s="81"/>
       <c r="AQ6" s="81"/>
       <c r="AR6" s="81"/>
-      <c r="AS6" s="361" t="s">
+      <c r="AS6" s="358" t="s">
         <v>283</v>
       </c>
-      <c r="AT6" s="362"/>
-      <c r="AU6" s="362"/>
-      <c r="AV6" s="362"/>
-      <c r="AW6" s="362"/>
-      <c r="AX6" s="362"/>
-      <c r="AY6" s="362"/>
-      <c r="AZ6" s="362"/>
-      <c r="BA6" s="362"/>
-      <c r="BB6" s="362"/>
-      <c r="BC6" s="362"/>
-      <c r="BD6" s="362"/>
-      <c r="BE6" s="362"/>
-      <c r="BF6" s="363"/>
+      <c r="AT6" s="359"/>
+      <c r="AU6" s="359"/>
+      <c r="AV6" s="359"/>
+      <c r="AW6" s="359"/>
+      <c r="AX6" s="359"/>
+      <c r="AY6" s="359"/>
+      <c r="AZ6" s="359"/>
+      <c r="BA6" s="359"/>
+      <c r="BB6" s="359"/>
+      <c r="BC6" s="359"/>
+      <c r="BD6" s="359"/>
+      <c r="BE6" s="359"/>
+      <c r="BF6" s="360"/>
     </row>
     <row r="7" spans="1:58" ht="13.5" customHeight="1">
       <c r="A7" s="80"/>
@@ -10485,20 +10485,20 @@
       <c r="AP7" s="81"/>
       <c r="AQ7" s="81"/>
       <c r="AR7" s="81"/>
-      <c r="AS7" s="361"/>
-      <c r="AT7" s="362"/>
-      <c r="AU7" s="362"/>
-      <c r="AV7" s="362"/>
-      <c r="AW7" s="362"/>
-      <c r="AX7" s="362"/>
-      <c r="AY7" s="362"/>
-      <c r="AZ7" s="362"/>
-      <c r="BA7" s="362"/>
-      <c r="BB7" s="362"/>
-      <c r="BC7" s="362"/>
-      <c r="BD7" s="362"/>
-      <c r="BE7" s="362"/>
-      <c r="BF7" s="363"/>
+      <c r="AS7" s="358"/>
+      <c r="AT7" s="359"/>
+      <c r="AU7" s="359"/>
+      <c r="AV7" s="359"/>
+      <c r="AW7" s="359"/>
+      <c r="AX7" s="359"/>
+      <c r="AY7" s="359"/>
+      <c r="AZ7" s="359"/>
+      <c r="BA7" s="359"/>
+      <c r="BB7" s="359"/>
+      <c r="BC7" s="359"/>
+      <c r="BD7" s="359"/>
+      <c r="BE7" s="359"/>
+      <c r="BF7" s="360"/>
     </row>
     <row r="8" spans="1:58" ht="13.5" customHeight="1">
       <c r="A8" s="80"/>
@@ -10507,16 +10507,16 @@
       <c r="D8" s="96"/>
       <c r="E8" s="96"/>
       <c r="F8" s="96"/>
-      <c r="G8" s="358"/>
-      <c r="H8" s="358"/>
-      <c r="I8" s="358"/>
-      <c r="J8" s="358"/>
-      <c r="K8" s="358"/>
-      <c r="L8" s="358"/>
-      <c r="M8" s="358"/>
-      <c r="N8" s="358"/>
-      <c r="O8" s="358"/>
-      <c r="P8" s="358"/>
+      <c r="G8" s="362"/>
+      <c r="H8" s="362"/>
+      <c r="I8" s="362"/>
+      <c r="J8" s="362"/>
+      <c r="K8" s="362"/>
+      <c r="L8" s="362"/>
+      <c r="M8" s="362"/>
+      <c r="N8" s="362"/>
+      <c r="O8" s="362"/>
+      <c r="P8" s="362"/>
       <c r="Q8" s="96"/>
       <c r="R8" s="96"/>
       <c r="S8" s="96"/>
@@ -10545,20 +10545,20 @@
       <c r="AP8" s="81"/>
       <c r="AQ8" s="81"/>
       <c r="AR8" s="81"/>
-      <c r="AS8" s="361"/>
-      <c r="AT8" s="362"/>
-      <c r="AU8" s="362"/>
-      <c r="AV8" s="362"/>
-      <c r="AW8" s="362"/>
-      <c r="AX8" s="362"/>
-      <c r="AY8" s="362"/>
-      <c r="AZ8" s="362"/>
-      <c r="BA8" s="362"/>
-      <c r="BB8" s="362"/>
-      <c r="BC8" s="362"/>
-      <c r="BD8" s="362"/>
-      <c r="BE8" s="362"/>
-      <c r="BF8" s="363"/>
+      <c r="AS8" s="358"/>
+      <c r="AT8" s="359"/>
+      <c r="AU8" s="359"/>
+      <c r="AV8" s="359"/>
+      <c r="AW8" s="359"/>
+      <c r="AX8" s="359"/>
+      <c r="AY8" s="359"/>
+      <c r="AZ8" s="359"/>
+      <c r="BA8" s="359"/>
+      <c r="BB8" s="359"/>
+      <c r="BC8" s="359"/>
+      <c r="BD8" s="359"/>
+      <c r="BE8" s="359"/>
+      <c r="BF8" s="360"/>
     </row>
     <row r="9" spans="1:58" ht="13.5" customHeight="1">
       <c r="A9" s="80"/>
@@ -10605,20 +10605,20 @@
       <c r="AP9" s="81"/>
       <c r="AQ9" s="81"/>
       <c r="AR9" s="81"/>
-      <c r="AS9" s="361"/>
-      <c r="AT9" s="362"/>
-      <c r="AU9" s="362"/>
-      <c r="AV9" s="362"/>
-      <c r="AW9" s="362"/>
-      <c r="AX9" s="362"/>
-      <c r="AY9" s="362"/>
-      <c r="AZ9" s="362"/>
-      <c r="BA9" s="362"/>
-      <c r="BB9" s="362"/>
-      <c r="BC9" s="362"/>
-      <c r="BD9" s="362"/>
-      <c r="BE9" s="362"/>
-      <c r="BF9" s="363"/>
+      <c r="AS9" s="358"/>
+      <c r="AT9" s="359"/>
+      <c r="AU9" s="359"/>
+      <c r="AV9" s="359"/>
+      <c r="AW9" s="359"/>
+      <c r="AX9" s="359"/>
+      <c r="AY9" s="359"/>
+      <c r="AZ9" s="359"/>
+      <c r="BA9" s="359"/>
+      <c r="BB9" s="359"/>
+      <c r="BC9" s="359"/>
+      <c r="BD9" s="359"/>
+      <c r="BE9" s="359"/>
+      <c r="BF9" s="360"/>
     </row>
     <row r="10" spans="1:58" ht="13.5" customHeight="1">
       <c r="A10" s="80"/>
@@ -10627,16 +10627,16 @@
       <c r="D10" s="96"/>
       <c r="E10" s="96"/>
       <c r="F10" s="96"/>
-      <c r="G10" s="358"/>
-      <c r="H10" s="358"/>
-      <c r="I10" s="358"/>
-      <c r="J10" s="358"/>
-      <c r="K10" s="358"/>
-      <c r="L10" s="358"/>
-      <c r="M10" s="358"/>
-      <c r="N10" s="358"/>
-      <c r="O10" s="358"/>
-      <c r="P10" s="358"/>
+      <c r="G10" s="362"/>
+      <c r="H10" s="362"/>
+      <c r="I10" s="362"/>
+      <c r="J10" s="362"/>
+      <c r="K10" s="362"/>
+      <c r="L10" s="362"/>
+      <c r="M10" s="362"/>
+      <c r="N10" s="362"/>
+      <c r="O10" s="362"/>
+      <c r="P10" s="362"/>
       <c r="Q10" s="96"/>
       <c r="R10" s="96"/>
       <c r="S10" s="96"/>
@@ -10665,20 +10665,20 @@
       <c r="AP10" s="81"/>
       <c r="AQ10" s="81"/>
       <c r="AR10" s="81"/>
-      <c r="AS10" s="361"/>
-      <c r="AT10" s="362"/>
-      <c r="AU10" s="362"/>
-      <c r="AV10" s="362"/>
-      <c r="AW10" s="362"/>
-      <c r="AX10" s="362"/>
-      <c r="AY10" s="362"/>
-      <c r="AZ10" s="362"/>
-      <c r="BA10" s="362"/>
-      <c r="BB10" s="362"/>
-      <c r="BC10" s="362"/>
-      <c r="BD10" s="362"/>
-      <c r="BE10" s="362"/>
-      <c r="BF10" s="363"/>
+      <c r="AS10" s="358"/>
+      <c r="AT10" s="359"/>
+      <c r="AU10" s="359"/>
+      <c r="AV10" s="359"/>
+      <c r="AW10" s="359"/>
+      <c r="AX10" s="359"/>
+      <c r="AY10" s="359"/>
+      <c r="AZ10" s="359"/>
+      <c r="BA10" s="359"/>
+      <c r="BB10" s="359"/>
+      <c r="BC10" s="359"/>
+      <c r="BD10" s="359"/>
+      <c r="BE10" s="359"/>
+      <c r="BF10" s="360"/>
     </row>
     <row r="11" spans="1:58" ht="13.5" customHeight="1">
       <c r="A11" s="80"/>
@@ -10725,20 +10725,20 @@
       <c r="AP11" s="81"/>
       <c r="AQ11" s="81"/>
       <c r="AR11" s="81"/>
-      <c r="AS11" s="361"/>
-      <c r="AT11" s="362"/>
-      <c r="AU11" s="362"/>
-      <c r="AV11" s="362"/>
-      <c r="AW11" s="362"/>
-      <c r="AX11" s="362"/>
-      <c r="AY11" s="362"/>
-      <c r="AZ11" s="362"/>
-      <c r="BA11" s="362"/>
-      <c r="BB11" s="362"/>
-      <c r="BC11" s="362"/>
-      <c r="BD11" s="362"/>
-      <c r="BE11" s="362"/>
-      <c r="BF11" s="363"/>
+      <c r="AS11" s="358"/>
+      <c r="AT11" s="359"/>
+      <c r="AU11" s="359"/>
+      <c r="AV11" s="359"/>
+      <c r="AW11" s="359"/>
+      <c r="AX11" s="359"/>
+      <c r="AY11" s="359"/>
+      <c r="AZ11" s="359"/>
+      <c r="BA11" s="359"/>
+      <c r="BB11" s="359"/>
+      <c r="BC11" s="359"/>
+      <c r="BD11" s="359"/>
+      <c r="BE11" s="359"/>
+      <c r="BF11" s="360"/>
     </row>
     <row r="12" spans="1:58" ht="13.5" customHeight="1">
       <c r="A12" s="80"/>
@@ -10747,9 +10747,9 @@
       <c r="D12" s="96"/>
       <c r="E12" s="96"/>
       <c r="F12" s="96"/>
-      <c r="G12" s="358"/>
-      <c r="H12" s="358"/>
-      <c r="I12" s="358"/>
+      <c r="G12" s="362"/>
+      <c r="H12" s="362"/>
+      <c r="I12" s="362"/>
       <c r="J12" s="96"/>
       <c r="K12" s="96"/>
       <c r="L12" s="96"/>
@@ -10785,20 +10785,20 @@
       <c r="AP12" s="81"/>
       <c r="AQ12" s="81"/>
       <c r="AR12" s="81"/>
-      <c r="AS12" s="361"/>
-      <c r="AT12" s="362"/>
-      <c r="AU12" s="362"/>
-      <c r="AV12" s="362"/>
-      <c r="AW12" s="362"/>
-      <c r="AX12" s="362"/>
-      <c r="AY12" s="362"/>
-      <c r="AZ12" s="362"/>
-      <c r="BA12" s="362"/>
-      <c r="BB12" s="362"/>
-      <c r="BC12" s="362"/>
-      <c r="BD12" s="362"/>
-      <c r="BE12" s="362"/>
-      <c r="BF12" s="363"/>
+      <c r="AS12" s="358"/>
+      <c r="AT12" s="359"/>
+      <c r="AU12" s="359"/>
+      <c r="AV12" s="359"/>
+      <c r="AW12" s="359"/>
+      <c r="AX12" s="359"/>
+      <c r="AY12" s="359"/>
+      <c r="AZ12" s="359"/>
+      <c r="BA12" s="359"/>
+      <c r="BB12" s="359"/>
+      <c r="BC12" s="359"/>
+      <c r="BD12" s="359"/>
+      <c r="BE12" s="359"/>
+      <c r="BF12" s="360"/>
     </row>
     <row r="13" spans="1:58" ht="13.5" customHeight="1">
       <c r="A13" s="80"/>
@@ -10807,9 +10807,9 @@
       <c r="D13" s="96"/>
       <c r="E13" s="96"/>
       <c r="F13" s="96"/>
-      <c r="G13" s="358"/>
-      <c r="H13" s="358"/>
-      <c r="I13" s="358"/>
+      <c r="G13" s="362"/>
+      <c r="H13" s="362"/>
+      <c r="I13" s="362"/>
       <c r="J13" s="96"/>
       <c r="K13" s="96"/>
       <c r="L13" s="96"/>
@@ -10845,20 +10845,20 @@
       <c r="AP13" s="81"/>
       <c r="AQ13" s="81"/>
       <c r="AR13" s="81"/>
-      <c r="AS13" s="361"/>
-      <c r="AT13" s="362"/>
-      <c r="AU13" s="362"/>
-      <c r="AV13" s="362"/>
-      <c r="AW13" s="362"/>
-      <c r="AX13" s="362"/>
-      <c r="AY13" s="362"/>
-      <c r="AZ13" s="362"/>
-      <c r="BA13" s="362"/>
-      <c r="BB13" s="362"/>
-      <c r="BC13" s="362"/>
-      <c r="BD13" s="362"/>
-      <c r="BE13" s="362"/>
-      <c r="BF13" s="363"/>
+      <c r="AS13" s="358"/>
+      <c r="AT13" s="359"/>
+      <c r="AU13" s="359"/>
+      <c r="AV13" s="359"/>
+      <c r="AW13" s="359"/>
+      <c r="AX13" s="359"/>
+      <c r="AY13" s="359"/>
+      <c r="AZ13" s="359"/>
+      <c r="BA13" s="359"/>
+      <c r="BB13" s="359"/>
+      <c r="BC13" s="359"/>
+      <c r="BD13" s="359"/>
+      <c r="BE13" s="359"/>
+      <c r="BF13" s="360"/>
     </row>
     <row r="14" spans="1:58" ht="13.5" customHeight="1">
       <c r="A14" s="80"/>
@@ -13678,12 +13678,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AS6:BF13"/>
-    <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="AA1:AQ1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="AW3:BA3"/>
     <mergeCell ref="G8:P8"/>
     <mergeCell ref="G10:P10"/>
     <mergeCell ref="G12:I13"/>
@@ -13700,6 +13694,12 @@
     <mergeCell ref="AG3:AV3"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:S1"/>
+    <mergeCell ref="AS6:BF13"/>
+    <mergeCell ref="T1:Z1"/>
+    <mergeCell ref="AA1:AQ1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="AW3:BA3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -13745,25 +13745,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A1" s="343" t="s">
+      <c r="A1" s="331" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="345"/>
-      <c r="C1" s="343" t="s">
+      <c r="B1" s="333"/>
+      <c r="C1" s="331" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="344"/>
-      <c r="E1" s="344"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="343" t="s">
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="333"/>
+      <c r="G1" s="331" t="s">
         <v>257</v>
       </c>
-      <c r="H1" s="344"/>
-      <c r="I1" s="345"/>
-      <c r="J1" s="343" t="s">
+      <c r="H1" s="332"/>
+      <c r="I1" s="333"/>
+      <c r="J1" s="331" t="s">
         <v>270</v>
       </c>
-      <c r="K1" s="345"/>
+      <c r="K1" s="333"/>
       <c r="L1" s="15" t="s">
         <v>271</v>
       </c>
@@ -13810,11 +13810,11 @@
       </c>
       <c r="H2" s="374"/>
       <c r="I2" s="371"/>
-      <c r="J2" s="350" t="str">
+      <c r="J2" s="339" t="str">
         <f>Cover!R19</f>
         <v>Add student</v>
       </c>
-      <c r="K2" s="352"/>
+      <c r="K2" s="341"/>
       <c r="L2" s="40" t="str">
         <f>Cover!I19</f>
         <v>0-0</v>
@@ -13857,11 +13857,11 @@
       <c r="J3" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K3" s="350" t="str">
+      <c r="K3" s="339" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Item definition</v>
       </c>
-      <c r="L3" s="352"/>
+      <c r="L3" s="341"/>
       <c r="M3" s="94">
         <v>44504</v>
       </c>
@@ -17013,7 +17013,7 @@
       <selection activeCell="S3" sqref="S3"/>
       <selection pane="topRight" activeCell="S3" sqref="S3"/>
       <selection pane="bottomLeft" activeCell="S3" sqref="S3"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="12"/>
@@ -17034,28 +17034,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A1" s="343" t="str">
+      <c r="A1" s="331" t="str">
         <f>Cover!A5</f>
         <v>詳細設計書</v>
       </c>
-      <c r="B1" s="345"/>
-      <c r="C1" s="343" t="s">
+      <c r="B1" s="333"/>
+      <c r="C1" s="331" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="344"/>
-      <c r="E1" s="344"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="343" t="s">
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="333"/>
+      <c r="G1" s="331" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="344"/>
-      <c r="I1" s="345"/>
-      <c r="J1" s="343" t="s">
+      <c r="H1" s="332"/>
+      <c r="I1" s="333"/>
+      <c r="J1" s="331" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="344"/>
-      <c r="L1" s="344"/>
-      <c r="M1" s="345"/>
+      <c r="K1" s="332"/>
+      <c r="L1" s="332"/>
+      <c r="M1" s="333"/>
       <c r="N1" s="24" t="s">
         <v>20</v>
       </c>
@@ -17084,13 +17084,13 @@
       </c>
       <c r="H2" s="374"/>
       <c r="I2" s="371"/>
-      <c r="J2" s="350" t="str">
+      <c r="J2" s="339" t="str">
         <f>Cover!R19</f>
         <v>Add student</v>
       </c>
-      <c r="K2" s="351"/>
-      <c r="L2" s="351"/>
-      <c r="M2" s="352"/>
+      <c r="K2" s="340"/>
+      <c r="L2" s="340"/>
+      <c r="M2" s="341"/>
       <c r="N2" s="40" t="str">
         <f>Cover!I19</f>
         <v>0-0</v>
@@ -17112,16 +17112,16 @@
       <c r="G3" s="372"/>
       <c r="H3" s="375"/>
       <c r="I3" s="373"/>
-      <c r="J3" s="343" t="s">
+      <c r="J3" s="331" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="345"/>
-      <c r="L3" s="350" t="str">
+      <c r="K3" s="333"/>
+      <c r="L3" s="339" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Input check</v>
       </c>
-      <c r="M3" s="351"/>
-      <c r="N3" s="352"/>
+      <c r="M3" s="340"/>
+      <c r="N3" s="341"/>
       <c r="O3" s="256">
         <v>44508</v>
       </c>
@@ -17449,7 +17449,7 @@
         <v>384</v>
       </c>
       <c r="V10" s="29" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="22" customHeight="1">
@@ -18824,17 +18824,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:F3"/>
     <mergeCell ref="G2:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="8">
@@ -18891,7 +18891,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G6"/>
+      <selection activeCell="F8" sqref="F8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -18907,15 +18907,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14">
-      <c r="A1" s="378" t="s">
+      <c r="A1" s="380" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="380" t="s">
+      <c r="B1" s="382" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="381"/>
-      <c r="D1" s="381"/>
-      <c r="E1" s="382"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="384"/>
       <c r="F1" s="230" t="s">
         <v>337</v>
       </c>
@@ -18930,13 +18930,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14">
-      <c r="A2" s="379"/>
-      <c r="B2" s="383" t="s">
+      <c r="A2" s="381"/>
+      <c r="B2" s="385" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="385"/>
+      <c r="C2" s="386"/>
+      <c r="D2" s="386"/>
+      <c r="E2" s="387"/>
       <c r="F2" s="147" t="s">
         <v>267</v>
       </c>
@@ -18977,14 +18977,14 @@
       <c r="E4" s="150" t="s">
         <v>350</v>
       </c>
-      <c r="F4" s="386" t="s">
+      <c r="F4" s="388" t="s">
         <v>344</v>
       </c>
-      <c r="G4" s="387"/>
-      <c r="H4" s="386" t="s">
+      <c r="G4" s="389"/>
+      <c r="H4" s="388" t="s">
         <v>345</v>
       </c>
-      <c r="I4" s="388"/>
+      <c r="I4" s="390"/>
     </row>
     <row r="5" spans="1:9" ht="31.5" customHeight="1">
       <c r="A5" s="138" t="s">
@@ -19009,7 +19009,7 @@
       <c r="H5" s="376" t="s">
         <v>352</v>
       </c>
-      <c r="I5" s="377"/>
+      <c r="I5" s="379"/>
     </row>
     <row r="6" spans="1:9" ht="14">
       <c r="A6" s="138" t="s">
@@ -19028,7 +19028,7 @@
         <v>354</v>
       </c>
       <c r="F6" s="376" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G6" s="376"/>
       <c r="H6" s="376" t="s">
@@ -19053,7 +19053,7 @@
         <v>358</v>
       </c>
       <c r="F7" s="376" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G7" s="376"/>
       <c r="H7" s="376"/>
@@ -19076,7 +19076,7 @@
         <v>360</v>
       </c>
       <c r="F8" s="376" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="G8" s="376"/>
       <c r="H8" s="376"/>
@@ -19098,10 +19098,10 @@
       <c r="E9" s="155" t="s">
         <v>364</v>
       </c>
-      <c r="F9" s="389" t="s">
-        <v>468</v>
-      </c>
-      <c r="G9" s="389"/>
+      <c r="F9" s="377" t="s">
+        <v>467</v>
+      </c>
+      <c r="G9" s="377"/>
       <c r="H9" s="376"/>
       <c r="I9" s="376"/>
     </row>
@@ -19125,8 +19125,8 @@
         <v>367</v>
       </c>
       <c r="G10" s="376"/>
-      <c r="H10" s="390"/>
-      <c r="I10" s="390"/>
+      <c r="H10" s="378"/>
+      <c r="I10" s="378"/>
     </row>
     <row r="11" spans="1:9" ht="31" customHeight="1">
       <c r="A11" s="138" t="s">
@@ -19144,10 +19144,10 @@
       <c r="E11" s="136" t="s">
         <v>372</v>
       </c>
-      <c r="F11" s="389" t="s">
-        <v>466</v>
-      </c>
-      <c r="G11" s="389"/>
+      <c r="F11" s="377" t="s">
+        <v>465</v>
+      </c>
+      <c r="G11" s="377"/>
       <c r="H11" s="376" t="s">
         <v>373</v>
       </c>
@@ -19174,7 +19174,7 @@
       </c>
       <c r="G12" s="376"/>
       <c r="H12" s="376" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I12" s="376"/>
     </row>
@@ -19203,6 +19203,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="F13:G13"/>
@@ -19213,19 +19226,6 @@
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -19261,210 +19261,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A1" s="360" t="s">
+      <c r="A1" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="342"/>
-      <c r="C1" s="342"/>
-      <c r="D1" s="342"/>
-      <c r="E1" s="342"/>
-      <c r="F1" s="342"/>
-      <c r="G1" s="342"/>
-      <c r="H1" s="342"/>
-      <c r="I1" s="342" t="s">
+      <c r="B1" s="330"/>
+      <c r="C1" s="330"/>
+      <c r="D1" s="330"/>
+      <c r="E1" s="330"/>
+      <c r="F1" s="330"/>
+      <c r="G1" s="330"/>
+      <c r="H1" s="330"/>
+      <c r="I1" s="330" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="342"/>
-      <c r="K1" s="342"/>
-      <c r="L1" s="342"/>
-      <c r="M1" s="342"/>
-      <c r="N1" s="342"/>
-      <c r="O1" s="342"/>
-      <c r="P1" s="342"/>
-      <c r="Q1" s="342"/>
-      <c r="R1" s="342"/>
-      <c r="S1" s="342"/>
-      <c r="T1" s="342" t="s">
+      <c r="J1" s="330"/>
+      <c r="K1" s="330"/>
+      <c r="L1" s="330"/>
+      <c r="M1" s="330"/>
+      <c r="N1" s="330"/>
+      <c r="O1" s="330"/>
+      <c r="P1" s="330"/>
+      <c r="Q1" s="330"/>
+      <c r="R1" s="330"/>
+      <c r="S1" s="330"/>
+      <c r="T1" s="330" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="342"/>
-      <c r="V1" s="342"/>
-      <c r="W1" s="342"/>
-      <c r="X1" s="342"/>
-      <c r="Y1" s="342"/>
-      <c r="Z1" s="342"/>
-      <c r="AA1" s="343" t="s">
+      <c r="U1" s="330"/>
+      <c r="V1" s="330"/>
+      <c r="W1" s="330"/>
+      <c r="X1" s="330"/>
+      <c r="Y1" s="330"/>
+      <c r="Z1" s="330"/>
+      <c r="AA1" s="331" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="344"/>
-      <c r="AC1" s="344"/>
-      <c r="AD1" s="344"/>
-      <c r="AE1" s="344"/>
-      <c r="AF1" s="344"/>
-      <c r="AG1" s="344"/>
-      <c r="AH1" s="344"/>
-      <c r="AI1" s="344"/>
-      <c r="AJ1" s="344"/>
-      <c r="AK1" s="344"/>
-      <c r="AL1" s="344"/>
-      <c r="AM1" s="344"/>
-      <c r="AN1" s="345"/>
-      <c r="AO1" s="343" t="s">
+      <c r="AB1" s="332"/>
+      <c r="AC1" s="332"/>
+      <c r="AD1" s="332"/>
+      <c r="AE1" s="332"/>
+      <c r="AF1" s="332"/>
+      <c r="AG1" s="332"/>
+      <c r="AH1" s="332"/>
+      <c r="AI1" s="332"/>
+      <c r="AJ1" s="332"/>
+      <c r="AK1" s="332"/>
+      <c r="AL1" s="332"/>
+      <c r="AM1" s="332"/>
+      <c r="AN1" s="333"/>
+      <c r="AO1" s="331" t="s">
         <v>20</v>
       </c>
-      <c r="AP1" s="344"/>
-      <c r="AQ1" s="345"/>
-      <c r="AR1" s="355" t="s">
+      <c r="AP1" s="332"/>
+      <c r="AQ1" s="333"/>
+      <c r="AR1" s="344" t="s">
         <v>21</v>
       </c>
-      <c r="AS1" s="355"/>
-      <c r="AT1" s="342"/>
-      <c r="AU1" s="342"/>
-      <c r="AV1" s="342"/>
-      <c r="AW1" s="342" t="s">
+      <c r="AS1" s="344"/>
+      <c r="AT1" s="330"/>
+      <c r="AU1" s="330"/>
+      <c r="AV1" s="330"/>
+      <c r="AW1" s="330" t="s">
         <v>36</v>
       </c>
-      <c r="AX1" s="342"/>
-      <c r="AY1" s="342"/>
-      <c r="AZ1" s="342"/>
-      <c r="BA1" s="342"/>
+      <c r="AX1" s="330"/>
+      <c r="AY1" s="330"/>
+      <c r="AZ1" s="330"/>
+      <c r="BA1" s="330"/>
     </row>
     <row r="2" spans="1:53" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A2" s="346" t="s">
+      <c r="A2" s="334" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="346"/>
-      <c r="C2" s="346"/>
-      <c r="D2" s="346"/>
-      <c r="E2" s="346"/>
-      <c r="F2" s="346"/>
-      <c r="G2" s="346"/>
-      <c r="H2" s="346"/>
-      <c r="I2" s="346" t="str">
+      <c r="B2" s="334"/>
+      <c r="C2" s="334"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334"/>
+      <c r="F2" s="334"/>
+      <c r="G2" s="334"/>
+      <c r="H2" s="334"/>
+      <c r="I2" s="334" t="str">
         <f>Cover!I12</f>
         <v>Manage Student</v>
       </c>
-      <c r="J2" s="346"/>
-      <c r="K2" s="346"/>
-      <c r="L2" s="346"/>
-      <c r="M2" s="346"/>
-      <c r="N2" s="346"/>
-      <c r="O2" s="346"/>
-      <c r="P2" s="346"/>
-      <c r="Q2" s="346"/>
-      <c r="R2" s="346"/>
-      <c r="S2" s="346"/>
-      <c r="T2" s="346" t="str">
+      <c r="J2" s="334"/>
+      <c r="K2" s="334"/>
+      <c r="L2" s="334"/>
+      <c r="M2" s="334"/>
+      <c r="N2" s="334"/>
+      <c r="O2" s="334"/>
+      <c r="P2" s="334"/>
+      <c r="Q2" s="334"/>
+      <c r="R2" s="334"/>
+      <c r="S2" s="334"/>
+      <c r="T2" s="334" t="str">
         <f>Cover!I15</f>
         <v>GMO_management_Student</v>
       </c>
-      <c r="U2" s="346"/>
-      <c r="V2" s="346"/>
-      <c r="W2" s="346"/>
-      <c r="X2" s="346"/>
-      <c r="Y2" s="346"/>
-      <c r="Z2" s="346"/>
-      <c r="AA2" s="350" t="str">
+      <c r="U2" s="334"/>
+      <c r="V2" s="334"/>
+      <c r="W2" s="334"/>
+      <c r="X2" s="334"/>
+      <c r="Y2" s="334"/>
+      <c r="Z2" s="334"/>
+      <c r="AA2" s="339" t="str">
         <f>Cover!R19</f>
         <v>Add student</v>
       </c>
-      <c r="AB2" s="351"/>
-      <c r="AC2" s="351"/>
-      <c r="AD2" s="351"/>
-      <c r="AE2" s="351"/>
-      <c r="AF2" s="351"/>
-      <c r="AG2" s="351"/>
-      <c r="AH2" s="351"/>
-      <c r="AI2" s="351"/>
-      <c r="AJ2" s="351"/>
-      <c r="AK2" s="351"/>
-      <c r="AL2" s="351"/>
-      <c r="AM2" s="351"/>
-      <c r="AN2" s="352"/>
+      <c r="AB2" s="340"/>
+      <c r="AC2" s="340"/>
+      <c r="AD2" s="340"/>
+      <c r="AE2" s="340"/>
+      <c r="AF2" s="340"/>
+      <c r="AG2" s="340"/>
+      <c r="AH2" s="340"/>
+      <c r="AI2" s="340"/>
+      <c r="AJ2" s="340"/>
+      <c r="AK2" s="340"/>
+      <c r="AL2" s="340"/>
+      <c r="AM2" s="340"/>
+      <c r="AN2" s="341"/>
       <c r="AO2" s="391" t="str">
         <f>Cover!I19</f>
         <v>0-0</v>
       </c>
       <c r="AP2" s="392"/>
       <c r="AQ2" s="393"/>
-      <c r="AR2" s="329" t="s">
+      <c r="AR2" s="335" t="s">
         <v>267</v>
       </c>
-      <c r="AS2" s="329"/>
-      <c r="AT2" s="329"/>
-      <c r="AU2" s="329"/>
-      <c r="AV2" s="329"/>
-      <c r="AW2" s="329" t="s">
+      <c r="AS2" s="335"/>
+      <c r="AT2" s="335"/>
+      <c r="AU2" s="335"/>
+      <c r="AV2" s="335"/>
+      <c r="AW2" s="335" t="s">
         <v>267</v>
       </c>
-      <c r="AX2" s="329"/>
-      <c r="AY2" s="329"/>
-      <c r="AZ2" s="329"/>
-      <c r="BA2" s="329"/>
+      <c r="AX2" s="335"/>
+      <c r="AY2" s="335"/>
+      <c r="AZ2" s="335"/>
+      <c r="BA2" s="335"/>
     </row>
     <row r="3" spans="1:53" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A3" s="346"/>
-      <c r="B3" s="346"/>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="346"/>
-      <c r="F3" s="346"/>
-      <c r="G3" s="346"/>
-      <c r="H3" s="346"/>
-      <c r="I3" s="346"/>
-      <c r="J3" s="346"/>
-      <c r="K3" s="346"/>
-      <c r="L3" s="346"/>
-      <c r="M3" s="346"/>
-      <c r="N3" s="346"/>
-      <c r="O3" s="346"/>
-      <c r="P3" s="346"/>
-      <c r="Q3" s="346"/>
-      <c r="R3" s="346"/>
-      <c r="S3" s="346"/>
-      <c r="T3" s="346"/>
-      <c r="U3" s="346"/>
-      <c r="V3" s="346"/>
-      <c r="W3" s="346"/>
-      <c r="X3" s="346"/>
-      <c r="Y3" s="346"/>
-      <c r="Z3" s="346"/>
-      <c r="AA3" s="343" t="s">
+      <c r="A3" s="334"/>
+      <c r="B3" s="334"/>
+      <c r="C3" s="334"/>
+      <c r="D3" s="334"/>
+      <c r="E3" s="334"/>
+      <c r="F3" s="334"/>
+      <c r="G3" s="334"/>
+      <c r="H3" s="334"/>
+      <c r="I3" s="334"/>
+      <c r="J3" s="334"/>
+      <c r="K3" s="334"/>
+      <c r="L3" s="334"/>
+      <c r="M3" s="334"/>
+      <c r="N3" s="334"/>
+      <c r="O3" s="334"/>
+      <c r="P3" s="334"/>
+      <c r="Q3" s="334"/>
+      <c r="R3" s="334"/>
+      <c r="S3" s="334"/>
+      <c r="T3" s="334"/>
+      <c r="U3" s="334"/>
+      <c r="V3" s="334"/>
+      <c r="W3" s="334"/>
+      <c r="X3" s="334"/>
+      <c r="Y3" s="334"/>
+      <c r="Z3" s="334"/>
+      <c r="AA3" s="331" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="344"/>
-      <c r="AC3" s="344"/>
-      <c r="AD3" s="344"/>
-      <c r="AE3" s="344"/>
-      <c r="AF3" s="345"/>
-      <c r="AG3" s="350" t="str">
+      <c r="AB3" s="332"/>
+      <c r="AC3" s="332"/>
+      <c r="AD3" s="332"/>
+      <c r="AE3" s="332"/>
+      <c r="AF3" s="333"/>
+      <c r="AG3" s="339" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Processing description</v>
       </c>
-      <c r="AH3" s="351"/>
-      <c r="AI3" s="351"/>
-      <c r="AJ3" s="351"/>
-      <c r="AK3" s="351"/>
-      <c r="AL3" s="351"/>
-      <c r="AM3" s="351"/>
-      <c r="AN3" s="351"/>
-      <c r="AO3" s="351"/>
-      <c r="AP3" s="351"/>
-      <c r="AQ3" s="352"/>
-      <c r="AR3" s="359">
+      <c r="AH3" s="340"/>
+      <c r="AI3" s="340"/>
+      <c r="AJ3" s="340"/>
+      <c r="AK3" s="340"/>
+      <c r="AL3" s="340"/>
+      <c r="AM3" s="340"/>
+      <c r="AN3" s="340"/>
+      <c r="AO3" s="340"/>
+      <c r="AP3" s="340"/>
+      <c r="AQ3" s="341"/>
+      <c r="AR3" s="361">
         <v>44327</v>
       </c>
-      <c r="AS3" s="359"/>
-      <c r="AT3" s="359"/>
-      <c r="AU3" s="359"/>
-      <c r="AV3" s="359"/>
-      <c r="AW3" s="359">
+      <c r="AS3" s="361"/>
+      <c r="AT3" s="361"/>
+      <c r="AU3" s="361"/>
+      <c r="AV3" s="361"/>
+      <c r="AW3" s="361">
         <v>44327</v>
       </c>
-      <c r="AX3" s="359"/>
-      <c r="AY3" s="359"/>
-      <c r="AZ3" s="359"/>
-      <c r="BA3" s="359"/>
+      <c r="AX3" s="361"/>
+      <c r="AY3" s="361"/>
+      <c r="AZ3" s="361"/>
+      <c r="BA3" s="361"/>
     </row>
     <row r="4" spans="1:53" s="17" customFormat="1" ht="12"/>
     <row r="5" spans="1:53" ht="13.5" customHeight="1">
@@ -38291,7 +38291,7 @@
       <c r="B47" s="76"/>
       <c r="C47" s="71"/>
       <c r="D47" s="71" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E47" s="79"/>
       <c r="F47" s="77"/>
@@ -39321,7 +39321,7 @@
       <c r="B64" s="76"/>
       <c r="C64" s="71"/>
       <c r="D64" s="71" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E64" s="71"/>
       <c r="F64" s="71"/>
@@ -41800,17 +41800,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:S1"/>
-    <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="AA1:AN1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:S3"/>
-    <mergeCell ref="T2:Z3"/>
-    <mergeCell ref="AA2:AN2"/>
-    <mergeCell ref="AR2:AV2"/>
-    <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AW2:BA2"/>
     <mergeCell ref="AA3:AF3"/>
     <mergeCell ref="AR3:AV3"/>
@@ -41818,6 +41807,17 @@
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AG3:AQ3"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:S3"/>
+    <mergeCell ref="T2:Z3"/>
+    <mergeCell ref="AA2:AN2"/>
+    <mergeCell ref="AR2:AV2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:S1"/>
+    <mergeCell ref="T1:Z1"/>
+    <mergeCell ref="AA1:AN1"/>
+    <mergeCell ref="AR1:AV1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/DD-Add_student.xlsx
+++ b/DD-Add_student.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640" activeTab="5"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="17" r:id="rId1"/>
@@ -2199,7 +2199,7 @@
 </t>
   </si>
   <si>
-    <t>Fullname must between 3-25 characters!</t>
+    <t>Full name contains only letters a-z!</t>
   </si>
 </sst>
 </file>
@@ -3795,90 +3795,6 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3996,20 +3912,140 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="167" fontId="39" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4028,9 +4064,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4059,44 +4092,20 @@
     <xf numFmtId="14" fontId="13" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="39" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4106,15 +4115,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4155,12 +4155,6 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4196,6 +4190,12 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6127,758 +6127,758 @@
       <c r="AQ4" s="3"/>
     </row>
     <row r="5" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="296" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="258"/>
-      <c r="C5" s="258"/>
-      <c r="D5" s="258"/>
-      <c r="E5" s="258"/>
-      <c r="F5" s="258"/>
-      <c r="G5" s="258"/>
-      <c r="H5" s="258"/>
-      <c r="I5" s="258"/>
-      <c r="J5" s="258"/>
-      <c r="K5" s="258"/>
-      <c r="L5" s="258"/>
-      <c r="M5" s="258"/>
-      <c r="N5" s="258"/>
-      <c r="O5" s="258"/>
-      <c r="P5" s="258"/>
-      <c r="Q5" s="258"/>
-      <c r="R5" s="258"/>
-      <c r="S5" s="258"/>
-      <c r="T5" s="258"/>
-      <c r="U5" s="258"/>
-      <c r="V5" s="258"/>
-      <c r="W5" s="258"/>
-      <c r="X5" s="258"/>
-      <c r="Y5" s="258"/>
-      <c r="Z5" s="258"/>
-      <c r="AA5" s="258"/>
-      <c r="AB5" s="259"/>
-      <c r="AC5" s="266" t="s">
+      <c r="B5" s="297"/>
+      <c r="C5" s="297"/>
+      <c r="D5" s="297"/>
+      <c r="E5" s="297"/>
+      <c r="F5" s="297"/>
+      <c r="G5" s="297"/>
+      <c r="H5" s="297"/>
+      <c r="I5" s="297"/>
+      <c r="J5" s="297"/>
+      <c r="K5" s="297"/>
+      <c r="L5" s="297"/>
+      <c r="M5" s="297"/>
+      <c r="N5" s="297"/>
+      <c r="O5" s="297"/>
+      <c r="P5" s="297"/>
+      <c r="Q5" s="297"/>
+      <c r="R5" s="297"/>
+      <c r="S5" s="297"/>
+      <c r="T5" s="297"/>
+      <c r="U5" s="297"/>
+      <c r="V5" s="297"/>
+      <c r="W5" s="297"/>
+      <c r="X5" s="297"/>
+      <c r="Y5" s="297"/>
+      <c r="Z5" s="297"/>
+      <c r="AA5" s="297"/>
+      <c r="AB5" s="298"/>
+      <c r="AC5" s="305" t="s">
         <v>261</v>
       </c>
-      <c r="AD5" s="266"/>
-      <c r="AE5" s="266"/>
-      <c r="AF5" s="266"/>
-      <c r="AG5" s="266"/>
-      <c r="AH5" s="266" t="s">
+      <c r="AD5" s="305"/>
+      <c r="AE5" s="305"/>
+      <c r="AF5" s="305"/>
+      <c r="AG5" s="305"/>
+      <c r="AH5" s="305" t="s">
         <v>262</v>
       </c>
-      <c r="AI5" s="266"/>
-      <c r="AJ5" s="266"/>
-      <c r="AK5" s="266"/>
-      <c r="AL5" s="266"/>
-      <c r="AM5" s="267" t="s">
+      <c r="AI5" s="305"/>
+      <c r="AJ5" s="305"/>
+      <c r="AK5" s="305"/>
+      <c r="AL5" s="305"/>
+      <c r="AM5" s="306" t="s">
         <v>263</v>
       </c>
-      <c r="AN5" s="268"/>
-      <c r="AO5" s="268"/>
-      <c r="AP5" s="268"/>
-      <c r="AQ5" s="269"/>
+      <c r="AN5" s="307"/>
+      <c r="AO5" s="307"/>
+      <c r="AP5" s="307"/>
+      <c r="AQ5" s="308"/>
     </row>
     <row r="6" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A6" s="260"/>
-      <c r="B6" s="261"/>
-      <c r="C6" s="261"/>
-      <c r="D6" s="261"/>
-      <c r="E6" s="261"/>
-      <c r="F6" s="261"/>
-      <c r="G6" s="261"/>
-      <c r="H6" s="261"/>
-      <c r="I6" s="261"/>
-      <c r="J6" s="261"/>
-      <c r="K6" s="261"/>
-      <c r="L6" s="261"/>
-      <c r="M6" s="261"/>
-      <c r="N6" s="261"/>
-      <c r="O6" s="261"/>
-      <c r="P6" s="261"/>
-      <c r="Q6" s="261"/>
-      <c r="R6" s="261"/>
-      <c r="S6" s="261"/>
-      <c r="T6" s="261"/>
-      <c r="U6" s="261"/>
-      <c r="V6" s="261"/>
-      <c r="W6" s="261"/>
-      <c r="X6" s="261"/>
-      <c r="Y6" s="261"/>
-      <c r="Z6" s="261"/>
-      <c r="AA6" s="261"/>
-      <c r="AB6" s="262"/>
-      <c r="AC6" s="270">
+      <c r="A6" s="299"/>
+      <c r="B6" s="300"/>
+      <c r="C6" s="300"/>
+      <c r="D6" s="300"/>
+      <c r="E6" s="300"/>
+      <c r="F6" s="300"/>
+      <c r="G6" s="300"/>
+      <c r="H6" s="300"/>
+      <c r="I6" s="300"/>
+      <c r="J6" s="300"/>
+      <c r="K6" s="300"/>
+      <c r="L6" s="300"/>
+      <c r="M6" s="300"/>
+      <c r="N6" s="300"/>
+      <c r="O6" s="300"/>
+      <c r="P6" s="300"/>
+      <c r="Q6" s="300"/>
+      <c r="R6" s="300"/>
+      <c r="S6" s="300"/>
+      <c r="T6" s="300"/>
+      <c r="U6" s="300"/>
+      <c r="V6" s="300"/>
+      <c r="W6" s="300"/>
+      <c r="X6" s="300"/>
+      <c r="Y6" s="300"/>
+      <c r="Z6" s="300"/>
+      <c r="AA6" s="300"/>
+      <c r="AB6" s="301"/>
+      <c r="AC6" s="309">
         <v>44503</v>
       </c>
-      <c r="AD6" s="271"/>
-      <c r="AE6" s="271"/>
-      <c r="AF6" s="271"/>
-      <c r="AG6" s="272"/>
-      <c r="AH6" s="270"/>
-      <c r="AI6" s="271"/>
-      <c r="AJ6" s="271"/>
-      <c r="AK6" s="271"/>
-      <c r="AL6" s="272"/>
-      <c r="AM6" s="270"/>
-      <c r="AN6" s="271"/>
-      <c r="AO6" s="271"/>
-      <c r="AP6" s="271"/>
-      <c r="AQ6" s="272"/>
+      <c r="AD6" s="310"/>
+      <c r="AE6" s="310"/>
+      <c r="AF6" s="310"/>
+      <c r="AG6" s="311"/>
+      <c r="AH6" s="309"/>
+      <c r="AI6" s="310"/>
+      <c r="AJ6" s="310"/>
+      <c r="AK6" s="310"/>
+      <c r="AL6" s="311"/>
+      <c r="AM6" s="309"/>
+      <c r="AN6" s="310"/>
+      <c r="AO6" s="310"/>
+      <c r="AP6" s="310"/>
+      <c r="AQ6" s="311"/>
     </row>
     <row r="7" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A7" s="260"/>
-      <c r="B7" s="261"/>
-      <c r="C7" s="261"/>
-      <c r="D7" s="261"/>
-      <c r="E7" s="261"/>
-      <c r="F7" s="261"/>
-      <c r="G7" s="261"/>
-      <c r="H7" s="261"/>
-      <c r="I7" s="261"/>
-      <c r="J7" s="261"/>
-      <c r="K7" s="261"/>
-      <c r="L7" s="261"/>
-      <c r="M7" s="261"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="261"/>
-      <c r="P7" s="261"/>
-      <c r="Q7" s="261"/>
-      <c r="R7" s="261"/>
-      <c r="S7" s="261"/>
-      <c r="T7" s="261"/>
-      <c r="U7" s="261"/>
-      <c r="V7" s="261"/>
-      <c r="W7" s="261"/>
-      <c r="X7" s="261"/>
-      <c r="Y7" s="261"/>
-      <c r="Z7" s="261"/>
-      <c r="AA7" s="261"/>
-      <c r="AB7" s="262"/>
-      <c r="AC7" s="273" t="s">
+      <c r="A7" s="299"/>
+      <c r="B7" s="300"/>
+      <c r="C7" s="300"/>
+      <c r="D7" s="300"/>
+      <c r="E7" s="300"/>
+      <c r="F7" s="300"/>
+      <c r="G7" s="300"/>
+      <c r="H7" s="300"/>
+      <c r="I7" s="300"/>
+      <c r="J7" s="300"/>
+      <c r="K7" s="300"/>
+      <c r="L7" s="300"/>
+      <c r="M7" s="300"/>
+      <c r="N7" s="300"/>
+      <c r="O7" s="300"/>
+      <c r="P7" s="300"/>
+      <c r="Q7" s="300"/>
+      <c r="R7" s="300"/>
+      <c r="S7" s="300"/>
+      <c r="T7" s="300"/>
+      <c r="U7" s="300"/>
+      <c r="V7" s="300"/>
+      <c r="W7" s="300"/>
+      <c r="X7" s="300"/>
+      <c r="Y7" s="300"/>
+      <c r="Z7" s="300"/>
+      <c r="AA7" s="300"/>
+      <c r="AB7" s="301"/>
+      <c r="AC7" s="312" t="s">
         <v>267</v>
       </c>
-      <c r="AD7" s="274"/>
-      <c r="AE7" s="274"/>
-      <c r="AF7" s="274"/>
-      <c r="AG7" s="275"/>
-      <c r="AH7" s="273"/>
-      <c r="AI7" s="274"/>
-      <c r="AJ7" s="274"/>
-      <c r="AK7" s="274"/>
-      <c r="AL7" s="275"/>
-      <c r="AM7" s="279"/>
-      <c r="AN7" s="280"/>
-      <c r="AO7" s="280"/>
-      <c r="AP7" s="280"/>
-      <c r="AQ7" s="281"/>
+      <c r="AD7" s="313"/>
+      <c r="AE7" s="313"/>
+      <c r="AF7" s="313"/>
+      <c r="AG7" s="314"/>
+      <c r="AH7" s="312"/>
+      <c r="AI7" s="313"/>
+      <c r="AJ7" s="313"/>
+      <c r="AK7" s="313"/>
+      <c r="AL7" s="314"/>
+      <c r="AM7" s="318"/>
+      <c r="AN7" s="319"/>
+      <c r="AO7" s="319"/>
+      <c r="AP7" s="319"/>
+      <c r="AQ7" s="320"/>
     </row>
     <row r="8" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A8" s="263"/>
-      <c r="B8" s="264"/>
-      <c r="C8" s="264"/>
-      <c r="D8" s="264"/>
-      <c r="E8" s="264"/>
-      <c r="F8" s="264"/>
-      <c r="G8" s="264"/>
-      <c r="H8" s="264"/>
-      <c r="I8" s="264"/>
-      <c r="J8" s="264"/>
-      <c r="K8" s="264"/>
-      <c r="L8" s="264"/>
-      <c r="M8" s="264"/>
-      <c r="N8" s="264"/>
-      <c r="O8" s="264"/>
-      <c r="P8" s="264"/>
-      <c r="Q8" s="264"/>
-      <c r="R8" s="264"/>
-      <c r="S8" s="264"/>
-      <c r="T8" s="264"/>
-      <c r="U8" s="264"/>
-      <c r="V8" s="264"/>
-      <c r="W8" s="264"/>
-      <c r="X8" s="264"/>
-      <c r="Y8" s="264"/>
-      <c r="Z8" s="264"/>
-      <c r="AA8" s="264"/>
-      <c r="AB8" s="265"/>
-      <c r="AC8" s="276"/>
-      <c r="AD8" s="277"/>
-      <c r="AE8" s="277"/>
-      <c r="AF8" s="277"/>
-      <c r="AG8" s="278"/>
-      <c r="AH8" s="276"/>
-      <c r="AI8" s="277"/>
-      <c r="AJ8" s="277"/>
-      <c r="AK8" s="277"/>
-      <c r="AL8" s="278"/>
-      <c r="AM8" s="282"/>
-      <c r="AN8" s="283"/>
-      <c r="AO8" s="283"/>
-      <c r="AP8" s="283"/>
-      <c r="AQ8" s="284"/>
+      <c r="A8" s="302"/>
+      <c r="B8" s="303"/>
+      <c r="C8" s="303"/>
+      <c r="D8" s="303"/>
+      <c r="E8" s="303"/>
+      <c r="F8" s="303"/>
+      <c r="G8" s="303"/>
+      <c r="H8" s="303"/>
+      <c r="I8" s="303"/>
+      <c r="J8" s="303"/>
+      <c r="K8" s="303"/>
+      <c r="L8" s="303"/>
+      <c r="M8" s="303"/>
+      <c r="N8" s="303"/>
+      <c r="O8" s="303"/>
+      <c r="P8" s="303"/>
+      <c r="Q8" s="303"/>
+      <c r="R8" s="303"/>
+      <c r="S8" s="303"/>
+      <c r="T8" s="303"/>
+      <c r="U8" s="303"/>
+      <c r="V8" s="303"/>
+      <c r="W8" s="303"/>
+      <c r="X8" s="303"/>
+      <c r="Y8" s="303"/>
+      <c r="Z8" s="303"/>
+      <c r="AA8" s="303"/>
+      <c r="AB8" s="304"/>
+      <c r="AC8" s="315"/>
+      <c r="AD8" s="316"/>
+      <c r="AE8" s="316"/>
+      <c r="AF8" s="316"/>
+      <c r="AG8" s="317"/>
+      <c r="AH8" s="315"/>
+      <c r="AI8" s="316"/>
+      <c r="AJ8" s="316"/>
+      <c r="AK8" s="316"/>
+      <c r="AL8" s="317"/>
+      <c r="AM8" s="321"/>
+      <c r="AN8" s="322"/>
+      <c r="AO8" s="322"/>
+      <c r="AP8" s="322"/>
+      <c r="AQ8" s="323"/>
     </row>
     <row r="9" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A9" s="294" t="s">
+      <c r="A9" s="266" t="s">
         <v>255</v>
       </c>
-      <c r="B9" s="295"/>
-      <c r="C9" s="295"/>
-      <c r="D9" s="295"/>
-      <c r="E9" s="295"/>
-      <c r="F9" s="295"/>
-      <c r="G9" s="295"/>
-      <c r="H9" s="296"/>
-      <c r="I9" s="303" t="s">
+      <c r="B9" s="267"/>
+      <c r="C9" s="267"/>
+      <c r="D9" s="267"/>
+      <c r="E9" s="267"/>
+      <c r="F9" s="267"/>
+      <c r="G9" s="267"/>
+      <c r="H9" s="268"/>
+      <c r="I9" s="275" t="s">
         <v>268</v>
       </c>
-      <c r="J9" s="303"/>
-      <c r="K9" s="303"/>
-      <c r="L9" s="303"/>
-      <c r="M9" s="303"/>
-      <c r="N9" s="303"/>
-      <c r="O9" s="303"/>
-      <c r="P9" s="303"/>
-      <c r="Q9" s="303"/>
-      <c r="R9" s="303"/>
-      <c r="S9" s="303"/>
-      <c r="T9" s="303"/>
-      <c r="U9" s="303"/>
-      <c r="V9" s="303"/>
-      <c r="W9" s="303"/>
-      <c r="X9" s="303"/>
-      <c r="Y9" s="303"/>
-      <c r="Z9" s="303"/>
-      <c r="AA9" s="303"/>
-      <c r="AB9" s="303"/>
-      <c r="AC9" s="303"/>
-      <c r="AD9" s="303"/>
-      <c r="AE9" s="303"/>
-      <c r="AF9" s="303"/>
-      <c r="AG9" s="303"/>
-      <c r="AH9" s="303"/>
-      <c r="AI9" s="303"/>
-      <c r="AJ9" s="303"/>
-      <c r="AK9" s="303"/>
-      <c r="AL9" s="303"/>
-      <c r="AM9" s="303"/>
-      <c r="AN9" s="303"/>
-      <c r="AO9" s="303"/>
-      <c r="AP9" s="303"/>
-      <c r="AQ9" s="304"/>
+      <c r="J9" s="275"/>
+      <c r="K9" s="275"/>
+      <c r="L9" s="275"/>
+      <c r="M9" s="275"/>
+      <c r="N9" s="275"/>
+      <c r="O9" s="275"/>
+      <c r="P9" s="275"/>
+      <c r="Q9" s="275"/>
+      <c r="R9" s="275"/>
+      <c r="S9" s="275"/>
+      <c r="T9" s="275"/>
+      <c r="U9" s="275"/>
+      <c r="V9" s="275"/>
+      <c r="W9" s="275"/>
+      <c r="X9" s="275"/>
+      <c r="Y9" s="275"/>
+      <c r="Z9" s="275"/>
+      <c r="AA9" s="275"/>
+      <c r="AB9" s="275"/>
+      <c r="AC9" s="275"/>
+      <c r="AD9" s="275"/>
+      <c r="AE9" s="275"/>
+      <c r="AF9" s="275"/>
+      <c r="AG9" s="275"/>
+      <c r="AH9" s="275"/>
+      <c r="AI9" s="275"/>
+      <c r="AJ9" s="275"/>
+      <c r="AK9" s="275"/>
+      <c r="AL9" s="275"/>
+      <c r="AM9" s="275"/>
+      <c r="AN9" s="275"/>
+      <c r="AO9" s="275"/>
+      <c r="AP9" s="275"/>
+      <c r="AQ9" s="276"/>
     </row>
     <row r="10" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A10" s="297"/>
-      <c r="B10" s="298"/>
-      <c r="C10" s="298"/>
-      <c r="D10" s="298"/>
-      <c r="E10" s="298"/>
-      <c r="F10" s="298"/>
-      <c r="G10" s="298"/>
-      <c r="H10" s="299"/>
-      <c r="I10" s="305"/>
-      <c r="J10" s="305"/>
-      <c r="K10" s="305"/>
-      <c r="L10" s="305"/>
-      <c r="M10" s="305"/>
-      <c r="N10" s="305"/>
-      <c r="O10" s="305"/>
-      <c r="P10" s="305"/>
-      <c r="Q10" s="305"/>
-      <c r="R10" s="305"/>
-      <c r="S10" s="305"/>
-      <c r="T10" s="305"/>
-      <c r="U10" s="305"/>
-      <c r="V10" s="305"/>
-      <c r="W10" s="305"/>
-      <c r="X10" s="305"/>
-      <c r="Y10" s="305"/>
-      <c r="Z10" s="305"/>
-      <c r="AA10" s="305"/>
-      <c r="AB10" s="305"/>
-      <c r="AC10" s="305"/>
-      <c r="AD10" s="305"/>
-      <c r="AE10" s="305"/>
-      <c r="AF10" s="305"/>
-      <c r="AG10" s="305"/>
-      <c r="AH10" s="305"/>
-      <c r="AI10" s="305"/>
-      <c r="AJ10" s="305"/>
-      <c r="AK10" s="305"/>
-      <c r="AL10" s="305"/>
-      <c r="AM10" s="305"/>
-      <c r="AN10" s="305"/>
-      <c r="AO10" s="305"/>
-      <c r="AP10" s="305"/>
-      <c r="AQ10" s="306"/>
+      <c r="A10" s="269"/>
+      <c r="B10" s="270"/>
+      <c r="C10" s="270"/>
+      <c r="D10" s="270"/>
+      <c r="E10" s="270"/>
+      <c r="F10" s="270"/>
+      <c r="G10" s="270"/>
+      <c r="H10" s="271"/>
+      <c r="I10" s="277"/>
+      <c r="J10" s="277"/>
+      <c r="K10" s="277"/>
+      <c r="L10" s="277"/>
+      <c r="M10" s="277"/>
+      <c r="N10" s="277"/>
+      <c r="O10" s="277"/>
+      <c r="P10" s="277"/>
+      <c r="Q10" s="277"/>
+      <c r="R10" s="277"/>
+      <c r="S10" s="277"/>
+      <c r="T10" s="277"/>
+      <c r="U10" s="277"/>
+      <c r="V10" s="277"/>
+      <c r="W10" s="277"/>
+      <c r="X10" s="277"/>
+      <c r="Y10" s="277"/>
+      <c r="Z10" s="277"/>
+      <c r="AA10" s="277"/>
+      <c r="AB10" s="277"/>
+      <c r="AC10" s="277"/>
+      <c r="AD10" s="277"/>
+      <c r="AE10" s="277"/>
+      <c r="AF10" s="277"/>
+      <c r="AG10" s="277"/>
+      <c r="AH10" s="277"/>
+      <c r="AI10" s="277"/>
+      <c r="AJ10" s="277"/>
+      <c r="AK10" s="277"/>
+      <c r="AL10" s="277"/>
+      <c r="AM10" s="277"/>
+      <c r="AN10" s="277"/>
+      <c r="AO10" s="277"/>
+      <c r="AP10" s="277"/>
+      <c r="AQ10" s="278"/>
     </row>
     <row r="11" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A11" s="300"/>
-      <c r="B11" s="301"/>
-      <c r="C11" s="301"/>
-      <c r="D11" s="301"/>
-      <c r="E11" s="301"/>
-      <c r="F11" s="301"/>
-      <c r="G11" s="301"/>
-      <c r="H11" s="302"/>
-      <c r="I11" s="307"/>
-      <c r="J11" s="307"/>
-      <c r="K11" s="307"/>
-      <c r="L11" s="307"/>
-      <c r="M11" s="307"/>
-      <c r="N11" s="307"/>
-      <c r="O11" s="307"/>
-      <c r="P11" s="307"/>
-      <c r="Q11" s="307"/>
-      <c r="R11" s="307"/>
-      <c r="S11" s="307"/>
-      <c r="T11" s="307"/>
-      <c r="U11" s="307"/>
-      <c r="V11" s="307"/>
-      <c r="W11" s="307"/>
-      <c r="X11" s="307"/>
-      <c r="Y11" s="307"/>
-      <c r="Z11" s="307"/>
-      <c r="AA11" s="307"/>
-      <c r="AB11" s="307"/>
-      <c r="AC11" s="307"/>
-      <c r="AD11" s="307"/>
-      <c r="AE11" s="307"/>
-      <c r="AF11" s="307"/>
-      <c r="AG11" s="307"/>
-      <c r="AH11" s="307"/>
-      <c r="AI11" s="307"/>
-      <c r="AJ11" s="307"/>
-      <c r="AK11" s="307"/>
-      <c r="AL11" s="307"/>
-      <c r="AM11" s="307"/>
-      <c r="AN11" s="307"/>
-      <c r="AO11" s="307"/>
-      <c r="AP11" s="307"/>
-      <c r="AQ11" s="308"/>
+      <c r="A11" s="272"/>
+      <c r="B11" s="273"/>
+      <c r="C11" s="273"/>
+      <c r="D11" s="273"/>
+      <c r="E11" s="273"/>
+      <c r="F11" s="273"/>
+      <c r="G11" s="273"/>
+      <c r="H11" s="274"/>
+      <c r="I11" s="279"/>
+      <c r="J11" s="279"/>
+      <c r="K11" s="279"/>
+      <c r="L11" s="279"/>
+      <c r="M11" s="279"/>
+      <c r="N11" s="279"/>
+      <c r="O11" s="279"/>
+      <c r="P11" s="279"/>
+      <c r="Q11" s="279"/>
+      <c r="R11" s="279"/>
+      <c r="S11" s="279"/>
+      <c r="T11" s="279"/>
+      <c r="U11" s="279"/>
+      <c r="V11" s="279"/>
+      <c r="W11" s="279"/>
+      <c r="X11" s="279"/>
+      <c r="Y11" s="279"/>
+      <c r="Z11" s="279"/>
+      <c r="AA11" s="279"/>
+      <c r="AB11" s="279"/>
+      <c r="AC11" s="279"/>
+      <c r="AD11" s="279"/>
+      <c r="AE11" s="279"/>
+      <c r="AF11" s="279"/>
+      <c r="AG11" s="279"/>
+      <c r="AH11" s="279"/>
+      <c r="AI11" s="279"/>
+      <c r="AJ11" s="279"/>
+      <c r="AK11" s="279"/>
+      <c r="AL11" s="279"/>
+      <c r="AM11" s="279"/>
+      <c r="AN11" s="279"/>
+      <c r="AO11" s="279"/>
+      <c r="AP11" s="279"/>
+      <c r="AQ11" s="280"/>
     </row>
     <row r="12" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A12" s="294" t="s">
+      <c r="A12" s="266" t="s">
         <v>256</v>
       </c>
-      <c r="B12" s="295"/>
-      <c r="C12" s="295"/>
-      <c r="D12" s="295"/>
-      <c r="E12" s="295"/>
-      <c r="F12" s="295"/>
-      <c r="G12" s="295"/>
-      <c r="H12" s="296"/>
-      <c r="I12" s="309" t="s">
+      <c r="B12" s="267"/>
+      <c r="C12" s="267"/>
+      <c r="D12" s="267"/>
+      <c r="E12" s="267"/>
+      <c r="F12" s="267"/>
+      <c r="G12" s="267"/>
+      <c r="H12" s="268"/>
+      <c r="I12" s="281" t="s">
         <v>185</v>
       </c>
-      <c r="J12" s="303"/>
-      <c r="K12" s="303"/>
-      <c r="L12" s="303"/>
-      <c r="M12" s="303"/>
-      <c r="N12" s="303"/>
-      <c r="O12" s="303"/>
-      <c r="P12" s="303"/>
-      <c r="Q12" s="303"/>
-      <c r="R12" s="303"/>
-      <c r="S12" s="303"/>
-      <c r="T12" s="303"/>
-      <c r="U12" s="303"/>
-      <c r="V12" s="303"/>
-      <c r="W12" s="303"/>
-      <c r="X12" s="303"/>
-      <c r="Y12" s="303"/>
-      <c r="Z12" s="303"/>
-      <c r="AA12" s="303"/>
-      <c r="AB12" s="303"/>
-      <c r="AC12" s="303"/>
-      <c r="AD12" s="303"/>
-      <c r="AE12" s="303"/>
-      <c r="AF12" s="303"/>
-      <c r="AG12" s="303"/>
-      <c r="AH12" s="303"/>
-      <c r="AI12" s="303"/>
-      <c r="AJ12" s="303"/>
-      <c r="AK12" s="303"/>
-      <c r="AL12" s="303"/>
-      <c r="AM12" s="303"/>
-      <c r="AN12" s="303"/>
-      <c r="AO12" s="303"/>
-      <c r="AP12" s="303"/>
-      <c r="AQ12" s="304"/>
+      <c r="J12" s="275"/>
+      <c r="K12" s="275"/>
+      <c r="L12" s="275"/>
+      <c r="M12" s="275"/>
+      <c r="N12" s="275"/>
+      <c r="O12" s="275"/>
+      <c r="P12" s="275"/>
+      <c r="Q12" s="275"/>
+      <c r="R12" s="275"/>
+      <c r="S12" s="275"/>
+      <c r="T12" s="275"/>
+      <c r="U12" s="275"/>
+      <c r="V12" s="275"/>
+      <c r="W12" s="275"/>
+      <c r="X12" s="275"/>
+      <c r="Y12" s="275"/>
+      <c r="Z12" s="275"/>
+      <c r="AA12" s="275"/>
+      <c r="AB12" s="275"/>
+      <c r="AC12" s="275"/>
+      <c r="AD12" s="275"/>
+      <c r="AE12" s="275"/>
+      <c r="AF12" s="275"/>
+      <c r="AG12" s="275"/>
+      <c r="AH12" s="275"/>
+      <c r="AI12" s="275"/>
+      <c r="AJ12" s="275"/>
+      <c r="AK12" s="275"/>
+      <c r="AL12" s="275"/>
+      <c r="AM12" s="275"/>
+      <c r="AN12" s="275"/>
+      <c r="AO12" s="275"/>
+      <c r="AP12" s="275"/>
+      <c r="AQ12" s="276"/>
     </row>
     <row r="13" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A13" s="297"/>
-      <c r="B13" s="298"/>
-      <c r="C13" s="298"/>
-      <c r="D13" s="298"/>
-      <c r="E13" s="298"/>
-      <c r="F13" s="298"/>
-      <c r="G13" s="298"/>
-      <c r="H13" s="299"/>
-      <c r="I13" s="310"/>
-      <c r="J13" s="305"/>
-      <c r="K13" s="305"/>
-      <c r="L13" s="305"/>
-      <c r="M13" s="305"/>
-      <c r="N13" s="305"/>
-      <c r="O13" s="305"/>
-      <c r="P13" s="305"/>
-      <c r="Q13" s="305"/>
-      <c r="R13" s="305"/>
-      <c r="S13" s="305"/>
-      <c r="T13" s="305"/>
-      <c r="U13" s="305"/>
-      <c r="V13" s="305"/>
-      <c r="W13" s="305"/>
-      <c r="X13" s="305"/>
-      <c r="Y13" s="305"/>
-      <c r="Z13" s="305"/>
-      <c r="AA13" s="305"/>
-      <c r="AB13" s="305"/>
-      <c r="AC13" s="305"/>
-      <c r="AD13" s="305"/>
-      <c r="AE13" s="305"/>
-      <c r="AF13" s="305"/>
-      <c r="AG13" s="305"/>
-      <c r="AH13" s="305"/>
-      <c r="AI13" s="305"/>
-      <c r="AJ13" s="305"/>
-      <c r="AK13" s="305"/>
-      <c r="AL13" s="305"/>
-      <c r="AM13" s="305"/>
-      <c r="AN13" s="305"/>
-      <c r="AO13" s="305"/>
-      <c r="AP13" s="305"/>
-      <c r="AQ13" s="306"/>
+      <c r="A13" s="269"/>
+      <c r="B13" s="270"/>
+      <c r="C13" s="270"/>
+      <c r="D13" s="270"/>
+      <c r="E13" s="270"/>
+      <c r="F13" s="270"/>
+      <c r="G13" s="270"/>
+      <c r="H13" s="271"/>
+      <c r="I13" s="282"/>
+      <c r="J13" s="277"/>
+      <c r="K13" s="277"/>
+      <c r="L13" s="277"/>
+      <c r="M13" s="277"/>
+      <c r="N13" s="277"/>
+      <c r="O13" s="277"/>
+      <c r="P13" s="277"/>
+      <c r="Q13" s="277"/>
+      <c r="R13" s="277"/>
+      <c r="S13" s="277"/>
+      <c r="T13" s="277"/>
+      <c r="U13" s="277"/>
+      <c r="V13" s="277"/>
+      <c r="W13" s="277"/>
+      <c r="X13" s="277"/>
+      <c r="Y13" s="277"/>
+      <c r="Z13" s="277"/>
+      <c r="AA13" s="277"/>
+      <c r="AB13" s="277"/>
+      <c r="AC13" s="277"/>
+      <c r="AD13" s="277"/>
+      <c r="AE13" s="277"/>
+      <c r="AF13" s="277"/>
+      <c r="AG13" s="277"/>
+      <c r="AH13" s="277"/>
+      <c r="AI13" s="277"/>
+      <c r="AJ13" s="277"/>
+      <c r="AK13" s="277"/>
+      <c r="AL13" s="277"/>
+      <c r="AM13" s="277"/>
+      <c r="AN13" s="277"/>
+      <c r="AO13" s="277"/>
+      <c r="AP13" s="277"/>
+      <c r="AQ13" s="278"/>
     </row>
     <row r="14" spans="1:43" ht="15" customHeight="1">
-      <c r="A14" s="300"/>
-      <c r="B14" s="301"/>
-      <c r="C14" s="301"/>
-      <c r="D14" s="301"/>
-      <c r="E14" s="301"/>
-      <c r="F14" s="301"/>
-      <c r="G14" s="301"/>
-      <c r="H14" s="302"/>
-      <c r="I14" s="311"/>
-      <c r="J14" s="307"/>
-      <c r="K14" s="307"/>
-      <c r="L14" s="307"/>
-      <c r="M14" s="307"/>
-      <c r="N14" s="307"/>
-      <c r="O14" s="307"/>
-      <c r="P14" s="307"/>
-      <c r="Q14" s="307"/>
-      <c r="R14" s="307"/>
-      <c r="S14" s="307"/>
-      <c r="T14" s="307"/>
-      <c r="U14" s="307"/>
-      <c r="V14" s="307"/>
-      <c r="W14" s="307"/>
-      <c r="X14" s="307"/>
-      <c r="Y14" s="307"/>
-      <c r="Z14" s="307"/>
-      <c r="AA14" s="307"/>
-      <c r="AB14" s="307"/>
-      <c r="AC14" s="307"/>
-      <c r="AD14" s="307"/>
-      <c r="AE14" s="307"/>
-      <c r="AF14" s="307"/>
-      <c r="AG14" s="307"/>
-      <c r="AH14" s="307"/>
-      <c r="AI14" s="307"/>
-      <c r="AJ14" s="307"/>
-      <c r="AK14" s="307"/>
-      <c r="AL14" s="307"/>
-      <c r="AM14" s="307"/>
-      <c r="AN14" s="307"/>
-      <c r="AO14" s="307"/>
-      <c r="AP14" s="307"/>
-      <c r="AQ14" s="308"/>
+      <c r="A14" s="272"/>
+      <c r="B14" s="273"/>
+      <c r="C14" s="273"/>
+      <c r="D14" s="273"/>
+      <c r="E14" s="273"/>
+      <c r="F14" s="273"/>
+      <c r="G14" s="273"/>
+      <c r="H14" s="274"/>
+      <c r="I14" s="283"/>
+      <c r="J14" s="279"/>
+      <c r="K14" s="279"/>
+      <c r="L14" s="279"/>
+      <c r="M14" s="279"/>
+      <c r="N14" s="279"/>
+      <c r="O14" s="279"/>
+      <c r="P14" s="279"/>
+      <c r="Q14" s="279"/>
+      <c r="R14" s="279"/>
+      <c r="S14" s="279"/>
+      <c r="T14" s="279"/>
+      <c r="U14" s="279"/>
+      <c r="V14" s="279"/>
+      <c r="W14" s="279"/>
+      <c r="X14" s="279"/>
+      <c r="Y14" s="279"/>
+      <c r="Z14" s="279"/>
+      <c r="AA14" s="279"/>
+      <c r="AB14" s="279"/>
+      <c r="AC14" s="279"/>
+      <c r="AD14" s="279"/>
+      <c r="AE14" s="279"/>
+      <c r="AF14" s="279"/>
+      <c r="AG14" s="279"/>
+      <c r="AH14" s="279"/>
+      <c r="AI14" s="279"/>
+      <c r="AJ14" s="279"/>
+      <c r="AK14" s="279"/>
+      <c r="AL14" s="279"/>
+      <c r="AM14" s="279"/>
+      <c r="AN14" s="279"/>
+      <c r="AO14" s="279"/>
+      <c r="AP14" s="279"/>
+      <c r="AQ14" s="280"/>
     </row>
     <row r="15" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A15" s="294" t="s">
+      <c r="A15" s="266" t="s">
         <v>257</v>
       </c>
-      <c r="B15" s="295"/>
-      <c r="C15" s="295"/>
-      <c r="D15" s="295"/>
-      <c r="E15" s="295"/>
-      <c r="F15" s="295"/>
-      <c r="G15" s="295"/>
-      <c r="H15" s="296"/>
-      <c r="I15" s="309" t="s">
+      <c r="B15" s="267"/>
+      <c r="C15" s="267"/>
+      <c r="D15" s="267"/>
+      <c r="E15" s="267"/>
+      <c r="F15" s="267"/>
+      <c r="G15" s="267"/>
+      <c r="H15" s="268"/>
+      <c r="I15" s="281" t="s">
         <v>265</v>
       </c>
-      <c r="J15" s="303"/>
-      <c r="K15" s="303"/>
-      <c r="L15" s="303"/>
-      <c r="M15" s="303"/>
-      <c r="N15" s="303"/>
-      <c r="O15" s="303"/>
-      <c r="P15" s="303"/>
-      <c r="Q15" s="303"/>
-      <c r="R15" s="303"/>
-      <c r="S15" s="303"/>
-      <c r="T15" s="303"/>
-      <c r="U15" s="303"/>
-      <c r="V15" s="303"/>
-      <c r="W15" s="303"/>
-      <c r="X15" s="303"/>
-      <c r="Y15" s="303"/>
-      <c r="Z15" s="303"/>
-      <c r="AA15" s="303"/>
-      <c r="AB15" s="303"/>
-      <c r="AC15" s="303"/>
-      <c r="AD15" s="303"/>
-      <c r="AE15" s="303"/>
-      <c r="AF15" s="303"/>
-      <c r="AG15" s="303"/>
-      <c r="AH15" s="303"/>
-      <c r="AI15" s="303"/>
-      <c r="AJ15" s="303"/>
-      <c r="AK15" s="303"/>
-      <c r="AL15" s="303"/>
-      <c r="AM15" s="303"/>
-      <c r="AN15" s="303"/>
-      <c r="AO15" s="303"/>
-      <c r="AP15" s="303"/>
-      <c r="AQ15" s="304"/>
+      <c r="J15" s="275"/>
+      <c r="K15" s="275"/>
+      <c r="L15" s="275"/>
+      <c r="M15" s="275"/>
+      <c r="N15" s="275"/>
+      <c r="O15" s="275"/>
+      <c r="P15" s="275"/>
+      <c r="Q15" s="275"/>
+      <c r="R15" s="275"/>
+      <c r="S15" s="275"/>
+      <c r="T15" s="275"/>
+      <c r="U15" s="275"/>
+      <c r="V15" s="275"/>
+      <c r="W15" s="275"/>
+      <c r="X15" s="275"/>
+      <c r="Y15" s="275"/>
+      <c r="Z15" s="275"/>
+      <c r="AA15" s="275"/>
+      <c r="AB15" s="275"/>
+      <c r="AC15" s="275"/>
+      <c r="AD15" s="275"/>
+      <c r="AE15" s="275"/>
+      <c r="AF15" s="275"/>
+      <c r="AG15" s="275"/>
+      <c r="AH15" s="275"/>
+      <c r="AI15" s="275"/>
+      <c r="AJ15" s="275"/>
+      <c r="AK15" s="275"/>
+      <c r="AL15" s="275"/>
+      <c r="AM15" s="275"/>
+      <c r="AN15" s="275"/>
+      <c r="AO15" s="275"/>
+      <c r="AP15" s="275"/>
+      <c r="AQ15" s="276"/>
     </row>
     <row r="16" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A16" s="297"/>
-      <c r="B16" s="298"/>
-      <c r="C16" s="298"/>
-      <c r="D16" s="298"/>
-      <c r="E16" s="298"/>
-      <c r="F16" s="298"/>
-      <c r="G16" s="298"/>
-      <c r="H16" s="299"/>
-      <c r="I16" s="310"/>
-      <c r="J16" s="305"/>
-      <c r="K16" s="305"/>
-      <c r="L16" s="305"/>
-      <c r="M16" s="305"/>
-      <c r="N16" s="305"/>
-      <c r="O16" s="305"/>
-      <c r="P16" s="305"/>
-      <c r="Q16" s="305"/>
-      <c r="R16" s="305"/>
-      <c r="S16" s="305"/>
-      <c r="T16" s="305"/>
-      <c r="U16" s="305"/>
-      <c r="V16" s="305"/>
-      <c r="W16" s="305"/>
-      <c r="X16" s="305"/>
-      <c r="Y16" s="305"/>
-      <c r="Z16" s="305"/>
-      <c r="AA16" s="305"/>
-      <c r="AB16" s="305"/>
-      <c r="AC16" s="305"/>
-      <c r="AD16" s="305"/>
-      <c r="AE16" s="305"/>
-      <c r="AF16" s="305"/>
-      <c r="AG16" s="305"/>
-      <c r="AH16" s="305"/>
-      <c r="AI16" s="305"/>
-      <c r="AJ16" s="305"/>
-      <c r="AK16" s="305"/>
-      <c r="AL16" s="305"/>
-      <c r="AM16" s="305"/>
-      <c r="AN16" s="305"/>
-      <c r="AO16" s="305"/>
-      <c r="AP16" s="305"/>
-      <c r="AQ16" s="306"/>
+      <c r="A16" s="269"/>
+      <c r="B16" s="270"/>
+      <c r="C16" s="270"/>
+      <c r="D16" s="270"/>
+      <c r="E16" s="270"/>
+      <c r="F16" s="270"/>
+      <c r="G16" s="270"/>
+      <c r="H16" s="271"/>
+      <c r="I16" s="282"/>
+      <c r="J16" s="277"/>
+      <c r="K16" s="277"/>
+      <c r="L16" s="277"/>
+      <c r="M16" s="277"/>
+      <c r="N16" s="277"/>
+      <c r="O16" s="277"/>
+      <c r="P16" s="277"/>
+      <c r="Q16" s="277"/>
+      <c r="R16" s="277"/>
+      <c r="S16" s="277"/>
+      <c r="T16" s="277"/>
+      <c r="U16" s="277"/>
+      <c r="V16" s="277"/>
+      <c r="W16" s="277"/>
+      <c r="X16" s="277"/>
+      <c r="Y16" s="277"/>
+      <c r="Z16" s="277"/>
+      <c r="AA16" s="277"/>
+      <c r="AB16" s="277"/>
+      <c r="AC16" s="277"/>
+      <c r="AD16" s="277"/>
+      <c r="AE16" s="277"/>
+      <c r="AF16" s="277"/>
+      <c r="AG16" s="277"/>
+      <c r="AH16" s="277"/>
+      <c r="AI16" s="277"/>
+      <c r="AJ16" s="277"/>
+      <c r="AK16" s="277"/>
+      <c r="AL16" s="277"/>
+      <c r="AM16" s="277"/>
+      <c r="AN16" s="277"/>
+      <c r="AO16" s="277"/>
+      <c r="AP16" s="277"/>
+      <c r="AQ16" s="278"/>
     </row>
     <row r="17" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A17" s="300"/>
-      <c r="B17" s="301"/>
-      <c r="C17" s="301"/>
-      <c r="D17" s="301"/>
-      <c r="E17" s="301"/>
-      <c r="F17" s="301"/>
-      <c r="G17" s="301"/>
-      <c r="H17" s="302"/>
-      <c r="I17" s="311"/>
-      <c r="J17" s="307"/>
-      <c r="K17" s="307"/>
-      <c r="L17" s="307"/>
-      <c r="M17" s="307"/>
-      <c r="N17" s="307"/>
-      <c r="O17" s="307"/>
-      <c r="P17" s="307"/>
-      <c r="Q17" s="307"/>
-      <c r="R17" s="307"/>
-      <c r="S17" s="307"/>
-      <c r="T17" s="307"/>
-      <c r="U17" s="307"/>
-      <c r="V17" s="307"/>
-      <c r="W17" s="307"/>
-      <c r="X17" s="307"/>
-      <c r="Y17" s="307"/>
-      <c r="Z17" s="307"/>
-      <c r="AA17" s="307"/>
-      <c r="AB17" s="307"/>
-      <c r="AC17" s="307"/>
-      <c r="AD17" s="307"/>
-      <c r="AE17" s="307"/>
-      <c r="AF17" s="307"/>
-      <c r="AG17" s="307"/>
-      <c r="AH17" s="307"/>
-      <c r="AI17" s="307"/>
-      <c r="AJ17" s="307"/>
-      <c r="AK17" s="307"/>
-      <c r="AL17" s="307"/>
-      <c r="AM17" s="307"/>
-      <c r="AN17" s="307"/>
-      <c r="AO17" s="307"/>
-      <c r="AP17" s="307"/>
-      <c r="AQ17" s="308"/>
+      <c r="A17" s="272"/>
+      <c r="B17" s="273"/>
+      <c r="C17" s="273"/>
+      <c r="D17" s="273"/>
+      <c r="E17" s="273"/>
+      <c r="F17" s="273"/>
+      <c r="G17" s="273"/>
+      <c r="H17" s="274"/>
+      <c r="I17" s="283"/>
+      <c r="J17" s="279"/>
+      <c r="K17" s="279"/>
+      <c r="L17" s="279"/>
+      <c r="M17" s="279"/>
+      <c r="N17" s="279"/>
+      <c r="O17" s="279"/>
+      <c r="P17" s="279"/>
+      <c r="Q17" s="279"/>
+      <c r="R17" s="279"/>
+      <c r="S17" s="279"/>
+      <c r="T17" s="279"/>
+      <c r="U17" s="279"/>
+      <c r="V17" s="279"/>
+      <c r="W17" s="279"/>
+      <c r="X17" s="279"/>
+      <c r="Y17" s="279"/>
+      <c r="Z17" s="279"/>
+      <c r="AA17" s="279"/>
+      <c r="AB17" s="279"/>
+      <c r="AC17" s="279"/>
+      <c r="AD17" s="279"/>
+      <c r="AE17" s="279"/>
+      <c r="AF17" s="279"/>
+      <c r="AG17" s="279"/>
+      <c r="AH17" s="279"/>
+      <c r="AI17" s="279"/>
+      <c r="AJ17" s="279"/>
+      <c r="AK17" s="279"/>
+      <c r="AL17" s="279"/>
+      <c r="AM17" s="279"/>
+      <c r="AN17" s="279"/>
+      <c r="AO17" s="279"/>
+      <c r="AP17" s="279"/>
+      <c r="AQ17" s="280"/>
     </row>
     <row r="18" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A18" s="294" t="s">
+      <c r="A18" s="266" t="s">
         <v>258</v>
       </c>
-      <c r="B18" s="295"/>
-      <c r="C18" s="295"/>
-      <c r="D18" s="295"/>
-      <c r="E18" s="295"/>
-      <c r="F18" s="295"/>
-      <c r="G18" s="295"/>
-      <c r="H18" s="296"/>
-      <c r="I18" s="312" t="s">
+      <c r="B18" s="267"/>
+      <c r="C18" s="267"/>
+      <c r="D18" s="267"/>
+      <c r="E18" s="267"/>
+      <c r="F18" s="267"/>
+      <c r="G18" s="267"/>
+      <c r="H18" s="268"/>
+      <c r="I18" s="284" t="s">
         <v>259</v>
       </c>
-      <c r="J18" s="313"/>
-      <c r="K18" s="313"/>
-      <c r="L18" s="313"/>
-      <c r="M18" s="313"/>
-      <c r="N18" s="313"/>
-      <c r="O18" s="313"/>
-      <c r="P18" s="313"/>
-      <c r="Q18" s="314"/>
-      <c r="R18" s="315" t="s">
+      <c r="J18" s="285"/>
+      <c r="K18" s="285"/>
+      <c r="L18" s="285"/>
+      <c r="M18" s="285"/>
+      <c r="N18" s="285"/>
+      <c r="O18" s="285"/>
+      <c r="P18" s="285"/>
+      <c r="Q18" s="286"/>
+      <c r="R18" s="287" t="s">
         <v>260</v>
       </c>
-      <c r="S18" s="316"/>
-      <c r="T18" s="316"/>
-      <c r="U18" s="316"/>
-      <c r="V18" s="316"/>
-      <c r="W18" s="316"/>
-      <c r="X18" s="316"/>
-      <c r="Y18" s="316"/>
-      <c r="Z18" s="316"/>
-      <c r="AA18" s="316"/>
-      <c r="AB18" s="316"/>
-      <c r="AC18" s="316"/>
-      <c r="AD18" s="316"/>
-      <c r="AE18" s="316"/>
-      <c r="AF18" s="316"/>
-      <c r="AG18" s="316"/>
-      <c r="AH18" s="316"/>
-      <c r="AI18" s="316"/>
-      <c r="AJ18" s="316"/>
-      <c r="AK18" s="316"/>
-      <c r="AL18" s="316"/>
-      <c r="AM18" s="316"/>
-      <c r="AN18" s="316"/>
-      <c r="AO18" s="316"/>
-      <c r="AP18" s="316"/>
-      <c r="AQ18" s="317"/>
+      <c r="S18" s="288"/>
+      <c r="T18" s="288"/>
+      <c r="U18" s="288"/>
+      <c r="V18" s="288"/>
+      <c r="W18" s="288"/>
+      <c r="X18" s="288"/>
+      <c r="Y18" s="288"/>
+      <c r="Z18" s="288"/>
+      <c r="AA18" s="288"/>
+      <c r="AB18" s="288"/>
+      <c r="AC18" s="288"/>
+      <c r="AD18" s="288"/>
+      <c r="AE18" s="288"/>
+      <c r="AF18" s="288"/>
+      <c r="AG18" s="288"/>
+      <c r="AH18" s="288"/>
+      <c r="AI18" s="288"/>
+      <c r="AJ18" s="288"/>
+      <c r="AK18" s="288"/>
+      <c r="AL18" s="288"/>
+      <c r="AM18" s="288"/>
+      <c r="AN18" s="288"/>
+      <c r="AO18" s="288"/>
+      <c r="AP18" s="288"/>
+      <c r="AQ18" s="289"/>
     </row>
     <row r="19" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A19" s="297"/>
-      <c r="B19" s="298"/>
-      <c r="C19" s="298"/>
-      <c r="D19" s="298"/>
-      <c r="E19" s="298"/>
-      <c r="F19" s="298"/>
-      <c r="G19" s="298"/>
-      <c r="H19" s="299"/>
-      <c r="I19" s="318" t="s">
+      <c r="A19" s="269"/>
+      <c r="B19" s="270"/>
+      <c r="C19" s="270"/>
+      <c r="D19" s="270"/>
+      <c r="E19" s="270"/>
+      <c r="F19" s="270"/>
+      <c r="G19" s="270"/>
+      <c r="H19" s="271"/>
+      <c r="I19" s="290" t="s">
         <v>161</v>
       </c>
-      <c r="J19" s="319"/>
-      <c r="K19" s="319"/>
-      <c r="L19" s="319"/>
-      <c r="M19" s="319"/>
-      <c r="N19" s="319"/>
-      <c r="O19" s="319"/>
-      <c r="P19" s="319"/>
-      <c r="Q19" s="320"/>
-      <c r="R19" s="309" t="s">
+      <c r="J19" s="291"/>
+      <c r="K19" s="291"/>
+      <c r="L19" s="291"/>
+      <c r="M19" s="291"/>
+      <c r="N19" s="291"/>
+      <c r="O19" s="291"/>
+      <c r="P19" s="291"/>
+      <c r="Q19" s="292"/>
+      <c r="R19" s="281" t="s">
         <v>266</v>
       </c>
-      <c r="S19" s="303"/>
-      <c r="T19" s="303"/>
-      <c r="U19" s="303"/>
-      <c r="V19" s="303"/>
-      <c r="W19" s="303"/>
-      <c r="X19" s="303"/>
-      <c r="Y19" s="303"/>
-      <c r="Z19" s="303"/>
-      <c r="AA19" s="303"/>
-      <c r="AB19" s="303"/>
-      <c r="AC19" s="303"/>
-      <c r="AD19" s="303"/>
-      <c r="AE19" s="303"/>
-      <c r="AF19" s="303"/>
-      <c r="AG19" s="303"/>
-      <c r="AH19" s="303"/>
-      <c r="AI19" s="303"/>
-      <c r="AJ19" s="303"/>
-      <c r="AK19" s="303"/>
-      <c r="AL19" s="303"/>
-      <c r="AM19" s="303"/>
-      <c r="AN19" s="303"/>
-      <c r="AO19" s="303"/>
-      <c r="AP19" s="303"/>
-      <c r="AQ19" s="304"/>
+      <c r="S19" s="275"/>
+      <c r="T19" s="275"/>
+      <c r="U19" s="275"/>
+      <c r="V19" s="275"/>
+      <c r="W19" s="275"/>
+      <c r="X19" s="275"/>
+      <c r="Y19" s="275"/>
+      <c r="Z19" s="275"/>
+      <c r="AA19" s="275"/>
+      <c r="AB19" s="275"/>
+      <c r="AC19" s="275"/>
+      <c r="AD19" s="275"/>
+      <c r="AE19" s="275"/>
+      <c r="AF19" s="275"/>
+      <c r="AG19" s="275"/>
+      <c r="AH19" s="275"/>
+      <c r="AI19" s="275"/>
+      <c r="AJ19" s="275"/>
+      <c r="AK19" s="275"/>
+      <c r="AL19" s="275"/>
+      <c r="AM19" s="275"/>
+      <c r="AN19" s="275"/>
+      <c r="AO19" s="275"/>
+      <c r="AP19" s="275"/>
+      <c r="AQ19" s="276"/>
     </row>
     <row r="20" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A20" s="300"/>
-      <c r="B20" s="301"/>
-      <c r="C20" s="301"/>
-      <c r="D20" s="301"/>
-      <c r="E20" s="301"/>
-      <c r="F20" s="301"/>
-      <c r="G20" s="301"/>
-      <c r="H20" s="302"/>
-      <c r="I20" s="321"/>
-      <c r="J20" s="322"/>
-      <c r="K20" s="322"/>
-      <c r="L20" s="322"/>
-      <c r="M20" s="322"/>
-      <c r="N20" s="322"/>
-      <c r="O20" s="322"/>
-      <c r="P20" s="322"/>
-      <c r="Q20" s="323"/>
-      <c r="R20" s="311"/>
-      <c r="S20" s="307"/>
-      <c r="T20" s="307"/>
-      <c r="U20" s="307"/>
-      <c r="V20" s="307"/>
-      <c r="W20" s="307"/>
-      <c r="X20" s="307"/>
-      <c r="Y20" s="307"/>
-      <c r="Z20" s="307"/>
-      <c r="AA20" s="307"/>
-      <c r="AB20" s="307"/>
-      <c r="AC20" s="307"/>
-      <c r="AD20" s="307"/>
-      <c r="AE20" s="307"/>
-      <c r="AF20" s="307"/>
-      <c r="AG20" s="307"/>
-      <c r="AH20" s="307"/>
-      <c r="AI20" s="307"/>
-      <c r="AJ20" s="307"/>
-      <c r="AK20" s="307"/>
-      <c r="AL20" s="307"/>
-      <c r="AM20" s="307"/>
-      <c r="AN20" s="307"/>
-      <c r="AO20" s="307"/>
-      <c r="AP20" s="307"/>
-      <c r="AQ20" s="308"/>
+      <c r="A20" s="272"/>
+      <c r="B20" s="273"/>
+      <c r="C20" s="273"/>
+      <c r="D20" s="273"/>
+      <c r="E20" s="273"/>
+      <c r="F20" s="273"/>
+      <c r="G20" s="273"/>
+      <c r="H20" s="274"/>
+      <c r="I20" s="293"/>
+      <c r="J20" s="294"/>
+      <c r="K20" s="294"/>
+      <c r="L20" s="294"/>
+      <c r="M20" s="294"/>
+      <c r="N20" s="294"/>
+      <c r="O20" s="294"/>
+      <c r="P20" s="294"/>
+      <c r="Q20" s="295"/>
+      <c r="R20" s="283"/>
+      <c r="S20" s="279"/>
+      <c r="T20" s="279"/>
+      <c r="U20" s="279"/>
+      <c r="V20" s="279"/>
+      <c r="W20" s="279"/>
+      <c r="X20" s="279"/>
+      <c r="Y20" s="279"/>
+      <c r="Z20" s="279"/>
+      <c r="AA20" s="279"/>
+      <c r="AB20" s="279"/>
+      <c r="AC20" s="279"/>
+      <c r="AD20" s="279"/>
+      <c r="AE20" s="279"/>
+      <c r="AF20" s="279"/>
+      <c r="AG20" s="279"/>
+      <c r="AH20" s="279"/>
+      <c r="AI20" s="279"/>
+      <c r="AJ20" s="279"/>
+      <c r="AK20" s="279"/>
+      <c r="AL20" s="279"/>
+      <c r="AM20" s="279"/>
+      <c r="AN20" s="279"/>
+      <c r="AO20" s="279"/>
+      <c r="AP20" s="279"/>
+      <c r="AQ20" s="280"/>
     </row>
     <row r="21" spans="1:43" ht="15.65" customHeight="1">
       <c r="A21" s="1"/>
@@ -7151,100 +7151,100 @@
       <c r="AQ26" s="3"/>
     </row>
     <row r="27" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A27" s="288">
+      <c r="A27" s="260">
         <f>MAX('Change log'!C6:F52)</f>
         <v>1.3</v>
       </c>
-      <c r="B27" s="289"/>
-      <c r="C27" s="289"/>
-      <c r="D27" s="289"/>
-      <c r="E27" s="289"/>
-      <c r="F27" s="289"/>
-      <c r="G27" s="289"/>
-      <c r="H27" s="289"/>
-      <c r="I27" s="289"/>
-      <c r="J27" s="289"/>
-      <c r="K27" s="289"/>
-      <c r="L27" s="289"/>
-      <c r="M27" s="289"/>
-      <c r="N27" s="289"/>
-      <c r="O27" s="289"/>
-      <c r="P27" s="289"/>
-      <c r="Q27" s="289"/>
-      <c r="R27" s="289"/>
-      <c r="S27" s="289"/>
-      <c r="T27" s="289"/>
-      <c r="U27" s="289"/>
-      <c r="V27" s="289"/>
-      <c r="W27" s="289"/>
-      <c r="X27" s="289"/>
-      <c r="Y27" s="289"/>
-      <c r="Z27" s="289"/>
-      <c r="AA27" s="289"/>
-      <c r="AB27" s="289"/>
-      <c r="AC27" s="289"/>
-      <c r="AD27" s="289"/>
-      <c r="AE27" s="289"/>
-      <c r="AF27" s="289"/>
-      <c r="AG27" s="289"/>
-      <c r="AH27" s="289"/>
-      <c r="AI27" s="289"/>
-      <c r="AJ27" s="289"/>
-      <c r="AK27" s="289"/>
-      <c r="AL27" s="289"/>
-      <c r="AM27" s="289"/>
-      <c r="AN27" s="289"/>
-      <c r="AO27" s="289"/>
-      <c r="AP27" s="289"/>
-      <c r="AQ27" s="290"/>
+      <c r="B27" s="261"/>
+      <c r="C27" s="261"/>
+      <c r="D27" s="261"/>
+      <c r="E27" s="261"/>
+      <c r="F27" s="261"/>
+      <c r="G27" s="261"/>
+      <c r="H27" s="261"/>
+      <c r="I27" s="261"/>
+      <c r="J27" s="261"/>
+      <c r="K27" s="261"/>
+      <c r="L27" s="261"/>
+      <c r="M27" s="261"/>
+      <c r="N27" s="261"/>
+      <c r="O27" s="261"/>
+      <c r="P27" s="261"/>
+      <c r="Q27" s="261"/>
+      <c r="R27" s="261"/>
+      <c r="S27" s="261"/>
+      <c r="T27" s="261"/>
+      <c r="U27" s="261"/>
+      <c r="V27" s="261"/>
+      <c r="W27" s="261"/>
+      <c r="X27" s="261"/>
+      <c r="Y27" s="261"/>
+      <c r="Z27" s="261"/>
+      <c r="AA27" s="261"/>
+      <c r="AB27" s="261"/>
+      <c r="AC27" s="261"/>
+      <c r="AD27" s="261"/>
+      <c r="AE27" s="261"/>
+      <c r="AF27" s="261"/>
+      <c r="AG27" s="261"/>
+      <c r="AH27" s="261"/>
+      <c r="AI27" s="261"/>
+      <c r="AJ27" s="261"/>
+      <c r="AK27" s="261"/>
+      <c r="AL27" s="261"/>
+      <c r="AM27" s="261"/>
+      <c r="AN27" s="261"/>
+      <c r="AO27" s="261"/>
+      <c r="AP27" s="261"/>
+      <c r="AQ27" s="262"/>
     </row>
     <row r="28" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A28" s="291">
+      <c r="A28" s="263">
         <f>MAX('Change log'!G6:G52)</f>
         <v>44508</v>
       </c>
-      <c r="B28" s="292"/>
-      <c r="C28" s="292"/>
-      <c r="D28" s="292"/>
-      <c r="E28" s="292"/>
-      <c r="F28" s="292"/>
-      <c r="G28" s="292"/>
-      <c r="H28" s="292"/>
-      <c r="I28" s="292"/>
-      <c r="J28" s="292"/>
-      <c r="K28" s="292"/>
-      <c r="L28" s="292"/>
-      <c r="M28" s="292"/>
-      <c r="N28" s="292"/>
-      <c r="O28" s="292"/>
-      <c r="P28" s="292"/>
-      <c r="Q28" s="292"/>
-      <c r="R28" s="292"/>
-      <c r="S28" s="292"/>
-      <c r="T28" s="292"/>
-      <c r="U28" s="292"/>
-      <c r="V28" s="292"/>
-      <c r="W28" s="292"/>
-      <c r="X28" s="292"/>
-      <c r="Y28" s="292"/>
-      <c r="Z28" s="292"/>
-      <c r="AA28" s="292"/>
-      <c r="AB28" s="292"/>
-      <c r="AC28" s="292"/>
-      <c r="AD28" s="292"/>
-      <c r="AE28" s="292"/>
-      <c r="AF28" s="292"/>
-      <c r="AG28" s="292"/>
-      <c r="AH28" s="292"/>
-      <c r="AI28" s="292"/>
-      <c r="AJ28" s="292"/>
-      <c r="AK28" s="292"/>
-      <c r="AL28" s="292"/>
-      <c r="AM28" s="292"/>
-      <c r="AN28" s="292"/>
-      <c r="AO28" s="292"/>
-      <c r="AP28" s="292"/>
-      <c r="AQ28" s="293"/>
+      <c r="B28" s="264"/>
+      <c r="C28" s="264"/>
+      <c r="D28" s="264"/>
+      <c r="E28" s="264"/>
+      <c r="F28" s="264"/>
+      <c r="G28" s="264"/>
+      <c r="H28" s="264"/>
+      <c r="I28" s="264"/>
+      <c r="J28" s="264"/>
+      <c r="K28" s="264"/>
+      <c r="L28" s="264"/>
+      <c r="M28" s="264"/>
+      <c r="N28" s="264"/>
+      <c r="O28" s="264"/>
+      <c r="P28" s="264"/>
+      <c r="Q28" s="264"/>
+      <c r="R28" s="264"/>
+      <c r="S28" s="264"/>
+      <c r="T28" s="264"/>
+      <c r="U28" s="264"/>
+      <c r="V28" s="264"/>
+      <c r="W28" s="264"/>
+      <c r="X28" s="264"/>
+      <c r="Y28" s="264"/>
+      <c r="Z28" s="264"/>
+      <c r="AA28" s="264"/>
+      <c r="AB28" s="264"/>
+      <c r="AC28" s="264"/>
+      <c r="AD28" s="264"/>
+      <c r="AE28" s="264"/>
+      <c r="AF28" s="264"/>
+      <c r="AG28" s="264"/>
+      <c r="AH28" s="264"/>
+      <c r="AI28" s="264"/>
+      <c r="AJ28" s="264"/>
+      <c r="AK28" s="264"/>
+      <c r="AL28" s="264"/>
+      <c r="AM28" s="264"/>
+      <c r="AN28" s="264"/>
+      <c r="AO28" s="264"/>
+      <c r="AP28" s="264"/>
+      <c r="AQ28" s="265"/>
     </row>
     <row r="29" spans="1:43" ht="15.65" customHeight="1">
       <c r="A29" s="89"/>
@@ -7562,51 +7562,51 @@
       <c r="AQ35" s="3"/>
     </row>
     <row r="36" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A36" s="285" t="s">
+      <c r="A36" s="257" t="s">
         <v>190</v>
       </c>
-      <c r="B36" s="286"/>
-      <c r="C36" s="286"/>
-      <c r="D36" s="286"/>
-      <c r="E36" s="286"/>
-      <c r="F36" s="286"/>
-      <c r="G36" s="286"/>
-      <c r="H36" s="286"/>
-      <c r="I36" s="286"/>
-      <c r="J36" s="286"/>
-      <c r="K36" s="286"/>
-      <c r="L36" s="286"/>
-      <c r="M36" s="286"/>
-      <c r="N36" s="286"/>
-      <c r="O36" s="286"/>
-      <c r="P36" s="286"/>
-      <c r="Q36" s="286"/>
-      <c r="R36" s="286"/>
-      <c r="S36" s="286"/>
-      <c r="T36" s="286"/>
-      <c r="U36" s="286"/>
-      <c r="V36" s="286"/>
-      <c r="W36" s="286"/>
-      <c r="X36" s="286"/>
-      <c r="Y36" s="286"/>
-      <c r="Z36" s="286"/>
-      <c r="AA36" s="286"/>
-      <c r="AB36" s="286"/>
-      <c r="AC36" s="286"/>
-      <c r="AD36" s="286"/>
-      <c r="AE36" s="286"/>
-      <c r="AF36" s="286"/>
-      <c r="AG36" s="286"/>
-      <c r="AH36" s="286"/>
-      <c r="AI36" s="286"/>
-      <c r="AJ36" s="286"/>
-      <c r="AK36" s="286"/>
-      <c r="AL36" s="286"/>
-      <c r="AM36" s="286"/>
-      <c r="AN36" s="286"/>
-      <c r="AO36" s="286"/>
-      <c r="AP36" s="286"/>
-      <c r="AQ36" s="287"/>
+      <c r="B36" s="258"/>
+      <c r="C36" s="258"/>
+      <c r="D36" s="258"/>
+      <c r="E36" s="258"/>
+      <c r="F36" s="258"/>
+      <c r="G36" s="258"/>
+      <c r="H36" s="258"/>
+      <c r="I36" s="258"/>
+      <c r="J36" s="258"/>
+      <c r="K36" s="258"/>
+      <c r="L36" s="258"/>
+      <c r="M36" s="258"/>
+      <c r="N36" s="258"/>
+      <c r="O36" s="258"/>
+      <c r="P36" s="258"/>
+      <c r="Q36" s="258"/>
+      <c r="R36" s="258"/>
+      <c r="S36" s="258"/>
+      <c r="T36" s="258"/>
+      <c r="U36" s="258"/>
+      <c r="V36" s="258"/>
+      <c r="W36" s="258"/>
+      <c r="X36" s="258"/>
+      <c r="Y36" s="258"/>
+      <c r="Z36" s="258"/>
+      <c r="AA36" s="258"/>
+      <c r="AB36" s="258"/>
+      <c r="AC36" s="258"/>
+      <c r="AD36" s="258"/>
+      <c r="AE36" s="258"/>
+      <c r="AF36" s="258"/>
+      <c r="AG36" s="258"/>
+      <c r="AH36" s="258"/>
+      <c r="AI36" s="258"/>
+      <c r="AJ36" s="258"/>
+      <c r="AK36" s="258"/>
+      <c r="AL36" s="258"/>
+      <c r="AM36" s="258"/>
+      <c r="AN36" s="258"/>
+      <c r="AO36" s="258"/>
+      <c r="AP36" s="258"/>
+      <c r="AQ36" s="259"/>
     </row>
     <row r="37" spans="1:43" ht="15.65" customHeight="1">
       <c r="A37" s="35"/>
@@ -7755,6 +7755,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A5:AB8"/>
+    <mergeCell ref="AC5:AG5"/>
+    <mergeCell ref="AH5:AL5"/>
+    <mergeCell ref="AM5:AQ5"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="AH6:AL6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AC7:AG8"/>
+    <mergeCell ref="AH7:AL8"/>
+    <mergeCell ref="AM7:AQ8"/>
     <mergeCell ref="A36:AQ36"/>
     <mergeCell ref="A27:AQ27"/>
     <mergeCell ref="A28:AQ28"/>
@@ -7769,16 +7779,6 @@
     <mergeCell ref="R18:AQ18"/>
     <mergeCell ref="I19:Q20"/>
     <mergeCell ref="R19:AQ20"/>
-    <mergeCell ref="A5:AB8"/>
-    <mergeCell ref="AC5:AG5"/>
-    <mergeCell ref="AH5:AL5"/>
-    <mergeCell ref="AM5:AQ5"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="AH6:AL6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AC7:AG8"/>
-    <mergeCell ref="AH7:AL8"/>
-    <mergeCell ref="AM7:AQ8"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="1">
@@ -7817,724 +7817,724 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A1" s="342" t="s">
+      <c r="A1" s="353" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="343"/>
-      <c r="C1" s="343"/>
-      <c r="D1" s="343"/>
-      <c r="E1" s="343"/>
-      <c r="F1" s="343"/>
-      <c r="G1" s="343"/>
-      <c r="H1" s="343"/>
-      <c r="I1" s="343" t="s">
+      <c r="B1" s="354"/>
+      <c r="C1" s="354"/>
+      <c r="D1" s="354"/>
+      <c r="E1" s="354"/>
+      <c r="F1" s="354"/>
+      <c r="G1" s="354"/>
+      <c r="H1" s="354"/>
+      <c r="I1" s="354" t="s">
         <v>256</v>
       </c>
-      <c r="J1" s="343"/>
-      <c r="K1" s="343"/>
-      <c r="L1" s="343"/>
-      <c r="M1" s="343"/>
-      <c r="N1" s="343"/>
-      <c r="O1" s="343"/>
-      <c r="P1" s="343"/>
-      <c r="Q1" s="343"/>
-      <c r="R1" s="343"/>
-      <c r="S1" s="343"/>
-      <c r="T1" s="330" t="s">
+      <c r="J1" s="354"/>
+      <c r="K1" s="354"/>
+      <c r="L1" s="354"/>
+      <c r="M1" s="354"/>
+      <c r="N1" s="354"/>
+      <c r="O1" s="354"/>
+      <c r="P1" s="354"/>
+      <c r="Q1" s="354"/>
+      <c r="R1" s="354"/>
+      <c r="S1" s="354"/>
+      <c r="T1" s="342" t="s">
         <v>257</v>
       </c>
-      <c r="U1" s="330"/>
-      <c r="V1" s="330"/>
-      <c r="W1" s="330"/>
-      <c r="X1" s="330"/>
-      <c r="Y1" s="330"/>
-      <c r="Z1" s="330"/>
-      <c r="AA1" s="330" t="s">
+      <c r="U1" s="342"/>
+      <c r="V1" s="342"/>
+      <c r="W1" s="342"/>
+      <c r="X1" s="342"/>
+      <c r="Y1" s="342"/>
+      <c r="Z1" s="342"/>
+      <c r="AA1" s="342" t="s">
         <v>270</v>
       </c>
-      <c r="AB1" s="330"/>
-      <c r="AC1" s="330"/>
-      <c r="AD1" s="330"/>
-      <c r="AE1" s="330"/>
-      <c r="AF1" s="330"/>
-      <c r="AG1" s="330"/>
-      <c r="AH1" s="330"/>
-      <c r="AI1" s="330"/>
-      <c r="AJ1" s="330"/>
-      <c r="AK1" s="330"/>
-      <c r="AL1" s="330"/>
-      <c r="AM1" s="330"/>
-      <c r="AN1" s="330"/>
-      <c r="AO1" s="330"/>
-      <c r="AP1" s="330"/>
-      <c r="AQ1" s="330"/>
-      <c r="AR1" s="330" t="s">
+      <c r="AB1" s="342"/>
+      <c r="AC1" s="342"/>
+      <c r="AD1" s="342"/>
+      <c r="AE1" s="342"/>
+      <c r="AF1" s="342"/>
+      <c r="AG1" s="342"/>
+      <c r="AH1" s="342"/>
+      <c r="AI1" s="342"/>
+      <c r="AJ1" s="342"/>
+      <c r="AK1" s="342"/>
+      <c r="AL1" s="342"/>
+      <c r="AM1" s="342"/>
+      <c r="AN1" s="342"/>
+      <c r="AO1" s="342"/>
+      <c r="AP1" s="342"/>
+      <c r="AQ1" s="342"/>
+      <c r="AR1" s="342" t="s">
         <v>271</v>
       </c>
-      <c r="AS1" s="330"/>
-      <c r="AT1" s="330"/>
-      <c r="AU1" s="330"/>
-      <c r="AV1" s="330"/>
-      <c r="AW1" s="344" t="s">
+      <c r="AS1" s="342"/>
+      <c r="AT1" s="342"/>
+      <c r="AU1" s="342"/>
+      <c r="AV1" s="342"/>
+      <c r="AW1" s="355" t="s">
         <v>261</v>
       </c>
-      <c r="AX1" s="344"/>
-      <c r="AY1" s="330"/>
-      <c r="AZ1" s="330"/>
-      <c r="BA1" s="330"/>
-      <c r="BB1" s="330" t="s">
+      <c r="AX1" s="355"/>
+      <c r="AY1" s="342"/>
+      <c r="AZ1" s="342"/>
+      <c r="BA1" s="342"/>
+      <c r="BB1" s="342" t="s">
         <v>272</v>
       </c>
-      <c r="BC1" s="330"/>
-      <c r="BD1" s="330"/>
-      <c r="BE1" s="330"/>
-      <c r="BF1" s="330"/>
+      <c r="BC1" s="342"/>
+      <c r="BD1" s="342"/>
+      <c r="BE1" s="342"/>
+      <c r="BF1" s="342"/>
     </row>
     <row r="2" spans="1:58" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A2" s="334" t="s">
+      <c r="A2" s="346" t="s">
         <v>273</v>
       </c>
-      <c r="B2" s="334"/>
-      <c r="C2" s="334"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="334"/>
-      <c r="F2" s="334"/>
-      <c r="G2" s="334"/>
-      <c r="H2" s="334"/>
-      <c r="I2" s="334" t="str">
+      <c r="B2" s="346"/>
+      <c r="C2" s="346"/>
+      <c r="D2" s="346"/>
+      <c r="E2" s="346"/>
+      <c r="F2" s="346"/>
+      <c r="G2" s="346"/>
+      <c r="H2" s="346"/>
+      <c r="I2" s="346" t="str">
         <f>Cover!I12</f>
         <v>Manage Student</v>
       </c>
-      <c r="J2" s="334"/>
-      <c r="K2" s="334"/>
-      <c r="L2" s="334"/>
-      <c r="M2" s="334"/>
-      <c r="N2" s="334"/>
-      <c r="O2" s="334"/>
-      <c r="P2" s="334"/>
-      <c r="Q2" s="334"/>
-      <c r="R2" s="334"/>
-      <c r="S2" s="334"/>
-      <c r="T2" s="334" t="str">
+      <c r="J2" s="346"/>
+      <c r="K2" s="346"/>
+      <c r="L2" s="346"/>
+      <c r="M2" s="346"/>
+      <c r="N2" s="346"/>
+      <c r="O2" s="346"/>
+      <c r="P2" s="346"/>
+      <c r="Q2" s="346"/>
+      <c r="R2" s="346"/>
+      <c r="S2" s="346"/>
+      <c r="T2" s="346" t="str">
         <f>Cover!I15</f>
         <v>GMO_management_Student</v>
       </c>
-      <c r="U2" s="334"/>
-      <c r="V2" s="334"/>
-      <c r="W2" s="334"/>
-      <c r="X2" s="334"/>
-      <c r="Y2" s="334"/>
-      <c r="Z2" s="334"/>
-      <c r="AA2" s="335" t="str">
+      <c r="U2" s="346"/>
+      <c r="V2" s="346"/>
+      <c r="W2" s="346"/>
+      <c r="X2" s="346"/>
+      <c r="Y2" s="346"/>
+      <c r="Z2" s="346"/>
+      <c r="AA2" s="329" t="str">
         <f>Cover!R19</f>
         <v>Add student</v>
       </c>
-      <c r="AB2" s="335"/>
-      <c r="AC2" s="335"/>
-      <c r="AD2" s="335"/>
-      <c r="AE2" s="335"/>
-      <c r="AF2" s="335"/>
-      <c r="AG2" s="335"/>
-      <c r="AH2" s="335"/>
-      <c r="AI2" s="335"/>
-      <c r="AJ2" s="335"/>
-      <c r="AK2" s="335"/>
-      <c r="AL2" s="335"/>
-      <c r="AM2" s="335"/>
-      <c r="AN2" s="335"/>
-      <c r="AO2" s="335"/>
-      <c r="AP2" s="335"/>
-      <c r="AQ2" s="335"/>
-      <c r="AR2" s="336" t="str">
+      <c r="AB2" s="329"/>
+      <c r="AC2" s="329"/>
+      <c r="AD2" s="329"/>
+      <c r="AE2" s="329"/>
+      <c r="AF2" s="329"/>
+      <c r="AG2" s="329"/>
+      <c r="AH2" s="329"/>
+      <c r="AI2" s="329"/>
+      <c r="AJ2" s="329"/>
+      <c r="AK2" s="329"/>
+      <c r="AL2" s="329"/>
+      <c r="AM2" s="329"/>
+      <c r="AN2" s="329"/>
+      <c r="AO2" s="329"/>
+      <c r="AP2" s="329"/>
+      <c r="AQ2" s="329"/>
+      <c r="AR2" s="347" t="str">
         <f>Cover!I19</f>
         <v>0-0</v>
       </c>
-      <c r="AS2" s="335"/>
-      <c r="AT2" s="335"/>
-      <c r="AU2" s="335"/>
-      <c r="AV2" s="335"/>
-      <c r="AW2" s="337" t="s">
+      <c r="AS2" s="329"/>
+      <c r="AT2" s="329"/>
+      <c r="AU2" s="329"/>
+      <c r="AV2" s="329"/>
+      <c r="AW2" s="348" t="s">
         <v>267</v>
       </c>
-      <c r="AX2" s="337" t="s">
+      <c r="AX2" s="348" t="s">
         <v>171</v>
       </c>
-      <c r="AY2" s="337" t="s">
+      <c r="AY2" s="348" t="s">
         <v>171</v>
       </c>
-      <c r="AZ2" s="337" t="s">
+      <c r="AZ2" s="348" t="s">
         <v>171</v>
       </c>
-      <c r="BA2" s="337" t="s">
+      <c r="BA2" s="348" t="s">
         <v>171</v>
       </c>
-      <c r="BB2" s="338" t="s">
+      <c r="BB2" s="349" t="s">
         <v>267</v>
       </c>
-      <c r="BC2" s="337"/>
-      <c r="BD2" s="337"/>
-      <c r="BE2" s="337"/>
-      <c r="BF2" s="337"/>
+      <c r="BC2" s="348"/>
+      <c r="BD2" s="348"/>
+      <c r="BE2" s="348"/>
+      <c r="BF2" s="348"/>
     </row>
     <row r="3" spans="1:58" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A3" s="334"/>
-      <c r="B3" s="334"/>
-      <c r="C3" s="334"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="334"/>
-      <c r="F3" s="334"/>
-      <c r="G3" s="334"/>
-      <c r="H3" s="334"/>
-      <c r="I3" s="334"/>
-      <c r="J3" s="334"/>
-      <c r="K3" s="334"/>
-      <c r="L3" s="334"/>
-      <c r="M3" s="334"/>
-      <c r="N3" s="334"/>
-      <c r="O3" s="334"/>
-      <c r="P3" s="334"/>
-      <c r="Q3" s="334"/>
-      <c r="R3" s="334"/>
-      <c r="S3" s="334"/>
-      <c r="T3" s="334"/>
-      <c r="U3" s="334"/>
-      <c r="V3" s="334"/>
-      <c r="W3" s="334"/>
-      <c r="X3" s="334"/>
-      <c r="Y3" s="334"/>
-      <c r="Z3" s="334"/>
-      <c r="AA3" s="330" t="s">
+      <c r="A3" s="346"/>
+      <c r="B3" s="346"/>
+      <c r="C3" s="346"/>
+      <c r="D3" s="346"/>
+      <c r="E3" s="346"/>
+      <c r="F3" s="346"/>
+      <c r="G3" s="346"/>
+      <c r="H3" s="346"/>
+      <c r="I3" s="346"/>
+      <c r="J3" s="346"/>
+      <c r="K3" s="346"/>
+      <c r="L3" s="346"/>
+      <c r="M3" s="346"/>
+      <c r="N3" s="346"/>
+      <c r="O3" s="346"/>
+      <c r="P3" s="346"/>
+      <c r="Q3" s="346"/>
+      <c r="R3" s="346"/>
+      <c r="S3" s="346"/>
+      <c r="T3" s="346"/>
+      <c r="U3" s="346"/>
+      <c r="V3" s="346"/>
+      <c r="W3" s="346"/>
+      <c r="X3" s="346"/>
+      <c r="Y3" s="346"/>
+      <c r="Z3" s="346"/>
+      <c r="AA3" s="342" t="s">
         <v>274</v>
       </c>
-      <c r="AB3" s="330"/>
-      <c r="AC3" s="330"/>
-      <c r="AD3" s="330"/>
-      <c r="AE3" s="330"/>
-      <c r="AF3" s="330"/>
-      <c r="AG3" s="339" t="str">
+      <c r="AB3" s="342"/>
+      <c r="AC3" s="342"/>
+      <c r="AD3" s="342"/>
+      <c r="AE3" s="342"/>
+      <c r="AF3" s="342"/>
+      <c r="AG3" s="350" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Change log</v>
       </c>
-      <c r="AH3" s="340"/>
-      <c r="AI3" s="340"/>
-      <c r="AJ3" s="340"/>
-      <c r="AK3" s="340"/>
-      <c r="AL3" s="340"/>
-      <c r="AM3" s="340"/>
-      <c r="AN3" s="340"/>
-      <c r="AO3" s="340"/>
-      <c r="AP3" s="340"/>
-      <c r="AQ3" s="340"/>
-      <c r="AR3" s="340"/>
-      <c r="AS3" s="340"/>
-      <c r="AT3" s="340"/>
-      <c r="AU3" s="340"/>
-      <c r="AV3" s="341"/>
-      <c r="AW3" s="329">
+      <c r="AH3" s="351"/>
+      <c r="AI3" s="351"/>
+      <c r="AJ3" s="351"/>
+      <c r="AK3" s="351"/>
+      <c r="AL3" s="351"/>
+      <c r="AM3" s="351"/>
+      <c r="AN3" s="351"/>
+      <c r="AO3" s="351"/>
+      <c r="AP3" s="351"/>
+      <c r="AQ3" s="351"/>
+      <c r="AR3" s="351"/>
+      <c r="AS3" s="351"/>
+      <c r="AT3" s="351"/>
+      <c r="AU3" s="351"/>
+      <c r="AV3" s="352"/>
+      <c r="AW3" s="341">
         <v>44503</v>
       </c>
-      <c r="AX3" s="329">
+      <c r="AX3" s="341">
         <v>44147</v>
       </c>
-      <c r="AY3" s="329">
+      <c r="AY3" s="341">
         <v>44147</v>
       </c>
-      <c r="AZ3" s="329">
+      <c r="AZ3" s="341">
         <v>44147</v>
       </c>
-      <c r="BA3" s="329">
+      <c r="BA3" s="341">
         <v>44147</v>
       </c>
-      <c r="BB3" s="329">
+      <c r="BB3" s="341">
         <v>44505</v>
       </c>
-      <c r="BC3" s="329"/>
-      <c r="BD3" s="329"/>
-      <c r="BE3" s="329"/>
-      <c r="BF3" s="329"/>
+      <c r="BC3" s="341"/>
+      <c r="BD3" s="341"/>
+      <c r="BE3" s="341"/>
+      <c r="BF3" s="341"/>
     </row>
     <row r="4" spans="1:58" s="17" customFormat="1" ht="12"/>
     <row r="5" spans="1:58">
-      <c r="A5" s="330" t="s">
+      <c r="A5" s="342" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="330"/>
-      <c r="C5" s="330" t="s">
+      <c r="B5" s="342"/>
+      <c r="C5" s="342" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="331" t="s">
+      <c r="D5" s="342"/>
+      <c r="E5" s="342"/>
+      <c r="F5" s="342"/>
+      <c r="G5" s="343" t="s">
         <v>275</v>
       </c>
-      <c r="H5" s="332"/>
-      <c r="I5" s="332"/>
-      <c r="J5" s="332"/>
-      <c r="K5" s="333"/>
-      <c r="L5" s="331" t="s">
+      <c r="H5" s="344"/>
+      <c r="I5" s="344"/>
+      <c r="J5" s="344"/>
+      <c r="K5" s="345"/>
+      <c r="L5" s="343" t="s">
         <v>276</v>
       </c>
-      <c r="M5" s="332"/>
-      <c r="N5" s="332"/>
-      <c r="O5" s="332"/>
-      <c r="P5" s="332"/>
-      <c r="Q5" s="333"/>
-      <c r="R5" s="331" t="s">
+      <c r="M5" s="344"/>
+      <c r="N5" s="344"/>
+      <c r="O5" s="344"/>
+      <c r="P5" s="344"/>
+      <c r="Q5" s="345"/>
+      <c r="R5" s="343" t="s">
         <v>277</v>
       </c>
-      <c r="S5" s="332"/>
-      <c r="T5" s="332"/>
-      <c r="U5" s="332"/>
-      <c r="V5" s="332"/>
-      <c r="W5" s="332"/>
-      <c r="X5" s="332"/>
-      <c r="Y5" s="332"/>
-      <c r="Z5" s="332"/>
-      <c r="AA5" s="333"/>
-      <c r="AB5" s="331" t="s">
+      <c r="S5" s="344"/>
+      <c r="T5" s="344"/>
+      <c r="U5" s="344"/>
+      <c r="V5" s="344"/>
+      <c r="W5" s="344"/>
+      <c r="X5" s="344"/>
+      <c r="Y5" s="344"/>
+      <c r="Z5" s="344"/>
+      <c r="AA5" s="345"/>
+      <c r="AB5" s="343" t="s">
         <v>278</v>
       </c>
-      <c r="AC5" s="332"/>
-      <c r="AD5" s="332"/>
-      <c r="AE5" s="332"/>
-      <c r="AF5" s="332"/>
-      <c r="AG5" s="332"/>
-      <c r="AH5" s="332"/>
-      <c r="AI5" s="332"/>
-      <c r="AJ5" s="332"/>
-      <c r="AK5" s="332"/>
-      <c r="AL5" s="332"/>
-      <c r="AM5" s="332"/>
-      <c r="AN5" s="332"/>
-      <c r="AO5" s="332"/>
-      <c r="AP5" s="332"/>
-      <c r="AQ5" s="332"/>
-      <c r="AR5" s="332"/>
-      <c r="AS5" s="332"/>
-      <c r="AT5" s="332"/>
-      <c r="AU5" s="332"/>
-      <c r="AV5" s="332"/>
-      <c r="AW5" s="332"/>
-      <c r="AX5" s="332"/>
-      <c r="AY5" s="332"/>
-      <c r="AZ5" s="332"/>
-      <c r="BA5" s="332"/>
-      <c r="BB5" s="332"/>
-      <c r="BC5" s="332"/>
-      <c r="BD5" s="332"/>
-      <c r="BE5" s="332"/>
-      <c r="BF5" s="333"/>
+      <c r="AC5" s="344"/>
+      <c r="AD5" s="344"/>
+      <c r="AE5" s="344"/>
+      <c r="AF5" s="344"/>
+      <c r="AG5" s="344"/>
+      <c r="AH5" s="344"/>
+      <c r="AI5" s="344"/>
+      <c r="AJ5" s="344"/>
+      <c r="AK5" s="344"/>
+      <c r="AL5" s="344"/>
+      <c r="AM5" s="344"/>
+      <c r="AN5" s="344"/>
+      <c r="AO5" s="344"/>
+      <c r="AP5" s="344"/>
+      <c r="AQ5" s="344"/>
+      <c r="AR5" s="344"/>
+      <c r="AS5" s="344"/>
+      <c r="AT5" s="344"/>
+      <c r="AU5" s="344"/>
+      <c r="AV5" s="344"/>
+      <c r="AW5" s="344"/>
+      <c r="AX5" s="344"/>
+      <c r="AY5" s="344"/>
+      <c r="AZ5" s="344"/>
+      <c r="BA5" s="344"/>
+      <c r="BB5" s="344"/>
+      <c r="BC5" s="344"/>
+      <c r="BD5" s="344"/>
+      <c r="BE5" s="344"/>
+      <c r="BF5" s="345"/>
     </row>
     <row r="6" spans="1:58" ht="16.5" customHeight="1">
-      <c r="A6" s="335">
+      <c r="A6" s="329">
         <v>1</v>
       </c>
-      <c r="B6" s="335"/>
-      <c r="C6" s="348">
+      <c r="B6" s="329"/>
+      <c r="C6" s="330">
         <v>1</v>
       </c>
-      <c r="D6" s="349"/>
-      <c r="E6" s="349"/>
-      <c r="F6" s="349"/>
-      <c r="G6" s="350">
+      <c r="D6" s="331"/>
+      <c r="E6" s="331"/>
+      <c r="F6" s="331"/>
+      <c r="G6" s="332">
         <v>44503</v>
       </c>
-      <c r="H6" s="350"/>
-      <c r="I6" s="350"/>
-      <c r="J6" s="350"/>
-      <c r="K6" s="350"/>
-      <c r="L6" s="335" t="s">
+      <c r="H6" s="332"/>
+      <c r="I6" s="332"/>
+      <c r="J6" s="332"/>
+      <c r="K6" s="332"/>
+      <c r="L6" s="329" t="s">
         <v>279</v>
       </c>
-      <c r="M6" s="335"/>
-      <c r="N6" s="335"/>
-      <c r="O6" s="335"/>
-      <c r="P6" s="335"/>
-      <c r="Q6" s="335"/>
-      <c r="R6" s="325" t="s">
+      <c r="M6" s="329"/>
+      <c r="N6" s="329"/>
+      <c r="O6" s="329"/>
+      <c r="P6" s="329"/>
+      <c r="Q6" s="329"/>
+      <c r="R6" s="333" t="s">
         <v>280</v>
       </c>
-      <c r="S6" s="325"/>
-      <c r="T6" s="325"/>
-      <c r="U6" s="325"/>
-      <c r="V6" s="325"/>
-      <c r="W6" s="325"/>
-      <c r="X6" s="325"/>
-      <c r="Y6" s="325"/>
-      <c r="Z6" s="325"/>
-      <c r="AA6" s="325"/>
-      <c r="AB6" s="325"/>
-      <c r="AC6" s="325"/>
-      <c r="AD6" s="325"/>
-      <c r="AE6" s="325"/>
-      <c r="AF6" s="325"/>
-      <c r="AG6" s="325"/>
-      <c r="AH6" s="325"/>
-      <c r="AI6" s="325"/>
-      <c r="AJ6" s="325"/>
-      <c r="AK6" s="325"/>
-      <c r="AL6" s="325"/>
-      <c r="AM6" s="325"/>
-      <c r="AN6" s="325"/>
-      <c r="AO6" s="325"/>
-      <c r="AP6" s="325"/>
-      <c r="AQ6" s="325"/>
-      <c r="AR6" s="325"/>
-      <c r="AS6" s="325"/>
-      <c r="AT6" s="325"/>
-      <c r="AU6" s="325"/>
-      <c r="AV6" s="325"/>
-      <c r="AW6" s="325"/>
-      <c r="AX6" s="325"/>
-      <c r="AY6" s="325"/>
-      <c r="AZ6" s="325"/>
-      <c r="BA6" s="325"/>
-      <c r="BB6" s="325"/>
-      <c r="BC6" s="325"/>
-      <c r="BD6" s="325"/>
-      <c r="BE6" s="325"/>
-      <c r="BF6" s="325"/>
+      <c r="S6" s="333"/>
+      <c r="T6" s="333"/>
+      <c r="U6" s="333"/>
+      <c r="V6" s="333"/>
+      <c r="W6" s="333"/>
+      <c r="X6" s="333"/>
+      <c r="Y6" s="333"/>
+      <c r="Z6" s="333"/>
+      <c r="AA6" s="333"/>
+      <c r="AB6" s="333"/>
+      <c r="AC6" s="333"/>
+      <c r="AD6" s="333"/>
+      <c r="AE6" s="333"/>
+      <c r="AF6" s="333"/>
+      <c r="AG6" s="333"/>
+      <c r="AH6" s="333"/>
+      <c r="AI6" s="333"/>
+      <c r="AJ6" s="333"/>
+      <c r="AK6" s="333"/>
+      <c r="AL6" s="333"/>
+      <c r="AM6" s="333"/>
+      <c r="AN6" s="333"/>
+      <c r="AO6" s="333"/>
+      <c r="AP6" s="333"/>
+      <c r="AQ6" s="333"/>
+      <c r="AR6" s="333"/>
+      <c r="AS6" s="333"/>
+      <c r="AT6" s="333"/>
+      <c r="AU6" s="333"/>
+      <c r="AV6" s="333"/>
+      <c r="AW6" s="333"/>
+      <c r="AX6" s="333"/>
+      <c r="AY6" s="333"/>
+      <c r="AZ6" s="333"/>
+      <c r="BA6" s="333"/>
+      <c r="BB6" s="333"/>
+      <c r="BC6" s="333"/>
+      <c r="BD6" s="333"/>
+      <c r="BE6" s="333"/>
+      <c r="BF6" s="333"/>
     </row>
     <row r="7" spans="1:58" ht="29.5" customHeight="1">
-      <c r="A7" s="347">
+      <c r="A7" s="336">
         <v>2</v>
       </c>
-      <c r="B7" s="347"/>
-      <c r="C7" s="345">
+      <c r="B7" s="336"/>
+      <c r="C7" s="334">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D7" s="346"/>
-      <c r="E7" s="346"/>
-      <c r="F7" s="346"/>
-      <c r="G7" s="350">
+      <c r="D7" s="335"/>
+      <c r="E7" s="335"/>
+      <c r="F7" s="335"/>
+      <c r="G7" s="332">
         <v>44504</v>
       </c>
-      <c r="H7" s="350"/>
-      <c r="I7" s="350"/>
-      <c r="J7" s="350"/>
-      <c r="K7" s="350"/>
-      <c r="L7" s="352" t="s">
+      <c r="H7" s="332"/>
+      <c r="I7" s="332"/>
+      <c r="J7" s="332"/>
+      <c r="K7" s="332"/>
+      <c r="L7" s="339" t="s">
         <v>279</v>
       </c>
-      <c r="M7" s="352"/>
-      <c r="N7" s="352"/>
-      <c r="O7" s="352"/>
-      <c r="P7" s="352"/>
-      <c r="Q7" s="352"/>
-      <c r="R7" s="351" t="s">
+      <c r="M7" s="339"/>
+      <c r="N7" s="339"/>
+      <c r="O7" s="339"/>
+      <c r="P7" s="339"/>
+      <c r="Q7" s="339"/>
+      <c r="R7" s="337" t="s">
         <v>325</v>
       </c>
-      <c r="S7" s="326"/>
-      <c r="T7" s="326"/>
-      <c r="U7" s="326"/>
-      <c r="V7" s="326"/>
-      <c r="W7" s="326"/>
-      <c r="X7" s="326"/>
-      <c r="Y7" s="326"/>
-      <c r="Z7" s="326"/>
-      <c r="AA7" s="326"/>
-      <c r="AB7" s="326" t="s">
+      <c r="S7" s="338"/>
+      <c r="T7" s="338"/>
+      <c r="U7" s="338"/>
+      <c r="V7" s="338"/>
+      <c r="W7" s="338"/>
+      <c r="X7" s="338"/>
+      <c r="Y7" s="338"/>
+      <c r="Z7" s="338"/>
+      <c r="AA7" s="338"/>
+      <c r="AB7" s="338" t="s">
         <v>281</v>
       </c>
-      <c r="AC7" s="326"/>
-      <c r="AD7" s="326"/>
-      <c r="AE7" s="326"/>
-      <c r="AF7" s="326"/>
-      <c r="AG7" s="326"/>
-      <c r="AH7" s="326"/>
-      <c r="AI7" s="326"/>
-      <c r="AJ7" s="326"/>
-      <c r="AK7" s="326"/>
-      <c r="AL7" s="326"/>
-      <c r="AM7" s="326"/>
-      <c r="AN7" s="326"/>
-      <c r="AO7" s="326"/>
-      <c r="AP7" s="326"/>
-      <c r="AQ7" s="326"/>
-      <c r="AR7" s="326"/>
-      <c r="AS7" s="326"/>
-      <c r="AT7" s="326"/>
-      <c r="AU7" s="326"/>
-      <c r="AV7" s="326"/>
-      <c r="AW7" s="326"/>
-      <c r="AX7" s="326"/>
-      <c r="AY7" s="326"/>
-      <c r="AZ7" s="326"/>
-      <c r="BA7" s="326"/>
-      <c r="BB7" s="326"/>
-      <c r="BC7" s="326"/>
-      <c r="BD7" s="326"/>
-      <c r="BE7" s="326"/>
-      <c r="BF7" s="326"/>
+      <c r="AC7" s="338"/>
+      <c r="AD7" s="338"/>
+      <c r="AE7" s="338"/>
+      <c r="AF7" s="338"/>
+      <c r="AG7" s="338"/>
+      <c r="AH7" s="338"/>
+      <c r="AI7" s="338"/>
+      <c r="AJ7" s="338"/>
+      <c r="AK7" s="338"/>
+      <c r="AL7" s="338"/>
+      <c r="AM7" s="338"/>
+      <c r="AN7" s="338"/>
+      <c r="AO7" s="338"/>
+      <c r="AP7" s="338"/>
+      <c r="AQ7" s="338"/>
+      <c r="AR7" s="338"/>
+      <c r="AS7" s="338"/>
+      <c r="AT7" s="338"/>
+      <c r="AU7" s="338"/>
+      <c r="AV7" s="338"/>
+      <c r="AW7" s="338"/>
+      <c r="AX7" s="338"/>
+      <c r="AY7" s="338"/>
+      <c r="AZ7" s="338"/>
+      <c r="BA7" s="338"/>
+      <c r="BB7" s="338"/>
+      <c r="BC7" s="338"/>
+      <c r="BD7" s="338"/>
+      <c r="BE7" s="338"/>
+      <c r="BF7" s="338"/>
     </row>
     <row r="8" spans="1:58" ht="53" customHeight="1">
-      <c r="A8" s="335">
+      <c r="A8" s="329">
         <v>3</v>
       </c>
-      <c r="B8" s="335"/>
-      <c r="C8" s="345">
+      <c r="B8" s="329"/>
+      <c r="C8" s="334">
         <v>1.2</v>
       </c>
-      <c r="D8" s="346"/>
-      <c r="E8" s="346"/>
-      <c r="F8" s="346"/>
-      <c r="G8" s="350">
+      <c r="D8" s="335"/>
+      <c r="E8" s="335"/>
+      <c r="F8" s="335"/>
+      <c r="G8" s="332">
         <v>44505</v>
       </c>
-      <c r="H8" s="350"/>
-      <c r="I8" s="350"/>
-      <c r="J8" s="350"/>
-      <c r="K8" s="350"/>
-      <c r="L8" s="353" t="s">
+      <c r="H8" s="332"/>
+      <c r="I8" s="332"/>
+      <c r="J8" s="332"/>
+      <c r="K8" s="332"/>
+      <c r="L8" s="340" t="s">
         <v>279</v>
       </c>
-      <c r="M8" s="353"/>
-      <c r="N8" s="353"/>
-      <c r="O8" s="353"/>
-      <c r="P8" s="353"/>
-      <c r="Q8" s="353"/>
-      <c r="R8" s="351" t="s">
+      <c r="M8" s="340"/>
+      <c r="N8" s="340"/>
+      <c r="O8" s="340"/>
+      <c r="P8" s="340"/>
+      <c r="Q8" s="340"/>
+      <c r="R8" s="337" t="s">
         <v>375</v>
       </c>
-      <c r="S8" s="326"/>
-      <c r="T8" s="326"/>
-      <c r="U8" s="326"/>
-      <c r="V8" s="326"/>
-      <c r="W8" s="326"/>
-      <c r="X8" s="326"/>
-      <c r="Y8" s="326"/>
-      <c r="Z8" s="326"/>
-      <c r="AA8" s="326"/>
-      <c r="AB8" s="327"/>
-      <c r="AC8" s="328"/>
-      <c r="AD8" s="328"/>
-      <c r="AE8" s="328"/>
-      <c r="AF8" s="328"/>
-      <c r="AG8" s="328"/>
-      <c r="AH8" s="328"/>
-      <c r="AI8" s="328"/>
-      <c r="AJ8" s="328"/>
-      <c r="AK8" s="328"/>
-      <c r="AL8" s="328"/>
-      <c r="AM8" s="328"/>
-      <c r="AN8" s="328"/>
-      <c r="AO8" s="328"/>
-      <c r="AP8" s="328"/>
-      <c r="AQ8" s="328"/>
-      <c r="AR8" s="328"/>
-      <c r="AS8" s="328"/>
-      <c r="AT8" s="328"/>
-      <c r="AU8" s="328"/>
-      <c r="AV8" s="328"/>
-      <c r="AW8" s="328"/>
-      <c r="AX8" s="328"/>
-      <c r="AY8" s="328"/>
-      <c r="AZ8" s="328"/>
-      <c r="BA8" s="328"/>
-      <c r="BB8" s="328"/>
-      <c r="BC8" s="328"/>
-      <c r="BD8" s="328"/>
-      <c r="BE8" s="328"/>
-      <c r="BF8" s="328"/>
+      <c r="S8" s="338"/>
+      <c r="T8" s="338"/>
+      <c r="U8" s="338"/>
+      <c r="V8" s="338"/>
+      <c r="W8" s="338"/>
+      <c r="X8" s="338"/>
+      <c r="Y8" s="338"/>
+      <c r="Z8" s="338"/>
+      <c r="AA8" s="338"/>
+      <c r="AB8" s="356"/>
+      <c r="AC8" s="357"/>
+      <c r="AD8" s="357"/>
+      <c r="AE8" s="357"/>
+      <c r="AF8" s="357"/>
+      <c r="AG8" s="357"/>
+      <c r="AH8" s="357"/>
+      <c r="AI8" s="357"/>
+      <c r="AJ8" s="357"/>
+      <c r="AK8" s="357"/>
+      <c r="AL8" s="357"/>
+      <c r="AM8" s="357"/>
+      <c r="AN8" s="357"/>
+      <c r="AO8" s="357"/>
+      <c r="AP8" s="357"/>
+      <c r="AQ8" s="357"/>
+      <c r="AR8" s="357"/>
+      <c r="AS8" s="357"/>
+      <c r="AT8" s="357"/>
+      <c r="AU8" s="357"/>
+      <c r="AV8" s="357"/>
+      <c r="AW8" s="357"/>
+      <c r="AX8" s="357"/>
+      <c r="AY8" s="357"/>
+      <c r="AZ8" s="357"/>
+      <c r="BA8" s="357"/>
+      <c r="BB8" s="357"/>
+      <c r="BC8" s="357"/>
+      <c r="BD8" s="357"/>
+      <c r="BE8" s="357"/>
+      <c r="BF8" s="357"/>
     </row>
     <row r="9" spans="1:58" ht="21" customHeight="1">
-      <c r="A9" s="335">
+      <c r="A9" s="329">
         <v>4</v>
       </c>
-      <c r="B9" s="335"/>
-      <c r="C9" s="348">
+      <c r="B9" s="329"/>
+      <c r="C9" s="330">
         <v>1.3</v>
       </c>
-      <c r="D9" s="349"/>
-      <c r="E9" s="349"/>
-      <c r="F9" s="349"/>
-      <c r="G9" s="350">
+      <c r="D9" s="331"/>
+      <c r="E9" s="331"/>
+      <c r="F9" s="331"/>
+      <c r="G9" s="332">
         <v>44508</v>
       </c>
-      <c r="H9" s="350"/>
-      <c r="I9" s="350"/>
-      <c r="J9" s="350"/>
-      <c r="K9" s="350"/>
-      <c r="L9" s="335" t="s">
+      <c r="H9" s="332"/>
+      <c r="I9" s="332"/>
+      <c r="J9" s="332"/>
+      <c r="K9" s="332"/>
+      <c r="L9" s="329" t="s">
         <v>279</v>
       </c>
-      <c r="M9" s="335"/>
-      <c r="N9" s="335"/>
-      <c r="O9" s="335"/>
-      <c r="P9" s="335"/>
-      <c r="Q9" s="335"/>
-      <c r="R9" s="325"/>
-      <c r="S9" s="325"/>
-      <c r="T9" s="325"/>
-      <c r="U9" s="325"/>
-      <c r="V9" s="325"/>
-      <c r="W9" s="325"/>
-      <c r="X9" s="325"/>
-      <c r="Y9" s="325"/>
-      <c r="Z9" s="325"/>
-      <c r="AA9" s="325"/>
-      <c r="AB9" s="325" t="s">
+      <c r="M9" s="329"/>
+      <c r="N9" s="329"/>
+      <c r="O9" s="329"/>
+      <c r="P9" s="329"/>
+      <c r="Q9" s="329"/>
+      <c r="R9" s="333"/>
+      <c r="S9" s="333"/>
+      <c r="T9" s="333"/>
+      <c r="U9" s="333"/>
+      <c r="V9" s="333"/>
+      <c r="W9" s="333"/>
+      <c r="X9" s="333"/>
+      <c r="Y9" s="333"/>
+      <c r="Z9" s="333"/>
+      <c r="AA9" s="333"/>
+      <c r="AB9" s="333" t="s">
         <v>417</v>
       </c>
-      <c r="AC9" s="325"/>
-      <c r="AD9" s="325"/>
-      <c r="AE9" s="325"/>
-      <c r="AF9" s="325"/>
-      <c r="AG9" s="325"/>
-      <c r="AH9" s="325"/>
-      <c r="AI9" s="325"/>
-      <c r="AJ9" s="325"/>
-      <c r="AK9" s="325"/>
-      <c r="AL9" s="325"/>
-      <c r="AM9" s="325"/>
-      <c r="AN9" s="325"/>
-      <c r="AO9" s="325"/>
-      <c r="AP9" s="325"/>
-      <c r="AQ9" s="325"/>
-      <c r="AR9" s="325"/>
-      <c r="AS9" s="325"/>
-      <c r="AT9" s="325"/>
-      <c r="AU9" s="325"/>
-      <c r="AV9" s="325"/>
-      <c r="AW9" s="325"/>
-      <c r="AX9" s="325"/>
-      <c r="AY9" s="325"/>
-      <c r="AZ9" s="325"/>
-      <c r="BA9" s="325"/>
-      <c r="BB9" s="325"/>
-      <c r="BC9" s="325"/>
-      <c r="BD9" s="325"/>
-      <c r="BE9" s="325"/>
-      <c r="BF9" s="325"/>
+      <c r="AC9" s="333"/>
+      <c r="AD9" s="333"/>
+      <c r="AE9" s="333"/>
+      <c r="AF9" s="333"/>
+      <c r="AG9" s="333"/>
+      <c r="AH9" s="333"/>
+      <c r="AI9" s="333"/>
+      <c r="AJ9" s="333"/>
+      <c r="AK9" s="333"/>
+      <c r="AL9" s="333"/>
+      <c r="AM9" s="333"/>
+      <c r="AN9" s="333"/>
+      <c r="AO9" s="333"/>
+      <c r="AP9" s="333"/>
+      <c r="AQ9" s="333"/>
+      <c r="AR9" s="333"/>
+      <c r="AS9" s="333"/>
+      <c r="AT9" s="333"/>
+      <c r="AU9" s="333"/>
+      <c r="AV9" s="333"/>
+      <c r="AW9" s="333"/>
+      <c r="AX9" s="333"/>
+      <c r="AY9" s="333"/>
+      <c r="AZ9" s="333"/>
+      <c r="BA9" s="333"/>
+      <c r="BB9" s="333"/>
+      <c r="BC9" s="333"/>
+      <c r="BD9" s="333"/>
+      <c r="BE9" s="333"/>
+      <c r="BF9" s="333"/>
     </row>
     <row r="10" spans="1:58">
-      <c r="A10" s="354"/>
-      <c r="B10" s="354"/>
-      <c r="C10" s="355"/>
-      <c r="D10" s="356"/>
-      <c r="E10" s="356"/>
-      <c r="F10" s="356"/>
-      <c r="G10" s="357"/>
-      <c r="H10" s="357"/>
-      <c r="I10" s="357"/>
-      <c r="J10" s="357"/>
-      <c r="K10" s="357"/>
-      <c r="L10" s="354"/>
-      <c r="M10" s="354"/>
-      <c r="N10" s="354"/>
-      <c r="O10" s="354"/>
-      <c r="P10" s="354"/>
-      <c r="Q10" s="354"/>
-      <c r="R10" s="324"/>
-      <c r="S10" s="324"/>
-      <c r="T10" s="324"/>
-      <c r="U10" s="324"/>
-      <c r="V10" s="324"/>
-      <c r="W10" s="324"/>
-      <c r="X10" s="324"/>
-      <c r="Y10" s="324"/>
-      <c r="Z10" s="324"/>
-      <c r="AA10" s="324"/>
-      <c r="AB10" s="324"/>
-      <c r="AC10" s="324"/>
-      <c r="AD10" s="324"/>
-      <c r="AE10" s="324"/>
-      <c r="AF10" s="324"/>
-      <c r="AG10" s="324"/>
-      <c r="AH10" s="324"/>
-      <c r="AI10" s="324"/>
-      <c r="AJ10" s="324"/>
-      <c r="AK10" s="324"/>
-      <c r="AL10" s="324"/>
-      <c r="AM10" s="324"/>
-      <c r="AN10" s="324"/>
-      <c r="AO10" s="324"/>
-      <c r="AP10" s="324"/>
-      <c r="AQ10" s="324"/>
-      <c r="AR10" s="324"/>
-      <c r="AS10" s="324"/>
-      <c r="AT10" s="324"/>
-      <c r="AU10" s="324"/>
-      <c r="AV10" s="324"/>
-      <c r="AW10" s="324"/>
-      <c r="AX10" s="324"/>
-      <c r="AY10" s="324"/>
-      <c r="AZ10" s="324"/>
-      <c r="BA10" s="324"/>
-      <c r="BB10" s="324"/>
-      <c r="BC10" s="324"/>
-      <c r="BD10" s="324"/>
-      <c r="BE10" s="324"/>
-      <c r="BF10" s="324"/>
+      <c r="A10" s="327"/>
+      <c r="B10" s="327"/>
+      <c r="C10" s="324"/>
+      <c r="D10" s="328"/>
+      <c r="E10" s="328"/>
+      <c r="F10" s="328"/>
+      <c r="G10" s="325"/>
+      <c r="H10" s="325"/>
+      <c r="I10" s="325"/>
+      <c r="J10" s="325"/>
+      <c r="K10" s="325"/>
+      <c r="L10" s="327"/>
+      <c r="M10" s="327"/>
+      <c r="N10" s="327"/>
+      <c r="O10" s="327"/>
+      <c r="P10" s="327"/>
+      <c r="Q10" s="327"/>
+      <c r="R10" s="326"/>
+      <c r="S10" s="326"/>
+      <c r="T10" s="326"/>
+      <c r="U10" s="326"/>
+      <c r="V10" s="326"/>
+      <c r="W10" s="326"/>
+      <c r="X10" s="326"/>
+      <c r="Y10" s="326"/>
+      <c r="Z10" s="326"/>
+      <c r="AA10" s="326"/>
+      <c r="AB10" s="326"/>
+      <c r="AC10" s="326"/>
+      <c r="AD10" s="326"/>
+      <c r="AE10" s="326"/>
+      <c r="AF10" s="326"/>
+      <c r="AG10" s="326"/>
+      <c r="AH10" s="326"/>
+      <c r="AI10" s="326"/>
+      <c r="AJ10" s="326"/>
+      <c r="AK10" s="326"/>
+      <c r="AL10" s="326"/>
+      <c r="AM10" s="326"/>
+      <c r="AN10" s="326"/>
+      <c r="AO10" s="326"/>
+      <c r="AP10" s="326"/>
+      <c r="AQ10" s="326"/>
+      <c r="AR10" s="326"/>
+      <c r="AS10" s="326"/>
+      <c r="AT10" s="326"/>
+      <c r="AU10" s="326"/>
+      <c r="AV10" s="326"/>
+      <c r="AW10" s="326"/>
+      <c r="AX10" s="326"/>
+      <c r="AY10" s="326"/>
+      <c r="AZ10" s="326"/>
+      <c r="BA10" s="326"/>
+      <c r="BB10" s="326"/>
+      <c r="BC10" s="326"/>
+      <c r="BD10" s="326"/>
+      <c r="BE10" s="326"/>
+      <c r="BF10" s="326"/>
     </row>
     <row r="11" spans="1:58">
-      <c r="A11" s="354"/>
-      <c r="B11" s="354"/>
-      <c r="C11" s="355"/>
-      <c r="D11" s="356"/>
-      <c r="E11" s="356"/>
-      <c r="F11" s="356"/>
-      <c r="G11" s="357"/>
-      <c r="H11" s="357"/>
-      <c r="I11" s="357"/>
-      <c r="J11" s="357"/>
-      <c r="K11" s="357"/>
-      <c r="L11" s="354"/>
-      <c r="M11" s="354"/>
-      <c r="N11" s="354"/>
-      <c r="O11" s="354"/>
-      <c r="P11" s="354"/>
-      <c r="Q11" s="354"/>
-      <c r="R11" s="324"/>
-      <c r="S11" s="324"/>
-      <c r="T11" s="324"/>
-      <c r="U11" s="324"/>
-      <c r="V11" s="324"/>
-      <c r="W11" s="324"/>
-      <c r="X11" s="324"/>
-      <c r="Y11" s="324"/>
-      <c r="Z11" s="324"/>
-      <c r="AA11" s="324"/>
-      <c r="AB11" s="324"/>
-      <c r="AC11" s="324"/>
-      <c r="AD11" s="324"/>
-      <c r="AE11" s="324"/>
-      <c r="AF11" s="324"/>
-      <c r="AG11" s="324"/>
-      <c r="AH11" s="324"/>
-      <c r="AI11" s="324"/>
-      <c r="AJ11" s="324"/>
-      <c r="AK11" s="324"/>
-      <c r="AL11" s="324"/>
-      <c r="AM11" s="324"/>
-      <c r="AN11" s="324"/>
-      <c r="AO11" s="324"/>
-      <c r="AP11" s="324"/>
-      <c r="AQ11" s="324"/>
-      <c r="AR11" s="324"/>
-      <c r="AS11" s="324"/>
-      <c r="AT11" s="324"/>
-      <c r="AU11" s="324"/>
-      <c r="AV11" s="324"/>
-      <c r="AW11" s="324"/>
-      <c r="AX11" s="324"/>
-      <c r="AY11" s="324"/>
-      <c r="AZ11" s="324"/>
-      <c r="BA11" s="324"/>
-      <c r="BB11" s="324"/>
-      <c r="BC11" s="324"/>
-      <c r="BD11" s="324"/>
-      <c r="BE11" s="324"/>
-      <c r="BF11" s="324"/>
+      <c r="A11" s="327"/>
+      <c r="B11" s="327"/>
+      <c r="C11" s="324"/>
+      <c r="D11" s="328"/>
+      <c r="E11" s="328"/>
+      <c r="F11" s="328"/>
+      <c r="G11" s="325"/>
+      <c r="H11" s="325"/>
+      <c r="I11" s="325"/>
+      <c r="J11" s="325"/>
+      <c r="K11" s="325"/>
+      <c r="L11" s="327"/>
+      <c r="M11" s="327"/>
+      <c r="N11" s="327"/>
+      <c r="O11" s="327"/>
+      <c r="P11" s="327"/>
+      <c r="Q11" s="327"/>
+      <c r="R11" s="326"/>
+      <c r="S11" s="326"/>
+      <c r="T11" s="326"/>
+      <c r="U11" s="326"/>
+      <c r="V11" s="326"/>
+      <c r="W11" s="326"/>
+      <c r="X11" s="326"/>
+      <c r="Y11" s="326"/>
+      <c r="Z11" s="326"/>
+      <c r="AA11" s="326"/>
+      <c r="AB11" s="326"/>
+      <c r="AC11" s="326"/>
+      <c r="AD11" s="326"/>
+      <c r="AE11" s="326"/>
+      <c r="AF11" s="326"/>
+      <c r="AG11" s="326"/>
+      <c r="AH11" s="326"/>
+      <c r="AI11" s="326"/>
+      <c r="AJ11" s="326"/>
+      <c r="AK11" s="326"/>
+      <c r="AL11" s="326"/>
+      <c r="AM11" s="326"/>
+      <c r="AN11" s="326"/>
+      <c r="AO11" s="326"/>
+      <c r="AP11" s="326"/>
+      <c r="AQ11" s="326"/>
+      <c r="AR11" s="326"/>
+      <c r="AS11" s="326"/>
+      <c r="AT11" s="326"/>
+      <c r="AU11" s="326"/>
+      <c r="AV11" s="326"/>
+      <c r="AW11" s="326"/>
+      <c r="AX11" s="326"/>
+      <c r="AY11" s="326"/>
+      <c r="AZ11" s="326"/>
+      <c r="BA11" s="326"/>
+      <c r="BB11" s="326"/>
+      <c r="BC11" s="326"/>
+      <c r="BD11" s="326"/>
+      <c r="BE11" s="326"/>
+      <c r="BF11" s="326"/>
     </row>
     <row r="12" spans="1:58">
       <c r="A12" s="186"/>
       <c r="B12" s="186"/>
-      <c r="C12" s="355"/>
-      <c r="D12" s="355"/>
-      <c r="E12" s="355"/>
-      <c r="F12" s="355"/>
+      <c r="C12" s="324"/>
+      <c r="D12" s="324"/>
+      <c r="E12" s="324"/>
+      <c r="F12" s="324"/>
       <c r="G12" s="187"/>
       <c r="H12" s="187"/>
       <c r="I12" s="187"/>
@@ -8591,10 +8591,10 @@
     <row r="13" spans="1:58">
       <c r="A13" s="186"/>
       <c r="B13" s="186"/>
-      <c r="C13" s="355"/>
-      <c r="D13" s="355"/>
-      <c r="E13" s="355"/>
-      <c r="F13" s="355"/>
+      <c r="C13" s="324"/>
+      <c r="D13" s="324"/>
+      <c r="E13" s="324"/>
+      <c r="F13" s="324"/>
       <c r="G13" s="187"/>
       <c r="H13" s="187"/>
       <c r="I13" s="187"/>
@@ -8649,1339 +8649,1233 @@
       <c r="BF13" s="188"/>
     </row>
     <row r="14" spans="1:58">
-      <c r="A14" s="354"/>
-      <c r="B14" s="354"/>
-      <c r="C14" s="355"/>
-      <c r="D14" s="356"/>
-      <c r="E14" s="356"/>
-      <c r="F14" s="356"/>
-      <c r="G14" s="357"/>
-      <c r="H14" s="357"/>
-      <c r="I14" s="357"/>
-      <c r="J14" s="357"/>
-      <c r="K14" s="357"/>
-      <c r="L14" s="354"/>
-      <c r="M14" s="354"/>
-      <c r="N14" s="354"/>
-      <c r="O14" s="354"/>
-      <c r="P14" s="354"/>
-      <c r="Q14" s="354"/>
-      <c r="R14" s="324"/>
-      <c r="S14" s="324"/>
-      <c r="T14" s="324"/>
-      <c r="U14" s="324"/>
-      <c r="V14" s="324"/>
-      <c r="W14" s="324"/>
-      <c r="X14" s="324"/>
-      <c r="Y14" s="324"/>
-      <c r="Z14" s="324"/>
-      <c r="AA14" s="324"/>
-      <c r="AB14" s="324"/>
-      <c r="AC14" s="324"/>
-      <c r="AD14" s="324"/>
-      <c r="AE14" s="324"/>
-      <c r="AF14" s="324"/>
-      <c r="AG14" s="324"/>
-      <c r="AH14" s="324"/>
-      <c r="AI14" s="324"/>
-      <c r="AJ14" s="324"/>
-      <c r="AK14" s="324"/>
-      <c r="AL14" s="324"/>
-      <c r="AM14" s="324"/>
-      <c r="AN14" s="324"/>
-      <c r="AO14" s="324"/>
-      <c r="AP14" s="324"/>
-      <c r="AQ14" s="324"/>
-      <c r="AR14" s="324"/>
-      <c r="AS14" s="324"/>
-      <c r="AT14" s="324"/>
-      <c r="AU14" s="324"/>
-      <c r="AV14" s="324"/>
-      <c r="AW14" s="324"/>
-      <c r="AX14" s="324"/>
-      <c r="AY14" s="324"/>
-      <c r="AZ14" s="324"/>
-      <c r="BA14" s="324"/>
-      <c r="BB14" s="324"/>
-      <c r="BC14" s="324"/>
-      <c r="BD14" s="324"/>
-      <c r="BE14" s="324"/>
-      <c r="BF14" s="324"/>
+      <c r="A14" s="327"/>
+      <c r="B14" s="327"/>
+      <c r="C14" s="324"/>
+      <c r="D14" s="328"/>
+      <c r="E14" s="328"/>
+      <c r="F14" s="328"/>
+      <c r="G14" s="325"/>
+      <c r="H14" s="325"/>
+      <c r="I14" s="325"/>
+      <c r="J14" s="325"/>
+      <c r="K14" s="325"/>
+      <c r="L14" s="327"/>
+      <c r="M14" s="327"/>
+      <c r="N14" s="327"/>
+      <c r="O14" s="327"/>
+      <c r="P14" s="327"/>
+      <c r="Q14" s="327"/>
+      <c r="R14" s="326"/>
+      <c r="S14" s="326"/>
+      <c r="T14" s="326"/>
+      <c r="U14" s="326"/>
+      <c r="V14" s="326"/>
+      <c r="W14" s="326"/>
+      <c r="X14" s="326"/>
+      <c r="Y14" s="326"/>
+      <c r="Z14" s="326"/>
+      <c r="AA14" s="326"/>
+      <c r="AB14" s="326"/>
+      <c r="AC14" s="326"/>
+      <c r="AD14" s="326"/>
+      <c r="AE14" s="326"/>
+      <c r="AF14" s="326"/>
+      <c r="AG14" s="326"/>
+      <c r="AH14" s="326"/>
+      <c r="AI14" s="326"/>
+      <c r="AJ14" s="326"/>
+      <c r="AK14" s="326"/>
+      <c r="AL14" s="326"/>
+      <c r="AM14" s="326"/>
+      <c r="AN14" s="326"/>
+      <c r="AO14" s="326"/>
+      <c r="AP14" s="326"/>
+      <c r="AQ14" s="326"/>
+      <c r="AR14" s="326"/>
+      <c r="AS14" s="326"/>
+      <c r="AT14" s="326"/>
+      <c r="AU14" s="326"/>
+      <c r="AV14" s="326"/>
+      <c r="AW14" s="326"/>
+      <c r="AX14" s="326"/>
+      <c r="AY14" s="326"/>
+      <c r="AZ14" s="326"/>
+      <c r="BA14" s="326"/>
+      <c r="BB14" s="326"/>
+      <c r="BC14" s="326"/>
+      <c r="BD14" s="326"/>
+      <c r="BE14" s="326"/>
+      <c r="BF14" s="326"/>
     </row>
     <row r="15" spans="1:58">
-      <c r="A15" s="354"/>
-      <c r="B15" s="354"/>
-      <c r="C15" s="355"/>
-      <c r="D15" s="356"/>
-      <c r="E15" s="356"/>
-      <c r="F15" s="356"/>
-      <c r="G15" s="357"/>
-      <c r="H15" s="357"/>
-      <c r="I15" s="357"/>
-      <c r="J15" s="357"/>
-      <c r="K15" s="357"/>
-      <c r="L15" s="354"/>
-      <c r="M15" s="354"/>
-      <c r="N15" s="354"/>
-      <c r="O15" s="354"/>
-      <c r="P15" s="354"/>
-      <c r="Q15" s="354"/>
-      <c r="R15" s="324"/>
-      <c r="S15" s="324"/>
-      <c r="T15" s="324"/>
-      <c r="U15" s="324"/>
-      <c r="V15" s="324"/>
-      <c r="W15" s="324"/>
-      <c r="X15" s="324"/>
-      <c r="Y15" s="324"/>
-      <c r="Z15" s="324"/>
-      <c r="AA15" s="324"/>
-      <c r="AB15" s="324"/>
-      <c r="AC15" s="324"/>
-      <c r="AD15" s="324"/>
-      <c r="AE15" s="324"/>
-      <c r="AF15" s="324"/>
-      <c r="AG15" s="324"/>
-      <c r="AH15" s="324"/>
-      <c r="AI15" s="324"/>
-      <c r="AJ15" s="324"/>
-      <c r="AK15" s="324"/>
-      <c r="AL15" s="324"/>
-      <c r="AM15" s="324"/>
-      <c r="AN15" s="324"/>
-      <c r="AO15" s="324"/>
-      <c r="AP15" s="324"/>
-      <c r="AQ15" s="324"/>
-      <c r="AR15" s="324"/>
-      <c r="AS15" s="324"/>
-      <c r="AT15" s="324"/>
-      <c r="AU15" s="324"/>
-      <c r="AV15" s="324"/>
-      <c r="AW15" s="324"/>
-      <c r="AX15" s="324"/>
-      <c r="AY15" s="324"/>
-      <c r="AZ15" s="324"/>
-      <c r="BA15" s="324"/>
-      <c r="BB15" s="324"/>
-      <c r="BC15" s="324"/>
-      <c r="BD15" s="324"/>
-      <c r="BE15" s="324"/>
-      <c r="BF15" s="324"/>
+      <c r="A15" s="327"/>
+      <c r="B15" s="327"/>
+      <c r="C15" s="324"/>
+      <c r="D15" s="328"/>
+      <c r="E15" s="328"/>
+      <c r="F15" s="328"/>
+      <c r="G15" s="325"/>
+      <c r="H15" s="325"/>
+      <c r="I15" s="325"/>
+      <c r="J15" s="325"/>
+      <c r="K15" s="325"/>
+      <c r="L15" s="327"/>
+      <c r="M15" s="327"/>
+      <c r="N15" s="327"/>
+      <c r="O15" s="327"/>
+      <c r="P15" s="327"/>
+      <c r="Q15" s="327"/>
+      <c r="R15" s="326"/>
+      <c r="S15" s="326"/>
+      <c r="T15" s="326"/>
+      <c r="U15" s="326"/>
+      <c r="V15" s="326"/>
+      <c r="W15" s="326"/>
+      <c r="X15" s="326"/>
+      <c r="Y15" s="326"/>
+      <c r="Z15" s="326"/>
+      <c r="AA15" s="326"/>
+      <c r="AB15" s="326"/>
+      <c r="AC15" s="326"/>
+      <c r="AD15" s="326"/>
+      <c r="AE15" s="326"/>
+      <c r="AF15" s="326"/>
+      <c r="AG15" s="326"/>
+      <c r="AH15" s="326"/>
+      <c r="AI15" s="326"/>
+      <c r="AJ15" s="326"/>
+      <c r="AK15" s="326"/>
+      <c r="AL15" s="326"/>
+      <c r="AM15" s="326"/>
+      <c r="AN15" s="326"/>
+      <c r="AO15" s="326"/>
+      <c r="AP15" s="326"/>
+      <c r="AQ15" s="326"/>
+      <c r="AR15" s="326"/>
+      <c r="AS15" s="326"/>
+      <c r="AT15" s="326"/>
+      <c r="AU15" s="326"/>
+      <c r="AV15" s="326"/>
+      <c r="AW15" s="326"/>
+      <c r="AX15" s="326"/>
+      <c r="AY15" s="326"/>
+      <c r="AZ15" s="326"/>
+      <c r="BA15" s="326"/>
+      <c r="BB15" s="326"/>
+      <c r="BC15" s="326"/>
+      <c r="BD15" s="326"/>
+      <c r="BE15" s="326"/>
+      <c r="BF15" s="326"/>
     </row>
     <row r="16" spans="1:58">
-      <c r="A16" s="354"/>
-      <c r="B16" s="354"/>
-      <c r="C16" s="355"/>
-      <c r="D16" s="356"/>
-      <c r="E16" s="356"/>
-      <c r="F16" s="356"/>
-      <c r="G16" s="357"/>
-      <c r="H16" s="357"/>
-      <c r="I16" s="357"/>
-      <c r="J16" s="357"/>
-      <c r="K16" s="357"/>
-      <c r="L16" s="354"/>
-      <c r="M16" s="354"/>
-      <c r="N16" s="354"/>
-      <c r="O16" s="354"/>
-      <c r="P16" s="354"/>
-      <c r="Q16" s="354"/>
-      <c r="R16" s="324"/>
-      <c r="S16" s="324"/>
-      <c r="T16" s="324"/>
-      <c r="U16" s="324"/>
-      <c r="V16" s="324"/>
-      <c r="W16" s="324"/>
-      <c r="X16" s="324"/>
-      <c r="Y16" s="324"/>
-      <c r="Z16" s="324"/>
-      <c r="AA16" s="324"/>
-      <c r="AB16" s="324"/>
-      <c r="AC16" s="324"/>
-      <c r="AD16" s="324"/>
-      <c r="AE16" s="324"/>
-      <c r="AF16" s="324"/>
-      <c r="AG16" s="324"/>
-      <c r="AH16" s="324"/>
-      <c r="AI16" s="324"/>
-      <c r="AJ16" s="324"/>
-      <c r="AK16" s="324"/>
-      <c r="AL16" s="324"/>
-      <c r="AM16" s="324"/>
-      <c r="AN16" s="324"/>
-      <c r="AO16" s="324"/>
-      <c r="AP16" s="324"/>
-      <c r="AQ16" s="324"/>
-      <c r="AR16" s="324"/>
-      <c r="AS16" s="324"/>
-      <c r="AT16" s="324"/>
-      <c r="AU16" s="324"/>
-      <c r="AV16" s="324"/>
-      <c r="AW16" s="324"/>
-      <c r="AX16" s="324"/>
-      <c r="AY16" s="324"/>
-      <c r="AZ16" s="324"/>
-      <c r="BA16" s="324"/>
-      <c r="BB16" s="324"/>
-      <c r="BC16" s="324"/>
-      <c r="BD16" s="324"/>
-      <c r="BE16" s="324"/>
-      <c r="BF16" s="324"/>
+      <c r="A16" s="327"/>
+      <c r="B16" s="327"/>
+      <c r="C16" s="324"/>
+      <c r="D16" s="328"/>
+      <c r="E16" s="328"/>
+      <c r="F16" s="328"/>
+      <c r="G16" s="325"/>
+      <c r="H16" s="325"/>
+      <c r="I16" s="325"/>
+      <c r="J16" s="325"/>
+      <c r="K16" s="325"/>
+      <c r="L16" s="327"/>
+      <c r="M16" s="327"/>
+      <c r="N16" s="327"/>
+      <c r="O16" s="327"/>
+      <c r="P16" s="327"/>
+      <c r="Q16" s="327"/>
+      <c r="R16" s="326"/>
+      <c r="S16" s="326"/>
+      <c r="T16" s="326"/>
+      <c r="U16" s="326"/>
+      <c r="V16" s="326"/>
+      <c r="W16" s="326"/>
+      <c r="X16" s="326"/>
+      <c r="Y16" s="326"/>
+      <c r="Z16" s="326"/>
+      <c r="AA16" s="326"/>
+      <c r="AB16" s="326"/>
+      <c r="AC16" s="326"/>
+      <c r="AD16" s="326"/>
+      <c r="AE16" s="326"/>
+      <c r="AF16" s="326"/>
+      <c r="AG16" s="326"/>
+      <c r="AH16" s="326"/>
+      <c r="AI16" s="326"/>
+      <c r="AJ16" s="326"/>
+      <c r="AK16" s="326"/>
+      <c r="AL16" s="326"/>
+      <c r="AM16" s="326"/>
+      <c r="AN16" s="326"/>
+      <c r="AO16" s="326"/>
+      <c r="AP16" s="326"/>
+      <c r="AQ16" s="326"/>
+      <c r="AR16" s="326"/>
+      <c r="AS16" s="326"/>
+      <c r="AT16" s="326"/>
+      <c r="AU16" s="326"/>
+      <c r="AV16" s="326"/>
+      <c r="AW16" s="326"/>
+      <c r="AX16" s="326"/>
+      <c r="AY16" s="326"/>
+      <c r="AZ16" s="326"/>
+      <c r="BA16" s="326"/>
+      <c r="BB16" s="326"/>
+      <c r="BC16" s="326"/>
+      <c r="BD16" s="326"/>
+      <c r="BE16" s="326"/>
+      <c r="BF16" s="326"/>
     </row>
     <row r="17" spans="1:58">
-      <c r="A17" s="354"/>
-      <c r="B17" s="354"/>
-      <c r="C17" s="355"/>
-      <c r="D17" s="356"/>
-      <c r="E17" s="356"/>
-      <c r="F17" s="356"/>
-      <c r="G17" s="357"/>
-      <c r="H17" s="357"/>
-      <c r="I17" s="357"/>
-      <c r="J17" s="357"/>
-      <c r="K17" s="357"/>
-      <c r="L17" s="354"/>
-      <c r="M17" s="354"/>
-      <c r="N17" s="354"/>
-      <c r="O17" s="354"/>
-      <c r="P17" s="354"/>
-      <c r="Q17" s="354"/>
-      <c r="R17" s="324"/>
-      <c r="S17" s="324"/>
-      <c r="T17" s="324"/>
-      <c r="U17" s="324"/>
-      <c r="V17" s="324"/>
-      <c r="W17" s="324"/>
-      <c r="X17" s="324"/>
-      <c r="Y17" s="324"/>
-      <c r="Z17" s="324"/>
-      <c r="AA17" s="324"/>
-      <c r="AB17" s="324"/>
-      <c r="AC17" s="324"/>
-      <c r="AD17" s="324"/>
-      <c r="AE17" s="324"/>
-      <c r="AF17" s="324"/>
-      <c r="AG17" s="324"/>
-      <c r="AH17" s="324"/>
-      <c r="AI17" s="324"/>
-      <c r="AJ17" s="324"/>
-      <c r="AK17" s="324"/>
-      <c r="AL17" s="324"/>
-      <c r="AM17" s="324"/>
-      <c r="AN17" s="324"/>
-      <c r="AO17" s="324"/>
-      <c r="AP17" s="324"/>
-      <c r="AQ17" s="324"/>
-      <c r="AR17" s="324"/>
-      <c r="AS17" s="324"/>
-      <c r="AT17" s="324"/>
-      <c r="AU17" s="324"/>
-      <c r="AV17" s="324"/>
-      <c r="AW17" s="324"/>
-      <c r="AX17" s="324"/>
-      <c r="AY17" s="324"/>
-      <c r="AZ17" s="324"/>
-      <c r="BA17" s="324"/>
-      <c r="BB17" s="324"/>
-      <c r="BC17" s="324"/>
-      <c r="BD17" s="324"/>
-      <c r="BE17" s="324"/>
-      <c r="BF17" s="324"/>
+      <c r="A17" s="327"/>
+      <c r="B17" s="327"/>
+      <c r="C17" s="324"/>
+      <c r="D17" s="328"/>
+      <c r="E17" s="328"/>
+      <c r="F17" s="328"/>
+      <c r="G17" s="325"/>
+      <c r="H17" s="325"/>
+      <c r="I17" s="325"/>
+      <c r="J17" s="325"/>
+      <c r="K17" s="325"/>
+      <c r="L17" s="327"/>
+      <c r="M17" s="327"/>
+      <c r="N17" s="327"/>
+      <c r="O17" s="327"/>
+      <c r="P17" s="327"/>
+      <c r="Q17" s="327"/>
+      <c r="R17" s="326"/>
+      <c r="S17" s="326"/>
+      <c r="T17" s="326"/>
+      <c r="U17" s="326"/>
+      <c r="V17" s="326"/>
+      <c r="W17" s="326"/>
+      <c r="X17" s="326"/>
+      <c r="Y17" s="326"/>
+      <c r="Z17" s="326"/>
+      <c r="AA17" s="326"/>
+      <c r="AB17" s="326"/>
+      <c r="AC17" s="326"/>
+      <c r="AD17" s="326"/>
+      <c r="AE17" s="326"/>
+      <c r="AF17" s="326"/>
+      <c r="AG17" s="326"/>
+      <c r="AH17" s="326"/>
+      <c r="AI17" s="326"/>
+      <c r="AJ17" s="326"/>
+      <c r="AK17" s="326"/>
+      <c r="AL17" s="326"/>
+      <c r="AM17" s="326"/>
+      <c r="AN17" s="326"/>
+      <c r="AO17" s="326"/>
+      <c r="AP17" s="326"/>
+      <c r="AQ17" s="326"/>
+      <c r="AR17" s="326"/>
+      <c r="AS17" s="326"/>
+      <c r="AT17" s="326"/>
+      <c r="AU17" s="326"/>
+      <c r="AV17" s="326"/>
+      <c r="AW17" s="326"/>
+      <c r="AX17" s="326"/>
+      <c r="AY17" s="326"/>
+      <c r="AZ17" s="326"/>
+      <c r="BA17" s="326"/>
+      <c r="BB17" s="326"/>
+      <c r="BC17" s="326"/>
+      <c r="BD17" s="326"/>
+      <c r="BE17" s="326"/>
+      <c r="BF17" s="326"/>
     </row>
     <row r="18" spans="1:58">
-      <c r="A18" s="354"/>
-      <c r="B18" s="354"/>
-      <c r="C18" s="355"/>
-      <c r="D18" s="356"/>
-      <c r="E18" s="356"/>
-      <c r="F18" s="356"/>
-      <c r="G18" s="357"/>
-      <c r="H18" s="357"/>
-      <c r="I18" s="357"/>
-      <c r="J18" s="357"/>
-      <c r="K18" s="357"/>
-      <c r="L18" s="354"/>
-      <c r="M18" s="354"/>
-      <c r="N18" s="354"/>
-      <c r="O18" s="354"/>
-      <c r="P18" s="354"/>
-      <c r="Q18" s="354"/>
-      <c r="R18" s="324"/>
-      <c r="S18" s="324"/>
-      <c r="T18" s="324"/>
-      <c r="U18" s="324"/>
-      <c r="V18" s="324"/>
-      <c r="W18" s="324"/>
-      <c r="X18" s="324"/>
-      <c r="Y18" s="324"/>
-      <c r="Z18" s="324"/>
-      <c r="AA18" s="324"/>
-      <c r="AB18" s="324"/>
-      <c r="AC18" s="324"/>
-      <c r="AD18" s="324"/>
-      <c r="AE18" s="324"/>
-      <c r="AF18" s="324"/>
-      <c r="AG18" s="324"/>
-      <c r="AH18" s="324"/>
-      <c r="AI18" s="324"/>
-      <c r="AJ18" s="324"/>
-      <c r="AK18" s="324"/>
-      <c r="AL18" s="324"/>
-      <c r="AM18" s="324"/>
-      <c r="AN18" s="324"/>
-      <c r="AO18" s="324"/>
-      <c r="AP18" s="324"/>
-      <c r="AQ18" s="324"/>
-      <c r="AR18" s="324"/>
-      <c r="AS18" s="324"/>
-      <c r="AT18" s="324"/>
-      <c r="AU18" s="324"/>
-      <c r="AV18" s="324"/>
-      <c r="AW18" s="324"/>
-      <c r="AX18" s="324"/>
-      <c r="AY18" s="324"/>
-      <c r="AZ18" s="324"/>
-      <c r="BA18" s="324"/>
-      <c r="BB18" s="324"/>
-      <c r="BC18" s="324"/>
-      <c r="BD18" s="324"/>
-      <c r="BE18" s="324"/>
-      <c r="BF18" s="324"/>
+      <c r="A18" s="327"/>
+      <c r="B18" s="327"/>
+      <c r="C18" s="324"/>
+      <c r="D18" s="328"/>
+      <c r="E18" s="328"/>
+      <c r="F18" s="328"/>
+      <c r="G18" s="325"/>
+      <c r="H18" s="325"/>
+      <c r="I18" s="325"/>
+      <c r="J18" s="325"/>
+      <c r="K18" s="325"/>
+      <c r="L18" s="327"/>
+      <c r="M18" s="327"/>
+      <c r="N18" s="327"/>
+      <c r="O18" s="327"/>
+      <c r="P18" s="327"/>
+      <c r="Q18" s="327"/>
+      <c r="R18" s="326"/>
+      <c r="S18" s="326"/>
+      <c r="T18" s="326"/>
+      <c r="U18" s="326"/>
+      <c r="V18" s="326"/>
+      <c r="W18" s="326"/>
+      <c r="X18" s="326"/>
+      <c r="Y18" s="326"/>
+      <c r="Z18" s="326"/>
+      <c r="AA18" s="326"/>
+      <c r="AB18" s="326"/>
+      <c r="AC18" s="326"/>
+      <c r="AD18" s="326"/>
+      <c r="AE18" s="326"/>
+      <c r="AF18" s="326"/>
+      <c r="AG18" s="326"/>
+      <c r="AH18" s="326"/>
+      <c r="AI18" s="326"/>
+      <c r="AJ18" s="326"/>
+      <c r="AK18" s="326"/>
+      <c r="AL18" s="326"/>
+      <c r="AM18" s="326"/>
+      <c r="AN18" s="326"/>
+      <c r="AO18" s="326"/>
+      <c r="AP18" s="326"/>
+      <c r="AQ18" s="326"/>
+      <c r="AR18" s="326"/>
+      <c r="AS18" s="326"/>
+      <c r="AT18" s="326"/>
+      <c r="AU18" s="326"/>
+      <c r="AV18" s="326"/>
+      <c r="AW18" s="326"/>
+      <c r="AX18" s="326"/>
+      <c r="AY18" s="326"/>
+      <c r="AZ18" s="326"/>
+      <c r="BA18" s="326"/>
+      <c r="BB18" s="326"/>
+      <c r="BC18" s="326"/>
+      <c r="BD18" s="326"/>
+      <c r="BE18" s="326"/>
+      <c r="BF18" s="326"/>
     </row>
     <row r="19" spans="1:58">
-      <c r="A19" s="354"/>
-      <c r="B19" s="354"/>
-      <c r="C19" s="355"/>
-      <c r="D19" s="356"/>
-      <c r="E19" s="356"/>
-      <c r="F19" s="356"/>
-      <c r="G19" s="357"/>
-      <c r="H19" s="357"/>
-      <c r="I19" s="357"/>
-      <c r="J19" s="357"/>
-      <c r="K19" s="357"/>
-      <c r="L19" s="354"/>
-      <c r="M19" s="354"/>
-      <c r="N19" s="354"/>
-      <c r="O19" s="354"/>
-      <c r="P19" s="354"/>
-      <c r="Q19" s="354"/>
-      <c r="R19" s="324"/>
-      <c r="S19" s="324"/>
-      <c r="T19" s="324"/>
-      <c r="U19" s="324"/>
-      <c r="V19" s="324"/>
-      <c r="W19" s="324"/>
-      <c r="X19" s="324"/>
-      <c r="Y19" s="324"/>
-      <c r="Z19" s="324"/>
-      <c r="AA19" s="324"/>
-      <c r="AB19" s="324"/>
-      <c r="AC19" s="324"/>
-      <c r="AD19" s="324"/>
-      <c r="AE19" s="324"/>
-      <c r="AF19" s="324"/>
-      <c r="AG19" s="324"/>
-      <c r="AH19" s="324"/>
-      <c r="AI19" s="324"/>
-      <c r="AJ19" s="324"/>
-      <c r="AK19" s="324"/>
-      <c r="AL19" s="324"/>
-      <c r="AM19" s="324"/>
-      <c r="AN19" s="324"/>
-      <c r="AO19" s="324"/>
-      <c r="AP19" s="324"/>
-      <c r="AQ19" s="324"/>
-      <c r="AR19" s="324"/>
-      <c r="AS19" s="324"/>
-      <c r="AT19" s="324"/>
-      <c r="AU19" s="324"/>
-      <c r="AV19" s="324"/>
-      <c r="AW19" s="324"/>
-      <c r="AX19" s="324"/>
-      <c r="AY19" s="324"/>
-      <c r="AZ19" s="324"/>
-      <c r="BA19" s="324"/>
-      <c r="BB19" s="324"/>
-      <c r="BC19" s="324"/>
-      <c r="BD19" s="324"/>
-      <c r="BE19" s="324"/>
-      <c r="BF19" s="324"/>
+      <c r="A19" s="327"/>
+      <c r="B19" s="327"/>
+      <c r="C19" s="324"/>
+      <c r="D19" s="328"/>
+      <c r="E19" s="328"/>
+      <c r="F19" s="328"/>
+      <c r="G19" s="325"/>
+      <c r="H19" s="325"/>
+      <c r="I19" s="325"/>
+      <c r="J19" s="325"/>
+      <c r="K19" s="325"/>
+      <c r="L19" s="327"/>
+      <c r="M19" s="327"/>
+      <c r="N19" s="327"/>
+      <c r="O19" s="327"/>
+      <c r="P19" s="327"/>
+      <c r="Q19" s="327"/>
+      <c r="R19" s="326"/>
+      <c r="S19" s="326"/>
+      <c r="T19" s="326"/>
+      <c r="U19" s="326"/>
+      <c r="V19" s="326"/>
+      <c r="W19" s="326"/>
+      <c r="X19" s="326"/>
+      <c r="Y19" s="326"/>
+      <c r="Z19" s="326"/>
+      <c r="AA19" s="326"/>
+      <c r="AB19" s="326"/>
+      <c r="AC19" s="326"/>
+      <c r="AD19" s="326"/>
+      <c r="AE19" s="326"/>
+      <c r="AF19" s="326"/>
+      <c r="AG19" s="326"/>
+      <c r="AH19" s="326"/>
+      <c r="AI19" s="326"/>
+      <c r="AJ19" s="326"/>
+      <c r="AK19" s="326"/>
+      <c r="AL19" s="326"/>
+      <c r="AM19" s="326"/>
+      <c r="AN19" s="326"/>
+      <c r="AO19" s="326"/>
+      <c r="AP19" s="326"/>
+      <c r="AQ19" s="326"/>
+      <c r="AR19" s="326"/>
+      <c r="AS19" s="326"/>
+      <c r="AT19" s="326"/>
+      <c r="AU19" s="326"/>
+      <c r="AV19" s="326"/>
+      <c r="AW19" s="326"/>
+      <c r="AX19" s="326"/>
+      <c r="AY19" s="326"/>
+      <c r="AZ19" s="326"/>
+      <c r="BA19" s="326"/>
+      <c r="BB19" s="326"/>
+      <c r="BC19" s="326"/>
+      <c r="BD19" s="326"/>
+      <c r="BE19" s="326"/>
+      <c r="BF19" s="326"/>
     </row>
     <row r="20" spans="1:58">
-      <c r="A20" s="354"/>
-      <c r="B20" s="354"/>
-      <c r="C20" s="355"/>
-      <c r="D20" s="356"/>
-      <c r="E20" s="356"/>
-      <c r="F20" s="356"/>
-      <c r="G20" s="357"/>
-      <c r="H20" s="357"/>
-      <c r="I20" s="357"/>
-      <c r="J20" s="357"/>
-      <c r="K20" s="357"/>
-      <c r="L20" s="354"/>
-      <c r="M20" s="354"/>
-      <c r="N20" s="354"/>
-      <c r="O20" s="354"/>
-      <c r="P20" s="354"/>
-      <c r="Q20" s="354"/>
-      <c r="R20" s="324"/>
-      <c r="S20" s="324"/>
-      <c r="T20" s="324"/>
-      <c r="U20" s="324"/>
-      <c r="V20" s="324"/>
-      <c r="W20" s="324"/>
-      <c r="X20" s="324"/>
-      <c r="Y20" s="324"/>
-      <c r="Z20" s="324"/>
-      <c r="AA20" s="324"/>
-      <c r="AB20" s="324"/>
-      <c r="AC20" s="324"/>
-      <c r="AD20" s="324"/>
-      <c r="AE20" s="324"/>
-      <c r="AF20" s="324"/>
-      <c r="AG20" s="324"/>
-      <c r="AH20" s="324"/>
-      <c r="AI20" s="324"/>
-      <c r="AJ20" s="324"/>
-      <c r="AK20" s="324"/>
-      <c r="AL20" s="324"/>
-      <c r="AM20" s="324"/>
-      <c r="AN20" s="324"/>
-      <c r="AO20" s="324"/>
-      <c r="AP20" s="324"/>
-      <c r="AQ20" s="324"/>
-      <c r="AR20" s="324"/>
-      <c r="AS20" s="324"/>
-      <c r="AT20" s="324"/>
-      <c r="AU20" s="324"/>
-      <c r="AV20" s="324"/>
-      <c r="AW20" s="324"/>
-      <c r="AX20" s="324"/>
-      <c r="AY20" s="324"/>
-      <c r="AZ20" s="324"/>
-      <c r="BA20" s="324"/>
-      <c r="BB20" s="324"/>
-      <c r="BC20" s="324"/>
-      <c r="BD20" s="324"/>
-      <c r="BE20" s="324"/>
-      <c r="BF20" s="324"/>
+      <c r="A20" s="327"/>
+      <c r="B20" s="327"/>
+      <c r="C20" s="324"/>
+      <c r="D20" s="328"/>
+      <c r="E20" s="328"/>
+      <c r="F20" s="328"/>
+      <c r="G20" s="325"/>
+      <c r="H20" s="325"/>
+      <c r="I20" s="325"/>
+      <c r="J20" s="325"/>
+      <c r="K20" s="325"/>
+      <c r="L20" s="327"/>
+      <c r="M20" s="327"/>
+      <c r="N20" s="327"/>
+      <c r="O20" s="327"/>
+      <c r="P20" s="327"/>
+      <c r="Q20" s="327"/>
+      <c r="R20" s="326"/>
+      <c r="S20" s="326"/>
+      <c r="T20" s="326"/>
+      <c r="U20" s="326"/>
+      <c r="V20" s="326"/>
+      <c r="W20" s="326"/>
+      <c r="X20" s="326"/>
+      <c r="Y20" s="326"/>
+      <c r="Z20" s="326"/>
+      <c r="AA20" s="326"/>
+      <c r="AB20" s="326"/>
+      <c r="AC20" s="326"/>
+      <c r="AD20" s="326"/>
+      <c r="AE20" s="326"/>
+      <c r="AF20" s="326"/>
+      <c r="AG20" s="326"/>
+      <c r="AH20" s="326"/>
+      <c r="AI20" s="326"/>
+      <c r="AJ20" s="326"/>
+      <c r="AK20" s="326"/>
+      <c r="AL20" s="326"/>
+      <c r="AM20" s="326"/>
+      <c r="AN20" s="326"/>
+      <c r="AO20" s="326"/>
+      <c r="AP20" s="326"/>
+      <c r="AQ20" s="326"/>
+      <c r="AR20" s="326"/>
+      <c r="AS20" s="326"/>
+      <c r="AT20" s="326"/>
+      <c r="AU20" s="326"/>
+      <c r="AV20" s="326"/>
+      <c r="AW20" s="326"/>
+      <c r="AX20" s="326"/>
+      <c r="AY20" s="326"/>
+      <c r="AZ20" s="326"/>
+      <c r="BA20" s="326"/>
+      <c r="BB20" s="326"/>
+      <c r="BC20" s="326"/>
+      <c r="BD20" s="326"/>
+      <c r="BE20" s="326"/>
+      <c r="BF20" s="326"/>
     </row>
     <row r="21" spans="1:58">
-      <c r="A21" s="354"/>
-      <c r="B21" s="354"/>
-      <c r="C21" s="355"/>
-      <c r="D21" s="356"/>
-      <c r="E21" s="356"/>
-      <c r="F21" s="356"/>
-      <c r="G21" s="357"/>
-      <c r="H21" s="357"/>
-      <c r="I21" s="357"/>
-      <c r="J21" s="357"/>
-      <c r="K21" s="357"/>
-      <c r="L21" s="354"/>
-      <c r="M21" s="354"/>
-      <c r="N21" s="354"/>
-      <c r="O21" s="354"/>
-      <c r="P21" s="354"/>
-      <c r="Q21" s="354"/>
-      <c r="R21" s="324"/>
-      <c r="S21" s="324"/>
-      <c r="T21" s="324"/>
-      <c r="U21" s="324"/>
-      <c r="V21" s="324"/>
-      <c r="W21" s="324"/>
-      <c r="X21" s="324"/>
-      <c r="Y21" s="324"/>
-      <c r="Z21" s="324"/>
-      <c r="AA21" s="324"/>
-      <c r="AB21" s="324"/>
-      <c r="AC21" s="324"/>
-      <c r="AD21" s="324"/>
-      <c r="AE21" s="324"/>
-      <c r="AF21" s="324"/>
-      <c r="AG21" s="324"/>
-      <c r="AH21" s="324"/>
-      <c r="AI21" s="324"/>
-      <c r="AJ21" s="324"/>
-      <c r="AK21" s="324"/>
-      <c r="AL21" s="324"/>
-      <c r="AM21" s="324"/>
-      <c r="AN21" s="324"/>
-      <c r="AO21" s="324"/>
-      <c r="AP21" s="324"/>
-      <c r="AQ21" s="324"/>
-      <c r="AR21" s="324"/>
-      <c r="AS21" s="324"/>
-      <c r="AT21" s="324"/>
-      <c r="AU21" s="324"/>
-      <c r="AV21" s="324"/>
-      <c r="AW21" s="324"/>
-      <c r="AX21" s="324"/>
-      <c r="AY21" s="324"/>
-      <c r="AZ21" s="324"/>
-      <c r="BA21" s="324"/>
-      <c r="BB21" s="324"/>
-      <c r="BC21" s="324"/>
-      <c r="BD21" s="324"/>
-      <c r="BE21" s="324"/>
-      <c r="BF21" s="324"/>
+      <c r="A21" s="327"/>
+      <c r="B21" s="327"/>
+      <c r="C21" s="324"/>
+      <c r="D21" s="328"/>
+      <c r="E21" s="328"/>
+      <c r="F21" s="328"/>
+      <c r="G21" s="325"/>
+      <c r="H21" s="325"/>
+      <c r="I21" s="325"/>
+      <c r="J21" s="325"/>
+      <c r="K21" s="325"/>
+      <c r="L21" s="327"/>
+      <c r="M21" s="327"/>
+      <c r="N21" s="327"/>
+      <c r="O21" s="327"/>
+      <c r="P21" s="327"/>
+      <c r="Q21" s="327"/>
+      <c r="R21" s="326"/>
+      <c r="S21" s="326"/>
+      <c r="T21" s="326"/>
+      <c r="U21" s="326"/>
+      <c r="V21" s="326"/>
+      <c r="W21" s="326"/>
+      <c r="X21" s="326"/>
+      <c r="Y21" s="326"/>
+      <c r="Z21" s="326"/>
+      <c r="AA21" s="326"/>
+      <c r="AB21" s="326"/>
+      <c r="AC21" s="326"/>
+      <c r="AD21" s="326"/>
+      <c r="AE21" s="326"/>
+      <c r="AF21" s="326"/>
+      <c r="AG21" s="326"/>
+      <c r="AH21" s="326"/>
+      <c r="AI21" s="326"/>
+      <c r="AJ21" s="326"/>
+      <c r="AK21" s="326"/>
+      <c r="AL21" s="326"/>
+      <c r="AM21" s="326"/>
+      <c r="AN21" s="326"/>
+      <c r="AO21" s="326"/>
+      <c r="AP21" s="326"/>
+      <c r="AQ21" s="326"/>
+      <c r="AR21" s="326"/>
+      <c r="AS21" s="326"/>
+      <c r="AT21" s="326"/>
+      <c r="AU21" s="326"/>
+      <c r="AV21" s="326"/>
+      <c r="AW21" s="326"/>
+      <c r="AX21" s="326"/>
+      <c r="AY21" s="326"/>
+      <c r="AZ21" s="326"/>
+      <c r="BA21" s="326"/>
+      <c r="BB21" s="326"/>
+      <c r="BC21" s="326"/>
+      <c r="BD21" s="326"/>
+      <c r="BE21" s="326"/>
+      <c r="BF21" s="326"/>
     </row>
     <row r="22" spans="1:58">
-      <c r="A22" s="354"/>
-      <c r="B22" s="354"/>
-      <c r="C22" s="355"/>
-      <c r="D22" s="356"/>
-      <c r="E22" s="356"/>
-      <c r="F22" s="356"/>
-      <c r="G22" s="357"/>
-      <c r="H22" s="357"/>
-      <c r="I22" s="357"/>
-      <c r="J22" s="357"/>
-      <c r="K22" s="357"/>
-      <c r="L22" s="354"/>
-      <c r="M22" s="354"/>
-      <c r="N22" s="354"/>
-      <c r="O22" s="354"/>
-      <c r="P22" s="354"/>
-      <c r="Q22" s="354"/>
-      <c r="R22" s="324"/>
-      <c r="S22" s="324"/>
-      <c r="T22" s="324"/>
-      <c r="U22" s="324"/>
-      <c r="V22" s="324"/>
-      <c r="W22" s="324"/>
-      <c r="X22" s="324"/>
-      <c r="Y22" s="324"/>
-      <c r="Z22" s="324"/>
-      <c r="AA22" s="324"/>
-      <c r="AB22" s="324"/>
-      <c r="AC22" s="324"/>
-      <c r="AD22" s="324"/>
-      <c r="AE22" s="324"/>
-      <c r="AF22" s="324"/>
-      <c r="AG22" s="324"/>
-      <c r="AH22" s="324"/>
-      <c r="AI22" s="324"/>
-      <c r="AJ22" s="324"/>
-      <c r="AK22" s="324"/>
-      <c r="AL22" s="324"/>
-      <c r="AM22" s="324"/>
-      <c r="AN22" s="324"/>
-      <c r="AO22" s="324"/>
-      <c r="AP22" s="324"/>
-      <c r="AQ22" s="324"/>
-      <c r="AR22" s="324"/>
-      <c r="AS22" s="324"/>
-      <c r="AT22" s="324"/>
-      <c r="AU22" s="324"/>
-      <c r="AV22" s="324"/>
-      <c r="AW22" s="324"/>
-      <c r="AX22" s="324"/>
-      <c r="AY22" s="324"/>
-      <c r="AZ22" s="324"/>
-      <c r="BA22" s="324"/>
-      <c r="BB22" s="324"/>
-      <c r="BC22" s="324"/>
-      <c r="BD22" s="324"/>
-      <c r="BE22" s="324"/>
-      <c r="BF22" s="324"/>
+      <c r="A22" s="327"/>
+      <c r="B22" s="327"/>
+      <c r="C22" s="324"/>
+      <c r="D22" s="328"/>
+      <c r="E22" s="328"/>
+      <c r="F22" s="328"/>
+      <c r="G22" s="325"/>
+      <c r="H22" s="325"/>
+      <c r="I22" s="325"/>
+      <c r="J22" s="325"/>
+      <c r="K22" s="325"/>
+      <c r="L22" s="327"/>
+      <c r="M22" s="327"/>
+      <c r="N22" s="327"/>
+      <c r="O22" s="327"/>
+      <c r="P22" s="327"/>
+      <c r="Q22" s="327"/>
+      <c r="R22" s="326"/>
+      <c r="S22" s="326"/>
+      <c r="T22" s="326"/>
+      <c r="U22" s="326"/>
+      <c r="V22" s="326"/>
+      <c r="W22" s="326"/>
+      <c r="X22" s="326"/>
+      <c r="Y22" s="326"/>
+      <c r="Z22" s="326"/>
+      <c r="AA22" s="326"/>
+      <c r="AB22" s="326"/>
+      <c r="AC22" s="326"/>
+      <c r="AD22" s="326"/>
+      <c r="AE22" s="326"/>
+      <c r="AF22" s="326"/>
+      <c r="AG22" s="326"/>
+      <c r="AH22" s="326"/>
+      <c r="AI22" s="326"/>
+      <c r="AJ22" s="326"/>
+      <c r="AK22" s="326"/>
+      <c r="AL22" s="326"/>
+      <c r="AM22" s="326"/>
+      <c r="AN22" s="326"/>
+      <c r="AO22" s="326"/>
+      <c r="AP22" s="326"/>
+      <c r="AQ22" s="326"/>
+      <c r="AR22" s="326"/>
+      <c r="AS22" s="326"/>
+      <c r="AT22" s="326"/>
+      <c r="AU22" s="326"/>
+      <c r="AV22" s="326"/>
+      <c r="AW22" s="326"/>
+      <c r="AX22" s="326"/>
+      <c r="AY22" s="326"/>
+      <c r="AZ22" s="326"/>
+      <c r="BA22" s="326"/>
+      <c r="BB22" s="326"/>
+      <c r="BC22" s="326"/>
+      <c r="BD22" s="326"/>
+      <c r="BE22" s="326"/>
+      <c r="BF22" s="326"/>
     </row>
     <row r="23" spans="1:58">
-      <c r="A23" s="354"/>
-      <c r="B23" s="354"/>
-      <c r="C23" s="355"/>
-      <c r="D23" s="356"/>
-      <c r="E23" s="356"/>
-      <c r="F23" s="356"/>
-      <c r="G23" s="357"/>
-      <c r="H23" s="357"/>
-      <c r="I23" s="357"/>
-      <c r="J23" s="357"/>
-      <c r="K23" s="357"/>
-      <c r="L23" s="354"/>
-      <c r="M23" s="354"/>
-      <c r="N23" s="354"/>
-      <c r="O23" s="354"/>
-      <c r="P23" s="354"/>
-      <c r="Q23" s="354"/>
-      <c r="R23" s="324"/>
-      <c r="S23" s="324"/>
-      <c r="T23" s="324"/>
-      <c r="U23" s="324"/>
-      <c r="V23" s="324"/>
-      <c r="W23" s="324"/>
-      <c r="X23" s="324"/>
-      <c r="Y23" s="324"/>
-      <c r="Z23" s="324"/>
-      <c r="AA23" s="324"/>
-      <c r="AB23" s="324"/>
-      <c r="AC23" s="324"/>
-      <c r="AD23" s="324"/>
-      <c r="AE23" s="324"/>
-      <c r="AF23" s="324"/>
-      <c r="AG23" s="324"/>
-      <c r="AH23" s="324"/>
-      <c r="AI23" s="324"/>
-      <c r="AJ23" s="324"/>
-      <c r="AK23" s="324"/>
-      <c r="AL23" s="324"/>
-      <c r="AM23" s="324"/>
-      <c r="AN23" s="324"/>
-      <c r="AO23" s="324"/>
-      <c r="AP23" s="324"/>
-      <c r="AQ23" s="324"/>
-      <c r="AR23" s="324"/>
-      <c r="AS23" s="324"/>
-      <c r="AT23" s="324"/>
-      <c r="AU23" s="324"/>
-      <c r="AV23" s="324"/>
-      <c r="AW23" s="324"/>
-      <c r="AX23" s="324"/>
-      <c r="AY23" s="324"/>
-      <c r="AZ23" s="324"/>
-      <c r="BA23" s="324"/>
-      <c r="BB23" s="324"/>
-      <c r="BC23" s="324"/>
-      <c r="BD23" s="324"/>
-      <c r="BE23" s="324"/>
-      <c r="BF23" s="324"/>
+      <c r="A23" s="327"/>
+      <c r="B23" s="327"/>
+      <c r="C23" s="324"/>
+      <c r="D23" s="328"/>
+      <c r="E23" s="328"/>
+      <c r="F23" s="328"/>
+      <c r="G23" s="325"/>
+      <c r="H23" s="325"/>
+      <c r="I23" s="325"/>
+      <c r="J23" s="325"/>
+      <c r="K23" s="325"/>
+      <c r="L23" s="327"/>
+      <c r="M23" s="327"/>
+      <c r="N23" s="327"/>
+      <c r="O23" s="327"/>
+      <c r="P23" s="327"/>
+      <c r="Q23" s="327"/>
+      <c r="R23" s="326"/>
+      <c r="S23" s="326"/>
+      <c r="T23" s="326"/>
+      <c r="U23" s="326"/>
+      <c r="V23" s="326"/>
+      <c r="W23" s="326"/>
+      <c r="X23" s="326"/>
+      <c r="Y23" s="326"/>
+      <c r="Z23" s="326"/>
+      <c r="AA23" s="326"/>
+      <c r="AB23" s="326"/>
+      <c r="AC23" s="326"/>
+      <c r="AD23" s="326"/>
+      <c r="AE23" s="326"/>
+      <c r="AF23" s="326"/>
+      <c r="AG23" s="326"/>
+      <c r="AH23" s="326"/>
+      <c r="AI23" s="326"/>
+      <c r="AJ23" s="326"/>
+      <c r="AK23" s="326"/>
+      <c r="AL23" s="326"/>
+      <c r="AM23" s="326"/>
+      <c r="AN23" s="326"/>
+      <c r="AO23" s="326"/>
+      <c r="AP23" s="326"/>
+      <c r="AQ23" s="326"/>
+      <c r="AR23" s="326"/>
+      <c r="AS23" s="326"/>
+      <c r="AT23" s="326"/>
+      <c r="AU23" s="326"/>
+      <c r="AV23" s="326"/>
+      <c r="AW23" s="326"/>
+      <c r="AX23" s="326"/>
+      <c r="AY23" s="326"/>
+      <c r="AZ23" s="326"/>
+      <c r="BA23" s="326"/>
+      <c r="BB23" s="326"/>
+      <c r="BC23" s="326"/>
+      <c r="BD23" s="326"/>
+      <c r="BE23" s="326"/>
+      <c r="BF23" s="326"/>
     </row>
     <row r="24" spans="1:58">
-      <c r="A24" s="354"/>
-      <c r="B24" s="354"/>
-      <c r="C24" s="355"/>
-      <c r="D24" s="356"/>
-      <c r="E24" s="356"/>
-      <c r="F24" s="356"/>
-      <c r="G24" s="357"/>
-      <c r="H24" s="357"/>
-      <c r="I24" s="357"/>
-      <c r="J24" s="357"/>
-      <c r="K24" s="357"/>
-      <c r="L24" s="354"/>
-      <c r="M24" s="354"/>
-      <c r="N24" s="354"/>
-      <c r="O24" s="354"/>
-      <c r="P24" s="354"/>
-      <c r="Q24" s="354"/>
-      <c r="R24" s="324"/>
-      <c r="S24" s="324"/>
-      <c r="T24" s="324"/>
-      <c r="U24" s="324"/>
-      <c r="V24" s="324"/>
-      <c r="W24" s="324"/>
-      <c r="X24" s="324"/>
-      <c r="Y24" s="324"/>
-      <c r="Z24" s="324"/>
-      <c r="AA24" s="324"/>
-      <c r="AB24" s="324"/>
-      <c r="AC24" s="324"/>
-      <c r="AD24" s="324"/>
-      <c r="AE24" s="324"/>
-      <c r="AF24" s="324"/>
-      <c r="AG24" s="324"/>
-      <c r="AH24" s="324"/>
-      <c r="AI24" s="324"/>
-      <c r="AJ24" s="324"/>
-      <c r="AK24" s="324"/>
-      <c r="AL24" s="324"/>
-      <c r="AM24" s="324"/>
-      <c r="AN24" s="324"/>
-      <c r="AO24" s="324"/>
-      <c r="AP24" s="324"/>
-      <c r="AQ24" s="324"/>
-      <c r="AR24" s="324"/>
-      <c r="AS24" s="324"/>
-      <c r="AT24" s="324"/>
-      <c r="AU24" s="324"/>
-      <c r="AV24" s="324"/>
-      <c r="AW24" s="324"/>
-      <c r="AX24" s="324"/>
-      <c r="AY24" s="324"/>
-      <c r="AZ24" s="324"/>
-      <c r="BA24" s="324"/>
-      <c r="BB24" s="324"/>
-      <c r="BC24" s="324"/>
-      <c r="BD24" s="324"/>
-      <c r="BE24" s="324"/>
-      <c r="BF24" s="324"/>
+      <c r="A24" s="327"/>
+      <c r="B24" s="327"/>
+      <c r="C24" s="324"/>
+      <c r="D24" s="328"/>
+      <c r="E24" s="328"/>
+      <c r="F24" s="328"/>
+      <c r="G24" s="325"/>
+      <c r="H24" s="325"/>
+      <c r="I24" s="325"/>
+      <c r="J24" s="325"/>
+      <c r="K24" s="325"/>
+      <c r="L24" s="327"/>
+      <c r="M24" s="327"/>
+      <c r="N24" s="327"/>
+      <c r="O24" s="327"/>
+      <c r="P24" s="327"/>
+      <c r="Q24" s="327"/>
+      <c r="R24" s="326"/>
+      <c r="S24" s="326"/>
+      <c r="T24" s="326"/>
+      <c r="U24" s="326"/>
+      <c r="V24" s="326"/>
+      <c r="W24" s="326"/>
+      <c r="X24" s="326"/>
+      <c r="Y24" s="326"/>
+      <c r="Z24" s="326"/>
+      <c r="AA24" s="326"/>
+      <c r="AB24" s="326"/>
+      <c r="AC24" s="326"/>
+      <c r="AD24" s="326"/>
+      <c r="AE24" s="326"/>
+      <c r="AF24" s="326"/>
+      <c r="AG24" s="326"/>
+      <c r="AH24" s="326"/>
+      <c r="AI24" s="326"/>
+      <c r="AJ24" s="326"/>
+      <c r="AK24" s="326"/>
+      <c r="AL24" s="326"/>
+      <c r="AM24" s="326"/>
+      <c r="AN24" s="326"/>
+      <c r="AO24" s="326"/>
+      <c r="AP24" s="326"/>
+      <c r="AQ24" s="326"/>
+      <c r="AR24" s="326"/>
+      <c r="AS24" s="326"/>
+      <c r="AT24" s="326"/>
+      <c r="AU24" s="326"/>
+      <c r="AV24" s="326"/>
+      <c r="AW24" s="326"/>
+      <c r="AX24" s="326"/>
+      <c r="AY24" s="326"/>
+      <c r="AZ24" s="326"/>
+      <c r="BA24" s="326"/>
+      <c r="BB24" s="326"/>
+      <c r="BC24" s="326"/>
+      <c r="BD24" s="326"/>
+      <c r="BE24" s="326"/>
+      <c r="BF24" s="326"/>
     </row>
     <row r="25" spans="1:58">
-      <c r="A25" s="354"/>
-      <c r="B25" s="354"/>
-      <c r="C25" s="355"/>
-      <c r="D25" s="356"/>
-      <c r="E25" s="356"/>
-      <c r="F25" s="356"/>
-      <c r="G25" s="357"/>
-      <c r="H25" s="357"/>
-      <c r="I25" s="357"/>
-      <c r="J25" s="357"/>
-      <c r="K25" s="357"/>
-      <c r="L25" s="354"/>
-      <c r="M25" s="354"/>
-      <c r="N25" s="354"/>
-      <c r="O25" s="354"/>
-      <c r="P25" s="354"/>
-      <c r="Q25" s="354"/>
-      <c r="R25" s="324"/>
-      <c r="S25" s="324"/>
-      <c r="T25" s="324"/>
-      <c r="U25" s="324"/>
-      <c r="V25" s="324"/>
-      <c r="W25" s="324"/>
-      <c r="X25" s="324"/>
-      <c r="Y25" s="324"/>
-      <c r="Z25" s="324"/>
-      <c r="AA25" s="324"/>
-      <c r="AB25" s="324"/>
-      <c r="AC25" s="324"/>
-      <c r="AD25" s="324"/>
-      <c r="AE25" s="324"/>
-      <c r="AF25" s="324"/>
-      <c r="AG25" s="324"/>
-      <c r="AH25" s="324"/>
-      <c r="AI25" s="324"/>
-      <c r="AJ25" s="324"/>
-      <c r="AK25" s="324"/>
-      <c r="AL25" s="324"/>
-      <c r="AM25" s="324"/>
-      <c r="AN25" s="324"/>
-      <c r="AO25" s="324"/>
-      <c r="AP25" s="324"/>
-      <c r="AQ25" s="324"/>
-      <c r="AR25" s="324"/>
-      <c r="AS25" s="324"/>
-      <c r="AT25" s="324"/>
-      <c r="AU25" s="324"/>
-      <c r="AV25" s="324"/>
-      <c r="AW25" s="324"/>
-      <c r="AX25" s="324"/>
-      <c r="AY25" s="324"/>
-      <c r="AZ25" s="324"/>
-      <c r="BA25" s="324"/>
-      <c r="BB25" s="324"/>
-      <c r="BC25" s="324"/>
-      <c r="BD25" s="324"/>
-      <c r="BE25" s="324"/>
-      <c r="BF25" s="324"/>
+      <c r="A25" s="327"/>
+      <c r="B25" s="327"/>
+      <c r="C25" s="324"/>
+      <c r="D25" s="328"/>
+      <c r="E25" s="328"/>
+      <c r="F25" s="328"/>
+      <c r="G25" s="325"/>
+      <c r="H25" s="325"/>
+      <c r="I25" s="325"/>
+      <c r="J25" s="325"/>
+      <c r="K25" s="325"/>
+      <c r="L25" s="327"/>
+      <c r="M25" s="327"/>
+      <c r="N25" s="327"/>
+      <c r="O25" s="327"/>
+      <c r="P25" s="327"/>
+      <c r="Q25" s="327"/>
+      <c r="R25" s="326"/>
+      <c r="S25" s="326"/>
+      <c r="T25" s="326"/>
+      <c r="U25" s="326"/>
+      <c r="V25" s="326"/>
+      <c r="W25" s="326"/>
+      <c r="X25" s="326"/>
+      <c r="Y25" s="326"/>
+      <c r="Z25" s="326"/>
+      <c r="AA25" s="326"/>
+      <c r="AB25" s="326"/>
+      <c r="AC25" s="326"/>
+      <c r="AD25" s="326"/>
+      <c r="AE25" s="326"/>
+      <c r="AF25" s="326"/>
+      <c r="AG25" s="326"/>
+      <c r="AH25" s="326"/>
+      <c r="AI25" s="326"/>
+      <c r="AJ25" s="326"/>
+      <c r="AK25" s="326"/>
+      <c r="AL25" s="326"/>
+      <c r="AM25" s="326"/>
+      <c r="AN25" s="326"/>
+      <c r="AO25" s="326"/>
+      <c r="AP25" s="326"/>
+      <c r="AQ25" s="326"/>
+      <c r="AR25" s="326"/>
+      <c r="AS25" s="326"/>
+      <c r="AT25" s="326"/>
+      <c r="AU25" s="326"/>
+      <c r="AV25" s="326"/>
+      <c r="AW25" s="326"/>
+      <c r="AX25" s="326"/>
+      <c r="AY25" s="326"/>
+      <c r="AZ25" s="326"/>
+      <c r="BA25" s="326"/>
+      <c r="BB25" s="326"/>
+      <c r="BC25" s="326"/>
+      <c r="BD25" s="326"/>
+      <c r="BE25" s="326"/>
+      <c r="BF25" s="326"/>
     </row>
     <row r="26" spans="1:58">
-      <c r="A26" s="354"/>
-      <c r="B26" s="354"/>
-      <c r="C26" s="355"/>
-      <c r="D26" s="356"/>
-      <c r="E26" s="356"/>
-      <c r="F26" s="356"/>
-      <c r="G26" s="357"/>
-      <c r="H26" s="357"/>
-      <c r="I26" s="357"/>
-      <c r="J26" s="357"/>
-      <c r="K26" s="357"/>
-      <c r="L26" s="354"/>
-      <c r="M26" s="354"/>
-      <c r="N26" s="354"/>
-      <c r="O26" s="354"/>
-      <c r="P26" s="354"/>
-      <c r="Q26" s="354"/>
-      <c r="R26" s="324"/>
-      <c r="S26" s="324"/>
-      <c r="T26" s="324"/>
-      <c r="U26" s="324"/>
-      <c r="V26" s="324"/>
-      <c r="W26" s="324"/>
-      <c r="X26" s="324"/>
-      <c r="Y26" s="324"/>
-      <c r="Z26" s="324"/>
-      <c r="AA26" s="324"/>
-      <c r="AB26" s="324"/>
-      <c r="AC26" s="324"/>
-      <c r="AD26" s="324"/>
-      <c r="AE26" s="324"/>
-      <c r="AF26" s="324"/>
-      <c r="AG26" s="324"/>
-      <c r="AH26" s="324"/>
-      <c r="AI26" s="324"/>
-      <c r="AJ26" s="324"/>
-      <c r="AK26" s="324"/>
-      <c r="AL26" s="324"/>
-      <c r="AM26" s="324"/>
-      <c r="AN26" s="324"/>
-      <c r="AO26" s="324"/>
-      <c r="AP26" s="324"/>
-      <c r="AQ26" s="324"/>
-      <c r="AR26" s="324"/>
-      <c r="AS26" s="324"/>
-      <c r="AT26" s="324"/>
-      <c r="AU26" s="324"/>
-      <c r="AV26" s="324"/>
-      <c r="AW26" s="324"/>
-      <c r="AX26" s="324"/>
-      <c r="AY26" s="324"/>
-      <c r="AZ26" s="324"/>
-      <c r="BA26" s="324"/>
-      <c r="BB26" s="324"/>
-      <c r="BC26" s="324"/>
-      <c r="BD26" s="324"/>
-      <c r="BE26" s="324"/>
-      <c r="BF26" s="324"/>
+      <c r="A26" s="327"/>
+      <c r="B26" s="327"/>
+      <c r="C26" s="324"/>
+      <c r="D26" s="328"/>
+      <c r="E26" s="328"/>
+      <c r="F26" s="328"/>
+      <c r="G26" s="325"/>
+      <c r="H26" s="325"/>
+      <c r="I26" s="325"/>
+      <c r="J26" s="325"/>
+      <c r="K26" s="325"/>
+      <c r="L26" s="327"/>
+      <c r="M26" s="327"/>
+      <c r="N26" s="327"/>
+      <c r="O26" s="327"/>
+      <c r="P26" s="327"/>
+      <c r="Q26" s="327"/>
+      <c r="R26" s="326"/>
+      <c r="S26" s="326"/>
+      <c r="T26" s="326"/>
+      <c r="U26" s="326"/>
+      <c r="V26" s="326"/>
+      <c r="W26" s="326"/>
+      <c r="X26" s="326"/>
+      <c r="Y26" s="326"/>
+      <c r="Z26" s="326"/>
+      <c r="AA26" s="326"/>
+      <c r="AB26" s="326"/>
+      <c r="AC26" s="326"/>
+      <c r="AD26" s="326"/>
+      <c r="AE26" s="326"/>
+      <c r="AF26" s="326"/>
+      <c r="AG26" s="326"/>
+      <c r="AH26" s="326"/>
+      <c r="AI26" s="326"/>
+      <c r="AJ26" s="326"/>
+      <c r="AK26" s="326"/>
+      <c r="AL26" s="326"/>
+      <c r="AM26" s="326"/>
+      <c r="AN26" s="326"/>
+      <c r="AO26" s="326"/>
+      <c r="AP26" s="326"/>
+      <c r="AQ26" s="326"/>
+      <c r="AR26" s="326"/>
+      <c r="AS26" s="326"/>
+      <c r="AT26" s="326"/>
+      <c r="AU26" s="326"/>
+      <c r="AV26" s="326"/>
+      <c r="AW26" s="326"/>
+      <c r="AX26" s="326"/>
+      <c r="AY26" s="326"/>
+      <c r="AZ26" s="326"/>
+      <c r="BA26" s="326"/>
+      <c r="BB26" s="326"/>
+      <c r="BC26" s="326"/>
+      <c r="BD26" s="326"/>
+      <c r="BE26" s="326"/>
+      <c r="BF26" s="326"/>
     </row>
     <row r="27" spans="1:58">
-      <c r="A27" s="354"/>
-      <c r="B27" s="354"/>
-      <c r="C27" s="355"/>
-      <c r="D27" s="356"/>
-      <c r="E27" s="356"/>
-      <c r="F27" s="356"/>
-      <c r="G27" s="357"/>
-      <c r="H27" s="357"/>
-      <c r="I27" s="357"/>
-      <c r="J27" s="357"/>
-      <c r="K27" s="357"/>
-      <c r="L27" s="354"/>
-      <c r="M27" s="354"/>
-      <c r="N27" s="354"/>
-      <c r="O27" s="354"/>
-      <c r="P27" s="354"/>
-      <c r="Q27" s="354"/>
-      <c r="R27" s="324"/>
-      <c r="S27" s="324"/>
-      <c r="T27" s="324"/>
-      <c r="U27" s="324"/>
-      <c r="V27" s="324"/>
-      <c r="W27" s="324"/>
-      <c r="X27" s="324"/>
-      <c r="Y27" s="324"/>
-      <c r="Z27" s="324"/>
-      <c r="AA27" s="324"/>
-      <c r="AB27" s="324"/>
-      <c r="AC27" s="324"/>
-      <c r="AD27" s="324"/>
-      <c r="AE27" s="324"/>
-      <c r="AF27" s="324"/>
-      <c r="AG27" s="324"/>
-      <c r="AH27" s="324"/>
-      <c r="AI27" s="324"/>
-      <c r="AJ27" s="324"/>
-      <c r="AK27" s="324"/>
-      <c r="AL27" s="324"/>
-      <c r="AM27" s="324"/>
-      <c r="AN27" s="324"/>
-      <c r="AO27" s="324"/>
-      <c r="AP27" s="324"/>
-      <c r="AQ27" s="324"/>
-      <c r="AR27" s="324"/>
-      <c r="AS27" s="324"/>
-      <c r="AT27" s="324"/>
-      <c r="AU27" s="324"/>
-      <c r="AV27" s="324"/>
-      <c r="AW27" s="324"/>
-      <c r="AX27" s="324"/>
-      <c r="AY27" s="324"/>
-      <c r="AZ27" s="324"/>
-      <c r="BA27" s="324"/>
-      <c r="BB27" s="324"/>
-      <c r="BC27" s="324"/>
-      <c r="BD27" s="324"/>
-      <c r="BE27" s="324"/>
-      <c r="BF27" s="324"/>
+      <c r="A27" s="327"/>
+      <c r="B27" s="327"/>
+      <c r="C27" s="324"/>
+      <c r="D27" s="328"/>
+      <c r="E27" s="328"/>
+      <c r="F27" s="328"/>
+      <c r="G27" s="325"/>
+      <c r="H27" s="325"/>
+      <c r="I27" s="325"/>
+      <c r="J27" s="325"/>
+      <c r="K27" s="325"/>
+      <c r="L27" s="327"/>
+      <c r="M27" s="327"/>
+      <c r="N27" s="327"/>
+      <c r="O27" s="327"/>
+      <c r="P27" s="327"/>
+      <c r="Q27" s="327"/>
+      <c r="R27" s="326"/>
+      <c r="S27" s="326"/>
+      <c r="T27" s="326"/>
+      <c r="U27" s="326"/>
+      <c r="V27" s="326"/>
+      <c r="W27" s="326"/>
+      <c r="X27" s="326"/>
+      <c r="Y27" s="326"/>
+      <c r="Z27" s="326"/>
+      <c r="AA27" s="326"/>
+      <c r="AB27" s="326"/>
+      <c r="AC27" s="326"/>
+      <c r="AD27" s="326"/>
+      <c r="AE27" s="326"/>
+      <c r="AF27" s="326"/>
+      <c r="AG27" s="326"/>
+      <c r="AH27" s="326"/>
+      <c r="AI27" s="326"/>
+      <c r="AJ27" s="326"/>
+      <c r="AK27" s="326"/>
+      <c r="AL27" s="326"/>
+      <c r="AM27" s="326"/>
+      <c r="AN27" s="326"/>
+      <c r="AO27" s="326"/>
+      <c r="AP27" s="326"/>
+      <c r="AQ27" s="326"/>
+      <c r="AR27" s="326"/>
+      <c r="AS27" s="326"/>
+      <c r="AT27" s="326"/>
+      <c r="AU27" s="326"/>
+      <c r="AV27" s="326"/>
+      <c r="AW27" s="326"/>
+      <c r="AX27" s="326"/>
+      <c r="AY27" s="326"/>
+      <c r="AZ27" s="326"/>
+      <c r="BA27" s="326"/>
+      <c r="BB27" s="326"/>
+      <c r="BC27" s="326"/>
+      <c r="BD27" s="326"/>
+      <c r="BE27" s="326"/>
+      <c r="BF27" s="326"/>
     </row>
     <row r="28" spans="1:58">
-      <c r="A28" s="354"/>
-      <c r="B28" s="354"/>
-      <c r="C28" s="355"/>
-      <c r="D28" s="356"/>
-      <c r="E28" s="356"/>
-      <c r="F28" s="356"/>
-      <c r="G28" s="357"/>
-      <c r="H28" s="357"/>
-      <c r="I28" s="357"/>
-      <c r="J28" s="357"/>
-      <c r="K28" s="357"/>
-      <c r="L28" s="354"/>
-      <c r="M28" s="354"/>
-      <c r="N28" s="354"/>
-      <c r="O28" s="354"/>
-      <c r="P28" s="354"/>
-      <c r="Q28" s="354"/>
-      <c r="R28" s="324"/>
-      <c r="S28" s="324"/>
-      <c r="T28" s="324"/>
-      <c r="U28" s="324"/>
-      <c r="V28" s="324"/>
-      <c r="W28" s="324"/>
-      <c r="X28" s="324"/>
-      <c r="Y28" s="324"/>
-      <c r="Z28" s="324"/>
-      <c r="AA28" s="324"/>
-      <c r="AB28" s="324"/>
-      <c r="AC28" s="324"/>
-      <c r="AD28" s="324"/>
-      <c r="AE28" s="324"/>
-      <c r="AF28" s="324"/>
-      <c r="AG28" s="324"/>
-      <c r="AH28" s="324"/>
-      <c r="AI28" s="324"/>
-      <c r="AJ28" s="324"/>
-      <c r="AK28" s="324"/>
-      <c r="AL28" s="324"/>
-      <c r="AM28" s="324"/>
-      <c r="AN28" s="324"/>
-      <c r="AO28" s="324"/>
-      <c r="AP28" s="324"/>
-      <c r="AQ28" s="324"/>
-      <c r="AR28" s="324"/>
-      <c r="AS28" s="324"/>
-      <c r="AT28" s="324"/>
-      <c r="AU28" s="324"/>
-      <c r="AV28" s="324"/>
-      <c r="AW28" s="324"/>
-      <c r="AX28" s="324"/>
-      <c r="AY28" s="324"/>
-      <c r="AZ28" s="324"/>
-      <c r="BA28" s="324"/>
-      <c r="BB28" s="324"/>
-      <c r="BC28" s="324"/>
-      <c r="BD28" s="324"/>
-      <c r="BE28" s="324"/>
-      <c r="BF28" s="324"/>
+      <c r="A28" s="327"/>
+      <c r="B28" s="327"/>
+      <c r="C28" s="324"/>
+      <c r="D28" s="328"/>
+      <c r="E28" s="328"/>
+      <c r="F28" s="328"/>
+      <c r="G28" s="325"/>
+      <c r="H28" s="325"/>
+      <c r="I28" s="325"/>
+      <c r="J28" s="325"/>
+      <c r="K28" s="325"/>
+      <c r="L28" s="327"/>
+      <c r="M28" s="327"/>
+      <c r="N28" s="327"/>
+      <c r="O28" s="327"/>
+      <c r="P28" s="327"/>
+      <c r="Q28" s="327"/>
+      <c r="R28" s="326"/>
+      <c r="S28" s="326"/>
+      <c r="T28" s="326"/>
+      <c r="U28" s="326"/>
+      <c r="V28" s="326"/>
+      <c r="W28" s="326"/>
+      <c r="X28" s="326"/>
+      <c r="Y28" s="326"/>
+      <c r="Z28" s="326"/>
+      <c r="AA28" s="326"/>
+      <c r="AB28" s="326"/>
+      <c r="AC28" s="326"/>
+      <c r="AD28" s="326"/>
+      <c r="AE28" s="326"/>
+      <c r="AF28" s="326"/>
+      <c r="AG28" s="326"/>
+      <c r="AH28" s="326"/>
+      <c r="AI28" s="326"/>
+      <c r="AJ28" s="326"/>
+      <c r="AK28" s="326"/>
+      <c r="AL28" s="326"/>
+      <c r="AM28" s="326"/>
+      <c r="AN28" s="326"/>
+      <c r="AO28" s="326"/>
+      <c r="AP28" s="326"/>
+      <c r="AQ28" s="326"/>
+      <c r="AR28" s="326"/>
+      <c r="AS28" s="326"/>
+      <c r="AT28" s="326"/>
+      <c r="AU28" s="326"/>
+      <c r="AV28" s="326"/>
+      <c r="AW28" s="326"/>
+      <c r="AX28" s="326"/>
+      <c r="AY28" s="326"/>
+      <c r="AZ28" s="326"/>
+      <c r="BA28" s="326"/>
+      <c r="BB28" s="326"/>
+      <c r="BC28" s="326"/>
+      <c r="BD28" s="326"/>
+      <c r="BE28" s="326"/>
+      <c r="BF28" s="326"/>
     </row>
     <row r="29" spans="1:58">
-      <c r="A29" s="354"/>
-      <c r="B29" s="354"/>
-      <c r="C29" s="355"/>
-      <c r="D29" s="356"/>
-      <c r="E29" s="356"/>
-      <c r="F29" s="356"/>
-      <c r="G29" s="357"/>
-      <c r="H29" s="357"/>
-      <c r="I29" s="357"/>
-      <c r="J29" s="357"/>
-      <c r="K29" s="357"/>
-      <c r="L29" s="354"/>
-      <c r="M29" s="354"/>
-      <c r="N29" s="354"/>
-      <c r="O29" s="354"/>
-      <c r="P29" s="354"/>
-      <c r="Q29" s="354"/>
-      <c r="R29" s="324"/>
-      <c r="S29" s="324"/>
-      <c r="T29" s="324"/>
-      <c r="U29" s="324"/>
-      <c r="V29" s="324"/>
-      <c r="W29" s="324"/>
-      <c r="X29" s="324"/>
-      <c r="Y29" s="324"/>
-      <c r="Z29" s="324"/>
-      <c r="AA29" s="324"/>
-      <c r="AB29" s="324"/>
-      <c r="AC29" s="324"/>
-      <c r="AD29" s="324"/>
-      <c r="AE29" s="324"/>
-      <c r="AF29" s="324"/>
-      <c r="AG29" s="324"/>
-      <c r="AH29" s="324"/>
-      <c r="AI29" s="324"/>
-      <c r="AJ29" s="324"/>
-      <c r="AK29" s="324"/>
-      <c r="AL29" s="324"/>
-      <c r="AM29" s="324"/>
-      <c r="AN29" s="324"/>
-      <c r="AO29" s="324"/>
-      <c r="AP29" s="324"/>
-      <c r="AQ29" s="324"/>
-      <c r="AR29" s="324"/>
-      <c r="AS29" s="324"/>
-      <c r="AT29" s="324"/>
-      <c r="AU29" s="324"/>
-      <c r="AV29" s="324"/>
-      <c r="AW29" s="324"/>
-      <c r="AX29" s="324"/>
-      <c r="AY29" s="324"/>
-      <c r="AZ29" s="324"/>
-      <c r="BA29" s="324"/>
-      <c r="BB29" s="324"/>
-      <c r="BC29" s="324"/>
-      <c r="BD29" s="324"/>
-      <c r="BE29" s="324"/>
-      <c r="BF29" s="324"/>
+      <c r="A29" s="327"/>
+      <c r="B29" s="327"/>
+      <c r="C29" s="324"/>
+      <c r="D29" s="328"/>
+      <c r="E29" s="328"/>
+      <c r="F29" s="328"/>
+      <c r="G29" s="325"/>
+      <c r="H29" s="325"/>
+      <c r="I29" s="325"/>
+      <c r="J29" s="325"/>
+      <c r="K29" s="325"/>
+      <c r="L29" s="327"/>
+      <c r="M29" s="327"/>
+      <c r="N29" s="327"/>
+      <c r="O29" s="327"/>
+      <c r="P29" s="327"/>
+      <c r="Q29" s="327"/>
+      <c r="R29" s="326"/>
+      <c r="S29" s="326"/>
+      <c r="T29" s="326"/>
+      <c r="U29" s="326"/>
+      <c r="V29" s="326"/>
+      <c r="W29" s="326"/>
+      <c r="X29" s="326"/>
+      <c r="Y29" s="326"/>
+      <c r="Z29" s="326"/>
+      <c r="AA29" s="326"/>
+      <c r="AB29" s="326"/>
+      <c r="AC29" s="326"/>
+      <c r="AD29" s="326"/>
+      <c r="AE29" s="326"/>
+      <c r="AF29" s="326"/>
+      <c r="AG29" s="326"/>
+      <c r="AH29" s="326"/>
+      <c r="AI29" s="326"/>
+      <c r="AJ29" s="326"/>
+      <c r="AK29" s="326"/>
+      <c r="AL29" s="326"/>
+      <c r="AM29" s="326"/>
+      <c r="AN29" s="326"/>
+      <c r="AO29" s="326"/>
+      <c r="AP29" s="326"/>
+      <c r="AQ29" s="326"/>
+      <c r="AR29" s="326"/>
+      <c r="AS29" s="326"/>
+      <c r="AT29" s="326"/>
+      <c r="AU29" s="326"/>
+      <c r="AV29" s="326"/>
+      <c r="AW29" s="326"/>
+      <c r="AX29" s="326"/>
+      <c r="AY29" s="326"/>
+      <c r="AZ29" s="326"/>
+      <c r="BA29" s="326"/>
+      <c r="BB29" s="326"/>
+      <c r="BC29" s="326"/>
+      <c r="BD29" s="326"/>
+      <c r="BE29" s="326"/>
+      <c r="BF29" s="326"/>
     </row>
     <row r="30" spans="1:58">
-      <c r="A30" s="354"/>
-      <c r="B30" s="354"/>
-      <c r="C30" s="355"/>
-      <c r="D30" s="356"/>
-      <c r="E30" s="356"/>
-      <c r="F30" s="356"/>
-      <c r="G30" s="357"/>
-      <c r="H30" s="357"/>
-      <c r="I30" s="357"/>
-      <c r="J30" s="357"/>
-      <c r="K30" s="357"/>
-      <c r="L30" s="354"/>
-      <c r="M30" s="354"/>
-      <c r="N30" s="354"/>
-      <c r="O30" s="354"/>
-      <c r="P30" s="354"/>
-      <c r="Q30" s="354"/>
-      <c r="R30" s="324"/>
-      <c r="S30" s="324"/>
-      <c r="T30" s="324"/>
-      <c r="U30" s="324"/>
-      <c r="V30" s="324"/>
-      <c r="W30" s="324"/>
-      <c r="X30" s="324"/>
-      <c r="Y30" s="324"/>
-      <c r="Z30" s="324"/>
-      <c r="AA30" s="324"/>
-      <c r="AB30" s="324"/>
-      <c r="AC30" s="324"/>
-      <c r="AD30" s="324"/>
-      <c r="AE30" s="324"/>
-      <c r="AF30" s="324"/>
-      <c r="AG30" s="324"/>
-      <c r="AH30" s="324"/>
-      <c r="AI30" s="324"/>
-      <c r="AJ30" s="324"/>
-      <c r="AK30" s="324"/>
-      <c r="AL30" s="324"/>
-      <c r="AM30" s="324"/>
-      <c r="AN30" s="324"/>
-      <c r="AO30" s="324"/>
-      <c r="AP30" s="324"/>
-      <c r="AQ30" s="324"/>
-      <c r="AR30" s="324"/>
-      <c r="AS30" s="324"/>
-      <c r="AT30" s="324"/>
-      <c r="AU30" s="324"/>
-      <c r="AV30" s="324"/>
-      <c r="AW30" s="324"/>
-      <c r="AX30" s="324"/>
-      <c r="AY30" s="324"/>
-      <c r="AZ30" s="324"/>
-      <c r="BA30" s="324"/>
-      <c r="BB30" s="324"/>
-      <c r="BC30" s="324"/>
-      <c r="BD30" s="324"/>
-      <c r="BE30" s="324"/>
-      <c r="BF30" s="324"/>
+      <c r="A30" s="327"/>
+      <c r="B30" s="327"/>
+      <c r="C30" s="324"/>
+      <c r="D30" s="328"/>
+      <c r="E30" s="328"/>
+      <c r="F30" s="328"/>
+      <c r="G30" s="325"/>
+      <c r="H30" s="325"/>
+      <c r="I30" s="325"/>
+      <c r="J30" s="325"/>
+      <c r="K30" s="325"/>
+      <c r="L30" s="327"/>
+      <c r="M30" s="327"/>
+      <c r="N30" s="327"/>
+      <c r="O30" s="327"/>
+      <c r="P30" s="327"/>
+      <c r="Q30" s="327"/>
+      <c r="R30" s="326"/>
+      <c r="S30" s="326"/>
+      <c r="T30" s="326"/>
+      <c r="U30" s="326"/>
+      <c r="V30" s="326"/>
+      <c r="W30" s="326"/>
+      <c r="X30" s="326"/>
+      <c r="Y30" s="326"/>
+      <c r="Z30" s="326"/>
+      <c r="AA30" s="326"/>
+      <c r="AB30" s="326"/>
+      <c r="AC30" s="326"/>
+      <c r="AD30" s="326"/>
+      <c r="AE30" s="326"/>
+      <c r="AF30" s="326"/>
+      <c r="AG30" s="326"/>
+      <c r="AH30" s="326"/>
+      <c r="AI30" s="326"/>
+      <c r="AJ30" s="326"/>
+      <c r="AK30" s="326"/>
+      <c r="AL30" s="326"/>
+      <c r="AM30" s="326"/>
+      <c r="AN30" s="326"/>
+      <c r="AO30" s="326"/>
+      <c r="AP30" s="326"/>
+      <c r="AQ30" s="326"/>
+      <c r="AR30" s="326"/>
+      <c r="AS30" s="326"/>
+      <c r="AT30" s="326"/>
+      <c r="AU30" s="326"/>
+      <c r="AV30" s="326"/>
+      <c r="AW30" s="326"/>
+      <c r="AX30" s="326"/>
+      <c r="AY30" s="326"/>
+      <c r="AZ30" s="326"/>
+      <c r="BA30" s="326"/>
+      <c r="BB30" s="326"/>
+      <c r="BC30" s="326"/>
+      <c r="BD30" s="326"/>
+      <c r="BE30" s="326"/>
+      <c r="BF30" s="326"/>
     </row>
     <row r="31" spans="1:58">
-      <c r="A31" s="354"/>
-      <c r="B31" s="354"/>
-      <c r="C31" s="355"/>
-      <c r="D31" s="356"/>
-      <c r="E31" s="356"/>
-      <c r="F31" s="356"/>
-      <c r="G31" s="357"/>
-      <c r="H31" s="357"/>
-      <c r="I31" s="357"/>
-      <c r="J31" s="357"/>
-      <c r="K31" s="357"/>
-      <c r="L31" s="354"/>
-      <c r="M31" s="354"/>
-      <c r="N31" s="354"/>
-      <c r="O31" s="354"/>
-      <c r="P31" s="354"/>
-      <c r="Q31" s="354"/>
-      <c r="R31" s="324"/>
-      <c r="S31" s="324"/>
-      <c r="T31" s="324"/>
-      <c r="U31" s="324"/>
-      <c r="V31" s="324"/>
-      <c r="W31" s="324"/>
-      <c r="X31" s="324"/>
-      <c r="Y31" s="324"/>
-      <c r="Z31" s="324"/>
-      <c r="AA31" s="324"/>
-      <c r="AB31" s="324"/>
-      <c r="AC31" s="324"/>
-      <c r="AD31" s="324"/>
-      <c r="AE31" s="324"/>
-      <c r="AF31" s="324"/>
-      <c r="AG31" s="324"/>
-      <c r="AH31" s="324"/>
-      <c r="AI31" s="324"/>
-      <c r="AJ31" s="324"/>
-      <c r="AK31" s="324"/>
-      <c r="AL31" s="324"/>
-      <c r="AM31" s="324"/>
-      <c r="AN31" s="324"/>
-      <c r="AO31" s="324"/>
-      <c r="AP31" s="324"/>
-      <c r="AQ31" s="324"/>
-      <c r="AR31" s="324"/>
-      <c r="AS31" s="324"/>
-      <c r="AT31" s="324"/>
-      <c r="AU31" s="324"/>
-      <c r="AV31" s="324"/>
-      <c r="AW31" s="324"/>
-      <c r="AX31" s="324"/>
-      <c r="AY31" s="324"/>
-      <c r="AZ31" s="324"/>
-      <c r="BA31" s="324"/>
-      <c r="BB31" s="324"/>
-      <c r="BC31" s="324"/>
-      <c r="BD31" s="324"/>
-      <c r="BE31" s="324"/>
-      <c r="BF31" s="324"/>
+      <c r="A31" s="327"/>
+      <c r="B31" s="327"/>
+      <c r="C31" s="324"/>
+      <c r="D31" s="328"/>
+      <c r="E31" s="328"/>
+      <c r="F31" s="328"/>
+      <c r="G31" s="325"/>
+      <c r="H31" s="325"/>
+      <c r="I31" s="325"/>
+      <c r="J31" s="325"/>
+      <c r="K31" s="325"/>
+      <c r="L31" s="327"/>
+      <c r="M31" s="327"/>
+      <c r="N31" s="327"/>
+      <c r="O31" s="327"/>
+      <c r="P31" s="327"/>
+      <c r="Q31" s="327"/>
+      <c r="R31" s="326"/>
+      <c r="S31" s="326"/>
+      <c r="T31" s="326"/>
+      <c r="U31" s="326"/>
+      <c r="V31" s="326"/>
+      <c r="W31" s="326"/>
+      <c r="X31" s="326"/>
+      <c r="Y31" s="326"/>
+      <c r="Z31" s="326"/>
+      <c r="AA31" s="326"/>
+      <c r="AB31" s="326"/>
+      <c r="AC31" s="326"/>
+      <c r="AD31" s="326"/>
+      <c r="AE31" s="326"/>
+      <c r="AF31" s="326"/>
+      <c r="AG31" s="326"/>
+      <c r="AH31" s="326"/>
+      <c r="AI31" s="326"/>
+      <c r="AJ31" s="326"/>
+      <c r="AK31" s="326"/>
+      <c r="AL31" s="326"/>
+      <c r="AM31" s="326"/>
+      <c r="AN31" s="326"/>
+      <c r="AO31" s="326"/>
+      <c r="AP31" s="326"/>
+      <c r="AQ31" s="326"/>
+      <c r="AR31" s="326"/>
+      <c r="AS31" s="326"/>
+      <c r="AT31" s="326"/>
+      <c r="AU31" s="326"/>
+      <c r="AV31" s="326"/>
+      <c r="AW31" s="326"/>
+      <c r="AX31" s="326"/>
+      <c r="AY31" s="326"/>
+      <c r="AZ31" s="326"/>
+      <c r="BA31" s="326"/>
+      <c r="BB31" s="326"/>
+      <c r="BC31" s="326"/>
+      <c r="BD31" s="326"/>
+      <c r="BE31" s="326"/>
+      <c r="BF31" s="326"/>
     </row>
     <row r="32" spans="1:58">
-      <c r="A32" s="354"/>
-      <c r="B32" s="354"/>
-      <c r="C32" s="355"/>
-      <c r="D32" s="356"/>
-      <c r="E32" s="356"/>
-      <c r="F32" s="356"/>
-      <c r="G32" s="357"/>
-      <c r="H32" s="357"/>
-      <c r="I32" s="357"/>
-      <c r="J32" s="357"/>
-      <c r="K32" s="357"/>
-      <c r="L32" s="354"/>
-      <c r="M32" s="354"/>
-      <c r="N32" s="354"/>
-      <c r="O32" s="354"/>
-      <c r="P32" s="354"/>
-      <c r="Q32" s="354"/>
-      <c r="R32" s="324"/>
-      <c r="S32" s="324"/>
-      <c r="T32" s="324"/>
-      <c r="U32" s="324"/>
-      <c r="V32" s="324"/>
-      <c r="W32" s="324"/>
-      <c r="X32" s="324"/>
-      <c r="Y32" s="324"/>
-      <c r="Z32" s="324"/>
-      <c r="AA32" s="324"/>
-      <c r="AB32" s="324"/>
-      <c r="AC32" s="324"/>
-      <c r="AD32" s="324"/>
-      <c r="AE32" s="324"/>
-      <c r="AF32" s="324"/>
-      <c r="AG32" s="324"/>
-      <c r="AH32" s="324"/>
-      <c r="AI32" s="324"/>
-      <c r="AJ32" s="324"/>
-      <c r="AK32" s="324"/>
-      <c r="AL32" s="324"/>
-      <c r="AM32" s="324"/>
-      <c r="AN32" s="324"/>
-      <c r="AO32" s="324"/>
-      <c r="AP32" s="324"/>
-      <c r="AQ32" s="324"/>
-      <c r="AR32" s="324"/>
-      <c r="AS32" s="324"/>
-      <c r="AT32" s="324"/>
-      <c r="AU32" s="324"/>
-      <c r="AV32" s="324"/>
-      <c r="AW32" s="324"/>
-      <c r="AX32" s="324"/>
-      <c r="AY32" s="324"/>
-      <c r="AZ32" s="324"/>
-      <c r="BA32" s="324"/>
-      <c r="BB32" s="324"/>
-      <c r="BC32" s="324"/>
-      <c r="BD32" s="324"/>
-      <c r="BE32" s="324"/>
-      <c r="BF32" s="324"/>
+      <c r="A32" s="327"/>
+      <c r="B32" s="327"/>
+      <c r="C32" s="324"/>
+      <c r="D32" s="328"/>
+      <c r="E32" s="328"/>
+      <c r="F32" s="328"/>
+      <c r="G32" s="325"/>
+      <c r="H32" s="325"/>
+      <c r="I32" s="325"/>
+      <c r="J32" s="325"/>
+      <c r="K32" s="325"/>
+      <c r="L32" s="327"/>
+      <c r="M32" s="327"/>
+      <c r="N32" s="327"/>
+      <c r="O32" s="327"/>
+      <c r="P32" s="327"/>
+      <c r="Q32" s="327"/>
+      <c r="R32" s="326"/>
+      <c r="S32" s="326"/>
+      <c r="T32" s="326"/>
+      <c r="U32" s="326"/>
+      <c r="V32" s="326"/>
+      <c r="W32" s="326"/>
+      <c r="X32" s="326"/>
+      <c r="Y32" s="326"/>
+      <c r="Z32" s="326"/>
+      <c r="AA32" s="326"/>
+      <c r="AB32" s="326"/>
+      <c r="AC32" s="326"/>
+      <c r="AD32" s="326"/>
+      <c r="AE32" s="326"/>
+      <c r="AF32" s="326"/>
+      <c r="AG32" s="326"/>
+      <c r="AH32" s="326"/>
+      <c r="AI32" s="326"/>
+      <c r="AJ32" s="326"/>
+      <c r="AK32" s="326"/>
+      <c r="AL32" s="326"/>
+      <c r="AM32" s="326"/>
+      <c r="AN32" s="326"/>
+      <c r="AO32" s="326"/>
+      <c r="AP32" s="326"/>
+      <c r="AQ32" s="326"/>
+      <c r="AR32" s="326"/>
+      <c r="AS32" s="326"/>
+      <c r="AT32" s="326"/>
+      <c r="AU32" s="326"/>
+      <c r="AV32" s="326"/>
+      <c r="AW32" s="326"/>
+      <c r="AX32" s="326"/>
+      <c r="AY32" s="326"/>
+      <c r="AZ32" s="326"/>
+      <c r="BA32" s="326"/>
+      <c r="BB32" s="326"/>
+      <c r="BC32" s="326"/>
+      <c r="BD32" s="326"/>
+      <c r="BE32" s="326"/>
+      <c r="BF32" s="326"/>
     </row>
     <row r="33" spans="1:58">
-      <c r="A33" s="354"/>
-      <c r="B33" s="354"/>
-      <c r="C33" s="355"/>
-      <c r="D33" s="356"/>
-      <c r="E33" s="356"/>
-      <c r="F33" s="356"/>
-      <c r="G33" s="357"/>
-      <c r="H33" s="357"/>
-      <c r="I33" s="357"/>
-      <c r="J33" s="357"/>
-      <c r="K33" s="357"/>
-      <c r="L33" s="354"/>
-      <c r="M33" s="354"/>
-      <c r="N33" s="354"/>
-      <c r="O33" s="354"/>
-      <c r="P33" s="354"/>
-      <c r="Q33" s="354"/>
-      <c r="R33" s="324"/>
-      <c r="S33" s="324"/>
-      <c r="T33" s="324"/>
-      <c r="U33" s="324"/>
-      <c r="V33" s="324"/>
-      <c r="W33" s="324"/>
-      <c r="X33" s="324"/>
-      <c r="Y33" s="324"/>
-      <c r="Z33" s="324"/>
-      <c r="AA33" s="324"/>
-      <c r="AB33" s="324"/>
-      <c r="AC33" s="324"/>
-      <c r="AD33" s="324"/>
-      <c r="AE33" s="324"/>
-      <c r="AF33" s="324"/>
-      <c r="AG33" s="324"/>
-      <c r="AH33" s="324"/>
-      <c r="AI33" s="324"/>
-      <c r="AJ33" s="324"/>
-      <c r="AK33" s="324"/>
-      <c r="AL33" s="324"/>
-      <c r="AM33" s="324"/>
-      <c r="AN33" s="324"/>
-      <c r="AO33" s="324"/>
-      <c r="AP33" s="324"/>
-      <c r="AQ33" s="324"/>
-      <c r="AR33" s="324"/>
-      <c r="AS33" s="324"/>
-      <c r="AT33" s="324"/>
-      <c r="AU33" s="324"/>
-      <c r="AV33" s="324"/>
-      <c r="AW33" s="324"/>
-      <c r="AX33" s="324"/>
-      <c r="AY33" s="324"/>
-      <c r="AZ33" s="324"/>
-      <c r="BA33" s="324"/>
-      <c r="BB33" s="324"/>
-      <c r="BC33" s="324"/>
-      <c r="BD33" s="324"/>
-      <c r="BE33" s="324"/>
-      <c r="BF33" s="324"/>
+      <c r="A33" s="327"/>
+      <c r="B33" s="327"/>
+      <c r="C33" s="324"/>
+      <c r="D33" s="328"/>
+      <c r="E33" s="328"/>
+      <c r="F33" s="328"/>
+      <c r="G33" s="325"/>
+      <c r="H33" s="325"/>
+      <c r="I33" s="325"/>
+      <c r="J33" s="325"/>
+      <c r="K33" s="325"/>
+      <c r="L33" s="327"/>
+      <c r="M33" s="327"/>
+      <c r="N33" s="327"/>
+      <c r="O33" s="327"/>
+      <c r="P33" s="327"/>
+      <c r="Q33" s="327"/>
+      <c r="R33" s="326"/>
+      <c r="S33" s="326"/>
+      <c r="T33" s="326"/>
+      <c r="U33" s="326"/>
+      <c r="V33" s="326"/>
+      <c r="W33" s="326"/>
+      <c r="X33" s="326"/>
+      <c r="Y33" s="326"/>
+      <c r="Z33" s="326"/>
+      <c r="AA33" s="326"/>
+      <c r="AB33" s="326"/>
+      <c r="AC33" s="326"/>
+      <c r="AD33" s="326"/>
+      <c r="AE33" s="326"/>
+      <c r="AF33" s="326"/>
+      <c r="AG33" s="326"/>
+      <c r="AH33" s="326"/>
+      <c r="AI33" s="326"/>
+      <c r="AJ33" s="326"/>
+      <c r="AK33" s="326"/>
+      <c r="AL33" s="326"/>
+      <c r="AM33" s="326"/>
+      <c r="AN33" s="326"/>
+      <c r="AO33" s="326"/>
+      <c r="AP33" s="326"/>
+      <c r="AQ33" s="326"/>
+      <c r="AR33" s="326"/>
+      <c r="AS33" s="326"/>
+      <c r="AT33" s="326"/>
+      <c r="AU33" s="326"/>
+      <c r="AV33" s="326"/>
+      <c r="AW33" s="326"/>
+      <c r="AX33" s="326"/>
+      <c r="AY33" s="326"/>
+      <c r="AZ33" s="326"/>
+      <c r="BA33" s="326"/>
+      <c r="BB33" s="326"/>
+      <c r="BC33" s="326"/>
+      <c r="BD33" s="326"/>
+      <c r="BE33" s="326"/>
+      <c r="BF33" s="326"/>
     </row>
   </sheetData>
   <mergeCells count="182">
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="R26:AA26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="R27:AA27"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="R28:AA28"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="R29:AA29"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="R30:AA30"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="R32:AA32"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="R33:AA33"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="R31:AA31"/>
-    <mergeCell ref="L31:Q31"/>
-    <mergeCell ref="L32:Q32"/>
-    <mergeCell ref="L33:Q33"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="R23:AA23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="R24:AA24"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="R25:AA25"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="R20:AA20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="R21:AA21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="R22:AA22"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="R17:AA17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="R18:AA18"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="R19:AA19"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="R14:AA14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="R15:AA15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="R16:AA16"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="R9:AA9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="R10:AA10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="R11:AA11"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="R6:AA6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="R7:AA7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="R8:AA8"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="AB17:BF17"/>
+    <mergeCell ref="AB18:BF18"/>
+    <mergeCell ref="AB19:BF19"/>
+    <mergeCell ref="AB20:BF20"/>
+    <mergeCell ref="AB21:BF21"/>
+    <mergeCell ref="AB22:BF22"/>
+    <mergeCell ref="AB32:BF32"/>
+    <mergeCell ref="AB33:BF33"/>
+    <mergeCell ref="AB23:BF23"/>
+    <mergeCell ref="AB24:BF24"/>
+    <mergeCell ref="AB25:BF25"/>
+    <mergeCell ref="AB26:BF26"/>
+    <mergeCell ref="AB27:BF27"/>
+    <mergeCell ref="AB28:BF28"/>
+    <mergeCell ref="AB29:BF29"/>
+    <mergeCell ref="AB30:BF30"/>
+    <mergeCell ref="AB31:BF31"/>
+    <mergeCell ref="AB6:BF6"/>
+    <mergeCell ref="AB7:BF7"/>
+    <mergeCell ref="AB8:BF8"/>
+    <mergeCell ref="AB9:BF9"/>
+    <mergeCell ref="AB10:BF10"/>
+    <mergeCell ref="AB11:BF11"/>
+    <mergeCell ref="AB14:BF14"/>
+    <mergeCell ref="AB15:BF15"/>
+    <mergeCell ref="AB16:BF16"/>
     <mergeCell ref="BB3:BF3"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:F5"/>
@@ -10006,32 +9900,138 @@
     <mergeCell ref="L5:Q5"/>
     <mergeCell ref="AW3:BA3"/>
     <mergeCell ref="AB5:BF5"/>
-    <mergeCell ref="AB6:BF6"/>
-    <mergeCell ref="AB7:BF7"/>
-    <mergeCell ref="AB8:BF8"/>
-    <mergeCell ref="AB9:BF9"/>
-    <mergeCell ref="AB10:BF10"/>
-    <mergeCell ref="AB11:BF11"/>
-    <mergeCell ref="AB14:BF14"/>
-    <mergeCell ref="AB15:BF15"/>
-    <mergeCell ref="AB16:BF16"/>
-    <mergeCell ref="AB17:BF17"/>
-    <mergeCell ref="AB18:BF18"/>
-    <mergeCell ref="AB19:BF19"/>
-    <mergeCell ref="AB20:BF20"/>
-    <mergeCell ref="AB21:BF21"/>
-    <mergeCell ref="AB22:BF22"/>
-    <mergeCell ref="AB32:BF32"/>
-    <mergeCell ref="AB33:BF33"/>
-    <mergeCell ref="AB23:BF23"/>
-    <mergeCell ref="AB24:BF24"/>
-    <mergeCell ref="AB25:BF25"/>
-    <mergeCell ref="AB26:BF26"/>
-    <mergeCell ref="AB27:BF27"/>
-    <mergeCell ref="AB28:BF28"/>
-    <mergeCell ref="AB29:BF29"/>
-    <mergeCell ref="AB30:BF30"/>
-    <mergeCell ref="AB31:BF31"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="R6:AA6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="R7:AA7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="R8:AA8"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="R9:AA9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="R10:AA10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="R11:AA11"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="R14:AA14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="R15:AA15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="R16:AA16"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="R17:AA17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="R18:AA18"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="R19:AA19"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="R20:AA20"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="R21:AA21"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="R22:AA22"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="R23:AA23"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="R24:AA24"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="R25:AA25"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="R32:AA32"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="R33:AA33"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="R31:AA31"/>
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="L32:Q32"/>
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="R30:AA30"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="R26:AA26"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="R27:AA27"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="R28:AA28"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="R29:AA29"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.6692913385826772" bottom="0.43307086614173229" header="0.39370078740157483" footer="0.27559055118110237"/>
@@ -10061,255 +10061,255 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A1" s="363" t="s">
+      <c r="A1" s="360" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="330"/>
-      <c r="C1" s="330"/>
-      <c r="D1" s="330"/>
-      <c r="E1" s="330"/>
-      <c r="F1" s="330"/>
-      <c r="G1" s="330"/>
-      <c r="H1" s="330"/>
-      <c r="I1" s="330" t="s">
+      <c r="B1" s="342"/>
+      <c r="C1" s="342"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="342"/>
+      <c r="G1" s="342"/>
+      <c r="H1" s="342"/>
+      <c r="I1" s="342" t="s">
         <v>256</v>
       </c>
-      <c r="J1" s="330"/>
-      <c r="K1" s="330"/>
-      <c r="L1" s="330"/>
-      <c r="M1" s="330"/>
-      <c r="N1" s="330"/>
-      <c r="O1" s="330"/>
-      <c r="P1" s="330"/>
-      <c r="Q1" s="330"/>
-      <c r="R1" s="330"/>
-      <c r="S1" s="330"/>
-      <c r="T1" s="330" t="s">
+      <c r="J1" s="342"/>
+      <c r="K1" s="342"/>
+      <c r="L1" s="342"/>
+      <c r="M1" s="342"/>
+      <c r="N1" s="342"/>
+      <c r="O1" s="342"/>
+      <c r="P1" s="342"/>
+      <c r="Q1" s="342"/>
+      <c r="R1" s="342"/>
+      <c r="S1" s="342"/>
+      <c r="T1" s="342" t="s">
         <v>257</v>
       </c>
-      <c r="U1" s="330"/>
-      <c r="V1" s="330"/>
-      <c r="W1" s="330"/>
-      <c r="X1" s="330"/>
-      <c r="Y1" s="330"/>
-      <c r="Z1" s="330"/>
-      <c r="AA1" s="330" t="s">
+      <c r="U1" s="342"/>
+      <c r="V1" s="342"/>
+      <c r="W1" s="342"/>
+      <c r="X1" s="342"/>
+      <c r="Y1" s="342"/>
+      <c r="Z1" s="342"/>
+      <c r="AA1" s="342" t="s">
         <v>270</v>
       </c>
-      <c r="AB1" s="330"/>
-      <c r="AC1" s="330"/>
-      <c r="AD1" s="330"/>
-      <c r="AE1" s="330"/>
-      <c r="AF1" s="330"/>
-      <c r="AG1" s="330"/>
-      <c r="AH1" s="330"/>
-      <c r="AI1" s="330"/>
-      <c r="AJ1" s="330"/>
-      <c r="AK1" s="330"/>
-      <c r="AL1" s="330"/>
-      <c r="AM1" s="330"/>
-      <c r="AN1" s="330"/>
-      <c r="AO1" s="330"/>
-      <c r="AP1" s="330"/>
-      <c r="AQ1" s="330"/>
-      <c r="AR1" s="330" t="s">
+      <c r="AB1" s="342"/>
+      <c r="AC1" s="342"/>
+      <c r="AD1" s="342"/>
+      <c r="AE1" s="342"/>
+      <c r="AF1" s="342"/>
+      <c r="AG1" s="342"/>
+      <c r="AH1" s="342"/>
+      <c r="AI1" s="342"/>
+      <c r="AJ1" s="342"/>
+      <c r="AK1" s="342"/>
+      <c r="AL1" s="342"/>
+      <c r="AM1" s="342"/>
+      <c r="AN1" s="342"/>
+      <c r="AO1" s="342"/>
+      <c r="AP1" s="342"/>
+      <c r="AQ1" s="342"/>
+      <c r="AR1" s="342" t="s">
         <v>282</v>
       </c>
-      <c r="AS1" s="330"/>
-      <c r="AT1" s="330"/>
-      <c r="AU1" s="330"/>
-      <c r="AV1" s="330"/>
-      <c r="AW1" s="344" t="s">
+      <c r="AS1" s="342"/>
+      <c r="AT1" s="342"/>
+      <c r="AU1" s="342"/>
+      <c r="AV1" s="342"/>
+      <c r="AW1" s="355" t="s">
         <v>261</v>
       </c>
-      <c r="AX1" s="344"/>
-      <c r="AY1" s="330"/>
-      <c r="AZ1" s="330"/>
-      <c r="BA1" s="330"/>
-      <c r="BB1" s="330" t="s">
+      <c r="AX1" s="355"/>
+      <c r="AY1" s="342"/>
+      <c r="AZ1" s="342"/>
+      <c r="BA1" s="342"/>
+      <c r="BB1" s="342" t="s">
         <v>272</v>
       </c>
-      <c r="BC1" s="330"/>
-      <c r="BD1" s="330"/>
-      <c r="BE1" s="330"/>
-      <c r="BF1" s="330"/>
+      <c r="BC1" s="342"/>
+      <c r="BD1" s="342"/>
+      <c r="BE1" s="342"/>
+      <c r="BF1" s="342"/>
     </row>
     <row r="2" spans="1:58" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A2" s="334" t="s">
+      <c r="A2" s="346" t="s">
         <v>273</v>
       </c>
-      <c r="B2" s="334"/>
-      <c r="C2" s="334"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="334"/>
-      <c r="F2" s="334"/>
-      <c r="G2" s="334"/>
-      <c r="H2" s="334"/>
-      <c r="I2" s="334" t="str">
+      <c r="B2" s="346"/>
+      <c r="C2" s="346"/>
+      <c r="D2" s="346"/>
+      <c r="E2" s="346"/>
+      <c r="F2" s="346"/>
+      <c r="G2" s="346"/>
+      <c r="H2" s="346"/>
+      <c r="I2" s="346" t="str">
         <f>Cover!I12</f>
         <v>Manage Student</v>
       </c>
-      <c r="J2" s="334"/>
-      <c r="K2" s="334"/>
-      <c r="L2" s="334"/>
-      <c r="M2" s="334"/>
-      <c r="N2" s="334"/>
-      <c r="O2" s="334"/>
-      <c r="P2" s="334"/>
-      <c r="Q2" s="334"/>
-      <c r="R2" s="334"/>
-      <c r="S2" s="334"/>
-      <c r="T2" s="334" t="str">
+      <c r="J2" s="346"/>
+      <c r="K2" s="346"/>
+      <c r="L2" s="346"/>
+      <c r="M2" s="346"/>
+      <c r="N2" s="346"/>
+      <c r="O2" s="346"/>
+      <c r="P2" s="346"/>
+      <c r="Q2" s="346"/>
+      <c r="R2" s="346"/>
+      <c r="S2" s="346"/>
+      <c r="T2" s="346" t="str">
         <f>Cover!I15</f>
         <v>GMO_management_Student</v>
       </c>
-      <c r="U2" s="334"/>
-      <c r="V2" s="334"/>
-      <c r="W2" s="334"/>
-      <c r="X2" s="334"/>
-      <c r="Y2" s="334"/>
-      <c r="Z2" s="334"/>
-      <c r="AA2" s="335" t="str">
+      <c r="U2" s="346"/>
+      <c r="V2" s="346"/>
+      <c r="W2" s="346"/>
+      <c r="X2" s="346"/>
+      <c r="Y2" s="346"/>
+      <c r="Z2" s="346"/>
+      <c r="AA2" s="329" t="str">
         <f>Cover!R19</f>
         <v>Add student</v>
       </c>
-      <c r="AB2" s="335"/>
-      <c r="AC2" s="335"/>
-      <c r="AD2" s="335"/>
-      <c r="AE2" s="335"/>
-      <c r="AF2" s="335"/>
-      <c r="AG2" s="335"/>
-      <c r="AH2" s="335"/>
-      <c r="AI2" s="335"/>
-      <c r="AJ2" s="335"/>
-      <c r="AK2" s="335"/>
-      <c r="AL2" s="335"/>
-      <c r="AM2" s="335"/>
-      <c r="AN2" s="335"/>
-      <c r="AO2" s="335"/>
-      <c r="AP2" s="335"/>
-      <c r="AQ2" s="335"/>
-      <c r="AR2" s="336" t="str">
+      <c r="AB2" s="329"/>
+      <c r="AC2" s="329"/>
+      <c r="AD2" s="329"/>
+      <c r="AE2" s="329"/>
+      <c r="AF2" s="329"/>
+      <c r="AG2" s="329"/>
+      <c r="AH2" s="329"/>
+      <c r="AI2" s="329"/>
+      <c r="AJ2" s="329"/>
+      <c r="AK2" s="329"/>
+      <c r="AL2" s="329"/>
+      <c r="AM2" s="329"/>
+      <c r="AN2" s="329"/>
+      <c r="AO2" s="329"/>
+      <c r="AP2" s="329"/>
+      <c r="AQ2" s="329"/>
+      <c r="AR2" s="347" t="str">
         <f>Cover!I19</f>
         <v>0-0</v>
       </c>
-      <c r="AS2" s="335"/>
-      <c r="AT2" s="335"/>
-      <c r="AU2" s="335"/>
-      <c r="AV2" s="335"/>
-      <c r="AW2" s="335" t="s">
+      <c r="AS2" s="329"/>
+      <c r="AT2" s="329"/>
+      <c r="AU2" s="329"/>
+      <c r="AV2" s="329"/>
+      <c r="AW2" s="329" t="s">
         <v>267</v>
       </c>
-      <c r="AX2" s="335" t="s">
+      <c r="AX2" s="329" t="s">
         <v>171</v>
       </c>
-      <c r="AY2" s="335" t="s">
+      <c r="AY2" s="329" t="s">
         <v>171</v>
       </c>
-      <c r="AZ2" s="335" t="s">
+      <c r="AZ2" s="329" t="s">
         <v>171</v>
       </c>
-      <c r="BA2" s="335" t="s">
+      <c r="BA2" s="329" t="s">
         <v>171</v>
       </c>
-      <c r="BB2" s="335" t="s">
+      <c r="BB2" s="329" t="s">
         <v>267</v>
       </c>
-      <c r="BC2" s="335" t="s">
+      <c r="BC2" s="329" t="s">
         <v>171</v>
       </c>
-      <c r="BD2" s="335" t="s">
+      <c r="BD2" s="329" t="s">
         <v>171</v>
       </c>
-      <c r="BE2" s="335" t="s">
+      <c r="BE2" s="329" t="s">
         <v>171</v>
       </c>
-      <c r="BF2" s="335" t="s">
+      <c r="BF2" s="329" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:58" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A3" s="334"/>
-      <c r="B3" s="334"/>
-      <c r="C3" s="334"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="334"/>
-      <c r="F3" s="334"/>
-      <c r="G3" s="334"/>
-      <c r="H3" s="334"/>
-      <c r="I3" s="334"/>
-      <c r="J3" s="334"/>
-      <c r="K3" s="334"/>
-      <c r="L3" s="334"/>
-      <c r="M3" s="334"/>
-      <c r="N3" s="334"/>
-      <c r="O3" s="334"/>
-      <c r="P3" s="334"/>
-      <c r="Q3" s="334"/>
-      <c r="R3" s="334"/>
-      <c r="S3" s="334"/>
-      <c r="T3" s="334"/>
-      <c r="U3" s="334"/>
-      <c r="V3" s="334"/>
-      <c r="W3" s="334"/>
-      <c r="X3" s="334"/>
-      <c r="Y3" s="334"/>
-      <c r="Z3" s="334"/>
-      <c r="AA3" s="330" t="s">
+      <c r="A3" s="346"/>
+      <c r="B3" s="346"/>
+      <c r="C3" s="346"/>
+      <c r="D3" s="346"/>
+      <c r="E3" s="346"/>
+      <c r="F3" s="346"/>
+      <c r="G3" s="346"/>
+      <c r="H3" s="346"/>
+      <c r="I3" s="346"/>
+      <c r="J3" s="346"/>
+      <c r="K3" s="346"/>
+      <c r="L3" s="346"/>
+      <c r="M3" s="346"/>
+      <c r="N3" s="346"/>
+      <c r="O3" s="346"/>
+      <c r="P3" s="346"/>
+      <c r="Q3" s="346"/>
+      <c r="R3" s="346"/>
+      <c r="S3" s="346"/>
+      <c r="T3" s="346"/>
+      <c r="U3" s="346"/>
+      <c r="V3" s="346"/>
+      <c r="W3" s="346"/>
+      <c r="X3" s="346"/>
+      <c r="Y3" s="346"/>
+      <c r="Z3" s="346"/>
+      <c r="AA3" s="342" t="s">
         <v>274</v>
       </c>
-      <c r="AB3" s="330"/>
-      <c r="AC3" s="330"/>
-      <c r="AD3" s="330"/>
-      <c r="AE3" s="330"/>
-      <c r="AF3" s="330"/>
-      <c r="AG3" s="339" t="str">
+      <c r="AB3" s="342"/>
+      <c r="AC3" s="342"/>
+      <c r="AD3" s="342"/>
+      <c r="AE3" s="342"/>
+      <c r="AF3" s="342"/>
+      <c r="AG3" s="350" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Layout</v>
       </c>
-      <c r="AH3" s="340"/>
-      <c r="AI3" s="340"/>
-      <c r="AJ3" s="340"/>
-      <c r="AK3" s="340"/>
-      <c r="AL3" s="340"/>
-      <c r="AM3" s="340"/>
-      <c r="AN3" s="340"/>
-      <c r="AO3" s="340"/>
-      <c r="AP3" s="340"/>
-      <c r="AQ3" s="340"/>
-      <c r="AR3" s="340"/>
-      <c r="AS3" s="340"/>
-      <c r="AT3" s="340"/>
-      <c r="AU3" s="340"/>
-      <c r="AV3" s="341"/>
-      <c r="AW3" s="361">
+      <c r="AH3" s="351"/>
+      <c r="AI3" s="351"/>
+      <c r="AJ3" s="351"/>
+      <c r="AK3" s="351"/>
+      <c r="AL3" s="351"/>
+      <c r="AM3" s="351"/>
+      <c r="AN3" s="351"/>
+      <c r="AO3" s="351"/>
+      <c r="AP3" s="351"/>
+      <c r="AQ3" s="351"/>
+      <c r="AR3" s="351"/>
+      <c r="AS3" s="351"/>
+      <c r="AT3" s="351"/>
+      <c r="AU3" s="351"/>
+      <c r="AV3" s="352"/>
+      <c r="AW3" s="359">
         <v>44504</v>
       </c>
-      <c r="AX3" s="361">
+      <c r="AX3" s="359">
         <v>44147</v>
       </c>
-      <c r="AY3" s="361">
+      <c r="AY3" s="359">
         <v>44147</v>
       </c>
-      <c r="AZ3" s="361">
+      <c r="AZ3" s="359">
         <v>44147</v>
       </c>
-      <c r="BA3" s="361">
+      <c r="BA3" s="359">
         <v>44147</v>
       </c>
-      <c r="BB3" s="361">
+      <c r="BB3" s="359">
         <v>44504</v>
       </c>
-      <c r="BC3" s="361">
+      <c r="BC3" s="359">
         <v>44147</v>
       </c>
-      <c r="BD3" s="361">
+      <c r="BD3" s="359">
         <v>44147</v>
       </c>
-      <c r="BE3" s="361">
+      <c r="BE3" s="359">
         <v>44147</v>
       </c>
-      <c r="BF3" s="361">
+      <c r="BF3" s="359">
         <v>44147</v>
       </c>
     </row>
@@ -10423,22 +10423,22 @@
       <c r="AP6" s="81"/>
       <c r="AQ6" s="81"/>
       <c r="AR6" s="81"/>
-      <c r="AS6" s="358" t="s">
+      <c r="AS6" s="361" t="s">
         <v>283</v>
       </c>
-      <c r="AT6" s="359"/>
-      <c r="AU6" s="359"/>
-      <c r="AV6" s="359"/>
-      <c r="AW6" s="359"/>
-      <c r="AX6" s="359"/>
-      <c r="AY6" s="359"/>
-      <c r="AZ6" s="359"/>
-      <c r="BA6" s="359"/>
-      <c r="BB6" s="359"/>
-      <c r="BC6" s="359"/>
-      <c r="BD6" s="359"/>
-      <c r="BE6" s="359"/>
-      <c r="BF6" s="360"/>
+      <c r="AT6" s="362"/>
+      <c r="AU6" s="362"/>
+      <c r="AV6" s="362"/>
+      <c r="AW6" s="362"/>
+      <c r="AX6" s="362"/>
+      <c r="AY6" s="362"/>
+      <c r="AZ6" s="362"/>
+      <c r="BA6" s="362"/>
+      <c r="BB6" s="362"/>
+      <c r="BC6" s="362"/>
+      <c r="BD6" s="362"/>
+      <c r="BE6" s="362"/>
+      <c r="BF6" s="363"/>
     </row>
     <row r="7" spans="1:58" ht="13.5" customHeight="1">
       <c r="A7" s="80"/>
@@ -10485,20 +10485,20 @@
       <c r="AP7" s="81"/>
       <c r="AQ7" s="81"/>
       <c r="AR7" s="81"/>
-      <c r="AS7" s="358"/>
-      <c r="AT7" s="359"/>
-      <c r="AU7" s="359"/>
-      <c r="AV7" s="359"/>
-      <c r="AW7" s="359"/>
-      <c r="AX7" s="359"/>
-      <c r="AY7" s="359"/>
-      <c r="AZ7" s="359"/>
-      <c r="BA7" s="359"/>
-      <c r="BB7" s="359"/>
-      <c r="BC7" s="359"/>
-      <c r="BD7" s="359"/>
-      <c r="BE7" s="359"/>
-      <c r="BF7" s="360"/>
+      <c r="AS7" s="361"/>
+      <c r="AT7" s="362"/>
+      <c r="AU7" s="362"/>
+      <c r="AV7" s="362"/>
+      <c r="AW7" s="362"/>
+      <c r="AX7" s="362"/>
+      <c r="AY7" s="362"/>
+      <c r="AZ7" s="362"/>
+      <c r="BA7" s="362"/>
+      <c r="BB7" s="362"/>
+      <c r="BC7" s="362"/>
+      <c r="BD7" s="362"/>
+      <c r="BE7" s="362"/>
+      <c r="BF7" s="363"/>
     </row>
     <row r="8" spans="1:58" ht="13.5" customHeight="1">
       <c r="A8" s="80"/>
@@ -10507,16 +10507,16 @@
       <c r="D8" s="96"/>
       <c r="E8" s="96"/>
       <c r="F8" s="96"/>
-      <c r="G8" s="362"/>
-      <c r="H8" s="362"/>
-      <c r="I8" s="362"/>
-      <c r="J8" s="362"/>
-      <c r="K8" s="362"/>
-      <c r="L8" s="362"/>
-      <c r="M8" s="362"/>
-      <c r="N8" s="362"/>
-      <c r="O8" s="362"/>
-      <c r="P8" s="362"/>
+      <c r="G8" s="358"/>
+      <c r="H8" s="358"/>
+      <c r="I8" s="358"/>
+      <c r="J8" s="358"/>
+      <c r="K8" s="358"/>
+      <c r="L8" s="358"/>
+      <c r="M8" s="358"/>
+      <c r="N8" s="358"/>
+      <c r="O8" s="358"/>
+      <c r="P8" s="358"/>
       <c r="Q8" s="96"/>
       <c r="R8" s="96"/>
       <c r="S8" s="96"/>
@@ -10545,20 +10545,20 @@
       <c r="AP8" s="81"/>
       <c r="AQ8" s="81"/>
       <c r="AR8" s="81"/>
-      <c r="AS8" s="358"/>
-      <c r="AT8" s="359"/>
-      <c r="AU8" s="359"/>
-      <c r="AV8" s="359"/>
-      <c r="AW8" s="359"/>
-      <c r="AX8" s="359"/>
-      <c r="AY8" s="359"/>
-      <c r="AZ8" s="359"/>
-      <c r="BA8" s="359"/>
-      <c r="BB8" s="359"/>
-      <c r="BC8" s="359"/>
-      <c r="BD8" s="359"/>
-      <c r="BE8" s="359"/>
-      <c r="BF8" s="360"/>
+      <c r="AS8" s="361"/>
+      <c r="AT8" s="362"/>
+      <c r="AU8" s="362"/>
+      <c r="AV8" s="362"/>
+      <c r="AW8" s="362"/>
+      <c r="AX8" s="362"/>
+      <c r="AY8" s="362"/>
+      <c r="AZ8" s="362"/>
+      <c r="BA8" s="362"/>
+      <c r="BB8" s="362"/>
+      <c r="BC8" s="362"/>
+      <c r="BD8" s="362"/>
+      <c r="BE8" s="362"/>
+      <c r="BF8" s="363"/>
     </row>
     <row r="9" spans="1:58" ht="13.5" customHeight="1">
       <c r="A9" s="80"/>
@@ -10605,20 +10605,20 @@
       <c r="AP9" s="81"/>
       <c r="AQ9" s="81"/>
       <c r="AR9" s="81"/>
-      <c r="AS9" s="358"/>
-      <c r="AT9" s="359"/>
-      <c r="AU9" s="359"/>
-      <c r="AV9" s="359"/>
-      <c r="AW9" s="359"/>
-      <c r="AX9" s="359"/>
-      <c r="AY9" s="359"/>
-      <c r="AZ9" s="359"/>
-      <c r="BA9" s="359"/>
-      <c r="BB9" s="359"/>
-      <c r="BC9" s="359"/>
-      <c r="BD9" s="359"/>
-      <c r="BE9" s="359"/>
-      <c r="BF9" s="360"/>
+      <c r="AS9" s="361"/>
+      <c r="AT9" s="362"/>
+      <c r="AU9" s="362"/>
+      <c r="AV9" s="362"/>
+      <c r="AW9" s="362"/>
+      <c r="AX9" s="362"/>
+      <c r="AY9" s="362"/>
+      <c r="AZ9" s="362"/>
+      <c r="BA9" s="362"/>
+      <c r="BB9" s="362"/>
+      <c r="BC9" s="362"/>
+      <c r="BD9" s="362"/>
+      <c r="BE9" s="362"/>
+      <c r="BF9" s="363"/>
     </row>
     <row r="10" spans="1:58" ht="13.5" customHeight="1">
       <c r="A10" s="80"/>
@@ -10627,16 +10627,16 @@
       <c r="D10" s="96"/>
       <c r="E10" s="96"/>
       <c r="F10" s="96"/>
-      <c r="G10" s="362"/>
-      <c r="H10" s="362"/>
-      <c r="I10" s="362"/>
-      <c r="J10" s="362"/>
-      <c r="K10" s="362"/>
-      <c r="L10" s="362"/>
-      <c r="M10" s="362"/>
-      <c r="N10" s="362"/>
-      <c r="O10" s="362"/>
-      <c r="P10" s="362"/>
+      <c r="G10" s="358"/>
+      <c r="H10" s="358"/>
+      <c r="I10" s="358"/>
+      <c r="J10" s="358"/>
+      <c r="K10" s="358"/>
+      <c r="L10" s="358"/>
+      <c r="M10" s="358"/>
+      <c r="N10" s="358"/>
+      <c r="O10" s="358"/>
+      <c r="P10" s="358"/>
       <c r="Q10" s="96"/>
       <c r="R10" s="96"/>
       <c r="S10" s="96"/>
@@ -10665,20 +10665,20 @@
       <c r="AP10" s="81"/>
       <c r="AQ10" s="81"/>
       <c r="AR10" s="81"/>
-      <c r="AS10" s="358"/>
-      <c r="AT10" s="359"/>
-      <c r="AU10" s="359"/>
-      <c r="AV10" s="359"/>
-      <c r="AW10" s="359"/>
-      <c r="AX10" s="359"/>
-      <c r="AY10" s="359"/>
-      <c r="AZ10" s="359"/>
-      <c r="BA10" s="359"/>
-      <c r="BB10" s="359"/>
-      <c r="BC10" s="359"/>
-      <c r="BD10" s="359"/>
-      <c r="BE10" s="359"/>
-      <c r="BF10" s="360"/>
+      <c r="AS10" s="361"/>
+      <c r="AT10" s="362"/>
+      <c r="AU10" s="362"/>
+      <c r="AV10" s="362"/>
+      <c r="AW10" s="362"/>
+      <c r="AX10" s="362"/>
+      <c r="AY10" s="362"/>
+      <c r="AZ10" s="362"/>
+      <c r="BA10" s="362"/>
+      <c r="BB10" s="362"/>
+      <c r="BC10" s="362"/>
+      <c r="BD10" s="362"/>
+      <c r="BE10" s="362"/>
+      <c r="BF10" s="363"/>
     </row>
     <row r="11" spans="1:58" ht="13.5" customHeight="1">
       <c r="A11" s="80"/>
@@ -10725,20 +10725,20 @@
       <c r="AP11" s="81"/>
       <c r="AQ11" s="81"/>
       <c r="AR11" s="81"/>
-      <c r="AS11" s="358"/>
-      <c r="AT11" s="359"/>
-      <c r="AU11" s="359"/>
-      <c r="AV11" s="359"/>
-      <c r="AW11" s="359"/>
-      <c r="AX11" s="359"/>
-      <c r="AY11" s="359"/>
-      <c r="AZ11" s="359"/>
-      <c r="BA11" s="359"/>
-      <c r="BB11" s="359"/>
-      <c r="BC11" s="359"/>
-      <c r="BD11" s="359"/>
-      <c r="BE11" s="359"/>
-      <c r="BF11" s="360"/>
+      <c r="AS11" s="361"/>
+      <c r="AT11" s="362"/>
+      <c r="AU11" s="362"/>
+      <c r="AV11" s="362"/>
+      <c r="AW11" s="362"/>
+      <c r="AX11" s="362"/>
+      <c r="AY11" s="362"/>
+      <c r="AZ11" s="362"/>
+      <c r="BA11" s="362"/>
+      <c r="BB11" s="362"/>
+      <c r="BC11" s="362"/>
+      <c r="BD11" s="362"/>
+      <c r="BE11" s="362"/>
+      <c r="BF11" s="363"/>
     </row>
     <row r="12" spans="1:58" ht="13.5" customHeight="1">
       <c r="A12" s="80"/>
@@ -10747,9 +10747,9 @@
       <c r="D12" s="96"/>
       <c r="E12" s="96"/>
       <c r="F12" s="96"/>
-      <c r="G12" s="362"/>
-      <c r="H12" s="362"/>
-      <c r="I12" s="362"/>
+      <c r="G12" s="358"/>
+      <c r="H12" s="358"/>
+      <c r="I12" s="358"/>
       <c r="J12" s="96"/>
       <c r="K12" s="96"/>
       <c r="L12" s="96"/>
@@ -10785,20 +10785,20 @@
       <c r="AP12" s="81"/>
       <c r="AQ12" s="81"/>
       <c r="AR12" s="81"/>
-      <c r="AS12" s="358"/>
-      <c r="AT12" s="359"/>
-      <c r="AU12" s="359"/>
-      <c r="AV12" s="359"/>
-      <c r="AW12" s="359"/>
-      <c r="AX12" s="359"/>
-      <c r="AY12" s="359"/>
-      <c r="AZ12" s="359"/>
-      <c r="BA12" s="359"/>
-      <c r="BB12" s="359"/>
-      <c r="BC12" s="359"/>
-      <c r="BD12" s="359"/>
-      <c r="BE12" s="359"/>
-      <c r="BF12" s="360"/>
+      <c r="AS12" s="361"/>
+      <c r="AT12" s="362"/>
+      <c r="AU12" s="362"/>
+      <c r="AV12" s="362"/>
+      <c r="AW12" s="362"/>
+      <c r="AX12" s="362"/>
+      <c r="AY12" s="362"/>
+      <c r="AZ12" s="362"/>
+      <c r="BA12" s="362"/>
+      <c r="BB12" s="362"/>
+      <c r="BC12" s="362"/>
+      <c r="BD12" s="362"/>
+      <c r="BE12" s="362"/>
+      <c r="BF12" s="363"/>
     </row>
     <row r="13" spans="1:58" ht="13.5" customHeight="1">
       <c r="A13" s="80"/>
@@ -10807,9 +10807,9 @@
       <c r="D13" s="96"/>
       <c r="E13" s="96"/>
       <c r="F13" s="96"/>
-      <c r="G13" s="362"/>
-      <c r="H13" s="362"/>
-      <c r="I13" s="362"/>
+      <c r="G13" s="358"/>
+      <c r="H13" s="358"/>
+      <c r="I13" s="358"/>
       <c r="J13" s="96"/>
       <c r="K13" s="96"/>
       <c r="L13" s="96"/>
@@ -10845,20 +10845,20 @@
       <c r="AP13" s="81"/>
       <c r="AQ13" s="81"/>
       <c r="AR13" s="81"/>
-      <c r="AS13" s="358"/>
-      <c r="AT13" s="359"/>
-      <c r="AU13" s="359"/>
-      <c r="AV13" s="359"/>
-      <c r="AW13" s="359"/>
-      <c r="AX13" s="359"/>
-      <c r="AY13" s="359"/>
-      <c r="AZ13" s="359"/>
-      <c r="BA13" s="359"/>
-      <c r="BB13" s="359"/>
-      <c r="BC13" s="359"/>
-      <c r="BD13" s="359"/>
-      <c r="BE13" s="359"/>
-      <c r="BF13" s="360"/>
+      <c r="AS13" s="361"/>
+      <c r="AT13" s="362"/>
+      <c r="AU13" s="362"/>
+      <c r="AV13" s="362"/>
+      <c r="AW13" s="362"/>
+      <c r="AX13" s="362"/>
+      <c r="AY13" s="362"/>
+      <c r="AZ13" s="362"/>
+      <c r="BA13" s="362"/>
+      <c r="BB13" s="362"/>
+      <c r="BC13" s="362"/>
+      <c r="BD13" s="362"/>
+      <c r="BE13" s="362"/>
+      <c r="BF13" s="363"/>
     </row>
     <row r="14" spans="1:58" ht="13.5" customHeight="1">
       <c r="A14" s="80"/>
@@ -13678,6 +13678,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AS6:BF13"/>
+    <mergeCell ref="T1:Z1"/>
+    <mergeCell ref="AA1:AQ1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="AW3:BA3"/>
     <mergeCell ref="G8:P8"/>
     <mergeCell ref="G10:P10"/>
     <mergeCell ref="G12:I13"/>
@@ -13694,12 +13700,6 @@
     <mergeCell ref="AG3:AV3"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:S1"/>
-    <mergeCell ref="AS6:BF13"/>
-    <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="AA1:AQ1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="AW3:BA3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -13745,25 +13745,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A1" s="331" t="s">
+      <c r="A1" s="343" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="333"/>
-      <c r="C1" s="331" t="s">
+      <c r="B1" s="345"/>
+      <c r="C1" s="343" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="332"/>
-      <c r="E1" s="332"/>
-      <c r="F1" s="333"/>
-      <c r="G1" s="331" t="s">
+      <c r="D1" s="344"/>
+      <c r="E1" s="344"/>
+      <c r="F1" s="345"/>
+      <c r="G1" s="343" t="s">
         <v>257</v>
       </c>
-      <c r="H1" s="332"/>
-      <c r="I1" s="333"/>
-      <c r="J1" s="331" t="s">
+      <c r="H1" s="344"/>
+      <c r="I1" s="345"/>
+      <c r="J1" s="343" t="s">
         <v>270</v>
       </c>
-      <c r="K1" s="333"/>
+      <c r="K1" s="345"/>
       <c r="L1" s="15" t="s">
         <v>271</v>
       </c>
@@ -13810,11 +13810,11 @@
       </c>
       <c r="H2" s="374"/>
       <c r="I2" s="371"/>
-      <c r="J2" s="339" t="str">
+      <c r="J2" s="350" t="str">
         <f>Cover!R19</f>
         <v>Add student</v>
       </c>
-      <c r="K2" s="341"/>
+      <c r="K2" s="352"/>
       <c r="L2" s="40" t="str">
         <f>Cover!I19</f>
         <v>0-0</v>
@@ -13857,11 +13857,11 @@
       <c r="J3" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K3" s="339" t="str">
+      <c r="K3" s="350" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Item definition</v>
       </c>
-      <c r="L3" s="341"/>
+      <c r="L3" s="352"/>
       <c r="M3" s="94">
         <v>44504</v>
       </c>
@@ -17008,12 +17008,12 @@
   </sheetPr>
   <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="9" ySplit="8" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="S3" sqref="S3"/>
       <selection pane="topRight" activeCell="S3" sqref="S3"/>
       <selection pane="bottomLeft" activeCell="S3" sqref="S3"/>
-      <selection pane="bottomRight" activeCell="O10" sqref="O10"/>
+      <selection pane="bottomRight" activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="12"/>
@@ -17034,28 +17034,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A1" s="331" t="str">
+      <c r="A1" s="343" t="str">
         <f>Cover!A5</f>
         <v>詳細設計書</v>
       </c>
-      <c r="B1" s="333"/>
-      <c r="C1" s="331" t="s">
+      <c r="B1" s="345"/>
+      <c r="C1" s="343" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="332"/>
-      <c r="E1" s="332"/>
-      <c r="F1" s="333"/>
-      <c r="G1" s="331" t="s">
+      <c r="D1" s="344"/>
+      <c r="E1" s="344"/>
+      <c r="F1" s="345"/>
+      <c r="G1" s="343" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="332"/>
-      <c r="I1" s="333"/>
-      <c r="J1" s="331" t="s">
+      <c r="H1" s="344"/>
+      <c r="I1" s="345"/>
+      <c r="J1" s="343" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="332"/>
-      <c r="L1" s="332"/>
-      <c r="M1" s="333"/>
+      <c r="K1" s="344"/>
+      <c r="L1" s="344"/>
+      <c r="M1" s="345"/>
       <c r="N1" s="24" t="s">
         <v>20</v>
       </c>
@@ -17084,13 +17084,13 @@
       </c>
       <c r="H2" s="374"/>
       <c r="I2" s="371"/>
-      <c r="J2" s="339" t="str">
+      <c r="J2" s="350" t="str">
         <f>Cover!R19</f>
         <v>Add student</v>
       </c>
-      <c r="K2" s="340"/>
-      <c r="L2" s="340"/>
-      <c r="M2" s="341"/>
+      <c r="K2" s="351"/>
+      <c r="L2" s="351"/>
+      <c r="M2" s="352"/>
       <c r="N2" s="40" t="str">
         <f>Cover!I19</f>
         <v>0-0</v>
@@ -17112,16 +17112,16 @@
       <c r="G3" s="372"/>
       <c r="H3" s="375"/>
       <c r="I3" s="373"/>
-      <c r="J3" s="331" t="s">
+      <c r="J3" s="343" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="333"/>
-      <c r="L3" s="339" t="str">
+      <c r="K3" s="345"/>
+      <c r="L3" s="350" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Input check</v>
       </c>
-      <c r="M3" s="340"/>
-      <c r="N3" s="341"/>
+      <c r="M3" s="351"/>
+      <c r="N3" s="352"/>
       <c r="O3" s="256">
         <v>44508</v>
       </c>
@@ -18824,17 +18824,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="F7:G7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:F3"/>
     <mergeCell ref="G2:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="8">
@@ -18890,8 +18890,8 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:G8"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -18907,15 +18907,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14">
-      <c r="A1" s="380" t="s">
+      <c r="A1" s="378" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="382" t="s">
+      <c r="B1" s="380" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="384"/>
+      <c r="C1" s="381"/>
+      <c r="D1" s="381"/>
+      <c r="E1" s="382"/>
       <c r="F1" s="230" t="s">
         <v>337</v>
       </c>
@@ -18930,13 +18930,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14">
-      <c r="A2" s="381"/>
-      <c r="B2" s="385" t="s">
+      <c r="A2" s="379"/>
+      <c r="B2" s="383" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="386"/>
-      <c r="D2" s="386"/>
-      <c r="E2" s="387"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="385"/>
       <c r="F2" s="147" t="s">
         <v>267</v>
       </c>
@@ -18977,14 +18977,14 @@
       <c r="E4" s="150" t="s">
         <v>350</v>
       </c>
-      <c r="F4" s="388" t="s">
+      <c r="F4" s="386" t="s">
         <v>344</v>
       </c>
-      <c r="G4" s="389"/>
-      <c r="H4" s="388" t="s">
+      <c r="G4" s="387"/>
+      <c r="H4" s="386" t="s">
         <v>345</v>
       </c>
-      <c r="I4" s="390"/>
+      <c r="I4" s="388"/>
     </row>
     <row r="5" spans="1:9" ht="31.5" customHeight="1">
       <c r="A5" s="138" t="s">
@@ -19009,7 +19009,7 @@
       <c r="H5" s="376" t="s">
         <v>352</v>
       </c>
-      <c r="I5" s="379"/>
+      <c r="I5" s="377"/>
     </row>
     <row r="6" spans="1:9" ht="14">
       <c r="A6" s="138" t="s">
@@ -19059,7 +19059,7 @@
       <c r="H7" s="376"/>
       <c r="I7" s="376"/>
     </row>
-    <row r="8" spans="1:9" ht="45" customHeight="1">
+    <row r="8" spans="1:9" ht="27" customHeight="1">
       <c r="A8" s="138" t="s">
         <v>169</v>
       </c>
@@ -19098,10 +19098,10 @@
       <c r="E9" s="155" t="s">
         <v>364</v>
       </c>
-      <c r="F9" s="377" t="s">
+      <c r="F9" s="389" t="s">
         <v>467</v>
       </c>
-      <c r="G9" s="377"/>
+      <c r="G9" s="389"/>
       <c r="H9" s="376"/>
       <c r="I9" s="376"/>
     </row>
@@ -19125,8 +19125,8 @@
         <v>367</v>
       </c>
       <c r="G10" s="376"/>
-      <c r="H10" s="378"/>
-      <c r="I10" s="378"/>
+      <c r="H10" s="390"/>
+      <c r="I10" s="390"/>
     </row>
     <row r="11" spans="1:9" ht="31" customHeight="1">
       <c r="A11" s="138" t="s">
@@ -19144,10 +19144,10 @@
       <c r="E11" s="136" t="s">
         <v>372</v>
       </c>
-      <c r="F11" s="377" t="s">
+      <c r="F11" s="389" t="s">
         <v>465</v>
       </c>
-      <c r="G11" s="377"/>
+      <c r="G11" s="389"/>
       <c r="H11" s="376" t="s">
         <v>373</v>
       </c>
@@ -19203,19 +19203,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="F13:G13"/>
@@ -19226,6 +19213,19 @@
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -19240,7 +19240,7 @@
   <dimension ref="A1:XFD106"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="6" topLeftCell="A58" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="S3" sqref="S3"/>
       <selection pane="bottomLeft" activeCell="O14" sqref="O14"/>
     </sheetView>
@@ -19261,210 +19261,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A1" s="363" t="s">
+      <c r="A1" s="360" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="330"/>
-      <c r="C1" s="330"/>
-      <c r="D1" s="330"/>
-      <c r="E1" s="330"/>
-      <c r="F1" s="330"/>
-      <c r="G1" s="330"/>
-      <c r="H1" s="330"/>
-      <c r="I1" s="330" t="s">
+      <c r="B1" s="342"/>
+      <c r="C1" s="342"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="342"/>
+      <c r="G1" s="342"/>
+      <c r="H1" s="342"/>
+      <c r="I1" s="342" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="330"/>
-      <c r="K1" s="330"/>
-      <c r="L1" s="330"/>
-      <c r="M1" s="330"/>
-      <c r="N1" s="330"/>
-      <c r="O1" s="330"/>
-      <c r="P1" s="330"/>
-      <c r="Q1" s="330"/>
-      <c r="R1" s="330"/>
-      <c r="S1" s="330"/>
-      <c r="T1" s="330" t="s">
+      <c r="J1" s="342"/>
+      <c r="K1" s="342"/>
+      <c r="L1" s="342"/>
+      <c r="M1" s="342"/>
+      <c r="N1" s="342"/>
+      <c r="O1" s="342"/>
+      <c r="P1" s="342"/>
+      <c r="Q1" s="342"/>
+      <c r="R1" s="342"/>
+      <c r="S1" s="342"/>
+      <c r="T1" s="342" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="330"/>
-      <c r="V1" s="330"/>
-      <c r="W1" s="330"/>
-      <c r="X1" s="330"/>
-      <c r="Y1" s="330"/>
-      <c r="Z1" s="330"/>
-      <c r="AA1" s="331" t="s">
+      <c r="U1" s="342"/>
+      <c r="V1" s="342"/>
+      <c r="W1" s="342"/>
+      <c r="X1" s="342"/>
+      <c r="Y1" s="342"/>
+      <c r="Z1" s="342"/>
+      <c r="AA1" s="343" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="332"/>
-      <c r="AC1" s="332"/>
-      <c r="AD1" s="332"/>
-      <c r="AE1" s="332"/>
-      <c r="AF1" s="332"/>
-      <c r="AG1" s="332"/>
-      <c r="AH1" s="332"/>
-      <c r="AI1" s="332"/>
-      <c r="AJ1" s="332"/>
-      <c r="AK1" s="332"/>
-      <c r="AL1" s="332"/>
-      <c r="AM1" s="332"/>
-      <c r="AN1" s="333"/>
-      <c r="AO1" s="331" t="s">
+      <c r="AB1" s="344"/>
+      <c r="AC1" s="344"/>
+      <c r="AD1" s="344"/>
+      <c r="AE1" s="344"/>
+      <c r="AF1" s="344"/>
+      <c r="AG1" s="344"/>
+      <c r="AH1" s="344"/>
+      <c r="AI1" s="344"/>
+      <c r="AJ1" s="344"/>
+      <c r="AK1" s="344"/>
+      <c r="AL1" s="344"/>
+      <c r="AM1" s="344"/>
+      <c r="AN1" s="345"/>
+      <c r="AO1" s="343" t="s">
         <v>20</v>
       </c>
-      <c r="AP1" s="332"/>
-      <c r="AQ1" s="333"/>
-      <c r="AR1" s="344" t="s">
+      <c r="AP1" s="344"/>
+      <c r="AQ1" s="345"/>
+      <c r="AR1" s="355" t="s">
         <v>21</v>
       </c>
-      <c r="AS1" s="344"/>
-      <c r="AT1" s="330"/>
-      <c r="AU1" s="330"/>
-      <c r="AV1" s="330"/>
-      <c r="AW1" s="330" t="s">
+      <c r="AS1" s="355"/>
+      <c r="AT1" s="342"/>
+      <c r="AU1" s="342"/>
+      <c r="AV1" s="342"/>
+      <c r="AW1" s="342" t="s">
         <v>36</v>
       </c>
-      <c r="AX1" s="330"/>
-      <c r="AY1" s="330"/>
-      <c r="AZ1" s="330"/>
-      <c r="BA1" s="330"/>
+      <c r="AX1" s="342"/>
+      <c r="AY1" s="342"/>
+      <c r="AZ1" s="342"/>
+      <c r="BA1" s="342"/>
     </row>
     <row r="2" spans="1:53" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A2" s="334" t="s">
+      <c r="A2" s="346" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="334"/>
-      <c r="C2" s="334"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="334"/>
-      <c r="F2" s="334"/>
-      <c r="G2" s="334"/>
-      <c r="H2" s="334"/>
-      <c r="I2" s="334" t="str">
+      <c r="B2" s="346"/>
+      <c r="C2" s="346"/>
+      <c r="D2" s="346"/>
+      <c r="E2" s="346"/>
+      <c r="F2" s="346"/>
+      <c r="G2" s="346"/>
+      <c r="H2" s="346"/>
+      <c r="I2" s="346" t="str">
         <f>Cover!I12</f>
         <v>Manage Student</v>
       </c>
-      <c r="J2" s="334"/>
-      <c r="K2" s="334"/>
-      <c r="L2" s="334"/>
-      <c r="M2" s="334"/>
-      <c r="N2" s="334"/>
-      <c r="O2" s="334"/>
-      <c r="P2" s="334"/>
-      <c r="Q2" s="334"/>
-      <c r="R2" s="334"/>
-      <c r="S2" s="334"/>
-      <c r="T2" s="334" t="str">
+      <c r="J2" s="346"/>
+      <c r="K2" s="346"/>
+      <c r="L2" s="346"/>
+      <c r="M2" s="346"/>
+      <c r="N2" s="346"/>
+      <c r="O2" s="346"/>
+      <c r="P2" s="346"/>
+      <c r="Q2" s="346"/>
+      <c r="R2" s="346"/>
+      <c r="S2" s="346"/>
+      <c r="T2" s="346" t="str">
         <f>Cover!I15</f>
         <v>GMO_management_Student</v>
       </c>
-      <c r="U2" s="334"/>
-      <c r="V2" s="334"/>
-      <c r="W2" s="334"/>
-      <c r="X2" s="334"/>
-      <c r="Y2" s="334"/>
-      <c r="Z2" s="334"/>
-      <c r="AA2" s="339" t="str">
+      <c r="U2" s="346"/>
+      <c r="V2" s="346"/>
+      <c r="W2" s="346"/>
+      <c r="X2" s="346"/>
+      <c r="Y2" s="346"/>
+      <c r="Z2" s="346"/>
+      <c r="AA2" s="350" t="str">
         <f>Cover!R19</f>
         <v>Add student</v>
       </c>
-      <c r="AB2" s="340"/>
-      <c r="AC2" s="340"/>
-      <c r="AD2" s="340"/>
-      <c r="AE2" s="340"/>
-      <c r="AF2" s="340"/>
-      <c r="AG2" s="340"/>
-      <c r="AH2" s="340"/>
-      <c r="AI2" s="340"/>
-      <c r="AJ2" s="340"/>
-      <c r="AK2" s="340"/>
-      <c r="AL2" s="340"/>
-      <c r="AM2" s="340"/>
-      <c r="AN2" s="341"/>
+      <c r="AB2" s="351"/>
+      <c r="AC2" s="351"/>
+      <c r="AD2" s="351"/>
+      <c r="AE2" s="351"/>
+      <c r="AF2" s="351"/>
+      <c r="AG2" s="351"/>
+      <c r="AH2" s="351"/>
+      <c r="AI2" s="351"/>
+      <c r="AJ2" s="351"/>
+      <c r="AK2" s="351"/>
+      <c r="AL2" s="351"/>
+      <c r="AM2" s="351"/>
+      <c r="AN2" s="352"/>
       <c r="AO2" s="391" t="str">
         <f>Cover!I19</f>
         <v>0-0</v>
       </c>
       <c r="AP2" s="392"/>
       <c r="AQ2" s="393"/>
-      <c r="AR2" s="335" t="s">
+      <c r="AR2" s="329" t="s">
         <v>267</v>
       </c>
-      <c r="AS2" s="335"/>
-      <c r="AT2" s="335"/>
-      <c r="AU2" s="335"/>
-      <c r="AV2" s="335"/>
-      <c r="AW2" s="335" t="s">
+      <c r="AS2" s="329"/>
+      <c r="AT2" s="329"/>
+      <c r="AU2" s="329"/>
+      <c r="AV2" s="329"/>
+      <c r="AW2" s="329" t="s">
         <v>267</v>
       </c>
-      <c r="AX2" s="335"/>
-      <c r="AY2" s="335"/>
-      <c r="AZ2" s="335"/>
-      <c r="BA2" s="335"/>
+      <c r="AX2" s="329"/>
+      <c r="AY2" s="329"/>
+      <c r="AZ2" s="329"/>
+      <c r="BA2" s="329"/>
     </row>
     <row r="3" spans="1:53" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A3" s="334"/>
-      <c r="B3" s="334"/>
-      <c r="C3" s="334"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="334"/>
-      <c r="F3" s="334"/>
-      <c r="G3" s="334"/>
-      <c r="H3" s="334"/>
-      <c r="I3" s="334"/>
-      <c r="J3" s="334"/>
-      <c r="K3" s="334"/>
-      <c r="L3" s="334"/>
-      <c r="M3" s="334"/>
-      <c r="N3" s="334"/>
-      <c r="O3" s="334"/>
-      <c r="P3" s="334"/>
-      <c r="Q3" s="334"/>
-      <c r="R3" s="334"/>
-      <c r="S3" s="334"/>
-      <c r="T3" s="334"/>
-      <c r="U3" s="334"/>
-      <c r="V3" s="334"/>
-      <c r="W3" s="334"/>
-      <c r="X3" s="334"/>
-      <c r="Y3" s="334"/>
-      <c r="Z3" s="334"/>
-      <c r="AA3" s="331" t="s">
+      <c r="A3" s="346"/>
+      <c r="B3" s="346"/>
+      <c r="C3" s="346"/>
+      <c r="D3" s="346"/>
+      <c r="E3" s="346"/>
+      <c r="F3" s="346"/>
+      <c r="G3" s="346"/>
+      <c r="H3" s="346"/>
+      <c r="I3" s="346"/>
+      <c r="J3" s="346"/>
+      <c r="K3" s="346"/>
+      <c r="L3" s="346"/>
+      <c r="M3" s="346"/>
+      <c r="N3" s="346"/>
+      <c r="O3" s="346"/>
+      <c r="P3" s="346"/>
+      <c r="Q3" s="346"/>
+      <c r="R3" s="346"/>
+      <c r="S3" s="346"/>
+      <c r="T3" s="346"/>
+      <c r="U3" s="346"/>
+      <c r="V3" s="346"/>
+      <c r="W3" s="346"/>
+      <c r="X3" s="346"/>
+      <c r="Y3" s="346"/>
+      <c r="Z3" s="346"/>
+      <c r="AA3" s="343" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="332"/>
-      <c r="AC3" s="332"/>
-      <c r="AD3" s="332"/>
-      <c r="AE3" s="332"/>
-      <c r="AF3" s="333"/>
-      <c r="AG3" s="339" t="str">
+      <c r="AB3" s="344"/>
+      <c r="AC3" s="344"/>
+      <c r="AD3" s="344"/>
+      <c r="AE3" s="344"/>
+      <c r="AF3" s="345"/>
+      <c r="AG3" s="350" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Processing description</v>
       </c>
-      <c r="AH3" s="340"/>
-      <c r="AI3" s="340"/>
-      <c r="AJ3" s="340"/>
-      <c r="AK3" s="340"/>
-      <c r="AL3" s="340"/>
-      <c r="AM3" s="340"/>
-      <c r="AN3" s="340"/>
-      <c r="AO3" s="340"/>
-      <c r="AP3" s="340"/>
-      <c r="AQ3" s="341"/>
-      <c r="AR3" s="361">
+      <c r="AH3" s="351"/>
+      <c r="AI3" s="351"/>
+      <c r="AJ3" s="351"/>
+      <c r="AK3" s="351"/>
+      <c r="AL3" s="351"/>
+      <c r="AM3" s="351"/>
+      <c r="AN3" s="351"/>
+      <c r="AO3" s="351"/>
+      <c r="AP3" s="351"/>
+      <c r="AQ3" s="352"/>
+      <c r="AR3" s="359">
         <v>44327</v>
       </c>
-      <c r="AS3" s="361"/>
-      <c r="AT3" s="361"/>
-      <c r="AU3" s="361"/>
-      <c r="AV3" s="361"/>
-      <c r="AW3" s="361">
+      <c r="AS3" s="359"/>
+      <c r="AT3" s="359"/>
+      <c r="AU3" s="359"/>
+      <c r="AV3" s="359"/>
+      <c r="AW3" s="359">
         <v>44327</v>
       </c>
-      <c r="AX3" s="361"/>
-      <c r="AY3" s="361"/>
-      <c r="AZ3" s="361"/>
-      <c r="BA3" s="361"/>
+      <c r="AX3" s="359"/>
+      <c r="AY3" s="359"/>
+      <c r="AZ3" s="359"/>
+      <c r="BA3" s="359"/>
     </row>
     <row r="4" spans="1:53" s="17" customFormat="1" ht="12"/>
     <row r="5" spans="1:53" ht="13.5" customHeight="1">
@@ -41800,6 +41800,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:S1"/>
+    <mergeCell ref="T1:Z1"/>
+    <mergeCell ref="AA1:AN1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:S3"/>
+    <mergeCell ref="T2:Z3"/>
+    <mergeCell ref="AA2:AN2"/>
+    <mergeCell ref="AR2:AV2"/>
+    <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AW2:BA2"/>
     <mergeCell ref="AA3:AF3"/>
     <mergeCell ref="AR3:AV3"/>
@@ -41807,17 +41818,6 @@
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AG3:AQ3"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:S3"/>
-    <mergeCell ref="T2:Z3"/>
-    <mergeCell ref="AA2:AN2"/>
-    <mergeCell ref="AR2:AV2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:S1"/>
-    <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="AA1:AN1"/>
-    <mergeCell ref="AR1:AV1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/DD-Add_student.xlsx
+++ b/DD-Add_student.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="17" r:id="rId1"/>
@@ -3795,6 +3795,90 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3912,140 +3996,20 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="39" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4064,6 +4028,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4092,20 +4059,44 @@
     <xf numFmtId="14" fontId="13" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="39" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4115,6 +4106,15 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4155,6 +4155,12 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4190,12 +4196,6 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6127,758 +6127,758 @@
       <c r="AQ4" s="3"/>
     </row>
     <row r="5" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A5" s="296" t="s">
+      <c r="A5" s="257" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="297"/>
-      <c r="C5" s="297"/>
-      <c r="D5" s="297"/>
-      <c r="E5" s="297"/>
-      <c r="F5" s="297"/>
-      <c r="G5" s="297"/>
-      <c r="H5" s="297"/>
-      <c r="I5" s="297"/>
-      <c r="J5" s="297"/>
-      <c r="K5" s="297"/>
-      <c r="L5" s="297"/>
-      <c r="M5" s="297"/>
-      <c r="N5" s="297"/>
-      <c r="O5" s="297"/>
-      <c r="P5" s="297"/>
-      <c r="Q5" s="297"/>
-      <c r="R5" s="297"/>
-      <c r="S5" s="297"/>
-      <c r="T5" s="297"/>
-      <c r="U5" s="297"/>
-      <c r="V5" s="297"/>
-      <c r="W5" s="297"/>
-      <c r="X5" s="297"/>
-      <c r="Y5" s="297"/>
-      <c r="Z5" s="297"/>
-      <c r="AA5" s="297"/>
-      <c r="AB5" s="298"/>
-      <c r="AC5" s="305" t="s">
+      <c r="B5" s="258"/>
+      <c r="C5" s="258"/>
+      <c r="D5" s="258"/>
+      <c r="E5" s="258"/>
+      <c r="F5" s="258"/>
+      <c r="G5" s="258"/>
+      <c r="H5" s="258"/>
+      <c r="I5" s="258"/>
+      <c r="J5" s="258"/>
+      <c r="K5" s="258"/>
+      <c r="L5" s="258"/>
+      <c r="M5" s="258"/>
+      <c r="N5" s="258"/>
+      <c r="O5" s="258"/>
+      <c r="P5" s="258"/>
+      <c r="Q5" s="258"/>
+      <c r="R5" s="258"/>
+      <c r="S5" s="258"/>
+      <c r="T5" s="258"/>
+      <c r="U5" s="258"/>
+      <c r="V5" s="258"/>
+      <c r="W5" s="258"/>
+      <c r="X5" s="258"/>
+      <c r="Y5" s="258"/>
+      <c r="Z5" s="258"/>
+      <c r="AA5" s="258"/>
+      <c r="AB5" s="259"/>
+      <c r="AC5" s="266" t="s">
         <v>261</v>
       </c>
-      <c r="AD5" s="305"/>
-      <c r="AE5" s="305"/>
-      <c r="AF5" s="305"/>
-      <c r="AG5" s="305"/>
-      <c r="AH5" s="305" t="s">
+      <c r="AD5" s="266"/>
+      <c r="AE5" s="266"/>
+      <c r="AF5" s="266"/>
+      <c r="AG5" s="266"/>
+      <c r="AH5" s="266" t="s">
         <v>262</v>
       </c>
-      <c r="AI5" s="305"/>
-      <c r="AJ5" s="305"/>
-      <c r="AK5" s="305"/>
-      <c r="AL5" s="305"/>
-      <c r="AM5" s="306" t="s">
+      <c r="AI5" s="266"/>
+      <c r="AJ5" s="266"/>
+      <c r="AK5" s="266"/>
+      <c r="AL5" s="266"/>
+      <c r="AM5" s="267" t="s">
         <v>263</v>
       </c>
-      <c r="AN5" s="307"/>
-      <c r="AO5" s="307"/>
-      <c r="AP5" s="307"/>
-      <c r="AQ5" s="308"/>
+      <c r="AN5" s="268"/>
+      <c r="AO5" s="268"/>
+      <c r="AP5" s="268"/>
+      <c r="AQ5" s="269"/>
     </row>
     <row r="6" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A6" s="299"/>
-      <c r="B6" s="300"/>
-      <c r="C6" s="300"/>
-      <c r="D6" s="300"/>
-      <c r="E6" s="300"/>
-      <c r="F6" s="300"/>
-      <c r="G6" s="300"/>
-      <c r="H6" s="300"/>
-      <c r="I6" s="300"/>
-      <c r="J6" s="300"/>
-      <c r="K6" s="300"/>
-      <c r="L6" s="300"/>
-      <c r="M6" s="300"/>
-      <c r="N6" s="300"/>
-      <c r="O6" s="300"/>
-      <c r="P6" s="300"/>
-      <c r="Q6" s="300"/>
-      <c r="R6" s="300"/>
-      <c r="S6" s="300"/>
-      <c r="T6" s="300"/>
-      <c r="U6" s="300"/>
-      <c r="V6" s="300"/>
-      <c r="W6" s="300"/>
-      <c r="X6" s="300"/>
-      <c r="Y6" s="300"/>
-      <c r="Z6" s="300"/>
-      <c r="AA6" s="300"/>
-      <c r="AB6" s="301"/>
-      <c r="AC6" s="309">
+      <c r="A6" s="260"/>
+      <c r="B6" s="261"/>
+      <c r="C6" s="261"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
+      <c r="G6" s="261"/>
+      <c r="H6" s="261"/>
+      <c r="I6" s="261"/>
+      <c r="J6" s="261"/>
+      <c r="K6" s="261"/>
+      <c r="L6" s="261"/>
+      <c r="M6" s="261"/>
+      <c r="N6" s="261"/>
+      <c r="O6" s="261"/>
+      <c r="P6" s="261"/>
+      <c r="Q6" s="261"/>
+      <c r="R6" s="261"/>
+      <c r="S6" s="261"/>
+      <c r="T6" s="261"/>
+      <c r="U6" s="261"/>
+      <c r="V6" s="261"/>
+      <c r="W6" s="261"/>
+      <c r="X6" s="261"/>
+      <c r="Y6" s="261"/>
+      <c r="Z6" s="261"/>
+      <c r="AA6" s="261"/>
+      <c r="AB6" s="262"/>
+      <c r="AC6" s="270">
         <v>44503</v>
       </c>
-      <c r="AD6" s="310"/>
-      <c r="AE6" s="310"/>
-      <c r="AF6" s="310"/>
-      <c r="AG6" s="311"/>
-      <c r="AH6" s="309"/>
-      <c r="AI6" s="310"/>
-      <c r="AJ6" s="310"/>
-      <c r="AK6" s="310"/>
-      <c r="AL6" s="311"/>
-      <c r="AM6" s="309"/>
-      <c r="AN6" s="310"/>
-      <c r="AO6" s="310"/>
-      <c r="AP6" s="310"/>
-      <c r="AQ6" s="311"/>
+      <c r="AD6" s="271"/>
+      <c r="AE6" s="271"/>
+      <c r="AF6" s="271"/>
+      <c r="AG6" s="272"/>
+      <c r="AH6" s="270"/>
+      <c r="AI6" s="271"/>
+      <c r="AJ6" s="271"/>
+      <c r="AK6" s="271"/>
+      <c r="AL6" s="272"/>
+      <c r="AM6" s="270"/>
+      <c r="AN6" s="271"/>
+      <c r="AO6" s="271"/>
+      <c r="AP6" s="271"/>
+      <c r="AQ6" s="272"/>
     </row>
     <row r="7" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A7" s="299"/>
-      <c r="B7" s="300"/>
-      <c r="C7" s="300"/>
-      <c r="D7" s="300"/>
-      <c r="E7" s="300"/>
-      <c r="F7" s="300"/>
-      <c r="G7" s="300"/>
-      <c r="H7" s="300"/>
-      <c r="I7" s="300"/>
-      <c r="J7" s="300"/>
-      <c r="K7" s="300"/>
-      <c r="L7" s="300"/>
-      <c r="M7" s="300"/>
-      <c r="N7" s="300"/>
-      <c r="O7" s="300"/>
-      <c r="P7" s="300"/>
-      <c r="Q7" s="300"/>
-      <c r="R7" s="300"/>
-      <c r="S7" s="300"/>
-      <c r="T7" s="300"/>
-      <c r="U7" s="300"/>
-      <c r="V7" s="300"/>
-      <c r="W7" s="300"/>
-      <c r="X7" s="300"/>
-      <c r="Y7" s="300"/>
-      <c r="Z7" s="300"/>
-      <c r="AA7" s="300"/>
-      <c r="AB7" s="301"/>
-      <c r="AC7" s="312" t="s">
+      <c r="A7" s="260"/>
+      <c r="B7" s="261"/>
+      <c r="C7" s="261"/>
+      <c r="D7" s="261"/>
+      <c r="E7" s="261"/>
+      <c r="F7" s="261"/>
+      <c r="G7" s="261"/>
+      <c r="H7" s="261"/>
+      <c r="I7" s="261"/>
+      <c r="J7" s="261"/>
+      <c r="K7" s="261"/>
+      <c r="L7" s="261"/>
+      <c r="M7" s="261"/>
+      <c r="N7" s="261"/>
+      <c r="O7" s="261"/>
+      <c r="P7" s="261"/>
+      <c r="Q7" s="261"/>
+      <c r="R7" s="261"/>
+      <c r="S7" s="261"/>
+      <c r="T7" s="261"/>
+      <c r="U7" s="261"/>
+      <c r="V7" s="261"/>
+      <c r="W7" s="261"/>
+      <c r="X7" s="261"/>
+      <c r="Y7" s="261"/>
+      <c r="Z7" s="261"/>
+      <c r="AA7" s="261"/>
+      <c r="AB7" s="262"/>
+      <c r="AC7" s="273" t="s">
         <v>267</v>
       </c>
-      <c r="AD7" s="313"/>
-      <c r="AE7" s="313"/>
-      <c r="AF7" s="313"/>
-      <c r="AG7" s="314"/>
-      <c r="AH7" s="312"/>
-      <c r="AI7" s="313"/>
-      <c r="AJ7" s="313"/>
-      <c r="AK7" s="313"/>
-      <c r="AL7" s="314"/>
-      <c r="AM7" s="318"/>
-      <c r="AN7" s="319"/>
-      <c r="AO7" s="319"/>
-      <c r="AP7" s="319"/>
-      <c r="AQ7" s="320"/>
+      <c r="AD7" s="274"/>
+      <c r="AE7" s="274"/>
+      <c r="AF7" s="274"/>
+      <c r="AG7" s="275"/>
+      <c r="AH7" s="273"/>
+      <c r="AI7" s="274"/>
+      <c r="AJ7" s="274"/>
+      <c r="AK7" s="274"/>
+      <c r="AL7" s="275"/>
+      <c r="AM7" s="279"/>
+      <c r="AN7" s="280"/>
+      <c r="AO7" s="280"/>
+      <c r="AP7" s="280"/>
+      <c r="AQ7" s="281"/>
     </row>
     <row r="8" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A8" s="302"/>
-      <c r="B8" s="303"/>
-      <c r="C8" s="303"/>
-      <c r="D8" s="303"/>
-      <c r="E8" s="303"/>
-      <c r="F8" s="303"/>
-      <c r="G8" s="303"/>
-      <c r="H8" s="303"/>
-      <c r="I8" s="303"/>
-      <c r="J8" s="303"/>
-      <c r="K8" s="303"/>
-      <c r="L8" s="303"/>
-      <c r="M8" s="303"/>
-      <c r="N8" s="303"/>
-      <c r="O8" s="303"/>
-      <c r="P8" s="303"/>
-      <c r="Q8" s="303"/>
-      <c r="R8" s="303"/>
-      <c r="S8" s="303"/>
-      <c r="T8" s="303"/>
-      <c r="U8" s="303"/>
-      <c r="V8" s="303"/>
-      <c r="W8" s="303"/>
-      <c r="X8" s="303"/>
-      <c r="Y8" s="303"/>
-      <c r="Z8" s="303"/>
-      <c r="AA8" s="303"/>
-      <c r="AB8" s="304"/>
-      <c r="AC8" s="315"/>
-      <c r="AD8" s="316"/>
-      <c r="AE8" s="316"/>
-      <c r="AF8" s="316"/>
-      <c r="AG8" s="317"/>
-      <c r="AH8" s="315"/>
-      <c r="AI8" s="316"/>
-      <c r="AJ8" s="316"/>
-      <c r="AK8" s="316"/>
-      <c r="AL8" s="317"/>
-      <c r="AM8" s="321"/>
-      <c r="AN8" s="322"/>
-      <c r="AO8" s="322"/>
-      <c r="AP8" s="322"/>
-      <c r="AQ8" s="323"/>
+      <c r="A8" s="263"/>
+      <c r="B8" s="264"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="264"/>
+      <c r="G8" s="264"/>
+      <c r="H8" s="264"/>
+      <c r="I8" s="264"/>
+      <c r="J8" s="264"/>
+      <c r="K8" s="264"/>
+      <c r="L8" s="264"/>
+      <c r="M8" s="264"/>
+      <c r="N8" s="264"/>
+      <c r="O8" s="264"/>
+      <c r="P8" s="264"/>
+      <c r="Q8" s="264"/>
+      <c r="R8" s="264"/>
+      <c r="S8" s="264"/>
+      <c r="T8" s="264"/>
+      <c r="U8" s="264"/>
+      <c r="V8" s="264"/>
+      <c r="W8" s="264"/>
+      <c r="X8" s="264"/>
+      <c r="Y8" s="264"/>
+      <c r="Z8" s="264"/>
+      <c r="AA8" s="264"/>
+      <c r="AB8" s="265"/>
+      <c r="AC8" s="276"/>
+      <c r="AD8" s="277"/>
+      <c r="AE8" s="277"/>
+      <c r="AF8" s="277"/>
+      <c r="AG8" s="278"/>
+      <c r="AH8" s="276"/>
+      <c r="AI8" s="277"/>
+      <c r="AJ8" s="277"/>
+      <c r="AK8" s="277"/>
+      <c r="AL8" s="278"/>
+      <c r="AM8" s="282"/>
+      <c r="AN8" s="283"/>
+      <c r="AO8" s="283"/>
+      <c r="AP8" s="283"/>
+      <c r="AQ8" s="284"/>
     </row>
     <row r="9" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A9" s="266" t="s">
+      <c r="A9" s="294" t="s">
         <v>255</v>
       </c>
-      <c r="B9" s="267"/>
-      <c r="C9" s="267"/>
-      <c r="D9" s="267"/>
-      <c r="E9" s="267"/>
-      <c r="F9" s="267"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="268"/>
-      <c r="I9" s="275" t="s">
+      <c r="B9" s="295"/>
+      <c r="C9" s="295"/>
+      <c r="D9" s="295"/>
+      <c r="E9" s="295"/>
+      <c r="F9" s="295"/>
+      <c r="G9" s="295"/>
+      <c r="H9" s="296"/>
+      <c r="I9" s="303" t="s">
         <v>268</v>
       </c>
-      <c r="J9" s="275"/>
-      <c r="K9" s="275"/>
-      <c r="L9" s="275"/>
-      <c r="M9" s="275"/>
-      <c r="N9" s="275"/>
-      <c r="O9" s="275"/>
-      <c r="P9" s="275"/>
-      <c r="Q9" s="275"/>
-      <c r="R9" s="275"/>
-      <c r="S9" s="275"/>
-      <c r="T9" s="275"/>
-      <c r="U9" s="275"/>
-      <c r="V9" s="275"/>
-      <c r="W9" s="275"/>
-      <c r="X9" s="275"/>
-      <c r="Y9" s="275"/>
-      <c r="Z9" s="275"/>
-      <c r="AA9" s="275"/>
-      <c r="AB9" s="275"/>
-      <c r="AC9" s="275"/>
-      <c r="AD9" s="275"/>
-      <c r="AE9" s="275"/>
-      <c r="AF9" s="275"/>
-      <c r="AG9" s="275"/>
-      <c r="AH9" s="275"/>
-      <c r="AI9" s="275"/>
-      <c r="AJ9" s="275"/>
-      <c r="AK9" s="275"/>
-      <c r="AL9" s="275"/>
-      <c r="AM9" s="275"/>
-      <c r="AN9" s="275"/>
-      <c r="AO9" s="275"/>
-      <c r="AP9" s="275"/>
-      <c r="AQ9" s="276"/>
+      <c r="J9" s="303"/>
+      <c r="K9" s="303"/>
+      <c r="L9" s="303"/>
+      <c r="M9" s="303"/>
+      <c r="N9" s="303"/>
+      <c r="O9" s="303"/>
+      <c r="P9" s="303"/>
+      <c r="Q9" s="303"/>
+      <c r="R9" s="303"/>
+      <c r="S9" s="303"/>
+      <c r="T9" s="303"/>
+      <c r="U9" s="303"/>
+      <c r="V9" s="303"/>
+      <c r="W9" s="303"/>
+      <c r="X9" s="303"/>
+      <c r="Y9" s="303"/>
+      <c r="Z9" s="303"/>
+      <c r="AA9" s="303"/>
+      <c r="AB9" s="303"/>
+      <c r="AC9" s="303"/>
+      <c r="AD9" s="303"/>
+      <c r="AE9" s="303"/>
+      <c r="AF9" s="303"/>
+      <c r="AG9" s="303"/>
+      <c r="AH9" s="303"/>
+      <c r="AI9" s="303"/>
+      <c r="AJ9" s="303"/>
+      <c r="AK9" s="303"/>
+      <c r="AL9" s="303"/>
+      <c r="AM9" s="303"/>
+      <c r="AN9" s="303"/>
+      <c r="AO9" s="303"/>
+      <c r="AP9" s="303"/>
+      <c r="AQ9" s="304"/>
     </row>
     <row r="10" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A10" s="269"/>
-      <c r="B10" s="270"/>
-      <c r="C10" s="270"/>
-      <c r="D10" s="270"/>
-      <c r="E10" s="270"/>
-      <c r="F10" s="270"/>
-      <c r="G10" s="270"/>
-      <c r="H10" s="271"/>
-      <c r="I10" s="277"/>
-      <c r="J10" s="277"/>
-      <c r="K10" s="277"/>
-      <c r="L10" s="277"/>
-      <c r="M10" s="277"/>
-      <c r="N10" s="277"/>
-      <c r="O10" s="277"/>
-      <c r="P10" s="277"/>
-      <c r="Q10" s="277"/>
-      <c r="R10" s="277"/>
-      <c r="S10" s="277"/>
-      <c r="T10" s="277"/>
-      <c r="U10" s="277"/>
-      <c r="V10" s="277"/>
-      <c r="W10" s="277"/>
-      <c r="X10" s="277"/>
-      <c r="Y10" s="277"/>
-      <c r="Z10" s="277"/>
-      <c r="AA10" s="277"/>
-      <c r="AB10" s="277"/>
-      <c r="AC10" s="277"/>
-      <c r="AD10" s="277"/>
-      <c r="AE10" s="277"/>
-      <c r="AF10" s="277"/>
-      <c r="AG10" s="277"/>
-      <c r="AH10" s="277"/>
-      <c r="AI10" s="277"/>
-      <c r="AJ10" s="277"/>
-      <c r="AK10" s="277"/>
-      <c r="AL10" s="277"/>
-      <c r="AM10" s="277"/>
-      <c r="AN10" s="277"/>
-      <c r="AO10" s="277"/>
-      <c r="AP10" s="277"/>
-      <c r="AQ10" s="278"/>
+      <c r="A10" s="297"/>
+      <c r="B10" s="298"/>
+      <c r="C10" s="298"/>
+      <c r="D10" s="298"/>
+      <c r="E10" s="298"/>
+      <c r="F10" s="298"/>
+      <c r="G10" s="298"/>
+      <c r="H10" s="299"/>
+      <c r="I10" s="305"/>
+      <c r="J10" s="305"/>
+      <c r="K10" s="305"/>
+      <c r="L10" s="305"/>
+      <c r="M10" s="305"/>
+      <c r="N10" s="305"/>
+      <c r="O10" s="305"/>
+      <c r="P10" s="305"/>
+      <c r="Q10" s="305"/>
+      <c r="R10" s="305"/>
+      <c r="S10" s="305"/>
+      <c r="T10" s="305"/>
+      <c r="U10" s="305"/>
+      <c r="V10" s="305"/>
+      <c r="W10" s="305"/>
+      <c r="X10" s="305"/>
+      <c r="Y10" s="305"/>
+      <c r="Z10" s="305"/>
+      <c r="AA10" s="305"/>
+      <c r="AB10" s="305"/>
+      <c r="AC10" s="305"/>
+      <c r="AD10" s="305"/>
+      <c r="AE10" s="305"/>
+      <c r="AF10" s="305"/>
+      <c r="AG10" s="305"/>
+      <c r="AH10" s="305"/>
+      <c r="AI10" s="305"/>
+      <c r="AJ10" s="305"/>
+      <c r="AK10" s="305"/>
+      <c r="AL10" s="305"/>
+      <c r="AM10" s="305"/>
+      <c r="AN10" s="305"/>
+      <c r="AO10" s="305"/>
+      <c r="AP10" s="305"/>
+      <c r="AQ10" s="306"/>
     </row>
     <row r="11" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A11" s="272"/>
-      <c r="B11" s="273"/>
-      <c r="C11" s="273"/>
-      <c r="D11" s="273"/>
-      <c r="E11" s="273"/>
-      <c r="F11" s="273"/>
-      <c r="G11" s="273"/>
-      <c r="H11" s="274"/>
-      <c r="I11" s="279"/>
-      <c r="J11" s="279"/>
-      <c r="K11" s="279"/>
-      <c r="L11" s="279"/>
-      <c r="M11" s="279"/>
-      <c r="N11" s="279"/>
-      <c r="O11" s="279"/>
-      <c r="P11" s="279"/>
-      <c r="Q11" s="279"/>
-      <c r="R11" s="279"/>
-      <c r="S11" s="279"/>
-      <c r="T11" s="279"/>
-      <c r="U11" s="279"/>
-      <c r="V11" s="279"/>
-      <c r="W11" s="279"/>
-      <c r="X11" s="279"/>
-      <c r="Y11" s="279"/>
-      <c r="Z11" s="279"/>
-      <c r="AA11" s="279"/>
-      <c r="AB11" s="279"/>
-      <c r="AC11" s="279"/>
-      <c r="AD11" s="279"/>
-      <c r="AE11" s="279"/>
-      <c r="AF11" s="279"/>
-      <c r="AG11" s="279"/>
-      <c r="AH11" s="279"/>
-      <c r="AI11" s="279"/>
-      <c r="AJ11" s="279"/>
-      <c r="AK11" s="279"/>
-      <c r="AL11" s="279"/>
-      <c r="AM11" s="279"/>
-      <c r="AN11" s="279"/>
-      <c r="AO11" s="279"/>
-      <c r="AP11" s="279"/>
-      <c r="AQ11" s="280"/>
+      <c r="A11" s="300"/>
+      <c r="B11" s="301"/>
+      <c r="C11" s="301"/>
+      <c r="D11" s="301"/>
+      <c r="E11" s="301"/>
+      <c r="F11" s="301"/>
+      <c r="G11" s="301"/>
+      <c r="H11" s="302"/>
+      <c r="I11" s="307"/>
+      <c r="J11" s="307"/>
+      <c r="K11" s="307"/>
+      <c r="L11" s="307"/>
+      <c r="M11" s="307"/>
+      <c r="N11" s="307"/>
+      <c r="O11" s="307"/>
+      <c r="P11" s="307"/>
+      <c r="Q11" s="307"/>
+      <c r="R11" s="307"/>
+      <c r="S11" s="307"/>
+      <c r="T11" s="307"/>
+      <c r="U11" s="307"/>
+      <c r="V11" s="307"/>
+      <c r="W11" s="307"/>
+      <c r="X11" s="307"/>
+      <c r="Y11" s="307"/>
+      <c r="Z11" s="307"/>
+      <c r="AA11" s="307"/>
+      <c r="AB11" s="307"/>
+      <c r="AC11" s="307"/>
+      <c r="AD11" s="307"/>
+      <c r="AE11" s="307"/>
+      <c r="AF11" s="307"/>
+      <c r="AG11" s="307"/>
+      <c r="AH11" s="307"/>
+      <c r="AI11" s="307"/>
+      <c r="AJ11" s="307"/>
+      <c r="AK11" s="307"/>
+      <c r="AL11" s="307"/>
+      <c r="AM11" s="307"/>
+      <c r="AN11" s="307"/>
+      <c r="AO11" s="307"/>
+      <c r="AP11" s="307"/>
+      <c r="AQ11" s="308"/>
     </row>
     <row r="12" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A12" s="266" t="s">
+      <c r="A12" s="294" t="s">
         <v>256</v>
       </c>
-      <c r="B12" s="267"/>
-      <c r="C12" s="267"/>
-      <c r="D12" s="267"/>
-      <c r="E12" s="267"/>
-      <c r="F12" s="267"/>
-      <c r="G12" s="267"/>
-      <c r="H12" s="268"/>
-      <c r="I12" s="281" t="s">
+      <c r="B12" s="295"/>
+      <c r="C12" s="295"/>
+      <c r="D12" s="295"/>
+      <c r="E12" s="295"/>
+      <c r="F12" s="295"/>
+      <c r="G12" s="295"/>
+      <c r="H12" s="296"/>
+      <c r="I12" s="309" t="s">
         <v>185</v>
       </c>
-      <c r="J12" s="275"/>
-      <c r="K12" s="275"/>
-      <c r="L12" s="275"/>
-      <c r="M12" s="275"/>
-      <c r="N12" s="275"/>
-      <c r="O12" s="275"/>
-      <c r="P12" s="275"/>
-      <c r="Q12" s="275"/>
-      <c r="R12" s="275"/>
-      <c r="S12" s="275"/>
-      <c r="T12" s="275"/>
-      <c r="U12" s="275"/>
-      <c r="V12" s="275"/>
-      <c r="W12" s="275"/>
-      <c r="X12" s="275"/>
-      <c r="Y12" s="275"/>
-      <c r="Z12" s="275"/>
-      <c r="AA12" s="275"/>
-      <c r="AB12" s="275"/>
-      <c r="AC12" s="275"/>
-      <c r="AD12" s="275"/>
-      <c r="AE12" s="275"/>
-      <c r="AF12" s="275"/>
-      <c r="AG12" s="275"/>
-      <c r="AH12" s="275"/>
-      <c r="AI12" s="275"/>
-      <c r="AJ12" s="275"/>
-      <c r="AK12" s="275"/>
-      <c r="AL12" s="275"/>
-      <c r="AM12" s="275"/>
-      <c r="AN12" s="275"/>
-      <c r="AO12" s="275"/>
-      <c r="AP12" s="275"/>
-      <c r="AQ12" s="276"/>
+      <c r="J12" s="303"/>
+      <c r="K12" s="303"/>
+      <c r="L12" s="303"/>
+      <c r="M12" s="303"/>
+      <c r="N12" s="303"/>
+      <c r="O12" s="303"/>
+      <c r="P12" s="303"/>
+      <c r="Q12" s="303"/>
+      <c r="R12" s="303"/>
+      <c r="S12" s="303"/>
+      <c r="T12" s="303"/>
+      <c r="U12" s="303"/>
+      <c r="V12" s="303"/>
+      <c r="W12" s="303"/>
+      <c r="X12" s="303"/>
+      <c r="Y12" s="303"/>
+      <c r="Z12" s="303"/>
+      <c r="AA12" s="303"/>
+      <c r="AB12" s="303"/>
+      <c r="AC12" s="303"/>
+      <c r="AD12" s="303"/>
+      <c r="AE12" s="303"/>
+      <c r="AF12" s="303"/>
+      <c r="AG12" s="303"/>
+      <c r="AH12" s="303"/>
+      <c r="AI12" s="303"/>
+      <c r="AJ12" s="303"/>
+      <c r="AK12" s="303"/>
+      <c r="AL12" s="303"/>
+      <c r="AM12" s="303"/>
+      <c r="AN12" s="303"/>
+      <c r="AO12" s="303"/>
+      <c r="AP12" s="303"/>
+      <c r="AQ12" s="304"/>
     </row>
     <row r="13" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A13" s="269"/>
-      <c r="B13" s="270"/>
-      <c r="C13" s="270"/>
-      <c r="D13" s="270"/>
-      <c r="E13" s="270"/>
-      <c r="F13" s="270"/>
-      <c r="G13" s="270"/>
-      <c r="H13" s="271"/>
-      <c r="I13" s="282"/>
-      <c r="J13" s="277"/>
-      <c r="K13" s="277"/>
-      <c r="L13" s="277"/>
-      <c r="M13" s="277"/>
-      <c r="N13" s="277"/>
-      <c r="O13" s="277"/>
-      <c r="P13" s="277"/>
-      <c r="Q13" s="277"/>
-      <c r="R13" s="277"/>
-      <c r="S13" s="277"/>
-      <c r="T13" s="277"/>
-      <c r="U13" s="277"/>
-      <c r="V13" s="277"/>
-      <c r="W13" s="277"/>
-      <c r="X13" s="277"/>
-      <c r="Y13" s="277"/>
-      <c r="Z13" s="277"/>
-      <c r="AA13" s="277"/>
-      <c r="AB13" s="277"/>
-      <c r="AC13" s="277"/>
-      <c r="AD13" s="277"/>
-      <c r="AE13" s="277"/>
-      <c r="AF13" s="277"/>
-      <c r="AG13" s="277"/>
-      <c r="AH13" s="277"/>
-      <c r="AI13" s="277"/>
-      <c r="AJ13" s="277"/>
-      <c r="AK13" s="277"/>
-      <c r="AL13" s="277"/>
-      <c r="AM13" s="277"/>
-      <c r="AN13" s="277"/>
-      <c r="AO13" s="277"/>
-      <c r="AP13" s="277"/>
-      <c r="AQ13" s="278"/>
+      <c r="A13" s="297"/>
+      <c r="B13" s="298"/>
+      <c r="C13" s="298"/>
+      <c r="D13" s="298"/>
+      <c r="E13" s="298"/>
+      <c r="F13" s="298"/>
+      <c r="G13" s="298"/>
+      <c r="H13" s="299"/>
+      <c r="I13" s="310"/>
+      <c r="J13" s="305"/>
+      <c r="K13" s="305"/>
+      <c r="L13" s="305"/>
+      <c r="M13" s="305"/>
+      <c r="N13" s="305"/>
+      <c r="O13" s="305"/>
+      <c r="P13" s="305"/>
+      <c r="Q13" s="305"/>
+      <c r="R13" s="305"/>
+      <c r="S13" s="305"/>
+      <c r="T13" s="305"/>
+      <c r="U13" s="305"/>
+      <c r="V13" s="305"/>
+      <c r="W13" s="305"/>
+      <c r="X13" s="305"/>
+      <c r="Y13" s="305"/>
+      <c r="Z13" s="305"/>
+      <c r="AA13" s="305"/>
+      <c r="AB13" s="305"/>
+      <c r="AC13" s="305"/>
+      <c r="AD13" s="305"/>
+      <c r="AE13" s="305"/>
+      <c r="AF13" s="305"/>
+      <c r="AG13" s="305"/>
+      <c r="AH13" s="305"/>
+      <c r="AI13" s="305"/>
+      <c r="AJ13" s="305"/>
+      <c r="AK13" s="305"/>
+      <c r="AL13" s="305"/>
+      <c r="AM13" s="305"/>
+      <c r="AN13" s="305"/>
+      <c r="AO13" s="305"/>
+      <c r="AP13" s="305"/>
+      <c r="AQ13" s="306"/>
     </row>
     <row r="14" spans="1:43" ht="15" customHeight="1">
-      <c r="A14" s="272"/>
-      <c r="B14" s="273"/>
-      <c r="C14" s="273"/>
-      <c r="D14" s="273"/>
-      <c r="E14" s="273"/>
-      <c r="F14" s="273"/>
-      <c r="G14" s="273"/>
-      <c r="H14" s="274"/>
-      <c r="I14" s="283"/>
-      <c r="J14" s="279"/>
-      <c r="K14" s="279"/>
-      <c r="L14" s="279"/>
-      <c r="M14" s="279"/>
-      <c r="N14" s="279"/>
-      <c r="O14" s="279"/>
-      <c r="P14" s="279"/>
-      <c r="Q14" s="279"/>
-      <c r="R14" s="279"/>
-      <c r="S14" s="279"/>
-      <c r="T14" s="279"/>
-      <c r="U14" s="279"/>
-      <c r="V14" s="279"/>
-      <c r="W14" s="279"/>
-      <c r="X14" s="279"/>
-      <c r="Y14" s="279"/>
-      <c r="Z14" s="279"/>
-      <c r="AA14" s="279"/>
-      <c r="AB14" s="279"/>
-      <c r="AC14" s="279"/>
-      <c r="AD14" s="279"/>
-      <c r="AE14" s="279"/>
-      <c r="AF14" s="279"/>
-      <c r="AG14" s="279"/>
-      <c r="AH14" s="279"/>
-      <c r="AI14" s="279"/>
-      <c r="AJ14" s="279"/>
-      <c r="AK14" s="279"/>
-      <c r="AL14" s="279"/>
-      <c r="AM14" s="279"/>
-      <c r="AN14" s="279"/>
-      <c r="AO14" s="279"/>
-      <c r="AP14" s="279"/>
-      <c r="AQ14" s="280"/>
+      <c r="A14" s="300"/>
+      <c r="B14" s="301"/>
+      <c r="C14" s="301"/>
+      <c r="D14" s="301"/>
+      <c r="E14" s="301"/>
+      <c r="F14" s="301"/>
+      <c r="G14" s="301"/>
+      <c r="H14" s="302"/>
+      <c r="I14" s="311"/>
+      <c r="J14" s="307"/>
+      <c r="K14" s="307"/>
+      <c r="L14" s="307"/>
+      <c r="M14" s="307"/>
+      <c r="N14" s="307"/>
+      <c r="O14" s="307"/>
+      <c r="P14" s="307"/>
+      <c r="Q14" s="307"/>
+      <c r="R14" s="307"/>
+      <c r="S14" s="307"/>
+      <c r="T14" s="307"/>
+      <c r="U14" s="307"/>
+      <c r="V14" s="307"/>
+      <c r="W14" s="307"/>
+      <c r="X14" s="307"/>
+      <c r="Y14" s="307"/>
+      <c r="Z14" s="307"/>
+      <c r="AA14" s="307"/>
+      <c r="AB14" s="307"/>
+      <c r="AC14" s="307"/>
+      <c r="AD14" s="307"/>
+      <c r="AE14" s="307"/>
+      <c r="AF14" s="307"/>
+      <c r="AG14" s="307"/>
+      <c r="AH14" s="307"/>
+      <c r="AI14" s="307"/>
+      <c r="AJ14" s="307"/>
+      <c r="AK14" s="307"/>
+      <c r="AL14" s="307"/>
+      <c r="AM14" s="307"/>
+      <c r="AN14" s="307"/>
+      <c r="AO14" s="307"/>
+      <c r="AP14" s="307"/>
+      <c r="AQ14" s="308"/>
     </row>
     <row r="15" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A15" s="266" t="s">
+      <c r="A15" s="294" t="s">
         <v>257</v>
       </c>
-      <c r="B15" s="267"/>
-      <c r="C15" s="267"/>
-      <c r="D15" s="267"/>
-      <c r="E15" s="267"/>
-      <c r="F15" s="267"/>
-      <c r="G15" s="267"/>
-      <c r="H15" s="268"/>
-      <c r="I15" s="281" t="s">
+      <c r="B15" s="295"/>
+      <c r="C15" s="295"/>
+      <c r="D15" s="295"/>
+      <c r="E15" s="295"/>
+      <c r="F15" s="295"/>
+      <c r="G15" s="295"/>
+      <c r="H15" s="296"/>
+      <c r="I15" s="309" t="s">
         <v>265</v>
       </c>
-      <c r="J15" s="275"/>
-      <c r="K15" s="275"/>
-      <c r="L15" s="275"/>
-      <c r="M15" s="275"/>
-      <c r="N15" s="275"/>
-      <c r="O15" s="275"/>
-      <c r="P15" s="275"/>
-      <c r="Q15" s="275"/>
-      <c r="R15" s="275"/>
-      <c r="S15" s="275"/>
-      <c r="T15" s="275"/>
-      <c r="U15" s="275"/>
-      <c r="V15" s="275"/>
-      <c r="W15" s="275"/>
-      <c r="X15" s="275"/>
-      <c r="Y15" s="275"/>
-      <c r="Z15" s="275"/>
-      <c r="AA15" s="275"/>
-      <c r="AB15" s="275"/>
-      <c r="AC15" s="275"/>
-      <c r="AD15" s="275"/>
-      <c r="AE15" s="275"/>
-      <c r="AF15" s="275"/>
-      <c r="AG15" s="275"/>
-      <c r="AH15" s="275"/>
-      <c r="AI15" s="275"/>
-      <c r="AJ15" s="275"/>
-      <c r="AK15" s="275"/>
-      <c r="AL15" s="275"/>
-      <c r="AM15" s="275"/>
-      <c r="AN15" s="275"/>
-      <c r="AO15" s="275"/>
-      <c r="AP15" s="275"/>
-      <c r="AQ15" s="276"/>
+      <c r="J15" s="303"/>
+      <c r="K15" s="303"/>
+      <c r="L15" s="303"/>
+      <c r="M15" s="303"/>
+      <c r="N15" s="303"/>
+      <c r="O15" s="303"/>
+      <c r="P15" s="303"/>
+      <c r="Q15" s="303"/>
+      <c r="R15" s="303"/>
+      <c r="S15" s="303"/>
+      <c r="T15" s="303"/>
+      <c r="U15" s="303"/>
+      <c r="V15" s="303"/>
+      <c r="W15" s="303"/>
+      <c r="X15" s="303"/>
+      <c r="Y15" s="303"/>
+      <c r="Z15" s="303"/>
+      <c r="AA15" s="303"/>
+      <c r="AB15" s="303"/>
+      <c r="AC15" s="303"/>
+      <c r="AD15" s="303"/>
+      <c r="AE15" s="303"/>
+      <c r="AF15" s="303"/>
+      <c r="AG15" s="303"/>
+      <c r="AH15" s="303"/>
+      <c r="AI15" s="303"/>
+      <c r="AJ15" s="303"/>
+      <c r="AK15" s="303"/>
+      <c r="AL15" s="303"/>
+      <c r="AM15" s="303"/>
+      <c r="AN15" s="303"/>
+      <c r="AO15" s="303"/>
+      <c r="AP15" s="303"/>
+      <c r="AQ15" s="304"/>
     </row>
     <row r="16" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A16" s="269"/>
-      <c r="B16" s="270"/>
-      <c r="C16" s="270"/>
-      <c r="D16" s="270"/>
-      <c r="E16" s="270"/>
-      <c r="F16" s="270"/>
-      <c r="G16" s="270"/>
-      <c r="H16" s="271"/>
-      <c r="I16" s="282"/>
-      <c r="J16" s="277"/>
-      <c r="K16" s="277"/>
-      <c r="L16" s="277"/>
-      <c r="M16" s="277"/>
-      <c r="N16" s="277"/>
-      <c r="O16" s="277"/>
-      <c r="P16" s="277"/>
-      <c r="Q16" s="277"/>
-      <c r="R16" s="277"/>
-      <c r="S16" s="277"/>
-      <c r="T16" s="277"/>
-      <c r="U16" s="277"/>
-      <c r="V16" s="277"/>
-      <c r="W16" s="277"/>
-      <c r="X16" s="277"/>
-      <c r="Y16" s="277"/>
-      <c r="Z16" s="277"/>
-      <c r="AA16" s="277"/>
-      <c r="AB16" s="277"/>
-      <c r="AC16" s="277"/>
-      <c r="AD16" s="277"/>
-      <c r="AE16" s="277"/>
-      <c r="AF16" s="277"/>
-      <c r="AG16" s="277"/>
-      <c r="AH16" s="277"/>
-      <c r="AI16" s="277"/>
-      <c r="AJ16" s="277"/>
-      <c r="AK16" s="277"/>
-      <c r="AL16" s="277"/>
-      <c r="AM16" s="277"/>
-      <c r="AN16" s="277"/>
-      <c r="AO16" s="277"/>
-      <c r="AP16" s="277"/>
-      <c r="AQ16" s="278"/>
+      <c r="A16" s="297"/>
+      <c r="B16" s="298"/>
+      <c r="C16" s="298"/>
+      <c r="D16" s="298"/>
+      <c r="E16" s="298"/>
+      <c r="F16" s="298"/>
+      <c r="G16" s="298"/>
+      <c r="H16" s="299"/>
+      <c r="I16" s="310"/>
+      <c r="J16" s="305"/>
+      <c r="K16" s="305"/>
+      <c r="L16" s="305"/>
+      <c r="M16" s="305"/>
+      <c r="N16" s="305"/>
+      <c r="O16" s="305"/>
+      <c r="P16" s="305"/>
+      <c r="Q16" s="305"/>
+      <c r="R16" s="305"/>
+      <c r="S16" s="305"/>
+      <c r="T16" s="305"/>
+      <c r="U16" s="305"/>
+      <c r="V16" s="305"/>
+      <c r="W16" s="305"/>
+      <c r="X16" s="305"/>
+      <c r="Y16" s="305"/>
+      <c r="Z16" s="305"/>
+      <c r="AA16" s="305"/>
+      <c r="AB16" s="305"/>
+      <c r="AC16" s="305"/>
+      <c r="AD16" s="305"/>
+      <c r="AE16" s="305"/>
+      <c r="AF16" s="305"/>
+      <c r="AG16" s="305"/>
+      <c r="AH16" s="305"/>
+      <c r="AI16" s="305"/>
+      <c r="AJ16" s="305"/>
+      <c r="AK16" s="305"/>
+      <c r="AL16" s="305"/>
+      <c r="AM16" s="305"/>
+      <c r="AN16" s="305"/>
+      <c r="AO16" s="305"/>
+      <c r="AP16" s="305"/>
+      <c r="AQ16" s="306"/>
     </row>
     <row r="17" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A17" s="272"/>
-      <c r="B17" s="273"/>
-      <c r="C17" s="273"/>
-      <c r="D17" s="273"/>
-      <c r="E17" s="273"/>
-      <c r="F17" s="273"/>
-      <c r="G17" s="273"/>
-      <c r="H17" s="274"/>
-      <c r="I17" s="283"/>
-      <c r="J17" s="279"/>
-      <c r="K17" s="279"/>
-      <c r="L17" s="279"/>
-      <c r="M17" s="279"/>
-      <c r="N17" s="279"/>
-      <c r="O17" s="279"/>
-      <c r="P17" s="279"/>
-      <c r="Q17" s="279"/>
-      <c r="R17" s="279"/>
-      <c r="S17" s="279"/>
-      <c r="T17" s="279"/>
-      <c r="U17" s="279"/>
-      <c r="V17" s="279"/>
-      <c r="W17" s="279"/>
-      <c r="X17" s="279"/>
-      <c r="Y17" s="279"/>
-      <c r="Z17" s="279"/>
-      <c r="AA17" s="279"/>
-      <c r="AB17" s="279"/>
-      <c r="AC17" s="279"/>
-      <c r="AD17" s="279"/>
-      <c r="AE17" s="279"/>
-      <c r="AF17" s="279"/>
-      <c r="AG17" s="279"/>
-      <c r="AH17" s="279"/>
-      <c r="AI17" s="279"/>
-      <c r="AJ17" s="279"/>
-      <c r="AK17" s="279"/>
-      <c r="AL17" s="279"/>
-      <c r="AM17" s="279"/>
-      <c r="AN17" s="279"/>
-      <c r="AO17" s="279"/>
-      <c r="AP17" s="279"/>
-      <c r="AQ17" s="280"/>
+      <c r="A17" s="300"/>
+      <c r="B17" s="301"/>
+      <c r="C17" s="301"/>
+      <c r="D17" s="301"/>
+      <c r="E17" s="301"/>
+      <c r="F17" s="301"/>
+      <c r="G17" s="301"/>
+      <c r="H17" s="302"/>
+      <c r="I17" s="311"/>
+      <c r="J17" s="307"/>
+      <c r="K17" s="307"/>
+      <c r="L17" s="307"/>
+      <c r="M17" s="307"/>
+      <c r="N17" s="307"/>
+      <c r="O17" s="307"/>
+      <c r="P17" s="307"/>
+      <c r="Q17" s="307"/>
+      <c r="R17" s="307"/>
+      <c r="S17" s="307"/>
+      <c r="T17" s="307"/>
+      <c r="U17" s="307"/>
+      <c r="V17" s="307"/>
+      <c r="W17" s="307"/>
+      <c r="X17" s="307"/>
+      <c r="Y17" s="307"/>
+      <c r="Z17" s="307"/>
+      <c r="AA17" s="307"/>
+      <c r="AB17" s="307"/>
+      <c r="AC17" s="307"/>
+      <c r="AD17" s="307"/>
+      <c r="AE17" s="307"/>
+      <c r="AF17" s="307"/>
+      <c r="AG17" s="307"/>
+      <c r="AH17" s="307"/>
+      <c r="AI17" s="307"/>
+      <c r="AJ17" s="307"/>
+      <c r="AK17" s="307"/>
+      <c r="AL17" s="307"/>
+      <c r="AM17" s="307"/>
+      <c r="AN17" s="307"/>
+      <c r="AO17" s="307"/>
+      <c r="AP17" s="307"/>
+      <c r="AQ17" s="308"/>
     </row>
     <row r="18" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A18" s="266" t="s">
+      <c r="A18" s="294" t="s">
         <v>258</v>
       </c>
-      <c r="B18" s="267"/>
-      <c r="C18" s="267"/>
-      <c r="D18" s="267"/>
-      <c r="E18" s="267"/>
-      <c r="F18" s="267"/>
-      <c r="G18" s="267"/>
-      <c r="H18" s="268"/>
-      <c r="I18" s="284" t="s">
+      <c r="B18" s="295"/>
+      <c r="C18" s="295"/>
+      <c r="D18" s="295"/>
+      <c r="E18" s="295"/>
+      <c r="F18" s="295"/>
+      <c r="G18" s="295"/>
+      <c r="H18" s="296"/>
+      <c r="I18" s="312" t="s">
         <v>259</v>
       </c>
-      <c r="J18" s="285"/>
-      <c r="K18" s="285"/>
-      <c r="L18" s="285"/>
-      <c r="M18" s="285"/>
-      <c r="N18" s="285"/>
-      <c r="O18" s="285"/>
-      <c r="P18" s="285"/>
-      <c r="Q18" s="286"/>
-      <c r="R18" s="287" t="s">
+      <c r="J18" s="313"/>
+      <c r="K18" s="313"/>
+      <c r="L18" s="313"/>
+      <c r="M18" s="313"/>
+      <c r="N18" s="313"/>
+      <c r="O18" s="313"/>
+      <c r="P18" s="313"/>
+      <c r="Q18" s="314"/>
+      <c r="R18" s="315" t="s">
         <v>260</v>
       </c>
-      <c r="S18" s="288"/>
-      <c r="T18" s="288"/>
-      <c r="U18" s="288"/>
-      <c r="V18" s="288"/>
-      <c r="W18" s="288"/>
-      <c r="X18" s="288"/>
-      <c r="Y18" s="288"/>
-      <c r="Z18" s="288"/>
-      <c r="AA18" s="288"/>
-      <c r="AB18" s="288"/>
-      <c r="AC18" s="288"/>
-      <c r="AD18" s="288"/>
-      <c r="AE18" s="288"/>
-      <c r="AF18" s="288"/>
-      <c r="AG18" s="288"/>
-      <c r="AH18" s="288"/>
-      <c r="AI18" s="288"/>
-      <c r="AJ18" s="288"/>
-      <c r="AK18" s="288"/>
-      <c r="AL18" s="288"/>
-      <c r="AM18" s="288"/>
-      <c r="AN18" s="288"/>
-      <c r="AO18" s="288"/>
-      <c r="AP18" s="288"/>
-      <c r="AQ18" s="289"/>
+      <c r="S18" s="316"/>
+      <c r="T18" s="316"/>
+      <c r="U18" s="316"/>
+      <c r="V18" s="316"/>
+      <c r="W18" s="316"/>
+      <c r="X18" s="316"/>
+      <c r="Y18" s="316"/>
+      <c r="Z18" s="316"/>
+      <c r="AA18" s="316"/>
+      <c r="AB18" s="316"/>
+      <c r="AC18" s="316"/>
+      <c r="AD18" s="316"/>
+      <c r="AE18" s="316"/>
+      <c r="AF18" s="316"/>
+      <c r="AG18" s="316"/>
+      <c r="AH18" s="316"/>
+      <c r="AI18" s="316"/>
+      <c r="AJ18" s="316"/>
+      <c r="AK18" s="316"/>
+      <c r="AL18" s="316"/>
+      <c r="AM18" s="316"/>
+      <c r="AN18" s="316"/>
+      <c r="AO18" s="316"/>
+      <c r="AP18" s="316"/>
+      <c r="AQ18" s="317"/>
     </row>
     <row r="19" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A19" s="269"/>
-      <c r="B19" s="270"/>
-      <c r="C19" s="270"/>
-      <c r="D19" s="270"/>
-      <c r="E19" s="270"/>
-      <c r="F19" s="270"/>
-      <c r="G19" s="270"/>
-      <c r="H19" s="271"/>
-      <c r="I19" s="290" t="s">
+      <c r="A19" s="297"/>
+      <c r="B19" s="298"/>
+      <c r="C19" s="298"/>
+      <c r="D19" s="298"/>
+      <c r="E19" s="298"/>
+      <c r="F19" s="298"/>
+      <c r="G19" s="298"/>
+      <c r="H19" s="299"/>
+      <c r="I19" s="318" t="s">
         <v>161</v>
       </c>
-      <c r="J19" s="291"/>
-      <c r="K19" s="291"/>
-      <c r="L19" s="291"/>
-      <c r="M19" s="291"/>
-      <c r="N19" s="291"/>
-      <c r="O19" s="291"/>
-      <c r="P19" s="291"/>
-      <c r="Q19" s="292"/>
-      <c r="R19" s="281" t="s">
+      <c r="J19" s="319"/>
+      <c r="K19" s="319"/>
+      <c r="L19" s="319"/>
+      <c r="M19" s="319"/>
+      <c r="N19" s="319"/>
+      <c r="O19" s="319"/>
+      <c r="P19" s="319"/>
+      <c r="Q19" s="320"/>
+      <c r="R19" s="309" t="s">
         <v>266</v>
       </c>
-      <c r="S19" s="275"/>
-      <c r="T19" s="275"/>
-      <c r="U19" s="275"/>
-      <c r="V19" s="275"/>
-      <c r="W19" s="275"/>
-      <c r="X19" s="275"/>
-      <c r="Y19" s="275"/>
-      <c r="Z19" s="275"/>
-      <c r="AA19" s="275"/>
-      <c r="AB19" s="275"/>
-      <c r="AC19" s="275"/>
-      <c r="AD19" s="275"/>
-      <c r="AE19" s="275"/>
-      <c r="AF19" s="275"/>
-      <c r="AG19" s="275"/>
-      <c r="AH19" s="275"/>
-      <c r="AI19" s="275"/>
-      <c r="AJ19" s="275"/>
-      <c r="AK19" s="275"/>
-      <c r="AL19" s="275"/>
-      <c r="AM19" s="275"/>
-      <c r="AN19" s="275"/>
-      <c r="AO19" s="275"/>
-      <c r="AP19" s="275"/>
-      <c r="AQ19" s="276"/>
+      <c r="S19" s="303"/>
+      <c r="T19" s="303"/>
+      <c r="U19" s="303"/>
+      <c r="V19" s="303"/>
+      <c r="W19" s="303"/>
+      <c r="X19" s="303"/>
+      <c r="Y19" s="303"/>
+      <c r="Z19" s="303"/>
+      <c r="AA19" s="303"/>
+      <c r="AB19" s="303"/>
+      <c r="AC19" s="303"/>
+      <c r="AD19" s="303"/>
+      <c r="AE19" s="303"/>
+      <c r="AF19" s="303"/>
+      <c r="AG19" s="303"/>
+      <c r="AH19" s="303"/>
+      <c r="AI19" s="303"/>
+      <c r="AJ19" s="303"/>
+      <c r="AK19" s="303"/>
+      <c r="AL19" s="303"/>
+      <c r="AM19" s="303"/>
+      <c r="AN19" s="303"/>
+      <c r="AO19" s="303"/>
+      <c r="AP19" s="303"/>
+      <c r="AQ19" s="304"/>
     </row>
     <row r="20" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A20" s="272"/>
-      <c r="B20" s="273"/>
-      <c r="C20" s="273"/>
-      <c r="D20" s="273"/>
-      <c r="E20" s="273"/>
-      <c r="F20" s="273"/>
-      <c r="G20" s="273"/>
-      <c r="H20" s="274"/>
-      <c r="I20" s="293"/>
-      <c r="J20" s="294"/>
-      <c r="K20" s="294"/>
-      <c r="L20" s="294"/>
-      <c r="M20" s="294"/>
-      <c r="N20" s="294"/>
-      <c r="O20" s="294"/>
-      <c r="P20" s="294"/>
-      <c r="Q20" s="295"/>
-      <c r="R20" s="283"/>
-      <c r="S20" s="279"/>
-      <c r="T20" s="279"/>
-      <c r="U20" s="279"/>
-      <c r="V20" s="279"/>
-      <c r="W20" s="279"/>
-      <c r="X20" s="279"/>
-      <c r="Y20" s="279"/>
-      <c r="Z20" s="279"/>
-      <c r="AA20" s="279"/>
-      <c r="AB20" s="279"/>
-      <c r="AC20" s="279"/>
-      <c r="AD20" s="279"/>
-      <c r="AE20" s="279"/>
-      <c r="AF20" s="279"/>
-      <c r="AG20" s="279"/>
-      <c r="AH20" s="279"/>
-      <c r="AI20" s="279"/>
-      <c r="AJ20" s="279"/>
-      <c r="AK20" s="279"/>
-      <c r="AL20" s="279"/>
-      <c r="AM20" s="279"/>
-      <c r="AN20" s="279"/>
-      <c r="AO20" s="279"/>
-      <c r="AP20" s="279"/>
-      <c r="AQ20" s="280"/>
+      <c r="A20" s="300"/>
+      <c r="B20" s="301"/>
+      <c r="C20" s="301"/>
+      <c r="D20" s="301"/>
+      <c r="E20" s="301"/>
+      <c r="F20" s="301"/>
+      <c r="G20" s="301"/>
+      <c r="H20" s="302"/>
+      <c r="I20" s="321"/>
+      <c r="J20" s="322"/>
+      <c r="K20" s="322"/>
+      <c r="L20" s="322"/>
+      <c r="M20" s="322"/>
+      <c r="N20" s="322"/>
+      <c r="O20" s="322"/>
+      <c r="P20" s="322"/>
+      <c r="Q20" s="323"/>
+      <c r="R20" s="311"/>
+      <c r="S20" s="307"/>
+      <c r="T20" s="307"/>
+      <c r="U20" s="307"/>
+      <c r="V20" s="307"/>
+      <c r="W20" s="307"/>
+      <c r="X20" s="307"/>
+      <c r="Y20" s="307"/>
+      <c r="Z20" s="307"/>
+      <c r="AA20" s="307"/>
+      <c r="AB20" s="307"/>
+      <c r="AC20" s="307"/>
+      <c r="AD20" s="307"/>
+      <c r="AE20" s="307"/>
+      <c r="AF20" s="307"/>
+      <c r="AG20" s="307"/>
+      <c r="AH20" s="307"/>
+      <c r="AI20" s="307"/>
+      <c r="AJ20" s="307"/>
+      <c r="AK20" s="307"/>
+      <c r="AL20" s="307"/>
+      <c r="AM20" s="307"/>
+      <c r="AN20" s="307"/>
+      <c r="AO20" s="307"/>
+      <c r="AP20" s="307"/>
+      <c r="AQ20" s="308"/>
     </row>
     <row r="21" spans="1:43" ht="15.65" customHeight="1">
       <c r="A21" s="1"/>
@@ -7151,100 +7151,100 @@
       <c r="AQ26" s="3"/>
     </row>
     <row r="27" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A27" s="260">
+      <c r="A27" s="288">
         <f>MAX('Change log'!C6:F52)</f>
         <v>1.3</v>
       </c>
-      <c r="B27" s="261"/>
-      <c r="C27" s="261"/>
-      <c r="D27" s="261"/>
-      <c r="E27" s="261"/>
-      <c r="F27" s="261"/>
-      <c r="G27" s="261"/>
-      <c r="H27" s="261"/>
-      <c r="I27" s="261"/>
-      <c r="J27" s="261"/>
-      <c r="K27" s="261"/>
-      <c r="L27" s="261"/>
-      <c r="M27" s="261"/>
-      <c r="N27" s="261"/>
-      <c r="O27" s="261"/>
-      <c r="P27" s="261"/>
-      <c r="Q27" s="261"/>
-      <c r="R27" s="261"/>
-      <c r="S27" s="261"/>
-      <c r="T27" s="261"/>
-      <c r="U27" s="261"/>
-      <c r="V27" s="261"/>
-      <c r="W27" s="261"/>
-      <c r="X27" s="261"/>
-      <c r="Y27" s="261"/>
-      <c r="Z27" s="261"/>
-      <c r="AA27" s="261"/>
-      <c r="AB27" s="261"/>
-      <c r="AC27" s="261"/>
-      <c r="AD27" s="261"/>
-      <c r="AE27" s="261"/>
-      <c r="AF27" s="261"/>
-      <c r="AG27" s="261"/>
-      <c r="AH27" s="261"/>
-      <c r="AI27" s="261"/>
-      <c r="AJ27" s="261"/>
-      <c r="AK27" s="261"/>
-      <c r="AL27" s="261"/>
-      <c r="AM27" s="261"/>
-      <c r="AN27" s="261"/>
-      <c r="AO27" s="261"/>
-      <c r="AP27" s="261"/>
-      <c r="AQ27" s="262"/>
+      <c r="B27" s="289"/>
+      <c r="C27" s="289"/>
+      <c r="D27" s="289"/>
+      <c r="E27" s="289"/>
+      <c r="F27" s="289"/>
+      <c r="G27" s="289"/>
+      <c r="H27" s="289"/>
+      <c r="I27" s="289"/>
+      <c r="J27" s="289"/>
+      <c r="K27" s="289"/>
+      <c r="L27" s="289"/>
+      <c r="M27" s="289"/>
+      <c r="N27" s="289"/>
+      <c r="O27" s="289"/>
+      <c r="P27" s="289"/>
+      <c r="Q27" s="289"/>
+      <c r="R27" s="289"/>
+      <c r="S27" s="289"/>
+      <c r="T27" s="289"/>
+      <c r="U27" s="289"/>
+      <c r="V27" s="289"/>
+      <c r="W27" s="289"/>
+      <c r="X27" s="289"/>
+      <c r="Y27" s="289"/>
+      <c r="Z27" s="289"/>
+      <c r="AA27" s="289"/>
+      <c r="AB27" s="289"/>
+      <c r="AC27" s="289"/>
+      <c r="AD27" s="289"/>
+      <c r="AE27" s="289"/>
+      <c r="AF27" s="289"/>
+      <c r="AG27" s="289"/>
+      <c r="AH27" s="289"/>
+      <c r="AI27" s="289"/>
+      <c r="AJ27" s="289"/>
+      <c r="AK27" s="289"/>
+      <c r="AL27" s="289"/>
+      <c r="AM27" s="289"/>
+      <c r="AN27" s="289"/>
+      <c r="AO27" s="289"/>
+      <c r="AP27" s="289"/>
+      <c r="AQ27" s="290"/>
     </row>
     <row r="28" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A28" s="263">
+      <c r="A28" s="291">
         <f>MAX('Change log'!G6:G52)</f>
         <v>44508</v>
       </c>
-      <c r="B28" s="264"/>
-      <c r="C28" s="264"/>
-      <c r="D28" s="264"/>
-      <c r="E28" s="264"/>
-      <c r="F28" s="264"/>
-      <c r="G28" s="264"/>
-      <c r="H28" s="264"/>
-      <c r="I28" s="264"/>
-      <c r="J28" s="264"/>
-      <c r="K28" s="264"/>
-      <c r="L28" s="264"/>
-      <c r="M28" s="264"/>
-      <c r="N28" s="264"/>
-      <c r="O28" s="264"/>
-      <c r="P28" s="264"/>
-      <c r="Q28" s="264"/>
-      <c r="R28" s="264"/>
-      <c r="S28" s="264"/>
-      <c r="T28" s="264"/>
-      <c r="U28" s="264"/>
-      <c r="V28" s="264"/>
-      <c r="W28" s="264"/>
-      <c r="X28" s="264"/>
-      <c r="Y28" s="264"/>
-      <c r="Z28" s="264"/>
-      <c r="AA28" s="264"/>
-      <c r="AB28" s="264"/>
-      <c r="AC28" s="264"/>
-      <c r="AD28" s="264"/>
-      <c r="AE28" s="264"/>
-      <c r="AF28" s="264"/>
-      <c r="AG28" s="264"/>
-      <c r="AH28" s="264"/>
-      <c r="AI28" s="264"/>
-      <c r="AJ28" s="264"/>
-      <c r="AK28" s="264"/>
-      <c r="AL28" s="264"/>
-      <c r="AM28" s="264"/>
-      <c r="AN28" s="264"/>
-      <c r="AO28" s="264"/>
-      <c r="AP28" s="264"/>
-      <c r="AQ28" s="265"/>
+      <c r="B28" s="292"/>
+      <c r="C28" s="292"/>
+      <c r="D28" s="292"/>
+      <c r="E28" s="292"/>
+      <c r="F28" s="292"/>
+      <c r="G28" s="292"/>
+      <c r="H28" s="292"/>
+      <c r="I28" s="292"/>
+      <c r="J28" s="292"/>
+      <c r="K28" s="292"/>
+      <c r="L28" s="292"/>
+      <c r="M28" s="292"/>
+      <c r="N28" s="292"/>
+      <c r="O28" s="292"/>
+      <c r="P28" s="292"/>
+      <c r="Q28" s="292"/>
+      <c r="R28" s="292"/>
+      <c r="S28" s="292"/>
+      <c r="T28" s="292"/>
+      <c r="U28" s="292"/>
+      <c r="V28" s="292"/>
+      <c r="W28" s="292"/>
+      <c r="X28" s="292"/>
+      <c r="Y28" s="292"/>
+      <c r="Z28" s="292"/>
+      <c r="AA28" s="292"/>
+      <c r="AB28" s="292"/>
+      <c r="AC28" s="292"/>
+      <c r="AD28" s="292"/>
+      <c r="AE28" s="292"/>
+      <c r="AF28" s="292"/>
+      <c r="AG28" s="292"/>
+      <c r="AH28" s="292"/>
+      <c r="AI28" s="292"/>
+      <c r="AJ28" s="292"/>
+      <c r="AK28" s="292"/>
+      <c r="AL28" s="292"/>
+      <c r="AM28" s="292"/>
+      <c r="AN28" s="292"/>
+      <c r="AO28" s="292"/>
+      <c r="AP28" s="292"/>
+      <c r="AQ28" s="293"/>
     </row>
     <row r="29" spans="1:43" ht="15.65" customHeight="1">
       <c r="A29" s="89"/>
@@ -7562,51 +7562,51 @@
       <c r="AQ35" s="3"/>
     </row>
     <row r="36" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A36" s="257" t="s">
+      <c r="A36" s="285" t="s">
         <v>190</v>
       </c>
-      <c r="B36" s="258"/>
-      <c r="C36" s="258"/>
-      <c r="D36" s="258"/>
-      <c r="E36" s="258"/>
-      <c r="F36" s="258"/>
-      <c r="G36" s="258"/>
-      <c r="H36" s="258"/>
-      <c r="I36" s="258"/>
-      <c r="J36" s="258"/>
-      <c r="K36" s="258"/>
-      <c r="L36" s="258"/>
-      <c r="M36" s="258"/>
-      <c r="N36" s="258"/>
-      <c r="O36" s="258"/>
-      <c r="P36" s="258"/>
-      <c r="Q36" s="258"/>
-      <c r="R36" s="258"/>
-      <c r="S36" s="258"/>
-      <c r="T36" s="258"/>
-      <c r="U36" s="258"/>
-      <c r="V36" s="258"/>
-      <c r="W36" s="258"/>
-      <c r="X36" s="258"/>
-      <c r="Y36" s="258"/>
-      <c r="Z36" s="258"/>
-      <c r="AA36" s="258"/>
-      <c r="AB36" s="258"/>
-      <c r="AC36" s="258"/>
-      <c r="AD36" s="258"/>
-      <c r="AE36" s="258"/>
-      <c r="AF36" s="258"/>
-      <c r="AG36" s="258"/>
-      <c r="AH36" s="258"/>
-      <c r="AI36" s="258"/>
-      <c r="AJ36" s="258"/>
-      <c r="AK36" s="258"/>
-      <c r="AL36" s="258"/>
-      <c r="AM36" s="258"/>
-      <c r="AN36" s="258"/>
-      <c r="AO36" s="258"/>
-      <c r="AP36" s="258"/>
-      <c r="AQ36" s="259"/>
+      <c r="B36" s="286"/>
+      <c r="C36" s="286"/>
+      <c r="D36" s="286"/>
+      <c r="E36" s="286"/>
+      <c r="F36" s="286"/>
+      <c r="G36" s="286"/>
+      <c r="H36" s="286"/>
+      <c r="I36" s="286"/>
+      <c r="J36" s="286"/>
+      <c r="K36" s="286"/>
+      <c r="L36" s="286"/>
+      <c r="M36" s="286"/>
+      <c r="N36" s="286"/>
+      <c r="O36" s="286"/>
+      <c r="P36" s="286"/>
+      <c r="Q36" s="286"/>
+      <c r="R36" s="286"/>
+      <c r="S36" s="286"/>
+      <c r="T36" s="286"/>
+      <c r="U36" s="286"/>
+      <c r="V36" s="286"/>
+      <c r="W36" s="286"/>
+      <c r="X36" s="286"/>
+      <c r="Y36" s="286"/>
+      <c r="Z36" s="286"/>
+      <c r="AA36" s="286"/>
+      <c r="AB36" s="286"/>
+      <c r="AC36" s="286"/>
+      <c r="AD36" s="286"/>
+      <c r="AE36" s="286"/>
+      <c r="AF36" s="286"/>
+      <c r="AG36" s="286"/>
+      <c r="AH36" s="286"/>
+      <c r="AI36" s="286"/>
+      <c r="AJ36" s="286"/>
+      <c r="AK36" s="286"/>
+      <c r="AL36" s="286"/>
+      <c r="AM36" s="286"/>
+      <c r="AN36" s="286"/>
+      <c r="AO36" s="286"/>
+      <c r="AP36" s="286"/>
+      <c r="AQ36" s="287"/>
     </row>
     <row r="37" spans="1:43" ht="15.65" customHeight="1">
       <c r="A37" s="35"/>
@@ -7755,16 +7755,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A5:AB8"/>
-    <mergeCell ref="AC5:AG5"/>
-    <mergeCell ref="AH5:AL5"/>
-    <mergeCell ref="AM5:AQ5"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="AH6:AL6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AC7:AG8"/>
-    <mergeCell ref="AH7:AL8"/>
-    <mergeCell ref="AM7:AQ8"/>
     <mergeCell ref="A36:AQ36"/>
     <mergeCell ref="A27:AQ27"/>
     <mergeCell ref="A28:AQ28"/>
@@ -7779,6 +7769,16 @@
     <mergeCell ref="R18:AQ18"/>
     <mergeCell ref="I19:Q20"/>
     <mergeCell ref="R19:AQ20"/>
+    <mergeCell ref="A5:AB8"/>
+    <mergeCell ref="AC5:AG5"/>
+    <mergeCell ref="AH5:AL5"/>
+    <mergeCell ref="AM5:AQ5"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="AH6:AL6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AC7:AG8"/>
+    <mergeCell ref="AH7:AL8"/>
+    <mergeCell ref="AM7:AQ8"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="1">
@@ -7817,724 +7817,724 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="342" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="354"/>
-      <c r="C1" s="354"/>
-      <c r="D1" s="354"/>
-      <c r="E1" s="354"/>
-      <c r="F1" s="354"/>
-      <c r="G1" s="354"/>
-      <c r="H1" s="354"/>
-      <c r="I1" s="354" t="s">
+      <c r="B1" s="343"/>
+      <c r="C1" s="343"/>
+      <c r="D1" s="343"/>
+      <c r="E1" s="343"/>
+      <c r="F1" s="343"/>
+      <c r="G1" s="343"/>
+      <c r="H1" s="343"/>
+      <c r="I1" s="343" t="s">
         <v>256</v>
       </c>
-      <c r="J1" s="354"/>
-      <c r="K1" s="354"/>
-      <c r="L1" s="354"/>
-      <c r="M1" s="354"/>
-      <c r="N1" s="354"/>
-      <c r="O1" s="354"/>
-      <c r="P1" s="354"/>
-      <c r="Q1" s="354"/>
-      <c r="R1" s="354"/>
-      <c r="S1" s="354"/>
-      <c r="T1" s="342" t="s">
+      <c r="J1" s="343"/>
+      <c r="K1" s="343"/>
+      <c r="L1" s="343"/>
+      <c r="M1" s="343"/>
+      <c r="N1" s="343"/>
+      <c r="O1" s="343"/>
+      <c r="P1" s="343"/>
+      <c r="Q1" s="343"/>
+      <c r="R1" s="343"/>
+      <c r="S1" s="343"/>
+      <c r="T1" s="330" t="s">
         <v>257</v>
       </c>
-      <c r="U1" s="342"/>
-      <c r="V1" s="342"/>
-      <c r="W1" s="342"/>
-      <c r="X1" s="342"/>
-      <c r="Y1" s="342"/>
-      <c r="Z1" s="342"/>
-      <c r="AA1" s="342" t="s">
+      <c r="U1" s="330"/>
+      <c r="V1" s="330"/>
+      <c r="W1" s="330"/>
+      <c r="X1" s="330"/>
+      <c r="Y1" s="330"/>
+      <c r="Z1" s="330"/>
+      <c r="AA1" s="330" t="s">
         <v>270</v>
       </c>
-      <c r="AB1" s="342"/>
-      <c r="AC1" s="342"/>
-      <c r="AD1" s="342"/>
-      <c r="AE1" s="342"/>
-      <c r="AF1" s="342"/>
-      <c r="AG1" s="342"/>
-      <c r="AH1" s="342"/>
-      <c r="AI1" s="342"/>
-      <c r="AJ1" s="342"/>
-      <c r="AK1" s="342"/>
-      <c r="AL1" s="342"/>
-      <c r="AM1" s="342"/>
-      <c r="AN1" s="342"/>
-      <c r="AO1" s="342"/>
-      <c r="AP1" s="342"/>
-      <c r="AQ1" s="342"/>
-      <c r="AR1" s="342" t="s">
+      <c r="AB1" s="330"/>
+      <c r="AC1" s="330"/>
+      <c r="AD1" s="330"/>
+      <c r="AE1" s="330"/>
+      <c r="AF1" s="330"/>
+      <c r="AG1" s="330"/>
+      <c r="AH1" s="330"/>
+      <c r="AI1" s="330"/>
+      <c r="AJ1" s="330"/>
+      <c r="AK1" s="330"/>
+      <c r="AL1" s="330"/>
+      <c r="AM1" s="330"/>
+      <c r="AN1" s="330"/>
+      <c r="AO1" s="330"/>
+      <c r="AP1" s="330"/>
+      <c r="AQ1" s="330"/>
+      <c r="AR1" s="330" t="s">
         <v>271</v>
       </c>
-      <c r="AS1" s="342"/>
-      <c r="AT1" s="342"/>
-      <c r="AU1" s="342"/>
-      <c r="AV1" s="342"/>
-      <c r="AW1" s="355" t="s">
+      <c r="AS1" s="330"/>
+      <c r="AT1" s="330"/>
+      <c r="AU1" s="330"/>
+      <c r="AV1" s="330"/>
+      <c r="AW1" s="344" t="s">
         <v>261</v>
       </c>
-      <c r="AX1" s="355"/>
-      <c r="AY1" s="342"/>
-      <c r="AZ1" s="342"/>
-      <c r="BA1" s="342"/>
-      <c r="BB1" s="342" t="s">
+      <c r="AX1" s="344"/>
+      <c r="AY1" s="330"/>
+      <c r="AZ1" s="330"/>
+      <c r="BA1" s="330"/>
+      <c r="BB1" s="330" t="s">
         <v>272</v>
       </c>
-      <c r="BC1" s="342"/>
-      <c r="BD1" s="342"/>
-      <c r="BE1" s="342"/>
-      <c r="BF1" s="342"/>
+      <c r="BC1" s="330"/>
+      <c r="BD1" s="330"/>
+      <c r="BE1" s="330"/>
+      <c r="BF1" s="330"/>
     </row>
     <row r="2" spans="1:58" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A2" s="346" t="s">
+      <c r="A2" s="334" t="s">
         <v>273</v>
       </c>
-      <c r="B2" s="346"/>
-      <c r="C2" s="346"/>
-      <c r="D2" s="346"/>
-      <c r="E2" s="346"/>
-      <c r="F2" s="346"/>
-      <c r="G2" s="346"/>
-      <c r="H2" s="346"/>
-      <c r="I2" s="346" t="str">
+      <c r="B2" s="334"/>
+      <c r="C2" s="334"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334"/>
+      <c r="F2" s="334"/>
+      <c r="G2" s="334"/>
+      <c r="H2" s="334"/>
+      <c r="I2" s="334" t="str">
         <f>Cover!I12</f>
         <v>Manage Student</v>
       </c>
-      <c r="J2" s="346"/>
-      <c r="K2" s="346"/>
-      <c r="L2" s="346"/>
-      <c r="M2" s="346"/>
-      <c r="N2" s="346"/>
-      <c r="O2" s="346"/>
-      <c r="P2" s="346"/>
-      <c r="Q2" s="346"/>
-      <c r="R2" s="346"/>
-      <c r="S2" s="346"/>
-      <c r="T2" s="346" t="str">
+      <c r="J2" s="334"/>
+      <c r="K2" s="334"/>
+      <c r="L2" s="334"/>
+      <c r="M2" s="334"/>
+      <c r="N2" s="334"/>
+      <c r="O2" s="334"/>
+      <c r="P2" s="334"/>
+      <c r="Q2" s="334"/>
+      <c r="R2" s="334"/>
+      <c r="S2" s="334"/>
+      <c r="T2" s="334" t="str">
         <f>Cover!I15</f>
         <v>GMO_management_Student</v>
       </c>
-      <c r="U2" s="346"/>
-      <c r="V2" s="346"/>
-      <c r="W2" s="346"/>
-      <c r="X2" s="346"/>
-      <c r="Y2" s="346"/>
-      <c r="Z2" s="346"/>
-      <c r="AA2" s="329" t="str">
+      <c r="U2" s="334"/>
+      <c r="V2" s="334"/>
+      <c r="W2" s="334"/>
+      <c r="X2" s="334"/>
+      <c r="Y2" s="334"/>
+      <c r="Z2" s="334"/>
+      <c r="AA2" s="335" t="str">
         <f>Cover!R19</f>
         <v>Add student</v>
       </c>
-      <c r="AB2" s="329"/>
-      <c r="AC2" s="329"/>
-      <c r="AD2" s="329"/>
-      <c r="AE2" s="329"/>
-      <c r="AF2" s="329"/>
-      <c r="AG2" s="329"/>
-      <c r="AH2" s="329"/>
-      <c r="AI2" s="329"/>
-      <c r="AJ2" s="329"/>
-      <c r="AK2" s="329"/>
-      <c r="AL2" s="329"/>
-      <c r="AM2" s="329"/>
-      <c r="AN2" s="329"/>
-      <c r="AO2" s="329"/>
-      <c r="AP2" s="329"/>
-      <c r="AQ2" s="329"/>
-      <c r="AR2" s="347" t="str">
+      <c r="AB2" s="335"/>
+      <c r="AC2" s="335"/>
+      <c r="AD2" s="335"/>
+      <c r="AE2" s="335"/>
+      <c r="AF2" s="335"/>
+      <c r="AG2" s="335"/>
+      <c r="AH2" s="335"/>
+      <c r="AI2" s="335"/>
+      <c r="AJ2" s="335"/>
+      <c r="AK2" s="335"/>
+      <c r="AL2" s="335"/>
+      <c r="AM2" s="335"/>
+      <c r="AN2" s="335"/>
+      <c r="AO2" s="335"/>
+      <c r="AP2" s="335"/>
+      <c r="AQ2" s="335"/>
+      <c r="AR2" s="336" t="str">
         <f>Cover!I19</f>
         <v>0-0</v>
       </c>
-      <c r="AS2" s="329"/>
-      <c r="AT2" s="329"/>
-      <c r="AU2" s="329"/>
-      <c r="AV2" s="329"/>
-      <c r="AW2" s="348" t="s">
+      <c r="AS2" s="335"/>
+      <c r="AT2" s="335"/>
+      <c r="AU2" s="335"/>
+      <c r="AV2" s="335"/>
+      <c r="AW2" s="337" t="s">
         <v>267</v>
       </c>
-      <c r="AX2" s="348" t="s">
+      <c r="AX2" s="337" t="s">
         <v>171</v>
       </c>
-      <c r="AY2" s="348" t="s">
+      <c r="AY2" s="337" t="s">
         <v>171</v>
       </c>
-      <c r="AZ2" s="348" t="s">
+      <c r="AZ2" s="337" t="s">
         <v>171</v>
       </c>
-      <c r="BA2" s="348" t="s">
+      <c r="BA2" s="337" t="s">
         <v>171</v>
       </c>
-      <c r="BB2" s="349" t="s">
+      <c r="BB2" s="338" t="s">
         <v>267</v>
       </c>
-      <c r="BC2" s="348"/>
-      <c r="BD2" s="348"/>
-      <c r="BE2" s="348"/>
-      <c r="BF2" s="348"/>
+      <c r="BC2" s="337"/>
+      <c r="BD2" s="337"/>
+      <c r="BE2" s="337"/>
+      <c r="BF2" s="337"/>
     </row>
     <row r="3" spans="1:58" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A3" s="346"/>
-      <c r="B3" s="346"/>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="346"/>
-      <c r="F3" s="346"/>
-      <c r="G3" s="346"/>
-      <c r="H3" s="346"/>
-      <c r="I3" s="346"/>
-      <c r="J3" s="346"/>
-      <c r="K3" s="346"/>
-      <c r="L3" s="346"/>
-      <c r="M3" s="346"/>
-      <c r="N3" s="346"/>
-      <c r="O3" s="346"/>
-      <c r="P3" s="346"/>
-      <c r="Q3" s="346"/>
-      <c r="R3" s="346"/>
-      <c r="S3" s="346"/>
-      <c r="T3" s="346"/>
-      <c r="U3" s="346"/>
-      <c r="V3" s="346"/>
-      <c r="W3" s="346"/>
-      <c r="X3" s="346"/>
-      <c r="Y3" s="346"/>
-      <c r="Z3" s="346"/>
-      <c r="AA3" s="342" t="s">
+      <c r="A3" s="334"/>
+      <c r="B3" s="334"/>
+      <c r="C3" s="334"/>
+      <c r="D3" s="334"/>
+      <c r="E3" s="334"/>
+      <c r="F3" s="334"/>
+      <c r="G3" s="334"/>
+      <c r="H3" s="334"/>
+      <c r="I3" s="334"/>
+      <c r="J3" s="334"/>
+      <c r="K3" s="334"/>
+      <c r="L3" s="334"/>
+      <c r="M3" s="334"/>
+      <c r="N3" s="334"/>
+      <c r="O3" s="334"/>
+      <c r="P3" s="334"/>
+      <c r="Q3" s="334"/>
+      <c r="R3" s="334"/>
+      <c r="S3" s="334"/>
+      <c r="T3" s="334"/>
+      <c r="U3" s="334"/>
+      <c r="V3" s="334"/>
+      <c r="W3" s="334"/>
+      <c r="X3" s="334"/>
+      <c r="Y3" s="334"/>
+      <c r="Z3" s="334"/>
+      <c r="AA3" s="330" t="s">
         <v>274</v>
       </c>
-      <c r="AB3" s="342"/>
-      <c r="AC3" s="342"/>
-      <c r="AD3" s="342"/>
-      <c r="AE3" s="342"/>
-      <c r="AF3" s="342"/>
-      <c r="AG3" s="350" t="str">
+      <c r="AB3" s="330"/>
+      <c r="AC3" s="330"/>
+      <c r="AD3" s="330"/>
+      <c r="AE3" s="330"/>
+      <c r="AF3" s="330"/>
+      <c r="AG3" s="339" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Change log</v>
       </c>
-      <c r="AH3" s="351"/>
-      <c r="AI3" s="351"/>
-      <c r="AJ3" s="351"/>
-      <c r="AK3" s="351"/>
-      <c r="AL3" s="351"/>
-      <c r="AM3" s="351"/>
-      <c r="AN3" s="351"/>
-      <c r="AO3" s="351"/>
-      <c r="AP3" s="351"/>
-      <c r="AQ3" s="351"/>
-      <c r="AR3" s="351"/>
-      <c r="AS3" s="351"/>
-      <c r="AT3" s="351"/>
-      <c r="AU3" s="351"/>
-      <c r="AV3" s="352"/>
-      <c r="AW3" s="341">
+      <c r="AH3" s="340"/>
+      <c r="AI3" s="340"/>
+      <c r="AJ3" s="340"/>
+      <c r="AK3" s="340"/>
+      <c r="AL3" s="340"/>
+      <c r="AM3" s="340"/>
+      <c r="AN3" s="340"/>
+      <c r="AO3" s="340"/>
+      <c r="AP3" s="340"/>
+      <c r="AQ3" s="340"/>
+      <c r="AR3" s="340"/>
+      <c r="AS3" s="340"/>
+      <c r="AT3" s="340"/>
+      <c r="AU3" s="340"/>
+      <c r="AV3" s="341"/>
+      <c r="AW3" s="329">
         <v>44503</v>
       </c>
-      <c r="AX3" s="341">
+      <c r="AX3" s="329">
         <v>44147</v>
       </c>
-      <c r="AY3" s="341">
+      <c r="AY3" s="329">
         <v>44147</v>
       </c>
-      <c r="AZ3" s="341">
+      <c r="AZ3" s="329">
         <v>44147</v>
       </c>
-      <c r="BA3" s="341">
+      <c r="BA3" s="329">
         <v>44147</v>
       </c>
-      <c r="BB3" s="341">
+      <c r="BB3" s="329">
         <v>44505</v>
       </c>
-      <c r="BC3" s="341"/>
-      <c r="BD3" s="341"/>
-      <c r="BE3" s="341"/>
-      <c r="BF3" s="341"/>
+      <c r="BC3" s="329"/>
+      <c r="BD3" s="329"/>
+      <c r="BE3" s="329"/>
+      <c r="BF3" s="329"/>
     </row>
     <row r="4" spans="1:58" s="17" customFormat="1" ht="12"/>
     <row r="5" spans="1:58">
-      <c r="A5" s="342" t="s">
+      <c r="A5" s="330" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="342"/>
-      <c r="C5" s="342" t="s">
+      <c r="B5" s="330"/>
+      <c r="C5" s="330" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="342"/>
-      <c r="E5" s="342"/>
-      <c r="F5" s="342"/>
-      <c r="G5" s="343" t="s">
+      <c r="D5" s="330"/>
+      <c r="E5" s="330"/>
+      <c r="F5" s="330"/>
+      <c r="G5" s="331" t="s">
         <v>275</v>
       </c>
-      <c r="H5" s="344"/>
-      <c r="I5" s="344"/>
-      <c r="J5" s="344"/>
-      <c r="K5" s="345"/>
-      <c r="L5" s="343" t="s">
+      <c r="H5" s="332"/>
+      <c r="I5" s="332"/>
+      <c r="J5" s="332"/>
+      <c r="K5" s="333"/>
+      <c r="L5" s="331" t="s">
         <v>276</v>
       </c>
-      <c r="M5" s="344"/>
-      <c r="N5" s="344"/>
-      <c r="O5" s="344"/>
-      <c r="P5" s="344"/>
-      <c r="Q5" s="345"/>
-      <c r="R5" s="343" t="s">
+      <c r="M5" s="332"/>
+      <c r="N5" s="332"/>
+      <c r="O5" s="332"/>
+      <c r="P5" s="332"/>
+      <c r="Q5" s="333"/>
+      <c r="R5" s="331" t="s">
         <v>277</v>
       </c>
-      <c r="S5" s="344"/>
-      <c r="T5" s="344"/>
-      <c r="U5" s="344"/>
-      <c r="V5" s="344"/>
-      <c r="W5" s="344"/>
-      <c r="X5" s="344"/>
-      <c r="Y5" s="344"/>
-      <c r="Z5" s="344"/>
-      <c r="AA5" s="345"/>
-      <c r="AB5" s="343" t="s">
+      <c r="S5" s="332"/>
+      <c r="T5" s="332"/>
+      <c r="U5" s="332"/>
+      <c r="V5" s="332"/>
+      <c r="W5" s="332"/>
+      <c r="X5" s="332"/>
+      <c r="Y5" s="332"/>
+      <c r="Z5" s="332"/>
+      <c r="AA5" s="333"/>
+      <c r="AB5" s="331" t="s">
         <v>278</v>
       </c>
-      <c r="AC5" s="344"/>
-      <c r="AD5" s="344"/>
-      <c r="AE5" s="344"/>
-      <c r="AF5" s="344"/>
-      <c r="AG5" s="344"/>
-      <c r="AH5" s="344"/>
-      <c r="AI5" s="344"/>
-      <c r="AJ5" s="344"/>
-      <c r="AK5" s="344"/>
-      <c r="AL5" s="344"/>
-      <c r="AM5" s="344"/>
-      <c r="AN5" s="344"/>
-      <c r="AO5" s="344"/>
-      <c r="AP5" s="344"/>
-      <c r="AQ5" s="344"/>
-      <c r="AR5" s="344"/>
-      <c r="AS5" s="344"/>
-      <c r="AT5" s="344"/>
-      <c r="AU5" s="344"/>
-      <c r="AV5" s="344"/>
-      <c r="AW5" s="344"/>
-      <c r="AX5" s="344"/>
-      <c r="AY5" s="344"/>
-      <c r="AZ5" s="344"/>
-      <c r="BA5" s="344"/>
-      <c r="BB5" s="344"/>
-      <c r="BC5" s="344"/>
-      <c r="BD5" s="344"/>
-      <c r="BE5" s="344"/>
-      <c r="BF5" s="345"/>
+      <c r="AC5" s="332"/>
+      <c r="AD5" s="332"/>
+      <c r="AE5" s="332"/>
+      <c r="AF5" s="332"/>
+      <c r="AG5" s="332"/>
+      <c r="AH5" s="332"/>
+      <c r="AI5" s="332"/>
+      <c r="AJ5" s="332"/>
+      <c r="AK5" s="332"/>
+      <c r="AL5" s="332"/>
+      <c r="AM5" s="332"/>
+      <c r="AN5" s="332"/>
+      <c r="AO5" s="332"/>
+      <c r="AP5" s="332"/>
+      <c r="AQ5" s="332"/>
+      <c r="AR5" s="332"/>
+      <c r="AS5" s="332"/>
+      <c r="AT5" s="332"/>
+      <c r="AU5" s="332"/>
+      <c r="AV5" s="332"/>
+      <c r="AW5" s="332"/>
+      <c r="AX5" s="332"/>
+      <c r="AY5" s="332"/>
+      <c r="AZ5" s="332"/>
+      <c r="BA5" s="332"/>
+      <c r="BB5" s="332"/>
+      <c r="BC5" s="332"/>
+      <c r="BD5" s="332"/>
+      <c r="BE5" s="332"/>
+      <c r="BF5" s="333"/>
     </row>
     <row r="6" spans="1:58" ht="16.5" customHeight="1">
-      <c r="A6" s="329">
+      <c r="A6" s="335">
         <v>1</v>
       </c>
-      <c r="B6" s="329"/>
-      <c r="C6" s="330">
+      <c r="B6" s="335"/>
+      <c r="C6" s="348">
         <v>1</v>
       </c>
-      <c r="D6" s="331"/>
-      <c r="E6" s="331"/>
-      <c r="F6" s="331"/>
-      <c r="G6" s="332">
+      <c r="D6" s="349"/>
+      <c r="E6" s="349"/>
+      <c r="F6" s="349"/>
+      <c r="G6" s="350">
         <v>44503</v>
       </c>
-      <c r="H6" s="332"/>
-      <c r="I6" s="332"/>
-      <c r="J6" s="332"/>
-      <c r="K6" s="332"/>
-      <c r="L6" s="329" t="s">
+      <c r="H6" s="350"/>
+      <c r="I6" s="350"/>
+      <c r="J6" s="350"/>
+      <c r="K6" s="350"/>
+      <c r="L6" s="335" t="s">
         <v>279</v>
       </c>
-      <c r="M6" s="329"/>
-      <c r="N6" s="329"/>
-      <c r="O6" s="329"/>
-      <c r="P6" s="329"/>
-      <c r="Q6" s="329"/>
-      <c r="R6" s="333" t="s">
+      <c r="M6" s="335"/>
+      <c r="N6" s="335"/>
+      <c r="O6" s="335"/>
+      <c r="P6" s="335"/>
+      <c r="Q6" s="335"/>
+      <c r="R6" s="325" t="s">
         <v>280</v>
       </c>
-      <c r="S6" s="333"/>
-      <c r="T6" s="333"/>
-      <c r="U6" s="333"/>
-      <c r="V6" s="333"/>
-      <c r="W6" s="333"/>
-      <c r="X6" s="333"/>
-      <c r="Y6" s="333"/>
-      <c r="Z6" s="333"/>
-      <c r="AA6" s="333"/>
-      <c r="AB6" s="333"/>
-      <c r="AC6" s="333"/>
-      <c r="AD6" s="333"/>
-      <c r="AE6" s="333"/>
-      <c r="AF6" s="333"/>
-      <c r="AG6" s="333"/>
-      <c r="AH6" s="333"/>
-      <c r="AI6" s="333"/>
-      <c r="AJ6" s="333"/>
-      <c r="AK6" s="333"/>
-      <c r="AL6" s="333"/>
-      <c r="AM6" s="333"/>
-      <c r="AN6" s="333"/>
-      <c r="AO6" s="333"/>
-      <c r="AP6" s="333"/>
-      <c r="AQ6" s="333"/>
-      <c r="AR6" s="333"/>
-      <c r="AS6" s="333"/>
-      <c r="AT6" s="333"/>
-      <c r="AU6" s="333"/>
-      <c r="AV6" s="333"/>
-      <c r="AW6" s="333"/>
-      <c r="AX6" s="333"/>
-      <c r="AY6" s="333"/>
-      <c r="AZ6" s="333"/>
-      <c r="BA6" s="333"/>
-      <c r="BB6" s="333"/>
-      <c r="BC6" s="333"/>
-      <c r="BD6" s="333"/>
-      <c r="BE6" s="333"/>
-      <c r="BF6" s="333"/>
+      <c r="S6" s="325"/>
+      <c r="T6" s="325"/>
+      <c r="U6" s="325"/>
+      <c r="V6" s="325"/>
+      <c r="W6" s="325"/>
+      <c r="X6" s="325"/>
+      <c r="Y6" s="325"/>
+      <c r="Z6" s="325"/>
+      <c r="AA6" s="325"/>
+      <c r="AB6" s="325"/>
+      <c r="AC6" s="325"/>
+      <c r="AD6" s="325"/>
+      <c r="AE6" s="325"/>
+      <c r="AF6" s="325"/>
+      <c r="AG6" s="325"/>
+      <c r="AH6" s="325"/>
+      <c r="AI6" s="325"/>
+      <c r="AJ6" s="325"/>
+      <c r="AK6" s="325"/>
+      <c r="AL6" s="325"/>
+      <c r="AM6" s="325"/>
+      <c r="AN6" s="325"/>
+      <c r="AO6" s="325"/>
+      <c r="AP6" s="325"/>
+      <c r="AQ6" s="325"/>
+      <c r="AR6" s="325"/>
+      <c r="AS6" s="325"/>
+      <c r="AT6" s="325"/>
+      <c r="AU6" s="325"/>
+      <c r="AV6" s="325"/>
+      <c r="AW6" s="325"/>
+      <c r="AX6" s="325"/>
+      <c r="AY6" s="325"/>
+      <c r="AZ6" s="325"/>
+      <c r="BA6" s="325"/>
+      <c r="BB6" s="325"/>
+      <c r="BC6" s="325"/>
+      <c r="BD6" s="325"/>
+      <c r="BE6" s="325"/>
+      <c r="BF6" s="325"/>
     </row>
     <row r="7" spans="1:58" ht="29.5" customHeight="1">
-      <c r="A7" s="336">
+      <c r="A7" s="347">
         <v>2</v>
       </c>
-      <c r="B7" s="336"/>
-      <c r="C7" s="334">
+      <c r="B7" s="347"/>
+      <c r="C7" s="345">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D7" s="335"/>
-      <c r="E7" s="335"/>
-      <c r="F7" s="335"/>
-      <c r="G7" s="332">
+      <c r="D7" s="346"/>
+      <c r="E7" s="346"/>
+      <c r="F7" s="346"/>
+      <c r="G7" s="350">
         <v>44504</v>
       </c>
-      <c r="H7" s="332"/>
-      <c r="I7" s="332"/>
-      <c r="J7" s="332"/>
-      <c r="K7" s="332"/>
-      <c r="L7" s="339" t="s">
+      <c r="H7" s="350"/>
+      <c r="I7" s="350"/>
+      <c r="J7" s="350"/>
+      <c r="K7" s="350"/>
+      <c r="L7" s="352" t="s">
         <v>279</v>
       </c>
-      <c r="M7" s="339"/>
-      <c r="N7" s="339"/>
-      <c r="O7" s="339"/>
-      <c r="P7" s="339"/>
-      <c r="Q7" s="339"/>
-      <c r="R7" s="337" t="s">
+      <c r="M7" s="352"/>
+      <c r="N7" s="352"/>
+      <c r="O7" s="352"/>
+      <c r="P7" s="352"/>
+      <c r="Q7" s="352"/>
+      <c r="R7" s="351" t="s">
         <v>325</v>
       </c>
-      <c r="S7" s="338"/>
-      <c r="T7" s="338"/>
-      <c r="U7" s="338"/>
-      <c r="V7" s="338"/>
-      <c r="W7" s="338"/>
-      <c r="X7" s="338"/>
-      <c r="Y7" s="338"/>
-      <c r="Z7" s="338"/>
-      <c r="AA7" s="338"/>
-      <c r="AB7" s="338" t="s">
+      <c r="S7" s="326"/>
+      <c r="T7" s="326"/>
+      <c r="U7" s="326"/>
+      <c r="V7" s="326"/>
+      <c r="W7" s="326"/>
+      <c r="X7" s="326"/>
+      <c r="Y7" s="326"/>
+      <c r="Z7" s="326"/>
+      <c r="AA7" s="326"/>
+      <c r="AB7" s="326" t="s">
         <v>281</v>
       </c>
-      <c r="AC7" s="338"/>
-      <c r="AD7" s="338"/>
-      <c r="AE7" s="338"/>
-      <c r="AF7" s="338"/>
-      <c r="AG7" s="338"/>
-      <c r="AH7" s="338"/>
-      <c r="AI7" s="338"/>
-      <c r="AJ7" s="338"/>
-      <c r="AK7" s="338"/>
-      <c r="AL7" s="338"/>
-      <c r="AM7" s="338"/>
-      <c r="AN7" s="338"/>
-      <c r="AO7" s="338"/>
-      <c r="AP7" s="338"/>
-      <c r="AQ7" s="338"/>
-      <c r="AR7" s="338"/>
-      <c r="AS7" s="338"/>
-      <c r="AT7" s="338"/>
-      <c r="AU7" s="338"/>
-      <c r="AV7" s="338"/>
-      <c r="AW7" s="338"/>
-      <c r="AX7" s="338"/>
-      <c r="AY7" s="338"/>
-      <c r="AZ7" s="338"/>
-      <c r="BA7" s="338"/>
-      <c r="BB7" s="338"/>
-      <c r="BC7" s="338"/>
-      <c r="BD7" s="338"/>
-      <c r="BE7" s="338"/>
-      <c r="BF7" s="338"/>
+      <c r="AC7" s="326"/>
+      <c r="AD7" s="326"/>
+      <c r="AE7" s="326"/>
+      <c r="AF7" s="326"/>
+      <c r="AG7" s="326"/>
+      <c r="AH7" s="326"/>
+      <c r="AI7" s="326"/>
+      <c r="AJ7" s="326"/>
+      <c r="AK7" s="326"/>
+      <c r="AL7" s="326"/>
+      <c r="AM7" s="326"/>
+      <c r="AN7" s="326"/>
+      <c r="AO7" s="326"/>
+      <c r="AP7" s="326"/>
+      <c r="AQ7" s="326"/>
+      <c r="AR7" s="326"/>
+      <c r="AS7" s="326"/>
+      <c r="AT7" s="326"/>
+      <c r="AU7" s="326"/>
+      <c r="AV7" s="326"/>
+      <c r="AW7" s="326"/>
+      <c r="AX7" s="326"/>
+      <c r="AY7" s="326"/>
+      <c r="AZ7" s="326"/>
+      <c r="BA7" s="326"/>
+      <c r="BB7" s="326"/>
+      <c r="BC7" s="326"/>
+      <c r="BD7" s="326"/>
+      <c r="BE7" s="326"/>
+      <c r="BF7" s="326"/>
     </row>
     <row r="8" spans="1:58" ht="53" customHeight="1">
-      <c r="A8" s="329">
+      <c r="A8" s="335">
         <v>3</v>
       </c>
-      <c r="B8" s="329"/>
-      <c r="C8" s="334">
+      <c r="B8" s="335"/>
+      <c r="C8" s="345">
         <v>1.2</v>
       </c>
-      <c r="D8" s="335"/>
-      <c r="E8" s="335"/>
-      <c r="F8" s="335"/>
-      <c r="G8" s="332">
+      <c r="D8" s="346"/>
+      <c r="E8" s="346"/>
+      <c r="F8" s="346"/>
+      <c r="G8" s="350">
         <v>44505</v>
       </c>
-      <c r="H8" s="332"/>
-      <c r="I8" s="332"/>
-      <c r="J8" s="332"/>
-      <c r="K8" s="332"/>
-      <c r="L8" s="340" t="s">
+      <c r="H8" s="350"/>
+      <c r="I8" s="350"/>
+      <c r="J8" s="350"/>
+      <c r="K8" s="350"/>
+      <c r="L8" s="353" t="s">
         <v>279</v>
       </c>
-      <c r="M8" s="340"/>
-      <c r="N8" s="340"/>
-      <c r="O8" s="340"/>
-      <c r="P8" s="340"/>
-      <c r="Q8" s="340"/>
-      <c r="R8" s="337" t="s">
+      <c r="M8" s="353"/>
+      <c r="N8" s="353"/>
+      <c r="O8" s="353"/>
+      <c r="P8" s="353"/>
+      <c r="Q8" s="353"/>
+      <c r="R8" s="351" t="s">
         <v>375</v>
       </c>
-      <c r="S8" s="338"/>
-      <c r="T8" s="338"/>
-      <c r="U8" s="338"/>
-      <c r="V8" s="338"/>
-      <c r="W8" s="338"/>
-      <c r="X8" s="338"/>
-      <c r="Y8" s="338"/>
-      <c r="Z8" s="338"/>
-      <c r="AA8" s="338"/>
-      <c r="AB8" s="356"/>
-      <c r="AC8" s="357"/>
-      <c r="AD8" s="357"/>
-      <c r="AE8" s="357"/>
-      <c r="AF8" s="357"/>
-      <c r="AG8" s="357"/>
-      <c r="AH8" s="357"/>
-      <c r="AI8" s="357"/>
-      <c r="AJ8" s="357"/>
-      <c r="AK8" s="357"/>
-      <c r="AL8" s="357"/>
-      <c r="AM8" s="357"/>
-      <c r="AN8" s="357"/>
-      <c r="AO8" s="357"/>
-      <c r="AP8" s="357"/>
-      <c r="AQ8" s="357"/>
-      <c r="AR8" s="357"/>
-      <c r="AS8" s="357"/>
-      <c r="AT8" s="357"/>
-      <c r="AU8" s="357"/>
-      <c r="AV8" s="357"/>
-      <c r="AW8" s="357"/>
-      <c r="AX8" s="357"/>
-      <c r="AY8" s="357"/>
-      <c r="AZ8" s="357"/>
-      <c r="BA8" s="357"/>
-      <c r="BB8" s="357"/>
-      <c r="BC8" s="357"/>
-      <c r="BD8" s="357"/>
-      <c r="BE8" s="357"/>
-      <c r="BF8" s="357"/>
+      <c r="S8" s="326"/>
+      <c r="T8" s="326"/>
+      <c r="U8" s="326"/>
+      <c r="V8" s="326"/>
+      <c r="W8" s="326"/>
+      <c r="X8" s="326"/>
+      <c r="Y8" s="326"/>
+      <c r="Z8" s="326"/>
+      <c r="AA8" s="326"/>
+      <c r="AB8" s="327"/>
+      <c r="AC8" s="328"/>
+      <c r="AD8" s="328"/>
+      <c r="AE8" s="328"/>
+      <c r="AF8" s="328"/>
+      <c r="AG8" s="328"/>
+      <c r="AH8" s="328"/>
+      <c r="AI8" s="328"/>
+      <c r="AJ8" s="328"/>
+      <c r="AK8" s="328"/>
+      <c r="AL8" s="328"/>
+      <c r="AM8" s="328"/>
+      <c r="AN8" s="328"/>
+      <c r="AO8" s="328"/>
+      <c r="AP8" s="328"/>
+      <c r="AQ8" s="328"/>
+      <c r="AR8" s="328"/>
+      <c r="AS8" s="328"/>
+      <c r="AT8" s="328"/>
+      <c r="AU8" s="328"/>
+      <c r="AV8" s="328"/>
+      <c r="AW8" s="328"/>
+      <c r="AX8" s="328"/>
+      <c r="AY8" s="328"/>
+      <c r="AZ8" s="328"/>
+      <c r="BA8" s="328"/>
+      <c r="BB8" s="328"/>
+      <c r="BC8" s="328"/>
+      <c r="BD8" s="328"/>
+      <c r="BE8" s="328"/>
+      <c r="BF8" s="328"/>
     </row>
     <row r="9" spans="1:58" ht="21" customHeight="1">
-      <c r="A9" s="329">
+      <c r="A9" s="335">
         <v>4</v>
       </c>
-      <c r="B9" s="329"/>
-      <c r="C9" s="330">
+      <c r="B9" s="335"/>
+      <c r="C9" s="348">
         <v>1.3</v>
       </c>
-      <c r="D9" s="331"/>
-      <c r="E9" s="331"/>
-      <c r="F9" s="331"/>
-      <c r="G9" s="332">
+      <c r="D9" s="349"/>
+      <c r="E9" s="349"/>
+      <c r="F9" s="349"/>
+      <c r="G9" s="350">
         <v>44508</v>
       </c>
-      <c r="H9" s="332"/>
-      <c r="I9" s="332"/>
-      <c r="J9" s="332"/>
-      <c r="K9" s="332"/>
-      <c r="L9" s="329" t="s">
+      <c r="H9" s="350"/>
+      <c r="I9" s="350"/>
+      <c r="J9" s="350"/>
+      <c r="K9" s="350"/>
+      <c r="L9" s="335" t="s">
         <v>279</v>
       </c>
-      <c r="M9" s="329"/>
-      <c r="N9" s="329"/>
-      <c r="O9" s="329"/>
-      <c r="P9" s="329"/>
-      <c r="Q9" s="329"/>
-      <c r="R9" s="333"/>
-      <c r="S9" s="333"/>
-      <c r="T9" s="333"/>
-      <c r="U9" s="333"/>
-      <c r="V9" s="333"/>
-      <c r="W9" s="333"/>
-      <c r="X9" s="333"/>
-      <c r="Y9" s="333"/>
-      <c r="Z9" s="333"/>
-      <c r="AA9" s="333"/>
-      <c r="AB9" s="333" t="s">
+      <c r="M9" s="335"/>
+      <c r="N9" s="335"/>
+      <c r="O9" s="335"/>
+      <c r="P9" s="335"/>
+      <c r="Q9" s="335"/>
+      <c r="R9" s="325"/>
+      <c r="S9" s="325"/>
+      <c r="T9" s="325"/>
+      <c r="U9" s="325"/>
+      <c r="V9" s="325"/>
+      <c r="W9" s="325"/>
+      <c r="X9" s="325"/>
+      <c r="Y9" s="325"/>
+      <c r="Z9" s="325"/>
+      <c r="AA9" s="325"/>
+      <c r="AB9" s="325" t="s">
         <v>417</v>
       </c>
-      <c r="AC9" s="333"/>
-      <c r="AD9" s="333"/>
-      <c r="AE9" s="333"/>
-      <c r="AF9" s="333"/>
-      <c r="AG9" s="333"/>
-      <c r="AH9" s="333"/>
-      <c r="AI9" s="333"/>
-      <c r="AJ9" s="333"/>
-      <c r="AK9" s="333"/>
-      <c r="AL9" s="333"/>
-      <c r="AM9" s="333"/>
-      <c r="AN9" s="333"/>
-      <c r="AO9" s="333"/>
-      <c r="AP9" s="333"/>
-      <c r="AQ9" s="333"/>
-      <c r="AR9" s="333"/>
-      <c r="AS9" s="333"/>
-      <c r="AT9" s="333"/>
-      <c r="AU9" s="333"/>
-      <c r="AV9" s="333"/>
-      <c r="AW9" s="333"/>
-      <c r="AX9" s="333"/>
-      <c r="AY9" s="333"/>
-      <c r="AZ9" s="333"/>
-      <c r="BA9" s="333"/>
-      <c r="BB9" s="333"/>
-      <c r="BC9" s="333"/>
-      <c r="BD9" s="333"/>
-      <c r="BE9" s="333"/>
-      <c r="BF9" s="333"/>
+      <c r="AC9" s="325"/>
+      <c r="AD9" s="325"/>
+      <c r="AE9" s="325"/>
+      <c r="AF9" s="325"/>
+      <c r="AG9" s="325"/>
+      <c r="AH9" s="325"/>
+      <c r="AI9" s="325"/>
+      <c r="AJ9" s="325"/>
+      <c r="AK9" s="325"/>
+      <c r="AL9" s="325"/>
+      <c r="AM9" s="325"/>
+      <c r="AN9" s="325"/>
+      <c r="AO9" s="325"/>
+      <c r="AP9" s="325"/>
+      <c r="AQ9" s="325"/>
+      <c r="AR9" s="325"/>
+      <c r="AS9" s="325"/>
+      <c r="AT9" s="325"/>
+      <c r="AU9" s="325"/>
+      <c r="AV9" s="325"/>
+      <c r="AW9" s="325"/>
+      <c r="AX9" s="325"/>
+      <c r="AY9" s="325"/>
+      <c r="AZ9" s="325"/>
+      <c r="BA9" s="325"/>
+      <c r="BB9" s="325"/>
+      <c r="BC9" s="325"/>
+      <c r="BD9" s="325"/>
+      <c r="BE9" s="325"/>
+      <c r="BF9" s="325"/>
     </row>
     <row r="10" spans="1:58">
-      <c r="A10" s="327"/>
-      <c r="B10" s="327"/>
-      <c r="C10" s="324"/>
-      <c r="D10" s="328"/>
-      <c r="E10" s="328"/>
-      <c r="F10" s="328"/>
-      <c r="G10" s="325"/>
-      <c r="H10" s="325"/>
-      <c r="I10" s="325"/>
-      <c r="J10" s="325"/>
-      <c r="K10" s="325"/>
-      <c r="L10" s="327"/>
-      <c r="M10" s="327"/>
-      <c r="N10" s="327"/>
-      <c r="O10" s="327"/>
-      <c r="P10" s="327"/>
-      <c r="Q10" s="327"/>
-      <c r="R10" s="326"/>
-      <c r="S10" s="326"/>
-      <c r="T10" s="326"/>
-      <c r="U10" s="326"/>
-      <c r="V10" s="326"/>
-      <c r="W10" s="326"/>
-      <c r="X10" s="326"/>
-      <c r="Y10" s="326"/>
-      <c r="Z10" s="326"/>
-      <c r="AA10" s="326"/>
-      <c r="AB10" s="326"/>
-      <c r="AC10" s="326"/>
-      <c r="AD10" s="326"/>
-      <c r="AE10" s="326"/>
-      <c r="AF10" s="326"/>
-      <c r="AG10" s="326"/>
-      <c r="AH10" s="326"/>
-      <c r="AI10" s="326"/>
-      <c r="AJ10" s="326"/>
-      <c r="AK10" s="326"/>
-      <c r="AL10" s="326"/>
-      <c r="AM10" s="326"/>
-      <c r="AN10" s="326"/>
-      <c r="AO10" s="326"/>
-      <c r="AP10" s="326"/>
-      <c r="AQ10" s="326"/>
-      <c r="AR10" s="326"/>
-      <c r="AS10" s="326"/>
-      <c r="AT10" s="326"/>
-      <c r="AU10" s="326"/>
-      <c r="AV10" s="326"/>
-      <c r="AW10" s="326"/>
-      <c r="AX10" s="326"/>
-      <c r="AY10" s="326"/>
-      <c r="AZ10" s="326"/>
-      <c r="BA10" s="326"/>
-      <c r="BB10" s="326"/>
-      <c r="BC10" s="326"/>
-      <c r="BD10" s="326"/>
-      <c r="BE10" s="326"/>
-      <c r="BF10" s="326"/>
+      <c r="A10" s="354"/>
+      <c r="B10" s="354"/>
+      <c r="C10" s="355"/>
+      <c r="D10" s="356"/>
+      <c r="E10" s="356"/>
+      <c r="F10" s="356"/>
+      <c r="G10" s="357"/>
+      <c r="H10" s="357"/>
+      <c r="I10" s="357"/>
+      <c r="J10" s="357"/>
+      <c r="K10" s="357"/>
+      <c r="L10" s="354"/>
+      <c r="M10" s="354"/>
+      <c r="N10" s="354"/>
+      <c r="O10" s="354"/>
+      <c r="P10" s="354"/>
+      <c r="Q10" s="354"/>
+      <c r="R10" s="324"/>
+      <c r="S10" s="324"/>
+      <c r="T10" s="324"/>
+      <c r="U10" s="324"/>
+      <c r="V10" s="324"/>
+      <c r="W10" s="324"/>
+      <c r="X10" s="324"/>
+      <c r="Y10" s="324"/>
+      <c r="Z10" s="324"/>
+      <c r="AA10" s="324"/>
+      <c r="AB10" s="324"/>
+      <c r="AC10" s="324"/>
+      <c r="AD10" s="324"/>
+      <c r="AE10" s="324"/>
+      <c r="AF10" s="324"/>
+      <c r="AG10" s="324"/>
+      <c r="AH10" s="324"/>
+      <c r="AI10" s="324"/>
+      <c r="AJ10" s="324"/>
+      <c r="AK10" s="324"/>
+      <c r="AL10" s="324"/>
+      <c r="AM10" s="324"/>
+      <c r="AN10" s="324"/>
+      <c r="AO10" s="324"/>
+      <c r="AP10" s="324"/>
+      <c r="AQ10" s="324"/>
+      <c r="AR10" s="324"/>
+      <c r="AS10" s="324"/>
+      <c r="AT10" s="324"/>
+      <c r="AU10" s="324"/>
+      <c r="AV10" s="324"/>
+      <c r="AW10" s="324"/>
+      <c r="AX10" s="324"/>
+      <c r="AY10" s="324"/>
+      <c r="AZ10" s="324"/>
+      <c r="BA10" s="324"/>
+      <c r="BB10" s="324"/>
+      <c r="BC10" s="324"/>
+      <c r="BD10" s="324"/>
+      <c r="BE10" s="324"/>
+      <c r="BF10" s="324"/>
     </row>
     <row r="11" spans="1:58">
-      <c r="A11" s="327"/>
-      <c r="B11" s="327"/>
-      <c r="C11" s="324"/>
-      <c r="D11" s="328"/>
-      <c r="E11" s="328"/>
-      <c r="F11" s="328"/>
-      <c r="G11" s="325"/>
-      <c r="H11" s="325"/>
-      <c r="I11" s="325"/>
-      <c r="J11" s="325"/>
-      <c r="K11" s="325"/>
-      <c r="L11" s="327"/>
-      <c r="M11" s="327"/>
-      <c r="N11" s="327"/>
-      <c r="O11" s="327"/>
-      <c r="P11" s="327"/>
-      <c r="Q11" s="327"/>
-      <c r="R11" s="326"/>
-      <c r="S11" s="326"/>
-      <c r="T11" s="326"/>
-      <c r="U11" s="326"/>
-      <c r="V11" s="326"/>
-      <c r="W11" s="326"/>
-      <c r="X11" s="326"/>
-      <c r="Y11" s="326"/>
-      <c r="Z11" s="326"/>
-      <c r="AA11" s="326"/>
-      <c r="AB11" s="326"/>
-      <c r="AC11" s="326"/>
-      <c r="AD11" s="326"/>
-      <c r="AE11" s="326"/>
-      <c r="AF11" s="326"/>
-      <c r="AG11" s="326"/>
-      <c r="AH11" s="326"/>
-      <c r="AI11" s="326"/>
-      <c r="AJ11" s="326"/>
-      <c r="AK11" s="326"/>
-      <c r="AL11" s="326"/>
-      <c r="AM11" s="326"/>
-      <c r="AN11" s="326"/>
-      <c r="AO11" s="326"/>
-      <c r="AP11" s="326"/>
-      <c r="AQ11" s="326"/>
-      <c r="AR11" s="326"/>
-      <c r="AS11" s="326"/>
-      <c r="AT11" s="326"/>
-      <c r="AU11" s="326"/>
-      <c r="AV11" s="326"/>
-      <c r="AW11" s="326"/>
-      <c r="AX11" s="326"/>
-      <c r="AY11" s="326"/>
-      <c r="AZ11" s="326"/>
-      <c r="BA11" s="326"/>
-      <c r="BB11" s="326"/>
-      <c r="BC11" s="326"/>
-      <c r="BD11" s="326"/>
-      <c r="BE11" s="326"/>
-      <c r="BF11" s="326"/>
+      <c r="A11" s="354"/>
+      <c r="B11" s="354"/>
+      <c r="C11" s="355"/>
+      <c r="D11" s="356"/>
+      <c r="E11" s="356"/>
+      <c r="F11" s="356"/>
+      <c r="G11" s="357"/>
+      <c r="H11" s="357"/>
+      <c r="I11" s="357"/>
+      <c r="J11" s="357"/>
+      <c r="K11" s="357"/>
+      <c r="L11" s="354"/>
+      <c r="M11" s="354"/>
+      <c r="N11" s="354"/>
+      <c r="O11" s="354"/>
+      <c r="P11" s="354"/>
+      <c r="Q11" s="354"/>
+      <c r="R11" s="324"/>
+      <c r="S11" s="324"/>
+      <c r="T11" s="324"/>
+      <c r="U11" s="324"/>
+      <c r="V11" s="324"/>
+      <c r="W11" s="324"/>
+      <c r="X11" s="324"/>
+      <c r="Y11" s="324"/>
+      <c r="Z11" s="324"/>
+      <c r="AA11" s="324"/>
+      <c r="AB11" s="324"/>
+      <c r="AC11" s="324"/>
+      <c r="AD11" s="324"/>
+      <c r="AE11" s="324"/>
+      <c r="AF11" s="324"/>
+      <c r="AG11" s="324"/>
+      <c r="AH11" s="324"/>
+      <c r="AI11" s="324"/>
+      <c r="AJ11" s="324"/>
+      <c r="AK11" s="324"/>
+      <c r="AL11" s="324"/>
+      <c r="AM11" s="324"/>
+      <c r="AN11" s="324"/>
+      <c r="AO11" s="324"/>
+      <c r="AP11" s="324"/>
+      <c r="AQ11" s="324"/>
+      <c r="AR11" s="324"/>
+      <c r="AS11" s="324"/>
+      <c r="AT11" s="324"/>
+      <c r="AU11" s="324"/>
+      <c r="AV11" s="324"/>
+      <c r="AW11" s="324"/>
+      <c r="AX11" s="324"/>
+      <c r="AY11" s="324"/>
+      <c r="AZ11" s="324"/>
+      <c r="BA11" s="324"/>
+      <c r="BB11" s="324"/>
+      <c r="BC11" s="324"/>
+      <c r="BD11" s="324"/>
+      <c r="BE11" s="324"/>
+      <c r="BF11" s="324"/>
     </row>
     <row r="12" spans="1:58">
       <c r="A12" s="186"/>
       <c r="B12" s="186"/>
-      <c r="C12" s="324"/>
-      <c r="D12" s="324"/>
-      <c r="E12" s="324"/>
-      <c r="F12" s="324"/>
+      <c r="C12" s="355"/>
+      <c r="D12" s="355"/>
+      <c r="E12" s="355"/>
+      <c r="F12" s="355"/>
       <c r="G12" s="187"/>
       <c r="H12" s="187"/>
       <c r="I12" s="187"/>
@@ -8591,10 +8591,10 @@
     <row r="13" spans="1:58">
       <c r="A13" s="186"/>
       <c r="B13" s="186"/>
-      <c r="C13" s="324"/>
-      <c r="D13" s="324"/>
-      <c r="E13" s="324"/>
-      <c r="F13" s="324"/>
+      <c r="C13" s="355"/>
+      <c r="D13" s="355"/>
+      <c r="E13" s="355"/>
+      <c r="F13" s="355"/>
       <c r="G13" s="187"/>
       <c r="H13" s="187"/>
       <c r="I13" s="187"/>
@@ -8649,1233 +8649,1339 @@
       <c r="BF13" s="188"/>
     </row>
     <row r="14" spans="1:58">
-      <c r="A14" s="327"/>
-      <c r="B14" s="327"/>
-      <c r="C14" s="324"/>
-      <c r="D14" s="328"/>
-      <c r="E14" s="328"/>
-      <c r="F14" s="328"/>
-      <c r="G14" s="325"/>
-      <c r="H14" s="325"/>
-      <c r="I14" s="325"/>
-      <c r="J14" s="325"/>
-      <c r="K14" s="325"/>
-      <c r="L14" s="327"/>
-      <c r="M14" s="327"/>
-      <c r="N14" s="327"/>
-      <c r="O14" s="327"/>
-      <c r="P14" s="327"/>
-      <c r="Q14" s="327"/>
-      <c r="R14" s="326"/>
-      <c r="S14" s="326"/>
-      <c r="T14" s="326"/>
-      <c r="U14" s="326"/>
-      <c r="V14" s="326"/>
-      <c r="W14" s="326"/>
-      <c r="X14" s="326"/>
-      <c r="Y14" s="326"/>
-      <c r="Z14" s="326"/>
-      <c r="AA14" s="326"/>
-      <c r="AB14" s="326"/>
-      <c r="AC14" s="326"/>
-      <c r="AD14" s="326"/>
-      <c r="AE14" s="326"/>
-      <c r="AF14" s="326"/>
-      <c r="AG14" s="326"/>
-      <c r="AH14" s="326"/>
-      <c r="AI14" s="326"/>
-      <c r="AJ14" s="326"/>
-      <c r="AK14" s="326"/>
-      <c r="AL14" s="326"/>
-      <c r="AM14" s="326"/>
-      <c r="AN14" s="326"/>
-      <c r="AO14" s="326"/>
-      <c r="AP14" s="326"/>
-      <c r="AQ14" s="326"/>
-      <c r="AR14" s="326"/>
-      <c r="AS14" s="326"/>
-      <c r="AT14" s="326"/>
-      <c r="AU14" s="326"/>
-      <c r="AV14" s="326"/>
-      <c r="AW14" s="326"/>
-      <c r="AX14" s="326"/>
-      <c r="AY14" s="326"/>
-      <c r="AZ14" s="326"/>
-      <c r="BA14" s="326"/>
-      <c r="BB14" s="326"/>
-      <c r="BC14" s="326"/>
-      <c r="BD14" s="326"/>
-      <c r="BE14" s="326"/>
-      <c r="BF14" s="326"/>
+      <c r="A14" s="354"/>
+      <c r="B14" s="354"/>
+      <c r="C14" s="355"/>
+      <c r="D14" s="356"/>
+      <c r="E14" s="356"/>
+      <c r="F14" s="356"/>
+      <c r="G14" s="357"/>
+      <c r="H14" s="357"/>
+      <c r="I14" s="357"/>
+      <c r="J14" s="357"/>
+      <c r="K14" s="357"/>
+      <c r="L14" s="354"/>
+      <c r="M14" s="354"/>
+      <c r="N14" s="354"/>
+      <c r="O14" s="354"/>
+      <c r="P14" s="354"/>
+      <c r="Q14" s="354"/>
+      <c r="R14" s="324"/>
+      <c r="S14" s="324"/>
+      <c r="T14" s="324"/>
+      <c r="U14" s="324"/>
+      <c r="V14" s="324"/>
+      <c r="W14" s="324"/>
+      <c r="X14" s="324"/>
+      <c r="Y14" s="324"/>
+      <c r="Z14" s="324"/>
+      <c r="AA14" s="324"/>
+      <c r="AB14" s="324"/>
+      <c r="AC14" s="324"/>
+      <c r="AD14" s="324"/>
+      <c r="AE14" s="324"/>
+      <c r="AF14" s="324"/>
+      <c r="AG14" s="324"/>
+      <c r="AH14" s="324"/>
+      <c r="AI14" s="324"/>
+      <c r="AJ14" s="324"/>
+      <c r="AK14" s="324"/>
+      <c r="AL14" s="324"/>
+      <c r="AM14" s="324"/>
+      <c r="AN14" s="324"/>
+      <c r="AO14" s="324"/>
+      <c r="AP14" s="324"/>
+      <c r="AQ14" s="324"/>
+      <c r="AR14" s="324"/>
+      <c r="AS14" s="324"/>
+      <c r="AT14" s="324"/>
+      <c r="AU14" s="324"/>
+      <c r="AV14" s="324"/>
+      <c r="AW14" s="324"/>
+      <c r="AX14" s="324"/>
+      <c r="AY14" s="324"/>
+      <c r="AZ14" s="324"/>
+      <c r="BA14" s="324"/>
+      <c r="BB14" s="324"/>
+      <c r="BC14" s="324"/>
+      <c r="BD14" s="324"/>
+      <c r="BE14" s="324"/>
+      <c r="BF14" s="324"/>
     </row>
     <row r="15" spans="1:58">
-      <c r="A15" s="327"/>
-      <c r="B15" s="327"/>
-      <c r="C15" s="324"/>
-      <c r="D15" s="328"/>
-      <c r="E15" s="328"/>
-      <c r="F15" s="328"/>
-      <c r="G15" s="325"/>
-      <c r="H15" s="325"/>
-      <c r="I15" s="325"/>
-      <c r="J15" s="325"/>
-      <c r="K15" s="325"/>
-      <c r="L15" s="327"/>
-      <c r="M15" s="327"/>
-      <c r="N15" s="327"/>
-      <c r="O15" s="327"/>
-      <c r="P15" s="327"/>
-      <c r="Q15" s="327"/>
-      <c r="R15" s="326"/>
-      <c r="S15" s="326"/>
-      <c r="T15" s="326"/>
-      <c r="U15" s="326"/>
-      <c r="V15" s="326"/>
-      <c r="W15" s="326"/>
-      <c r="X15" s="326"/>
-      <c r="Y15" s="326"/>
-      <c r="Z15" s="326"/>
-      <c r="AA15" s="326"/>
-      <c r="AB15" s="326"/>
-      <c r="AC15" s="326"/>
-      <c r="AD15" s="326"/>
-      <c r="AE15" s="326"/>
-      <c r="AF15" s="326"/>
-      <c r="AG15" s="326"/>
-      <c r="AH15" s="326"/>
-      <c r="AI15" s="326"/>
-      <c r="AJ15" s="326"/>
-      <c r="AK15" s="326"/>
-      <c r="AL15" s="326"/>
-      <c r="AM15" s="326"/>
-      <c r="AN15" s="326"/>
-      <c r="AO15" s="326"/>
-      <c r="AP15" s="326"/>
-      <c r="AQ15" s="326"/>
-      <c r="AR15" s="326"/>
-      <c r="AS15" s="326"/>
-      <c r="AT15" s="326"/>
-      <c r="AU15" s="326"/>
-      <c r="AV15" s="326"/>
-      <c r="AW15" s="326"/>
-      <c r="AX15" s="326"/>
-      <c r="AY15" s="326"/>
-      <c r="AZ15" s="326"/>
-      <c r="BA15" s="326"/>
-      <c r="BB15" s="326"/>
-      <c r="BC15" s="326"/>
-      <c r="BD15" s="326"/>
-      <c r="BE15" s="326"/>
-      <c r="BF15" s="326"/>
+      <c r="A15" s="354"/>
+      <c r="B15" s="354"/>
+      <c r="C15" s="355"/>
+      <c r="D15" s="356"/>
+      <c r="E15" s="356"/>
+      <c r="F15" s="356"/>
+      <c r="G15" s="357"/>
+      <c r="H15" s="357"/>
+      <c r="I15" s="357"/>
+      <c r="J15" s="357"/>
+      <c r="K15" s="357"/>
+      <c r="L15" s="354"/>
+      <c r="M15" s="354"/>
+      <c r="N15" s="354"/>
+      <c r="O15" s="354"/>
+      <c r="P15" s="354"/>
+      <c r="Q15" s="354"/>
+      <c r="R15" s="324"/>
+      <c r="S15" s="324"/>
+      <c r="T15" s="324"/>
+      <c r="U15" s="324"/>
+      <c r="V15" s="324"/>
+      <c r="W15" s="324"/>
+      <c r="X15" s="324"/>
+      <c r="Y15" s="324"/>
+      <c r="Z15" s="324"/>
+      <c r="AA15" s="324"/>
+      <c r="AB15" s="324"/>
+      <c r="AC15" s="324"/>
+      <c r="AD15" s="324"/>
+      <c r="AE15" s="324"/>
+      <c r="AF15" s="324"/>
+      <c r="AG15" s="324"/>
+      <c r="AH15" s="324"/>
+      <c r="AI15" s="324"/>
+      <c r="AJ15" s="324"/>
+      <c r="AK15" s="324"/>
+      <c r="AL15" s="324"/>
+      <c r="AM15" s="324"/>
+      <c r="AN15" s="324"/>
+      <c r="AO15" s="324"/>
+      <c r="AP15" s="324"/>
+      <c r="AQ15" s="324"/>
+      <c r="AR15" s="324"/>
+      <c r="AS15" s="324"/>
+      <c r="AT15" s="324"/>
+      <c r="AU15" s="324"/>
+      <c r="AV15" s="324"/>
+      <c r="AW15" s="324"/>
+      <c r="AX15" s="324"/>
+      <c r="AY15" s="324"/>
+      <c r="AZ15" s="324"/>
+      <c r="BA15" s="324"/>
+      <c r="BB15" s="324"/>
+      <c r="BC15" s="324"/>
+      <c r="BD15" s="324"/>
+      <c r="BE15" s="324"/>
+      <c r="BF15" s="324"/>
     </row>
     <row r="16" spans="1:58">
-      <c r="A16" s="327"/>
-      <c r="B16" s="327"/>
-      <c r="C16" s="324"/>
-      <c r="D16" s="328"/>
-      <c r="E16" s="328"/>
-      <c r="F16" s="328"/>
-      <c r="G16" s="325"/>
-      <c r="H16" s="325"/>
-      <c r="I16" s="325"/>
-      <c r="J16" s="325"/>
-      <c r="K16" s="325"/>
-      <c r="L16" s="327"/>
-      <c r="M16" s="327"/>
-      <c r="N16" s="327"/>
-      <c r="O16" s="327"/>
-      <c r="P16" s="327"/>
-      <c r="Q16" s="327"/>
-      <c r="R16" s="326"/>
-      <c r="S16" s="326"/>
-      <c r="T16" s="326"/>
-      <c r="U16" s="326"/>
-      <c r="V16" s="326"/>
-      <c r="W16" s="326"/>
-      <c r="X16" s="326"/>
-      <c r="Y16" s="326"/>
-      <c r="Z16" s="326"/>
-      <c r="AA16" s="326"/>
-      <c r="AB16" s="326"/>
-      <c r="AC16" s="326"/>
-      <c r="AD16" s="326"/>
-      <c r="AE16" s="326"/>
-      <c r="AF16" s="326"/>
-      <c r="AG16" s="326"/>
-      <c r="AH16" s="326"/>
-      <c r="AI16" s="326"/>
-      <c r="AJ16" s="326"/>
-      <c r="AK16" s="326"/>
-      <c r="AL16" s="326"/>
-      <c r="AM16" s="326"/>
-      <c r="AN16" s="326"/>
-      <c r="AO16" s="326"/>
-      <c r="AP16" s="326"/>
-      <c r="AQ16" s="326"/>
-      <c r="AR16" s="326"/>
-      <c r="AS16" s="326"/>
-      <c r="AT16" s="326"/>
-      <c r="AU16" s="326"/>
-      <c r="AV16" s="326"/>
-      <c r="AW16" s="326"/>
-      <c r="AX16" s="326"/>
-      <c r="AY16" s="326"/>
-      <c r="AZ16" s="326"/>
-      <c r="BA16" s="326"/>
-      <c r="BB16" s="326"/>
-      <c r="BC16" s="326"/>
-      <c r="BD16" s="326"/>
-      <c r="BE16" s="326"/>
-      <c r="BF16" s="326"/>
+      <c r="A16" s="354"/>
+      <c r="B16" s="354"/>
+      <c r="C16" s="355"/>
+      <c r="D16" s="356"/>
+      <c r="E16" s="356"/>
+      <c r="F16" s="356"/>
+      <c r="G16" s="357"/>
+      <c r="H16" s="357"/>
+      <c r="I16" s="357"/>
+      <c r="J16" s="357"/>
+      <c r="K16" s="357"/>
+      <c r="L16" s="354"/>
+      <c r="M16" s="354"/>
+      <c r="N16" s="354"/>
+      <c r="O16" s="354"/>
+      <c r="P16" s="354"/>
+      <c r="Q16" s="354"/>
+      <c r="R16" s="324"/>
+      <c r="S16" s="324"/>
+      <c r="T16" s="324"/>
+      <c r="U16" s="324"/>
+      <c r="V16" s="324"/>
+      <c r="W16" s="324"/>
+      <c r="X16" s="324"/>
+      <c r="Y16" s="324"/>
+      <c r="Z16" s="324"/>
+      <c r="AA16" s="324"/>
+      <c r="AB16" s="324"/>
+      <c r="AC16" s="324"/>
+      <c r="AD16" s="324"/>
+      <c r="AE16" s="324"/>
+      <c r="AF16" s="324"/>
+      <c r="AG16" s="324"/>
+      <c r="AH16" s="324"/>
+      <c r="AI16" s="324"/>
+      <c r="AJ16" s="324"/>
+      <c r="AK16" s="324"/>
+      <c r="AL16" s="324"/>
+      <c r="AM16" s="324"/>
+      <c r="AN16" s="324"/>
+      <c r="AO16" s="324"/>
+      <c r="AP16" s="324"/>
+      <c r="AQ16" s="324"/>
+      <c r="AR16" s="324"/>
+      <c r="AS16" s="324"/>
+      <c r="AT16" s="324"/>
+      <c r="AU16" s="324"/>
+      <c r="AV16" s="324"/>
+      <c r="AW16" s="324"/>
+      <c r="AX16" s="324"/>
+      <c r="AY16" s="324"/>
+      <c r="AZ16" s="324"/>
+      <c r="BA16" s="324"/>
+      <c r="BB16" s="324"/>
+      <c r="BC16" s="324"/>
+      <c r="BD16" s="324"/>
+      <c r="BE16" s="324"/>
+      <c r="BF16" s="324"/>
     </row>
     <row r="17" spans="1:58">
-      <c r="A17" s="327"/>
-      <c r="B17" s="327"/>
-      <c r="C17" s="324"/>
-      <c r="D17" s="328"/>
-      <c r="E17" s="328"/>
-      <c r="F17" s="328"/>
-      <c r="G17" s="325"/>
-      <c r="H17" s="325"/>
-      <c r="I17" s="325"/>
-      <c r="J17" s="325"/>
-      <c r="K17" s="325"/>
-      <c r="L17" s="327"/>
-      <c r="M17" s="327"/>
-      <c r="N17" s="327"/>
-      <c r="O17" s="327"/>
-      <c r="P17" s="327"/>
-      <c r="Q17" s="327"/>
-      <c r="R17" s="326"/>
-      <c r="S17" s="326"/>
-      <c r="T17" s="326"/>
-      <c r="U17" s="326"/>
-      <c r="V17" s="326"/>
-      <c r="W17" s="326"/>
-      <c r="X17" s="326"/>
-      <c r="Y17" s="326"/>
-      <c r="Z17" s="326"/>
-      <c r="AA17" s="326"/>
-      <c r="AB17" s="326"/>
-      <c r="AC17" s="326"/>
-      <c r="AD17" s="326"/>
-      <c r="AE17" s="326"/>
-      <c r="AF17" s="326"/>
-      <c r="AG17" s="326"/>
-      <c r="AH17" s="326"/>
-      <c r="AI17" s="326"/>
-      <c r="AJ17" s="326"/>
-      <c r="AK17" s="326"/>
-      <c r="AL17" s="326"/>
-      <c r="AM17" s="326"/>
-      <c r="AN17" s="326"/>
-      <c r="AO17" s="326"/>
-      <c r="AP17" s="326"/>
-      <c r="AQ17" s="326"/>
-      <c r="AR17" s="326"/>
-      <c r="AS17" s="326"/>
-      <c r="AT17" s="326"/>
-      <c r="AU17" s="326"/>
-      <c r="AV17" s="326"/>
-      <c r="AW17" s="326"/>
-      <c r="AX17" s="326"/>
-      <c r="AY17" s="326"/>
-      <c r="AZ17" s="326"/>
-      <c r="BA17" s="326"/>
-      <c r="BB17" s="326"/>
-      <c r="BC17" s="326"/>
-      <c r="BD17" s="326"/>
-      <c r="BE17" s="326"/>
-      <c r="BF17" s="326"/>
+      <c r="A17" s="354"/>
+      <c r="B17" s="354"/>
+      <c r="C17" s="355"/>
+      <c r="D17" s="356"/>
+      <c r="E17" s="356"/>
+      <c r="F17" s="356"/>
+      <c r="G17" s="357"/>
+      <c r="H17" s="357"/>
+      <c r="I17" s="357"/>
+      <c r="J17" s="357"/>
+      <c r="K17" s="357"/>
+      <c r="L17" s="354"/>
+      <c r="M17" s="354"/>
+      <c r="N17" s="354"/>
+      <c r="O17" s="354"/>
+      <c r="P17" s="354"/>
+      <c r="Q17" s="354"/>
+      <c r="R17" s="324"/>
+      <c r="S17" s="324"/>
+      <c r="T17" s="324"/>
+      <c r="U17" s="324"/>
+      <c r="V17" s="324"/>
+      <c r="W17" s="324"/>
+      <c r="X17" s="324"/>
+      <c r="Y17" s="324"/>
+      <c r="Z17" s="324"/>
+      <c r="AA17" s="324"/>
+      <c r="AB17" s="324"/>
+      <c r="AC17" s="324"/>
+      <c r="AD17" s="324"/>
+      <c r="AE17" s="324"/>
+      <c r="AF17" s="324"/>
+      <c r="AG17" s="324"/>
+      <c r="AH17" s="324"/>
+      <c r="AI17" s="324"/>
+      <c r="AJ17" s="324"/>
+      <c r="AK17" s="324"/>
+      <c r="AL17" s="324"/>
+      <c r="AM17" s="324"/>
+      <c r="AN17" s="324"/>
+      <c r="AO17" s="324"/>
+      <c r="AP17" s="324"/>
+      <c r="AQ17" s="324"/>
+      <c r="AR17" s="324"/>
+      <c r="AS17" s="324"/>
+      <c r="AT17" s="324"/>
+      <c r="AU17" s="324"/>
+      <c r="AV17" s="324"/>
+      <c r="AW17" s="324"/>
+      <c r="AX17" s="324"/>
+      <c r="AY17" s="324"/>
+      <c r="AZ17" s="324"/>
+      <c r="BA17" s="324"/>
+      <c r="BB17" s="324"/>
+      <c r="BC17" s="324"/>
+      <c r="BD17" s="324"/>
+      <c r="BE17" s="324"/>
+      <c r="BF17" s="324"/>
     </row>
     <row r="18" spans="1:58">
-      <c r="A18" s="327"/>
-      <c r="B18" s="327"/>
-      <c r="C18" s="324"/>
-      <c r="D18" s="328"/>
-      <c r="E18" s="328"/>
-      <c r="F18" s="328"/>
-      <c r="G18" s="325"/>
-      <c r="H18" s="325"/>
-      <c r="I18" s="325"/>
-      <c r="J18" s="325"/>
-      <c r="K18" s="325"/>
-      <c r="L18" s="327"/>
-      <c r="M18" s="327"/>
-      <c r="N18" s="327"/>
-      <c r="O18" s="327"/>
-      <c r="P18" s="327"/>
-      <c r="Q18" s="327"/>
-      <c r="R18" s="326"/>
-      <c r="S18" s="326"/>
-      <c r="T18" s="326"/>
-      <c r="U18" s="326"/>
-      <c r="V18" s="326"/>
-      <c r="W18" s="326"/>
-      <c r="X18" s="326"/>
-      <c r="Y18" s="326"/>
-      <c r="Z18" s="326"/>
-      <c r="AA18" s="326"/>
-      <c r="AB18" s="326"/>
-      <c r="AC18" s="326"/>
-      <c r="AD18" s="326"/>
-      <c r="AE18" s="326"/>
-      <c r="AF18" s="326"/>
-      <c r="AG18" s="326"/>
-      <c r="AH18" s="326"/>
-      <c r="AI18" s="326"/>
-      <c r="AJ18" s="326"/>
-      <c r="AK18" s="326"/>
-      <c r="AL18" s="326"/>
-      <c r="AM18" s="326"/>
-      <c r="AN18" s="326"/>
-      <c r="AO18" s="326"/>
-      <c r="AP18" s="326"/>
-      <c r="AQ18" s="326"/>
-      <c r="AR18" s="326"/>
-      <c r="AS18" s="326"/>
-      <c r="AT18" s="326"/>
-      <c r="AU18" s="326"/>
-      <c r="AV18" s="326"/>
-      <c r="AW18" s="326"/>
-      <c r="AX18" s="326"/>
-      <c r="AY18" s="326"/>
-      <c r="AZ18" s="326"/>
-      <c r="BA18" s="326"/>
-      <c r="BB18" s="326"/>
-      <c r="BC18" s="326"/>
-      <c r="BD18" s="326"/>
-      <c r="BE18" s="326"/>
-      <c r="BF18" s="326"/>
+      <c r="A18" s="354"/>
+      <c r="B18" s="354"/>
+      <c r="C18" s="355"/>
+      <c r="D18" s="356"/>
+      <c r="E18" s="356"/>
+      <c r="F18" s="356"/>
+      <c r="G18" s="357"/>
+      <c r="H18" s="357"/>
+      <c r="I18" s="357"/>
+      <c r="J18" s="357"/>
+      <c r="K18" s="357"/>
+      <c r="L18" s="354"/>
+      <c r="M18" s="354"/>
+      <c r="N18" s="354"/>
+      <c r="O18" s="354"/>
+      <c r="P18" s="354"/>
+      <c r="Q18" s="354"/>
+      <c r="R18" s="324"/>
+      <c r="S18" s="324"/>
+      <c r="T18" s="324"/>
+      <c r="U18" s="324"/>
+      <c r="V18" s="324"/>
+      <c r="W18" s="324"/>
+      <c r="X18" s="324"/>
+      <c r="Y18" s="324"/>
+      <c r="Z18" s="324"/>
+      <c r="AA18" s="324"/>
+      <c r="AB18" s="324"/>
+      <c r="AC18" s="324"/>
+      <c r="AD18" s="324"/>
+      <c r="AE18" s="324"/>
+      <c r="AF18" s="324"/>
+      <c r="AG18" s="324"/>
+      <c r="AH18" s="324"/>
+      <c r="AI18" s="324"/>
+      <c r="AJ18" s="324"/>
+      <c r="AK18" s="324"/>
+      <c r="AL18" s="324"/>
+      <c r="AM18" s="324"/>
+      <c r="AN18" s="324"/>
+      <c r="AO18" s="324"/>
+      <c r="AP18" s="324"/>
+      <c r="AQ18" s="324"/>
+      <c r="AR18" s="324"/>
+      <c r="AS18" s="324"/>
+      <c r="AT18" s="324"/>
+      <c r="AU18" s="324"/>
+      <c r="AV18" s="324"/>
+      <c r="AW18" s="324"/>
+      <c r="AX18" s="324"/>
+      <c r="AY18" s="324"/>
+      <c r="AZ18" s="324"/>
+      <c r="BA18" s="324"/>
+      <c r="BB18" s="324"/>
+      <c r="BC18" s="324"/>
+      <c r="BD18" s="324"/>
+      <c r="BE18" s="324"/>
+      <c r="BF18" s="324"/>
     </row>
     <row r="19" spans="1:58">
-      <c r="A19" s="327"/>
-      <c r="B19" s="327"/>
-      <c r="C19" s="324"/>
-      <c r="D19" s="328"/>
-      <c r="E19" s="328"/>
-      <c r="F19" s="328"/>
-      <c r="G19" s="325"/>
-      <c r="H19" s="325"/>
-      <c r="I19" s="325"/>
-      <c r="J19" s="325"/>
-      <c r="K19" s="325"/>
-      <c r="L19" s="327"/>
-      <c r="M19" s="327"/>
-      <c r="N19" s="327"/>
-      <c r="O19" s="327"/>
-      <c r="P19" s="327"/>
-      <c r="Q19" s="327"/>
-      <c r="R19" s="326"/>
-      <c r="S19" s="326"/>
-      <c r="T19" s="326"/>
-      <c r="U19" s="326"/>
-      <c r="V19" s="326"/>
-      <c r="W19" s="326"/>
-      <c r="X19" s="326"/>
-      <c r="Y19" s="326"/>
-      <c r="Z19" s="326"/>
-      <c r="AA19" s="326"/>
-      <c r="AB19" s="326"/>
-      <c r="AC19" s="326"/>
-      <c r="AD19" s="326"/>
-      <c r="AE19" s="326"/>
-      <c r="AF19" s="326"/>
-      <c r="AG19" s="326"/>
-      <c r="AH19" s="326"/>
-      <c r="AI19" s="326"/>
-      <c r="AJ19" s="326"/>
-      <c r="AK19" s="326"/>
-      <c r="AL19" s="326"/>
-      <c r="AM19" s="326"/>
-      <c r="AN19" s="326"/>
-      <c r="AO19" s="326"/>
-      <c r="AP19" s="326"/>
-      <c r="AQ19" s="326"/>
-      <c r="AR19" s="326"/>
-      <c r="AS19" s="326"/>
-      <c r="AT19" s="326"/>
-      <c r="AU19" s="326"/>
-      <c r="AV19" s="326"/>
-      <c r="AW19" s="326"/>
-      <c r="AX19" s="326"/>
-      <c r="AY19" s="326"/>
-      <c r="AZ19" s="326"/>
-      <c r="BA19" s="326"/>
-      <c r="BB19" s="326"/>
-      <c r="BC19" s="326"/>
-      <c r="BD19" s="326"/>
-      <c r="BE19" s="326"/>
-      <c r="BF19" s="326"/>
+      <c r="A19" s="354"/>
+      <c r="B19" s="354"/>
+      <c r="C19" s="355"/>
+      <c r="D19" s="356"/>
+      <c r="E19" s="356"/>
+      <c r="F19" s="356"/>
+      <c r="G19" s="357"/>
+      <c r="H19" s="357"/>
+      <c r="I19" s="357"/>
+      <c r="J19" s="357"/>
+      <c r="K19" s="357"/>
+      <c r="L19" s="354"/>
+      <c r="M19" s="354"/>
+      <c r="N19" s="354"/>
+      <c r="O19" s="354"/>
+      <c r="P19" s="354"/>
+      <c r="Q19" s="354"/>
+      <c r="R19" s="324"/>
+      <c r="S19" s="324"/>
+      <c r="T19" s="324"/>
+      <c r="U19" s="324"/>
+      <c r="V19" s="324"/>
+      <c r="W19" s="324"/>
+      <c r="X19" s="324"/>
+      <c r="Y19" s="324"/>
+      <c r="Z19" s="324"/>
+      <c r="AA19" s="324"/>
+      <c r="AB19" s="324"/>
+      <c r="AC19" s="324"/>
+      <c r="AD19" s="324"/>
+      <c r="AE19" s="324"/>
+      <c r="AF19" s="324"/>
+      <c r="AG19" s="324"/>
+      <c r="AH19" s="324"/>
+      <c r="AI19" s="324"/>
+      <c r="AJ19" s="324"/>
+      <c r="AK19" s="324"/>
+      <c r="AL19" s="324"/>
+      <c r="AM19" s="324"/>
+      <c r="AN19" s="324"/>
+      <c r="AO19" s="324"/>
+      <c r="AP19" s="324"/>
+      <c r="AQ19" s="324"/>
+      <c r="AR19" s="324"/>
+      <c r="AS19" s="324"/>
+      <c r="AT19" s="324"/>
+      <c r="AU19" s="324"/>
+      <c r="AV19" s="324"/>
+      <c r="AW19" s="324"/>
+      <c r="AX19" s="324"/>
+      <c r="AY19" s="324"/>
+      <c r="AZ19" s="324"/>
+      <c r="BA19" s="324"/>
+      <c r="BB19" s="324"/>
+      <c r="BC19" s="324"/>
+      <c r="BD19" s="324"/>
+      <c r="BE19" s="324"/>
+      <c r="BF19" s="324"/>
     </row>
     <row r="20" spans="1:58">
-      <c r="A20" s="327"/>
-      <c r="B20" s="327"/>
-      <c r="C20" s="324"/>
-      <c r="D20" s="328"/>
-      <c r="E20" s="328"/>
-      <c r="F20" s="328"/>
-      <c r="G20" s="325"/>
-      <c r="H20" s="325"/>
-      <c r="I20" s="325"/>
-      <c r="J20" s="325"/>
-      <c r="K20" s="325"/>
-      <c r="L20" s="327"/>
-      <c r="M20" s="327"/>
-      <c r="N20" s="327"/>
-      <c r="O20" s="327"/>
-      <c r="P20" s="327"/>
-      <c r="Q20" s="327"/>
-      <c r="R20" s="326"/>
-      <c r="S20" s="326"/>
-      <c r="T20" s="326"/>
-      <c r="U20" s="326"/>
-      <c r="V20" s="326"/>
-      <c r="W20" s="326"/>
-      <c r="X20" s="326"/>
-      <c r="Y20" s="326"/>
-      <c r="Z20" s="326"/>
-      <c r="AA20" s="326"/>
-      <c r="AB20" s="326"/>
-      <c r="AC20" s="326"/>
-      <c r="AD20" s="326"/>
-      <c r="AE20" s="326"/>
-      <c r="AF20" s="326"/>
-      <c r="AG20" s="326"/>
-      <c r="AH20" s="326"/>
-      <c r="AI20" s="326"/>
-      <c r="AJ20" s="326"/>
-      <c r="AK20" s="326"/>
-      <c r="AL20" s="326"/>
-      <c r="AM20" s="326"/>
-      <c r="AN20" s="326"/>
-      <c r="AO20" s="326"/>
-      <c r="AP20" s="326"/>
-      <c r="AQ20" s="326"/>
-      <c r="AR20" s="326"/>
-      <c r="AS20" s="326"/>
-      <c r="AT20" s="326"/>
-      <c r="AU20" s="326"/>
-      <c r="AV20" s="326"/>
-      <c r="AW20" s="326"/>
-      <c r="AX20" s="326"/>
-      <c r="AY20" s="326"/>
-      <c r="AZ20" s="326"/>
-      <c r="BA20" s="326"/>
-      <c r="BB20" s="326"/>
-      <c r="BC20" s="326"/>
-      <c r="BD20" s="326"/>
-      <c r="BE20" s="326"/>
-      <c r="BF20" s="326"/>
+      <c r="A20" s="354"/>
+      <c r="B20" s="354"/>
+      <c r="C20" s="355"/>
+      <c r="D20" s="356"/>
+      <c r="E20" s="356"/>
+      <c r="F20" s="356"/>
+      <c r="G20" s="357"/>
+      <c r="H20" s="357"/>
+      <c r="I20" s="357"/>
+      <c r="J20" s="357"/>
+      <c r="K20" s="357"/>
+      <c r="L20" s="354"/>
+      <c r="M20" s="354"/>
+      <c r="N20" s="354"/>
+      <c r="O20" s="354"/>
+      <c r="P20" s="354"/>
+      <c r="Q20" s="354"/>
+      <c r="R20" s="324"/>
+      <c r="S20" s="324"/>
+      <c r="T20" s="324"/>
+      <c r="U20" s="324"/>
+      <c r="V20" s="324"/>
+      <c r="W20" s="324"/>
+      <c r="X20" s="324"/>
+      <c r="Y20" s="324"/>
+      <c r="Z20" s="324"/>
+      <c r="AA20" s="324"/>
+      <c r="AB20" s="324"/>
+      <c r="AC20" s="324"/>
+      <c r="AD20" s="324"/>
+      <c r="AE20" s="324"/>
+      <c r="AF20" s="324"/>
+      <c r="AG20" s="324"/>
+      <c r="AH20" s="324"/>
+      <c r="AI20" s="324"/>
+      <c r="AJ20" s="324"/>
+      <c r="AK20" s="324"/>
+      <c r="AL20" s="324"/>
+      <c r="AM20" s="324"/>
+      <c r="AN20" s="324"/>
+      <c r="AO20" s="324"/>
+      <c r="AP20" s="324"/>
+      <c r="AQ20" s="324"/>
+      <c r="AR20" s="324"/>
+      <c r="AS20" s="324"/>
+      <c r="AT20" s="324"/>
+      <c r="AU20" s="324"/>
+      <c r="AV20" s="324"/>
+      <c r="AW20" s="324"/>
+      <c r="AX20" s="324"/>
+      <c r="AY20" s="324"/>
+      <c r="AZ20" s="324"/>
+      <c r="BA20" s="324"/>
+      <c r="BB20" s="324"/>
+      <c r="BC20" s="324"/>
+      <c r="BD20" s="324"/>
+      <c r="BE20" s="324"/>
+      <c r="BF20" s="324"/>
     </row>
     <row r="21" spans="1:58">
-      <c r="A21" s="327"/>
-      <c r="B21" s="327"/>
-      <c r="C21" s="324"/>
-      <c r="D21" s="328"/>
-      <c r="E21" s="328"/>
-      <c r="F21" s="328"/>
-      <c r="G21" s="325"/>
-      <c r="H21" s="325"/>
-      <c r="I21" s="325"/>
-      <c r="J21" s="325"/>
-      <c r="K21" s="325"/>
-      <c r="L21" s="327"/>
-      <c r="M21" s="327"/>
-      <c r="N21" s="327"/>
-      <c r="O21" s="327"/>
-      <c r="P21" s="327"/>
-      <c r="Q21" s="327"/>
-      <c r="R21" s="326"/>
-      <c r="S21" s="326"/>
-      <c r="T21" s="326"/>
-      <c r="U21" s="326"/>
-      <c r="V21" s="326"/>
-      <c r="W21" s="326"/>
-      <c r="X21" s="326"/>
-      <c r="Y21" s="326"/>
-      <c r="Z21" s="326"/>
-      <c r="AA21" s="326"/>
-      <c r="AB21" s="326"/>
-      <c r="AC21" s="326"/>
-      <c r="AD21" s="326"/>
-      <c r="AE21" s="326"/>
-      <c r="AF21" s="326"/>
-      <c r="AG21" s="326"/>
-      <c r="AH21" s="326"/>
-      <c r="AI21" s="326"/>
-      <c r="AJ21" s="326"/>
-      <c r="AK21" s="326"/>
-      <c r="AL21" s="326"/>
-      <c r="AM21" s="326"/>
-      <c r="AN21" s="326"/>
-      <c r="AO21" s="326"/>
-      <c r="AP21" s="326"/>
-      <c r="AQ21" s="326"/>
-      <c r="AR21" s="326"/>
-      <c r="AS21" s="326"/>
-      <c r="AT21" s="326"/>
-      <c r="AU21" s="326"/>
-      <c r="AV21" s="326"/>
-      <c r="AW21" s="326"/>
-      <c r="AX21" s="326"/>
-      <c r="AY21" s="326"/>
-      <c r="AZ21" s="326"/>
-      <c r="BA21" s="326"/>
-      <c r="BB21" s="326"/>
-      <c r="BC21" s="326"/>
-      <c r="BD21" s="326"/>
-      <c r="BE21" s="326"/>
-      <c r="BF21" s="326"/>
+      <c r="A21" s="354"/>
+      <c r="B21" s="354"/>
+      <c r="C21" s="355"/>
+      <c r="D21" s="356"/>
+      <c r="E21" s="356"/>
+      <c r="F21" s="356"/>
+      <c r="G21" s="357"/>
+      <c r="H21" s="357"/>
+      <c r="I21" s="357"/>
+      <c r="J21" s="357"/>
+      <c r="K21" s="357"/>
+      <c r="L21" s="354"/>
+      <c r="M21" s="354"/>
+      <c r="N21" s="354"/>
+      <c r="O21" s="354"/>
+      <c r="P21" s="354"/>
+      <c r="Q21" s="354"/>
+      <c r="R21" s="324"/>
+      <c r="S21" s="324"/>
+      <c r="T21" s="324"/>
+      <c r="U21" s="324"/>
+      <c r="V21" s="324"/>
+      <c r="W21" s="324"/>
+      <c r="X21" s="324"/>
+      <c r="Y21" s="324"/>
+      <c r="Z21" s="324"/>
+      <c r="AA21" s="324"/>
+      <c r="AB21" s="324"/>
+      <c r="AC21" s="324"/>
+      <c r="AD21" s="324"/>
+      <c r="AE21" s="324"/>
+      <c r="AF21" s="324"/>
+      <c r="AG21" s="324"/>
+      <c r="AH21" s="324"/>
+      <c r="AI21" s="324"/>
+      <c r="AJ21" s="324"/>
+      <c r="AK21" s="324"/>
+      <c r="AL21" s="324"/>
+      <c r="AM21" s="324"/>
+      <c r="AN21" s="324"/>
+      <c r="AO21" s="324"/>
+      <c r="AP21" s="324"/>
+      <c r="AQ21" s="324"/>
+      <c r="AR21" s="324"/>
+      <c r="AS21" s="324"/>
+      <c r="AT21" s="324"/>
+      <c r="AU21" s="324"/>
+      <c r="AV21" s="324"/>
+      <c r="AW21" s="324"/>
+      <c r="AX21" s="324"/>
+      <c r="AY21" s="324"/>
+      <c r="AZ21" s="324"/>
+      <c r="BA21" s="324"/>
+      <c r="BB21" s="324"/>
+      <c r="BC21" s="324"/>
+      <c r="BD21" s="324"/>
+      <c r="BE21" s="324"/>
+      <c r="BF21" s="324"/>
     </row>
     <row r="22" spans="1:58">
-      <c r="A22" s="327"/>
-      <c r="B22" s="327"/>
-      <c r="C22" s="324"/>
-      <c r="D22" s="328"/>
-      <c r="E22" s="328"/>
-      <c r="F22" s="328"/>
-      <c r="G22" s="325"/>
-      <c r="H22" s="325"/>
-      <c r="I22" s="325"/>
-      <c r="J22" s="325"/>
-      <c r="K22" s="325"/>
-      <c r="L22" s="327"/>
-      <c r="M22" s="327"/>
-      <c r="N22" s="327"/>
-      <c r="O22" s="327"/>
-      <c r="P22" s="327"/>
-      <c r="Q22" s="327"/>
-      <c r="R22" s="326"/>
-      <c r="S22" s="326"/>
-      <c r="T22" s="326"/>
-      <c r="U22" s="326"/>
-      <c r="V22" s="326"/>
-      <c r="W22" s="326"/>
-      <c r="X22" s="326"/>
-      <c r="Y22" s="326"/>
-      <c r="Z22" s="326"/>
-      <c r="AA22" s="326"/>
-      <c r="AB22" s="326"/>
-      <c r="AC22" s="326"/>
-      <c r="AD22" s="326"/>
-      <c r="AE22" s="326"/>
-      <c r="AF22" s="326"/>
-      <c r="AG22" s="326"/>
-      <c r="AH22" s="326"/>
-      <c r="AI22" s="326"/>
-      <c r="AJ22" s="326"/>
-      <c r="AK22" s="326"/>
-      <c r="AL22" s="326"/>
-      <c r="AM22" s="326"/>
-      <c r="AN22" s="326"/>
-      <c r="AO22" s="326"/>
-      <c r="AP22" s="326"/>
-      <c r="AQ22" s="326"/>
-      <c r="AR22" s="326"/>
-      <c r="AS22" s="326"/>
-      <c r="AT22" s="326"/>
-      <c r="AU22" s="326"/>
-      <c r="AV22" s="326"/>
-      <c r="AW22" s="326"/>
-      <c r="AX22" s="326"/>
-      <c r="AY22" s="326"/>
-      <c r="AZ22" s="326"/>
-      <c r="BA22" s="326"/>
-      <c r="BB22" s="326"/>
-      <c r="BC22" s="326"/>
-      <c r="BD22" s="326"/>
-      <c r="BE22" s="326"/>
-      <c r="BF22" s="326"/>
+      <c r="A22" s="354"/>
+      <c r="B22" s="354"/>
+      <c r="C22" s="355"/>
+      <c r="D22" s="356"/>
+      <c r="E22" s="356"/>
+      <c r="F22" s="356"/>
+      <c r="G22" s="357"/>
+      <c r="H22" s="357"/>
+      <c r="I22" s="357"/>
+      <c r="J22" s="357"/>
+      <c r="K22" s="357"/>
+      <c r="L22" s="354"/>
+      <c r="M22" s="354"/>
+      <c r="N22" s="354"/>
+      <c r="O22" s="354"/>
+      <c r="P22" s="354"/>
+      <c r="Q22" s="354"/>
+      <c r="R22" s="324"/>
+      <c r="S22" s="324"/>
+      <c r="T22" s="324"/>
+      <c r="U22" s="324"/>
+      <c r="V22" s="324"/>
+      <c r="W22" s="324"/>
+      <c r="X22" s="324"/>
+      <c r="Y22" s="324"/>
+      <c r="Z22" s="324"/>
+      <c r="AA22" s="324"/>
+      <c r="AB22" s="324"/>
+      <c r="AC22" s="324"/>
+      <c r="AD22" s="324"/>
+      <c r="AE22" s="324"/>
+      <c r="AF22" s="324"/>
+      <c r="AG22" s="324"/>
+      <c r="AH22" s="324"/>
+      <c r="AI22" s="324"/>
+      <c r="AJ22" s="324"/>
+      <c r="AK22" s="324"/>
+      <c r="AL22" s="324"/>
+      <c r="AM22" s="324"/>
+      <c r="AN22" s="324"/>
+      <c r="AO22" s="324"/>
+      <c r="AP22" s="324"/>
+      <c r="AQ22" s="324"/>
+      <c r="AR22" s="324"/>
+      <c r="AS22" s="324"/>
+      <c r="AT22" s="324"/>
+      <c r="AU22" s="324"/>
+      <c r="AV22" s="324"/>
+      <c r="AW22" s="324"/>
+      <c r="AX22" s="324"/>
+      <c r="AY22" s="324"/>
+      <c r="AZ22" s="324"/>
+      <c r="BA22" s="324"/>
+      <c r="BB22" s="324"/>
+      <c r="BC22" s="324"/>
+      <c r="BD22" s="324"/>
+      <c r="BE22" s="324"/>
+      <c r="BF22" s="324"/>
     </row>
     <row r="23" spans="1:58">
-      <c r="A23" s="327"/>
-      <c r="B23" s="327"/>
-      <c r="C23" s="324"/>
-      <c r="D23" s="328"/>
-      <c r="E23" s="328"/>
-      <c r="F23" s="328"/>
-      <c r="G23" s="325"/>
-      <c r="H23" s="325"/>
-      <c r="I23" s="325"/>
-      <c r="J23" s="325"/>
-      <c r="K23" s="325"/>
-      <c r="L23" s="327"/>
-      <c r="M23" s="327"/>
-      <c r="N23" s="327"/>
-      <c r="O23" s="327"/>
-      <c r="P23" s="327"/>
-      <c r="Q23" s="327"/>
-      <c r="R23" s="326"/>
-      <c r="S23" s="326"/>
-      <c r="T23" s="326"/>
-      <c r="U23" s="326"/>
-      <c r="V23" s="326"/>
-      <c r="W23" s="326"/>
-      <c r="X23" s="326"/>
-      <c r="Y23" s="326"/>
-      <c r="Z23" s="326"/>
-      <c r="AA23" s="326"/>
-      <c r="AB23" s="326"/>
-      <c r="AC23" s="326"/>
-      <c r="AD23" s="326"/>
-      <c r="AE23" s="326"/>
-      <c r="AF23" s="326"/>
-      <c r="AG23" s="326"/>
-      <c r="AH23" s="326"/>
-      <c r="AI23" s="326"/>
-      <c r="AJ23" s="326"/>
-      <c r="AK23" s="326"/>
-      <c r="AL23" s="326"/>
-      <c r="AM23" s="326"/>
-      <c r="AN23" s="326"/>
-      <c r="AO23" s="326"/>
-      <c r="AP23" s="326"/>
-      <c r="AQ23" s="326"/>
-      <c r="AR23" s="326"/>
-      <c r="AS23" s="326"/>
-      <c r="AT23" s="326"/>
-      <c r="AU23" s="326"/>
-      <c r="AV23" s="326"/>
-      <c r="AW23" s="326"/>
-      <c r="AX23" s="326"/>
-      <c r="AY23" s="326"/>
-      <c r="AZ23" s="326"/>
-      <c r="BA23" s="326"/>
-      <c r="BB23" s="326"/>
-      <c r="BC23" s="326"/>
-      <c r="BD23" s="326"/>
-      <c r="BE23" s="326"/>
-      <c r="BF23" s="326"/>
+      <c r="A23" s="354"/>
+      <c r="B23" s="354"/>
+      <c r="C23" s="355"/>
+      <c r="D23" s="356"/>
+      <c r="E23" s="356"/>
+      <c r="F23" s="356"/>
+      <c r="G23" s="357"/>
+      <c r="H23" s="357"/>
+      <c r="I23" s="357"/>
+      <c r="J23" s="357"/>
+      <c r="K23" s="357"/>
+      <c r="L23" s="354"/>
+      <c r="M23" s="354"/>
+      <c r="N23" s="354"/>
+      <c r="O23" s="354"/>
+      <c r="P23" s="354"/>
+      <c r="Q23" s="354"/>
+      <c r="R23" s="324"/>
+      <c r="S23" s="324"/>
+      <c r="T23" s="324"/>
+      <c r="U23" s="324"/>
+      <c r="V23" s="324"/>
+      <c r="W23" s="324"/>
+      <c r="X23" s="324"/>
+      <c r="Y23" s="324"/>
+      <c r="Z23" s="324"/>
+      <c r="AA23" s="324"/>
+      <c r="AB23" s="324"/>
+      <c r="AC23" s="324"/>
+      <c r="AD23" s="324"/>
+      <c r="AE23" s="324"/>
+      <c r="AF23" s="324"/>
+      <c r="AG23" s="324"/>
+      <c r="AH23" s="324"/>
+      <c r="AI23" s="324"/>
+      <c r="AJ23" s="324"/>
+      <c r="AK23" s="324"/>
+      <c r="AL23" s="324"/>
+      <c r="AM23" s="324"/>
+      <c r="AN23" s="324"/>
+      <c r="AO23" s="324"/>
+      <c r="AP23" s="324"/>
+      <c r="AQ23" s="324"/>
+      <c r="AR23" s="324"/>
+      <c r="AS23" s="324"/>
+      <c r="AT23" s="324"/>
+      <c r="AU23" s="324"/>
+      <c r="AV23" s="324"/>
+      <c r="AW23" s="324"/>
+      <c r="AX23" s="324"/>
+      <c r="AY23" s="324"/>
+      <c r="AZ23" s="324"/>
+      <c r="BA23" s="324"/>
+      <c r="BB23" s="324"/>
+      <c r="BC23" s="324"/>
+      <c r="BD23" s="324"/>
+      <c r="BE23" s="324"/>
+      <c r="BF23" s="324"/>
     </row>
     <row r="24" spans="1:58">
-      <c r="A24" s="327"/>
-      <c r="B24" s="327"/>
-      <c r="C24" s="324"/>
-      <c r="D24" s="328"/>
-      <c r="E24" s="328"/>
-      <c r="F24" s="328"/>
-      <c r="G24" s="325"/>
-      <c r="H24" s="325"/>
-      <c r="I24" s="325"/>
-      <c r="J24" s="325"/>
-      <c r="K24" s="325"/>
-      <c r="L24" s="327"/>
-      <c r="M24" s="327"/>
-      <c r="N24" s="327"/>
-      <c r="O24" s="327"/>
-      <c r="P24" s="327"/>
-      <c r="Q24" s="327"/>
-      <c r="R24" s="326"/>
-      <c r="S24" s="326"/>
-      <c r="T24" s="326"/>
-      <c r="U24" s="326"/>
-      <c r="V24" s="326"/>
-      <c r="W24" s="326"/>
-      <c r="X24" s="326"/>
-      <c r="Y24" s="326"/>
-      <c r="Z24" s="326"/>
-      <c r="AA24" s="326"/>
-      <c r="AB24" s="326"/>
-      <c r="AC24" s="326"/>
-      <c r="AD24" s="326"/>
-      <c r="AE24" s="326"/>
-      <c r="AF24" s="326"/>
-      <c r="AG24" s="326"/>
-      <c r="AH24" s="326"/>
-      <c r="AI24" s="326"/>
-      <c r="AJ24" s="326"/>
-      <c r="AK24" s="326"/>
-      <c r="AL24" s="326"/>
-      <c r="AM24" s="326"/>
-      <c r="AN24" s="326"/>
-      <c r="AO24" s="326"/>
-      <c r="AP24" s="326"/>
-      <c r="AQ24" s="326"/>
-      <c r="AR24" s="326"/>
-      <c r="AS24" s="326"/>
-      <c r="AT24" s="326"/>
-      <c r="AU24" s="326"/>
-      <c r="AV24" s="326"/>
-      <c r="AW24" s="326"/>
-      <c r="AX24" s="326"/>
-      <c r="AY24" s="326"/>
-      <c r="AZ24" s="326"/>
-      <c r="BA24" s="326"/>
-      <c r="BB24" s="326"/>
-      <c r="BC24" s="326"/>
-      <c r="BD24" s="326"/>
-      <c r="BE24" s="326"/>
-      <c r="BF24" s="326"/>
+      <c r="A24" s="354"/>
+      <c r="B24" s="354"/>
+      <c r="C24" s="355"/>
+      <c r="D24" s="356"/>
+      <c r="E24" s="356"/>
+      <c r="F24" s="356"/>
+      <c r="G24" s="357"/>
+      <c r="H24" s="357"/>
+      <c r="I24" s="357"/>
+      <c r="J24" s="357"/>
+      <c r="K24" s="357"/>
+      <c r="L24" s="354"/>
+      <c r="M24" s="354"/>
+      <c r="N24" s="354"/>
+      <c r="O24" s="354"/>
+      <c r="P24" s="354"/>
+      <c r="Q24" s="354"/>
+      <c r="R24" s="324"/>
+      <c r="S24" s="324"/>
+      <c r="T24" s="324"/>
+      <c r="U24" s="324"/>
+      <c r="V24" s="324"/>
+      <c r="W24" s="324"/>
+      <c r="X24" s="324"/>
+      <c r="Y24" s="324"/>
+      <c r="Z24" s="324"/>
+      <c r="AA24" s="324"/>
+      <c r="AB24" s="324"/>
+      <c r="AC24" s="324"/>
+      <c r="AD24" s="324"/>
+      <c r="AE24" s="324"/>
+      <c r="AF24" s="324"/>
+      <c r="AG24" s="324"/>
+      <c r="AH24" s="324"/>
+      <c r="AI24" s="324"/>
+      <c r="AJ24" s="324"/>
+      <c r="AK24" s="324"/>
+      <c r="AL24" s="324"/>
+      <c r="AM24" s="324"/>
+      <c r="AN24" s="324"/>
+      <c r="AO24" s="324"/>
+      <c r="AP24" s="324"/>
+      <c r="AQ24" s="324"/>
+      <c r="AR24" s="324"/>
+      <c r="AS24" s="324"/>
+      <c r="AT24" s="324"/>
+      <c r="AU24" s="324"/>
+      <c r="AV24" s="324"/>
+      <c r="AW24" s="324"/>
+      <c r="AX24" s="324"/>
+      <c r="AY24" s="324"/>
+      <c r="AZ24" s="324"/>
+      <c r="BA24" s="324"/>
+      <c r="BB24" s="324"/>
+      <c r="BC24" s="324"/>
+      <c r="BD24" s="324"/>
+      <c r="BE24" s="324"/>
+      <c r="BF24" s="324"/>
     </row>
     <row r="25" spans="1:58">
-      <c r="A25" s="327"/>
-      <c r="B25" s="327"/>
-      <c r="C25" s="324"/>
-      <c r="D25" s="328"/>
-      <c r="E25" s="328"/>
-      <c r="F25" s="328"/>
-      <c r="G25" s="325"/>
-      <c r="H25" s="325"/>
-      <c r="I25" s="325"/>
-      <c r="J25" s="325"/>
-      <c r="K25" s="325"/>
-      <c r="L25" s="327"/>
-      <c r="M25" s="327"/>
-      <c r="N25" s="327"/>
-      <c r="O25" s="327"/>
-      <c r="P25" s="327"/>
-      <c r="Q25" s="327"/>
-      <c r="R25" s="326"/>
-      <c r="S25" s="326"/>
-      <c r="T25" s="326"/>
-      <c r="U25" s="326"/>
-      <c r="V25" s="326"/>
-      <c r="W25" s="326"/>
-      <c r="X25" s="326"/>
-      <c r="Y25" s="326"/>
-      <c r="Z25" s="326"/>
-      <c r="AA25" s="326"/>
-      <c r="AB25" s="326"/>
-      <c r="AC25" s="326"/>
-      <c r="AD25" s="326"/>
-      <c r="AE25" s="326"/>
-      <c r="AF25" s="326"/>
-      <c r="AG25" s="326"/>
-      <c r="AH25" s="326"/>
-      <c r="AI25" s="326"/>
-      <c r="AJ25" s="326"/>
-      <c r="AK25" s="326"/>
-      <c r="AL25" s="326"/>
-      <c r="AM25" s="326"/>
-      <c r="AN25" s="326"/>
-      <c r="AO25" s="326"/>
-      <c r="AP25" s="326"/>
-      <c r="AQ25" s="326"/>
-      <c r="AR25" s="326"/>
-      <c r="AS25" s="326"/>
-      <c r="AT25" s="326"/>
-      <c r="AU25" s="326"/>
-      <c r="AV25" s="326"/>
-      <c r="AW25" s="326"/>
-      <c r="AX25" s="326"/>
-      <c r="AY25" s="326"/>
-      <c r="AZ25" s="326"/>
-      <c r="BA25" s="326"/>
-      <c r="BB25" s="326"/>
-      <c r="BC25" s="326"/>
-      <c r="BD25" s="326"/>
-      <c r="BE25" s="326"/>
-      <c r="BF25" s="326"/>
+      <c r="A25" s="354"/>
+      <c r="B25" s="354"/>
+      <c r="C25" s="355"/>
+      <c r="D25" s="356"/>
+      <c r="E25" s="356"/>
+      <c r="F25" s="356"/>
+      <c r="G25" s="357"/>
+      <c r="H25" s="357"/>
+      <c r="I25" s="357"/>
+      <c r="J25" s="357"/>
+      <c r="K25" s="357"/>
+      <c r="L25" s="354"/>
+      <c r="M25" s="354"/>
+      <c r="N25" s="354"/>
+      <c r="O25" s="354"/>
+      <c r="P25" s="354"/>
+      <c r="Q25" s="354"/>
+      <c r="R25" s="324"/>
+      <c r="S25" s="324"/>
+      <c r="T25" s="324"/>
+      <c r="U25" s="324"/>
+      <c r="V25" s="324"/>
+      <c r="W25" s="324"/>
+      <c r="X25" s="324"/>
+      <c r="Y25" s="324"/>
+      <c r="Z25" s="324"/>
+      <c r="AA25" s="324"/>
+      <c r="AB25" s="324"/>
+      <c r="AC25" s="324"/>
+      <c r="AD25" s="324"/>
+      <c r="AE25" s="324"/>
+      <c r="AF25" s="324"/>
+      <c r="AG25" s="324"/>
+      <c r="AH25" s="324"/>
+      <c r="AI25" s="324"/>
+      <c r="AJ25" s="324"/>
+      <c r="AK25" s="324"/>
+      <c r="AL25" s="324"/>
+      <c r="AM25" s="324"/>
+      <c r="AN25" s="324"/>
+      <c r="AO25" s="324"/>
+      <c r="AP25" s="324"/>
+      <c r="AQ25" s="324"/>
+      <c r="AR25" s="324"/>
+      <c r="AS25" s="324"/>
+      <c r="AT25" s="324"/>
+      <c r="AU25" s="324"/>
+      <c r="AV25" s="324"/>
+      <c r="AW25" s="324"/>
+      <c r="AX25" s="324"/>
+      <c r="AY25" s="324"/>
+      <c r="AZ25" s="324"/>
+      <c r="BA25" s="324"/>
+      <c r="BB25" s="324"/>
+      <c r="BC25" s="324"/>
+      <c r="BD25" s="324"/>
+      <c r="BE25" s="324"/>
+      <c r="BF25" s="324"/>
     </row>
     <row r="26" spans="1:58">
-      <c r="A26" s="327"/>
-      <c r="B26" s="327"/>
-      <c r="C26" s="324"/>
-      <c r="D26" s="328"/>
-      <c r="E26" s="328"/>
-      <c r="F26" s="328"/>
-      <c r="G26" s="325"/>
-      <c r="H26" s="325"/>
-      <c r="I26" s="325"/>
-      <c r="J26" s="325"/>
-      <c r="K26" s="325"/>
-      <c r="L26" s="327"/>
-      <c r="M26" s="327"/>
-      <c r="N26" s="327"/>
-      <c r="O26" s="327"/>
-      <c r="P26" s="327"/>
-      <c r="Q26" s="327"/>
-      <c r="R26" s="326"/>
-      <c r="S26" s="326"/>
-      <c r="T26" s="326"/>
-      <c r="U26" s="326"/>
-      <c r="V26" s="326"/>
-      <c r="W26" s="326"/>
-      <c r="X26" s="326"/>
-      <c r="Y26" s="326"/>
-      <c r="Z26" s="326"/>
-      <c r="AA26" s="326"/>
-      <c r="AB26" s="326"/>
-      <c r="AC26" s="326"/>
-      <c r="AD26" s="326"/>
-      <c r="AE26" s="326"/>
-      <c r="AF26" s="326"/>
-      <c r="AG26" s="326"/>
-      <c r="AH26" s="326"/>
-      <c r="AI26" s="326"/>
-      <c r="AJ26" s="326"/>
-      <c r="AK26" s="326"/>
-      <c r="AL26" s="326"/>
-      <c r="AM26" s="326"/>
-      <c r="AN26" s="326"/>
-      <c r="AO26" s="326"/>
-      <c r="AP26" s="326"/>
-      <c r="AQ26" s="326"/>
-      <c r="AR26" s="326"/>
-      <c r="AS26" s="326"/>
-      <c r="AT26" s="326"/>
-      <c r="AU26" s="326"/>
-      <c r="AV26" s="326"/>
-      <c r="AW26" s="326"/>
-      <c r="AX26" s="326"/>
-      <c r="AY26" s="326"/>
-      <c r="AZ26" s="326"/>
-      <c r="BA26" s="326"/>
-      <c r="BB26" s="326"/>
-      <c r="BC26" s="326"/>
-      <c r="BD26" s="326"/>
-      <c r="BE26" s="326"/>
-      <c r="BF26" s="326"/>
+      <c r="A26" s="354"/>
+      <c r="B26" s="354"/>
+      <c r="C26" s="355"/>
+      <c r="D26" s="356"/>
+      <c r="E26" s="356"/>
+      <c r="F26" s="356"/>
+      <c r="G26" s="357"/>
+      <c r="H26" s="357"/>
+      <c r="I26" s="357"/>
+      <c r="J26" s="357"/>
+      <c r="K26" s="357"/>
+      <c r="L26" s="354"/>
+      <c r="M26" s="354"/>
+      <c r="N26" s="354"/>
+      <c r="O26" s="354"/>
+      <c r="P26" s="354"/>
+      <c r="Q26" s="354"/>
+      <c r="R26" s="324"/>
+      <c r="S26" s="324"/>
+      <c r="T26" s="324"/>
+      <c r="U26" s="324"/>
+      <c r="V26" s="324"/>
+      <c r="W26" s="324"/>
+      <c r="X26" s="324"/>
+      <c r="Y26" s="324"/>
+      <c r="Z26" s="324"/>
+      <c r="AA26" s="324"/>
+      <c r="AB26" s="324"/>
+      <c r="AC26" s="324"/>
+      <c r="AD26" s="324"/>
+      <c r="AE26" s="324"/>
+      <c r="AF26" s="324"/>
+      <c r="AG26" s="324"/>
+      <c r="AH26" s="324"/>
+      <c r="AI26" s="324"/>
+      <c r="AJ26" s="324"/>
+      <c r="AK26" s="324"/>
+      <c r="AL26" s="324"/>
+      <c r="AM26" s="324"/>
+      <c r="AN26" s="324"/>
+      <c r="AO26" s="324"/>
+      <c r="AP26" s="324"/>
+      <c r="AQ26" s="324"/>
+      <c r="AR26" s="324"/>
+      <c r="AS26" s="324"/>
+      <c r="AT26" s="324"/>
+      <c r="AU26" s="324"/>
+      <c r="AV26" s="324"/>
+      <c r="AW26" s="324"/>
+      <c r="AX26" s="324"/>
+      <c r="AY26" s="324"/>
+      <c r="AZ26" s="324"/>
+      <c r="BA26" s="324"/>
+      <c r="BB26" s="324"/>
+      <c r="BC26" s="324"/>
+      <c r="BD26" s="324"/>
+      <c r="BE26" s="324"/>
+      <c r="BF26" s="324"/>
     </row>
     <row r="27" spans="1:58">
-      <c r="A27" s="327"/>
-      <c r="B27" s="327"/>
-      <c r="C27" s="324"/>
-      <c r="D27" s="328"/>
-      <c r="E27" s="328"/>
-      <c r="F27" s="328"/>
-      <c r="G27" s="325"/>
-      <c r="H27" s="325"/>
-      <c r="I27" s="325"/>
-      <c r="J27" s="325"/>
-      <c r="K27" s="325"/>
-      <c r="L27" s="327"/>
-      <c r="M27" s="327"/>
-      <c r="N27" s="327"/>
-      <c r="O27" s="327"/>
-      <c r="P27" s="327"/>
-      <c r="Q27" s="327"/>
-      <c r="R27" s="326"/>
-      <c r="S27" s="326"/>
-      <c r="T27" s="326"/>
-      <c r="U27" s="326"/>
-      <c r="V27" s="326"/>
-      <c r="W27" s="326"/>
-      <c r="X27" s="326"/>
-      <c r="Y27" s="326"/>
-      <c r="Z27" s="326"/>
-      <c r="AA27" s="326"/>
-      <c r="AB27" s="326"/>
-      <c r="AC27" s="326"/>
-      <c r="AD27" s="326"/>
-      <c r="AE27" s="326"/>
-      <c r="AF27" s="326"/>
-      <c r="AG27" s="326"/>
-      <c r="AH27" s="326"/>
-      <c r="AI27" s="326"/>
-      <c r="AJ27" s="326"/>
-      <c r="AK27" s="326"/>
-      <c r="AL27" s="326"/>
-      <c r="AM27" s="326"/>
-      <c r="AN27" s="326"/>
-      <c r="AO27" s="326"/>
-      <c r="AP27" s="326"/>
-      <c r="AQ27" s="326"/>
-      <c r="AR27" s="326"/>
-      <c r="AS27" s="326"/>
-      <c r="AT27" s="326"/>
-      <c r="AU27" s="326"/>
-      <c r="AV27" s="326"/>
-      <c r="AW27" s="326"/>
-      <c r="AX27" s="326"/>
-      <c r="AY27" s="326"/>
-      <c r="AZ27" s="326"/>
-      <c r="BA27" s="326"/>
-      <c r="BB27" s="326"/>
-      <c r="BC27" s="326"/>
-      <c r="BD27" s="326"/>
-      <c r="BE27" s="326"/>
-      <c r="BF27" s="326"/>
+      <c r="A27" s="354"/>
+      <c r="B27" s="354"/>
+      <c r="C27" s="355"/>
+      <c r="D27" s="356"/>
+      <c r="E27" s="356"/>
+      <c r="F27" s="356"/>
+      <c r="G27" s="357"/>
+      <c r="H27" s="357"/>
+      <c r="I27" s="357"/>
+      <c r="J27" s="357"/>
+      <c r="K27" s="357"/>
+      <c r="L27" s="354"/>
+      <c r="M27" s="354"/>
+      <c r="N27" s="354"/>
+      <c r="O27" s="354"/>
+      <c r="P27" s="354"/>
+      <c r="Q27" s="354"/>
+      <c r="R27" s="324"/>
+      <c r="S27" s="324"/>
+      <c r="T27" s="324"/>
+      <c r="U27" s="324"/>
+      <c r="V27" s="324"/>
+      <c r="W27" s="324"/>
+      <c r="X27" s="324"/>
+      <c r="Y27" s="324"/>
+      <c r="Z27" s="324"/>
+      <c r="AA27" s="324"/>
+      <c r="AB27" s="324"/>
+      <c r="AC27" s="324"/>
+      <c r="AD27" s="324"/>
+      <c r="AE27" s="324"/>
+      <c r="AF27" s="324"/>
+      <c r="AG27" s="324"/>
+      <c r="AH27" s="324"/>
+      <c r="AI27" s="324"/>
+      <c r="AJ27" s="324"/>
+      <c r="AK27" s="324"/>
+      <c r="AL27" s="324"/>
+      <c r="AM27" s="324"/>
+      <c r="AN27" s="324"/>
+      <c r="AO27" s="324"/>
+      <c r="AP27" s="324"/>
+      <c r="AQ27" s="324"/>
+      <c r="AR27" s="324"/>
+      <c r="AS27" s="324"/>
+      <c r="AT27" s="324"/>
+      <c r="AU27" s="324"/>
+      <c r="AV27" s="324"/>
+      <c r="AW27" s="324"/>
+      <c r="AX27" s="324"/>
+      <c r="AY27" s="324"/>
+      <c r="AZ27" s="324"/>
+      <c r="BA27" s="324"/>
+      <c r="BB27" s="324"/>
+      <c r="BC27" s="324"/>
+      <c r="BD27" s="324"/>
+      <c r="BE27" s="324"/>
+      <c r="BF27" s="324"/>
     </row>
     <row r="28" spans="1:58">
-      <c r="A28" s="327"/>
-      <c r="B28" s="327"/>
-      <c r="C28" s="324"/>
-      <c r="D28" s="328"/>
-      <c r="E28" s="328"/>
-      <c r="F28" s="328"/>
-      <c r="G28" s="325"/>
-      <c r="H28" s="325"/>
-      <c r="I28" s="325"/>
-      <c r="J28" s="325"/>
-      <c r="K28" s="325"/>
-      <c r="L28" s="327"/>
-      <c r="M28" s="327"/>
-      <c r="N28" s="327"/>
-      <c r="O28" s="327"/>
-      <c r="P28" s="327"/>
-      <c r="Q28" s="327"/>
-      <c r="R28" s="326"/>
-      <c r="S28" s="326"/>
-      <c r="T28" s="326"/>
-      <c r="U28" s="326"/>
-      <c r="V28" s="326"/>
-      <c r="W28" s="326"/>
-      <c r="X28" s="326"/>
-      <c r="Y28" s="326"/>
-      <c r="Z28" s="326"/>
-      <c r="AA28" s="326"/>
-      <c r="AB28" s="326"/>
-      <c r="AC28" s="326"/>
-      <c r="AD28" s="326"/>
-      <c r="AE28" s="326"/>
-      <c r="AF28" s="326"/>
-      <c r="AG28" s="326"/>
-      <c r="AH28" s="326"/>
-      <c r="AI28" s="326"/>
-      <c r="AJ28" s="326"/>
-      <c r="AK28" s="326"/>
-      <c r="AL28" s="326"/>
-      <c r="AM28" s="326"/>
-      <c r="AN28" s="326"/>
-      <c r="AO28" s="326"/>
-      <c r="AP28" s="326"/>
-      <c r="AQ28" s="326"/>
-      <c r="AR28" s="326"/>
-      <c r="AS28" s="326"/>
-      <c r="AT28" s="326"/>
-      <c r="AU28" s="326"/>
-      <c r="AV28" s="326"/>
-      <c r="AW28" s="326"/>
-      <c r="AX28" s="326"/>
-      <c r="AY28" s="326"/>
-      <c r="AZ28" s="326"/>
-      <c r="BA28" s="326"/>
-      <c r="BB28" s="326"/>
-      <c r="BC28" s="326"/>
-      <c r="BD28" s="326"/>
-      <c r="BE28" s="326"/>
-      <c r="BF28" s="326"/>
+      <c r="A28" s="354"/>
+      <c r="B28" s="354"/>
+      <c r="C28" s="355"/>
+      <c r="D28" s="356"/>
+      <c r="E28" s="356"/>
+      <c r="F28" s="356"/>
+      <c r="G28" s="357"/>
+      <c r="H28" s="357"/>
+      <c r="I28" s="357"/>
+      <c r="J28" s="357"/>
+      <c r="K28" s="357"/>
+      <c r="L28" s="354"/>
+      <c r="M28" s="354"/>
+      <c r="N28" s="354"/>
+      <c r="O28" s="354"/>
+      <c r="P28" s="354"/>
+      <c r="Q28" s="354"/>
+      <c r="R28" s="324"/>
+      <c r="S28" s="324"/>
+      <c r="T28" s="324"/>
+      <c r="U28" s="324"/>
+      <c r="V28" s="324"/>
+      <c r="W28" s="324"/>
+      <c r="X28" s="324"/>
+      <c r="Y28" s="324"/>
+      <c r="Z28" s="324"/>
+      <c r="AA28" s="324"/>
+      <c r="AB28" s="324"/>
+      <c r="AC28" s="324"/>
+      <c r="AD28" s="324"/>
+      <c r="AE28" s="324"/>
+      <c r="AF28" s="324"/>
+      <c r="AG28" s="324"/>
+      <c r="AH28" s="324"/>
+      <c r="AI28" s="324"/>
+      <c r="AJ28" s="324"/>
+      <c r="AK28" s="324"/>
+      <c r="AL28" s="324"/>
+      <c r="AM28" s="324"/>
+      <c r="AN28" s="324"/>
+      <c r="AO28" s="324"/>
+      <c r="AP28" s="324"/>
+      <c r="AQ28" s="324"/>
+      <c r="AR28" s="324"/>
+      <c r="AS28" s="324"/>
+      <c r="AT28" s="324"/>
+      <c r="AU28" s="324"/>
+      <c r="AV28" s="324"/>
+      <c r="AW28" s="324"/>
+      <c r="AX28" s="324"/>
+      <c r="AY28" s="324"/>
+      <c r="AZ28" s="324"/>
+      <c r="BA28" s="324"/>
+      <c r="BB28" s="324"/>
+      <c r="BC28" s="324"/>
+      <c r="BD28" s="324"/>
+      <c r="BE28" s="324"/>
+      <c r="BF28" s="324"/>
     </row>
     <row r="29" spans="1:58">
-      <c r="A29" s="327"/>
-      <c r="B29" s="327"/>
-      <c r="C29" s="324"/>
-      <c r="D29" s="328"/>
-      <c r="E29" s="328"/>
-      <c r="F29" s="328"/>
-      <c r="G29" s="325"/>
-      <c r="H29" s="325"/>
-      <c r="I29" s="325"/>
-      <c r="J29" s="325"/>
-      <c r="K29" s="325"/>
-      <c r="L29" s="327"/>
-      <c r="M29" s="327"/>
-      <c r="N29" s="327"/>
-      <c r="O29" s="327"/>
-      <c r="P29" s="327"/>
-      <c r="Q29" s="327"/>
-      <c r="R29" s="326"/>
-      <c r="S29" s="326"/>
-      <c r="T29" s="326"/>
-      <c r="U29" s="326"/>
-      <c r="V29" s="326"/>
-      <c r="W29" s="326"/>
-      <c r="X29" s="326"/>
-      <c r="Y29" s="326"/>
-      <c r="Z29" s="326"/>
-      <c r="AA29" s="326"/>
-      <c r="AB29" s="326"/>
-      <c r="AC29" s="326"/>
-      <c r="AD29" s="326"/>
-      <c r="AE29" s="326"/>
-      <c r="AF29" s="326"/>
-      <c r="AG29" s="326"/>
-      <c r="AH29" s="326"/>
-      <c r="AI29" s="326"/>
-      <c r="AJ29" s="326"/>
-      <c r="AK29" s="326"/>
-      <c r="AL29" s="326"/>
-      <c r="AM29" s="326"/>
-      <c r="AN29" s="326"/>
-      <c r="AO29" s="326"/>
-      <c r="AP29" s="326"/>
-      <c r="AQ29" s="326"/>
-      <c r="AR29" s="326"/>
-      <c r="AS29" s="326"/>
-      <c r="AT29" s="326"/>
-      <c r="AU29" s="326"/>
-      <c r="AV29" s="326"/>
-      <c r="AW29" s="326"/>
-      <c r="AX29" s="326"/>
-      <c r="AY29" s="326"/>
-      <c r="AZ29" s="326"/>
-      <c r="BA29" s="326"/>
-      <c r="BB29" s="326"/>
-      <c r="BC29" s="326"/>
-      <c r="BD29" s="326"/>
-      <c r="BE29" s="326"/>
-      <c r="BF29" s="326"/>
+      <c r="A29" s="354"/>
+      <c r="B29" s="354"/>
+      <c r="C29" s="355"/>
+      <c r="D29" s="356"/>
+      <c r="E29" s="356"/>
+      <c r="F29" s="356"/>
+      <c r="G29" s="357"/>
+      <c r="H29" s="357"/>
+      <c r="I29" s="357"/>
+      <c r="J29" s="357"/>
+      <c r="K29" s="357"/>
+      <c r="L29" s="354"/>
+      <c r="M29" s="354"/>
+      <c r="N29" s="354"/>
+      <c r="O29" s="354"/>
+      <c r="P29" s="354"/>
+      <c r="Q29" s="354"/>
+      <c r="R29" s="324"/>
+      <c r="S29" s="324"/>
+      <c r="T29" s="324"/>
+      <c r="U29" s="324"/>
+      <c r="V29" s="324"/>
+      <c r="W29" s="324"/>
+      <c r="X29" s="324"/>
+      <c r="Y29" s="324"/>
+      <c r="Z29" s="324"/>
+      <c r="AA29" s="324"/>
+      <c r="AB29" s="324"/>
+      <c r="AC29" s="324"/>
+      <c r="AD29" s="324"/>
+      <c r="AE29" s="324"/>
+      <c r="AF29" s="324"/>
+      <c r="AG29" s="324"/>
+      <c r="AH29" s="324"/>
+      <c r="AI29" s="324"/>
+      <c r="AJ29" s="324"/>
+      <c r="AK29" s="324"/>
+      <c r="AL29" s="324"/>
+      <c r="AM29" s="324"/>
+      <c r="AN29" s="324"/>
+      <c r="AO29" s="324"/>
+      <c r="AP29" s="324"/>
+      <c r="AQ29" s="324"/>
+      <c r="AR29" s="324"/>
+      <c r="AS29" s="324"/>
+      <c r="AT29" s="324"/>
+      <c r="AU29" s="324"/>
+      <c r="AV29" s="324"/>
+      <c r="AW29" s="324"/>
+      <c r="AX29" s="324"/>
+      <c r="AY29" s="324"/>
+      <c r="AZ29" s="324"/>
+      <c r="BA29" s="324"/>
+      <c r="BB29" s="324"/>
+      <c r="BC29" s="324"/>
+      <c r="BD29" s="324"/>
+      <c r="BE29" s="324"/>
+      <c r="BF29" s="324"/>
     </row>
     <row r="30" spans="1:58">
-      <c r="A30" s="327"/>
-      <c r="B30" s="327"/>
-      <c r="C30" s="324"/>
-      <c r="D30" s="328"/>
-      <c r="E30" s="328"/>
-      <c r="F30" s="328"/>
-      <c r="G30" s="325"/>
-      <c r="H30" s="325"/>
-      <c r="I30" s="325"/>
-      <c r="J30" s="325"/>
-      <c r="K30" s="325"/>
-      <c r="L30" s="327"/>
-      <c r="M30" s="327"/>
-      <c r="N30" s="327"/>
-      <c r="O30" s="327"/>
-      <c r="P30" s="327"/>
-      <c r="Q30" s="327"/>
-      <c r="R30" s="326"/>
-      <c r="S30" s="326"/>
-      <c r="T30" s="326"/>
-      <c r="U30" s="326"/>
-      <c r="V30" s="326"/>
-      <c r="W30" s="326"/>
-      <c r="X30" s="326"/>
-      <c r="Y30" s="326"/>
-      <c r="Z30" s="326"/>
-      <c r="AA30" s="326"/>
-      <c r="AB30" s="326"/>
-      <c r="AC30" s="326"/>
-      <c r="AD30" s="326"/>
-      <c r="AE30" s="326"/>
-      <c r="AF30" s="326"/>
-      <c r="AG30" s="326"/>
-      <c r="AH30" s="326"/>
-      <c r="AI30" s="326"/>
-      <c r="AJ30" s="326"/>
-      <c r="AK30" s="326"/>
-      <c r="AL30" s="326"/>
-      <c r="AM30" s="326"/>
-      <c r="AN30" s="326"/>
-      <c r="AO30" s="326"/>
-      <c r="AP30" s="326"/>
-      <c r="AQ30" s="326"/>
-      <c r="AR30" s="326"/>
-      <c r="AS30" s="326"/>
-      <c r="AT30" s="326"/>
-      <c r="AU30" s="326"/>
-      <c r="AV30" s="326"/>
-      <c r="AW30" s="326"/>
-      <c r="AX30" s="326"/>
-      <c r="AY30" s="326"/>
-      <c r="AZ30" s="326"/>
-      <c r="BA30" s="326"/>
-      <c r="BB30" s="326"/>
-      <c r="BC30" s="326"/>
-      <c r="BD30" s="326"/>
-      <c r="BE30" s="326"/>
-      <c r="BF30" s="326"/>
+      <c r="A30" s="354"/>
+      <c r="B30" s="354"/>
+      <c r="C30" s="355"/>
+      <c r="D30" s="356"/>
+      <c r="E30" s="356"/>
+      <c r="F30" s="356"/>
+      <c r="G30" s="357"/>
+      <c r="H30" s="357"/>
+      <c r="I30" s="357"/>
+      <c r="J30" s="357"/>
+      <c r="K30" s="357"/>
+      <c r="L30" s="354"/>
+      <c r="M30" s="354"/>
+      <c r="N30" s="354"/>
+      <c r="O30" s="354"/>
+      <c r="P30" s="354"/>
+      <c r="Q30" s="354"/>
+      <c r="R30" s="324"/>
+      <c r="S30" s="324"/>
+      <c r="T30" s="324"/>
+      <c r="U30" s="324"/>
+      <c r="V30" s="324"/>
+      <c r="W30" s="324"/>
+      <c r="X30" s="324"/>
+      <c r="Y30" s="324"/>
+      <c r="Z30" s="324"/>
+      <c r="AA30" s="324"/>
+      <c r="AB30" s="324"/>
+      <c r="AC30" s="324"/>
+      <c r="AD30" s="324"/>
+      <c r="AE30" s="324"/>
+      <c r="AF30" s="324"/>
+      <c r="AG30" s="324"/>
+      <c r="AH30" s="324"/>
+      <c r="AI30" s="324"/>
+      <c r="AJ30" s="324"/>
+      <c r="AK30" s="324"/>
+      <c r="AL30" s="324"/>
+      <c r="AM30" s="324"/>
+      <c r="AN30" s="324"/>
+      <c r="AO30" s="324"/>
+      <c r="AP30" s="324"/>
+      <c r="AQ30" s="324"/>
+      <c r="AR30" s="324"/>
+      <c r="AS30" s="324"/>
+      <c r="AT30" s="324"/>
+      <c r="AU30" s="324"/>
+      <c r="AV30" s="324"/>
+      <c r="AW30" s="324"/>
+      <c r="AX30" s="324"/>
+      <c r="AY30" s="324"/>
+      <c r="AZ30" s="324"/>
+      <c r="BA30" s="324"/>
+      <c r="BB30" s="324"/>
+      <c r="BC30" s="324"/>
+      <c r="BD30" s="324"/>
+      <c r="BE30" s="324"/>
+      <c r="BF30" s="324"/>
     </row>
     <row r="31" spans="1:58">
-      <c r="A31" s="327"/>
-      <c r="B31" s="327"/>
-      <c r="C31" s="324"/>
-      <c r="D31" s="328"/>
-      <c r="E31" s="328"/>
-      <c r="F31" s="328"/>
-      <c r="G31" s="325"/>
-      <c r="H31" s="325"/>
-      <c r="I31" s="325"/>
-      <c r="J31" s="325"/>
-      <c r="K31" s="325"/>
-      <c r="L31" s="327"/>
-      <c r="M31" s="327"/>
-      <c r="N31" s="327"/>
-      <c r="O31" s="327"/>
-      <c r="P31" s="327"/>
-      <c r="Q31" s="327"/>
-      <c r="R31" s="326"/>
-      <c r="S31" s="326"/>
-      <c r="T31" s="326"/>
-      <c r="U31" s="326"/>
-      <c r="V31" s="326"/>
-      <c r="W31" s="326"/>
-      <c r="X31" s="326"/>
-      <c r="Y31" s="326"/>
-      <c r="Z31" s="326"/>
-      <c r="AA31" s="326"/>
-      <c r="AB31" s="326"/>
-      <c r="AC31" s="326"/>
-      <c r="AD31" s="326"/>
-      <c r="AE31" s="326"/>
-      <c r="AF31" s="326"/>
-      <c r="AG31" s="326"/>
-      <c r="AH31" s="326"/>
-      <c r="AI31" s="326"/>
-      <c r="AJ31" s="326"/>
-      <c r="AK31" s="326"/>
-      <c r="AL31" s="326"/>
-      <c r="AM31" s="326"/>
-      <c r="AN31" s="326"/>
-      <c r="AO31" s="326"/>
-      <c r="AP31" s="326"/>
-      <c r="AQ31" s="326"/>
-      <c r="AR31" s="326"/>
-      <c r="AS31" s="326"/>
-      <c r="AT31" s="326"/>
-      <c r="AU31" s="326"/>
-      <c r="AV31" s="326"/>
-      <c r="AW31" s="326"/>
-      <c r="AX31" s="326"/>
-      <c r="AY31" s="326"/>
-      <c r="AZ31" s="326"/>
-      <c r="BA31" s="326"/>
-      <c r="BB31" s="326"/>
-      <c r="BC31" s="326"/>
-      <c r="BD31" s="326"/>
-      <c r="BE31" s="326"/>
-      <c r="BF31" s="326"/>
+      <c r="A31" s="354"/>
+      <c r="B31" s="354"/>
+      <c r="C31" s="355"/>
+      <c r="D31" s="356"/>
+      <c r="E31" s="356"/>
+      <c r="F31" s="356"/>
+      <c r="G31" s="357"/>
+      <c r="H31" s="357"/>
+      <c r="I31" s="357"/>
+      <c r="J31" s="357"/>
+      <c r="K31" s="357"/>
+      <c r="L31" s="354"/>
+      <c r="M31" s="354"/>
+      <c r="N31" s="354"/>
+      <c r="O31" s="354"/>
+      <c r="P31" s="354"/>
+      <c r="Q31" s="354"/>
+      <c r="R31" s="324"/>
+      <c r="S31" s="324"/>
+      <c r="T31" s="324"/>
+      <c r="U31" s="324"/>
+      <c r="V31" s="324"/>
+      <c r="W31" s="324"/>
+      <c r="X31" s="324"/>
+      <c r="Y31" s="324"/>
+      <c r="Z31" s="324"/>
+      <c r="AA31" s="324"/>
+      <c r="AB31" s="324"/>
+      <c r="AC31" s="324"/>
+      <c r="AD31" s="324"/>
+      <c r="AE31" s="324"/>
+      <c r="AF31" s="324"/>
+      <c r="AG31" s="324"/>
+      <c r="AH31" s="324"/>
+      <c r="AI31" s="324"/>
+      <c r="AJ31" s="324"/>
+      <c r="AK31" s="324"/>
+      <c r="AL31" s="324"/>
+      <c r="AM31" s="324"/>
+      <c r="AN31" s="324"/>
+      <c r="AO31" s="324"/>
+      <c r="AP31" s="324"/>
+      <c r="AQ31" s="324"/>
+      <c r="AR31" s="324"/>
+      <c r="AS31" s="324"/>
+      <c r="AT31" s="324"/>
+      <c r="AU31" s="324"/>
+      <c r="AV31" s="324"/>
+      <c r="AW31" s="324"/>
+      <c r="AX31" s="324"/>
+      <c r="AY31" s="324"/>
+      <c r="AZ31" s="324"/>
+      <c r="BA31" s="324"/>
+      <c r="BB31" s="324"/>
+      <c r="BC31" s="324"/>
+      <c r="BD31" s="324"/>
+      <c r="BE31" s="324"/>
+      <c r="BF31" s="324"/>
     </row>
     <row r="32" spans="1:58">
-      <c r="A32" s="327"/>
-      <c r="B32" s="327"/>
-      <c r="C32" s="324"/>
-      <c r="D32" s="328"/>
-      <c r="E32" s="328"/>
-      <c r="F32" s="328"/>
-      <c r="G32" s="325"/>
-      <c r="H32" s="325"/>
-      <c r="I32" s="325"/>
-      <c r="J32" s="325"/>
-      <c r="K32" s="325"/>
-      <c r="L32" s="327"/>
-      <c r="M32" s="327"/>
-      <c r="N32" s="327"/>
-      <c r="O32" s="327"/>
-      <c r="P32" s="327"/>
-      <c r="Q32" s="327"/>
-      <c r="R32" s="326"/>
-      <c r="S32" s="326"/>
-      <c r="T32" s="326"/>
-      <c r="U32" s="326"/>
-      <c r="V32" s="326"/>
-      <c r="W32" s="326"/>
-      <c r="X32" s="326"/>
-      <c r="Y32" s="326"/>
-      <c r="Z32" s="326"/>
-      <c r="AA32" s="326"/>
-      <c r="AB32" s="326"/>
-      <c r="AC32" s="326"/>
-      <c r="AD32" s="326"/>
-      <c r="AE32" s="326"/>
-      <c r="AF32" s="326"/>
-      <c r="AG32" s="326"/>
-      <c r="AH32" s="326"/>
-      <c r="AI32" s="326"/>
-      <c r="AJ32" s="326"/>
-      <c r="AK32" s="326"/>
-      <c r="AL32" s="326"/>
-      <c r="AM32" s="326"/>
-      <c r="AN32" s="326"/>
-      <c r="AO32" s="326"/>
-      <c r="AP32" s="326"/>
-      <c r="AQ32" s="326"/>
-      <c r="AR32" s="326"/>
-      <c r="AS32" s="326"/>
-      <c r="AT32" s="326"/>
-      <c r="AU32" s="326"/>
-      <c r="AV32" s="326"/>
-      <c r="AW32" s="326"/>
-      <c r="AX32" s="326"/>
-      <c r="AY32" s="326"/>
-      <c r="AZ32" s="326"/>
-      <c r="BA32" s="326"/>
-      <c r="BB32" s="326"/>
-      <c r="BC32" s="326"/>
-      <c r="BD32" s="326"/>
-      <c r="BE32" s="326"/>
-      <c r="BF32" s="326"/>
+      <c r="A32" s="354"/>
+      <c r="B32" s="354"/>
+      <c r="C32" s="355"/>
+      <c r="D32" s="356"/>
+      <c r="E32" s="356"/>
+      <c r="F32" s="356"/>
+      <c r="G32" s="357"/>
+      <c r="H32" s="357"/>
+      <c r="I32" s="357"/>
+      <c r="J32" s="357"/>
+      <c r="K32" s="357"/>
+      <c r="L32" s="354"/>
+      <c r="M32" s="354"/>
+      <c r="N32" s="354"/>
+      <c r="O32" s="354"/>
+      <c r="P32" s="354"/>
+      <c r="Q32" s="354"/>
+      <c r="R32" s="324"/>
+      <c r="S32" s="324"/>
+      <c r="T32" s="324"/>
+      <c r="U32" s="324"/>
+      <c r="V32" s="324"/>
+      <c r="W32" s="324"/>
+      <c r="X32" s="324"/>
+      <c r="Y32" s="324"/>
+      <c r="Z32" s="324"/>
+      <c r="AA32" s="324"/>
+      <c r="AB32" s="324"/>
+      <c r="AC32" s="324"/>
+      <c r="AD32" s="324"/>
+      <c r="AE32" s="324"/>
+      <c r="AF32" s="324"/>
+      <c r="AG32" s="324"/>
+      <c r="AH32" s="324"/>
+      <c r="AI32" s="324"/>
+      <c r="AJ32" s="324"/>
+      <c r="AK32" s="324"/>
+      <c r="AL32" s="324"/>
+      <c r="AM32" s="324"/>
+      <c r="AN32" s="324"/>
+      <c r="AO32" s="324"/>
+      <c r="AP32" s="324"/>
+      <c r="AQ32" s="324"/>
+      <c r="AR32" s="324"/>
+      <c r="AS32" s="324"/>
+      <c r="AT32" s="324"/>
+      <c r="AU32" s="324"/>
+      <c r="AV32" s="324"/>
+      <c r="AW32" s="324"/>
+      <c r="AX32" s="324"/>
+      <c r="AY32" s="324"/>
+      <c r="AZ32" s="324"/>
+      <c r="BA32" s="324"/>
+      <c r="BB32" s="324"/>
+      <c r="BC32" s="324"/>
+      <c r="BD32" s="324"/>
+      <c r="BE32" s="324"/>
+      <c r="BF32" s="324"/>
     </row>
     <row r="33" spans="1:58">
-      <c r="A33" s="327"/>
-      <c r="B33" s="327"/>
-      <c r="C33" s="324"/>
-      <c r="D33" s="328"/>
-      <c r="E33" s="328"/>
-      <c r="F33" s="328"/>
-      <c r="G33" s="325"/>
-      <c r="H33" s="325"/>
-      <c r="I33" s="325"/>
-      <c r="J33" s="325"/>
-      <c r="K33" s="325"/>
-      <c r="L33" s="327"/>
-      <c r="M33" s="327"/>
-      <c r="N33" s="327"/>
-      <c r="O33" s="327"/>
-      <c r="P33" s="327"/>
-      <c r="Q33" s="327"/>
-      <c r="R33" s="326"/>
-      <c r="S33" s="326"/>
-      <c r="T33" s="326"/>
-      <c r="U33" s="326"/>
-      <c r="V33" s="326"/>
-      <c r="W33" s="326"/>
-      <c r="X33" s="326"/>
-      <c r="Y33" s="326"/>
-      <c r="Z33" s="326"/>
-      <c r="AA33" s="326"/>
-      <c r="AB33" s="326"/>
-      <c r="AC33" s="326"/>
-      <c r="AD33" s="326"/>
-      <c r="AE33" s="326"/>
-      <c r="AF33" s="326"/>
-      <c r="AG33" s="326"/>
-      <c r="AH33" s="326"/>
-      <c r="AI33" s="326"/>
-      <c r="AJ33" s="326"/>
-      <c r="AK33" s="326"/>
-      <c r="AL33" s="326"/>
-      <c r="AM33" s="326"/>
-      <c r="AN33" s="326"/>
-      <c r="AO33" s="326"/>
-      <c r="AP33" s="326"/>
-      <c r="AQ33" s="326"/>
-      <c r="AR33" s="326"/>
-      <c r="AS33" s="326"/>
-      <c r="AT33" s="326"/>
-      <c r="AU33" s="326"/>
-      <c r="AV33" s="326"/>
-      <c r="AW33" s="326"/>
-      <c r="AX33" s="326"/>
-      <c r="AY33" s="326"/>
-      <c r="AZ33" s="326"/>
-      <c r="BA33" s="326"/>
-      <c r="BB33" s="326"/>
-      <c r="BC33" s="326"/>
-      <c r="BD33" s="326"/>
-      <c r="BE33" s="326"/>
-      <c r="BF33" s="326"/>
+      <c r="A33" s="354"/>
+      <c r="B33" s="354"/>
+      <c r="C33" s="355"/>
+      <c r="D33" s="356"/>
+      <c r="E33" s="356"/>
+      <c r="F33" s="356"/>
+      <c r="G33" s="357"/>
+      <c r="H33" s="357"/>
+      <c r="I33" s="357"/>
+      <c r="J33" s="357"/>
+      <c r="K33" s="357"/>
+      <c r="L33" s="354"/>
+      <c r="M33" s="354"/>
+      <c r="N33" s="354"/>
+      <c r="O33" s="354"/>
+      <c r="P33" s="354"/>
+      <c r="Q33" s="354"/>
+      <c r="R33" s="324"/>
+      <c r="S33" s="324"/>
+      <c r="T33" s="324"/>
+      <c r="U33" s="324"/>
+      <c r="V33" s="324"/>
+      <c r="W33" s="324"/>
+      <c r="X33" s="324"/>
+      <c r="Y33" s="324"/>
+      <c r="Z33" s="324"/>
+      <c r="AA33" s="324"/>
+      <c r="AB33" s="324"/>
+      <c r="AC33" s="324"/>
+      <c r="AD33" s="324"/>
+      <c r="AE33" s="324"/>
+      <c r="AF33" s="324"/>
+      <c r="AG33" s="324"/>
+      <c r="AH33" s="324"/>
+      <c r="AI33" s="324"/>
+      <c r="AJ33" s="324"/>
+      <c r="AK33" s="324"/>
+      <c r="AL33" s="324"/>
+      <c r="AM33" s="324"/>
+      <c r="AN33" s="324"/>
+      <c r="AO33" s="324"/>
+      <c r="AP33" s="324"/>
+      <c r="AQ33" s="324"/>
+      <c r="AR33" s="324"/>
+      <c r="AS33" s="324"/>
+      <c r="AT33" s="324"/>
+      <c r="AU33" s="324"/>
+      <c r="AV33" s="324"/>
+      <c r="AW33" s="324"/>
+      <c r="AX33" s="324"/>
+      <c r="AY33" s="324"/>
+      <c r="AZ33" s="324"/>
+      <c r="BA33" s="324"/>
+      <c r="BB33" s="324"/>
+      <c r="BC33" s="324"/>
+      <c r="BD33" s="324"/>
+      <c r="BE33" s="324"/>
+      <c r="BF33" s="324"/>
     </row>
   </sheetData>
   <mergeCells count="182">
-    <mergeCell ref="AB17:BF17"/>
-    <mergeCell ref="AB18:BF18"/>
-    <mergeCell ref="AB19:BF19"/>
-    <mergeCell ref="AB20:BF20"/>
-    <mergeCell ref="AB21:BF21"/>
-    <mergeCell ref="AB22:BF22"/>
-    <mergeCell ref="AB32:BF32"/>
-    <mergeCell ref="AB33:BF33"/>
-    <mergeCell ref="AB23:BF23"/>
-    <mergeCell ref="AB24:BF24"/>
-    <mergeCell ref="AB25:BF25"/>
-    <mergeCell ref="AB26:BF26"/>
-    <mergeCell ref="AB27:BF27"/>
-    <mergeCell ref="AB28:BF28"/>
-    <mergeCell ref="AB29:BF29"/>
-    <mergeCell ref="AB30:BF30"/>
-    <mergeCell ref="AB31:BF31"/>
-    <mergeCell ref="AB6:BF6"/>
-    <mergeCell ref="AB7:BF7"/>
-    <mergeCell ref="AB8:BF8"/>
-    <mergeCell ref="AB9:BF9"/>
-    <mergeCell ref="AB10:BF10"/>
-    <mergeCell ref="AB11:BF11"/>
-    <mergeCell ref="AB14:BF14"/>
-    <mergeCell ref="AB15:BF15"/>
-    <mergeCell ref="AB16:BF16"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="R26:AA26"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="R27:AA27"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="R28:AA28"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="R29:AA29"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="R30:AA30"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="R32:AA32"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="R33:AA33"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="R31:AA31"/>
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="L32:Q32"/>
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="R23:AA23"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="R24:AA24"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="R25:AA25"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="R20:AA20"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="R21:AA21"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="R22:AA22"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="R17:AA17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="R18:AA18"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="R19:AA19"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="R14:AA14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="R15:AA15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="R16:AA16"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="R9:AA9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="R10:AA10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="R11:AA11"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="R6:AA6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="R7:AA7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="R8:AA8"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="L8:Q8"/>
     <mergeCell ref="BB3:BF3"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:F5"/>
@@ -9900,138 +10006,32 @@
     <mergeCell ref="L5:Q5"/>
     <mergeCell ref="AW3:BA3"/>
     <mergeCell ref="AB5:BF5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="R6:AA6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="R7:AA7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="R8:AA8"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="L8:Q8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="R9:AA9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="R10:AA10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="R11:AA11"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="R14:AA14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="R15:AA15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="R16:AA16"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="R17:AA17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="R18:AA18"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="R19:AA19"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="R20:AA20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="R21:AA21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="R22:AA22"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="R23:AA23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="R24:AA24"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="R25:AA25"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="R32:AA32"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="R33:AA33"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="R31:AA31"/>
-    <mergeCell ref="L31:Q31"/>
-    <mergeCell ref="L32:Q32"/>
-    <mergeCell ref="L33:Q33"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="R30:AA30"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="R26:AA26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="R27:AA27"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="R28:AA28"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="R29:AA29"/>
+    <mergeCell ref="AB6:BF6"/>
+    <mergeCell ref="AB7:BF7"/>
+    <mergeCell ref="AB8:BF8"/>
+    <mergeCell ref="AB9:BF9"/>
+    <mergeCell ref="AB10:BF10"/>
+    <mergeCell ref="AB11:BF11"/>
+    <mergeCell ref="AB14:BF14"/>
+    <mergeCell ref="AB15:BF15"/>
+    <mergeCell ref="AB16:BF16"/>
+    <mergeCell ref="AB17:BF17"/>
+    <mergeCell ref="AB18:BF18"/>
+    <mergeCell ref="AB19:BF19"/>
+    <mergeCell ref="AB20:BF20"/>
+    <mergeCell ref="AB21:BF21"/>
+    <mergeCell ref="AB22:BF22"/>
+    <mergeCell ref="AB32:BF32"/>
+    <mergeCell ref="AB33:BF33"/>
+    <mergeCell ref="AB23:BF23"/>
+    <mergeCell ref="AB24:BF24"/>
+    <mergeCell ref="AB25:BF25"/>
+    <mergeCell ref="AB26:BF26"/>
+    <mergeCell ref="AB27:BF27"/>
+    <mergeCell ref="AB28:BF28"/>
+    <mergeCell ref="AB29:BF29"/>
+    <mergeCell ref="AB30:BF30"/>
+    <mergeCell ref="AB31:BF31"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.6692913385826772" bottom="0.43307086614173229" header="0.39370078740157483" footer="0.27559055118110237"/>
@@ -10061,255 +10061,255 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A1" s="360" t="s">
+      <c r="A1" s="363" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="342"/>
-      <c r="C1" s="342"/>
-      <c r="D1" s="342"/>
-      <c r="E1" s="342"/>
-      <c r="F1" s="342"/>
-      <c r="G1" s="342"/>
-      <c r="H1" s="342"/>
-      <c r="I1" s="342" t="s">
+      <c r="B1" s="330"/>
+      <c r="C1" s="330"/>
+      <c r="D1" s="330"/>
+      <c r="E1" s="330"/>
+      <c r="F1" s="330"/>
+      <c r="G1" s="330"/>
+      <c r="H1" s="330"/>
+      <c r="I1" s="330" t="s">
         <v>256</v>
       </c>
-      <c r="J1" s="342"/>
-      <c r="K1" s="342"/>
-      <c r="L1" s="342"/>
-      <c r="M1" s="342"/>
-      <c r="N1" s="342"/>
-      <c r="O1" s="342"/>
-      <c r="P1" s="342"/>
-      <c r="Q1" s="342"/>
-      <c r="R1" s="342"/>
-      <c r="S1" s="342"/>
-      <c r="T1" s="342" t="s">
+      <c r="J1" s="330"/>
+      <c r="K1" s="330"/>
+      <c r="L1" s="330"/>
+      <c r="M1" s="330"/>
+      <c r="N1" s="330"/>
+      <c r="O1" s="330"/>
+      <c r="P1" s="330"/>
+      <c r="Q1" s="330"/>
+      <c r="R1" s="330"/>
+      <c r="S1" s="330"/>
+      <c r="T1" s="330" t="s">
         <v>257</v>
       </c>
-      <c r="U1" s="342"/>
-      <c r="V1" s="342"/>
-      <c r="W1" s="342"/>
-      <c r="X1" s="342"/>
-      <c r="Y1" s="342"/>
-      <c r="Z1" s="342"/>
-      <c r="AA1" s="342" t="s">
+      <c r="U1" s="330"/>
+      <c r="V1" s="330"/>
+      <c r="W1" s="330"/>
+      <c r="X1" s="330"/>
+      <c r="Y1" s="330"/>
+      <c r="Z1" s="330"/>
+      <c r="AA1" s="330" t="s">
         <v>270</v>
       </c>
-      <c r="AB1" s="342"/>
-      <c r="AC1" s="342"/>
-      <c r="AD1" s="342"/>
-      <c r="AE1" s="342"/>
-      <c r="AF1" s="342"/>
-      <c r="AG1" s="342"/>
-      <c r="AH1" s="342"/>
-      <c r="AI1" s="342"/>
-      <c r="AJ1" s="342"/>
-      <c r="AK1" s="342"/>
-      <c r="AL1" s="342"/>
-      <c r="AM1" s="342"/>
-      <c r="AN1" s="342"/>
-      <c r="AO1" s="342"/>
-      <c r="AP1" s="342"/>
-      <c r="AQ1" s="342"/>
-      <c r="AR1" s="342" t="s">
+      <c r="AB1" s="330"/>
+      <c r="AC1" s="330"/>
+      <c r="AD1" s="330"/>
+      <c r="AE1" s="330"/>
+      <c r="AF1" s="330"/>
+      <c r="AG1" s="330"/>
+      <c r="AH1" s="330"/>
+      <c r="AI1" s="330"/>
+      <c r="AJ1" s="330"/>
+      <c r="AK1" s="330"/>
+      <c r="AL1" s="330"/>
+      <c r="AM1" s="330"/>
+      <c r="AN1" s="330"/>
+      <c r="AO1" s="330"/>
+      <c r="AP1" s="330"/>
+      <c r="AQ1" s="330"/>
+      <c r="AR1" s="330" t="s">
         <v>282</v>
       </c>
-      <c r="AS1" s="342"/>
-      <c r="AT1" s="342"/>
-      <c r="AU1" s="342"/>
-      <c r="AV1" s="342"/>
-      <c r="AW1" s="355" t="s">
+      <c r="AS1" s="330"/>
+      <c r="AT1" s="330"/>
+      <c r="AU1" s="330"/>
+      <c r="AV1" s="330"/>
+      <c r="AW1" s="344" t="s">
         <v>261</v>
       </c>
-      <c r="AX1" s="355"/>
-      <c r="AY1" s="342"/>
-      <c r="AZ1" s="342"/>
-      <c r="BA1" s="342"/>
-      <c r="BB1" s="342" t="s">
+      <c r="AX1" s="344"/>
+      <c r="AY1" s="330"/>
+      <c r="AZ1" s="330"/>
+      <c r="BA1" s="330"/>
+      <c r="BB1" s="330" t="s">
         <v>272</v>
       </c>
-      <c r="BC1" s="342"/>
-      <c r="BD1" s="342"/>
-      <c r="BE1" s="342"/>
-      <c r="BF1" s="342"/>
+      <c r="BC1" s="330"/>
+      <c r="BD1" s="330"/>
+      <c r="BE1" s="330"/>
+      <c r="BF1" s="330"/>
     </row>
     <row r="2" spans="1:58" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A2" s="346" t="s">
+      <c r="A2" s="334" t="s">
         <v>273</v>
       </c>
-      <c r="B2" s="346"/>
-      <c r="C2" s="346"/>
-      <c r="D2" s="346"/>
-      <c r="E2" s="346"/>
-      <c r="F2" s="346"/>
-      <c r="G2" s="346"/>
-      <c r="H2" s="346"/>
-      <c r="I2" s="346" t="str">
+      <c r="B2" s="334"/>
+      <c r="C2" s="334"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334"/>
+      <c r="F2" s="334"/>
+      <c r="G2" s="334"/>
+      <c r="H2" s="334"/>
+      <c r="I2" s="334" t="str">
         <f>Cover!I12</f>
         <v>Manage Student</v>
       </c>
-      <c r="J2" s="346"/>
-      <c r="K2" s="346"/>
-      <c r="L2" s="346"/>
-      <c r="M2" s="346"/>
-      <c r="N2" s="346"/>
-      <c r="O2" s="346"/>
-      <c r="P2" s="346"/>
-      <c r="Q2" s="346"/>
-      <c r="R2" s="346"/>
-      <c r="S2" s="346"/>
-      <c r="T2" s="346" t="str">
+      <c r="J2" s="334"/>
+      <c r="K2" s="334"/>
+      <c r="L2" s="334"/>
+      <c r="M2" s="334"/>
+      <c r="N2" s="334"/>
+      <c r="O2" s="334"/>
+      <c r="P2" s="334"/>
+      <c r="Q2" s="334"/>
+      <c r="R2" s="334"/>
+      <c r="S2" s="334"/>
+      <c r="T2" s="334" t="str">
         <f>Cover!I15</f>
         <v>GMO_management_Student</v>
       </c>
-      <c r="U2" s="346"/>
-      <c r="V2" s="346"/>
-      <c r="W2" s="346"/>
-      <c r="X2" s="346"/>
-      <c r="Y2" s="346"/>
-      <c r="Z2" s="346"/>
-      <c r="AA2" s="329" t="str">
+      <c r="U2" s="334"/>
+      <c r="V2" s="334"/>
+      <c r="W2" s="334"/>
+      <c r="X2" s="334"/>
+      <c r="Y2" s="334"/>
+      <c r="Z2" s="334"/>
+      <c r="AA2" s="335" t="str">
         <f>Cover!R19</f>
         <v>Add student</v>
       </c>
-      <c r="AB2" s="329"/>
-      <c r="AC2" s="329"/>
-      <c r="AD2" s="329"/>
-      <c r="AE2" s="329"/>
-      <c r="AF2" s="329"/>
-      <c r="AG2" s="329"/>
-      <c r="AH2" s="329"/>
-      <c r="AI2" s="329"/>
-      <c r="AJ2" s="329"/>
-      <c r="AK2" s="329"/>
-      <c r="AL2" s="329"/>
-      <c r="AM2" s="329"/>
-      <c r="AN2" s="329"/>
-      <c r="AO2" s="329"/>
-      <c r="AP2" s="329"/>
-      <c r="AQ2" s="329"/>
-      <c r="AR2" s="347" t="str">
+      <c r="AB2" s="335"/>
+      <c r="AC2" s="335"/>
+      <c r="AD2" s="335"/>
+      <c r="AE2" s="335"/>
+      <c r="AF2" s="335"/>
+      <c r="AG2" s="335"/>
+      <c r="AH2" s="335"/>
+      <c r="AI2" s="335"/>
+      <c r="AJ2" s="335"/>
+      <c r="AK2" s="335"/>
+      <c r="AL2" s="335"/>
+      <c r="AM2" s="335"/>
+      <c r="AN2" s="335"/>
+      <c r="AO2" s="335"/>
+      <c r="AP2" s="335"/>
+      <c r="AQ2" s="335"/>
+      <c r="AR2" s="336" t="str">
         <f>Cover!I19</f>
         <v>0-0</v>
       </c>
-      <c r="AS2" s="329"/>
-      <c r="AT2" s="329"/>
-      <c r="AU2" s="329"/>
-      <c r="AV2" s="329"/>
-      <c r="AW2" s="329" t="s">
+      <c r="AS2" s="335"/>
+      <c r="AT2" s="335"/>
+      <c r="AU2" s="335"/>
+      <c r="AV2" s="335"/>
+      <c r="AW2" s="335" t="s">
         <v>267</v>
       </c>
-      <c r="AX2" s="329" t="s">
+      <c r="AX2" s="335" t="s">
         <v>171</v>
       </c>
-      <c r="AY2" s="329" t="s">
+      <c r="AY2" s="335" t="s">
         <v>171</v>
       </c>
-      <c r="AZ2" s="329" t="s">
+      <c r="AZ2" s="335" t="s">
         <v>171</v>
       </c>
-      <c r="BA2" s="329" t="s">
+      <c r="BA2" s="335" t="s">
         <v>171</v>
       </c>
-      <c r="BB2" s="329" t="s">
+      <c r="BB2" s="335" t="s">
         <v>267</v>
       </c>
-      <c r="BC2" s="329" t="s">
+      <c r="BC2" s="335" t="s">
         <v>171</v>
       </c>
-      <c r="BD2" s="329" t="s">
+      <c r="BD2" s="335" t="s">
         <v>171</v>
       </c>
-      <c r="BE2" s="329" t="s">
+      <c r="BE2" s="335" t="s">
         <v>171</v>
       </c>
-      <c r="BF2" s="329" t="s">
+      <c r="BF2" s="335" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:58" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A3" s="346"/>
-      <c r="B3" s="346"/>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="346"/>
-      <c r="F3" s="346"/>
-      <c r="G3" s="346"/>
-      <c r="H3" s="346"/>
-      <c r="I3" s="346"/>
-      <c r="J3" s="346"/>
-      <c r="K3" s="346"/>
-      <c r="L3" s="346"/>
-      <c r="M3" s="346"/>
-      <c r="N3" s="346"/>
-      <c r="O3" s="346"/>
-      <c r="P3" s="346"/>
-      <c r="Q3" s="346"/>
-      <c r="R3" s="346"/>
-      <c r="S3" s="346"/>
-      <c r="T3" s="346"/>
-      <c r="U3" s="346"/>
-      <c r="V3" s="346"/>
-      <c r="W3" s="346"/>
-      <c r="X3" s="346"/>
-      <c r="Y3" s="346"/>
-      <c r="Z3" s="346"/>
-      <c r="AA3" s="342" t="s">
+      <c r="A3" s="334"/>
+      <c r="B3" s="334"/>
+      <c r="C3" s="334"/>
+      <c r="D3" s="334"/>
+      <c r="E3" s="334"/>
+      <c r="F3" s="334"/>
+      <c r="G3" s="334"/>
+      <c r="H3" s="334"/>
+      <c r="I3" s="334"/>
+      <c r="J3" s="334"/>
+      <c r="K3" s="334"/>
+      <c r="L3" s="334"/>
+      <c r="M3" s="334"/>
+      <c r="N3" s="334"/>
+      <c r="O3" s="334"/>
+      <c r="P3" s="334"/>
+      <c r="Q3" s="334"/>
+      <c r="R3" s="334"/>
+      <c r="S3" s="334"/>
+      <c r="T3" s="334"/>
+      <c r="U3" s="334"/>
+      <c r="V3" s="334"/>
+      <c r="W3" s="334"/>
+      <c r="X3" s="334"/>
+      <c r="Y3" s="334"/>
+      <c r="Z3" s="334"/>
+      <c r="AA3" s="330" t="s">
         <v>274</v>
       </c>
-      <c r="AB3" s="342"/>
-      <c r="AC3" s="342"/>
-      <c r="AD3" s="342"/>
-      <c r="AE3" s="342"/>
-      <c r="AF3" s="342"/>
-      <c r="AG3" s="350" t="str">
+      <c r="AB3" s="330"/>
+      <c r="AC3" s="330"/>
+      <c r="AD3" s="330"/>
+      <c r="AE3" s="330"/>
+      <c r="AF3" s="330"/>
+      <c r="AG3" s="339" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Layout</v>
       </c>
-      <c r="AH3" s="351"/>
-      <c r="AI3" s="351"/>
-      <c r="AJ3" s="351"/>
-      <c r="AK3" s="351"/>
-      <c r="AL3" s="351"/>
-      <c r="AM3" s="351"/>
-      <c r="AN3" s="351"/>
-      <c r="AO3" s="351"/>
-      <c r="AP3" s="351"/>
-      <c r="AQ3" s="351"/>
-      <c r="AR3" s="351"/>
-      <c r="AS3" s="351"/>
-      <c r="AT3" s="351"/>
-      <c r="AU3" s="351"/>
-      <c r="AV3" s="352"/>
-      <c r="AW3" s="359">
+      <c r="AH3" s="340"/>
+      <c r="AI3" s="340"/>
+      <c r="AJ3" s="340"/>
+      <c r="AK3" s="340"/>
+      <c r="AL3" s="340"/>
+      <c r="AM3" s="340"/>
+      <c r="AN3" s="340"/>
+      <c r="AO3" s="340"/>
+      <c r="AP3" s="340"/>
+      <c r="AQ3" s="340"/>
+      <c r="AR3" s="340"/>
+      <c r="AS3" s="340"/>
+      <c r="AT3" s="340"/>
+      <c r="AU3" s="340"/>
+      <c r="AV3" s="341"/>
+      <c r="AW3" s="361">
         <v>44504</v>
       </c>
-      <c r="AX3" s="359">
+      <c r="AX3" s="361">
         <v>44147</v>
       </c>
-      <c r="AY3" s="359">
+      <c r="AY3" s="361">
         <v>44147</v>
       </c>
-      <c r="AZ3" s="359">
+      <c r="AZ3" s="361">
         <v>44147</v>
       </c>
-      <c r="BA3" s="359">
+      <c r="BA3" s="361">
         <v>44147</v>
       </c>
-      <c r="BB3" s="359">
+      <c r="BB3" s="361">
         <v>44504</v>
       </c>
-      <c r="BC3" s="359">
+      <c r="BC3" s="361">
         <v>44147</v>
       </c>
-      <c r="BD3" s="359">
+      <c r="BD3" s="361">
         <v>44147</v>
       </c>
-      <c r="BE3" s="359">
+      <c r="BE3" s="361">
         <v>44147</v>
       </c>
-      <c r="BF3" s="359">
+      <c r="BF3" s="361">
         <v>44147</v>
       </c>
     </row>
@@ -10423,22 +10423,22 @@
       <c r="AP6" s="81"/>
       <c r="AQ6" s="81"/>
       <c r="AR6" s="81"/>
-      <c r="AS6" s="361" t="s">
+      <c r="AS6" s="358" t="s">
         <v>283</v>
       </c>
-      <c r="AT6" s="362"/>
-      <c r="AU6" s="362"/>
-      <c r="AV6" s="362"/>
-      <c r="AW6" s="362"/>
-      <c r="AX6" s="362"/>
-      <c r="AY6" s="362"/>
-      <c r="AZ6" s="362"/>
-      <c r="BA6" s="362"/>
-      <c r="BB6" s="362"/>
-      <c r="BC6" s="362"/>
-      <c r="BD6" s="362"/>
-      <c r="BE6" s="362"/>
-      <c r="BF6" s="363"/>
+      <c r="AT6" s="359"/>
+      <c r="AU6" s="359"/>
+      <c r="AV6" s="359"/>
+      <c r="AW6" s="359"/>
+      <c r="AX6" s="359"/>
+      <c r="AY6" s="359"/>
+      <c r="AZ6" s="359"/>
+      <c r="BA6" s="359"/>
+      <c r="BB6" s="359"/>
+      <c r="BC6" s="359"/>
+      <c r="BD6" s="359"/>
+      <c r="BE6" s="359"/>
+      <c r="BF6" s="360"/>
     </row>
     <row r="7" spans="1:58" ht="13.5" customHeight="1">
       <c r="A7" s="80"/>
@@ -10485,20 +10485,20 @@
       <c r="AP7" s="81"/>
       <c r="AQ7" s="81"/>
       <c r="AR7" s="81"/>
-      <c r="AS7" s="361"/>
-      <c r="AT7" s="362"/>
-      <c r="AU7" s="362"/>
-      <c r="AV7" s="362"/>
-      <c r="AW7" s="362"/>
-      <c r="AX7" s="362"/>
-      <c r="AY7" s="362"/>
-      <c r="AZ7" s="362"/>
-      <c r="BA7" s="362"/>
-      <c r="BB7" s="362"/>
-      <c r="BC7" s="362"/>
-      <c r="BD7" s="362"/>
-      <c r="BE7" s="362"/>
-      <c r="BF7" s="363"/>
+      <c r="AS7" s="358"/>
+      <c r="AT7" s="359"/>
+      <c r="AU7" s="359"/>
+      <c r="AV7" s="359"/>
+      <c r="AW7" s="359"/>
+      <c r="AX7" s="359"/>
+      <c r="AY7" s="359"/>
+      <c r="AZ7" s="359"/>
+      <c r="BA7" s="359"/>
+      <c r="BB7" s="359"/>
+      <c r="BC7" s="359"/>
+      <c r="BD7" s="359"/>
+      <c r="BE7" s="359"/>
+      <c r="BF7" s="360"/>
     </row>
     <row r="8" spans="1:58" ht="13.5" customHeight="1">
       <c r="A8" s="80"/>
@@ -10507,16 +10507,16 @@
       <c r="D8" s="96"/>
       <c r="E8" s="96"/>
       <c r="F8" s="96"/>
-      <c r="G8" s="358"/>
-      <c r="H8" s="358"/>
-      <c r="I8" s="358"/>
-      <c r="J8" s="358"/>
-      <c r="K8" s="358"/>
-      <c r="L8" s="358"/>
-      <c r="M8" s="358"/>
-      <c r="N8" s="358"/>
-      <c r="O8" s="358"/>
-      <c r="P8" s="358"/>
+      <c r="G8" s="362"/>
+      <c r="H8" s="362"/>
+      <c r="I8" s="362"/>
+      <c r="J8" s="362"/>
+      <c r="K8" s="362"/>
+      <c r="L8" s="362"/>
+      <c r="M8" s="362"/>
+      <c r="N8" s="362"/>
+      <c r="O8" s="362"/>
+      <c r="P8" s="362"/>
       <c r="Q8" s="96"/>
       <c r="R8" s="96"/>
       <c r="S8" s="96"/>
@@ -10545,20 +10545,20 @@
       <c r="AP8" s="81"/>
       <c r="AQ8" s="81"/>
       <c r="AR8" s="81"/>
-      <c r="AS8" s="361"/>
-      <c r="AT8" s="362"/>
-      <c r="AU8" s="362"/>
-      <c r="AV8" s="362"/>
-      <c r="AW8" s="362"/>
-      <c r="AX8" s="362"/>
-      <c r="AY8" s="362"/>
-      <c r="AZ8" s="362"/>
-      <c r="BA8" s="362"/>
-      <c r="BB8" s="362"/>
-      <c r="BC8" s="362"/>
-      <c r="BD8" s="362"/>
-      <c r="BE8" s="362"/>
-      <c r="BF8" s="363"/>
+      <c r="AS8" s="358"/>
+      <c r="AT8" s="359"/>
+      <c r="AU8" s="359"/>
+      <c r="AV8" s="359"/>
+      <c r="AW8" s="359"/>
+      <c r="AX8" s="359"/>
+      <c r="AY8" s="359"/>
+      <c r="AZ8" s="359"/>
+      <c r="BA8" s="359"/>
+      <c r="BB8" s="359"/>
+      <c r="BC8" s="359"/>
+      <c r="BD8" s="359"/>
+      <c r="BE8" s="359"/>
+      <c r="BF8" s="360"/>
     </row>
     <row r="9" spans="1:58" ht="13.5" customHeight="1">
       <c r="A9" s="80"/>
@@ -10605,20 +10605,20 @@
       <c r="AP9" s="81"/>
       <c r="AQ9" s="81"/>
       <c r="AR9" s="81"/>
-      <c r="AS9" s="361"/>
-      <c r="AT9" s="362"/>
-      <c r="AU9" s="362"/>
-      <c r="AV9" s="362"/>
-      <c r="AW9" s="362"/>
-      <c r="AX9" s="362"/>
-      <c r="AY9" s="362"/>
-      <c r="AZ9" s="362"/>
-      <c r="BA9" s="362"/>
-      <c r="BB9" s="362"/>
-      <c r="BC9" s="362"/>
-      <c r="BD9" s="362"/>
-      <c r="BE9" s="362"/>
-      <c r="BF9" s="363"/>
+      <c r="AS9" s="358"/>
+      <c r="AT9" s="359"/>
+      <c r="AU9" s="359"/>
+      <c r="AV9" s="359"/>
+      <c r="AW9" s="359"/>
+      <c r="AX9" s="359"/>
+      <c r="AY9" s="359"/>
+      <c r="AZ9" s="359"/>
+      <c r="BA9" s="359"/>
+      <c r="BB9" s="359"/>
+      <c r="BC9" s="359"/>
+      <c r="BD9" s="359"/>
+      <c r="BE9" s="359"/>
+      <c r="BF9" s="360"/>
     </row>
     <row r="10" spans="1:58" ht="13.5" customHeight="1">
       <c r="A10" s="80"/>
@@ -10627,16 +10627,16 @@
       <c r="D10" s="96"/>
       <c r="E10" s="96"/>
       <c r="F10" s="96"/>
-      <c r="G10" s="358"/>
-      <c r="H10" s="358"/>
-      <c r="I10" s="358"/>
-      <c r="J10" s="358"/>
-      <c r="K10" s="358"/>
-      <c r="L10" s="358"/>
-      <c r="M10" s="358"/>
-      <c r="N10" s="358"/>
-      <c r="O10" s="358"/>
-      <c r="P10" s="358"/>
+      <c r="G10" s="362"/>
+      <c r="H10" s="362"/>
+      <c r="I10" s="362"/>
+      <c r="J10" s="362"/>
+      <c r="K10" s="362"/>
+      <c r="L10" s="362"/>
+      <c r="M10" s="362"/>
+      <c r="N10" s="362"/>
+      <c r="O10" s="362"/>
+      <c r="P10" s="362"/>
       <c r="Q10" s="96"/>
       <c r="R10" s="96"/>
       <c r="S10" s="96"/>
@@ -10665,20 +10665,20 @@
       <c r="AP10" s="81"/>
       <c r="AQ10" s="81"/>
       <c r="AR10" s="81"/>
-      <c r="AS10" s="361"/>
-      <c r="AT10" s="362"/>
-      <c r="AU10" s="362"/>
-      <c r="AV10" s="362"/>
-      <c r="AW10" s="362"/>
-      <c r="AX10" s="362"/>
-      <c r="AY10" s="362"/>
-      <c r="AZ10" s="362"/>
-      <c r="BA10" s="362"/>
-      <c r="BB10" s="362"/>
-      <c r="BC10" s="362"/>
-      <c r="BD10" s="362"/>
-      <c r="BE10" s="362"/>
-      <c r="BF10" s="363"/>
+      <c r="AS10" s="358"/>
+      <c r="AT10" s="359"/>
+      <c r="AU10" s="359"/>
+      <c r="AV10" s="359"/>
+      <c r="AW10" s="359"/>
+      <c r="AX10" s="359"/>
+      <c r="AY10" s="359"/>
+      <c r="AZ10" s="359"/>
+      <c r="BA10" s="359"/>
+      <c r="BB10" s="359"/>
+      <c r="BC10" s="359"/>
+      <c r="BD10" s="359"/>
+      <c r="BE10" s="359"/>
+      <c r="BF10" s="360"/>
     </row>
     <row r="11" spans="1:58" ht="13.5" customHeight="1">
       <c r="A11" s="80"/>
@@ -10725,20 +10725,20 @@
       <c r="AP11" s="81"/>
       <c r="AQ11" s="81"/>
       <c r="AR11" s="81"/>
-      <c r="AS11" s="361"/>
-      <c r="AT11" s="362"/>
-      <c r="AU11" s="362"/>
-      <c r="AV11" s="362"/>
-      <c r="AW11" s="362"/>
-      <c r="AX11" s="362"/>
-      <c r="AY11" s="362"/>
-      <c r="AZ11" s="362"/>
-      <c r="BA11" s="362"/>
-      <c r="BB11" s="362"/>
-      <c r="BC11" s="362"/>
-      <c r="BD11" s="362"/>
-      <c r="BE11" s="362"/>
-      <c r="BF11" s="363"/>
+      <c r="AS11" s="358"/>
+      <c r="AT11" s="359"/>
+      <c r="AU11" s="359"/>
+      <c r="AV11" s="359"/>
+      <c r="AW11" s="359"/>
+      <c r="AX11" s="359"/>
+      <c r="AY11" s="359"/>
+      <c r="AZ11" s="359"/>
+      <c r="BA11" s="359"/>
+      <c r="BB11" s="359"/>
+      <c r="BC11" s="359"/>
+      <c r="BD11" s="359"/>
+      <c r="BE11" s="359"/>
+      <c r="BF11" s="360"/>
     </row>
     <row r="12" spans="1:58" ht="13.5" customHeight="1">
       <c r="A12" s="80"/>
@@ -10747,9 +10747,9 @@
       <c r="D12" s="96"/>
       <c r="E12" s="96"/>
       <c r="F12" s="96"/>
-      <c r="G12" s="358"/>
-      <c r="H12" s="358"/>
-      <c r="I12" s="358"/>
+      <c r="G12" s="362"/>
+      <c r="H12" s="362"/>
+      <c r="I12" s="362"/>
       <c r="J12" s="96"/>
       <c r="K12" s="96"/>
       <c r="L12" s="96"/>
@@ -10785,20 +10785,20 @@
       <c r="AP12" s="81"/>
       <c r="AQ12" s="81"/>
       <c r="AR12" s="81"/>
-      <c r="AS12" s="361"/>
-      <c r="AT12" s="362"/>
-      <c r="AU12" s="362"/>
-      <c r="AV12" s="362"/>
-      <c r="AW12" s="362"/>
-      <c r="AX12" s="362"/>
-      <c r="AY12" s="362"/>
-      <c r="AZ12" s="362"/>
-      <c r="BA12" s="362"/>
-      <c r="BB12" s="362"/>
-      <c r="BC12" s="362"/>
-      <c r="BD12" s="362"/>
-      <c r="BE12" s="362"/>
-      <c r="BF12" s="363"/>
+      <c r="AS12" s="358"/>
+      <c r="AT12" s="359"/>
+      <c r="AU12" s="359"/>
+      <c r="AV12" s="359"/>
+      <c r="AW12" s="359"/>
+      <c r="AX12" s="359"/>
+      <c r="AY12" s="359"/>
+      <c r="AZ12" s="359"/>
+      <c r="BA12" s="359"/>
+      <c r="BB12" s="359"/>
+      <c r="BC12" s="359"/>
+      <c r="BD12" s="359"/>
+      <c r="BE12" s="359"/>
+      <c r="BF12" s="360"/>
     </row>
     <row r="13" spans="1:58" ht="13.5" customHeight="1">
       <c r="A13" s="80"/>
@@ -10807,9 +10807,9 @@
       <c r="D13" s="96"/>
       <c r="E13" s="96"/>
       <c r="F13" s="96"/>
-      <c r="G13" s="358"/>
-      <c r="H13" s="358"/>
-      <c r="I13" s="358"/>
+      <c r="G13" s="362"/>
+      <c r="H13" s="362"/>
+      <c r="I13" s="362"/>
       <c r="J13" s="96"/>
       <c r="K13" s="96"/>
       <c r="L13" s="96"/>
@@ -10845,20 +10845,20 @@
       <c r="AP13" s="81"/>
       <c r="AQ13" s="81"/>
       <c r="AR13" s="81"/>
-      <c r="AS13" s="361"/>
-      <c r="AT13" s="362"/>
-      <c r="AU13" s="362"/>
-      <c r="AV13" s="362"/>
-      <c r="AW13" s="362"/>
-      <c r="AX13" s="362"/>
-      <c r="AY13" s="362"/>
-      <c r="AZ13" s="362"/>
-      <c r="BA13" s="362"/>
-      <c r="BB13" s="362"/>
-      <c r="BC13" s="362"/>
-      <c r="BD13" s="362"/>
-      <c r="BE13" s="362"/>
-      <c r="BF13" s="363"/>
+      <c r="AS13" s="358"/>
+      <c r="AT13" s="359"/>
+      <c r="AU13" s="359"/>
+      <c r="AV13" s="359"/>
+      <c r="AW13" s="359"/>
+      <c r="AX13" s="359"/>
+      <c r="AY13" s="359"/>
+      <c r="AZ13" s="359"/>
+      <c r="BA13" s="359"/>
+      <c r="BB13" s="359"/>
+      <c r="BC13" s="359"/>
+      <c r="BD13" s="359"/>
+      <c r="BE13" s="359"/>
+      <c r="BF13" s="360"/>
     </row>
     <row r="14" spans="1:58" ht="13.5" customHeight="1">
       <c r="A14" s="80"/>
@@ -13678,12 +13678,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AS6:BF13"/>
-    <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="AA1:AQ1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="AW3:BA3"/>
     <mergeCell ref="G8:P8"/>
     <mergeCell ref="G10:P10"/>
     <mergeCell ref="G12:I13"/>
@@ -13700,6 +13694,12 @@
     <mergeCell ref="AG3:AV3"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:S1"/>
+    <mergeCell ref="AS6:BF13"/>
+    <mergeCell ref="T1:Z1"/>
+    <mergeCell ref="AA1:AQ1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="AW3:BA3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -13745,25 +13745,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A1" s="343" t="s">
+      <c r="A1" s="331" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="345"/>
-      <c r="C1" s="343" t="s">
+      <c r="B1" s="333"/>
+      <c r="C1" s="331" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="344"/>
-      <c r="E1" s="344"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="343" t="s">
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="333"/>
+      <c r="G1" s="331" t="s">
         <v>257</v>
       </c>
-      <c r="H1" s="344"/>
-      <c r="I1" s="345"/>
-      <c r="J1" s="343" t="s">
+      <c r="H1" s="332"/>
+      <c r="I1" s="333"/>
+      <c r="J1" s="331" t="s">
         <v>270</v>
       </c>
-      <c r="K1" s="345"/>
+      <c r="K1" s="333"/>
       <c r="L1" s="15" t="s">
         <v>271</v>
       </c>
@@ -13810,11 +13810,11 @@
       </c>
       <c r="H2" s="374"/>
       <c r="I2" s="371"/>
-      <c r="J2" s="350" t="str">
+      <c r="J2" s="339" t="str">
         <f>Cover!R19</f>
         <v>Add student</v>
       </c>
-      <c r="K2" s="352"/>
+      <c r="K2" s="341"/>
       <c r="L2" s="40" t="str">
         <f>Cover!I19</f>
         <v>0-0</v>
@@ -13857,11 +13857,11 @@
       <c r="J3" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K3" s="350" t="str">
+      <c r="K3" s="339" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Item definition</v>
       </c>
-      <c r="L3" s="352"/>
+      <c r="L3" s="341"/>
       <c r="M3" s="94">
         <v>44504</v>
       </c>
@@ -17034,28 +17034,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A1" s="343" t="str">
+      <c r="A1" s="331" t="str">
         <f>Cover!A5</f>
         <v>詳細設計書</v>
       </c>
-      <c r="B1" s="345"/>
-      <c r="C1" s="343" t="s">
+      <c r="B1" s="333"/>
+      <c r="C1" s="331" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="344"/>
-      <c r="E1" s="344"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="343" t="s">
+      <c r="D1" s="332"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="333"/>
+      <c r="G1" s="331" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="344"/>
-      <c r="I1" s="345"/>
-      <c r="J1" s="343" t="s">
+      <c r="H1" s="332"/>
+      <c r="I1" s="333"/>
+      <c r="J1" s="331" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="344"/>
-      <c r="L1" s="344"/>
-      <c r="M1" s="345"/>
+      <c r="K1" s="332"/>
+      <c r="L1" s="332"/>
+      <c r="M1" s="333"/>
       <c r="N1" s="24" t="s">
         <v>20</v>
       </c>
@@ -17084,13 +17084,13 @@
       </c>
       <c r="H2" s="374"/>
       <c r="I2" s="371"/>
-      <c r="J2" s="350" t="str">
+      <c r="J2" s="339" t="str">
         <f>Cover!R19</f>
         <v>Add student</v>
       </c>
-      <c r="K2" s="351"/>
-      <c r="L2" s="351"/>
-      <c r="M2" s="352"/>
+      <c r="K2" s="340"/>
+      <c r="L2" s="340"/>
+      <c r="M2" s="341"/>
       <c r="N2" s="40" t="str">
         <f>Cover!I19</f>
         <v>0-0</v>
@@ -17112,16 +17112,16 @@
       <c r="G3" s="372"/>
       <c r="H3" s="375"/>
       <c r="I3" s="373"/>
-      <c r="J3" s="343" t="s">
+      <c r="J3" s="331" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="345"/>
-      <c r="L3" s="350" t="str">
+      <c r="K3" s="333"/>
+      <c r="L3" s="339" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Input check</v>
       </c>
-      <c r="M3" s="351"/>
-      <c r="N3" s="352"/>
+      <c r="M3" s="340"/>
+      <c r="N3" s="341"/>
       <c r="O3" s="256">
         <v>44508</v>
       </c>
@@ -18824,17 +18824,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:F3"/>
     <mergeCell ref="G2:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="8">
@@ -18891,7 +18891,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="H11" sqref="H11:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -18907,15 +18907,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14">
-      <c r="A1" s="378" t="s">
+      <c r="A1" s="380" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="380" t="s">
+      <c r="B1" s="382" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="381"/>
-      <c r="D1" s="381"/>
-      <c r="E1" s="382"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="384"/>
       <c r="F1" s="230" t="s">
         <v>337</v>
       </c>
@@ -18930,13 +18930,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14">
-      <c r="A2" s="379"/>
-      <c r="B2" s="383" t="s">
+      <c r="A2" s="381"/>
+      <c r="B2" s="385" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="384"/>
-      <c r="D2" s="384"/>
-      <c r="E2" s="385"/>
+      <c r="C2" s="386"/>
+      <c r="D2" s="386"/>
+      <c r="E2" s="387"/>
       <c r="F2" s="147" t="s">
         <v>267</v>
       </c>
@@ -18977,14 +18977,14 @@
       <c r="E4" s="150" t="s">
         <v>350</v>
       </c>
-      <c r="F4" s="386" t="s">
+      <c r="F4" s="388" t="s">
         <v>344</v>
       </c>
-      <c r="G4" s="387"/>
-      <c r="H4" s="386" t="s">
+      <c r="G4" s="389"/>
+      <c r="H4" s="388" t="s">
         <v>345</v>
       </c>
-      <c r="I4" s="388"/>
+      <c r="I4" s="390"/>
     </row>
     <row r="5" spans="1:9" ht="31.5" customHeight="1">
       <c r="A5" s="138" t="s">
@@ -19009,7 +19009,7 @@
       <c r="H5" s="376" t="s">
         <v>352</v>
       </c>
-      <c r="I5" s="377"/>
+      <c r="I5" s="379"/>
     </row>
     <row r="6" spans="1:9" ht="14">
       <c r="A6" s="138" t="s">
@@ -19098,10 +19098,10 @@
       <c r="E9" s="155" t="s">
         <v>364</v>
       </c>
-      <c r="F9" s="389" t="s">
+      <c r="F9" s="377" t="s">
         <v>467</v>
       </c>
-      <c r="G9" s="389"/>
+      <c r="G9" s="377"/>
       <c r="H9" s="376"/>
       <c r="I9" s="376"/>
     </row>
@@ -19125,8 +19125,8 @@
         <v>367</v>
       </c>
       <c r="G10" s="376"/>
-      <c r="H10" s="390"/>
-      <c r="I10" s="390"/>
+      <c r="H10" s="378"/>
+      <c r="I10" s="378"/>
     </row>
     <row r="11" spans="1:9" ht="31" customHeight="1">
       <c r="A11" s="138" t="s">
@@ -19144,10 +19144,10 @@
       <c r="E11" s="136" t="s">
         <v>372</v>
       </c>
-      <c r="F11" s="389" t="s">
+      <c r="F11" s="377" t="s">
         <v>465</v>
       </c>
-      <c r="G11" s="389"/>
+      <c r="G11" s="377"/>
       <c r="H11" s="376" t="s">
         <v>373</v>
       </c>
@@ -19203,6 +19203,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="F13:G13"/>
@@ -19213,19 +19226,6 @@
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -19261,210 +19261,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A1" s="360" t="s">
+      <c r="A1" s="363" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="342"/>
-      <c r="C1" s="342"/>
-      <c r="D1" s="342"/>
-      <c r="E1" s="342"/>
-      <c r="F1" s="342"/>
-      <c r="G1" s="342"/>
-      <c r="H1" s="342"/>
-      <c r="I1" s="342" t="s">
+      <c r="B1" s="330"/>
+      <c r="C1" s="330"/>
+      <c r="D1" s="330"/>
+      <c r="E1" s="330"/>
+      <c r="F1" s="330"/>
+      <c r="G1" s="330"/>
+      <c r="H1" s="330"/>
+      <c r="I1" s="330" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="342"/>
-      <c r="K1" s="342"/>
-      <c r="L1" s="342"/>
-      <c r="M1" s="342"/>
-      <c r="N1" s="342"/>
-      <c r="O1" s="342"/>
-      <c r="P1" s="342"/>
-      <c r="Q1" s="342"/>
-      <c r="R1" s="342"/>
-      <c r="S1" s="342"/>
-      <c r="T1" s="342" t="s">
+      <c r="J1" s="330"/>
+      <c r="K1" s="330"/>
+      <c r="L1" s="330"/>
+      <c r="M1" s="330"/>
+      <c r="N1" s="330"/>
+      <c r="O1" s="330"/>
+      <c r="P1" s="330"/>
+      <c r="Q1" s="330"/>
+      <c r="R1" s="330"/>
+      <c r="S1" s="330"/>
+      <c r="T1" s="330" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="342"/>
-      <c r="V1" s="342"/>
-      <c r="W1" s="342"/>
-      <c r="X1" s="342"/>
-      <c r="Y1" s="342"/>
-      <c r="Z1" s="342"/>
-      <c r="AA1" s="343" t="s">
+      <c r="U1" s="330"/>
+      <c r="V1" s="330"/>
+      <c r="W1" s="330"/>
+      <c r="X1" s="330"/>
+      <c r="Y1" s="330"/>
+      <c r="Z1" s="330"/>
+      <c r="AA1" s="331" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="344"/>
-      <c r="AC1" s="344"/>
-      <c r="AD1" s="344"/>
-      <c r="AE1" s="344"/>
-      <c r="AF1" s="344"/>
-      <c r="AG1" s="344"/>
-      <c r="AH1" s="344"/>
-      <c r="AI1" s="344"/>
-      <c r="AJ1" s="344"/>
-      <c r="AK1" s="344"/>
-      <c r="AL1" s="344"/>
-      <c r="AM1" s="344"/>
-      <c r="AN1" s="345"/>
-      <c r="AO1" s="343" t="s">
+      <c r="AB1" s="332"/>
+      <c r="AC1" s="332"/>
+      <c r="AD1" s="332"/>
+      <c r="AE1" s="332"/>
+      <c r="AF1" s="332"/>
+      <c r="AG1" s="332"/>
+      <c r="AH1" s="332"/>
+      <c r="AI1" s="332"/>
+      <c r="AJ1" s="332"/>
+      <c r="AK1" s="332"/>
+      <c r="AL1" s="332"/>
+      <c r="AM1" s="332"/>
+      <c r="AN1" s="333"/>
+      <c r="AO1" s="331" t="s">
         <v>20</v>
       </c>
-      <c r="AP1" s="344"/>
-      <c r="AQ1" s="345"/>
-      <c r="AR1" s="355" t="s">
+      <c r="AP1" s="332"/>
+      <c r="AQ1" s="333"/>
+      <c r="AR1" s="344" t="s">
         <v>21</v>
       </c>
-      <c r="AS1" s="355"/>
-      <c r="AT1" s="342"/>
-      <c r="AU1" s="342"/>
-      <c r="AV1" s="342"/>
-      <c r="AW1" s="342" t="s">
+      <c r="AS1" s="344"/>
+      <c r="AT1" s="330"/>
+      <c r="AU1" s="330"/>
+      <c r="AV1" s="330"/>
+      <c r="AW1" s="330" t="s">
         <v>36</v>
       </c>
-      <c r="AX1" s="342"/>
-      <c r="AY1" s="342"/>
-      <c r="AZ1" s="342"/>
-      <c r="BA1" s="342"/>
+      <c r="AX1" s="330"/>
+      <c r="AY1" s="330"/>
+      <c r="AZ1" s="330"/>
+      <c r="BA1" s="330"/>
     </row>
     <row r="2" spans="1:53" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A2" s="346" t="s">
+      <c r="A2" s="334" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="346"/>
-      <c r="C2" s="346"/>
-      <c r="D2" s="346"/>
-      <c r="E2" s="346"/>
-      <c r="F2" s="346"/>
-      <c r="G2" s="346"/>
-      <c r="H2" s="346"/>
-      <c r="I2" s="346" t="str">
+      <c r="B2" s="334"/>
+      <c r="C2" s="334"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334"/>
+      <c r="F2" s="334"/>
+      <c r="G2" s="334"/>
+      <c r="H2" s="334"/>
+      <c r="I2" s="334" t="str">
         <f>Cover!I12</f>
         <v>Manage Student</v>
       </c>
-      <c r="J2" s="346"/>
-      <c r="K2" s="346"/>
-      <c r="L2" s="346"/>
-      <c r="M2" s="346"/>
-      <c r="N2" s="346"/>
-      <c r="O2" s="346"/>
-      <c r="P2" s="346"/>
-      <c r="Q2" s="346"/>
-      <c r="R2" s="346"/>
-      <c r="S2" s="346"/>
-      <c r="T2" s="346" t="str">
+      <c r="J2" s="334"/>
+      <c r="K2" s="334"/>
+      <c r="L2" s="334"/>
+      <c r="M2" s="334"/>
+      <c r="N2" s="334"/>
+      <c r="O2" s="334"/>
+      <c r="P2" s="334"/>
+      <c r="Q2" s="334"/>
+      <c r="R2" s="334"/>
+      <c r="S2" s="334"/>
+      <c r="T2" s="334" t="str">
         <f>Cover!I15</f>
         <v>GMO_management_Student</v>
       </c>
-      <c r="U2" s="346"/>
-      <c r="V2" s="346"/>
-      <c r="W2" s="346"/>
-      <c r="X2" s="346"/>
-      <c r="Y2" s="346"/>
-      <c r="Z2" s="346"/>
-      <c r="AA2" s="350" t="str">
+      <c r="U2" s="334"/>
+      <c r="V2" s="334"/>
+      <c r="W2" s="334"/>
+      <c r="X2" s="334"/>
+      <c r="Y2" s="334"/>
+      <c r="Z2" s="334"/>
+      <c r="AA2" s="339" t="str">
         <f>Cover!R19</f>
         <v>Add student</v>
       </c>
-      <c r="AB2" s="351"/>
-      <c r="AC2" s="351"/>
-      <c r="AD2" s="351"/>
-      <c r="AE2" s="351"/>
-      <c r="AF2" s="351"/>
-      <c r="AG2" s="351"/>
-      <c r="AH2" s="351"/>
-      <c r="AI2" s="351"/>
-      <c r="AJ2" s="351"/>
-      <c r="AK2" s="351"/>
-      <c r="AL2" s="351"/>
-      <c r="AM2" s="351"/>
-      <c r="AN2" s="352"/>
+      <c r="AB2" s="340"/>
+      <c r="AC2" s="340"/>
+      <c r="AD2" s="340"/>
+      <c r="AE2" s="340"/>
+      <c r="AF2" s="340"/>
+      <c r="AG2" s="340"/>
+      <c r="AH2" s="340"/>
+      <c r="AI2" s="340"/>
+      <c r="AJ2" s="340"/>
+      <c r="AK2" s="340"/>
+      <c r="AL2" s="340"/>
+      <c r="AM2" s="340"/>
+      <c r="AN2" s="341"/>
       <c r="AO2" s="391" t="str">
         <f>Cover!I19</f>
         <v>0-0</v>
       </c>
       <c r="AP2" s="392"/>
       <c r="AQ2" s="393"/>
-      <c r="AR2" s="329" t="s">
+      <c r="AR2" s="335" t="s">
         <v>267</v>
       </c>
-      <c r="AS2" s="329"/>
-      <c r="AT2" s="329"/>
-      <c r="AU2" s="329"/>
-      <c r="AV2" s="329"/>
-      <c r="AW2" s="329" t="s">
+      <c r="AS2" s="335"/>
+      <c r="AT2" s="335"/>
+      <c r="AU2" s="335"/>
+      <c r="AV2" s="335"/>
+      <c r="AW2" s="335" t="s">
         <v>267</v>
       </c>
-      <c r="AX2" s="329"/>
-      <c r="AY2" s="329"/>
-      <c r="AZ2" s="329"/>
-      <c r="BA2" s="329"/>
+      <c r="AX2" s="335"/>
+      <c r="AY2" s="335"/>
+      <c r="AZ2" s="335"/>
+      <c r="BA2" s="335"/>
     </row>
     <row r="3" spans="1:53" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A3" s="346"/>
-      <c r="B3" s="346"/>
-      <c r="C3" s="346"/>
-      <c r="D3" s="346"/>
-      <c r="E3" s="346"/>
-      <c r="F3" s="346"/>
-      <c r="G3" s="346"/>
-      <c r="H3" s="346"/>
-      <c r="I3" s="346"/>
-      <c r="J3" s="346"/>
-      <c r="K3" s="346"/>
-      <c r="L3" s="346"/>
-      <c r="M3" s="346"/>
-      <c r="N3" s="346"/>
-      <c r="O3" s="346"/>
-      <c r="P3" s="346"/>
-      <c r="Q3" s="346"/>
-      <c r="R3" s="346"/>
-      <c r="S3" s="346"/>
-      <c r="T3" s="346"/>
-      <c r="U3" s="346"/>
-      <c r="V3" s="346"/>
-      <c r="W3" s="346"/>
-      <c r="X3" s="346"/>
-      <c r="Y3" s="346"/>
-      <c r="Z3" s="346"/>
-      <c r="AA3" s="343" t="s">
+      <c r="A3" s="334"/>
+      <c r="B3" s="334"/>
+      <c r="C3" s="334"/>
+      <c r="D3" s="334"/>
+      <c r="E3" s="334"/>
+      <c r="F3" s="334"/>
+      <c r="G3" s="334"/>
+      <c r="H3" s="334"/>
+      <c r="I3" s="334"/>
+      <c r="J3" s="334"/>
+      <c r="K3" s="334"/>
+      <c r="L3" s="334"/>
+      <c r="M3" s="334"/>
+      <c r="N3" s="334"/>
+      <c r="O3" s="334"/>
+      <c r="P3" s="334"/>
+      <c r="Q3" s="334"/>
+      <c r="R3" s="334"/>
+      <c r="S3" s="334"/>
+      <c r="T3" s="334"/>
+      <c r="U3" s="334"/>
+      <c r="V3" s="334"/>
+      <c r="W3" s="334"/>
+      <c r="X3" s="334"/>
+      <c r="Y3" s="334"/>
+      <c r="Z3" s="334"/>
+      <c r="AA3" s="331" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="344"/>
-      <c r="AC3" s="344"/>
-      <c r="AD3" s="344"/>
-      <c r="AE3" s="344"/>
-      <c r="AF3" s="345"/>
-      <c r="AG3" s="350" t="str">
+      <c r="AB3" s="332"/>
+      <c r="AC3" s="332"/>
+      <c r="AD3" s="332"/>
+      <c r="AE3" s="332"/>
+      <c r="AF3" s="333"/>
+      <c r="AG3" s="339" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Processing description</v>
       </c>
-      <c r="AH3" s="351"/>
-      <c r="AI3" s="351"/>
-      <c r="AJ3" s="351"/>
-      <c r="AK3" s="351"/>
-      <c r="AL3" s="351"/>
-      <c r="AM3" s="351"/>
-      <c r="AN3" s="351"/>
-      <c r="AO3" s="351"/>
-      <c r="AP3" s="351"/>
-      <c r="AQ3" s="352"/>
-      <c r="AR3" s="359">
+      <c r="AH3" s="340"/>
+      <c r="AI3" s="340"/>
+      <c r="AJ3" s="340"/>
+      <c r="AK3" s="340"/>
+      <c r="AL3" s="340"/>
+      <c r="AM3" s="340"/>
+      <c r="AN3" s="340"/>
+      <c r="AO3" s="340"/>
+      <c r="AP3" s="340"/>
+      <c r="AQ3" s="341"/>
+      <c r="AR3" s="361">
         <v>44327</v>
       </c>
-      <c r="AS3" s="359"/>
-      <c r="AT3" s="359"/>
-      <c r="AU3" s="359"/>
-      <c r="AV3" s="359"/>
-      <c r="AW3" s="359">
+      <c r="AS3" s="361"/>
+      <c r="AT3" s="361"/>
+      <c r="AU3" s="361"/>
+      <c r="AV3" s="361"/>
+      <c r="AW3" s="361">
         <v>44327</v>
       </c>
-      <c r="AX3" s="359"/>
-      <c r="AY3" s="359"/>
-      <c r="AZ3" s="359"/>
-      <c r="BA3" s="359"/>
+      <c r="AX3" s="361"/>
+      <c r="AY3" s="361"/>
+      <c r="AZ3" s="361"/>
+      <c r="BA3" s="361"/>
     </row>
     <row r="4" spans="1:53" s="17" customFormat="1" ht="12"/>
     <row r="5" spans="1:53" ht="13.5" customHeight="1">
@@ -41800,17 +41800,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:S1"/>
-    <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="AA1:AN1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:S3"/>
-    <mergeCell ref="T2:Z3"/>
-    <mergeCell ref="AA2:AN2"/>
-    <mergeCell ref="AR2:AV2"/>
-    <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AW2:BA2"/>
     <mergeCell ref="AA3:AF3"/>
     <mergeCell ref="AR3:AV3"/>
@@ -41818,6 +41807,17 @@
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AG3:AQ3"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:S3"/>
+    <mergeCell ref="T2:Z3"/>
+    <mergeCell ref="AA2:AN2"/>
+    <mergeCell ref="AR2:AV2"/>
+    <mergeCell ref="AO2:AQ2"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:S1"/>
+    <mergeCell ref="T1:Z1"/>
+    <mergeCell ref="AA1:AN1"/>
+    <mergeCell ref="AR1:AV1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>

--- a/DD-Add_student.xlsx
+++ b/DD-Add_student.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="17" r:id="rId1"/>
@@ -3795,90 +3795,6 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3996,20 +3912,140 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="28" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="167" fontId="39" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4028,9 +4064,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4059,44 +4092,20 @@
     <xf numFmtId="14" fontId="13" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="28" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="39" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4106,15 +4115,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="17" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4155,12 +4155,6 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4196,6 +4190,12 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="8" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6127,758 +6127,758 @@
       <c r="AQ4" s="3"/>
     </row>
     <row r="5" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="296" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="258"/>
-      <c r="C5" s="258"/>
-      <c r="D5" s="258"/>
-      <c r="E5" s="258"/>
-      <c r="F5" s="258"/>
-      <c r="G5" s="258"/>
-      <c r="H5" s="258"/>
-      <c r="I5" s="258"/>
-      <c r="J5" s="258"/>
-      <c r="K5" s="258"/>
-      <c r="L5" s="258"/>
-      <c r="M5" s="258"/>
-      <c r="N5" s="258"/>
-      <c r="O5" s="258"/>
-      <c r="P5" s="258"/>
-      <c r="Q5" s="258"/>
-      <c r="R5" s="258"/>
-      <c r="S5" s="258"/>
-      <c r="T5" s="258"/>
-      <c r="U5" s="258"/>
-      <c r="V5" s="258"/>
-      <c r="W5" s="258"/>
-      <c r="X5" s="258"/>
-      <c r="Y5" s="258"/>
-      <c r="Z5" s="258"/>
-      <c r="AA5" s="258"/>
-      <c r="AB5" s="259"/>
-      <c r="AC5" s="266" t="s">
+      <c r="B5" s="297"/>
+      <c r="C5" s="297"/>
+      <c r="D5" s="297"/>
+      <c r="E5" s="297"/>
+      <c r="F5" s="297"/>
+      <c r="G5" s="297"/>
+      <c r="H5" s="297"/>
+      <c r="I5" s="297"/>
+      <c r="J5" s="297"/>
+      <c r="K5" s="297"/>
+      <c r="L5" s="297"/>
+      <c r="M5" s="297"/>
+      <c r="N5" s="297"/>
+      <c r="O5" s="297"/>
+      <c r="P5" s="297"/>
+      <c r="Q5" s="297"/>
+      <c r="R5" s="297"/>
+      <c r="S5" s="297"/>
+      <c r="T5" s="297"/>
+      <c r="U5" s="297"/>
+      <c r="V5" s="297"/>
+      <c r="W5" s="297"/>
+      <c r="X5" s="297"/>
+      <c r="Y5" s="297"/>
+      <c r="Z5" s="297"/>
+      <c r="AA5" s="297"/>
+      <c r="AB5" s="298"/>
+      <c r="AC5" s="305" t="s">
         <v>261</v>
       </c>
-      <c r="AD5" s="266"/>
-      <c r="AE5" s="266"/>
-      <c r="AF5" s="266"/>
-      <c r="AG5" s="266"/>
-      <c r="AH5" s="266" t="s">
+      <c r="AD5" s="305"/>
+      <c r="AE5" s="305"/>
+      <c r="AF5" s="305"/>
+      <c r="AG5" s="305"/>
+      <c r="AH5" s="305" t="s">
         <v>262</v>
       </c>
-      <c r="AI5" s="266"/>
-      <c r="AJ5" s="266"/>
-      <c r="AK5" s="266"/>
-      <c r="AL5" s="266"/>
-      <c r="AM5" s="267" t="s">
+      <c r="AI5" s="305"/>
+      <c r="AJ5" s="305"/>
+      <c r="AK5" s="305"/>
+      <c r="AL5" s="305"/>
+      <c r="AM5" s="306" t="s">
         <v>263</v>
       </c>
-      <c r="AN5" s="268"/>
-      <c r="AO5" s="268"/>
-      <c r="AP5" s="268"/>
-      <c r="AQ5" s="269"/>
+      <c r="AN5" s="307"/>
+      <c r="AO5" s="307"/>
+      <c r="AP5" s="307"/>
+      <c r="AQ5" s="308"/>
     </row>
     <row r="6" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A6" s="260"/>
-      <c r="B6" s="261"/>
-      <c r="C6" s="261"/>
-      <c r="D6" s="261"/>
-      <c r="E6" s="261"/>
-      <c r="F6" s="261"/>
-      <c r="G6" s="261"/>
-      <c r="H6" s="261"/>
-      <c r="I6" s="261"/>
-      <c r="J6" s="261"/>
-      <c r="K6" s="261"/>
-      <c r="L6" s="261"/>
-      <c r="M6" s="261"/>
-      <c r="N6" s="261"/>
-      <c r="O6" s="261"/>
-      <c r="P6" s="261"/>
-      <c r="Q6" s="261"/>
-      <c r="R6" s="261"/>
-      <c r="S6" s="261"/>
-      <c r="T6" s="261"/>
-      <c r="U6" s="261"/>
-      <c r="V6" s="261"/>
-      <c r="W6" s="261"/>
-      <c r="X6" s="261"/>
-      <c r="Y6" s="261"/>
-      <c r="Z6" s="261"/>
-      <c r="AA6" s="261"/>
-      <c r="AB6" s="262"/>
-      <c r="AC6" s="270">
+      <c r="A6" s="299"/>
+      <c r="B6" s="300"/>
+      <c r="C6" s="300"/>
+      <c r="D6" s="300"/>
+      <c r="E6" s="300"/>
+      <c r="F6" s="300"/>
+      <c r="G6" s="300"/>
+      <c r="H6" s="300"/>
+      <c r="I6" s="300"/>
+      <c r="J6" s="300"/>
+      <c r="K6" s="300"/>
+      <c r="L6" s="300"/>
+      <c r="M6" s="300"/>
+      <c r="N6" s="300"/>
+      <c r="O6" s="300"/>
+      <c r="P6" s="300"/>
+      <c r="Q6" s="300"/>
+      <c r="R6" s="300"/>
+      <c r="S6" s="300"/>
+      <c r="T6" s="300"/>
+      <c r="U6" s="300"/>
+      <c r="V6" s="300"/>
+      <c r="W6" s="300"/>
+      <c r="X6" s="300"/>
+      <c r="Y6" s="300"/>
+      <c r="Z6" s="300"/>
+      <c r="AA6" s="300"/>
+      <c r="AB6" s="301"/>
+      <c r="AC6" s="309">
         <v>44503</v>
       </c>
-      <c r="AD6" s="271"/>
-      <c r="AE6" s="271"/>
-      <c r="AF6" s="271"/>
-      <c r="AG6" s="272"/>
-      <c r="AH6" s="270"/>
-      <c r="AI6" s="271"/>
-      <c r="AJ6" s="271"/>
-      <c r="AK6" s="271"/>
-      <c r="AL6" s="272"/>
-      <c r="AM6" s="270"/>
-      <c r="AN6" s="271"/>
-      <c r="AO6" s="271"/>
-      <c r="AP6" s="271"/>
-      <c r="AQ6" s="272"/>
+      <c r="AD6" s="310"/>
+      <c r="AE6" s="310"/>
+      <c r="AF6" s="310"/>
+      <c r="AG6" s="311"/>
+      <c r="AH6" s="309"/>
+      <c r="AI6" s="310"/>
+      <c r="AJ6" s="310"/>
+      <c r="AK6" s="310"/>
+      <c r="AL6" s="311"/>
+      <c r="AM6" s="309"/>
+      <c r="AN6" s="310"/>
+      <c r="AO6" s="310"/>
+      <c r="AP6" s="310"/>
+      <c r="AQ6" s="311"/>
     </row>
     <row r="7" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A7" s="260"/>
-      <c r="B7" s="261"/>
-      <c r="C7" s="261"/>
-      <c r="D7" s="261"/>
-      <c r="E7" s="261"/>
-      <c r="F7" s="261"/>
-      <c r="G7" s="261"/>
-      <c r="H7" s="261"/>
-      <c r="I7" s="261"/>
-      <c r="J7" s="261"/>
-      <c r="K7" s="261"/>
-      <c r="L7" s="261"/>
-      <c r="M7" s="261"/>
-      <c r="N7" s="261"/>
-      <c r="O7" s="261"/>
-      <c r="P7" s="261"/>
-      <c r="Q7" s="261"/>
-      <c r="R7" s="261"/>
-      <c r="S7" s="261"/>
-      <c r="T7" s="261"/>
-      <c r="U7" s="261"/>
-      <c r="V7" s="261"/>
-      <c r="W7" s="261"/>
-      <c r="X7" s="261"/>
-      <c r="Y7" s="261"/>
-      <c r="Z7" s="261"/>
-      <c r="AA7" s="261"/>
-      <c r="AB7" s="262"/>
-      <c r="AC7" s="273" t="s">
+      <c r="A7" s="299"/>
+      <c r="B7" s="300"/>
+      <c r="C7" s="300"/>
+      <c r="D7" s="300"/>
+      <c r="E7" s="300"/>
+      <c r="F7" s="300"/>
+      <c r="G7" s="300"/>
+      <c r="H7" s="300"/>
+      <c r="I7" s="300"/>
+      <c r="J7" s="300"/>
+      <c r="K7" s="300"/>
+      <c r="L7" s="300"/>
+      <c r="M7" s="300"/>
+      <c r="N7" s="300"/>
+      <c r="O7" s="300"/>
+      <c r="P7" s="300"/>
+      <c r="Q7" s="300"/>
+      <c r="R7" s="300"/>
+      <c r="S7" s="300"/>
+      <c r="T7" s="300"/>
+      <c r="U7" s="300"/>
+      <c r="V7" s="300"/>
+      <c r="W7" s="300"/>
+      <c r="X7" s="300"/>
+      <c r="Y7" s="300"/>
+      <c r="Z7" s="300"/>
+      <c r="AA7" s="300"/>
+      <c r="AB7" s="301"/>
+      <c r="AC7" s="312" t="s">
         <v>267</v>
       </c>
-      <c r="AD7" s="274"/>
-      <c r="AE7" s="274"/>
-      <c r="AF7" s="274"/>
-      <c r="AG7" s="275"/>
-      <c r="AH7" s="273"/>
-      <c r="AI7" s="274"/>
-      <c r="AJ7" s="274"/>
-      <c r="AK7" s="274"/>
-      <c r="AL7" s="275"/>
-      <c r="AM7" s="279"/>
-      <c r="AN7" s="280"/>
-      <c r="AO7" s="280"/>
-      <c r="AP7" s="280"/>
-      <c r="AQ7" s="281"/>
+      <c r="AD7" s="313"/>
+      <c r="AE7" s="313"/>
+      <c r="AF7" s="313"/>
+      <c r="AG7" s="314"/>
+      <c r="AH7" s="312"/>
+      <c r="AI7" s="313"/>
+      <c r="AJ7" s="313"/>
+      <c r="AK7" s="313"/>
+      <c r="AL7" s="314"/>
+      <c r="AM7" s="318"/>
+      <c r="AN7" s="319"/>
+      <c r="AO7" s="319"/>
+      <c r="AP7" s="319"/>
+      <c r="AQ7" s="320"/>
     </row>
     <row r="8" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A8" s="263"/>
-      <c r="B8" s="264"/>
-      <c r="C8" s="264"/>
-      <c r="D8" s="264"/>
-      <c r="E8" s="264"/>
-      <c r="F8" s="264"/>
-      <c r="G8" s="264"/>
-      <c r="H8" s="264"/>
-      <c r="I8" s="264"/>
-      <c r="J8" s="264"/>
-      <c r="K8" s="264"/>
-      <c r="L8" s="264"/>
-      <c r="M8" s="264"/>
-      <c r="N8" s="264"/>
-      <c r="O8" s="264"/>
-      <c r="P8" s="264"/>
-      <c r="Q8" s="264"/>
-      <c r="R8" s="264"/>
-      <c r="S8" s="264"/>
-      <c r="T8" s="264"/>
-      <c r="U8" s="264"/>
-      <c r="V8" s="264"/>
-      <c r="W8" s="264"/>
-      <c r="X8" s="264"/>
-      <c r="Y8" s="264"/>
-      <c r="Z8" s="264"/>
-      <c r="AA8" s="264"/>
-      <c r="AB8" s="265"/>
-      <c r="AC8" s="276"/>
-      <c r="AD8" s="277"/>
-      <c r="AE8" s="277"/>
-      <c r="AF8" s="277"/>
-      <c r="AG8" s="278"/>
-      <c r="AH8" s="276"/>
-      <c r="AI8" s="277"/>
-      <c r="AJ8" s="277"/>
-      <c r="AK8" s="277"/>
-      <c r="AL8" s="278"/>
-      <c r="AM8" s="282"/>
-      <c r="AN8" s="283"/>
-      <c r="AO8" s="283"/>
-      <c r="AP8" s="283"/>
-      <c r="AQ8" s="284"/>
+      <c r="A8" s="302"/>
+      <c r="B8" s="303"/>
+      <c r="C8" s="303"/>
+      <c r="D8" s="303"/>
+      <c r="E8" s="303"/>
+      <c r="F8" s="303"/>
+      <c r="G8" s="303"/>
+      <c r="H8" s="303"/>
+      <c r="I8" s="303"/>
+      <c r="J8" s="303"/>
+      <c r="K8" s="303"/>
+      <c r="L8" s="303"/>
+      <c r="M8" s="303"/>
+      <c r="N8" s="303"/>
+      <c r="O8" s="303"/>
+      <c r="P8" s="303"/>
+      <c r="Q8" s="303"/>
+      <c r="R8" s="303"/>
+      <c r="S8" s="303"/>
+      <c r="T8" s="303"/>
+      <c r="U8" s="303"/>
+      <c r="V8" s="303"/>
+      <c r="W8" s="303"/>
+      <c r="X8" s="303"/>
+      <c r="Y8" s="303"/>
+      <c r="Z8" s="303"/>
+      <c r="AA8" s="303"/>
+      <c r="AB8" s="304"/>
+      <c r="AC8" s="315"/>
+      <c r="AD8" s="316"/>
+      <c r="AE8" s="316"/>
+      <c r="AF8" s="316"/>
+      <c r="AG8" s="317"/>
+      <c r="AH8" s="315"/>
+      <c r="AI8" s="316"/>
+      <c r="AJ8" s="316"/>
+      <c r="AK8" s="316"/>
+      <c r="AL8" s="317"/>
+      <c r="AM8" s="321"/>
+      <c r="AN8" s="322"/>
+      <c r="AO8" s="322"/>
+      <c r="AP8" s="322"/>
+      <c r="AQ8" s="323"/>
     </row>
     <row r="9" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A9" s="294" t="s">
+      <c r="A9" s="266" t="s">
         <v>255</v>
       </c>
-      <c r="B9" s="295"/>
-      <c r="C9" s="295"/>
-      <c r="D9" s="295"/>
-      <c r="E9" s="295"/>
-      <c r="F9" s="295"/>
-      <c r="G9" s="295"/>
-      <c r="H9" s="296"/>
-      <c r="I9" s="303" t="s">
+      <c r="B9" s="267"/>
+      <c r="C9" s="267"/>
+      <c r="D9" s="267"/>
+      <c r="E9" s="267"/>
+      <c r="F9" s="267"/>
+      <c r="G9" s="267"/>
+      <c r="H9" s="268"/>
+      <c r="I9" s="275" t="s">
         <v>268</v>
       </c>
-      <c r="J9" s="303"/>
-      <c r="K9" s="303"/>
-      <c r="L9" s="303"/>
-      <c r="M9" s="303"/>
-      <c r="N9" s="303"/>
-      <c r="O9" s="303"/>
-      <c r="P9" s="303"/>
-      <c r="Q9" s="303"/>
-      <c r="R9" s="303"/>
-      <c r="S9" s="303"/>
-      <c r="T9" s="303"/>
-      <c r="U9" s="303"/>
-      <c r="V9" s="303"/>
-      <c r="W9" s="303"/>
-      <c r="X9" s="303"/>
-      <c r="Y9" s="303"/>
-      <c r="Z9" s="303"/>
-      <c r="AA9" s="303"/>
-      <c r="AB9" s="303"/>
-      <c r="AC9" s="303"/>
-      <c r="AD9" s="303"/>
-      <c r="AE9" s="303"/>
-      <c r="AF9" s="303"/>
-      <c r="AG9" s="303"/>
-      <c r="AH9" s="303"/>
-      <c r="AI9" s="303"/>
-      <c r="AJ9" s="303"/>
-      <c r="AK9" s="303"/>
-      <c r="AL9" s="303"/>
-      <c r="AM9" s="303"/>
-      <c r="AN9" s="303"/>
-      <c r="AO9" s="303"/>
-      <c r="AP9" s="303"/>
-      <c r="AQ9" s="304"/>
+      <c r="J9" s="275"/>
+      <c r="K9" s="275"/>
+      <c r="L9" s="275"/>
+      <c r="M9" s="275"/>
+      <c r="N9" s="275"/>
+      <c r="O9" s="275"/>
+      <c r="P9" s="275"/>
+      <c r="Q9" s="275"/>
+      <c r="R9" s="275"/>
+      <c r="S9" s="275"/>
+      <c r="T9" s="275"/>
+      <c r="U9" s="275"/>
+      <c r="V9" s="275"/>
+      <c r="W9" s="275"/>
+      <c r="X9" s="275"/>
+      <c r="Y9" s="275"/>
+      <c r="Z9" s="275"/>
+      <c r="AA9" s="275"/>
+      <c r="AB9" s="275"/>
+      <c r="AC9" s="275"/>
+      <c r="AD9" s="275"/>
+      <c r="AE9" s="275"/>
+      <c r="AF9" s="275"/>
+      <c r="AG9" s="275"/>
+      <c r="AH9" s="275"/>
+      <c r="AI9" s="275"/>
+      <c r="AJ9" s="275"/>
+      <c r="AK9" s="275"/>
+      <c r="AL9" s="275"/>
+      <c r="AM9" s="275"/>
+      <c r="AN9" s="275"/>
+      <c r="AO9" s="275"/>
+      <c r="AP9" s="275"/>
+      <c r="AQ9" s="276"/>
     </row>
     <row r="10" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A10" s="297"/>
-      <c r="B10" s="298"/>
-      <c r="C10" s="298"/>
-      <c r="D10" s="298"/>
-      <c r="E10" s="298"/>
-      <c r="F10" s="298"/>
-      <c r="G10" s="298"/>
-      <c r="H10" s="299"/>
-      <c r="I10" s="305"/>
-      <c r="J10" s="305"/>
-      <c r="K10" s="305"/>
-      <c r="L10" s="305"/>
-      <c r="M10" s="305"/>
-      <c r="N10" s="305"/>
-      <c r="O10" s="305"/>
-      <c r="P10" s="305"/>
-      <c r="Q10" s="305"/>
-      <c r="R10" s="305"/>
-      <c r="S10" s="305"/>
-      <c r="T10" s="305"/>
-      <c r="U10" s="305"/>
-      <c r="V10" s="305"/>
-      <c r="W10" s="305"/>
-      <c r="X10" s="305"/>
-      <c r="Y10" s="305"/>
-      <c r="Z10" s="305"/>
-      <c r="AA10" s="305"/>
-      <c r="AB10" s="305"/>
-      <c r="AC10" s="305"/>
-      <c r="AD10" s="305"/>
-      <c r="AE10" s="305"/>
-      <c r="AF10" s="305"/>
-      <c r="AG10" s="305"/>
-      <c r="AH10" s="305"/>
-      <c r="AI10" s="305"/>
-      <c r="AJ10" s="305"/>
-      <c r="AK10" s="305"/>
-      <c r="AL10" s="305"/>
-      <c r="AM10" s="305"/>
-      <c r="AN10" s="305"/>
-      <c r="AO10" s="305"/>
-      <c r="AP10" s="305"/>
-      <c r="AQ10" s="306"/>
+      <c r="A10" s="269"/>
+      <c r="B10" s="270"/>
+      <c r="C10" s="270"/>
+      <c r="D10" s="270"/>
+      <c r="E10" s="270"/>
+      <c r="F10" s="270"/>
+      <c r="G10" s="270"/>
+      <c r="H10" s="271"/>
+      <c r="I10" s="277"/>
+      <c r="J10" s="277"/>
+      <c r="K10" s="277"/>
+      <c r="L10" s="277"/>
+      <c r="M10" s="277"/>
+      <c r="N10" s="277"/>
+      <c r="O10" s="277"/>
+      <c r="P10" s="277"/>
+      <c r="Q10" s="277"/>
+      <c r="R10" s="277"/>
+      <c r="S10" s="277"/>
+      <c r="T10" s="277"/>
+      <c r="U10" s="277"/>
+      <c r="V10" s="277"/>
+      <c r="W10" s="277"/>
+      <c r="X10" s="277"/>
+      <c r="Y10" s="277"/>
+      <c r="Z10" s="277"/>
+      <c r="AA10" s="277"/>
+      <c r="AB10" s="277"/>
+      <c r="AC10" s="277"/>
+      <c r="AD10" s="277"/>
+      <c r="AE10" s="277"/>
+      <c r="AF10" s="277"/>
+      <c r="AG10" s="277"/>
+      <c r="AH10" s="277"/>
+      <c r="AI10" s="277"/>
+      <c r="AJ10" s="277"/>
+      <c r="AK10" s="277"/>
+      <c r="AL10" s="277"/>
+      <c r="AM10" s="277"/>
+      <c r="AN10" s="277"/>
+      <c r="AO10" s="277"/>
+      <c r="AP10" s="277"/>
+      <c r="AQ10" s="278"/>
     </row>
     <row r="11" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A11" s="300"/>
-      <c r="B11" s="301"/>
-      <c r="C11" s="301"/>
-      <c r="D11" s="301"/>
-      <c r="E11" s="301"/>
-      <c r="F11" s="301"/>
-      <c r="G11" s="301"/>
-      <c r="H11" s="302"/>
-      <c r="I11" s="307"/>
-      <c r="J11" s="307"/>
-      <c r="K11" s="307"/>
-      <c r="L11" s="307"/>
-      <c r="M11" s="307"/>
-      <c r="N11" s="307"/>
-      <c r="O11" s="307"/>
-      <c r="P11" s="307"/>
-      <c r="Q11" s="307"/>
-      <c r="R11" s="307"/>
-      <c r="S11" s="307"/>
-      <c r="T11" s="307"/>
-      <c r="U11" s="307"/>
-      <c r="V11" s="307"/>
-      <c r="W11" s="307"/>
-      <c r="X11" s="307"/>
-      <c r="Y11" s="307"/>
-      <c r="Z11" s="307"/>
-      <c r="AA11" s="307"/>
-      <c r="AB11" s="307"/>
-      <c r="AC11" s="307"/>
-      <c r="AD11" s="307"/>
-      <c r="AE11" s="307"/>
-      <c r="AF11" s="307"/>
-      <c r="AG11" s="307"/>
-      <c r="AH11" s="307"/>
-      <c r="AI11" s="307"/>
-      <c r="AJ11" s="307"/>
-      <c r="AK11" s="307"/>
-      <c r="AL11" s="307"/>
-      <c r="AM11" s="307"/>
-      <c r="AN11" s="307"/>
-      <c r="AO11" s="307"/>
-      <c r="AP11" s="307"/>
-      <c r="AQ11" s="308"/>
+      <c r="A11" s="272"/>
+      <c r="B11" s="273"/>
+      <c r="C11" s="273"/>
+      <c r="D11" s="273"/>
+      <c r="E11" s="273"/>
+      <c r="F11" s="273"/>
+      <c r="G11" s="273"/>
+      <c r="H11" s="274"/>
+      <c r="I11" s="279"/>
+      <c r="J11" s="279"/>
+      <c r="K11" s="279"/>
+      <c r="L11" s="279"/>
+      <c r="M11" s="279"/>
+      <c r="N11" s="279"/>
+      <c r="O11" s="279"/>
+      <c r="P11" s="279"/>
+      <c r="Q11" s="279"/>
+      <c r="R11" s="279"/>
+      <c r="S11" s="279"/>
+      <c r="T11" s="279"/>
+      <c r="U11" s="279"/>
+      <c r="V11" s="279"/>
+      <c r="W11" s="279"/>
+      <c r="X11" s="279"/>
+      <c r="Y11" s="279"/>
+      <c r="Z11" s="279"/>
+      <c r="AA11" s="279"/>
+      <c r="AB11" s="279"/>
+      <c r="AC11" s="279"/>
+      <c r="AD11" s="279"/>
+      <c r="AE11" s="279"/>
+      <c r="AF11" s="279"/>
+      <c r="AG11" s="279"/>
+      <c r="AH11" s="279"/>
+      <c r="AI11" s="279"/>
+      <c r="AJ11" s="279"/>
+      <c r="AK11" s="279"/>
+      <c r="AL11" s="279"/>
+      <c r="AM11" s="279"/>
+      <c r="AN11" s="279"/>
+      <c r="AO11" s="279"/>
+      <c r="AP11" s="279"/>
+      <c r="AQ11" s="280"/>
     </row>
     <row r="12" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A12" s="294" t="s">
+      <c r="A12" s="266" t="s">
         <v>256</v>
       </c>
-      <c r="B12" s="295"/>
-      <c r="C12" s="295"/>
-      <c r="D12" s="295"/>
-      <c r="E12" s="295"/>
-      <c r="F12" s="295"/>
-      <c r="G12" s="295"/>
-      <c r="H12" s="296"/>
-      <c r="I12" s="309" t="s">
+      <c r="B12" s="267"/>
+      <c r="C12" s="267"/>
+      <c r="D12" s="267"/>
+      <c r="E12" s="267"/>
+      <c r="F12" s="267"/>
+      <c r="G12" s="267"/>
+      <c r="H12" s="268"/>
+      <c r="I12" s="281" t="s">
         <v>185</v>
       </c>
-      <c r="J12" s="303"/>
-      <c r="K12" s="303"/>
-      <c r="L12" s="303"/>
-      <c r="M12" s="303"/>
-      <c r="N12" s="303"/>
-      <c r="O12" s="303"/>
-      <c r="P12" s="303"/>
-      <c r="Q12" s="303"/>
-      <c r="R12" s="303"/>
-      <c r="S12" s="303"/>
-      <c r="T12" s="303"/>
-      <c r="U12" s="303"/>
-      <c r="V12" s="303"/>
-      <c r="W12" s="303"/>
-      <c r="X12" s="303"/>
-      <c r="Y12" s="303"/>
-      <c r="Z12" s="303"/>
-      <c r="AA12" s="303"/>
-      <c r="AB12" s="303"/>
-      <c r="AC12" s="303"/>
-      <c r="AD12" s="303"/>
-      <c r="AE12" s="303"/>
-      <c r="AF12" s="303"/>
-      <c r="AG12" s="303"/>
-      <c r="AH12" s="303"/>
-      <c r="AI12" s="303"/>
-      <c r="AJ12" s="303"/>
-      <c r="AK12" s="303"/>
-      <c r="AL12" s="303"/>
-      <c r="AM12" s="303"/>
-      <c r="AN12" s="303"/>
-      <c r="AO12" s="303"/>
-      <c r="AP12" s="303"/>
-      <c r="AQ12" s="304"/>
+      <c r="J12" s="275"/>
+      <c r="K12" s="275"/>
+      <c r="L12" s="275"/>
+      <c r="M12" s="275"/>
+      <c r="N12" s="275"/>
+      <c r="O12" s="275"/>
+      <c r="P12" s="275"/>
+      <c r="Q12" s="275"/>
+      <c r="R12" s="275"/>
+      <c r="S12" s="275"/>
+      <c r="T12" s="275"/>
+      <c r="U12" s="275"/>
+      <c r="V12" s="275"/>
+      <c r="W12" s="275"/>
+      <c r="X12" s="275"/>
+      <c r="Y12" s="275"/>
+      <c r="Z12" s="275"/>
+      <c r="AA12" s="275"/>
+      <c r="AB12" s="275"/>
+      <c r="AC12" s="275"/>
+      <c r="AD12" s="275"/>
+      <c r="AE12" s="275"/>
+      <c r="AF12" s="275"/>
+      <c r="AG12" s="275"/>
+      <c r="AH12" s="275"/>
+      <c r="AI12" s="275"/>
+      <c r="AJ12" s="275"/>
+      <c r="AK12" s="275"/>
+      <c r="AL12" s="275"/>
+      <c r="AM12" s="275"/>
+      <c r="AN12" s="275"/>
+      <c r="AO12" s="275"/>
+      <c r="AP12" s="275"/>
+      <c r="AQ12" s="276"/>
     </row>
     <row r="13" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A13" s="297"/>
-      <c r="B13" s="298"/>
-      <c r="C13" s="298"/>
-      <c r="D13" s="298"/>
-      <c r="E13" s="298"/>
-      <c r="F13" s="298"/>
-      <c r="G13" s="298"/>
-      <c r="H13" s="299"/>
-      <c r="I13" s="310"/>
-      <c r="J13" s="305"/>
-      <c r="K13" s="305"/>
-      <c r="L13" s="305"/>
-      <c r="M13" s="305"/>
-      <c r="N13" s="305"/>
-      <c r="O13" s="305"/>
-      <c r="P13" s="305"/>
-      <c r="Q13" s="305"/>
-      <c r="R13" s="305"/>
-      <c r="S13" s="305"/>
-      <c r="T13" s="305"/>
-      <c r="U13" s="305"/>
-      <c r="V13" s="305"/>
-      <c r="W13" s="305"/>
-      <c r="X13" s="305"/>
-      <c r="Y13" s="305"/>
-      <c r="Z13" s="305"/>
-      <c r="AA13" s="305"/>
-      <c r="AB13" s="305"/>
-      <c r="AC13" s="305"/>
-      <c r="AD13" s="305"/>
-      <c r="AE13" s="305"/>
-      <c r="AF13" s="305"/>
-      <c r="AG13" s="305"/>
-      <c r="AH13" s="305"/>
-      <c r="AI13" s="305"/>
-      <c r="AJ13" s="305"/>
-      <c r="AK13" s="305"/>
-      <c r="AL13" s="305"/>
-      <c r="AM13" s="305"/>
-      <c r="AN13" s="305"/>
-      <c r="AO13" s="305"/>
-      <c r="AP13" s="305"/>
-      <c r="AQ13" s="306"/>
+      <c r="A13" s="269"/>
+      <c r="B13" s="270"/>
+      <c r="C13" s="270"/>
+      <c r="D13" s="270"/>
+      <c r="E13" s="270"/>
+      <c r="F13" s="270"/>
+      <c r="G13" s="270"/>
+      <c r="H13" s="271"/>
+      <c r="I13" s="282"/>
+      <c r="J13" s="277"/>
+      <c r="K13" s="277"/>
+      <c r="L13" s="277"/>
+      <c r="M13" s="277"/>
+      <c r="N13" s="277"/>
+      <c r="O13" s="277"/>
+      <c r="P13" s="277"/>
+      <c r="Q13" s="277"/>
+      <c r="R13" s="277"/>
+      <c r="S13" s="277"/>
+      <c r="T13" s="277"/>
+      <c r="U13" s="277"/>
+      <c r="V13" s="277"/>
+      <c r="W13" s="277"/>
+      <c r="X13" s="277"/>
+      <c r="Y13" s="277"/>
+      <c r="Z13" s="277"/>
+      <c r="AA13" s="277"/>
+      <c r="AB13" s="277"/>
+      <c r="AC13" s="277"/>
+      <c r="AD13" s="277"/>
+      <c r="AE13" s="277"/>
+      <c r="AF13" s="277"/>
+      <c r="AG13" s="277"/>
+      <c r="AH13" s="277"/>
+      <c r="AI13" s="277"/>
+      <c r="AJ13" s="277"/>
+      <c r="AK13" s="277"/>
+      <c r="AL13" s="277"/>
+      <c r="AM13" s="277"/>
+      <c r="AN13" s="277"/>
+      <c r="AO13" s="277"/>
+      <c r="AP13" s="277"/>
+      <c r="AQ13" s="278"/>
     </row>
     <row r="14" spans="1:43" ht="15" customHeight="1">
-      <c r="A14" s="300"/>
-      <c r="B14" s="301"/>
-      <c r="C14" s="301"/>
-      <c r="D14" s="301"/>
-      <c r="E14" s="301"/>
-      <c r="F14" s="301"/>
-      <c r="G14" s="301"/>
-      <c r="H14" s="302"/>
-      <c r="I14" s="311"/>
-      <c r="J14" s="307"/>
-      <c r="K14" s="307"/>
-      <c r="L14" s="307"/>
-      <c r="M14" s="307"/>
-      <c r="N14" s="307"/>
-      <c r="O14" s="307"/>
-      <c r="P14" s="307"/>
-      <c r="Q14" s="307"/>
-      <c r="R14" s="307"/>
-      <c r="S14" s="307"/>
-      <c r="T14" s="307"/>
-      <c r="U14" s="307"/>
-      <c r="V14" s="307"/>
-      <c r="W14" s="307"/>
-      <c r="X14" s="307"/>
-      <c r="Y14" s="307"/>
-      <c r="Z14" s="307"/>
-      <c r="AA14" s="307"/>
-      <c r="AB14" s="307"/>
-      <c r="AC14" s="307"/>
-      <c r="AD14" s="307"/>
-      <c r="AE14" s="307"/>
-      <c r="AF14" s="307"/>
-      <c r="AG14" s="307"/>
-      <c r="AH14" s="307"/>
-      <c r="AI14" s="307"/>
-      <c r="AJ14" s="307"/>
-      <c r="AK14" s="307"/>
-      <c r="AL14" s="307"/>
-      <c r="AM14" s="307"/>
-      <c r="AN14" s="307"/>
-      <c r="AO14" s="307"/>
-      <c r="AP14" s="307"/>
-      <c r="AQ14" s="308"/>
+      <c r="A14" s="272"/>
+      <c r="B14" s="273"/>
+      <c r="C14" s="273"/>
+      <c r="D14" s="273"/>
+      <c r="E14" s="273"/>
+      <c r="F14" s="273"/>
+      <c r="G14" s="273"/>
+      <c r="H14" s="274"/>
+      <c r="I14" s="283"/>
+      <c r="J14" s="279"/>
+      <c r="K14" s="279"/>
+      <c r="L14" s="279"/>
+      <c r="M14" s="279"/>
+      <c r="N14" s="279"/>
+      <c r="O14" s="279"/>
+      <c r="P14" s="279"/>
+      <c r="Q14" s="279"/>
+      <c r="R14" s="279"/>
+      <c r="S14" s="279"/>
+      <c r="T14" s="279"/>
+      <c r="U14" s="279"/>
+      <c r="V14" s="279"/>
+      <c r="W14" s="279"/>
+      <c r="X14" s="279"/>
+      <c r="Y14" s="279"/>
+      <c r="Z14" s="279"/>
+      <c r="AA14" s="279"/>
+      <c r="AB14" s="279"/>
+      <c r="AC14" s="279"/>
+      <c r="AD14" s="279"/>
+      <c r="AE14" s="279"/>
+      <c r="AF14" s="279"/>
+      <c r="AG14" s="279"/>
+      <c r="AH14" s="279"/>
+      <c r="AI14" s="279"/>
+      <c r="AJ14" s="279"/>
+      <c r="AK14" s="279"/>
+      <c r="AL14" s="279"/>
+      <c r="AM14" s="279"/>
+      <c r="AN14" s="279"/>
+      <c r="AO14" s="279"/>
+      <c r="AP14" s="279"/>
+      <c r="AQ14" s="280"/>
     </row>
     <row r="15" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A15" s="294" t="s">
+      <c r="A15" s="266" t="s">
         <v>257</v>
       </c>
-      <c r="B15" s="295"/>
-      <c r="C15" s="295"/>
-      <c r="D15" s="295"/>
-      <c r="E15" s="295"/>
-      <c r="F15" s="295"/>
-      <c r="G15" s="295"/>
-      <c r="H15" s="296"/>
-      <c r="I15" s="309" t="s">
+      <c r="B15" s="267"/>
+      <c r="C15" s="267"/>
+      <c r="D15" s="267"/>
+      <c r="E15" s="267"/>
+      <c r="F15" s="267"/>
+      <c r="G15" s="267"/>
+      <c r="H15" s="268"/>
+      <c r="I15" s="281" t="s">
         <v>265</v>
       </c>
-      <c r="J15" s="303"/>
-      <c r="K15" s="303"/>
-      <c r="L15" s="303"/>
-      <c r="M15" s="303"/>
-      <c r="N15" s="303"/>
-      <c r="O15" s="303"/>
-      <c r="P15" s="303"/>
-      <c r="Q15" s="303"/>
-      <c r="R15" s="303"/>
-      <c r="S15" s="303"/>
-      <c r="T15" s="303"/>
-      <c r="U15" s="303"/>
-      <c r="V15" s="303"/>
-      <c r="W15" s="303"/>
-      <c r="X15" s="303"/>
-      <c r="Y15" s="303"/>
-      <c r="Z15" s="303"/>
-      <c r="AA15" s="303"/>
-      <c r="AB15" s="303"/>
-      <c r="AC15" s="303"/>
-      <c r="AD15" s="303"/>
-      <c r="AE15" s="303"/>
-      <c r="AF15" s="303"/>
-      <c r="AG15" s="303"/>
-      <c r="AH15" s="303"/>
-      <c r="AI15" s="303"/>
-      <c r="AJ15" s="303"/>
-      <c r="AK15" s="303"/>
-      <c r="AL15" s="303"/>
-      <c r="AM15" s="303"/>
-      <c r="AN15" s="303"/>
-      <c r="AO15" s="303"/>
-      <c r="AP15" s="303"/>
-      <c r="AQ15" s="304"/>
+      <c r="J15" s="275"/>
+      <c r="K15" s="275"/>
+      <c r="L15" s="275"/>
+      <c r="M15" s="275"/>
+      <c r="N15" s="275"/>
+      <c r="O15" s="275"/>
+      <c r="P15" s="275"/>
+      <c r="Q15" s="275"/>
+      <c r="R15" s="275"/>
+      <c r="S15" s="275"/>
+      <c r="T15" s="275"/>
+      <c r="U15" s="275"/>
+      <c r="V15" s="275"/>
+      <c r="W15" s="275"/>
+      <c r="X15" s="275"/>
+      <c r="Y15" s="275"/>
+      <c r="Z15" s="275"/>
+      <c r="AA15" s="275"/>
+      <c r="AB15" s="275"/>
+      <c r="AC15" s="275"/>
+      <c r="AD15" s="275"/>
+      <c r="AE15" s="275"/>
+      <c r="AF15" s="275"/>
+      <c r="AG15" s="275"/>
+      <c r="AH15" s="275"/>
+      <c r="AI15" s="275"/>
+      <c r="AJ15" s="275"/>
+      <c r="AK15" s="275"/>
+      <c r="AL15" s="275"/>
+      <c r="AM15" s="275"/>
+      <c r="AN15" s="275"/>
+      <c r="AO15" s="275"/>
+      <c r="AP15" s="275"/>
+      <c r="AQ15" s="276"/>
     </row>
     <row r="16" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A16" s="297"/>
-      <c r="B16" s="298"/>
-      <c r="C16" s="298"/>
-      <c r="D16" s="298"/>
-      <c r="E16" s="298"/>
-      <c r="F16" s="298"/>
-      <c r="G16" s="298"/>
-      <c r="H16" s="299"/>
-      <c r="I16" s="310"/>
-      <c r="J16" s="305"/>
-      <c r="K16" s="305"/>
-      <c r="L16" s="305"/>
-      <c r="M16" s="305"/>
-      <c r="N16" s="305"/>
-      <c r="O16" s="305"/>
-      <c r="P16" s="305"/>
-      <c r="Q16" s="305"/>
-      <c r="R16" s="305"/>
-      <c r="S16" s="305"/>
-      <c r="T16" s="305"/>
-      <c r="U16" s="305"/>
-      <c r="V16" s="305"/>
-      <c r="W16" s="305"/>
-      <c r="X16" s="305"/>
-      <c r="Y16" s="305"/>
-      <c r="Z16" s="305"/>
-      <c r="AA16" s="305"/>
-      <c r="AB16" s="305"/>
-      <c r="AC16" s="305"/>
-      <c r="AD16" s="305"/>
-      <c r="AE16" s="305"/>
-      <c r="AF16" s="305"/>
-      <c r="AG16" s="305"/>
-      <c r="AH16" s="305"/>
-      <c r="AI16" s="305"/>
-      <c r="AJ16" s="305"/>
-      <c r="AK16" s="305"/>
-      <c r="AL16" s="305"/>
-      <c r="AM16" s="305"/>
-      <c r="AN16" s="305"/>
-      <c r="AO16" s="305"/>
-      <c r="AP16" s="305"/>
-      <c r="AQ16" s="306"/>
+      <c r="A16" s="269"/>
+      <c r="B16" s="270"/>
+      <c r="C16" s="270"/>
+      <c r="D16" s="270"/>
+      <c r="E16" s="270"/>
+      <c r="F16" s="270"/>
+      <c r="G16" s="270"/>
+      <c r="H16" s="271"/>
+      <c r="I16" s="282"/>
+      <c r="J16" s="277"/>
+      <c r="K16" s="277"/>
+      <c r="L16" s="277"/>
+      <c r="M16" s="277"/>
+      <c r="N16" s="277"/>
+      <c r="O16" s="277"/>
+      <c r="P16" s="277"/>
+      <c r="Q16" s="277"/>
+      <c r="R16" s="277"/>
+      <c r="S16" s="277"/>
+      <c r="T16" s="277"/>
+      <c r="U16" s="277"/>
+      <c r="V16" s="277"/>
+      <c r="W16" s="277"/>
+      <c r="X16" s="277"/>
+      <c r="Y16" s="277"/>
+      <c r="Z16" s="277"/>
+      <c r="AA16" s="277"/>
+      <c r="AB16" s="277"/>
+      <c r="AC16" s="277"/>
+      <c r="AD16" s="277"/>
+      <c r="AE16" s="277"/>
+      <c r="AF16" s="277"/>
+      <c r="AG16" s="277"/>
+      <c r="AH16" s="277"/>
+      <c r="AI16" s="277"/>
+      <c r="AJ16" s="277"/>
+      <c r="AK16" s="277"/>
+      <c r="AL16" s="277"/>
+      <c r="AM16" s="277"/>
+      <c r="AN16" s="277"/>
+      <c r="AO16" s="277"/>
+      <c r="AP16" s="277"/>
+      <c r="AQ16" s="278"/>
     </row>
     <row r="17" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A17" s="300"/>
-      <c r="B17" s="301"/>
-      <c r="C17" s="301"/>
-      <c r="D17" s="301"/>
-      <c r="E17" s="301"/>
-      <c r="F17" s="301"/>
-      <c r="G17" s="301"/>
-      <c r="H17" s="302"/>
-      <c r="I17" s="311"/>
-      <c r="J17" s="307"/>
-      <c r="K17" s="307"/>
-      <c r="L17" s="307"/>
-      <c r="M17" s="307"/>
-      <c r="N17" s="307"/>
-      <c r="O17" s="307"/>
-      <c r="P17" s="307"/>
-      <c r="Q17" s="307"/>
-      <c r="R17" s="307"/>
-      <c r="S17" s="307"/>
-      <c r="T17" s="307"/>
-      <c r="U17" s="307"/>
-      <c r="V17" s="307"/>
-      <c r="W17" s="307"/>
-      <c r="X17" s="307"/>
-      <c r="Y17" s="307"/>
-      <c r="Z17" s="307"/>
-      <c r="AA17" s="307"/>
-      <c r="AB17" s="307"/>
-      <c r="AC17" s="307"/>
-      <c r="AD17" s="307"/>
-      <c r="AE17" s="307"/>
-      <c r="AF17" s="307"/>
-      <c r="AG17" s="307"/>
-      <c r="AH17" s="307"/>
-      <c r="AI17" s="307"/>
-      <c r="AJ17" s="307"/>
-      <c r="AK17" s="307"/>
-      <c r="AL17" s="307"/>
-      <c r="AM17" s="307"/>
-      <c r="AN17" s="307"/>
-      <c r="AO17" s="307"/>
-      <c r="AP17" s="307"/>
-      <c r="AQ17" s="308"/>
+      <c r="A17" s="272"/>
+      <c r="B17" s="273"/>
+      <c r="C17" s="273"/>
+      <c r="D17" s="273"/>
+      <c r="E17" s="273"/>
+      <c r="F17" s="273"/>
+      <c r="G17" s="273"/>
+      <c r="H17" s="274"/>
+      <c r="I17" s="283"/>
+      <c r="J17" s="279"/>
+      <c r="K17" s="279"/>
+      <c r="L17" s="279"/>
+      <c r="M17" s="279"/>
+      <c r="N17" s="279"/>
+      <c r="O17" s="279"/>
+      <c r="P17" s="279"/>
+      <c r="Q17" s="279"/>
+      <c r="R17" s="279"/>
+      <c r="S17" s="279"/>
+      <c r="T17" s="279"/>
+      <c r="U17" s="279"/>
+      <c r="V17" s="279"/>
+      <c r="W17" s="279"/>
+      <c r="X17" s="279"/>
+      <c r="Y17" s="279"/>
+      <c r="Z17" s="279"/>
+      <c r="AA17" s="279"/>
+      <c r="AB17" s="279"/>
+      <c r="AC17" s="279"/>
+      <c r="AD17" s="279"/>
+      <c r="AE17" s="279"/>
+      <c r="AF17" s="279"/>
+      <c r="AG17" s="279"/>
+      <c r="AH17" s="279"/>
+      <c r="AI17" s="279"/>
+      <c r="AJ17" s="279"/>
+      <c r="AK17" s="279"/>
+      <c r="AL17" s="279"/>
+      <c r="AM17" s="279"/>
+      <c r="AN17" s="279"/>
+      <c r="AO17" s="279"/>
+      <c r="AP17" s="279"/>
+      <c r="AQ17" s="280"/>
     </row>
     <row r="18" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A18" s="294" t="s">
+      <c r="A18" s="266" t="s">
         <v>258</v>
       </c>
-      <c r="B18" s="295"/>
-      <c r="C18" s="295"/>
-      <c r="D18" s="295"/>
-      <c r="E18" s="295"/>
-      <c r="F18" s="295"/>
-      <c r="G18" s="295"/>
-      <c r="H18" s="296"/>
-      <c r="I18" s="312" t="s">
+      <c r="B18" s="267"/>
+      <c r="C18" s="267"/>
+      <c r="D18" s="267"/>
+      <c r="E18" s="267"/>
+      <c r="F18" s="267"/>
+      <c r="G18" s="267"/>
+      <c r="H18" s="268"/>
+      <c r="I18" s="284" t="s">
         <v>259</v>
       </c>
-      <c r="J18" s="313"/>
-      <c r="K18" s="313"/>
-      <c r="L18" s="313"/>
-      <c r="M18" s="313"/>
-      <c r="N18" s="313"/>
-      <c r="O18" s="313"/>
-      <c r="P18" s="313"/>
-      <c r="Q18" s="314"/>
-      <c r="R18" s="315" t="s">
+      <c r="J18" s="285"/>
+      <c r="K18" s="285"/>
+      <c r="L18" s="285"/>
+      <c r="M18" s="285"/>
+      <c r="N18" s="285"/>
+      <c r="O18" s="285"/>
+      <c r="P18" s="285"/>
+      <c r="Q18" s="286"/>
+      <c r="R18" s="287" t="s">
         <v>260</v>
       </c>
-      <c r="S18" s="316"/>
-      <c r="T18" s="316"/>
-      <c r="U18" s="316"/>
-      <c r="V18" s="316"/>
-      <c r="W18" s="316"/>
-      <c r="X18" s="316"/>
-      <c r="Y18" s="316"/>
-      <c r="Z18" s="316"/>
-      <c r="AA18" s="316"/>
-      <c r="AB18" s="316"/>
-      <c r="AC18" s="316"/>
-      <c r="AD18" s="316"/>
-      <c r="AE18" s="316"/>
-      <c r="AF18" s="316"/>
-      <c r="AG18" s="316"/>
-      <c r="AH18" s="316"/>
-      <c r="AI18" s="316"/>
-      <c r="AJ18" s="316"/>
-      <c r="AK18" s="316"/>
-      <c r="AL18" s="316"/>
-      <c r="AM18" s="316"/>
-      <c r="AN18" s="316"/>
-      <c r="AO18" s="316"/>
-      <c r="AP18" s="316"/>
-      <c r="AQ18" s="317"/>
+      <c r="S18" s="288"/>
+      <c r="T18" s="288"/>
+      <c r="U18" s="288"/>
+      <c r="V18" s="288"/>
+      <c r="W18" s="288"/>
+      <c r="X18" s="288"/>
+      <c r="Y18" s="288"/>
+      <c r="Z18" s="288"/>
+      <c r="AA18" s="288"/>
+      <c r="AB18" s="288"/>
+      <c r="AC18" s="288"/>
+      <c r="AD18" s="288"/>
+      <c r="AE18" s="288"/>
+      <c r="AF18" s="288"/>
+      <c r="AG18" s="288"/>
+      <c r="AH18" s="288"/>
+      <c r="AI18" s="288"/>
+      <c r="AJ18" s="288"/>
+      <c r="AK18" s="288"/>
+      <c r="AL18" s="288"/>
+      <c r="AM18" s="288"/>
+      <c r="AN18" s="288"/>
+      <c r="AO18" s="288"/>
+      <c r="AP18" s="288"/>
+      <c r="AQ18" s="289"/>
     </row>
     <row r="19" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A19" s="297"/>
-      <c r="B19" s="298"/>
-      <c r="C19" s="298"/>
-      <c r="D19" s="298"/>
-      <c r="E19" s="298"/>
-      <c r="F19" s="298"/>
-      <c r="G19" s="298"/>
-      <c r="H19" s="299"/>
-      <c r="I19" s="318" t="s">
+      <c r="A19" s="269"/>
+      <c r="B19" s="270"/>
+      <c r="C19" s="270"/>
+      <c r="D19" s="270"/>
+      <c r="E19" s="270"/>
+      <c r="F19" s="270"/>
+      <c r="G19" s="270"/>
+      <c r="H19" s="271"/>
+      <c r="I19" s="290" t="s">
         <v>161</v>
       </c>
-      <c r="J19" s="319"/>
-      <c r="K19" s="319"/>
-      <c r="L19" s="319"/>
-      <c r="M19" s="319"/>
-      <c r="N19" s="319"/>
-      <c r="O19" s="319"/>
-      <c r="P19" s="319"/>
-      <c r="Q19" s="320"/>
-      <c r="R19" s="309" t="s">
+      <c r="J19" s="291"/>
+      <c r="K19" s="291"/>
+      <c r="L19" s="291"/>
+      <c r="M19" s="291"/>
+      <c r="N19" s="291"/>
+      <c r="O19" s="291"/>
+      <c r="P19" s="291"/>
+      <c r="Q19" s="292"/>
+      <c r="R19" s="281" t="s">
         <v>266</v>
       </c>
-      <c r="S19" s="303"/>
-      <c r="T19" s="303"/>
-      <c r="U19" s="303"/>
-      <c r="V19" s="303"/>
-      <c r="W19" s="303"/>
-      <c r="X19" s="303"/>
-      <c r="Y19" s="303"/>
-      <c r="Z19" s="303"/>
-      <c r="AA19" s="303"/>
-      <c r="AB19" s="303"/>
-      <c r="AC19" s="303"/>
-      <c r="AD19" s="303"/>
-      <c r="AE19" s="303"/>
-      <c r="AF19" s="303"/>
-      <c r="AG19" s="303"/>
-      <c r="AH19" s="303"/>
-      <c r="AI19" s="303"/>
-      <c r="AJ19" s="303"/>
-      <c r="AK19" s="303"/>
-      <c r="AL19" s="303"/>
-      <c r="AM19" s="303"/>
-      <c r="AN19" s="303"/>
-      <c r="AO19" s="303"/>
-      <c r="AP19" s="303"/>
-      <c r="AQ19" s="304"/>
+      <c r="S19" s="275"/>
+      <c r="T19" s="275"/>
+      <c r="U19" s="275"/>
+      <c r="V19" s="275"/>
+      <c r="W19" s="275"/>
+      <c r="X19" s="275"/>
+      <c r="Y19" s="275"/>
+      <c r="Z19" s="275"/>
+      <c r="AA19" s="275"/>
+      <c r="AB19" s="275"/>
+      <c r="AC19" s="275"/>
+      <c r="AD19" s="275"/>
+      <c r="AE19" s="275"/>
+      <c r="AF19" s="275"/>
+      <c r="AG19" s="275"/>
+      <c r="AH19" s="275"/>
+      <c r="AI19" s="275"/>
+      <c r="AJ19" s="275"/>
+      <c r="AK19" s="275"/>
+      <c r="AL19" s="275"/>
+      <c r="AM19" s="275"/>
+      <c r="AN19" s="275"/>
+      <c r="AO19" s="275"/>
+      <c r="AP19" s="275"/>
+      <c r="AQ19" s="276"/>
     </row>
     <row r="20" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A20" s="300"/>
-      <c r="B20" s="301"/>
-      <c r="C20" s="301"/>
-      <c r="D20" s="301"/>
-      <c r="E20" s="301"/>
-      <c r="F20" s="301"/>
-      <c r="G20" s="301"/>
-      <c r="H20" s="302"/>
-      <c r="I20" s="321"/>
-      <c r="J20" s="322"/>
-      <c r="K20" s="322"/>
-      <c r="L20" s="322"/>
-      <c r="M20" s="322"/>
-      <c r="N20" s="322"/>
-      <c r="O20" s="322"/>
-      <c r="P20" s="322"/>
-      <c r="Q20" s="323"/>
-      <c r="R20" s="311"/>
-      <c r="S20" s="307"/>
-      <c r="T20" s="307"/>
-      <c r="U20" s="307"/>
-      <c r="V20" s="307"/>
-      <c r="W20" s="307"/>
-      <c r="X20" s="307"/>
-      <c r="Y20" s="307"/>
-      <c r="Z20" s="307"/>
-      <c r="AA20" s="307"/>
-      <c r="AB20" s="307"/>
-      <c r="AC20" s="307"/>
-      <c r="AD20" s="307"/>
-      <c r="AE20" s="307"/>
-      <c r="AF20" s="307"/>
-      <c r="AG20" s="307"/>
-      <c r="AH20" s="307"/>
-      <c r="AI20" s="307"/>
-      <c r="AJ20" s="307"/>
-      <c r="AK20" s="307"/>
-      <c r="AL20" s="307"/>
-      <c r="AM20" s="307"/>
-      <c r="AN20" s="307"/>
-      <c r="AO20" s="307"/>
-      <c r="AP20" s="307"/>
-      <c r="AQ20" s="308"/>
+      <c r="A20" s="272"/>
+      <c r="B20" s="273"/>
+      <c r="C20" s="273"/>
+      <c r="D20" s="273"/>
+      <c r="E20" s="273"/>
+      <c r="F20" s="273"/>
+      <c r="G20" s="273"/>
+      <c r="H20" s="274"/>
+      <c r="I20" s="293"/>
+      <c r="J20" s="294"/>
+      <c r="K20" s="294"/>
+      <c r="L20" s="294"/>
+      <c r="M20" s="294"/>
+      <c r="N20" s="294"/>
+      <c r="O20" s="294"/>
+      <c r="P20" s="294"/>
+      <c r="Q20" s="295"/>
+      <c r="R20" s="283"/>
+      <c r="S20" s="279"/>
+      <c r="T20" s="279"/>
+      <c r="U20" s="279"/>
+      <c r="V20" s="279"/>
+      <c r="W20" s="279"/>
+      <c r="X20" s="279"/>
+      <c r="Y20" s="279"/>
+      <c r="Z20" s="279"/>
+      <c r="AA20" s="279"/>
+      <c r="AB20" s="279"/>
+      <c r="AC20" s="279"/>
+      <c r="AD20" s="279"/>
+      <c r="AE20" s="279"/>
+      <c r="AF20" s="279"/>
+      <c r="AG20" s="279"/>
+      <c r="AH20" s="279"/>
+      <c r="AI20" s="279"/>
+      <c r="AJ20" s="279"/>
+      <c r="AK20" s="279"/>
+      <c r="AL20" s="279"/>
+      <c r="AM20" s="279"/>
+      <c r="AN20" s="279"/>
+      <c r="AO20" s="279"/>
+      <c r="AP20" s="279"/>
+      <c r="AQ20" s="280"/>
     </row>
     <row r="21" spans="1:43" ht="15.65" customHeight="1">
       <c r="A21" s="1"/>
@@ -7151,100 +7151,100 @@
       <c r="AQ26" s="3"/>
     </row>
     <row r="27" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A27" s="288">
+      <c r="A27" s="260">
         <f>MAX('Change log'!C6:F52)</f>
         <v>1.3</v>
       </c>
-      <c r="B27" s="289"/>
-      <c r="C27" s="289"/>
-      <c r="D27" s="289"/>
-      <c r="E27" s="289"/>
-      <c r="F27" s="289"/>
-      <c r="G27" s="289"/>
-      <c r="H27" s="289"/>
-      <c r="I27" s="289"/>
-      <c r="J27" s="289"/>
-      <c r="K27" s="289"/>
-      <c r="L27" s="289"/>
-      <c r="M27" s="289"/>
-      <c r="N27" s="289"/>
-      <c r="O27" s="289"/>
-      <c r="P27" s="289"/>
-      <c r="Q27" s="289"/>
-      <c r="R27" s="289"/>
-      <c r="S27" s="289"/>
-      <c r="T27" s="289"/>
-      <c r="U27" s="289"/>
-      <c r="V27" s="289"/>
-      <c r="W27" s="289"/>
-      <c r="X27" s="289"/>
-      <c r="Y27" s="289"/>
-      <c r="Z27" s="289"/>
-      <c r="AA27" s="289"/>
-      <c r="AB27" s="289"/>
-      <c r="AC27" s="289"/>
-      <c r="AD27" s="289"/>
-      <c r="AE27" s="289"/>
-      <c r="AF27" s="289"/>
-      <c r="AG27" s="289"/>
-      <c r="AH27" s="289"/>
-      <c r="AI27" s="289"/>
-      <c r="AJ27" s="289"/>
-      <c r="AK27" s="289"/>
-      <c r="AL27" s="289"/>
-      <c r="AM27" s="289"/>
-      <c r="AN27" s="289"/>
-      <c r="AO27" s="289"/>
-      <c r="AP27" s="289"/>
-      <c r="AQ27" s="290"/>
+      <c r="B27" s="261"/>
+      <c r="C27" s="261"/>
+      <c r="D27" s="261"/>
+      <c r="E27" s="261"/>
+      <c r="F27" s="261"/>
+      <c r="G27" s="261"/>
+      <c r="H27" s="261"/>
+      <c r="I27" s="261"/>
+      <c r="J27" s="261"/>
+      <c r="K27" s="261"/>
+      <c r="L27" s="261"/>
+      <c r="M27" s="261"/>
+      <c r="N27" s="261"/>
+      <c r="O27" s="261"/>
+      <c r="P27" s="261"/>
+      <c r="Q27" s="261"/>
+      <c r="R27" s="261"/>
+      <c r="S27" s="261"/>
+      <c r="T27" s="261"/>
+      <c r="U27" s="261"/>
+      <c r="V27" s="261"/>
+      <c r="W27" s="261"/>
+      <c r="X27" s="261"/>
+      <c r="Y27" s="261"/>
+      <c r="Z27" s="261"/>
+      <c r="AA27" s="261"/>
+      <c r="AB27" s="261"/>
+      <c r="AC27" s="261"/>
+      <c r="AD27" s="261"/>
+      <c r="AE27" s="261"/>
+      <c r="AF27" s="261"/>
+      <c r="AG27" s="261"/>
+      <c r="AH27" s="261"/>
+      <c r="AI27" s="261"/>
+      <c r="AJ27" s="261"/>
+      <c r="AK27" s="261"/>
+      <c r="AL27" s="261"/>
+      <c r="AM27" s="261"/>
+      <c r="AN27" s="261"/>
+      <c r="AO27" s="261"/>
+      <c r="AP27" s="261"/>
+      <c r="AQ27" s="262"/>
     </row>
     <row r="28" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A28" s="291">
+      <c r="A28" s="263">
         <f>MAX('Change log'!G6:G52)</f>
         <v>44508</v>
       </c>
-      <c r="B28" s="292"/>
-      <c r="C28" s="292"/>
-      <c r="D28" s="292"/>
-      <c r="E28" s="292"/>
-      <c r="F28" s="292"/>
-      <c r="G28" s="292"/>
-      <c r="H28" s="292"/>
-      <c r="I28" s="292"/>
-      <c r="J28" s="292"/>
-      <c r="K28" s="292"/>
-      <c r="L28" s="292"/>
-      <c r="M28" s="292"/>
-      <c r="N28" s="292"/>
-      <c r="O28" s="292"/>
-      <c r="P28" s="292"/>
-      <c r="Q28" s="292"/>
-      <c r="R28" s="292"/>
-      <c r="S28" s="292"/>
-      <c r="T28" s="292"/>
-      <c r="U28" s="292"/>
-      <c r="V28" s="292"/>
-      <c r="W28" s="292"/>
-      <c r="X28" s="292"/>
-      <c r="Y28" s="292"/>
-      <c r="Z28" s="292"/>
-      <c r="AA28" s="292"/>
-      <c r="AB28" s="292"/>
-      <c r="AC28" s="292"/>
-      <c r="AD28" s="292"/>
-      <c r="AE28" s="292"/>
-      <c r="AF28" s="292"/>
-      <c r="AG28" s="292"/>
-      <c r="AH28" s="292"/>
-      <c r="AI28" s="292"/>
-      <c r="AJ28" s="292"/>
-      <c r="AK28" s="292"/>
-      <c r="AL28" s="292"/>
-      <c r="AM28" s="292"/>
-      <c r="AN28" s="292"/>
-      <c r="AO28" s="292"/>
-      <c r="AP28" s="292"/>
-      <c r="AQ28" s="293"/>
+      <c r="B28" s="264"/>
+      <c r="C28" s="264"/>
+      <c r="D28" s="264"/>
+      <c r="E28" s="264"/>
+      <c r="F28" s="264"/>
+      <c r="G28" s="264"/>
+      <c r="H28" s="264"/>
+      <c r="I28" s="264"/>
+      <c r="J28" s="264"/>
+      <c r="K28" s="264"/>
+      <c r="L28" s="264"/>
+      <c r="M28" s="264"/>
+      <c r="N28" s="264"/>
+      <c r="O28" s="264"/>
+      <c r="P28" s="264"/>
+      <c r="Q28" s="264"/>
+      <c r="R28" s="264"/>
+      <c r="S28" s="264"/>
+      <c r="T28" s="264"/>
+      <c r="U28" s="264"/>
+      <c r="V28" s="264"/>
+      <c r="W28" s="264"/>
+      <c r="X28" s="264"/>
+      <c r="Y28" s="264"/>
+      <c r="Z28" s="264"/>
+      <c r="AA28" s="264"/>
+      <c r="AB28" s="264"/>
+      <c r="AC28" s="264"/>
+      <c r="AD28" s="264"/>
+      <c r="AE28" s="264"/>
+      <c r="AF28" s="264"/>
+      <c r="AG28" s="264"/>
+      <c r="AH28" s="264"/>
+      <c r="AI28" s="264"/>
+      <c r="AJ28" s="264"/>
+      <c r="AK28" s="264"/>
+      <c r="AL28" s="264"/>
+      <c r="AM28" s="264"/>
+      <c r="AN28" s="264"/>
+      <c r="AO28" s="264"/>
+      <c r="AP28" s="264"/>
+      <c r="AQ28" s="265"/>
     </row>
     <row r="29" spans="1:43" ht="15.65" customHeight="1">
       <c r="A29" s="89"/>
@@ -7562,51 +7562,51 @@
       <c r="AQ35" s="3"/>
     </row>
     <row r="36" spans="1:43" ht="15.65" customHeight="1">
-      <c r="A36" s="285" t="s">
+      <c r="A36" s="257" t="s">
         <v>190</v>
       </c>
-      <c r="B36" s="286"/>
-      <c r="C36" s="286"/>
-      <c r="D36" s="286"/>
-      <c r="E36" s="286"/>
-      <c r="F36" s="286"/>
-      <c r="G36" s="286"/>
-      <c r="H36" s="286"/>
-      <c r="I36" s="286"/>
-      <c r="J36" s="286"/>
-      <c r="K36" s="286"/>
-      <c r="L36" s="286"/>
-      <c r="M36" s="286"/>
-      <c r="N36" s="286"/>
-      <c r="O36" s="286"/>
-      <c r="P36" s="286"/>
-      <c r="Q36" s="286"/>
-      <c r="R36" s="286"/>
-      <c r="S36" s="286"/>
-      <c r="T36" s="286"/>
-      <c r="U36" s="286"/>
-      <c r="V36" s="286"/>
-      <c r="W36" s="286"/>
-      <c r="X36" s="286"/>
-      <c r="Y36" s="286"/>
-      <c r="Z36" s="286"/>
-      <c r="AA36" s="286"/>
-      <c r="AB36" s="286"/>
-      <c r="AC36" s="286"/>
-      <c r="AD36" s="286"/>
-      <c r="AE36" s="286"/>
-      <c r="AF36" s="286"/>
-      <c r="AG36" s="286"/>
-      <c r="AH36" s="286"/>
-      <c r="AI36" s="286"/>
-      <c r="AJ36" s="286"/>
-      <c r="AK36" s="286"/>
-      <c r="AL36" s="286"/>
-      <c r="AM36" s="286"/>
-      <c r="AN36" s="286"/>
-      <c r="AO36" s="286"/>
-      <c r="AP36" s="286"/>
-      <c r="AQ36" s="287"/>
+      <c r="B36" s="258"/>
+      <c r="C36" s="258"/>
+      <c r="D36" s="258"/>
+      <c r="E36" s="258"/>
+      <c r="F36" s="258"/>
+      <c r="G36" s="258"/>
+      <c r="H36" s="258"/>
+      <c r="I36" s="258"/>
+      <c r="J36" s="258"/>
+      <c r="K36" s="258"/>
+      <c r="L36" s="258"/>
+      <c r="M36" s="258"/>
+      <c r="N36" s="258"/>
+      <c r="O36" s="258"/>
+      <c r="P36" s="258"/>
+      <c r="Q36" s="258"/>
+      <c r="R36" s="258"/>
+      <c r="S36" s="258"/>
+      <c r="T36" s="258"/>
+      <c r="U36" s="258"/>
+      <c r="V36" s="258"/>
+      <c r="W36" s="258"/>
+      <c r="X36" s="258"/>
+      <c r="Y36" s="258"/>
+      <c r="Z36" s="258"/>
+      <c r="AA36" s="258"/>
+      <c r="AB36" s="258"/>
+      <c r="AC36" s="258"/>
+      <c r="AD36" s="258"/>
+      <c r="AE36" s="258"/>
+      <c r="AF36" s="258"/>
+      <c r="AG36" s="258"/>
+      <c r="AH36" s="258"/>
+      <c r="AI36" s="258"/>
+      <c r="AJ36" s="258"/>
+      <c r="AK36" s="258"/>
+      <c r="AL36" s="258"/>
+      <c r="AM36" s="258"/>
+      <c r="AN36" s="258"/>
+      <c r="AO36" s="258"/>
+      <c r="AP36" s="258"/>
+      <c r="AQ36" s="259"/>
     </row>
     <row r="37" spans="1:43" ht="15.65" customHeight="1">
       <c r="A37" s="35"/>
@@ -7755,6 +7755,16 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A5:AB8"/>
+    <mergeCell ref="AC5:AG5"/>
+    <mergeCell ref="AH5:AL5"/>
+    <mergeCell ref="AM5:AQ5"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="AH6:AL6"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AC7:AG8"/>
+    <mergeCell ref="AH7:AL8"/>
+    <mergeCell ref="AM7:AQ8"/>
     <mergeCell ref="A36:AQ36"/>
     <mergeCell ref="A27:AQ27"/>
     <mergeCell ref="A28:AQ28"/>
@@ -7769,16 +7779,6 @@
     <mergeCell ref="R18:AQ18"/>
     <mergeCell ref="I19:Q20"/>
     <mergeCell ref="R19:AQ20"/>
-    <mergeCell ref="A5:AB8"/>
-    <mergeCell ref="AC5:AG5"/>
-    <mergeCell ref="AH5:AL5"/>
-    <mergeCell ref="AM5:AQ5"/>
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="AH6:AL6"/>
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AC7:AG8"/>
-    <mergeCell ref="AH7:AL8"/>
-    <mergeCell ref="AM7:AQ8"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="1">
@@ -7817,724 +7817,724 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A1" s="342" t="s">
+      <c r="A1" s="353" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="343"/>
-      <c r="C1" s="343"/>
-      <c r="D1" s="343"/>
-      <c r="E1" s="343"/>
-      <c r="F1" s="343"/>
-      <c r="G1" s="343"/>
-      <c r="H1" s="343"/>
-      <c r="I1" s="343" t="s">
+      <c r="B1" s="354"/>
+      <c r="C1" s="354"/>
+      <c r="D1" s="354"/>
+      <c r="E1" s="354"/>
+      <c r="F1" s="354"/>
+      <c r="G1" s="354"/>
+      <c r="H1" s="354"/>
+      <c r="I1" s="354" t="s">
         <v>256</v>
       </c>
-      <c r="J1" s="343"/>
-      <c r="K1" s="343"/>
-      <c r="L1" s="343"/>
-      <c r="M1" s="343"/>
-      <c r="N1" s="343"/>
-      <c r="O1" s="343"/>
-      <c r="P1" s="343"/>
-      <c r="Q1" s="343"/>
-      <c r="R1" s="343"/>
-      <c r="S1" s="343"/>
-      <c r="T1" s="330" t="s">
+      <c r="J1" s="354"/>
+      <c r="K1" s="354"/>
+      <c r="L1" s="354"/>
+      <c r="M1" s="354"/>
+      <c r="N1" s="354"/>
+      <c r="O1" s="354"/>
+      <c r="P1" s="354"/>
+      <c r="Q1" s="354"/>
+      <c r="R1" s="354"/>
+      <c r="S1" s="354"/>
+      <c r="T1" s="342" t="s">
         <v>257</v>
       </c>
-      <c r="U1" s="330"/>
-      <c r="V1" s="330"/>
-      <c r="W1" s="330"/>
-      <c r="X1" s="330"/>
-      <c r="Y1" s="330"/>
-      <c r="Z1" s="330"/>
-      <c r="AA1" s="330" t="s">
+      <c r="U1" s="342"/>
+      <c r="V1" s="342"/>
+      <c r="W1" s="342"/>
+      <c r="X1" s="342"/>
+      <c r="Y1" s="342"/>
+      <c r="Z1" s="342"/>
+      <c r="AA1" s="342" t="s">
         <v>270</v>
       </c>
-      <c r="AB1" s="330"/>
-      <c r="AC1" s="330"/>
-      <c r="AD1" s="330"/>
-      <c r="AE1" s="330"/>
-      <c r="AF1" s="330"/>
-      <c r="AG1" s="330"/>
-      <c r="AH1" s="330"/>
-      <c r="AI1" s="330"/>
-      <c r="AJ1" s="330"/>
-      <c r="AK1" s="330"/>
-      <c r="AL1" s="330"/>
-      <c r="AM1" s="330"/>
-      <c r="AN1" s="330"/>
-      <c r="AO1" s="330"/>
-      <c r="AP1" s="330"/>
-      <c r="AQ1" s="330"/>
-      <c r="AR1" s="330" t="s">
+      <c r="AB1" s="342"/>
+      <c r="AC1" s="342"/>
+      <c r="AD1" s="342"/>
+      <c r="AE1" s="342"/>
+      <c r="AF1" s="342"/>
+      <c r="AG1" s="342"/>
+      <c r="AH1" s="342"/>
+      <c r="AI1" s="342"/>
+      <c r="AJ1" s="342"/>
+      <c r="AK1" s="342"/>
+      <c r="AL1" s="342"/>
+      <c r="AM1" s="342"/>
+      <c r="AN1" s="342"/>
+      <c r="AO1" s="342"/>
+      <c r="AP1" s="342"/>
+      <c r="AQ1" s="342"/>
+      <c r="AR1" s="342" t="s">
         <v>271</v>
       </c>
-      <c r="AS1" s="330"/>
-      <c r="AT1" s="330"/>
-      <c r="AU1" s="330"/>
-      <c r="AV1" s="330"/>
-      <c r="AW1" s="344" t="s">
+      <c r="AS1" s="342"/>
+      <c r="AT1" s="342"/>
+      <c r="AU1" s="342"/>
+      <c r="AV1" s="342"/>
+      <c r="AW1" s="355" t="s">
         <v>261</v>
       </c>
-      <c r="AX1" s="344"/>
-      <c r="AY1" s="330"/>
-      <c r="AZ1" s="330"/>
-      <c r="BA1" s="330"/>
-      <c r="BB1" s="330" t="s">
+      <c r="AX1" s="355"/>
+      <c r="AY1" s="342"/>
+      <c r="AZ1" s="342"/>
+      <c r="BA1" s="342"/>
+      <c r="BB1" s="342" t="s">
         <v>272</v>
       </c>
-      <c r="BC1" s="330"/>
-      <c r="BD1" s="330"/>
-      <c r="BE1" s="330"/>
-      <c r="BF1" s="330"/>
+      <c r="BC1" s="342"/>
+      <c r="BD1" s="342"/>
+      <c r="BE1" s="342"/>
+      <c r="BF1" s="342"/>
     </row>
     <row r="2" spans="1:58" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A2" s="334" t="s">
+      <c r="A2" s="346" t="s">
         <v>273</v>
       </c>
-      <c r="B2" s="334"/>
-      <c r="C2" s="334"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="334"/>
-      <c r="F2" s="334"/>
-      <c r="G2" s="334"/>
-      <c r="H2" s="334"/>
-      <c r="I2" s="334" t="str">
+      <c r="B2" s="346"/>
+      <c r="C2" s="346"/>
+      <c r="D2" s="346"/>
+      <c r="E2" s="346"/>
+      <c r="F2" s="346"/>
+      <c r="G2" s="346"/>
+      <c r="H2" s="346"/>
+      <c r="I2" s="346" t="str">
         <f>Cover!I12</f>
         <v>Manage Student</v>
       </c>
-      <c r="J2" s="334"/>
-      <c r="K2" s="334"/>
-      <c r="L2" s="334"/>
-      <c r="M2" s="334"/>
-      <c r="N2" s="334"/>
-      <c r="O2" s="334"/>
-      <c r="P2" s="334"/>
-      <c r="Q2" s="334"/>
-      <c r="R2" s="334"/>
-      <c r="S2" s="334"/>
-      <c r="T2" s="334" t="str">
+      <c r="J2" s="346"/>
+      <c r="K2" s="346"/>
+      <c r="L2" s="346"/>
+      <c r="M2" s="346"/>
+      <c r="N2" s="346"/>
+      <c r="O2" s="346"/>
+      <c r="P2" s="346"/>
+      <c r="Q2" s="346"/>
+      <c r="R2" s="346"/>
+      <c r="S2" s="346"/>
+      <c r="T2" s="346" t="str">
         <f>Cover!I15</f>
         <v>GMO_management_Student</v>
       </c>
-      <c r="U2" s="334"/>
-      <c r="V2" s="334"/>
-      <c r="W2" s="334"/>
-      <c r="X2" s="334"/>
-      <c r="Y2" s="334"/>
-      <c r="Z2" s="334"/>
-      <c r="AA2" s="335" t="str">
+      <c r="U2" s="346"/>
+      <c r="V2" s="346"/>
+      <c r="W2" s="346"/>
+      <c r="X2" s="346"/>
+      <c r="Y2" s="346"/>
+      <c r="Z2" s="346"/>
+      <c r="AA2" s="329" t="str">
         <f>Cover!R19</f>
         <v>Add student</v>
       </c>
-      <c r="AB2" s="335"/>
-      <c r="AC2" s="335"/>
-      <c r="AD2" s="335"/>
-      <c r="AE2" s="335"/>
-      <c r="AF2" s="335"/>
-      <c r="AG2" s="335"/>
-      <c r="AH2" s="335"/>
-      <c r="AI2" s="335"/>
-      <c r="AJ2" s="335"/>
-      <c r="AK2" s="335"/>
-      <c r="AL2" s="335"/>
-      <c r="AM2" s="335"/>
-      <c r="AN2" s="335"/>
-      <c r="AO2" s="335"/>
-      <c r="AP2" s="335"/>
-      <c r="AQ2" s="335"/>
-      <c r="AR2" s="336" t="str">
+      <c r="AB2" s="329"/>
+      <c r="AC2" s="329"/>
+      <c r="AD2" s="329"/>
+      <c r="AE2" s="329"/>
+      <c r="AF2" s="329"/>
+      <c r="AG2" s="329"/>
+      <c r="AH2" s="329"/>
+      <c r="AI2" s="329"/>
+      <c r="AJ2" s="329"/>
+      <c r="AK2" s="329"/>
+      <c r="AL2" s="329"/>
+      <c r="AM2" s="329"/>
+      <c r="AN2" s="329"/>
+      <c r="AO2" s="329"/>
+      <c r="AP2" s="329"/>
+      <c r="AQ2" s="329"/>
+      <c r="AR2" s="347" t="str">
         <f>Cover!I19</f>
         <v>0-0</v>
       </c>
-      <c r="AS2" s="335"/>
-      <c r="AT2" s="335"/>
-      <c r="AU2" s="335"/>
-      <c r="AV2" s="335"/>
-      <c r="AW2" s="337" t="s">
+      <c r="AS2" s="329"/>
+      <c r="AT2" s="329"/>
+      <c r="AU2" s="329"/>
+      <c r="AV2" s="329"/>
+      <c r="AW2" s="348" t="s">
         <v>267</v>
       </c>
-      <c r="AX2" s="337" t="s">
+      <c r="AX2" s="348" t="s">
         <v>171</v>
       </c>
-      <c r="AY2" s="337" t="s">
+      <c r="AY2" s="348" t="s">
         <v>171</v>
       </c>
-      <c r="AZ2" s="337" t="s">
+      <c r="AZ2" s="348" t="s">
         <v>171</v>
       </c>
-      <c r="BA2" s="337" t="s">
+      <c r="BA2" s="348" t="s">
         <v>171</v>
       </c>
-      <c r="BB2" s="338" t="s">
+      <c r="BB2" s="349" t="s">
         <v>267</v>
       </c>
-      <c r="BC2" s="337"/>
-      <c r="BD2" s="337"/>
-      <c r="BE2" s="337"/>
-      <c r="BF2" s="337"/>
+      <c r="BC2" s="348"/>
+      <c r="BD2" s="348"/>
+      <c r="BE2" s="348"/>
+      <c r="BF2" s="348"/>
     </row>
     <row r="3" spans="1:58" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A3" s="334"/>
-      <c r="B3" s="334"/>
-      <c r="C3" s="334"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="334"/>
-      <c r="F3" s="334"/>
-      <c r="G3" s="334"/>
-      <c r="H3" s="334"/>
-      <c r="I3" s="334"/>
-      <c r="J3" s="334"/>
-      <c r="K3" s="334"/>
-      <c r="L3" s="334"/>
-      <c r="M3" s="334"/>
-      <c r="N3" s="334"/>
-      <c r="O3" s="334"/>
-      <c r="P3" s="334"/>
-      <c r="Q3" s="334"/>
-      <c r="R3" s="334"/>
-      <c r="S3" s="334"/>
-      <c r="T3" s="334"/>
-      <c r="U3" s="334"/>
-      <c r="V3" s="334"/>
-      <c r="W3" s="334"/>
-      <c r="X3" s="334"/>
-      <c r="Y3" s="334"/>
-      <c r="Z3" s="334"/>
-      <c r="AA3" s="330" t="s">
+      <c r="A3" s="346"/>
+      <c r="B3" s="346"/>
+      <c r="C3" s="346"/>
+      <c r="D3" s="346"/>
+      <c r="E3" s="346"/>
+      <c r="F3" s="346"/>
+      <c r="G3" s="346"/>
+      <c r="H3" s="346"/>
+      <c r="I3" s="346"/>
+      <c r="J3" s="346"/>
+      <c r="K3" s="346"/>
+      <c r="L3" s="346"/>
+      <c r="M3" s="346"/>
+      <c r="N3" s="346"/>
+      <c r="O3" s="346"/>
+      <c r="P3" s="346"/>
+      <c r="Q3" s="346"/>
+      <c r="R3" s="346"/>
+      <c r="S3" s="346"/>
+      <c r="T3" s="346"/>
+      <c r="U3" s="346"/>
+      <c r="V3" s="346"/>
+      <c r="W3" s="346"/>
+      <c r="X3" s="346"/>
+      <c r="Y3" s="346"/>
+      <c r="Z3" s="346"/>
+      <c r="AA3" s="342" t="s">
         <v>274</v>
       </c>
-      <c r="AB3" s="330"/>
-      <c r="AC3" s="330"/>
-      <c r="AD3" s="330"/>
-      <c r="AE3" s="330"/>
-      <c r="AF3" s="330"/>
-      <c r="AG3" s="339" t="str">
+      <c r="AB3" s="342"/>
+      <c r="AC3" s="342"/>
+      <c r="AD3" s="342"/>
+      <c r="AE3" s="342"/>
+      <c r="AF3" s="342"/>
+      <c r="AG3" s="350" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Change log</v>
       </c>
-      <c r="AH3" s="340"/>
-      <c r="AI3" s="340"/>
-      <c r="AJ3" s="340"/>
-      <c r="AK3" s="340"/>
-      <c r="AL3" s="340"/>
-      <c r="AM3" s="340"/>
-      <c r="AN3" s="340"/>
-      <c r="AO3" s="340"/>
-      <c r="AP3" s="340"/>
-      <c r="AQ3" s="340"/>
-      <c r="AR3" s="340"/>
-      <c r="AS3" s="340"/>
-      <c r="AT3" s="340"/>
-      <c r="AU3" s="340"/>
-      <c r="AV3" s="341"/>
-      <c r="AW3" s="329">
+      <c r="AH3" s="351"/>
+      <c r="AI3" s="351"/>
+      <c r="AJ3" s="351"/>
+      <c r="AK3" s="351"/>
+      <c r="AL3" s="351"/>
+      <c r="AM3" s="351"/>
+      <c r="AN3" s="351"/>
+      <c r="AO3" s="351"/>
+      <c r="AP3" s="351"/>
+      <c r="AQ3" s="351"/>
+      <c r="AR3" s="351"/>
+      <c r="AS3" s="351"/>
+      <c r="AT3" s="351"/>
+      <c r="AU3" s="351"/>
+      <c r="AV3" s="352"/>
+      <c r="AW3" s="341">
         <v>44503</v>
       </c>
-      <c r="AX3" s="329">
+      <c r="AX3" s="341">
         <v>44147</v>
       </c>
-      <c r="AY3" s="329">
+      <c r="AY3" s="341">
         <v>44147</v>
       </c>
-      <c r="AZ3" s="329">
+      <c r="AZ3" s="341">
         <v>44147</v>
       </c>
-      <c r="BA3" s="329">
+      <c r="BA3" s="341">
         <v>44147</v>
       </c>
-      <c r="BB3" s="329">
+      <c r="BB3" s="341">
         <v>44505</v>
       </c>
-      <c r="BC3" s="329"/>
-      <c r="BD3" s="329"/>
-      <c r="BE3" s="329"/>
-      <c r="BF3" s="329"/>
+      <c r="BC3" s="341"/>
+      <c r="BD3" s="341"/>
+      <c r="BE3" s="341"/>
+      <c r="BF3" s="341"/>
     </row>
     <row r="4" spans="1:58" s="17" customFormat="1" ht="12"/>
     <row r="5" spans="1:58">
-      <c r="A5" s="330" t="s">
+      <c r="A5" s="342" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="330"/>
-      <c r="C5" s="330" t="s">
+      <c r="B5" s="342"/>
+      <c r="C5" s="342" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="331" t="s">
+      <c r="D5" s="342"/>
+      <c r="E5" s="342"/>
+      <c r="F5" s="342"/>
+      <c r="G5" s="343" t="s">
         <v>275</v>
       </c>
-      <c r="H5" s="332"/>
-      <c r="I5" s="332"/>
-      <c r="J5" s="332"/>
-      <c r="K5" s="333"/>
-      <c r="L5" s="331" t="s">
+      <c r="H5" s="344"/>
+      <c r="I5" s="344"/>
+      <c r="J5" s="344"/>
+      <c r="K5" s="345"/>
+      <c r="L5" s="343" t="s">
         <v>276</v>
       </c>
-      <c r="M5" s="332"/>
-      <c r="N5" s="332"/>
-      <c r="O5" s="332"/>
-      <c r="P5" s="332"/>
-      <c r="Q5" s="333"/>
-      <c r="R5" s="331" t="s">
+      <c r="M5" s="344"/>
+      <c r="N5" s="344"/>
+      <c r="O5" s="344"/>
+      <c r="P5" s="344"/>
+      <c r="Q5" s="345"/>
+      <c r="R5" s="343" t="s">
         <v>277</v>
       </c>
-      <c r="S5" s="332"/>
-      <c r="T5" s="332"/>
-      <c r="U5" s="332"/>
-      <c r="V5" s="332"/>
-      <c r="W5" s="332"/>
-      <c r="X5" s="332"/>
-      <c r="Y5" s="332"/>
-      <c r="Z5" s="332"/>
-      <c r="AA5" s="333"/>
-      <c r="AB5" s="331" t="s">
+      <c r="S5" s="344"/>
+      <c r="T5" s="344"/>
+      <c r="U5" s="344"/>
+      <c r="V5" s="344"/>
+      <c r="W5" s="344"/>
+      <c r="X5" s="344"/>
+      <c r="Y5" s="344"/>
+      <c r="Z5" s="344"/>
+      <c r="AA5" s="345"/>
+      <c r="AB5" s="343" t="s">
         <v>278</v>
       </c>
-      <c r="AC5" s="332"/>
-      <c r="AD5" s="332"/>
-      <c r="AE5" s="332"/>
-      <c r="AF5" s="332"/>
-      <c r="AG5" s="332"/>
-      <c r="AH5" s="332"/>
-      <c r="AI5" s="332"/>
-      <c r="AJ5" s="332"/>
-      <c r="AK5" s="332"/>
-      <c r="AL5" s="332"/>
-      <c r="AM5" s="332"/>
-      <c r="AN5" s="332"/>
-      <c r="AO5" s="332"/>
-      <c r="AP5" s="332"/>
-      <c r="AQ5" s="332"/>
-      <c r="AR5" s="332"/>
-      <c r="AS5" s="332"/>
-      <c r="AT5" s="332"/>
-      <c r="AU5" s="332"/>
-      <c r="AV5" s="332"/>
-      <c r="AW5" s="332"/>
-      <c r="AX5" s="332"/>
-      <c r="AY5" s="332"/>
-      <c r="AZ5" s="332"/>
-      <c r="BA5" s="332"/>
-      <c r="BB5" s="332"/>
-      <c r="BC5" s="332"/>
-      <c r="BD5" s="332"/>
-      <c r="BE5" s="332"/>
-      <c r="BF5" s="333"/>
+      <c r="AC5" s="344"/>
+      <c r="AD5" s="344"/>
+      <c r="AE5" s="344"/>
+      <c r="AF5" s="344"/>
+      <c r="AG5" s="344"/>
+      <c r="AH5" s="344"/>
+      <c r="AI5" s="344"/>
+      <c r="AJ5" s="344"/>
+      <c r="AK5" s="344"/>
+      <c r="AL5" s="344"/>
+      <c r="AM5" s="344"/>
+      <c r="AN5" s="344"/>
+      <c r="AO5" s="344"/>
+      <c r="AP5" s="344"/>
+      <c r="AQ5" s="344"/>
+      <c r="AR5" s="344"/>
+      <c r="AS5" s="344"/>
+      <c r="AT5" s="344"/>
+      <c r="AU5" s="344"/>
+      <c r="AV5" s="344"/>
+      <c r="AW5" s="344"/>
+      <c r="AX5" s="344"/>
+      <c r="AY5" s="344"/>
+      <c r="AZ5" s="344"/>
+      <c r="BA5" s="344"/>
+      <c r="BB5" s="344"/>
+      <c r="BC5" s="344"/>
+      <c r="BD5" s="344"/>
+      <c r="BE5" s="344"/>
+      <c r="BF5" s="345"/>
     </row>
     <row r="6" spans="1:58" ht="16.5" customHeight="1">
-      <c r="A6" s="335">
+      <c r="A6" s="329">
         <v>1</v>
       </c>
-      <c r="B6" s="335"/>
-      <c r="C6" s="348">
+      <c r="B6" s="329"/>
+      <c r="C6" s="330">
         <v>1</v>
       </c>
-      <c r="D6" s="349"/>
-      <c r="E6" s="349"/>
-      <c r="F6" s="349"/>
-      <c r="G6" s="350">
+      <c r="D6" s="331"/>
+      <c r="E6" s="331"/>
+      <c r="F6" s="331"/>
+      <c r="G6" s="332">
         <v>44503</v>
       </c>
-      <c r="H6" s="350"/>
-      <c r="I6" s="350"/>
-      <c r="J6" s="350"/>
-      <c r="K6" s="350"/>
-      <c r="L6" s="335" t="s">
+      <c r="H6" s="332"/>
+      <c r="I6" s="332"/>
+      <c r="J6" s="332"/>
+      <c r="K6" s="332"/>
+      <c r="L6" s="329" t="s">
         <v>279</v>
       </c>
-      <c r="M6" s="335"/>
-      <c r="N6" s="335"/>
-      <c r="O6" s="335"/>
-      <c r="P6" s="335"/>
-      <c r="Q6" s="335"/>
-      <c r="R6" s="325" t="s">
+      <c r="M6" s="329"/>
+      <c r="N6" s="329"/>
+      <c r="O6" s="329"/>
+      <c r="P6" s="329"/>
+      <c r="Q6" s="329"/>
+      <c r="R6" s="333" t="s">
         <v>280</v>
       </c>
-      <c r="S6" s="325"/>
-      <c r="T6" s="325"/>
-      <c r="U6" s="325"/>
-      <c r="V6" s="325"/>
-      <c r="W6" s="325"/>
-      <c r="X6" s="325"/>
-      <c r="Y6" s="325"/>
-      <c r="Z6" s="325"/>
-      <c r="AA6" s="325"/>
-      <c r="AB6" s="325"/>
-      <c r="AC6" s="325"/>
-      <c r="AD6" s="325"/>
-      <c r="AE6" s="325"/>
-      <c r="AF6" s="325"/>
-      <c r="AG6" s="325"/>
-      <c r="AH6" s="325"/>
-      <c r="AI6" s="325"/>
-      <c r="AJ6" s="325"/>
-      <c r="AK6" s="325"/>
-      <c r="AL6" s="325"/>
-      <c r="AM6" s="325"/>
-      <c r="AN6" s="325"/>
-      <c r="AO6" s="325"/>
-      <c r="AP6" s="325"/>
-      <c r="AQ6" s="325"/>
-      <c r="AR6" s="325"/>
-      <c r="AS6" s="325"/>
-      <c r="AT6" s="325"/>
-      <c r="AU6" s="325"/>
-      <c r="AV6" s="325"/>
-      <c r="AW6" s="325"/>
-      <c r="AX6" s="325"/>
-      <c r="AY6" s="325"/>
-      <c r="AZ6" s="325"/>
-      <c r="BA6" s="325"/>
-      <c r="BB6" s="325"/>
-      <c r="BC6" s="325"/>
-      <c r="BD6" s="325"/>
-      <c r="BE6" s="325"/>
-      <c r="BF6" s="325"/>
+      <c r="S6" s="333"/>
+      <c r="T6" s="333"/>
+      <c r="U6" s="333"/>
+      <c r="V6" s="333"/>
+      <c r="W6" s="333"/>
+      <c r="X6" s="333"/>
+      <c r="Y6" s="333"/>
+      <c r="Z6" s="333"/>
+      <c r="AA6" s="333"/>
+      <c r="AB6" s="333"/>
+      <c r="AC6" s="333"/>
+      <c r="AD6" s="333"/>
+      <c r="AE6" s="333"/>
+      <c r="AF6" s="333"/>
+      <c r="AG6" s="333"/>
+      <c r="AH6" s="333"/>
+      <c r="AI6" s="333"/>
+      <c r="AJ6" s="333"/>
+      <c r="AK6" s="333"/>
+      <c r="AL6" s="333"/>
+      <c r="AM6" s="333"/>
+      <c r="AN6" s="333"/>
+      <c r="AO6" s="333"/>
+      <c r="AP6" s="333"/>
+      <c r="AQ6" s="333"/>
+      <c r="AR6" s="333"/>
+      <c r="AS6" s="333"/>
+      <c r="AT6" s="333"/>
+      <c r="AU6" s="333"/>
+      <c r="AV6" s="333"/>
+      <c r="AW6" s="333"/>
+      <c r="AX6" s="333"/>
+      <c r="AY6" s="333"/>
+      <c r="AZ6" s="333"/>
+      <c r="BA6" s="333"/>
+      <c r="BB6" s="333"/>
+      <c r="BC6" s="333"/>
+      <c r="BD6" s="333"/>
+      <c r="BE6" s="333"/>
+      <c r="BF6" s="333"/>
     </row>
     <row r="7" spans="1:58" ht="29.5" customHeight="1">
-      <c r="A7" s="347">
+      <c r="A7" s="336">
         <v>2</v>
       </c>
-      <c r="B7" s="347"/>
-      <c r="C7" s="345">
+      <c r="B7" s="336"/>
+      <c r="C7" s="334">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D7" s="346"/>
-      <c r="E7" s="346"/>
-      <c r="F7" s="346"/>
-      <c r="G7" s="350">
+      <c r="D7" s="335"/>
+      <c r="E7" s="335"/>
+      <c r="F7" s="335"/>
+      <c r="G7" s="332">
         <v>44504</v>
       </c>
-      <c r="H7" s="350"/>
-      <c r="I7" s="350"/>
-      <c r="J7" s="350"/>
-      <c r="K7" s="350"/>
-      <c r="L7" s="352" t="s">
+      <c r="H7" s="332"/>
+      <c r="I7" s="332"/>
+      <c r="J7" s="332"/>
+      <c r="K7" s="332"/>
+      <c r="L7" s="339" t="s">
         <v>279</v>
       </c>
-      <c r="M7" s="352"/>
-      <c r="N7" s="352"/>
-      <c r="O7" s="352"/>
-      <c r="P7" s="352"/>
-      <c r="Q7" s="352"/>
-      <c r="R7" s="351" t="s">
+      <c r="M7" s="339"/>
+      <c r="N7" s="339"/>
+      <c r="O7" s="339"/>
+      <c r="P7" s="339"/>
+      <c r="Q7" s="339"/>
+      <c r="R7" s="337" t="s">
         <v>325</v>
       </c>
-      <c r="S7" s="326"/>
-      <c r="T7" s="326"/>
-      <c r="U7" s="326"/>
-      <c r="V7" s="326"/>
-      <c r="W7" s="326"/>
-      <c r="X7" s="326"/>
-      <c r="Y7" s="326"/>
-      <c r="Z7" s="326"/>
-      <c r="AA7" s="326"/>
-      <c r="AB7" s="326" t="s">
+      <c r="S7" s="338"/>
+      <c r="T7" s="338"/>
+      <c r="U7" s="338"/>
+      <c r="V7" s="338"/>
+      <c r="W7" s="338"/>
+      <c r="X7" s="338"/>
+      <c r="Y7" s="338"/>
+      <c r="Z7" s="338"/>
+      <c r="AA7" s="338"/>
+      <c r="AB7" s="338" t="s">
         <v>281</v>
       </c>
-      <c r="AC7" s="326"/>
-      <c r="AD7" s="326"/>
-      <c r="AE7" s="326"/>
-      <c r="AF7" s="326"/>
-      <c r="AG7" s="326"/>
-      <c r="AH7" s="326"/>
-      <c r="AI7" s="326"/>
-      <c r="AJ7" s="326"/>
-      <c r="AK7" s="326"/>
-      <c r="AL7" s="326"/>
-      <c r="AM7" s="326"/>
-      <c r="AN7" s="326"/>
-      <c r="AO7" s="326"/>
-      <c r="AP7" s="326"/>
-      <c r="AQ7" s="326"/>
-      <c r="AR7" s="326"/>
-      <c r="AS7" s="326"/>
-      <c r="AT7" s="326"/>
-      <c r="AU7" s="326"/>
-      <c r="AV7" s="326"/>
-      <c r="AW7" s="326"/>
-      <c r="AX7" s="326"/>
-      <c r="AY7" s="326"/>
-      <c r="AZ7" s="326"/>
-      <c r="BA7" s="326"/>
-      <c r="BB7" s="326"/>
-      <c r="BC7" s="326"/>
-      <c r="BD7" s="326"/>
-      <c r="BE7" s="326"/>
-      <c r="BF7" s="326"/>
+      <c r="AC7" s="338"/>
+      <c r="AD7" s="338"/>
+      <c r="AE7" s="338"/>
+      <c r="AF7" s="338"/>
+      <c r="AG7" s="338"/>
+      <c r="AH7" s="338"/>
+      <c r="AI7" s="338"/>
+      <c r="AJ7" s="338"/>
+      <c r="AK7" s="338"/>
+      <c r="AL7" s="338"/>
+      <c r="AM7" s="338"/>
+      <c r="AN7" s="338"/>
+      <c r="AO7" s="338"/>
+      <c r="AP7" s="338"/>
+      <c r="AQ7" s="338"/>
+      <c r="AR7" s="338"/>
+      <c r="AS7" s="338"/>
+      <c r="AT7" s="338"/>
+      <c r="AU7" s="338"/>
+      <c r="AV7" s="338"/>
+      <c r="AW7" s="338"/>
+      <c r="AX7" s="338"/>
+      <c r="AY7" s="338"/>
+      <c r="AZ7" s="338"/>
+      <c r="BA7" s="338"/>
+      <c r="BB7" s="338"/>
+      <c r="BC7" s="338"/>
+      <c r="BD7" s="338"/>
+      <c r="BE7" s="338"/>
+      <c r="BF7" s="338"/>
     </row>
     <row r="8" spans="1:58" ht="53" customHeight="1">
-      <c r="A8" s="335">
+      <c r="A8" s="329">
         <v>3</v>
       </c>
-      <c r="B8" s="335"/>
-      <c r="C8" s="345">
+      <c r="B8" s="329"/>
+      <c r="C8" s="334">
         <v>1.2</v>
       </c>
-      <c r="D8" s="346"/>
-      <c r="E8" s="346"/>
-      <c r="F8" s="346"/>
-      <c r="G8" s="350">
+      <c r="D8" s="335"/>
+      <c r="E8" s="335"/>
+      <c r="F8" s="335"/>
+      <c r="G8" s="332">
         <v>44505</v>
       </c>
-      <c r="H8" s="350"/>
-      <c r="I8" s="350"/>
-      <c r="J8" s="350"/>
-      <c r="K8" s="350"/>
-      <c r="L8" s="353" t="s">
+      <c r="H8" s="332"/>
+      <c r="I8" s="332"/>
+      <c r="J8" s="332"/>
+      <c r="K8" s="332"/>
+      <c r="L8" s="340" t="s">
         <v>279</v>
       </c>
-      <c r="M8" s="353"/>
-      <c r="N8" s="353"/>
-      <c r="O8" s="353"/>
-      <c r="P8" s="353"/>
-      <c r="Q8" s="353"/>
-      <c r="R8" s="351" t="s">
+      <c r="M8" s="340"/>
+      <c r="N8" s="340"/>
+      <c r="O8" s="340"/>
+      <c r="P8" s="340"/>
+      <c r="Q8" s="340"/>
+      <c r="R8" s="337" t="s">
         <v>375</v>
       </c>
-      <c r="S8" s="326"/>
-      <c r="T8" s="326"/>
-      <c r="U8" s="326"/>
-      <c r="V8" s="326"/>
-      <c r="W8" s="326"/>
-      <c r="X8" s="326"/>
-      <c r="Y8" s="326"/>
-      <c r="Z8" s="326"/>
-      <c r="AA8" s="326"/>
-      <c r="AB8" s="327"/>
-      <c r="AC8" s="328"/>
-      <c r="AD8" s="328"/>
-      <c r="AE8" s="328"/>
-      <c r="AF8" s="328"/>
-      <c r="AG8" s="328"/>
-      <c r="AH8" s="328"/>
-      <c r="AI8" s="328"/>
-      <c r="AJ8" s="328"/>
-      <c r="AK8" s="328"/>
-      <c r="AL8" s="328"/>
-      <c r="AM8" s="328"/>
-      <c r="AN8" s="328"/>
-      <c r="AO8" s="328"/>
-      <c r="AP8" s="328"/>
-      <c r="AQ8" s="328"/>
-      <c r="AR8" s="328"/>
-      <c r="AS8" s="328"/>
-      <c r="AT8" s="328"/>
-      <c r="AU8" s="328"/>
-      <c r="AV8" s="328"/>
-      <c r="AW8" s="328"/>
-      <c r="AX8" s="328"/>
-      <c r="AY8" s="328"/>
-      <c r="AZ8" s="328"/>
-      <c r="BA8" s="328"/>
-      <c r="BB8" s="328"/>
-      <c r="BC8" s="328"/>
-      <c r="BD8" s="328"/>
-      <c r="BE8" s="328"/>
-      <c r="BF8" s="328"/>
+      <c r="S8" s="338"/>
+      <c r="T8" s="338"/>
+      <c r="U8" s="338"/>
+      <c r="V8" s="338"/>
+      <c r="W8" s="338"/>
+      <c r="X8" s="338"/>
+      <c r="Y8" s="338"/>
+      <c r="Z8" s="338"/>
+      <c r="AA8" s="338"/>
+      <c r="AB8" s="356"/>
+      <c r="AC8" s="357"/>
+      <c r="AD8" s="357"/>
+      <c r="AE8" s="357"/>
+      <c r="AF8" s="357"/>
+      <c r="AG8" s="357"/>
+      <c r="AH8" s="357"/>
+      <c r="AI8" s="357"/>
+      <c r="AJ8" s="357"/>
+      <c r="AK8" s="357"/>
+      <c r="AL8" s="357"/>
+      <c r="AM8" s="357"/>
+      <c r="AN8" s="357"/>
+      <c r="AO8" s="357"/>
+      <c r="AP8" s="357"/>
+      <c r="AQ8" s="357"/>
+      <c r="AR8" s="357"/>
+      <c r="AS8" s="357"/>
+      <c r="AT8" s="357"/>
+      <c r="AU8" s="357"/>
+      <c r="AV8" s="357"/>
+      <c r="AW8" s="357"/>
+      <c r="AX8" s="357"/>
+      <c r="AY8" s="357"/>
+      <c r="AZ8" s="357"/>
+      <c r="BA8" s="357"/>
+      <c r="BB8" s="357"/>
+      <c r="BC8" s="357"/>
+      <c r="BD8" s="357"/>
+      <c r="BE8" s="357"/>
+      <c r="BF8" s="357"/>
     </row>
     <row r="9" spans="1:58" ht="21" customHeight="1">
-      <c r="A9" s="335">
+      <c r="A9" s="329">
         <v>4</v>
       </c>
-      <c r="B9" s="335"/>
-      <c r="C9" s="348">
+      <c r="B9" s="329"/>
+      <c r="C9" s="330">
         <v>1.3</v>
       </c>
-      <c r="D9" s="349"/>
-      <c r="E9" s="349"/>
-      <c r="F9" s="349"/>
-      <c r="G9" s="350">
+      <c r="D9" s="331"/>
+      <c r="E9" s="331"/>
+      <c r="F9" s="331"/>
+      <c r="G9" s="332">
         <v>44508</v>
       </c>
-      <c r="H9" s="350"/>
-      <c r="I9" s="350"/>
-      <c r="J9" s="350"/>
-      <c r="K9" s="350"/>
-      <c r="L9" s="335" t="s">
+      <c r="H9" s="332"/>
+      <c r="I9" s="332"/>
+      <c r="J9" s="332"/>
+      <c r="K9" s="332"/>
+      <c r="L9" s="329" t="s">
         <v>279</v>
       </c>
-      <c r="M9" s="335"/>
-      <c r="N9" s="335"/>
-      <c r="O9" s="335"/>
-      <c r="P9" s="335"/>
-      <c r="Q9" s="335"/>
-      <c r="R9" s="325"/>
-      <c r="S9" s="325"/>
-      <c r="T9" s="325"/>
-      <c r="U9" s="325"/>
-      <c r="V9" s="325"/>
-      <c r="W9" s="325"/>
-      <c r="X9" s="325"/>
-      <c r="Y9" s="325"/>
-      <c r="Z9" s="325"/>
-      <c r="AA9" s="325"/>
-      <c r="AB9" s="325" t="s">
+      <c r="M9" s="329"/>
+      <c r="N9" s="329"/>
+      <c r="O9" s="329"/>
+      <c r="P9" s="329"/>
+      <c r="Q9" s="329"/>
+      <c r="R9" s="333"/>
+      <c r="S9" s="333"/>
+      <c r="T9" s="333"/>
+      <c r="U9" s="333"/>
+      <c r="V9" s="333"/>
+      <c r="W9" s="333"/>
+      <c r="X9" s="333"/>
+      <c r="Y9" s="333"/>
+      <c r="Z9" s="333"/>
+      <c r="AA9" s="333"/>
+      <c r="AB9" s="333" t="s">
         <v>417</v>
       </c>
-      <c r="AC9" s="325"/>
-      <c r="AD9" s="325"/>
-      <c r="AE9" s="325"/>
-      <c r="AF9" s="325"/>
-      <c r="AG9" s="325"/>
-      <c r="AH9" s="325"/>
-      <c r="AI9" s="325"/>
-      <c r="AJ9" s="325"/>
-      <c r="AK9" s="325"/>
-      <c r="AL9" s="325"/>
-      <c r="AM9" s="325"/>
-      <c r="AN9" s="325"/>
-      <c r="AO9" s="325"/>
-      <c r="AP9" s="325"/>
-      <c r="AQ9" s="325"/>
-      <c r="AR9" s="325"/>
-      <c r="AS9" s="325"/>
-      <c r="AT9" s="325"/>
-      <c r="AU9" s="325"/>
-      <c r="AV9" s="325"/>
-      <c r="AW9" s="325"/>
-      <c r="AX9" s="325"/>
-      <c r="AY9" s="325"/>
-      <c r="AZ9" s="325"/>
-      <c r="BA9" s="325"/>
-      <c r="BB9" s="325"/>
-      <c r="BC9" s="325"/>
-      <c r="BD9" s="325"/>
-      <c r="BE9" s="325"/>
-      <c r="BF9" s="325"/>
+      <c r="AC9" s="333"/>
+      <c r="AD9" s="333"/>
+      <c r="AE9" s="333"/>
+      <c r="AF9" s="333"/>
+      <c r="AG9" s="333"/>
+      <c r="AH9" s="333"/>
+      <c r="AI9" s="333"/>
+      <c r="AJ9" s="333"/>
+      <c r="AK9" s="333"/>
+      <c r="AL9" s="333"/>
+      <c r="AM9" s="333"/>
+      <c r="AN9" s="333"/>
+      <c r="AO9" s="333"/>
+      <c r="AP9" s="333"/>
+      <c r="AQ9" s="333"/>
+      <c r="AR9" s="333"/>
+      <c r="AS9" s="333"/>
+      <c r="AT9" s="333"/>
+      <c r="AU9" s="333"/>
+      <c r="AV9" s="333"/>
+      <c r="AW9" s="333"/>
+      <c r="AX9" s="333"/>
+      <c r="AY9" s="333"/>
+      <c r="AZ9" s="333"/>
+      <c r="BA9" s="333"/>
+      <c r="BB9" s="333"/>
+      <c r="BC9" s="333"/>
+      <c r="BD9" s="333"/>
+      <c r="BE9" s="333"/>
+      <c r="BF9" s="333"/>
     </row>
     <row r="10" spans="1:58">
-      <c r="A10" s="354"/>
-      <c r="B10" s="354"/>
-      <c r="C10" s="355"/>
-      <c r="D10" s="356"/>
-      <c r="E10" s="356"/>
-      <c r="F10" s="356"/>
-      <c r="G10" s="357"/>
-      <c r="H10" s="357"/>
-      <c r="I10" s="357"/>
-      <c r="J10" s="357"/>
-      <c r="K10" s="357"/>
-      <c r="L10" s="354"/>
-      <c r="M10" s="354"/>
-      <c r="N10" s="354"/>
-      <c r="O10" s="354"/>
-      <c r="P10" s="354"/>
-      <c r="Q10" s="354"/>
-      <c r="R10" s="324"/>
-      <c r="S10" s="324"/>
-      <c r="T10" s="324"/>
-      <c r="U10" s="324"/>
-      <c r="V10" s="324"/>
-      <c r="W10" s="324"/>
-      <c r="X10" s="324"/>
-      <c r="Y10" s="324"/>
-      <c r="Z10" s="324"/>
-      <c r="AA10" s="324"/>
-      <c r="AB10" s="324"/>
-      <c r="AC10" s="324"/>
-      <c r="AD10" s="324"/>
-      <c r="AE10" s="324"/>
-      <c r="AF10" s="324"/>
-      <c r="AG10" s="324"/>
-      <c r="AH10" s="324"/>
-      <c r="AI10" s="324"/>
-      <c r="AJ10" s="324"/>
-      <c r="AK10" s="324"/>
-      <c r="AL10" s="324"/>
-      <c r="AM10" s="324"/>
-      <c r="AN10" s="324"/>
-      <c r="AO10" s="324"/>
-      <c r="AP10" s="324"/>
-      <c r="AQ10" s="324"/>
-      <c r="AR10" s="324"/>
-      <c r="AS10" s="324"/>
-      <c r="AT10" s="324"/>
-      <c r="AU10" s="324"/>
-      <c r="AV10" s="324"/>
-      <c r="AW10" s="324"/>
-      <c r="AX10" s="324"/>
-      <c r="AY10" s="324"/>
-      <c r="AZ10" s="324"/>
-      <c r="BA10" s="324"/>
-      <c r="BB10" s="324"/>
-      <c r="BC10" s="324"/>
-      <c r="BD10" s="324"/>
-      <c r="BE10" s="324"/>
-      <c r="BF10" s="324"/>
+      <c r="A10" s="327"/>
+      <c r="B10" s="327"/>
+      <c r="C10" s="324"/>
+      <c r="D10" s="328"/>
+      <c r="E10" s="328"/>
+      <c r="F10" s="328"/>
+      <c r="G10" s="325"/>
+      <c r="H10" s="325"/>
+      <c r="I10" s="325"/>
+      <c r="J10" s="325"/>
+      <c r="K10" s="325"/>
+      <c r="L10" s="327"/>
+      <c r="M10" s="327"/>
+      <c r="N10" s="327"/>
+      <c r="O10" s="327"/>
+      <c r="P10" s="327"/>
+      <c r="Q10" s="327"/>
+      <c r="R10" s="326"/>
+      <c r="S10" s="326"/>
+      <c r="T10" s="326"/>
+      <c r="U10" s="326"/>
+      <c r="V10" s="326"/>
+      <c r="W10" s="326"/>
+      <c r="X10" s="326"/>
+      <c r="Y10" s="326"/>
+      <c r="Z10" s="326"/>
+      <c r="AA10" s="326"/>
+      <c r="AB10" s="326"/>
+      <c r="AC10" s="326"/>
+      <c r="AD10" s="326"/>
+      <c r="AE10" s="326"/>
+      <c r="AF10" s="326"/>
+      <c r="AG10" s="326"/>
+      <c r="AH10" s="326"/>
+      <c r="AI10" s="326"/>
+      <c r="AJ10" s="326"/>
+      <c r="AK10" s="326"/>
+      <c r="AL10" s="326"/>
+      <c r="AM10" s="326"/>
+      <c r="AN10" s="326"/>
+      <c r="AO10" s="326"/>
+      <c r="AP10" s="326"/>
+      <c r="AQ10" s="326"/>
+      <c r="AR10" s="326"/>
+      <c r="AS10" s="326"/>
+      <c r="AT10" s="326"/>
+      <c r="AU10" s="326"/>
+      <c r="AV10" s="326"/>
+      <c r="AW10" s="326"/>
+      <c r="AX10" s="326"/>
+      <c r="AY10" s="326"/>
+      <c r="AZ10" s="326"/>
+      <c r="BA10" s="326"/>
+      <c r="BB10" s="326"/>
+      <c r="BC10" s="326"/>
+      <c r="BD10" s="326"/>
+      <c r="BE10" s="326"/>
+      <c r="BF10" s="326"/>
     </row>
     <row r="11" spans="1:58">
-      <c r="A11" s="354"/>
-      <c r="B11" s="354"/>
-      <c r="C11" s="355"/>
-      <c r="D11" s="356"/>
-      <c r="E11" s="356"/>
-      <c r="F11" s="356"/>
-      <c r="G11" s="357"/>
-      <c r="H11" s="357"/>
-      <c r="I11" s="357"/>
-      <c r="J11" s="357"/>
-      <c r="K11" s="357"/>
-      <c r="L11" s="354"/>
-      <c r="M11" s="354"/>
-      <c r="N11" s="354"/>
-      <c r="O11" s="354"/>
-      <c r="P11" s="354"/>
-      <c r="Q11" s="354"/>
-      <c r="R11" s="324"/>
-      <c r="S11" s="324"/>
-      <c r="T11" s="324"/>
-      <c r="U11" s="324"/>
-      <c r="V11" s="324"/>
-      <c r="W11" s="324"/>
-      <c r="X11" s="324"/>
-      <c r="Y11" s="324"/>
-      <c r="Z11" s="324"/>
-      <c r="AA11" s="324"/>
-      <c r="AB11" s="324"/>
-      <c r="AC11" s="324"/>
-      <c r="AD11" s="324"/>
-      <c r="AE11" s="324"/>
-      <c r="AF11" s="324"/>
-      <c r="AG11" s="324"/>
-      <c r="AH11" s="324"/>
-      <c r="AI11" s="324"/>
-      <c r="AJ11" s="324"/>
-      <c r="AK11" s="324"/>
-      <c r="AL11" s="324"/>
-      <c r="AM11" s="324"/>
-      <c r="AN11" s="324"/>
-      <c r="AO11" s="324"/>
-      <c r="AP11" s="324"/>
-      <c r="AQ11" s="324"/>
-      <c r="AR11" s="324"/>
-      <c r="AS11" s="324"/>
-      <c r="AT11" s="324"/>
-      <c r="AU11" s="324"/>
-      <c r="AV11" s="324"/>
-      <c r="AW11" s="324"/>
-      <c r="AX11" s="324"/>
-      <c r="AY11" s="324"/>
-      <c r="AZ11" s="324"/>
-      <c r="BA11" s="324"/>
-      <c r="BB11" s="324"/>
-      <c r="BC11" s="324"/>
-      <c r="BD11" s="324"/>
-      <c r="BE11" s="324"/>
-      <c r="BF11" s="324"/>
+      <c r="A11" s="327"/>
+      <c r="B11" s="327"/>
+      <c r="C11" s="324"/>
+      <c r="D11" s="328"/>
+      <c r="E11" s="328"/>
+      <c r="F11" s="328"/>
+      <c r="G11" s="325"/>
+      <c r="H11" s="325"/>
+      <c r="I11" s="325"/>
+      <c r="J11" s="325"/>
+      <c r="K11" s="325"/>
+      <c r="L11" s="327"/>
+      <c r="M11" s="327"/>
+      <c r="N11" s="327"/>
+      <c r="O11" s="327"/>
+      <c r="P11" s="327"/>
+      <c r="Q11" s="327"/>
+      <c r="R11" s="326"/>
+      <c r="S11" s="326"/>
+      <c r="T11" s="326"/>
+      <c r="U11" s="326"/>
+      <c r="V11" s="326"/>
+      <c r="W11" s="326"/>
+      <c r="X11" s="326"/>
+      <c r="Y11" s="326"/>
+      <c r="Z11" s="326"/>
+      <c r="AA11" s="326"/>
+      <c r="AB11" s="326"/>
+      <c r="AC11" s="326"/>
+      <c r="AD11" s="326"/>
+      <c r="AE11" s="326"/>
+      <c r="AF11" s="326"/>
+      <c r="AG11" s="326"/>
+      <c r="AH11" s="326"/>
+      <c r="AI11" s="326"/>
+      <c r="AJ11" s="326"/>
+      <c r="AK11" s="326"/>
+      <c r="AL11" s="326"/>
+      <c r="AM11" s="326"/>
+      <c r="AN11" s="326"/>
+      <c r="AO11" s="326"/>
+      <c r="AP11" s="326"/>
+      <c r="AQ11" s="326"/>
+      <c r="AR11" s="326"/>
+      <c r="AS11" s="326"/>
+      <c r="AT11" s="326"/>
+      <c r="AU11" s="326"/>
+      <c r="AV11" s="326"/>
+      <c r="AW11" s="326"/>
+      <c r="AX11" s="326"/>
+      <c r="AY11" s="326"/>
+      <c r="AZ11" s="326"/>
+      <c r="BA11" s="326"/>
+      <c r="BB11" s="326"/>
+      <c r="BC11" s="326"/>
+      <c r="BD11" s="326"/>
+      <c r="BE11" s="326"/>
+      <c r="BF11" s="326"/>
     </row>
     <row r="12" spans="1:58">
       <c r="A12" s="186"/>
       <c r="B12" s="186"/>
-      <c r="C12" s="355"/>
-      <c r="D12" s="355"/>
-      <c r="E12" s="355"/>
-      <c r="F12" s="355"/>
+      <c r="C12" s="324"/>
+      <c r="D12" s="324"/>
+      <c r="E12" s="324"/>
+      <c r="F12" s="324"/>
       <c r="G12" s="187"/>
       <c r="H12" s="187"/>
       <c r="I12" s="187"/>
@@ -8591,10 +8591,10 @@
     <row r="13" spans="1:58">
       <c r="A13" s="186"/>
       <c r="B13" s="186"/>
-      <c r="C13" s="355"/>
-      <c r="D13" s="355"/>
-      <c r="E13" s="355"/>
-      <c r="F13" s="355"/>
+      <c r="C13" s="324"/>
+      <c r="D13" s="324"/>
+      <c r="E13" s="324"/>
+      <c r="F13" s="324"/>
       <c r="G13" s="187"/>
       <c r="H13" s="187"/>
       <c r="I13" s="187"/>
@@ -8649,1339 +8649,1233 @@
       <c r="BF13" s="188"/>
     </row>
     <row r="14" spans="1:58">
-      <c r="A14" s="354"/>
-      <c r="B14" s="354"/>
-      <c r="C14" s="355"/>
-      <c r="D14" s="356"/>
-      <c r="E14" s="356"/>
-      <c r="F14" s="356"/>
-      <c r="G14" s="357"/>
-      <c r="H14" s="357"/>
-      <c r="I14" s="357"/>
-      <c r="J14" s="357"/>
-      <c r="K14" s="357"/>
-      <c r="L14" s="354"/>
-      <c r="M14" s="354"/>
-      <c r="N14" s="354"/>
-      <c r="O14" s="354"/>
-      <c r="P14" s="354"/>
-      <c r="Q14" s="354"/>
-      <c r="R14" s="324"/>
-      <c r="S14" s="324"/>
-      <c r="T14" s="324"/>
-      <c r="U14" s="324"/>
-      <c r="V14" s="324"/>
-      <c r="W14" s="324"/>
-      <c r="X14" s="324"/>
-      <c r="Y14" s="324"/>
-      <c r="Z14" s="324"/>
-      <c r="AA14" s="324"/>
-      <c r="AB14" s="324"/>
-      <c r="AC14" s="324"/>
-      <c r="AD14" s="324"/>
-      <c r="AE14" s="324"/>
-      <c r="AF14" s="324"/>
-      <c r="AG14" s="324"/>
-      <c r="AH14" s="324"/>
-      <c r="AI14" s="324"/>
-      <c r="AJ14" s="324"/>
-      <c r="AK14" s="324"/>
-      <c r="AL14" s="324"/>
-      <c r="AM14" s="324"/>
-      <c r="AN14" s="324"/>
-      <c r="AO14" s="324"/>
-      <c r="AP14" s="324"/>
-      <c r="AQ14" s="324"/>
-      <c r="AR14" s="324"/>
-      <c r="AS14" s="324"/>
-      <c r="AT14" s="324"/>
-      <c r="AU14" s="324"/>
-      <c r="AV14" s="324"/>
-      <c r="AW14" s="324"/>
-      <c r="AX14" s="324"/>
-      <c r="AY14" s="324"/>
-      <c r="AZ14" s="324"/>
-      <c r="BA14" s="324"/>
-      <c r="BB14" s="324"/>
-      <c r="BC14" s="324"/>
-      <c r="BD14" s="324"/>
-      <c r="BE14" s="324"/>
-      <c r="BF14" s="324"/>
+      <c r="A14" s="327"/>
+      <c r="B14" s="327"/>
+      <c r="C14" s="324"/>
+      <c r="D14" s="328"/>
+      <c r="E14" s="328"/>
+      <c r="F14" s="328"/>
+      <c r="G14" s="325"/>
+      <c r="H14" s="325"/>
+      <c r="I14" s="325"/>
+      <c r="J14" s="325"/>
+      <c r="K14" s="325"/>
+      <c r="L14" s="327"/>
+      <c r="M14" s="327"/>
+      <c r="N14" s="327"/>
+      <c r="O14" s="327"/>
+      <c r="P14" s="327"/>
+      <c r="Q14" s="327"/>
+      <c r="R14" s="326"/>
+      <c r="S14" s="326"/>
+      <c r="T14" s="326"/>
+      <c r="U14" s="326"/>
+      <c r="V14" s="326"/>
+      <c r="W14" s="326"/>
+      <c r="X14" s="326"/>
+      <c r="Y14" s="326"/>
+      <c r="Z14" s="326"/>
+      <c r="AA14" s="326"/>
+      <c r="AB14" s="326"/>
+      <c r="AC14" s="326"/>
+      <c r="AD14" s="326"/>
+      <c r="AE14" s="326"/>
+      <c r="AF14" s="326"/>
+      <c r="AG14" s="326"/>
+      <c r="AH14" s="326"/>
+      <c r="AI14" s="326"/>
+      <c r="AJ14" s="326"/>
+      <c r="AK14" s="326"/>
+      <c r="AL14" s="326"/>
+      <c r="AM14" s="326"/>
+      <c r="AN14" s="326"/>
+      <c r="AO14" s="326"/>
+      <c r="AP14" s="326"/>
+      <c r="AQ14" s="326"/>
+      <c r="AR14" s="326"/>
+      <c r="AS14" s="326"/>
+      <c r="AT14" s="326"/>
+      <c r="AU14" s="326"/>
+      <c r="AV14" s="326"/>
+      <c r="AW14" s="326"/>
+      <c r="AX14" s="326"/>
+      <c r="AY14" s="326"/>
+      <c r="AZ14" s="326"/>
+      <c r="BA14" s="326"/>
+      <c r="BB14" s="326"/>
+      <c r="BC14" s="326"/>
+      <c r="BD14" s="326"/>
+      <c r="BE14" s="326"/>
+      <c r="BF14" s="326"/>
     </row>
     <row r="15" spans="1:58">
-      <c r="A15" s="354"/>
-      <c r="B15" s="354"/>
-      <c r="C15" s="355"/>
-      <c r="D15" s="356"/>
-      <c r="E15" s="356"/>
-      <c r="F15" s="356"/>
-      <c r="G15" s="357"/>
-      <c r="H15" s="357"/>
-      <c r="I15" s="357"/>
-      <c r="J15" s="357"/>
-      <c r="K15" s="357"/>
-      <c r="L15" s="354"/>
-      <c r="M15" s="354"/>
-      <c r="N15" s="354"/>
-      <c r="O15" s="354"/>
-      <c r="P15" s="354"/>
-      <c r="Q15" s="354"/>
-      <c r="R15" s="324"/>
-      <c r="S15" s="324"/>
-      <c r="T15" s="324"/>
-      <c r="U15" s="324"/>
-      <c r="V15" s="324"/>
-      <c r="W15" s="324"/>
-      <c r="X15" s="324"/>
-      <c r="Y15" s="324"/>
-      <c r="Z15" s="324"/>
-      <c r="AA15" s="324"/>
-      <c r="AB15" s="324"/>
-      <c r="AC15" s="324"/>
-      <c r="AD15" s="324"/>
-      <c r="AE15" s="324"/>
-      <c r="AF15" s="324"/>
-      <c r="AG15" s="324"/>
-      <c r="AH15" s="324"/>
-      <c r="AI15" s="324"/>
-      <c r="AJ15" s="324"/>
-      <c r="AK15" s="324"/>
-      <c r="AL15" s="324"/>
-      <c r="AM15" s="324"/>
-      <c r="AN15" s="324"/>
-      <c r="AO15" s="324"/>
-      <c r="AP15" s="324"/>
-      <c r="AQ15" s="324"/>
-      <c r="AR15" s="324"/>
-      <c r="AS15" s="324"/>
-      <c r="AT15" s="324"/>
-      <c r="AU15" s="324"/>
-      <c r="AV15" s="324"/>
-      <c r="AW15" s="324"/>
-      <c r="AX15" s="324"/>
-      <c r="AY15" s="324"/>
-      <c r="AZ15" s="324"/>
-      <c r="BA15" s="324"/>
-      <c r="BB15" s="324"/>
-      <c r="BC15" s="324"/>
-      <c r="BD15" s="324"/>
-      <c r="BE15" s="324"/>
-      <c r="BF15" s="324"/>
+      <c r="A15" s="327"/>
+      <c r="B15" s="327"/>
+      <c r="C15" s="324"/>
+      <c r="D15" s="328"/>
+      <c r="E15" s="328"/>
+      <c r="F15" s="328"/>
+      <c r="G15" s="325"/>
+      <c r="H15" s="325"/>
+      <c r="I15" s="325"/>
+      <c r="J15" s="325"/>
+      <c r="K15" s="325"/>
+      <c r="L15" s="327"/>
+      <c r="M15" s="327"/>
+      <c r="N15" s="327"/>
+      <c r="O15" s="327"/>
+      <c r="P15" s="327"/>
+      <c r="Q15" s="327"/>
+      <c r="R15" s="326"/>
+      <c r="S15" s="326"/>
+      <c r="T15" s="326"/>
+      <c r="U15" s="326"/>
+      <c r="V15" s="326"/>
+      <c r="W15" s="326"/>
+      <c r="X15" s="326"/>
+      <c r="Y15" s="326"/>
+      <c r="Z15" s="326"/>
+      <c r="AA15" s="326"/>
+      <c r="AB15" s="326"/>
+      <c r="AC15" s="326"/>
+      <c r="AD15" s="326"/>
+      <c r="AE15" s="326"/>
+      <c r="AF15" s="326"/>
+      <c r="AG15" s="326"/>
+      <c r="AH15" s="326"/>
+      <c r="AI15" s="326"/>
+      <c r="AJ15" s="326"/>
+      <c r="AK15" s="326"/>
+      <c r="AL15" s="326"/>
+      <c r="AM15" s="326"/>
+      <c r="AN15" s="326"/>
+      <c r="AO15" s="326"/>
+      <c r="AP15" s="326"/>
+      <c r="AQ15" s="326"/>
+      <c r="AR15" s="326"/>
+      <c r="AS15" s="326"/>
+      <c r="AT15" s="326"/>
+      <c r="AU15" s="326"/>
+      <c r="AV15" s="326"/>
+      <c r="AW15" s="326"/>
+      <c r="AX15" s="326"/>
+      <c r="AY15" s="326"/>
+      <c r="AZ15" s="326"/>
+      <c r="BA15" s="326"/>
+      <c r="BB15" s="326"/>
+      <c r="BC15" s="326"/>
+      <c r="BD15" s="326"/>
+      <c r="BE15" s="326"/>
+      <c r="BF15" s="326"/>
     </row>
     <row r="16" spans="1:58">
-      <c r="A16" s="354"/>
-      <c r="B16" s="354"/>
-      <c r="C16" s="355"/>
-      <c r="D16" s="356"/>
-      <c r="E16" s="356"/>
-      <c r="F16" s="356"/>
-      <c r="G16" s="357"/>
-      <c r="H16" s="357"/>
-      <c r="I16" s="357"/>
-      <c r="J16" s="357"/>
-      <c r="K16" s="357"/>
-      <c r="L16" s="354"/>
-      <c r="M16" s="354"/>
-      <c r="N16" s="354"/>
-      <c r="O16" s="354"/>
-      <c r="P16" s="354"/>
-      <c r="Q16" s="354"/>
-      <c r="R16" s="324"/>
-      <c r="S16" s="324"/>
-      <c r="T16" s="324"/>
-      <c r="U16" s="324"/>
-      <c r="V16" s="324"/>
-      <c r="W16" s="324"/>
-      <c r="X16" s="324"/>
-      <c r="Y16" s="324"/>
-      <c r="Z16" s="324"/>
-      <c r="AA16" s="324"/>
-      <c r="AB16" s="324"/>
-      <c r="AC16" s="324"/>
-      <c r="AD16" s="324"/>
-      <c r="AE16" s="324"/>
-      <c r="AF16" s="324"/>
-      <c r="AG16" s="324"/>
-      <c r="AH16" s="324"/>
-      <c r="AI16" s="324"/>
-      <c r="AJ16" s="324"/>
-      <c r="AK16" s="324"/>
-      <c r="AL16" s="324"/>
-      <c r="AM16" s="324"/>
-      <c r="AN16" s="324"/>
-      <c r="AO16" s="324"/>
-      <c r="AP16" s="324"/>
-      <c r="AQ16" s="324"/>
-      <c r="AR16" s="324"/>
-      <c r="AS16" s="324"/>
-      <c r="AT16" s="324"/>
-      <c r="AU16" s="324"/>
-      <c r="AV16" s="324"/>
-      <c r="AW16" s="324"/>
-      <c r="AX16" s="324"/>
-      <c r="AY16" s="324"/>
-      <c r="AZ16" s="324"/>
-      <c r="BA16" s="324"/>
-      <c r="BB16" s="324"/>
-      <c r="BC16" s="324"/>
-      <c r="BD16" s="324"/>
-      <c r="BE16" s="324"/>
-      <c r="BF16" s="324"/>
+      <c r="A16" s="327"/>
+      <c r="B16" s="327"/>
+      <c r="C16" s="324"/>
+      <c r="D16" s="328"/>
+      <c r="E16" s="328"/>
+      <c r="F16" s="328"/>
+      <c r="G16" s="325"/>
+      <c r="H16" s="325"/>
+      <c r="I16" s="325"/>
+      <c r="J16" s="325"/>
+      <c r="K16" s="325"/>
+      <c r="L16" s="327"/>
+      <c r="M16" s="327"/>
+      <c r="N16" s="327"/>
+      <c r="O16" s="327"/>
+      <c r="P16" s="327"/>
+      <c r="Q16" s="327"/>
+      <c r="R16" s="326"/>
+      <c r="S16" s="326"/>
+      <c r="T16" s="326"/>
+      <c r="U16" s="326"/>
+      <c r="V16" s="326"/>
+      <c r="W16" s="326"/>
+      <c r="X16" s="326"/>
+      <c r="Y16" s="326"/>
+      <c r="Z16" s="326"/>
+      <c r="AA16" s="326"/>
+      <c r="AB16" s="326"/>
+      <c r="AC16" s="326"/>
+      <c r="AD16" s="326"/>
+      <c r="AE16" s="326"/>
+      <c r="AF16" s="326"/>
+      <c r="AG16" s="326"/>
+      <c r="AH16" s="326"/>
+      <c r="AI16" s="326"/>
+      <c r="AJ16" s="326"/>
+      <c r="AK16" s="326"/>
+      <c r="AL16" s="326"/>
+      <c r="AM16" s="326"/>
+      <c r="AN16" s="326"/>
+      <c r="AO16" s="326"/>
+      <c r="AP16" s="326"/>
+      <c r="AQ16" s="326"/>
+      <c r="AR16" s="326"/>
+      <c r="AS16" s="326"/>
+      <c r="AT16" s="326"/>
+      <c r="AU16" s="326"/>
+      <c r="AV16" s="326"/>
+      <c r="AW16" s="326"/>
+      <c r="AX16" s="326"/>
+      <c r="AY16" s="326"/>
+      <c r="AZ16" s="326"/>
+      <c r="BA16" s="326"/>
+      <c r="BB16" s="326"/>
+      <c r="BC16" s="326"/>
+      <c r="BD16" s="326"/>
+      <c r="BE16" s="326"/>
+      <c r="BF16" s="326"/>
     </row>
     <row r="17" spans="1:58">
-      <c r="A17" s="354"/>
-      <c r="B17" s="354"/>
-      <c r="C17" s="355"/>
-      <c r="D17" s="356"/>
-      <c r="E17" s="356"/>
-      <c r="F17" s="356"/>
-      <c r="G17" s="357"/>
-      <c r="H17" s="357"/>
-      <c r="I17" s="357"/>
-      <c r="J17" s="357"/>
-      <c r="K17" s="357"/>
-      <c r="L17" s="354"/>
-      <c r="M17" s="354"/>
-      <c r="N17" s="354"/>
-      <c r="O17" s="354"/>
-      <c r="P17" s="354"/>
-      <c r="Q17" s="354"/>
-      <c r="R17" s="324"/>
-      <c r="S17" s="324"/>
-      <c r="T17" s="324"/>
-      <c r="U17" s="324"/>
-      <c r="V17" s="324"/>
-      <c r="W17" s="324"/>
-      <c r="X17" s="324"/>
-      <c r="Y17" s="324"/>
-      <c r="Z17" s="324"/>
-      <c r="AA17" s="324"/>
-      <c r="AB17" s="324"/>
-      <c r="AC17" s="324"/>
-      <c r="AD17" s="324"/>
-      <c r="AE17" s="324"/>
-      <c r="AF17" s="324"/>
-      <c r="AG17" s="324"/>
-      <c r="AH17" s="324"/>
-      <c r="AI17" s="324"/>
-      <c r="AJ17" s="324"/>
-      <c r="AK17" s="324"/>
-      <c r="AL17" s="324"/>
-      <c r="AM17" s="324"/>
-      <c r="AN17" s="324"/>
-      <c r="AO17" s="324"/>
-      <c r="AP17" s="324"/>
-      <c r="AQ17" s="324"/>
-      <c r="AR17" s="324"/>
-      <c r="AS17" s="324"/>
-      <c r="AT17" s="324"/>
-      <c r="AU17" s="324"/>
-      <c r="AV17" s="324"/>
-      <c r="AW17" s="324"/>
-      <c r="AX17" s="324"/>
-      <c r="AY17" s="324"/>
-      <c r="AZ17" s="324"/>
-      <c r="BA17" s="324"/>
-      <c r="BB17" s="324"/>
-      <c r="BC17" s="324"/>
-      <c r="BD17" s="324"/>
-      <c r="BE17" s="324"/>
-      <c r="BF17" s="324"/>
+      <c r="A17" s="327"/>
+      <c r="B17" s="327"/>
+      <c r="C17" s="324"/>
+      <c r="D17" s="328"/>
+      <c r="E17" s="328"/>
+      <c r="F17" s="328"/>
+      <c r="G17" s="325"/>
+      <c r="H17" s="325"/>
+      <c r="I17" s="325"/>
+      <c r="J17" s="325"/>
+      <c r="K17" s="325"/>
+      <c r="L17" s="327"/>
+      <c r="M17" s="327"/>
+      <c r="N17" s="327"/>
+      <c r="O17" s="327"/>
+      <c r="P17" s="327"/>
+      <c r="Q17" s="327"/>
+      <c r="R17" s="326"/>
+      <c r="S17" s="326"/>
+      <c r="T17" s="326"/>
+      <c r="U17" s="326"/>
+      <c r="V17" s="326"/>
+      <c r="W17" s="326"/>
+      <c r="X17" s="326"/>
+      <c r="Y17" s="326"/>
+      <c r="Z17" s="326"/>
+      <c r="AA17" s="326"/>
+      <c r="AB17" s="326"/>
+      <c r="AC17" s="326"/>
+      <c r="AD17" s="326"/>
+      <c r="AE17" s="326"/>
+      <c r="AF17" s="326"/>
+      <c r="AG17" s="326"/>
+      <c r="AH17" s="326"/>
+      <c r="AI17" s="326"/>
+      <c r="AJ17" s="326"/>
+      <c r="AK17" s="326"/>
+      <c r="AL17" s="326"/>
+      <c r="AM17" s="326"/>
+      <c r="AN17" s="326"/>
+      <c r="AO17" s="326"/>
+      <c r="AP17" s="326"/>
+      <c r="AQ17" s="326"/>
+      <c r="AR17" s="326"/>
+      <c r="AS17" s="326"/>
+      <c r="AT17" s="326"/>
+      <c r="AU17" s="326"/>
+      <c r="AV17" s="326"/>
+      <c r="AW17" s="326"/>
+      <c r="AX17" s="326"/>
+      <c r="AY17" s="326"/>
+      <c r="AZ17" s="326"/>
+      <c r="BA17" s="326"/>
+      <c r="BB17" s="326"/>
+      <c r="BC17" s="326"/>
+      <c r="BD17" s="326"/>
+      <c r="BE17" s="326"/>
+      <c r="BF17" s="326"/>
     </row>
     <row r="18" spans="1:58">
-      <c r="A18" s="354"/>
-      <c r="B18" s="354"/>
-      <c r="C18" s="355"/>
-      <c r="D18" s="356"/>
-      <c r="E18" s="356"/>
-      <c r="F18" s="356"/>
-      <c r="G18" s="357"/>
-      <c r="H18" s="357"/>
-      <c r="I18" s="357"/>
-      <c r="J18" s="357"/>
-      <c r="K18" s="357"/>
-      <c r="L18" s="354"/>
-      <c r="M18" s="354"/>
-      <c r="N18" s="354"/>
-      <c r="O18" s="354"/>
-      <c r="P18" s="354"/>
-      <c r="Q18" s="354"/>
-      <c r="R18" s="324"/>
-      <c r="S18" s="324"/>
-      <c r="T18" s="324"/>
-      <c r="U18" s="324"/>
-      <c r="V18" s="324"/>
-      <c r="W18" s="324"/>
-      <c r="X18" s="324"/>
-      <c r="Y18" s="324"/>
-      <c r="Z18" s="324"/>
-      <c r="AA18" s="324"/>
-      <c r="AB18" s="324"/>
-      <c r="AC18" s="324"/>
-      <c r="AD18" s="324"/>
-      <c r="AE18" s="324"/>
-      <c r="AF18" s="324"/>
-      <c r="AG18" s="324"/>
-      <c r="AH18" s="324"/>
-      <c r="AI18" s="324"/>
-      <c r="AJ18" s="324"/>
-      <c r="AK18" s="324"/>
-      <c r="AL18" s="324"/>
-      <c r="AM18" s="324"/>
-      <c r="AN18" s="324"/>
-      <c r="AO18" s="324"/>
-      <c r="AP18" s="324"/>
-      <c r="AQ18" s="324"/>
-      <c r="AR18" s="324"/>
-      <c r="AS18" s="324"/>
-      <c r="AT18" s="324"/>
-      <c r="AU18" s="324"/>
-      <c r="AV18" s="324"/>
-      <c r="AW18" s="324"/>
-      <c r="AX18" s="324"/>
-      <c r="AY18" s="324"/>
-      <c r="AZ18" s="324"/>
-      <c r="BA18" s="324"/>
-      <c r="BB18" s="324"/>
-      <c r="BC18" s="324"/>
-      <c r="BD18" s="324"/>
-      <c r="BE18" s="324"/>
-      <c r="BF18" s="324"/>
+      <c r="A18" s="327"/>
+      <c r="B18" s="327"/>
+      <c r="C18" s="324"/>
+      <c r="D18" s="328"/>
+      <c r="E18" s="328"/>
+      <c r="F18" s="328"/>
+      <c r="G18" s="325"/>
+      <c r="H18" s="325"/>
+      <c r="I18" s="325"/>
+      <c r="J18" s="325"/>
+      <c r="K18" s="325"/>
+      <c r="L18" s="327"/>
+      <c r="M18" s="327"/>
+      <c r="N18" s="327"/>
+      <c r="O18" s="327"/>
+      <c r="P18" s="327"/>
+      <c r="Q18" s="327"/>
+      <c r="R18" s="326"/>
+      <c r="S18" s="326"/>
+      <c r="T18" s="326"/>
+      <c r="U18" s="326"/>
+      <c r="V18" s="326"/>
+      <c r="W18" s="326"/>
+      <c r="X18" s="326"/>
+      <c r="Y18" s="326"/>
+      <c r="Z18" s="326"/>
+      <c r="AA18" s="326"/>
+      <c r="AB18" s="326"/>
+      <c r="AC18" s="326"/>
+      <c r="AD18" s="326"/>
+      <c r="AE18" s="326"/>
+      <c r="AF18" s="326"/>
+      <c r="AG18" s="326"/>
+      <c r="AH18" s="326"/>
+      <c r="AI18" s="326"/>
+      <c r="AJ18" s="326"/>
+      <c r="AK18" s="326"/>
+      <c r="AL18" s="326"/>
+      <c r="AM18" s="326"/>
+      <c r="AN18" s="326"/>
+      <c r="AO18" s="326"/>
+      <c r="AP18" s="326"/>
+      <c r="AQ18" s="326"/>
+      <c r="AR18" s="326"/>
+      <c r="AS18" s="326"/>
+      <c r="AT18" s="326"/>
+      <c r="AU18" s="326"/>
+      <c r="AV18" s="326"/>
+      <c r="AW18" s="326"/>
+      <c r="AX18" s="326"/>
+      <c r="AY18" s="326"/>
+      <c r="AZ18" s="326"/>
+      <c r="BA18" s="326"/>
+      <c r="BB18" s="326"/>
+      <c r="BC18" s="326"/>
+      <c r="BD18" s="326"/>
+      <c r="BE18" s="326"/>
+      <c r="BF18" s="326"/>
     </row>
     <row r="19" spans="1:58">
-      <c r="A19" s="354"/>
-      <c r="B19" s="354"/>
-      <c r="C19" s="355"/>
-      <c r="D19" s="356"/>
-      <c r="E19" s="356"/>
-      <c r="F19" s="356"/>
-      <c r="G19" s="357"/>
-      <c r="H19" s="357"/>
-      <c r="I19" s="357"/>
-      <c r="J19" s="357"/>
-      <c r="K19" s="357"/>
-      <c r="L19" s="354"/>
-      <c r="M19" s="354"/>
-      <c r="N19" s="354"/>
-      <c r="O19" s="354"/>
-      <c r="P19" s="354"/>
-      <c r="Q19" s="354"/>
-      <c r="R19" s="324"/>
-      <c r="S19" s="324"/>
-      <c r="T19" s="324"/>
-      <c r="U19" s="324"/>
-      <c r="V19" s="324"/>
-      <c r="W19" s="324"/>
-      <c r="X19" s="324"/>
-      <c r="Y19" s="324"/>
-      <c r="Z19" s="324"/>
-      <c r="AA19" s="324"/>
-      <c r="AB19" s="324"/>
-      <c r="AC19" s="324"/>
-      <c r="AD19" s="324"/>
-      <c r="AE19" s="324"/>
-      <c r="AF19" s="324"/>
-      <c r="AG19" s="324"/>
-      <c r="AH19" s="324"/>
-      <c r="AI19" s="324"/>
-      <c r="AJ19" s="324"/>
-      <c r="AK19" s="324"/>
-      <c r="AL19" s="324"/>
-      <c r="AM19" s="324"/>
-      <c r="AN19" s="324"/>
-      <c r="AO19" s="324"/>
-      <c r="AP19" s="324"/>
-      <c r="AQ19" s="324"/>
-      <c r="AR19" s="324"/>
-      <c r="AS19" s="324"/>
-      <c r="AT19" s="324"/>
-      <c r="AU19" s="324"/>
-      <c r="AV19" s="324"/>
-      <c r="AW19" s="324"/>
-      <c r="AX19" s="324"/>
-      <c r="AY19" s="324"/>
-      <c r="AZ19" s="324"/>
-      <c r="BA19" s="324"/>
-      <c r="BB19" s="324"/>
-      <c r="BC19" s="324"/>
-      <c r="BD19" s="324"/>
-      <c r="BE19" s="324"/>
-      <c r="BF19" s="324"/>
+      <c r="A19" s="327"/>
+      <c r="B19" s="327"/>
+      <c r="C19" s="324"/>
+      <c r="D19" s="328"/>
+      <c r="E19" s="328"/>
+      <c r="F19" s="328"/>
+      <c r="G19" s="325"/>
+      <c r="H19" s="325"/>
+      <c r="I19" s="325"/>
+      <c r="J19" s="325"/>
+      <c r="K19" s="325"/>
+      <c r="L19" s="327"/>
+      <c r="M19" s="327"/>
+      <c r="N19" s="327"/>
+      <c r="O19" s="327"/>
+      <c r="P19" s="327"/>
+      <c r="Q19" s="327"/>
+      <c r="R19" s="326"/>
+      <c r="S19" s="326"/>
+      <c r="T19" s="326"/>
+      <c r="U19" s="326"/>
+      <c r="V19" s="326"/>
+      <c r="W19" s="326"/>
+      <c r="X19" s="326"/>
+      <c r="Y19" s="326"/>
+      <c r="Z19" s="326"/>
+      <c r="AA19" s="326"/>
+      <c r="AB19" s="326"/>
+      <c r="AC19" s="326"/>
+      <c r="AD19" s="326"/>
+      <c r="AE19" s="326"/>
+      <c r="AF19" s="326"/>
+      <c r="AG19" s="326"/>
+      <c r="AH19" s="326"/>
+      <c r="AI19" s="326"/>
+      <c r="AJ19" s="326"/>
+      <c r="AK19" s="326"/>
+      <c r="AL19" s="326"/>
+      <c r="AM19" s="326"/>
+      <c r="AN19" s="326"/>
+      <c r="AO19" s="326"/>
+      <c r="AP19" s="326"/>
+      <c r="AQ19" s="326"/>
+      <c r="AR19" s="326"/>
+      <c r="AS19" s="326"/>
+      <c r="AT19" s="326"/>
+      <c r="AU19" s="326"/>
+      <c r="AV19" s="326"/>
+      <c r="AW19" s="326"/>
+      <c r="AX19" s="326"/>
+      <c r="AY19" s="326"/>
+      <c r="AZ19" s="326"/>
+      <c r="BA19" s="326"/>
+      <c r="BB19" s="326"/>
+      <c r="BC19" s="326"/>
+      <c r="BD19" s="326"/>
+      <c r="BE19" s="326"/>
+      <c r="BF19" s="326"/>
     </row>
     <row r="20" spans="1:58">
-      <c r="A20" s="354"/>
-      <c r="B20" s="354"/>
-      <c r="C20" s="355"/>
-      <c r="D20" s="356"/>
-      <c r="E20" s="356"/>
-      <c r="F20" s="356"/>
-      <c r="G20" s="357"/>
-      <c r="H20" s="357"/>
-      <c r="I20" s="357"/>
-      <c r="J20" s="357"/>
-      <c r="K20" s="357"/>
-      <c r="L20" s="354"/>
-      <c r="M20" s="354"/>
-      <c r="N20" s="354"/>
-      <c r="O20" s="354"/>
-      <c r="P20" s="354"/>
-      <c r="Q20" s="354"/>
-      <c r="R20" s="324"/>
-      <c r="S20" s="324"/>
-      <c r="T20" s="324"/>
-      <c r="U20" s="324"/>
-      <c r="V20" s="324"/>
-      <c r="W20" s="324"/>
-      <c r="X20" s="324"/>
-      <c r="Y20" s="324"/>
-      <c r="Z20" s="324"/>
-      <c r="AA20" s="324"/>
-      <c r="AB20" s="324"/>
-      <c r="AC20" s="324"/>
-      <c r="AD20" s="324"/>
-      <c r="AE20" s="324"/>
-      <c r="AF20" s="324"/>
-      <c r="AG20" s="324"/>
-      <c r="AH20" s="324"/>
-      <c r="AI20" s="324"/>
-      <c r="AJ20" s="324"/>
-      <c r="AK20" s="324"/>
-      <c r="AL20" s="324"/>
-      <c r="AM20" s="324"/>
-      <c r="AN20" s="324"/>
-      <c r="AO20" s="324"/>
-      <c r="AP20" s="324"/>
-      <c r="AQ20" s="324"/>
-      <c r="AR20" s="324"/>
-      <c r="AS20" s="324"/>
-      <c r="AT20" s="324"/>
-      <c r="AU20" s="324"/>
-      <c r="AV20" s="324"/>
-      <c r="AW20" s="324"/>
-      <c r="AX20" s="324"/>
-      <c r="AY20" s="324"/>
-      <c r="AZ20" s="324"/>
-      <c r="BA20" s="324"/>
-      <c r="BB20" s="324"/>
-      <c r="BC20" s="324"/>
-      <c r="BD20" s="324"/>
-      <c r="BE20" s="324"/>
-      <c r="BF20" s="324"/>
+      <c r="A20" s="327"/>
+      <c r="B20" s="327"/>
+      <c r="C20" s="324"/>
+      <c r="D20" s="328"/>
+      <c r="E20" s="328"/>
+      <c r="F20" s="328"/>
+      <c r="G20" s="325"/>
+      <c r="H20" s="325"/>
+      <c r="I20" s="325"/>
+      <c r="J20" s="325"/>
+      <c r="K20" s="325"/>
+      <c r="L20" s="327"/>
+      <c r="M20" s="327"/>
+      <c r="N20" s="327"/>
+      <c r="O20" s="327"/>
+      <c r="P20" s="327"/>
+      <c r="Q20" s="327"/>
+      <c r="R20" s="326"/>
+      <c r="S20" s="326"/>
+      <c r="T20" s="326"/>
+      <c r="U20" s="326"/>
+      <c r="V20" s="326"/>
+      <c r="W20" s="326"/>
+      <c r="X20" s="326"/>
+      <c r="Y20" s="326"/>
+      <c r="Z20" s="326"/>
+      <c r="AA20" s="326"/>
+      <c r="AB20" s="326"/>
+      <c r="AC20" s="326"/>
+      <c r="AD20" s="326"/>
+      <c r="AE20" s="326"/>
+      <c r="AF20" s="326"/>
+      <c r="AG20" s="326"/>
+      <c r="AH20" s="326"/>
+      <c r="AI20" s="326"/>
+      <c r="AJ20" s="326"/>
+      <c r="AK20" s="326"/>
+      <c r="AL20" s="326"/>
+      <c r="AM20" s="326"/>
+      <c r="AN20" s="326"/>
+      <c r="AO20" s="326"/>
+      <c r="AP20" s="326"/>
+      <c r="AQ20" s="326"/>
+      <c r="AR20" s="326"/>
+      <c r="AS20" s="326"/>
+      <c r="AT20" s="326"/>
+      <c r="AU20" s="326"/>
+      <c r="AV20" s="326"/>
+      <c r="AW20" s="326"/>
+      <c r="AX20" s="326"/>
+      <c r="AY20" s="326"/>
+      <c r="AZ20" s="326"/>
+      <c r="BA20" s="326"/>
+      <c r="BB20" s="326"/>
+      <c r="BC20" s="326"/>
+      <c r="BD20" s="326"/>
+      <c r="BE20" s="326"/>
+      <c r="BF20" s="326"/>
     </row>
     <row r="21" spans="1:58">
-      <c r="A21" s="354"/>
-      <c r="B21" s="354"/>
-      <c r="C21" s="355"/>
-      <c r="D21" s="356"/>
-      <c r="E21" s="356"/>
-      <c r="F21" s="356"/>
-      <c r="G21" s="357"/>
-      <c r="H21" s="357"/>
-      <c r="I21" s="357"/>
-      <c r="J21" s="357"/>
-      <c r="K21" s="357"/>
-      <c r="L21" s="354"/>
-      <c r="M21" s="354"/>
-      <c r="N21" s="354"/>
-      <c r="O21" s="354"/>
-      <c r="P21" s="354"/>
-      <c r="Q21" s="354"/>
-      <c r="R21" s="324"/>
-      <c r="S21" s="324"/>
-      <c r="T21" s="324"/>
-      <c r="U21" s="324"/>
-      <c r="V21" s="324"/>
-      <c r="W21" s="324"/>
-      <c r="X21" s="324"/>
-      <c r="Y21" s="324"/>
-      <c r="Z21" s="324"/>
-      <c r="AA21" s="324"/>
-      <c r="AB21" s="324"/>
-      <c r="AC21" s="324"/>
-      <c r="AD21" s="324"/>
-      <c r="AE21" s="324"/>
-      <c r="AF21" s="324"/>
-      <c r="AG21" s="324"/>
-      <c r="AH21" s="324"/>
-      <c r="AI21" s="324"/>
-      <c r="AJ21" s="324"/>
-      <c r="AK21" s="324"/>
-      <c r="AL21" s="324"/>
-      <c r="AM21" s="324"/>
-      <c r="AN21" s="324"/>
-      <c r="AO21" s="324"/>
-      <c r="AP21" s="324"/>
-      <c r="AQ21" s="324"/>
-      <c r="AR21" s="324"/>
-      <c r="AS21" s="324"/>
-      <c r="AT21" s="324"/>
-      <c r="AU21" s="324"/>
-      <c r="AV21" s="324"/>
-      <c r="AW21" s="324"/>
-      <c r="AX21" s="324"/>
-      <c r="AY21" s="324"/>
-      <c r="AZ21" s="324"/>
-      <c r="BA21" s="324"/>
-      <c r="BB21" s="324"/>
-      <c r="BC21" s="324"/>
-      <c r="BD21" s="324"/>
-      <c r="BE21" s="324"/>
-      <c r="BF21" s="324"/>
+      <c r="A21" s="327"/>
+      <c r="B21" s="327"/>
+      <c r="C21" s="324"/>
+      <c r="D21" s="328"/>
+      <c r="E21" s="328"/>
+      <c r="F21" s="328"/>
+      <c r="G21" s="325"/>
+      <c r="H21" s="325"/>
+      <c r="I21" s="325"/>
+      <c r="J21" s="325"/>
+      <c r="K21" s="325"/>
+      <c r="L21" s="327"/>
+      <c r="M21" s="327"/>
+      <c r="N21" s="327"/>
+      <c r="O21" s="327"/>
+      <c r="P21" s="327"/>
+      <c r="Q21" s="327"/>
+      <c r="R21" s="326"/>
+      <c r="S21" s="326"/>
+      <c r="T21" s="326"/>
+      <c r="U21" s="326"/>
+      <c r="V21" s="326"/>
+      <c r="W21" s="326"/>
+      <c r="X21" s="326"/>
+      <c r="Y21" s="326"/>
+      <c r="Z21" s="326"/>
+      <c r="AA21" s="326"/>
+      <c r="AB21" s="326"/>
+      <c r="AC21" s="326"/>
+      <c r="AD21" s="326"/>
+      <c r="AE21" s="326"/>
+      <c r="AF21" s="326"/>
+      <c r="AG21" s="326"/>
+      <c r="AH21" s="326"/>
+      <c r="AI21" s="326"/>
+      <c r="AJ21" s="326"/>
+      <c r="AK21" s="326"/>
+      <c r="AL21" s="326"/>
+      <c r="AM21" s="326"/>
+      <c r="AN21" s="326"/>
+      <c r="AO21" s="326"/>
+      <c r="AP21" s="326"/>
+      <c r="AQ21" s="326"/>
+      <c r="AR21" s="326"/>
+      <c r="AS21" s="326"/>
+      <c r="AT21" s="326"/>
+      <c r="AU21" s="326"/>
+      <c r="AV21" s="326"/>
+      <c r="AW21" s="326"/>
+      <c r="AX21" s="326"/>
+      <c r="AY21" s="326"/>
+      <c r="AZ21" s="326"/>
+      <c r="BA21" s="326"/>
+      <c r="BB21" s="326"/>
+      <c r="BC21" s="326"/>
+      <c r="BD21" s="326"/>
+      <c r="BE21" s="326"/>
+      <c r="BF21" s="326"/>
     </row>
     <row r="22" spans="1:58">
-      <c r="A22" s="354"/>
-      <c r="B22" s="354"/>
-      <c r="C22" s="355"/>
-      <c r="D22" s="356"/>
-      <c r="E22" s="356"/>
-      <c r="F22" s="356"/>
-      <c r="G22" s="357"/>
-      <c r="H22" s="357"/>
-      <c r="I22" s="357"/>
-      <c r="J22" s="357"/>
-      <c r="K22" s="357"/>
-      <c r="L22" s="354"/>
-      <c r="M22" s="354"/>
-      <c r="N22" s="354"/>
-      <c r="O22" s="354"/>
-      <c r="P22" s="354"/>
-      <c r="Q22" s="354"/>
-      <c r="R22" s="324"/>
-      <c r="S22" s="324"/>
-      <c r="T22" s="324"/>
-      <c r="U22" s="324"/>
-      <c r="V22" s="324"/>
-      <c r="W22" s="324"/>
-      <c r="X22" s="324"/>
-      <c r="Y22" s="324"/>
-      <c r="Z22" s="324"/>
-      <c r="AA22" s="324"/>
-      <c r="AB22" s="324"/>
-      <c r="AC22" s="324"/>
-      <c r="AD22" s="324"/>
-      <c r="AE22" s="324"/>
-      <c r="AF22" s="324"/>
-      <c r="AG22" s="324"/>
-      <c r="AH22" s="324"/>
-      <c r="AI22" s="324"/>
-      <c r="AJ22" s="324"/>
-      <c r="AK22" s="324"/>
-      <c r="AL22" s="324"/>
-      <c r="AM22" s="324"/>
-      <c r="AN22" s="324"/>
-      <c r="AO22" s="324"/>
-      <c r="AP22" s="324"/>
-      <c r="AQ22" s="324"/>
-      <c r="AR22" s="324"/>
-      <c r="AS22" s="324"/>
-      <c r="AT22" s="324"/>
-      <c r="AU22" s="324"/>
-      <c r="AV22" s="324"/>
-      <c r="AW22" s="324"/>
-      <c r="AX22" s="324"/>
-      <c r="AY22" s="324"/>
-      <c r="AZ22" s="324"/>
-      <c r="BA22" s="324"/>
-      <c r="BB22" s="324"/>
-      <c r="BC22" s="324"/>
-      <c r="BD22" s="324"/>
-      <c r="BE22" s="324"/>
-      <c r="BF22" s="324"/>
+      <c r="A22" s="327"/>
+      <c r="B22" s="327"/>
+      <c r="C22" s="324"/>
+      <c r="D22" s="328"/>
+      <c r="E22" s="328"/>
+      <c r="F22" s="328"/>
+      <c r="G22" s="325"/>
+      <c r="H22" s="325"/>
+      <c r="I22" s="325"/>
+      <c r="J22" s="325"/>
+      <c r="K22" s="325"/>
+      <c r="L22" s="327"/>
+      <c r="M22" s="327"/>
+      <c r="N22" s="327"/>
+      <c r="O22" s="327"/>
+      <c r="P22" s="327"/>
+      <c r="Q22" s="327"/>
+      <c r="R22" s="326"/>
+      <c r="S22" s="326"/>
+      <c r="T22" s="326"/>
+      <c r="U22" s="326"/>
+      <c r="V22" s="326"/>
+      <c r="W22" s="326"/>
+      <c r="X22" s="326"/>
+      <c r="Y22" s="326"/>
+      <c r="Z22" s="326"/>
+      <c r="AA22" s="326"/>
+      <c r="AB22" s="326"/>
+      <c r="AC22" s="326"/>
+      <c r="AD22" s="326"/>
+      <c r="AE22" s="326"/>
+      <c r="AF22" s="326"/>
+      <c r="AG22" s="326"/>
+      <c r="AH22" s="326"/>
+      <c r="AI22" s="326"/>
+      <c r="AJ22" s="326"/>
+      <c r="AK22" s="326"/>
+      <c r="AL22" s="326"/>
+      <c r="AM22" s="326"/>
+      <c r="AN22" s="326"/>
+      <c r="AO22" s="326"/>
+      <c r="AP22" s="326"/>
+      <c r="AQ22" s="326"/>
+      <c r="AR22" s="326"/>
+      <c r="AS22" s="326"/>
+      <c r="AT22" s="326"/>
+      <c r="AU22" s="326"/>
+      <c r="AV22" s="326"/>
+      <c r="AW22" s="326"/>
+      <c r="AX22" s="326"/>
+      <c r="AY22" s="326"/>
+      <c r="AZ22" s="326"/>
+      <c r="BA22" s="326"/>
+      <c r="BB22" s="326"/>
+      <c r="BC22" s="326"/>
+      <c r="BD22" s="326"/>
+      <c r="BE22" s="326"/>
+      <c r="BF22" s="326"/>
     </row>
     <row r="23" spans="1:58">
-      <c r="A23" s="354"/>
-      <c r="B23" s="354"/>
-      <c r="C23" s="355"/>
-      <c r="D23" s="356"/>
-      <c r="E23" s="356"/>
-      <c r="F23" s="356"/>
-      <c r="G23" s="357"/>
-      <c r="H23" s="357"/>
-      <c r="I23" s="357"/>
-      <c r="J23" s="357"/>
-      <c r="K23" s="357"/>
-      <c r="L23" s="354"/>
-      <c r="M23" s="354"/>
-      <c r="N23" s="354"/>
-      <c r="O23" s="354"/>
-      <c r="P23" s="354"/>
-      <c r="Q23" s="354"/>
-      <c r="R23" s="324"/>
-      <c r="S23" s="324"/>
-      <c r="T23" s="324"/>
-      <c r="U23" s="324"/>
-      <c r="V23" s="324"/>
-      <c r="W23" s="324"/>
-      <c r="X23" s="324"/>
-      <c r="Y23" s="324"/>
-      <c r="Z23" s="324"/>
-      <c r="AA23" s="324"/>
-      <c r="AB23" s="324"/>
-      <c r="AC23" s="324"/>
-      <c r="AD23" s="324"/>
-      <c r="AE23" s="324"/>
-      <c r="AF23" s="324"/>
-      <c r="AG23" s="324"/>
-      <c r="AH23" s="324"/>
-      <c r="AI23" s="324"/>
-      <c r="AJ23" s="324"/>
-      <c r="AK23" s="324"/>
-      <c r="AL23" s="324"/>
-      <c r="AM23" s="324"/>
-      <c r="AN23" s="324"/>
-      <c r="AO23" s="324"/>
-      <c r="AP23" s="324"/>
-      <c r="AQ23" s="324"/>
-      <c r="AR23" s="324"/>
-      <c r="AS23" s="324"/>
-      <c r="AT23" s="324"/>
-      <c r="AU23" s="324"/>
-      <c r="AV23" s="324"/>
-      <c r="AW23" s="324"/>
-      <c r="AX23" s="324"/>
-      <c r="AY23" s="324"/>
-      <c r="AZ23" s="324"/>
-      <c r="BA23" s="324"/>
-      <c r="BB23" s="324"/>
-      <c r="BC23" s="324"/>
-      <c r="BD23" s="324"/>
-      <c r="BE23" s="324"/>
-      <c r="BF23" s="324"/>
+      <c r="A23" s="327"/>
+      <c r="B23" s="327"/>
+      <c r="C23" s="324"/>
+      <c r="D23" s="328"/>
+      <c r="E23" s="328"/>
+      <c r="F23" s="328"/>
+      <c r="G23" s="325"/>
+      <c r="H23" s="325"/>
+      <c r="I23" s="325"/>
+      <c r="J23" s="325"/>
+      <c r="K23" s="325"/>
+      <c r="L23" s="327"/>
+      <c r="M23" s="327"/>
+      <c r="N23" s="327"/>
+      <c r="O23" s="327"/>
+      <c r="P23" s="327"/>
+      <c r="Q23" s="327"/>
+      <c r="R23" s="326"/>
+      <c r="S23" s="326"/>
+      <c r="T23" s="326"/>
+      <c r="U23" s="326"/>
+      <c r="V23" s="326"/>
+      <c r="W23" s="326"/>
+      <c r="X23" s="326"/>
+      <c r="Y23" s="326"/>
+      <c r="Z23" s="326"/>
+      <c r="AA23" s="326"/>
+      <c r="AB23" s="326"/>
+      <c r="AC23" s="326"/>
+      <c r="AD23" s="326"/>
+      <c r="AE23" s="326"/>
+      <c r="AF23" s="326"/>
+      <c r="AG23" s="326"/>
+      <c r="AH23" s="326"/>
+      <c r="AI23" s="326"/>
+      <c r="AJ23" s="326"/>
+      <c r="AK23" s="326"/>
+      <c r="AL23" s="326"/>
+      <c r="AM23" s="326"/>
+      <c r="AN23" s="326"/>
+      <c r="AO23" s="326"/>
+      <c r="AP23" s="326"/>
+      <c r="AQ23" s="326"/>
+      <c r="AR23" s="326"/>
+      <c r="AS23" s="326"/>
+      <c r="AT23" s="326"/>
+      <c r="AU23" s="326"/>
+      <c r="AV23" s="326"/>
+      <c r="AW23" s="326"/>
+      <c r="AX23" s="326"/>
+      <c r="AY23" s="326"/>
+      <c r="AZ23" s="326"/>
+      <c r="BA23" s="326"/>
+      <c r="BB23" s="326"/>
+      <c r="BC23" s="326"/>
+      <c r="BD23" s="326"/>
+      <c r="BE23" s="326"/>
+      <c r="BF23" s="326"/>
     </row>
     <row r="24" spans="1:58">
-      <c r="A24" s="354"/>
-      <c r="B24" s="354"/>
-      <c r="C24" s="355"/>
-      <c r="D24" s="356"/>
-      <c r="E24" s="356"/>
-      <c r="F24" s="356"/>
-      <c r="G24" s="357"/>
-      <c r="H24" s="357"/>
-      <c r="I24" s="357"/>
-      <c r="J24" s="357"/>
-      <c r="K24" s="357"/>
-      <c r="L24" s="354"/>
-      <c r="M24" s="354"/>
-      <c r="N24" s="354"/>
-      <c r="O24" s="354"/>
-      <c r="P24" s="354"/>
-      <c r="Q24" s="354"/>
-      <c r="R24" s="324"/>
-      <c r="S24" s="324"/>
-      <c r="T24" s="324"/>
-      <c r="U24" s="324"/>
-      <c r="V24" s="324"/>
-      <c r="W24" s="324"/>
-      <c r="X24" s="324"/>
-      <c r="Y24" s="324"/>
-      <c r="Z24" s="324"/>
-      <c r="AA24" s="324"/>
-      <c r="AB24" s="324"/>
-      <c r="AC24" s="324"/>
-      <c r="AD24" s="324"/>
-      <c r="AE24" s="324"/>
-      <c r="AF24" s="324"/>
-      <c r="AG24" s="324"/>
-      <c r="AH24" s="324"/>
-      <c r="AI24" s="324"/>
-      <c r="AJ24" s="324"/>
-      <c r="AK24" s="324"/>
-      <c r="AL24" s="324"/>
-      <c r="AM24" s="324"/>
-      <c r="AN24" s="324"/>
-      <c r="AO24" s="324"/>
-      <c r="AP24" s="324"/>
-      <c r="AQ24" s="324"/>
-      <c r="AR24" s="324"/>
-      <c r="AS24" s="324"/>
-      <c r="AT24" s="324"/>
-      <c r="AU24" s="324"/>
-      <c r="AV24" s="324"/>
-      <c r="AW24" s="324"/>
-      <c r="AX24" s="324"/>
-      <c r="AY24" s="324"/>
-      <c r="AZ24" s="324"/>
-      <c r="BA24" s="324"/>
-      <c r="BB24" s="324"/>
-      <c r="BC24" s="324"/>
-      <c r="BD24" s="324"/>
-      <c r="BE24" s="324"/>
-      <c r="BF24" s="324"/>
+      <c r="A24" s="327"/>
+      <c r="B24" s="327"/>
+      <c r="C24" s="324"/>
+      <c r="D24" s="328"/>
+      <c r="E24" s="328"/>
+      <c r="F24" s="328"/>
+      <c r="G24" s="325"/>
+      <c r="H24" s="325"/>
+      <c r="I24" s="325"/>
+      <c r="J24" s="325"/>
+      <c r="K24" s="325"/>
+      <c r="L24" s="327"/>
+      <c r="M24" s="327"/>
+      <c r="N24" s="327"/>
+      <c r="O24" s="327"/>
+      <c r="P24" s="327"/>
+      <c r="Q24" s="327"/>
+      <c r="R24" s="326"/>
+      <c r="S24" s="326"/>
+      <c r="T24" s="326"/>
+      <c r="U24" s="326"/>
+      <c r="V24" s="326"/>
+      <c r="W24" s="326"/>
+      <c r="X24" s="326"/>
+      <c r="Y24" s="326"/>
+      <c r="Z24" s="326"/>
+      <c r="AA24" s="326"/>
+      <c r="AB24" s="326"/>
+      <c r="AC24" s="326"/>
+      <c r="AD24" s="326"/>
+      <c r="AE24" s="326"/>
+      <c r="AF24" s="326"/>
+      <c r="AG24" s="326"/>
+      <c r="AH24" s="326"/>
+      <c r="AI24" s="326"/>
+      <c r="AJ24" s="326"/>
+      <c r="AK24" s="326"/>
+      <c r="AL24" s="326"/>
+      <c r="AM24" s="326"/>
+      <c r="AN24" s="326"/>
+      <c r="AO24" s="326"/>
+      <c r="AP24" s="326"/>
+      <c r="AQ24" s="326"/>
+      <c r="AR24" s="326"/>
+      <c r="AS24" s="326"/>
+      <c r="AT24" s="326"/>
+      <c r="AU24" s="326"/>
+      <c r="AV24" s="326"/>
+      <c r="AW24" s="326"/>
+      <c r="AX24" s="326"/>
+      <c r="AY24" s="326"/>
+      <c r="AZ24" s="326"/>
+      <c r="BA24" s="326"/>
+      <c r="BB24" s="326"/>
+      <c r="BC24" s="326"/>
+      <c r="BD24" s="326"/>
+      <c r="BE24" s="326"/>
+      <c r="BF24" s="326"/>
     </row>
     <row r="25" spans="1:58">
-      <c r="A25" s="354"/>
-      <c r="B25" s="354"/>
-      <c r="C25" s="355"/>
-      <c r="D25" s="356"/>
-      <c r="E25" s="356"/>
-      <c r="F25" s="356"/>
-      <c r="G25" s="357"/>
-      <c r="H25" s="357"/>
-      <c r="I25" s="357"/>
-      <c r="J25" s="357"/>
-      <c r="K25" s="357"/>
-      <c r="L25" s="354"/>
-      <c r="M25" s="354"/>
-      <c r="N25" s="354"/>
-      <c r="O25" s="354"/>
-      <c r="P25" s="354"/>
-      <c r="Q25" s="354"/>
-      <c r="R25" s="324"/>
-      <c r="S25" s="324"/>
-      <c r="T25" s="324"/>
-      <c r="U25" s="324"/>
-      <c r="V25" s="324"/>
-      <c r="W25" s="324"/>
-      <c r="X25" s="324"/>
-      <c r="Y25" s="324"/>
-      <c r="Z25" s="324"/>
-      <c r="AA25" s="324"/>
-      <c r="AB25" s="324"/>
-      <c r="AC25" s="324"/>
-      <c r="AD25" s="324"/>
-      <c r="AE25" s="324"/>
-      <c r="AF25" s="324"/>
-      <c r="AG25" s="324"/>
-      <c r="AH25" s="324"/>
-      <c r="AI25" s="324"/>
-      <c r="AJ25" s="324"/>
-      <c r="AK25" s="324"/>
-      <c r="AL25" s="324"/>
-      <c r="AM25" s="324"/>
-      <c r="AN25" s="324"/>
-      <c r="AO25" s="324"/>
-      <c r="AP25" s="324"/>
-      <c r="AQ25" s="324"/>
-      <c r="AR25" s="324"/>
-      <c r="AS25" s="324"/>
-      <c r="AT25" s="324"/>
-      <c r="AU25" s="324"/>
-      <c r="AV25" s="324"/>
-      <c r="AW25" s="324"/>
-      <c r="AX25" s="324"/>
-      <c r="AY25" s="324"/>
-      <c r="AZ25" s="324"/>
-      <c r="BA25" s="324"/>
-      <c r="BB25" s="324"/>
-      <c r="BC25" s="324"/>
-      <c r="BD25" s="324"/>
-      <c r="BE25" s="324"/>
-      <c r="BF25" s="324"/>
+      <c r="A25" s="327"/>
+      <c r="B25" s="327"/>
+      <c r="C25" s="324"/>
+      <c r="D25" s="328"/>
+      <c r="E25" s="328"/>
+      <c r="F25" s="328"/>
+      <c r="G25" s="325"/>
+      <c r="H25" s="325"/>
+      <c r="I25" s="325"/>
+      <c r="J25" s="325"/>
+      <c r="K25" s="325"/>
+      <c r="L25" s="327"/>
+      <c r="M25" s="327"/>
+      <c r="N25" s="327"/>
+      <c r="O25" s="327"/>
+      <c r="P25" s="327"/>
+      <c r="Q25" s="327"/>
+      <c r="R25" s="326"/>
+      <c r="S25" s="326"/>
+      <c r="T25" s="326"/>
+      <c r="U25" s="326"/>
+      <c r="V25" s="326"/>
+      <c r="W25" s="326"/>
+      <c r="X25" s="326"/>
+      <c r="Y25" s="326"/>
+      <c r="Z25" s="326"/>
+      <c r="AA25" s="326"/>
+      <c r="AB25" s="326"/>
+      <c r="AC25" s="326"/>
+      <c r="AD25" s="326"/>
+      <c r="AE25" s="326"/>
+      <c r="AF25" s="326"/>
+      <c r="AG25" s="326"/>
+      <c r="AH25" s="326"/>
+      <c r="AI25" s="326"/>
+      <c r="AJ25" s="326"/>
+      <c r="AK25" s="326"/>
+      <c r="AL25" s="326"/>
+      <c r="AM25" s="326"/>
+      <c r="AN25" s="326"/>
+      <c r="AO25" s="326"/>
+      <c r="AP25" s="326"/>
+      <c r="AQ25" s="326"/>
+      <c r="AR25" s="326"/>
+      <c r="AS25" s="326"/>
+      <c r="AT25" s="326"/>
+      <c r="AU25" s="326"/>
+      <c r="AV25" s="326"/>
+      <c r="AW25" s="326"/>
+      <c r="AX25" s="326"/>
+      <c r="AY25" s="326"/>
+      <c r="AZ25" s="326"/>
+      <c r="BA25" s="326"/>
+      <c r="BB25" s="326"/>
+      <c r="BC25" s="326"/>
+      <c r="BD25" s="326"/>
+      <c r="BE25" s="326"/>
+      <c r="BF25" s="326"/>
     </row>
     <row r="26" spans="1:58">
-      <c r="A26" s="354"/>
-      <c r="B26" s="354"/>
-      <c r="C26" s="355"/>
-      <c r="D26" s="356"/>
-      <c r="E26" s="356"/>
-      <c r="F26" s="356"/>
-      <c r="G26" s="357"/>
-      <c r="H26" s="357"/>
-      <c r="I26" s="357"/>
-      <c r="J26" s="357"/>
-      <c r="K26" s="357"/>
-      <c r="L26" s="354"/>
-      <c r="M26" s="354"/>
-      <c r="N26" s="354"/>
-      <c r="O26" s="354"/>
-      <c r="P26" s="354"/>
-      <c r="Q26" s="354"/>
-      <c r="R26" s="324"/>
-      <c r="S26" s="324"/>
-      <c r="T26" s="324"/>
-      <c r="U26" s="324"/>
-      <c r="V26" s="324"/>
-      <c r="W26" s="324"/>
-      <c r="X26" s="324"/>
-      <c r="Y26" s="324"/>
-      <c r="Z26" s="324"/>
-      <c r="AA26" s="324"/>
-      <c r="AB26" s="324"/>
-      <c r="AC26" s="324"/>
-      <c r="AD26" s="324"/>
-      <c r="AE26" s="324"/>
-      <c r="AF26" s="324"/>
-      <c r="AG26" s="324"/>
-      <c r="AH26" s="324"/>
-      <c r="AI26" s="324"/>
-      <c r="AJ26" s="324"/>
-      <c r="AK26" s="324"/>
-      <c r="AL26" s="324"/>
-      <c r="AM26" s="324"/>
-      <c r="AN26" s="324"/>
-      <c r="AO26" s="324"/>
-      <c r="AP26" s="324"/>
-      <c r="AQ26" s="324"/>
-      <c r="AR26" s="324"/>
-      <c r="AS26" s="324"/>
-      <c r="AT26" s="324"/>
-      <c r="AU26" s="324"/>
-      <c r="AV26" s="324"/>
-      <c r="AW26" s="324"/>
-      <c r="AX26" s="324"/>
-      <c r="AY26" s="324"/>
-      <c r="AZ26" s="324"/>
-      <c r="BA26" s="324"/>
-      <c r="BB26" s="324"/>
-      <c r="BC26" s="324"/>
-      <c r="BD26" s="324"/>
-      <c r="BE26" s="324"/>
-      <c r="BF26" s="324"/>
+      <c r="A26" s="327"/>
+      <c r="B26" s="327"/>
+      <c r="C26" s="324"/>
+      <c r="D26" s="328"/>
+      <c r="E26" s="328"/>
+      <c r="F26" s="328"/>
+      <c r="G26" s="325"/>
+      <c r="H26" s="325"/>
+      <c r="I26" s="325"/>
+      <c r="J26" s="325"/>
+      <c r="K26" s="325"/>
+      <c r="L26" s="327"/>
+      <c r="M26" s="327"/>
+      <c r="N26" s="327"/>
+      <c r="O26" s="327"/>
+      <c r="P26" s="327"/>
+      <c r="Q26" s="327"/>
+      <c r="R26" s="326"/>
+      <c r="S26" s="326"/>
+      <c r="T26" s="326"/>
+      <c r="U26" s="326"/>
+      <c r="V26" s="326"/>
+      <c r="W26" s="326"/>
+      <c r="X26" s="326"/>
+      <c r="Y26" s="326"/>
+      <c r="Z26" s="326"/>
+      <c r="AA26" s="326"/>
+      <c r="AB26" s="326"/>
+      <c r="AC26" s="326"/>
+      <c r="AD26" s="326"/>
+      <c r="AE26" s="326"/>
+      <c r="AF26" s="326"/>
+      <c r="AG26" s="326"/>
+      <c r="AH26" s="326"/>
+      <c r="AI26" s="326"/>
+      <c r="AJ26" s="326"/>
+      <c r="AK26" s="326"/>
+      <c r="AL26" s="326"/>
+      <c r="AM26" s="326"/>
+      <c r="AN26" s="326"/>
+      <c r="AO26" s="326"/>
+      <c r="AP26" s="326"/>
+      <c r="AQ26" s="326"/>
+      <c r="AR26" s="326"/>
+      <c r="AS26" s="326"/>
+      <c r="AT26" s="326"/>
+      <c r="AU26" s="326"/>
+      <c r="AV26" s="326"/>
+      <c r="AW26" s="326"/>
+      <c r="AX26" s="326"/>
+      <c r="AY26" s="326"/>
+      <c r="AZ26" s="326"/>
+      <c r="BA26" s="326"/>
+      <c r="BB26" s="326"/>
+      <c r="BC26" s="326"/>
+      <c r="BD26" s="326"/>
+      <c r="BE26" s="326"/>
+      <c r="BF26" s="326"/>
     </row>
     <row r="27" spans="1:58">
-      <c r="A27" s="354"/>
-      <c r="B27" s="354"/>
-      <c r="C27" s="355"/>
-      <c r="D27" s="356"/>
-      <c r="E27" s="356"/>
-      <c r="F27" s="356"/>
-      <c r="G27" s="357"/>
-      <c r="H27" s="357"/>
-      <c r="I27" s="357"/>
-      <c r="J27" s="357"/>
-      <c r="K27" s="357"/>
-      <c r="L27" s="354"/>
-      <c r="M27" s="354"/>
-      <c r="N27" s="354"/>
-      <c r="O27" s="354"/>
-      <c r="P27" s="354"/>
-      <c r="Q27" s="354"/>
-      <c r="R27" s="324"/>
-      <c r="S27" s="324"/>
-      <c r="T27" s="324"/>
-      <c r="U27" s="324"/>
-      <c r="V27" s="324"/>
-      <c r="W27" s="324"/>
-      <c r="X27" s="324"/>
-      <c r="Y27" s="324"/>
-      <c r="Z27" s="324"/>
-      <c r="AA27" s="324"/>
-      <c r="AB27" s="324"/>
-      <c r="AC27" s="324"/>
-      <c r="AD27" s="324"/>
-      <c r="AE27" s="324"/>
-      <c r="AF27" s="324"/>
-      <c r="AG27" s="324"/>
-      <c r="AH27" s="324"/>
-      <c r="AI27" s="324"/>
-      <c r="AJ27" s="324"/>
-      <c r="AK27" s="324"/>
-      <c r="AL27" s="324"/>
-      <c r="AM27" s="324"/>
-      <c r="AN27" s="324"/>
-      <c r="AO27" s="324"/>
-      <c r="AP27" s="324"/>
-      <c r="AQ27" s="324"/>
-      <c r="AR27" s="324"/>
-      <c r="AS27" s="324"/>
-      <c r="AT27" s="324"/>
-      <c r="AU27" s="324"/>
-      <c r="AV27" s="324"/>
-      <c r="AW27" s="324"/>
-      <c r="AX27" s="324"/>
-      <c r="AY27" s="324"/>
-      <c r="AZ27" s="324"/>
-      <c r="BA27" s="324"/>
-      <c r="BB27" s="324"/>
-      <c r="BC27" s="324"/>
-      <c r="BD27" s="324"/>
-      <c r="BE27" s="324"/>
-      <c r="BF27" s="324"/>
+      <c r="A27" s="327"/>
+      <c r="B27" s="327"/>
+      <c r="C27" s="324"/>
+      <c r="D27" s="328"/>
+      <c r="E27" s="328"/>
+      <c r="F27" s="328"/>
+      <c r="G27" s="325"/>
+      <c r="H27" s="325"/>
+      <c r="I27" s="325"/>
+      <c r="J27" s="325"/>
+      <c r="K27" s="325"/>
+      <c r="L27" s="327"/>
+      <c r="M27" s="327"/>
+      <c r="N27" s="327"/>
+      <c r="O27" s="327"/>
+      <c r="P27" s="327"/>
+      <c r="Q27" s="327"/>
+      <c r="R27" s="326"/>
+      <c r="S27" s="326"/>
+      <c r="T27" s="326"/>
+      <c r="U27" s="326"/>
+      <c r="V27" s="326"/>
+      <c r="W27" s="326"/>
+      <c r="X27" s="326"/>
+      <c r="Y27" s="326"/>
+      <c r="Z27" s="326"/>
+      <c r="AA27" s="326"/>
+      <c r="AB27" s="326"/>
+      <c r="AC27" s="326"/>
+      <c r="AD27" s="326"/>
+      <c r="AE27" s="326"/>
+      <c r="AF27" s="326"/>
+      <c r="AG27" s="326"/>
+      <c r="AH27" s="326"/>
+      <c r="AI27" s="326"/>
+      <c r="AJ27" s="326"/>
+      <c r="AK27" s="326"/>
+      <c r="AL27" s="326"/>
+      <c r="AM27" s="326"/>
+      <c r="AN27" s="326"/>
+      <c r="AO27" s="326"/>
+      <c r="AP27" s="326"/>
+      <c r="AQ27" s="326"/>
+      <c r="AR27" s="326"/>
+      <c r="AS27" s="326"/>
+      <c r="AT27" s="326"/>
+      <c r="AU27" s="326"/>
+      <c r="AV27" s="326"/>
+      <c r="AW27" s="326"/>
+      <c r="AX27" s="326"/>
+      <c r="AY27" s="326"/>
+      <c r="AZ27" s="326"/>
+      <c r="BA27" s="326"/>
+      <c r="BB27" s="326"/>
+      <c r="BC27" s="326"/>
+      <c r="BD27" s="326"/>
+      <c r="BE27" s="326"/>
+      <c r="BF27" s="326"/>
     </row>
     <row r="28" spans="1:58">
-      <c r="A28" s="354"/>
-      <c r="B28" s="354"/>
-      <c r="C28" s="355"/>
-      <c r="D28" s="356"/>
-      <c r="E28" s="356"/>
-      <c r="F28" s="356"/>
-      <c r="G28" s="357"/>
-      <c r="H28" s="357"/>
-      <c r="I28" s="357"/>
-      <c r="J28" s="357"/>
-      <c r="K28" s="357"/>
-      <c r="L28" s="354"/>
-      <c r="M28" s="354"/>
-      <c r="N28" s="354"/>
-      <c r="O28" s="354"/>
-      <c r="P28" s="354"/>
-      <c r="Q28" s="354"/>
-      <c r="R28" s="324"/>
-      <c r="S28" s="324"/>
-      <c r="T28" s="324"/>
-      <c r="U28" s="324"/>
-      <c r="V28" s="324"/>
-      <c r="W28" s="324"/>
-      <c r="X28" s="324"/>
-      <c r="Y28" s="324"/>
-      <c r="Z28" s="324"/>
-      <c r="AA28" s="324"/>
-      <c r="AB28" s="324"/>
-      <c r="AC28" s="324"/>
-      <c r="AD28" s="324"/>
-      <c r="AE28" s="324"/>
-      <c r="AF28" s="324"/>
-      <c r="AG28" s="324"/>
-      <c r="AH28" s="324"/>
-      <c r="AI28" s="324"/>
-      <c r="AJ28" s="324"/>
-      <c r="AK28" s="324"/>
-      <c r="AL28" s="324"/>
-      <c r="AM28" s="324"/>
-      <c r="AN28" s="324"/>
-      <c r="AO28" s="324"/>
-      <c r="AP28" s="324"/>
-      <c r="AQ28" s="324"/>
-      <c r="AR28" s="324"/>
-      <c r="AS28" s="324"/>
-      <c r="AT28" s="324"/>
-      <c r="AU28" s="324"/>
-      <c r="AV28" s="324"/>
-      <c r="AW28" s="324"/>
-      <c r="AX28" s="324"/>
-      <c r="AY28" s="324"/>
-      <c r="AZ28" s="324"/>
-      <c r="BA28" s="324"/>
-      <c r="BB28" s="324"/>
-      <c r="BC28" s="324"/>
-      <c r="BD28" s="324"/>
-      <c r="BE28" s="324"/>
-      <c r="BF28" s="324"/>
+      <c r="A28" s="327"/>
+      <c r="B28" s="327"/>
+      <c r="C28" s="324"/>
+      <c r="D28" s="328"/>
+      <c r="E28" s="328"/>
+      <c r="F28" s="328"/>
+      <c r="G28" s="325"/>
+      <c r="H28" s="325"/>
+      <c r="I28" s="325"/>
+      <c r="J28" s="325"/>
+      <c r="K28" s="325"/>
+      <c r="L28" s="327"/>
+      <c r="M28" s="327"/>
+      <c r="N28" s="327"/>
+      <c r="O28" s="327"/>
+      <c r="P28" s="327"/>
+      <c r="Q28" s="327"/>
+      <c r="R28" s="326"/>
+      <c r="S28" s="326"/>
+      <c r="T28" s="326"/>
+      <c r="U28" s="326"/>
+      <c r="V28" s="326"/>
+      <c r="W28" s="326"/>
+      <c r="X28" s="326"/>
+      <c r="Y28" s="326"/>
+      <c r="Z28" s="326"/>
+      <c r="AA28" s="326"/>
+      <c r="AB28" s="326"/>
+      <c r="AC28" s="326"/>
+      <c r="AD28" s="326"/>
+      <c r="AE28" s="326"/>
+      <c r="AF28" s="326"/>
+      <c r="AG28" s="326"/>
+      <c r="AH28" s="326"/>
+      <c r="AI28" s="326"/>
+      <c r="AJ28" s="326"/>
+      <c r="AK28" s="326"/>
+      <c r="AL28" s="326"/>
+      <c r="AM28" s="326"/>
+      <c r="AN28" s="326"/>
+      <c r="AO28" s="326"/>
+      <c r="AP28" s="326"/>
+      <c r="AQ28" s="326"/>
+      <c r="AR28" s="326"/>
+      <c r="AS28" s="326"/>
+      <c r="AT28" s="326"/>
+      <c r="AU28" s="326"/>
+      <c r="AV28" s="326"/>
+      <c r="AW28" s="326"/>
+      <c r="AX28" s="326"/>
+      <c r="AY28" s="326"/>
+      <c r="AZ28" s="326"/>
+      <c r="BA28" s="326"/>
+      <c r="BB28" s="326"/>
+      <c r="BC28" s="326"/>
+      <c r="BD28" s="326"/>
+      <c r="BE28" s="326"/>
+      <c r="BF28" s="326"/>
     </row>
     <row r="29" spans="1:58">
-      <c r="A29" s="354"/>
-      <c r="B29" s="354"/>
-      <c r="C29" s="355"/>
-      <c r="D29" s="356"/>
-      <c r="E29" s="356"/>
-      <c r="F29" s="356"/>
-      <c r="G29" s="357"/>
-      <c r="H29" s="357"/>
-      <c r="I29" s="357"/>
-      <c r="J29" s="357"/>
-      <c r="K29" s="357"/>
-      <c r="L29" s="354"/>
-      <c r="M29" s="354"/>
-      <c r="N29" s="354"/>
-      <c r="O29" s="354"/>
-      <c r="P29" s="354"/>
-      <c r="Q29" s="354"/>
-      <c r="R29" s="324"/>
-      <c r="S29" s="324"/>
-      <c r="T29" s="324"/>
-      <c r="U29" s="324"/>
-      <c r="V29" s="324"/>
-      <c r="W29" s="324"/>
-      <c r="X29" s="324"/>
-      <c r="Y29" s="324"/>
-      <c r="Z29" s="324"/>
-      <c r="AA29" s="324"/>
-      <c r="AB29" s="324"/>
-      <c r="AC29" s="324"/>
-      <c r="AD29" s="324"/>
-      <c r="AE29" s="324"/>
-      <c r="AF29" s="324"/>
-      <c r="AG29" s="324"/>
-      <c r="AH29" s="324"/>
-      <c r="AI29" s="324"/>
-      <c r="AJ29" s="324"/>
-      <c r="AK29" s="324"/>
-      <c r="AL29" s="324"/>
-      <c r="AM29" s="324"/>
-      <c r="AN29" s="324"/>
-      <c r="AO29" s="324"/>
-      <c r="AP29" s="324"/>
-      <c r="AQ29" s="324"/>
-      <c r="AR29" s="324"/>
-      <c r="AS29" s="324"/>
-      <c r="AT29" s="324"/>
-      <c r="AU29" s="324"/>
-      <c r="AV29" s="324"/>
-      <c r="AW29" s="324"/>
-      <c r="AX29" s="324"/>
-      <c r="AY29" s="324"/>
-      <c r="AZ29" s="324"/>
-      <c r="BA29" s="324"/>
-      <c r="BB29" s="324"/>
-      <c r="BC29" s="324"/>
-      <c r="BD29" s="324"/>
-      <c r="BE29" s="324"/>
-      <c r="BF29" s="324"/>
+      <c r="A29" s="327"/>
+      <c r="B29" s="327"/>
+      <c r="C29" s="324"/>
+      <c r="D29" s="328"/>
+      <c r="E29" s="328"/>
+      <c r="F29" s="328"/>
+      <c r="G29" s="325"/>
+      <c r="H29" s="325"/>
+      <c r="I29" s="325"/>
+      <c r="J29" s="325"/>
+      <c r="K29" s="325"/>
+      <c r="L29" s="327"/>
+      <c r="M29" s="327"/>
+      <c r="N29" s="327"/>
+      <c r="O29" s="327"/>
+      <c r="P29" s="327"/>
+      <c r="Q29" s="327"/>
+      <c r="R29" s="326"/>
+      <c r="S29" s="326"/>
+      <c r="T29" s="326"/>
+      <c r="U29" s="326"/>
+      <c r="V29" s="326"/>
+      <c r="W29" s="326"/>
+      <c r="X29" s="326"/>
+      <c r="Y29" s="326"/>
+      <c r="Z29" s="326"/>
+      <c r="AA29" s="326"/>
+      <c r="AB29" s="326"/>
+      <c r="AC29" s="326"/>
+      <c r="AD29" s="326"/>
+      <c r="AE29" s="326"/>
+      <c r="AF29" s="326"/>
+      <c r="AG29" s="326"/>
+      <c r="AH29" s="326"/>
+      <c r="AI29" s="326"/>
+      <c r="AJ29" s="326"/>
+      <c r="AK29" s="326"/>
+      <c r="AL29" s="326"/>
+      <c r="AM29" s="326"/>
+      <c r="AN29" s="326"/>
+      <c r="AO29" s="326"/>
+      <c r="AP29" s="326"/>
+      <c r="AQ29" s="326"/>
+      <c r="AR29" s="326"/>
+      <c r="AS29" s="326"/>
+      <c r="AT29" s="326"/>
+      <c r="AU29" s="326"/>
+      <c r="AV29" s="326"/>
+      <c r="AW29" s="326"/>
+      <c r="AX29" s="326"/>
+      <c r="AY29" s="326"/>
+      <c r="AZ29" s="326"/>
+      <c r="BA29" s="326"/>
+      <c r="BB29" s="326"/>
+      <c r="BC29" s="326"/>
+      <c r="BD29" s="326"/>
+      <c r="BE29" s="326"/>
+      <c r="BF29" s="326"/>
     </row>
     <row r="30" spans="1:58">
-      <c r="A30" s="354"/>
-      <c r="B30" s="354"/>
-      <c r="C30" s="355"/>
-      <c r="D30" s="356"/>
-      <c r="E30" s="356"/>
-      <c r="F30" s="356"/>
-      <c r="G30" s="357"/>
-      <c r="H30" s="357"/>
-      <c r="I30" s="357"/>
-      <c r="J30" s="357"/>
-      <c r="K30" s="357"/>
-      <c r="L30" s="354"/>
-      <c r="M30" s="354"/>
-      <c r="N30" s="354"/>
-      <c r="O30" s="354"/>
-      <c r="P30" s="354"/>
-      <c r="Q30" s="354"/>
-      <c r="R30" s="324"/>
-      <c r="S30" s="324"/>
-      <c r="T30" s="324"/>
-      <c r="U30" s="324"/>
-      <c r="V30" s="324"/>
-      <c r="W30" s="324"/>
-      <c r="X30" s="324"/>
-      <c r="Y30" s="324"/>
-      <c r="Z30" s="324"/>
-      <c r="AA30" s="324"/>
-      <c r="AB30" s="324"/>
-      <c r="AC30" s="324"/>
-      <c r="AD30" s="324"/>
-      <c r="AE30" s="324"/>
-      <c r="AF30" s="324"/>
-      <c r="AG30" s="324"/>
-      <c r="AH30" s="324"/>
-      <c r="AI30" s="324"/>
-      <c r="AJ30" s="324"/>
-      <c r="AK30" s="324"/>
-      <c r="AL30" s="324"/>
-      <c r="AM30" s="324"/>
-      <c r="AN30" s="324"/>
-      <c r="AO30" s="324"/>
-      <c r="AP30" s="324"/>
-      <c r="AQ30" s="324"/>
-      <c r="AR30" s="324"/>
-      <c r="AS30" s="324"/>
-      <c r="AT30" s="324"/>
-      <c r="AU30" s="324"/>
-      <c r="AV30" s="324"/>
-      <c r="AW30" s="324"/>
-      <c r="AX30" s="324"/>
-      <c r="AY30" s="324"/>
-      <c r="AZ30" s="324"/>
-      <c r="BA30" s="324"/>
-      <c r="BB30" s="324"/>
-      <c r="BC30" s="324"/>
-      <c r="BD30" s="324"/>
-      <c r="BE30" s="324"/>
-      <c r="BF30" s="324"/>
+      <c r="A30" s="327"/>
+      <c r="B30" s="327"/>
+      <c r="C30" s="324"/>
+      <c r="D30" s="328"/>
+      <c r="E30" s="328"/>
+      <c r="F30" s="328"/>
+      <c r="G30" s="325"/>
+      <c r="H30" s="325"/>
+      <c r="I30" s="325"/>
+      <c r="J30" s="325"/>
+      <c r="K30" s="325"/>
+      <c r="L30" s="327"/>
+      <c r="M30" s="327"/>
+      <c r="N30" s="327"/>
+      <c r="O30" s="327"/>
+      <c r="P30" s="327"/>
+      <c r="Q30" s="327"/>
+      <c r="R30" s="326"/>
+      <c r="S30" s="326"/>
+      <c r="T30" s="326"/>
+      <c r="U30" s="326"/>
+      <c r="V30" s="326"/>
+      <c r="W30" s="326"/>
+      <c r="X30" s="326"/>
+      <c r="Y30" s="326"/>
+      <c r="Z30" s="326"/>
+      <c r="AA30" s="326"/>
+      <c r="AB30" s="326"/>
+      <c r="AC30" s="326"/>
+      <c r="AD30" s="326"/>
+      <c r="AE30" s="326"/>
+      <c r="AF30" s="326"/>
+      <c r="AG30" s="326"/>
+      <c r="AH30" s="326"/>
+      <c r="AI30" s="326"/>
+      <c r="AJ30" s="326"/>
+      <c r="AK30" s="326"/>
+      <c r="AL30" s="326"/>
+      <c r="AM30" s="326"/>
+      <c r="AN30" s="326"/>
+      <c r="AO30" s="326"/>
+      <c r="AP30" s="326"/>
+      <c r="AQ30" s="326"/>
+      <c r="AR30" s="326"/>
+      <c r="AS30" s="326"/>
+      <c r="AT30" s="326"/>
+      <c r="AU30" s="326"/>
+      <c r="AV30" s="326"/>
+      <c r="AW30" s="326"/>
+      <c r="AX30" s="326"/>
+      <c r="AY30" s="326"/>
+      <c r="AZ30" s="326"/>
+      <c r="BA30" s="326"/>
+      <c r="BB30" s="326"/>
+      <c r="BC30" s="326"/>
+      <c r="BD30" s="326"/>
+      <c r="BE30" s="326"/>
+      <c r="BF30" s="326"/>
     </row>
     <row r="31" spans="1:58">
-      <c r="A31" s="354"/>
-      <c r="B31" s="354"/>
-      <c r="C31" s="355"/>
-      <c r="D31" s="356"/>
-      <c r="E31" s="356"/>
-      <c r="F31" s="356"/>
-      <c r="G31" s="357"/>
-      <c r="H31" s="357"/>
-      <c r="I31" s="357"/>
-      <c r="J31" s="357"/>
-      <c r="K31" s="357"/>
-      <c r="L31" s="354"/>
-      <c r="M31" s="354"/>
-      <c r="N31" s="354"/>
-      <c r="O31" s="354"/>
-      <c r="P31" s="354"/>
-      <c r="Q31" s="354"/>
-      <c r="R31" s="324"/>
-      <c r="S31" s="324"/>
-      <c r="T31" s="324"/>
-      <c r="U31" s="324"/>
-      <c r="V31" s="324"/>
-      <c r="W31" s="324"/>
-      <c r="X31" s="324"/>
-      <c r="Y31" s="324"/>
-      <c r="Z31" s="324"/>
-      <c r="AA31" s="324"/>
-      <c r="AB31" s="324"/>
-      <c r="AC31" s="324"/>
-      <c r="AD31" s="324"/>
-      <c r="AE31" s="324"/>
-      <c r="AF31" s="324"/>
-      <c r="AG31" s="324"/>
-      <c r="AH31" s="324"/>
-      <c r="AI31" s="324"/>
-      <c r="AJ31" s="324"/>
-      <c r="AK31" s="324"/>
-      <c r="AL31" s="324"/>
-      <c r="AM31" s="324"/>
-      <c r="AN31" s="324"/>
-      <c r="AO31" s="324"/>
-      <c r="AP31" s="324"/>
-      <c r="AQ31" s="324"/>
-      <c r="AR31" s="324"/>
-      <c r="AS31" s="324"/>
-      <c r="AT31" s="324"/>
-      <c r="AU31" s="324"/>
-      <c r="AV31" s="324"/>
-      <c r="AW31" s="324"/>
-      <c r="AX31" s="324"/>
-      <c r="AY31" s="324"/>
-      <c r="AZ31" s="324"/>
-      <c r="BA31" s="324"/>
-      <c r="BB31" s="324"/>
-      <c r="BC31" s="324"/>
-      <c r="BD31" s="324"/>
-      <c r="BE31" s="324"/>
-      <c r="BF31" s="324"/>
+      <c r="A31" s="327"/>
+      <c r="B31" s="327"/>
+      <c r="C31" s="324"/>
+      <c r="D31" s="328"/>
+      <c r="E31" s="328"/>
+      <c r="F31" s="328"/>
+      <c r="G31" s="325"/>
+      <c r="H31" s="325"/>
+      <c r="I31" s="325"/>
+      <c r="J31" s="325"/>
+      <c r="K31" s="325"/>
+      <c r="L31" s="327"/>
+      <c r="M31" s="327"/>
+      <c r="N31" s="327"/>
+      <c r="O31" s="327"/>
+      <c r="P31" s="327"/>
+      <c r="Q31" s="327"/>
+      <c r="R31" s="326"/>
+      <c r="S31" s="326"/>
+      <c r="T31" s="326"/>
+      <c r="U31" s="326"/>
+      <c r="V31" s="326"/>
+      <c r="W31" s="326"/>
+      <c r="X31" s="326"/>
+      <c r="Y31" s="326"/>
+      <c r="Z31" s="326"/>
+      <c r="AA31" s="326"/>
+      <c r="AB31" s="326"/>
+      <c r="AC31" s="326"/>
+      <c r="AD31" s="326"/>
+      <c r="AE31" s="326"/>
+      <c r="AF31" s="326"/>
+      <c r="AG31" s="326"/>
+      <c r="AH31" s="326"/>
+      <c r="AI31" s="326"/>
+      <c r="AJ31" s="326"/>
+      <c r="AK31" s="326"/>
+      <c r="AL31" s="326"/>
+      <c r="AM31" s="326"/>
+      <c r="AN31" s="326"/>
+      <c r="AO31" s="326"/>
+      <c r="AP31" s="326"/>
+      <c r="AQ31" s="326"/>
+      <c r="AR31" s="326"/>
+      <c r="AS31" s="326"/>
+      <c r="AT31" s="326"/>
+      <c r="AU31" s="326"/>
+      <c r="AV31" s="326"/>
+      <c r="AW31" s="326"/>
+      <c r="AX31" s="326"/>
+      <c r="AY31" s="326"/>
+      <c r="AZ31" s="326"/>
+      <c r="BA31" s="326"/>
+      <c r="BB31" s="326"/>
+      <c r="BC31" s="326"/>
+      <c r="BD31" s="326"/>
+      <c r="BE31" s="326"/>
+      <c r="BF31" s="326"/>
     </row>
     <row r="32" spans="1:58">
-      <c r="A32" s="354"/>
-      <c r="B32" s="354"/>
-      <c r="C32" s="355"/>
-      <c r="D32" s="356"/>
-      <c r="E32" s="356"/>
-      <c r="F32" s="356"/>
-      <c r="G32" s="357"/>
-      <c r="H32" s="357"/>
-      <c r="I32" s="357"/>
-      <c r="J32" s="357"/>
-      <c r="K32" s="357"/>
-      <c r="L32" s="354"/>
-      <c r="M32" s="354"/>
-      <c r="N32" s="354"/>
-      <c r="O32" s="354"/>
-      <c r="P32" s="354"/>
-      <c r="Q32" s="354"/>
-      <c r="R32" s="324"/>
-      <c r="S32" s="324"/>
-      <c r="T32" s="324"/>
-      <c r="U32" s="324"/>
-      <c r="V32" s="324"/>
-      <c r="W32" s="324"/>
-      <c r="X32" s="324"/>
-      <c r="Y32" s="324"/>
-      <c r="Z32" s="324"/>
-      <c r="AA32" s="324"/>
-      <c r="AB32" s="324"/>
-      <c r="AC32" s="324"/>
-      <c r="AD32" s="324"/>
-      <c r="AE32" s="324"/>
-      <c r="AF32" s="324"/>
-      <c r="AG32" s="324"/>
-      <c r="AH32" s="324"/>
-      <c r="AI32" s="324"/>
-      <c r="AJ32" s="324"/>
-      <c r="AK32" s="324"/>
-      <c r="AL32" s="324"/>
-      <c r="AM32" s="324"/>
-      <c r="AN32" s="324"/>
-      <c r="AO32" s="324"/>
-      <c r="AP32" s="324"/>
-      <c r="AQ32" s="324"/>
-      <c r="AR32" s="324"/>
-      <c r="AS32" s="324"/>
-      <c r="AT32" s="324"/>
-      <c r="AU32" s="324"/>
-      <c r="AV32" s="324"/>
-      <c r="AW32" s="324"/>
-      <c r="AX32" s="324"/>
-      <c r="AY32" s="324"/>
-      <c r="AZ32" s="324"/>
-      <c r="BA32" s="324"/>
-      <c r="BB32" s="324"/>
-      <c r="BC32" s="324"/>
-      <c r="BD32" s="324"/>
-      <c r="BE32" s="324"/>
-      <c r="BF32" s="324"/>
+      <c r="A32" s="327"/>
+      <c r="B32" s="327"/>
+      <c r="C32" s="324"/>
+      <c r="D32" s="328"/>
+      <c r="E32" s="328"/>
+      <c r="F32" s="328"/>
+      <c r="G32" s="325"/>
+      <c r="H32" s="325"/>
+      <c r="I32" s="325"/>
+      <c r="J32" s="325"/>
+      <c r="K32" s="325"/>
+      <c r="L32" s="327"/>
+      <c r="M32" s="327"/>
+      <c r="N32" s="327"/>
+      <c r="O32" s="327"/>
+      <c r="P32" s="327"/>
+      <c r="Q32" s="327"/>
+      <c r="R32" s="326"/>
+      <c r="S32" s="326"/>
+      <c r="T32" s="326"/>
+      <c r="U32" s="326"/>
+      <c r="V32" s="326"/>
+      <c r="W32" s="326"/>
+      <c r="X32" s="326"/>
+      <c r="Y32" s="326"/>
+      <c r="Z32" s="326"/>
+      <c r="AA32" s="326"/>
+      <c r="AB32" s="326"/>
+      <c r="AC32" s="326"/>
+      <c r="AD32" s="326"/>
+      <c r="AE32" s="326"/>
+      <c r="AF32" s="326"/>
+      <c r="AG32" s="326"/>
+      <c r="AH32" s="326"/>
+      <c r="AI32" s="326"/>
+      <c r="AJ32" s="326"/>
+      <c r="AK32" s="326"/>
+      <c r="AL32" s="326"/>
+      <c r="AM32" s="326"/>
+      <c r="AN32" s="326"/>
+      <c r="AO32" s="326"/>
+      <c r="AP32" s="326"/>
+      <c r="AQ32" s="326"/>
+      <c r="AR32" s="326"/>
+      <c r="AS32" s="326"/>
+      <c r="AT32" s="326"/>
+      <c r="AU32" s="326"/>
+      <c r="AV32" s="326"/>
+      <c r="AW32" s="326"/>
+      <c r="AX32" s="326"/>
+      <c r="AY32" s="326"/>
+      <c r="AZ32" s="326"/>
+      <c r="BA32" s="326"/>
+      <c r="BB32" s="326"/>
+      <c r="BC32" s="326"/>
+      <c r="BD32" s="326"/>
+      <c r="BE32" s="326"/>
+      <c r="BF32" s="326"/>
     </row>
     <row r="33" spans="1:58">
-      <c r="A33" s="354"/>
-      <c r="B33" s="354"/>
-      <c r="C33" s="355"/>
-      <c r="D33" s="356"/>
-      <c r="E33" s="356"/>
-      <c r="F33" s="356"/>
-      <c r="G33" s="357"/>
-      <c r="H33" s="357"/>
-      <c r="I33" s="357"/>
-      <c r="J33" s="357"/>
-      <c r="K33" s="357"/>
-      <c r="L33" s="354"/>
-      <c r="M33" s="354"/>
-      <c r="N33" s="354"/>
-      <c r="O33" s="354"/>
-      <c r="P33" s="354"/>
-      <c r="Q33" s="354"/>
-      <c r="R33" s="324"/>
-      <c r="S33" s="324"/>
-      <c r="T33" s="324"/>
-      <c r="U33" s="324"/>
-      <c r="V33" s="324"/>
-      <c r="W33" s="324"/>
-      <c r="X33" s="324"/>
-      <c r="Y33" s="324"/>
-      <c r="Z33" s="324"/>
-      <c r="AA33" s="324"/>
-      <c r="AB33" s="324"/>
-      <c r="AC33" s="324"/>
-      <c r="AD33" s="324"/>
-      <c r="AE33" s="324"/>
-      <c r="AF33" s="324"/>
-      <c r="AG33" s="324"/>
-      <c r="AH33" s="324"/>
-      <c r="AI33" s="324"/>
-      <c r="AJ33" s="324"/>
-      <c r="AK33" s="324"/>
-      <c r="AL33" s="324"/>
-      <c r="AM33" s="324"/>
-      <c r="AN33" s="324"/>
-      <c r="AO33" s="324"/>
-      <c r="AP33" s="324"/>
-      <c r="AQ33" s="324"/>
-      <c r="AR33" s="324"/>
-      <c r="AS33" s="324"/>
-      <c r="AT33" s="324"/>
-      <c r="AU33" s="324"/>
-      <c r="AV33" s="324"/>
-      <c r="AW33" s="324"/>
-      <c r="AX33" s="324"/>
-      <c r="AY33" s="324"/>
-      <c r="AZ33" s="324"/>
-      <c r="BA33" s="324"/>
-      <c r="BB33" s="324"/>
-      <c r="BC33" s="324"/>
-      <c r="BD33" s="324"/>
-      <c r="BE33" s="324"/>
-      <c r="BF33" s="324"/>
+      <c r="A33" s="327"/>
+      <c r="B33" s="327"/>
+      <c r="C33" s="324"/>
+      <c r="D33" s="328"/>
+      <c r="E33" s="328"/>
+      <c r="F33" s="328"/>
+      <c r="G33" s="325"/>
+      <c r="H33" s="325"/>
+      <c r="I33" s="325"/>
+      <c r="J33" s="325"/>
+      <c r="K33" s="325"/>
+      <c r="L33" s="327"/>
+      <c r="M33" s="327"/>
+      <c r="N33" s="327"/>
+      <c r="O33" s="327"/>
+      <c r="P33" s="327"/>
+      <c r="Q33" s="327"/>
+      <c r="R33" s="326"/>
+      <c r="S33" s="326"/>
+      <c r="T33" s="326"/>
+      <c r="U33" s="326"/>
+      <c r="V33" s="326"/>
+      <c r="W33" s="326"/>
+      <c r="X33" s="326"/>
+      <c r="Y33" s="326"/>
+      <c r="Z33" s="326"/>
+      <c r="AA33" s="326"/>
+      <c r="AB33" s="326"/>
+      <c r="AC33" s="326"/>
+      <c r="AD33" s="326"/>
+      <c r="AE33" s="326"/>
+      <c r="AF33" s="326"/>
+      <c r="AG33" s="326"/>
+      <c r="AH33" s="326"/>
+      <c r="AI33" s="326"/>
+      <c r="AJ33" s="326"/>
+      <c r="AK33" s="326"/>
+      <c r="AL33" s="326"/>
+      <c r="AM33" s="326"/>
+      <c r="AN33" s="326"/>
+      <c r="AO33" s="326"/>
+      <c r="AP33" s="326"/>
+      <c r="AQ33" s="326"/>
+      <c r="AR33" s="326"/>
+      <c r="AS33" s="326"/>
+      <c r="AT33" s="326"/>
+      <c r="AU33" s="326"/>
+      <c r="AV33" s="326"/>
+      <c r="AW33" s="326"/>
+      <c r="AX33" s="326"/>
+      <c r="AY33" s="326"/>
+      <c r="AZ33" s="326"/>
+      <c r="BA33" s="326"/>
+      <c r="BB33" s="326"/>
+      <c r="BC33" s="326"/>
+      <c r="BD33" s="326"/>
+      <c r="BE33" s="326"/>
+      <c r="BF33" s="326"/>
     </row>
   </sheetData>
   <mergeCells count="182">
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G26:K26"/>
-    <mergeCell ref="R26:AA26"/>
-    <mergeCell ref="G27:K27"/>
-    <mergeCell ref="R27:AA27"/>
-    <mergeCell ref="G28:K28"/>
-    <mergeCell ref="R28:AA28"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="R29:AA29"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="R30:AA30"/>
-    <mergeCell ref="L26:Q26"/>
-    <mergeCell ref="L27:Q27"/>
-    <mergeCell ref="L28:Q28"/>
-    <mergeCell ref="L29:Q29"/>
-    <mergeCell ref="L30:Q30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="G32:K32"/>
-    <mergeCell ref="R32:AA32"/>
-    <mergeCell ref="G33:K33"/>
-    <mergeCell ref="R33:AA33"/>
-    <mergeCell ref="G31:K31"/>
-    <mergeCell ref="R31:AA31"/>
-    <mergeCell ref="L31:Q31"/>
-    <mergeCell ref="L32:Q32"/>
-    <mergeCell ref="L33:Q33"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="R23:AA23"/>
-    <mergeCell ref="G24:K24"/>
-    <mergeCell ref="R24:AA24"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="R25:AA25"/>
-    <mergeCell ref="L23:Q23"/>
-    <mergeCell ref="L24:Q24"/>
-    <mergeCell ref="L25:Q25"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="R20:AA20"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="R21:AA21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="R22:AA22"/>
-    <mergeCell ref="L20:Q20"/>
-    <mergeCell ref="L21:Q21"/>
-    <mergeCell ref="L22:Q22"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="R17:AA17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="R18:AA18"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="R19:AA19"/>
-    <mergeCell ref="L17:Q17"/>
-    <mergeCell ref="L18:Q18"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="R14:AA14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="R15:AA15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="R16:AA16"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="R9:AA9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="R10:AA10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="R11:AA11"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="R6:AA6"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="R7:AA7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="R8:AA8"/>
-    <mergeCell ref="L6:Q6"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="AB17:BF17"/>
+    <mergeCell ref="AB18:BF18"/>
+    <mergeCell ref="AB19:BF19"/>
+    <mergeCell ref="AB20:BF20"/>
+    <mergeCell ref="AB21:BF21"/>
+    <mergeCell ref="AB22:BF22"/>
+    <mergeCell ref="AB32:BF32"/>
+    <mergeCell ref="AB33:BF33"/>
+    <mergeCell ref="AB23:BF23"/>
+    <mergeCell ref="AB24:BF24"/>
+    <mergeCell ref="AB25:BF25"/>
+    <mergeCell ref="AB26:BF26"/>
+    <mergeCell ref="AB27:BF27"/>
+    <mergeCell ref="AB28:BF28"/>
+    <mergeCell ref="AB29:BF29"/>
+    <mergeCell ref="AB30:BF30"/>
+    <mergeCell ref="AB31:BF31"/>
+    <mergeCell ref="AB6:BF6"/>
+    <mergeCell ref="AB7:BF7"/>
+    <mergeCell ref="AB8:BF8"/>
+    <mergeCell ref="AB9:BF9"/>
+    <mergeCell ref="AB10:BF10"/>
+    <mergeCell ref="AB11:BF11"/>
+    <mergeCell ref="AB14:BF14"/>
+    <mergeCell ref="AB15:BF15"/>
+    <mergeCell ref="AB16:BF16"/>
     <mergeCell ref="BB3:BF3"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:F5"/>
@@ -10006,32 +9900,138 @@
     <mergeCell ref="L5:Q5"/>
     <mergeCell ref="AW3:BA3"/>
     <mergeCell ref="AB5:BF5"/>
-    <mergeCell ref="AB6:BF6"/>
-    <mergeCell ref="AB7:BF7"/>
-    <mergeCell ref="AB8:BF8"/>
-    <mergeCell ref="AB9:BF9"/>
-    <mergeCell ref="AB10:BF10"/>
-    <mergeCell ref="AB11:BF11"/>
-    <mergeCell ref="AB14:BF14"/>
-    <mergeCell ref="AB15:BF15"/>
-    <mergeCell ref="AB16:BF16"/>
-    <mergeCell ref="AB17:BF17"/>
-    <mergeCell ref="AB18:BF18"/>
-    <mergeCell ref="AB19:BF19"/>
-    <mergeCell ref="AB20:BF20"/>
-    <mergeCell ref="AB21:BF21"/>
-    <mergeCell ref="AB22:BF22"/>
-    <mergeCell ref="AB32:BF32"/>
-    <mergeCell ref="AB33:BF33"/>
-    <mergeCell ref="AB23:BF23"/>
-    <mergeCell ref="AB24:BF24"/>
-    <mergeCell ref="AB25:BF25"/>
-    <mergeCell ref="AB26:BF26"/>
-    <mergeCell ref="AB27:BF27"/>
-    <mergeCell ref="AB28:BF28"/>
-    <mergeCell ref="AB29:BF29"/>
-    <mergeCell ref="AB30:BF30"/>
-    <mergeCell ref="AB31:BF31"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="R6:AA6"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="R7:AA7"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="R8:AA8"/>
+    <mergeCell ref="L6:Q6"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="R9:AA9"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="R10:AA10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="R11:AA11"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="R14:AA14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="R15:AA15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="R16:AA16"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="R17:AA17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="R18:AA18"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="R19:AA19"/>
+    <mergeCell ref="L17:Q17"/>
+    <mergeCell ref="L18:Q18"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="R20:AA20"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="R21:AA21"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="R22:AA22"/>
+    <mergeCell ref="L20:Q20"/>
+    <mergeCell ref="L21:Q21"/>
+    <mergeCell ref="L22:Q22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="R23:AA23"/>
+    <mergeCell ref="G24:K24"/>
+    <mergeCell ref="R24:AA24"/>
+    <mergeCell ref="G25:K25"/>
+    <mergeCell ref="R25:AA25"/>
+    <mergeCell ref="L23:Q23"/>
+    <mergeCell ref="L24:Q24"/>
+    <mergeCell ref="L25:Q25"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G32:K32"/>
+    <mergeCell ref="R32:AA32"/>
+    <mergeCell ref="G33:K33"/>
+    <mergeCell ref="R33:AA33"/>
+    <mergeCell ref="G31:K31"/>
+    <mergeCell ref="R31:AA31"/>
+    <mergeCell ref="L31:Q31"/>
+    <mergeCell ref="L32:Q32"/>
+    <mergeCell ref="L33:Q33"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="R30:AA30"/>
+    <mergeCell ref="L26:Q26"/>
+    <mergeCell ref="L27:Q27"/>
+    <mergeCell ref="L28:Q28"/>
+    <mergeCell ref="L29:Q29"/>
+    <mergeCell ref="L30:Q30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="R26:AA26"/>
+    <mergeCell ref="G27:K27"/>
+    <mergeCell ref="R27:AA27"/>
+    <mergeCell ref="G28:K28"/>
+    <mergeCell ref="R28:AA28"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="R29:AA29"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.6692913385826772" bottom="0.43307086614173229" header="0.39370078740157483" footer="0.27559055118110237"/>
@@ -10061,255 +10061,255 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A1" s="363" t="s">
+      <c r="A1" s="360" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="330"/>
-      <c r="C1" s="330"/>
-      <c r="D1" s="330"/>
-      <c r="E1" s="330"/>
-      <c r="F1" s="330"/>
-      <c r="G1" s="330"/>
-      <c r="H1" s="330"/>
-      <c r="I1" s="330" t="s">
+      <c r="B1" s="342"/>
+      <c r="C1" s="342"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="342"/>
+      <c r="G1" s="342"/>
+      <c r="H1" s="342"/>
+      <c r="I1" s="342" t="s">
         <v>256</v>
       </c>
-      <c r="J1" s="330"/>
-      <c r="K1" s="330"/>
-      <c r="L1" s="330"/>
-      <c r="M1" s="330"/>
-      <c r="N1" s="330"/>
-      <c r="O1" s="330"/>
-      <c r="P1" s="330"/>
-      <c r="Q1" s="330"/>
-      <c r="R1" s="330"/>
-      <c r="S1" s="330"/>
-      <c r="T1" s="330" t="s">
+      <c r="J1" s="342"/>
+      <c r="K1" s="342"/>
+      <c r="L1" s="342"/>
+      <c r="M1" s="342"/>
+      <c r="N1" s="342"/>
+      <c r="O1" s="342"/>
+      <c r="P1" s="342"/>
+      <c r="Q1" s="342"/>
+      <c r="R1" s="342"/>
+      <c r="S1" s="342"/>
+      <c r="T1" s="342" t="s">
         <v>257</v>
       </c>
-      <c r="U1" s="330"/>
-      <c r="V1" s="330"/>
-      <c r="W1" s="330"/>
-      <c r="X1" s="330"/>
-      <c r="Y1" s="330"/>
-      <c r="Z1" s="330"/>
-      <c r="AA1" s="330" t="s">
+      <c r="U1" s="342"/>
+      <c r="V1" s="342"/>
+      <c r="W1" s="342"/>
+      <c r="X1" s="342"/>
+      <c r="Y1" s="342"/>
+      <c r="Z1" s="342"/>
+      <c r="AA1" s="342" t="s">
         <v>270</v>
       </c>
-      <c r="AB1" s="330"/>
-      <c r="AC1" s="330"/>
-      <c r="AD1" s="330"/>
-      <c r="AE1" s="330"/>
-      <c r="AF1" s="330"/>
-      <c r="AG1" s="330"/>
-      <c r="AH1" s="330"/>
-      <c r="AI1" s="330"/>
-      <c r="AJ1" s="330"/>
-      <c r="AK1" s="330"/>
-      <c r="AL1" s="330"/>
-      <c r="AM1" s="330"/>
-      <c r="AN1" s="330"/>
-      <c r="AO1" s="330"/>
-      <c r="AP1" s="330"/>
-      <c r="AQ1" s="330"/>
-      <c r="AR1" s="330" t="s">
+      <c r="AB1" s="342"/>
+      <c r="AC1" s="342"/>
+      <c r="AD1" s="342"/>
+      <c r="AE1" s="342"/>
+      <c r="AF1" s="342"/>
+      <c r="AG1" s="342"/>
+      <c r="AH1" s="342"/>
+      <c r="AI1" s="342"/>
+      <c r="AJ1" s="342"/>
+      <c r="AK1" s="342"/>
+      <c r="AL1" s="342"/>
+      <c r="AM1" s="342"/>
+      <c r="AN1" s="342"/>
+      <c r="AO1" s="342"/>
+      <c r="AP1" s="342"/>
+      <c r="AQ1" s="342"/>
+      <c r="AR1" s="342" t="s">
         <v>282</v>
       </c>
-      <c r="AS1" s="330"/>
-      <c r="AT1" s="330"/>
-      <c r="AU1" s="330"/>
-      <c r="AV1" s="330"/>
-      <c r="AW1" s="344" t="s">
+      <c r="AS1" s="342"/>
+      <c r="AT1" s="342"/>
+      <c r="AU1" s="342"/>
+      <c r="AV1" s="342"/>
+      <c r="AW1" s="355" t="s">
         <v>261</v>
       </c>
-      <c r="AX1" s="344"/>
-      <c r="AY1" s="330"/>
-      <c r="AZ1" s="330"/>
-      <c r="BA1" s="330"/>
-      <c r="BB1" s="330" t="s">
+      <c r="AX1" s="355"/>
+      <c r="AY1" s="342"/>
+      <c r="AZ1" s="342"/>
+      <c r="BA1" s="342"/>
+      <c r="BB1" s="342" t="s">
         <v>272</v>
       </c>
-      <c r="BC1" s="330"/>
-      <c r="BD1" s="330"/>
-      <c r="BE1" s="330"/>
-      <c r="BF1" s="330"/>
+      <c r="BC1" s="342"/>
+      <c r="BD1" s="342"/>
+      <c r="BE1" s="342"/>
+      <c r="BF1" s="342"/>
     </row>
     <row r="2" spans="1:58" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A2" s="334" t="s">
+      <c r="A2" s="346" t="s">
         <v>273</v>
       </c>
-      <c r="B2" s="334"/>
-      <c r="C2" s="334"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="334"/>
-      <c r="F2" s="334"/>
-      <c r="G2" s="334"/>
-      <c r="H2" s="334"/>
-      <c r="I2" s="334" t="str">
+      <c r="B2" s="346"/>
+      <c r="C2" s="346"/>
+      <c r="D2" s="346"/>
+      <c r="E2" s="346"/>
+      <c r="F2" s="346"/>
+      <c r="G2" s="346"/>
+      <c r="H2" s="346"/>
+      <c r="I2" s="346" t="str">
         <f>Cover!I12</f>
         <v>Manage Student</v>
       </c>
-      <c r="J2" s="334"/>
-      <c r="K2" s="334"/>
-      <c r="L2" s="334"/>
-      <c r="M2" s="334"/>
-      <c r="N2" s="334"/>
-      <c r="O2" s="334"/>
-      <c r="P2" s="334"/>
-      <c r="Q2" s="334"/>
-      <c r="R2" s="334"/>
-      <c r="S2" s="334"/>
-      <c r="T2" s="334" t="str">
+      <c r="J2" s="346"/>
+      <c r="K2" s="346"/>
+      <c r="L2" s="346"/>
+      <c r="M2" s="346"/>
+      <c r="N2" s="346"/>
+      <c r="O2" s="346"/>
+      <c r="P2" s="346"/>
+      <c r="Q2" s="346"/>
+      <c r="R2" s="346"/>
+      <c r="S2" s="346"/>
+      <c r="T2" s="346" t="str">
         <f>Cover!I15</f>
         <v>GMO_management_Student</v>
       </c>
-      <c r="U2" s="334"/>
-      <c r="V2" s="334"/>
-      <c r="W2" s="334"/>
-      <c r="X2" s="334"/>
-      <c r="Y2" s="334"/>
-      <c r="Z2" s="334"/>
-      <c r="AA2" s="335" t="str">
+      <c r="U2" s="346"/>
+      <c r="V2" s="346"/>
+      <c r="W2" s="346"/>
+      <c r="X2" s="346"/>
+      <c r="Y2" s="346"/>
+      <c r="Z2" s="346"/>
+      <c r="AA2" s="329" t="str">
         <f>Cover!R19</f>
         <v>Add student</v>
       </c>
-      <c r="AB2" s="335"/>
-      <c r="AC2" s="335"/>
-      <c r="AD2" s="335"/>
-      <c r="AE2" s="335"/>
-      <c r="AF2" s="335"/>
-      <c r="AG2" s="335"/>
-      <c r="AH2" s="335"/>
-      <c r="AI2" s="335"/>
-      <c r="AJ2" s="335"/>
-      <c r="AK2" s="335"/>
-      <c r="AL2" s="335"/>
-      <c r="AM2" s="335"/>
-      <c r="AN2" s="335"/>
-      <c r="AO2" s="335"/>
-      <c r="AP2" s="335"/>
-      <c r="AQ2" s="335"/>
-      <c r="AR2" s="336" t="str">
+      <c r="AB2" s="329"/>
+      <c r="AC2" s="329"/>
+      <c r="AD2" s="329"/>
+      <c r="AE2" s="329"/>
+      <c r="AF2" s="329"/>
+      <c r="AG2" s="329"/>
+      <c r="AH2" s="329"/>
+      <c r="AI2" s="329"/>
+      <c r="AJ2" s="329"/>
+      <c r="AK2" s="329"/>
+      <c r="AL2" s="329"/>
+      <c r="AM2" s="329"/>
+      <c r="AN2" s="329"/>
+      <c r="AO2" s="329"/>
+      <c r="AP2" s="329"/>
+      <c r="AQ2" s="329"/>
+      <c r="AR2" s="347" t="str">
         <f>Cover!I19</f>
         <v>0-0</v>
       </c>
-      <c r="AS2" s="335"/>
-      <c r="AT2" s="335"/>
-      <c r="AU2" s="335"/>
-      <c r="AV2" s="335"/>
-      <c r="AW2" s="335" t="s">
+      <c r="AS2" s="329"/>
+      <c r="AT2" s="329"/>
+      <c r="AU2" s="329"/>
+      <c r="AV2" s="329"/>
+      <c r="AW2" s="329" t="s">
         <v>267</v>
       </c>
-      <c r="AX2" s="335" t="s">
+      <c r="AX2" s="329" t="s">
         <v>171</v>
       </c>
-      <c r="AY2" s="335" t="s">
+      <c r="AY2" s="329" t="s">
         <v>171</v>
       </c>
-      <c r="AZ2" s="335" t="s">
+      <c r="AZ2" s="329" t="s">
         <v>171</v>
       </c>
-      <c r="BA2" s="335" t="s">
+      <c r="BA2" s="329" t="s">
         <v>171</v>
       </c>
-      <c r="BB2" s="335" t="s">
+      <c r="BB2" s="329" t="s">
         <v>267</v>
       </c>
-      <c r="BC2" s="335" t="s">
+      <c r="BC2" s="329" t="s">
         <v>171</v>
       </c>
-      <c r="BD2" s="335" t="s">
+      <c r="BD2" s="329" t="s">
         <v>171</v>
       </c>
-      <c r="BE2" s="335" t="s">
+      <c r="BE2" s="329" t="s">
         <v>171</v>
       </c>
-      <c r="BF2" s="335" t="s">
+      <c r="BF2" s="329" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:58" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A3" s="334"/>
-      <c r="B3" s="334"/>
-      <c r="C3" s="334"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="334"/>
-      <c r="F3" s="334"/>
-      <c r="G3" s="334"/>
-      <c r="H3" s="334"/>
-      <c r="I3" s="334"/>
-      <c r="J3" s="334"/>
-      <c r="K3" s="334"/>
-      <c r="L3" s="334"/>
-      <c r="M3" s="334"/>
-      <c r="N3" s="334"/>
-      <c r="O3" s="334"/>
-      <c r="P3" s="334"/>
-      <c r="Q3" s="334"/>
-      <c r="R3" s="334"/>
-      <c r="S3" s="334"/>
-      <c r="T3" s="334"/>
-      <c r="U3" s="334"/>
-      <c r="V3" s="334"/>
-      <c r="W3" s="334"/>
-      <c r="X3" s="334"/>
-      <c r="Y3" s="334"/>
-      <c r="Z3" s="334"/>
-      <c r="AA3" s="330" t="s">
+      <c r="A3" s="346"/>
+      <c r="B3" s="346"/>
+      <c r="C3" s="346"/>
+      <c r="D3" s="346"/>
+      <c r="E3" s="346"/>
+      <c r="F3" s="346"/>
+      <c r="G3" s="346"/>
+      <c r="H3" s="346"/>
+      <c r="I3" s="346"/>
+      <c r="J3" s="346"/>
+      <c r="K3" s="346"/>
+      <c r="L3" s="346"/>
+      <c r="M3" s="346"/>
+      <c r="N3" s="346"/>
+      <c r="O3" s="346"/>
+      <c r="P3" s="346"/>
+      <c r="Q3" s="346"/>
+      <c r="R3" s="346"/>
+      <c r="S3" s="346"/>
+      <c r="T3" s="346"/>
+      <c r="U3" s="346"/>
+      <c r="V3" s="346"/>
+      <c r="W3" s="346"/>
+      <c r="X3" s="346"/>
+      <c r="Y3" s="346"/>
+      <c r="Z3" s="346"/>
+      <c r="AA3" s="342" t="s">
         <v>274</v>
       </c>
-      <c r="AB3" s="330"/>
-      <c r="AC3" s="330"/>
-      <c r="AD3" s="330"/>
-      <c r="AE3" s="330"/>
-      <c r="AF3" s="330"/>
-      <c r="AG3" s="339" t="str">
+      <c r="AB3" s="342"/>
+      <c r="AC3" s="342"/>
+      <c r="AD3" s="342"/>
+      <c r="AE3" s="342"/>
+      <c r="AF3" s="342"/>
+      <c r="AG3" s="350" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Layout</v>
       </c>
-      <c r="AH3" s="340"/>
-      <c r="AI3" s="340"/>
-      <c r="AJ3" s="340"/>
-      <c r="AK3" s="340"/>
-      <c r="AL3" s="340"/>
-      <c r="AM3" s="340"/>
-      <c r="AN3" s="340"/>
-      <c r="AO3" s="340"/>
-      <c r="AP3" s="340"/>
-      <c r="AQ3" s="340"/>
-      <c r="AR3" s="340"/>
-      <c r="AS3" s="340"/>
-      <c r="AT3" s="340"/>
-      <c r="AU3" s="340"/>
-      <c r="AV3" s="341"/>
-      <c r="AW3" s="361">
+      <c r="AH3" s="351"/>
+      <c r="AI3" s="351"/>
+      <c r="AJ3" s="351"/>
+      <c r="AK3" s="351"/>
+      <c r="AL3" s="351"/>
+      <c r="AM3" s="351"/>
+      <c r="AN3" s="351"/>
+      <c r="AO3" s="351"/>
+      <c r="AP3" s="351"/>
+      <c r="AQ3" s="351"/>
+      <c r="AR3" s="351"/>
+      <c r="AS3" s="351"/>
+      <c r="AT3" s="351"/>
+      <c r="AU3" s="351"/>
+      <c r="AV3" s="352"/>
+      <c r="AW3" s="359">
         <v>44504</v>
       </c>
-      <c r="AX3" s="361">
+      <c r="AX3" s="359">
         <v>44147</v>
       </c>
-      <c r="AY3" s="361">
+      <c r="AY3" s="359">
         <v>44147</v>
       </c>
-      <c r="AZ3" s="361">
+      <c r="AZ3" s="359">
         <v>44147</v>
       </c>
-      <c r="BA3" s="361">
+      <c r="BA3" s="359">
         <v>44147</v>
       </c>
-      <c r="BB3" s="361">
+      <c r="BB3" s="359">
         <v>44504</v>
       </c>
-      <c r="BC3" s="361">
+      <c r="BC3" s="359">
         <v>44147</v>
       </c>
-      <c r="BD3" s="361">
+      <c r="BD3" s="359">
         <v>44147</v>
       </c>
-      <c r="BE3" s="361">
+      <c r="BE3" s="359">
         <v>44147</v>
       </c>
-      <c r="BF3" s="361">
+      <c r="BF3" s="359">
         <v>44147</v>
       </c>
     </row>
@@ -10423,22 +10423,22 @@
       <c r="AP6" s="81"/>
       <c r="AQ6" s="81"/>
       <c r="AR6" s="81"/>
-      <c r="AS6" s="358" t="s">
+      <c r="AS6" s="361" t="s">
         <v>283</v>
       </c>
-      <c r="AT6" s="359"/>
-      <c r="AU6" s="359"/>
-      <c r="AV6" s="359"/>
-      <c r="AW6" s="359"/>
-      <c r="AX6" s="359"/>
-      <c r="AY6" s="359"/>
-      <c r="AZ6" s="359"/>
-      <c r="BA6" s="359"/>
-      <c r="BB6" s="359"/>
-      <c r="BC6" s="359"/>
-      <c r="BD6" s="359"/>
-      <c r="BE6" s="359"/>
-      <c r="BF6" s="360"/>
+      <c r="AT6" s="362"/>
+      <c r="AU6" s="362"/>
+      <c r="AV6" s="362"/>
+      <c r="AW6" s="362"/>
+      <c r="AX6" s="362"/>
+      <c r="AY6" s="362"/>
+      <c r="AZ6" s="362"/>
+      <c r="BA6" s="362"/>
+      <c r="BB6" s="362"/>
+      <c r="BC6" s="362"/>
+      <c r="BD6" s="362"/>
+      <c r="BE6" s="362"/>
+      <c r="BF6" s="363"/>
     </row>
     <row r="7" spans="1:58" ht="13.5" customHeight="1">
       <c r="A7" s="80"/>
@@ -10485,20 +10485,20 @@
       <c r="AP7" s="81"/>
       <c r="AQ7" s="81"/>
       <c r="AR7" s="81"/>
-      <c r="AS7" s="358"/>
-      <c r="AT7" s="359"/>
-      <c r="AU7" s="359"/>
-      <c r="AV7" s="359"/>
-      <c r="AW7" s="359"/>
-      <c r="AX7" s="359"/>
-      <c r="AY7" s="359"/>
-      <c r="AZ7" s="359"/>
-      <c r="BA7" s="359"/>
-      <c r="BB7" s="359"/>
-      <c r="BC7" s="359"/>
-      <c r="BD7" s="359"/>
-      <c r="BE7" s="359"/>
-      <c r="BF7" s="360"/>
+      <c r="AS7" s="361"/>
+      <c r="AT7" s="362"/>
+      <c r="AU7" s="362"/>
+      <c r="AV7" s="362"/>
+      <c r="AW7" s="362"/>
+      <c r="AX7" s="362"/>
+      <c r="AY7" s="362"/>
+      <c r="AZ7" s="362"/>
+      <c r="BA7" s="362"/>
+      <c r="BB7" s="362"/>
+      <c r="BC7" s="362"/>
+      <c r="BD7" s="362"/>
+      <c r="BE7" s="362"/>
+      <c r="BF7" s="363"/>
     </row>
     <row r="8" spans="1:58" ht="13.5" customHeight="1">
       <c r="A8" s="80"/>
@@ -10507,16 +10507,16 @@
       <c r="D8" s="96"/>
       <c r="E8" s="96"/>
       <c r="F8" s="96"/>
-      <c r="G8" s="362"/>
-      <c r="H8" s="362"/>
-      <c r="I8" s="362"/>
-      <c r="J8" s="362"/>
-      <c r="K8" s="362"/>
-      <c r="L8" s="362"/>
-      <c r="M8" s="362"/>
-      <c r="N8" s="362"/>
-      <c r="O8" s="362"/>
-      <c r="P8" s="362"/>
+      <c r="G8" s="358"/>
+      <c r="H8" s="358"/>
+      <c r="I8" s="358"/>
+      <c r="J8" s="358"/>
+      <c r="K8" s="358"/>
+      <c r="L8" s="358"/>
+      <c r="M8" s="358"/>
+      <c r="N8" s="358"/>
+      <c r="O8" s="358"/>
+      <c r="P8" s="358"/>
       <c r="Q8" s="96"/>
       <c r="R8" s="96"/>
       <c r="S8" s="96"/>
@@ -10545,20 +10545,20 @@
       <c r="AP8" s="81"/>
       <c r="AQ8" s="81"/>
       <c r="AR8" s="81"/>
-      <c r="AS8" s="358"/>
-      <c r="AT8" s="359"/>
-      <c r="AU8" s="359"/>
-      <c r="AV8" s="359"/>
-      <c r="AW8" s="359"/>
-      <c r="AX8" s="359"/>
-      <c r="AY8" s="359"/>
-      <c r="AZ8" s="359"/>
-      <c r="BA8" s="359"/>
-      <c r="BB8" s="359"/>
-      <c r="BC8" s="359"/>
-      <c r="BD8" s="359"/>
-      <c r="BE8" s="359"/>
-      <c r="BF8" s="360"/>
+      <c r="AS8" s="361"/>
+      <c r="AT8" s="362"/>
+      <c r="AU8" s="362"/>
+      <c r="AV8" s="362"/>
+      <c r="AW8" s="362"/>
+      <c r="AX8" s="362"/>
+      <c r="AY8" s="362"/>
+      <c r="AZ8" s="362"/>
+      <c r="BA8" s="362"/>
+      <c r="BB8" s="362"/>
+      <c r="BC8" s="362"/>
+      <c r="BD8" s="362"/>
+      <c r="BE8" s="362"/>
+      <c r="BF8" s="363"/>
     </row>
     <row r="9" spans="1:58" ht="13.5" customHeight="1">
       <c r="A9" s="80"/>
@@ -10605,20 +10605,20 @@
       <c r="AP9" s="81"/>
       <c r="AQ9" s="81"/>
       <c r="AR9" s="81"/>
-      <c r="AS9" s="358"/>
-      <c r="AT9" s="359"/>
-      <c r="AU9" s="359"/>
-      <c r="AV9" s="359"/>
-      <c r="AW9" s="359"/>
-      <c r="AX9" s="359"/>
-      <c r="AY9" s="359"/>
-      <c r="AZ9" s="359"/>
-      <c r="BA9" s="359"/>
-      <c r="BB9" s="359"/>
-      <c r="BC9" s="359"/>
-      <c r="BD9" s="359"/>
-      <c r="BE9" s="359"/>
-      <c r="BF9" s="360"/>
+      <c r="AS9" s="361"/>
+      <c r="AT9" s="362"/>
+      <c r="AU9" s="362"/>
+      <c r="AV9" s="362"/>
+      <c r="AW9" s="362"/>
+      <c r="AX9" s="362"/>
+      <c r="AY9" s="362"/>
+      <c r="AZ9" s="362"/>
+      <c r="BA9" s="362"/>
+      <c r="BB9" s="362"/>
+      <c r="BC9" s="362"/>
+      <c r="BD9" s="362"/>
+      <c r="BE9" s="362"/>
+      <c r="BF9" s="363"/>
     </row>
     <row r="10" spans="1:58" ht="13.5" customHeight="1">
       <c r="A10" s="80"/>
@@ -10627,16 +10627,16 @@
       <c r="D10" s="96"/>
       <c r="E10" s="96"/>
       <c r="F10" s="96"/>
-      <c r="G10" s="362"/>
-      <c r="H10" s="362"/>
-      <c r="I10" s="362"/>
-      <c r="J10" s="362"/>
-      <c r="K10" s="362"/>
-      <c r="L10" s="362"/>
-      <c r="M10" s="362"/>
-      <c r="N10" s="362"/>
-      <c r="O10" s="362"/>
-      <c r="P10" s="362"/>
+      <c r="G10" s="358"/>
+      <c r="H10" s="358"/>
+      <c r="I10" s="358"/>
+      <c r="J10" s="358"/>
+      <c r="K10" s="358"/>
+      <c r="L10" s="358"/>
+      <c r="M10" s="358"/>
+      <c r="N10" s="358"/>
+      <c r="O10" s="358"/>
+      <c r="P10" s="358"/>
       <c r="Q10" s="96"/>
       <c r="R10" s="96"/>
       <c r="S10" s="96"/>
@@ -10665,20 +10665,20 @@
       <c r="AP10" s="81"/>
       <c r="AQ10" s="81"/>
       <c r="AR10" s="81"/>
-      <c r="AS10" s="358"/>
-      <c r="AT10" s="359"/>
-      <c r="AU10" s="359"/>
-      <c r="AV10" s="359"/>
-      <c r="AW10" s="359"/>
-      <c r="AX10" s="359"/>
-      <c r="AY10" s="359"/>
-      <c r="AZ10" s="359"/>
-      <c r="BA10" s="359"/>
-      <c r="BB10" s="359"/>
-      <c r="BC10" s="359"/>
-      <c r="BD10" s="359"/>
-      <c r="BE10" s="359"/>
-      <c r="BF10" s="360"/>
+      <c r="AS10" s="361"/>
+      <c r="AT10" s="362"/>
+      <c r="AU10" s="362"/>
+      <c r="AV10" s="362"/>
+      <c r="AW10" s="362"/>
+      <c r="AX10" s="362"/>
+      <c r="AY10" s="362"/>
+      <c r="AZ10" s="362"/>
+      <c r="BA10" s="362"/>
+      <c r="BB10" s="362"/>
+      <c r="BC10" s="362"/>
+      <c r="BD10" s="362"/>
+      <c r="BE10" s="362"/>
+      <c r="BF10" s="363"/>
     </row>
     <row r="11" spans="1:58" ht="13.5" customHeight="1">
       <c r="A11" s="80"/>
@@ -10725,20 +10725,20 @@
       <c r="AP11" s="81"/>
       <c r="AQ11" s="81"/>
       <c r="AR11" s="81"/>
-      <c r="AS11" s="358"/>
-      <c r="AT11" s="359"/>
-      <c r="AU11" s="359"/>
-      <c r="AV11" s="359"/>
-      <c r="AW11" s="359"/>
-      <c r="AX11" s="359"/>
-      <c r="AY11" s="359"/>
-      <c r="AZ11" s="359"/>
-      <c r="BA11" s="359"/>
-      <c r="BB11" s="359"/>
-      <c r="BC11" s="359"/>
-      <c r="BD11" s="359"/>
-      <c r="BE11" s="359"/>
-      <c r="BF11" s="360"/>
+      <c r="AS11" s="361"/>
+      <c r="AT11" s="362"/>
+      <c r="AU11" s="362"/>
+      <c r="AV11" s="362"/>
+      <c r="AW11" s="362"/>
+      <c r="AX11" s="362"/>
+      <c r="AY11" s="362"/>
+      <c r="AZ11" s="362"/>
+      <c r="BA11" s="362"/>
+      <c r="BB11" s="362"/>
+      <c r="BC11" s="362"/>
+      <c r="BD11" s="362"/>
+      <c r="BE11" s="362"/>
+      <c r="BF11" s="363"/>
     </row>
     <row r="12" spans="1:58" ht="13.5" customHeight="1">
       <c r="A12" s="80"/>
@@ -10747,9 +10747,9 @@
       <c r="D12" s="96"/>
       <c r="E12" s="96"/>
       <c r="F12" s="96"/>
-      <c r="G12" s="362"/>
-      <c r="H12" s="362"/>
-      <c r="I12" s="362"/>
+      <c r="G12" s="358"/>
+      <c r="H12" s="358"/>
+      <c r="I12" s="358"/>
       <c r="J12" s="96"/>
       <c r="K12" s="96"/>
       <c r="L12" s="96"/>
@@ -10785,20 +10785,20 @@
       <c r="AP12" s="81"/>
       <c r="AQ12" s="81"/>
       <c r="AR12" s="81"/>
-      <c r="AS12" s="358"/>
-      <c r="AT12" s="359"/>
-      <c r="AU12" s="359"/>
-      <c r="AV12" s="359"/>
-      <c r="AW12" s="359"/>
-      <c r="AX12" s="359"/>
-      <c r="AY12" s="359"/>
-      <c r="AZ12" s="359"/>
-      <c r="BA12" s="359"/>
-      <c r="BB12" s="359"/>
-      <c r="BC12" s="359"/>
-      <c r="BD12" s="359"/>
-      <c r="BE12" s="359"/>
-      <c r="BF12" s="360"/>
+      <c r="AS12" s="361"/>
+      <c r="AT12" s="362"/>
+      <c r="AU12" s="362"/>
+      <c r="AV12" s="362"/>
+      <c r="AW12" s="362"/>
+      <c r="AX12" s="362"/>
+      <c r="AY12" s="362"/>
+      <c r="AZ12" s="362"/>
+      <c r="BA12" s="362"/>
+      <c r="BB12" s="362"/>
+      <c r="BC12" s="362"/>
+      <c r="BD12" s="362"/>
+      <c r="BE12" s="362"/>
+      <c r="BF12" s="363"/>
     </row>
     <row r="13" spans="1:58" ht="13.5" customHeight="1">
       <c r="A13" s="80"/>
@@ -10807,9 +10807,9 @@
       <c r="D13" s="96"/>
       <c r="E13" s="96"/>
       <c r="F13" s="96"/>
-      <c r="G13" s="362"/>
-      <c r="H13" s="362"/>
-      <c r="I13" s="362"/>
+      <c r="G13" s="358"/>
+      <c r="H13" s="358"/>
+      <c r="I13" s="358"/>
       <c r="J13" s="96"/>
       <c r="K13" s="96"/>
       <c r="L13" s="96"/>
@@ -10845,20 +10845,20 @@
       <c r="AP13" s="81"/>
       <c r="AQ13" s="81"/>
       <c r="AR13" s="81"/>
-      <c r="AS13" s="358"/>
-      <c r="AT13" s="359"/>
-      <c r="AU13" s="359"/>
-      <c r="AV13" s="359"/>
-      <c r="AW13" s="359"/>
-      <c r="AX13" s="359"/>
-      <c r="AY13" s="359"/>
-      <c r="AZ13" s="359"/>
-      <c r="BA13" s="359"/>
-      <c r="BB13" s="359"/>
-      <c r="BC13" s="359"/>
-      <c r="BD13" s="359"/>
-      <c r="BE13" s="359"/>
-      <c r="BF13" s="360"/>
+      <c r="AS13" s="361"/>
+      <c r="AT13" s="362"/>
+      <c r="AU13" s="362"/>
+      <c r="AV13" s="362"/>
+      <c r="AW13" s="362"/>
+      <c r="AX13" s="362"/>
+      <c r="AY13" s="362"/>
+      <c r="AZ13" s="362"/>
+      <c r="BA13" s="362"/>
+      <c r="BB13" s="362"/>
+      <c r="BC13" s="362"/>
+      <c r="BD13" s="362"/>
+      <c r="BE13" s="362"/>
+      <c r="BF13" s="363"/>
     </row>
     <row r="14" spans="1:58" ht="13.5" customHeight="1">
       <c r="A14" s="80"/>
@@ -13678,6 +13678,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AS6:BF13"/>
+    <mergeCell ref="T1:Z1"/>
+    <mergeCell ref="AA1:AQ1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="AW3:BA3"/>
     <mergeCell ref="G8:P8"/>
     <mergeCell ref="G10:P10"/>
     <mergeCell ref="G12:I13"/>
@@ -13694,12 +13700,6 @@
     <mergeCell ref="AG3:AV3"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="I1:S1"/>
-    <mergeCell ref="AS6:BF13"/>
-    <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="AA1:AQ1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="AW3:BA3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -13745,25 +13745,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A1" s="331" t="s">
+      <c r="A1" s="343" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="333"/>
-      <c r="C1" s="331" t="s">
+      <c r="B1" s="345"/>
+      <c r="C1" s="343" t="s">
         <v>256</v>
       </c>
-      <c r="D1" s="332"/>
-      <c r="E1" s="332"/>
-      <c r="F1" s="333"/>
-      <c r="G1" s="331" t="s">
+      <c r="D1" s="344"/>
+      <c r="E1" s="344"/>
+      <c r="F1" s="345"/>
+      <c r="G1" s="343" t="s">
         <v>257</v>
       </c>
-      <c r="H1" s="332"/>
-      <c r="I1" s="333"/>
-      <c r="J1" s="331" t="s">
+      <c r="H1" s="344"/>
+      <c r="I1" s="345"/>
+      <c r="J1" s="343" t="s">
         <v>270</v>
       </c>
-      <c r="K1" s="333"/>
+      <c r="K1" s="345"/>
       <c r="L1" s="15" t="s">
         <v>271</v>
       </c>
@@ -13810,11 +13810,11 @@
       </c>
       <c r="H2" s="374"/>
       <c r="I2" s="371"/>
-      <c r="J2" s="339" t="str">
+      <c r="J2" s="350" t="str">
         <f>Cover!R19</f>
         <v>Add student</v>
       </c>
-      <c r="K2" s="341"/>
+      <c r="K2" s="352"/>
       <c r="L2" s="40" t="str">
         <f>Cover!I19</f>
         <v>0-0</v>
@@ -13857,11 +13857,11 @@
       <c r="J3" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="K3" s="339" t="str">
+      <c r="K3" s="350" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Item definition</v>
       </c>
-      <c r="L3" s="341"/>
+      <c r="L3" s="352"/>
       <c r="M3" s="94">
         <v>44504</v>
       </c>
@@ -17008,7 +17008,7 @@
   </sheetPr>
   <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="9" ySplit="8" topLeftCell="J9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="S3" sqref="S3"/>
       <selection pane="topRight" activeCell="S3" sqref="S3"/>
@@ -17034,28 +17034,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A1" s="331" t="str">
+      <c r="A1" s="343" t="str">
         <f>Cover!A5</f>
         <v>詳細設計書</v>
       </c>
-      <c r="B1" s="333"/>
-      <c r="C1" s="331" t="s">
+      <c r="B1" s="345"/>
+      <c r="C1" s="343" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="332"/>
-      <c r="E1" s="332"/>
-      <c r="F1" s="333"/>
-      <c r="G1" s="331" t="s">
+      <c r="D1" s="344"/>
+      <c r="E1" s="344"/>
+      <c r="F1" s="345"/>
+      <c r="G1" s="343" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="332"/>
-      <c r="I1" s="333"/>
-      <c r="J1" s="331" t="s">
+      <c r="H1" s="344"/>
+      <c r="I1" s="345"/>
+      <c r="J1" s="343" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="332"/>
-      <c r="L1" s="332"/>
-      <c r="M1" s="333"/>
+      <c r="K1" s="344"/>
+      <c r="L1" s="344"/>
+      <c r="M1" s="345"/>
       <c r="N1" s="24" t="s">
         <v>20</v>
       </c>
@@ -17084,13 +17084,13 @@
       </c>
       <c r="H2" s="374"/>
       <c r="I2" s="371"/>
-      <c r="J2" s="339" t="str">
+      <c r="J2" s="350" t="str">
         <f>Cover!R19</f>
         <v>Add student</v>
       </c>
-      <c r="K2" s="340"/>
-      <c r="L2" s="340"/>
-      <c r="M2" s="341"/>
+      <c r="K2" s="351"/>
+      <c r="L2" s="351"/>
+      <c r="M2" s="352"/>
       <c r="N2" s="40" t="str">
         <f>Cover!I19</f>
         <v>0-0</v>
@@ -17112,16 +17112,16 @@
       <c r="G3" s="372"/>
       <c r="H3" s="375"/>
       <c r="I3" s="373"/>
-      <c r="J3" s="331" t="s">
+      <c r="J3" s="343" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="333"/>
-      <c r="L3" s="339" t="str">
+      <c r="K3" s="345"/>
+      <c r="L3" s="350" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Input check</v>
       </c>
-      <c r="M3" s="340"/>
-      <c r="N3" s="341"/>
+      <c r="M3" s="351"/>
+      <c r="N3" s="352"/>
       <c r="O3" s="256">
         <v>44508</v>
       </c>
@@ -18824,17 +18824,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="F7:G7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:B3"/>
     <mergeCell ref="C2:F3"/>
     <mergeCell ref="G2:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="8">
@@ -18890,8 +18890,8 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:I11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -18907,15 +18907,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14">
-      <c r="A1" s="380" t="s">
+      <c r="A1" s="378" t="s">
         <v>336</v>
       </c>
-      <c r="B1" s="382" t="s">
+      <c r="B1" s="380" t="s">
         <v>256</v>
       </c>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="384"/>
+      <c r="C1" s="381"/>
+      <c r="D1" s="381"/>
+      <c r="E1" s="382"/>
       <c r="F1" s="230" t="s">
         <v>337</v>
       </c>
@@ -18930,13 +18930,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="14">
-      <c r="A2" s="381"/>
-      <c r="B2" s="385" t="s">
+      <c r="A2" s="379"/>
+      <c r="B2" s="383" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="386"/>
-      <c r="D2" s="386"/>
-      <c r="E2" s="387"/>
+      <c r="C2" s="384"/>
+      <c r="D2" s="384"/>
+      <c r="E2" s="385"/>
       <c r="F2" s="147" t="s">
         <v>267</v>
       </c>
@@ -18977,14 +18977,14 @@
       <c r="E4" s="150" t="s">
         <v>350</v>
       </c>
-      <c r="F4" s="388" t="s">
+      <c r="F4" s="386" t="s">
         <v>344</v>
       </c>
-      <c r="G4" s="389"/>
-      <c r="H4" s="388" t="s">
+      <c r="G4" s="387"/>
+      <c r="H4" s="386" t="s">
         <v>345</v>
       </c>
-      <c r="I4" s="390"/>
+      <c r="I4" s="388"/>
     </row>
     <row r="5" spans="1:9" ht="31.5" customHeight="1">
       <c r="A5" s="138" t="s">
@@ -19009,7 +19009,7 @@
       <c r="H5" s="376" t="s">
         <v>352</v>
       </c>
-      <c r="I5" s="379"/>
+      <c r="I5" s="377"/>
     </row>
     <row r="6" spans="1:9" ht="14">
       <c r="A6" s="138" t="s">
@@ -19098,10 +19098,10 @@
       <c r="E9" s="155" t="s">
         <v>364</v>
       </c>
-      <c r="F9" s="377" t="s">
+      <c r="F9" s="389" t="s">
         <v>467</v>
       </c>
-      <c r="G9" s="377"/>
+      <c r="G9" s="389"/>
       <c r="H9" s="376"/>
       <c r="I9" s="376"/>
     </row>
@@ -19125,8 +19125,8 @@
         <v>367</v>
       </c>
       <c r="G10" s="376"/>
-      <c r="H10" s="378"/>
-      <c r="I10" s="378"/>
+      <c r="H10" s="390"/>
+      <c r="I10" s="390"/>
     </row>
     <row r="11" spans="1:9" ht="31" customHeight="1">
       <c r="A11" s="138" t="s">
@@ -19144,10 +19144,10 @@
       <c r="E11" s="136" t="s">
         <v>372</v>
       </c>
-      <c r="F11" s="377" t="s">
+      <c r="F11" s="389" t="s">
         <v>465</v>
       </c>
-      <c r="G11" s="377"/>
+      <c r="G11" s="389"/>
       <c r="H11" s="376" t="s">
         <v>373</v>
       </c>
@@ -19203,19 +19203,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="F13:G13"/>
@@ -19226,6 +19213,19 @@
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" orientation="landscape" r:id="rId1"/>
@@ -19261,210 +19261,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:53" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A1" s="363" t="s">
+      <c r="A1" s="360" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="330"/>
-      <c r="C1" s="330"/>
-      <c r="D1" s="330"/>
-      <c r="E1" s="330"/>
-      <c r="F1" s="330"/>
-      <c r="G1" s="330"/>
-      <c r="H1" s="330"/>
-      <c r="I1" s="330" t="s">
+      <c r="B1" s="342"/>
+      <c r="C1" s="342"/>
+      <c r="D1" s="342"/>
+      <c r="E1" s="342"/>
+      <c r="F1" s="342"/>
+      <c r="G1" s="342"/>
+      <c r="H1" s="342"/>
+      <c r="I1" s="342" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="330"/>
-      <c r="K1" s="330"/>
-      <c r="L1" s="330"/>
-      <c r="M1" s="330"/>
-      <c r="N1" s="330"/>
-      <c r="O1" s="330"/>
-      <c r="P1" s="330"/>
-      <c r="Q1" s="330"/>
-      <c r="R1" s="330"/>
-      <c r="S1" s="330"/>
-      <c r="T1" s="330" t="s">
+      <c r="J1" s="342"/>
+      <c r="K1" s="342"/>
+      <c r="L1" s="342"/>
+      <c r="M1" s="342"/>
+      <c r="N1" s="342"/>
+      <c r="O1" s="342"/>
+      <c r="P1" s="342"/>
+      <c r="Q1" s="342"/>
+      <c r="R1" s="342"/>
+      <c r="S1" s="342"/>
+      <c r="T1" s="342" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="330"/>
-      <c r="V1" s="330"/>
-      <c r="W1" s="330"/>
-      <c r="X1" s="330"/>
-      <c r="Y1" s="330"/>
-      <c r="Z1" s="330"/>
-      <c r="AA1" s="331" t="s">
+      <c r="U1" s="342"/>
+      <c r="V1" s="342"/>
+      <c r="W1" s="342"/>
+      <c r="X1" s="342"/>
+      <c r="Y1" s="342"/>
+      <c r="Z1" s="342"/>
+      <c r="AA1" s="343" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="332"/>
-      <c r="AC1" s="332"/>
-      <c r="AD1" s="332"/>
-      <c r="AE1" s="332"/>
-      <c r="AF1" s="332"/>
-      <c r="AG1" s="332"/>
-      <c r="AH1" s="332"/>
-      <c r="AI1" s="332"/>
-      <c r="AJ1" s="332"/>
-      <c r="AK1" s="332"/>
-      <c r="AL1" s="332"/>
-      <c r="AM1" s="332"/>
-      <c r="AN1" s="333"/>
-      <c r="AO1" s="331" t="s">
+      <c r="AB1" s="344"/>
+      <c r="AC1" s="344"/>
+      <c r="AD1" s="344"/>
+      <c r="AE1" s="344"/>
+      <c r="AF1" s="344"/>
+      <c r="AG1" s="344"/>
+      <c r="AH1" s="344"/>
+      <c r="AI1" s="344"/>
+      <c r="AJ1" s="344"/>
+      <c r="AK1" s="344"/>
+      <c r="AL1" s="344"/>
+      <c r="AM1" s="344"/>
+      <c r="AN1" s="345"/>
+      <c r="AO1" s="343" t="s">
         <v>20</v>
       </c>
-      <c r="AP1" s="332"/>
-      <c r="AQ1" s="333"/>
-      <c r="AR1" s="344" t="s">
+      <c r="AP1" s="344"/>
+      <c r="AQ1" s="345"/>
+      <c r="AR1" s="355" t="s">
         <v>21</v>
       </c>
-      <c r="AS1" s="344"/>
-      <c r="AT1" s="330"/>
-      <c r="AU1" s="330"/>
-      <c r="AV1" s="330"/>
-      <c r="AW1" s="330" t="s">
+      <c r="AS1" s="355"/>
+      <c r="AT1" s="342"/>
+      <c r="AU1" s="342"/>
+      <c r="AV1" s="342"/>
+      <c r="AW1" s="342" t="s">
         <v>36</v>
       </c>
-      <c r="AX1" s="330"/>
-      <c r="AY1" s="330"/>
-      <c r="AZ1" s="330"/>
-      <c r="BA1" s="330"/>
+      <c r="AX1" s="342"/>
+      <c r="AY1" s="342"/>
+      <c r="AZ1" s="342"/>
+      <c r="BA1" s="342"/>
     </row>
     <row r="2" spans="1:53" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A2" s="334" t="s">
+      <c r="A2" s="346" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="334"/>
-      <c r="C2" s="334"/>
-      <c r="D2" s="334"/>
-      <c r="E2" s="334"/>
-      <c r="F2" s="334"/>
-      <c r="G2" s="334"/>
-      <c r="H2" s="334"/>
-      <c r="I2" s="334" t="str">
+      <c r="B2" s="346"/>
+      <c r="C2" s="346"/>
+      <c r="D2" s="346"/>
+      <c r="E2" s="346"/>
+      <c r="F2" s="346"/>
+      <c r="G2" s="346"/>
+      <c r="H2" s="346"/>
+      <c r="I2" s="346" t="str">
         <f>Cover!I12</f>
         <v>Manage Student</v>
       </c>
-      <c r="J2" s="334"/>
-      <c r="K2" s="334"/>
-      <c r="L2" s="334"/>
-      <c r="M2" s="334"/>
-      <c r="N2" s="334"/>
-      <c r="O2" s="334"/>
-      <c r="P2" s="334"/>
-      <c r="Q2" s="334"/>
-      <c r="R2" s="334"/>
-      <c r="S2" s="334"/>
-      <c r="T2" s="334" t="str">
+      <c r="J2" s="346"/>
+      <c r="K2" s="346"/>
+      <c r="L2" s="346"/>
+      <c r="M2" s="346"/>
+      <c r="N2" s="346"/>
+      <c r="O2" s="346"/>
+      <c r="P2" s="346"/>
+      <c r="Q2" s="346"/>
+      <c r="R2" s="346"/>
+      <c r="S2" s="346"/>
+      <c r="T2" s="346" t="str">
         <f>Cover!I15</f>
         <v>GMO_management_Student</v>
       </c>
-      <c r="U2" s="334"/>
-      <c r="V2" s="334"/>
-      <c r="W2" s="334"/>
-      <c r="X2" s="334"/>
-      <c r="Y2" s="334"/>
-      <c r="Z2" s="334"/>
-      <c r="AA2" s="339" t="str">
+      <c r="U2" s="346"/>
+      <c r="V2" s="346"/>
+      <c r="W2" s="346"/>
+      <c r="X2" s="346"/>
+      <c r="Y2" s="346"/>
+      <c r="Z2" s="346"/>
+      <c r="AA2" s="350" t="str">
         <f>Cover!R19</f>
         <v>Add student</v>
       </c>
-      <c r="AB2" s="340"/>
-      <c r="AC2" s="340"/>
-      <c r="AD2" s="340"/>
-      <c r="AE2" s="340"/>
-      <c r="AF2" s="340"/>
-      <c r="AG2" s="340"/>
-      <c r="AH2" s="340"/>
-      <c r="AI2" s="340"/>
-      <c r="AJ2" s="340"/>
-      <c r="AK2" s="340"/>
-      <c r="AL2" s="340"/>
-      <c r="AM2" s="340"/>
-      <c r="AN2" s="341"/>
+      <c r="AB2" s="351"/>
+      <c r="AC2" s="351"/>
+      <c r="AD2" s="351"/>
+      <c r="AE2" s="351"/>
+      <c r="AF2" s="351"/>
+      <c r="AG2" s="351"/>
+      <c r="AH2" s="351"/>
+      <c r="AI2" s="351"/>
+      <c r="AJ2" s="351"/>
+      <c r="AK2" s="351"/>
+      <c r="AL2" s="351"/>
+      <c r="AM2" s="351"/>
+      <c r="AN2" s="352"/>
       <c r="AO2" s="391" t="str">
         <f>Cover!I19</f>
         <v>0-0</v>
       </c>
       <c r="AP2" s="392"/>
       <c r="AQ2" s="393"/>
-      <c r="AR2" s="335" t="s">
+      <c r="AR2" s="329" t="s">
         <v>267</v>
       </c>
-      <c r="AS2" s="335"/>
-      <c r="AT2" s="335"/>
-      <c r="AU2" s="335"/>
-      <c r="AV2" s="335"/>
-      <c r="AW2" s="335" t="s">
+      <c r="AS2" s="329"/>
+      <c r="AT2" s="329"/>
+      <c r="AU2" s="329"/>
+      <c r="AV2" s="329"/>
+      <c r="AW2" s="329" t="s">
         <v>267</v>
       </c>
-      <c r="AX2" s="335"/>
-      <c r="AY2" s="335"/>
-      <c r="AZ2" s="335"/>
-      <c r="BA2" s="335"/>
+      <c r="AX2" s="329"/>
+      <c r="AY2" s="329"/>
+      <c r="AZ2" s="329"/>
+      <c r="BA2" s="329"/>
     </row>
     <row r="3" spans="1:53" s="17" customFormat="1" ht="15.65" customHeight="1">
-      <c r="A3" s="334"/>
-      <c r="B3" s="334"/>
-      <c r="C3" s="334"/>
-      <c r="D3" s="334"/>
-      <c r="E3" s="334"/>
-      <c r="F3" s="334"/>
-      <c r="G3" s="334"/>
-      <c r="H3" s="334"/>
-      <c r="I3" s="334"/>
-      <c r="J3" s="334"/>
-      <c r="K3" s="334"/>
-      <c r="L3" s="334"/>
-      <c r="M3" s="334"/>
-      <c r="N3" s="334"/>
-      <c r="O3" s="334"/>
-      <c r="P3" s="334"/>
-      <c r="Q3" s="334"/>
-      <c r="R3" s="334"/>
-      <c r="S3" s="334"/>
-      <c r="T3" s="334"/>
-      <c r="U3" s="334"/>
-      <c r="V3" s="334"/>
-      <c r="W3" s="334"/>
-      <c r="X3" s="334"/>
-      <c r="Y3" s="334"/>
-      <c r="Z3" s="334"/>
-      <c r="AA3" s="331" t="s">
+      <c r="A3" s="346"/>
+      <c r="B3" s="346"/>
+      <c r="C3" s="346"/>
+      <c r="D3" s="346"/>
+      <c r="E3" s="346"/>
+      <c r="F3" s="346"/>
+      <c r="G3" s="346"/>
+      <c r="H3" s="346"/>
+      <c r="I3" s="346"/>
+      <c r="J3" s="346"/>
+      <c r="K3" s="346"/>
+      <c r="L3" s="346"/>
+      <c r="M3" s="346"/>
+      <c r="N3" s="346"/>
+      <c r="O3" s="346"/>
+      <c r="P3" s="346"/>
+      <c r="Q3" s="346"/>
+      <c r="R3" s="346"/>
+      <c r="S3" s="346"/>
+      <c r="T3" s="346"/>
+      <c r="U3" s="346"/>
+      <c r="V3" s="346"/>
+      <c r="W3" s="346"/>
+      <c r="X3" s="346"/>
+      <c r="Y3" s="346"/>
+      <c r="Z3" s="346"/>
+      <c r="AA3" s="343" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="332"/>
-      <c r="AC3" s="332"/>
-      <c r="AD3" s="332"/>
-      <c r="AE3" s="332"/>
-      <c r="AF3" s="333"/>
-      <c r="AG3" s="339" t="str">
+      <c r="AB3" s="344"/>
+      <c r="AC3" s="344"/>
+      <c r="AD3" s="344"/>
+      <c r="AE3" s="344"/>
+      <c r="AF3" s="345"/>
+      <c r="AG3" s="350" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>Processing description</v>
       </c>
-      <c r="AH3" s="340"/>
-      <c r="AI3" s="340"/>
-      <c r="AJ3" s="340"/>
-      <c r="AK3" s="340"/>
-      <c r="AL3" s="340"/>
-      <c r="AM3" s="340"/>
-      <c r="AN3" s="340"/>
-      <c r="AO3" s="340"/>
-      <c r="AP3" s="340"/>
-      <c r="AQ3" s="341"/>
-      <c r="AR3" s="361">
+      <c r="AH3" s="351"/>
+      <c r="AI3" s="351"/>
+      <c r="AJ3" s="351"/>
+      <c r="AK3" s="351"/>
+      <c r="AL3" s="351"/>
+      <c r="AM3" s="351"/>
+      <c r="AN3" s="351"/>
+      <c r="AO3" s="351"/>
+      <c r="AP3" s="351"/>
+      <c r="AQ3" s="352"/>
+      <c r="AR3" s="359">
         <v>44327</v>
       </c>
-      <c r="AS3" s="361"/>
-      <c r="AT3" s="361"/>
-      <c r="AU3" s="361"/>
-      <c r="AV3" s="361"/>
-      <c r="AW3" s="361">
+      <c r="AS3" s="359"/>
+      <c r="AT3" s="359"/>
+      <c r="AU3" s="359"/>
+      <c r="AV3" s="359"/>
+      <c r="AW3" s="359">
         <v>44327</v>
       </c>
-      <c r="AX3" s="361"/>
-      <c r="AY3" s="361"/>
-      <c r="AZ3" s="361"/>
-      <c r="BA3" s="361"/>
+      <c r="AX3" s="359"/>
+      <c r="AY3" s="359"/>
+      <c r="AZ3" s="359"/>
+      <c r="BA3" s="359"/>
     </row>
     <row r="4" spans="1:53" s="17" customFormat="1" ht="12"/>
     <row r="5" spans="1:53" ht="13.5" customHeight="1">
@@ -41800,6 +41800,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:S1"/>
+    <mergeCell ref="T1:Z1"/>
+    <mergeCell ref="AA1:AN1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:S3"/>
+    <mergeCell ref="T2:Z3"/>
+    <mergeCell ref="AA2:AN2"/>
+    <mergeCell ref="AR2:AV2"/>
+    <mergeCell ref="AO2:AQ2"/>
     <mergeCell ref="AW2:BA2"/>
     <mergeCell ref="AA3:AF3"/>
     <mergeCell ref="AR3:AV3"/>
@@ -41807,17 +41818,6 @@
     <mergeCell ref="AW1:BA1"/>
     <mergeCell ref="AO1:AQ1"/>
     <mergeCell ref="AG3:AQ3"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:S3"/>
-    <mergeCell ref="T2:Z3"/>
-    <mergeCell ref="AA2:AN2"/>
-    <mergeCell ref="AR2:AV2"/>
-    <mergeCell ref="AO2:AQ2"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:S1"/>
-    <mergeCell ref="T1:Z1"/>
-    <mergeCell ref="AA1:AN1"/>
-    <mergeCell ref="AR1:AV1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
